--- a/00Consolidado Tablas Madre.xlsx
+++ b/00Consolidado Tablas Madre.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolinamario/DATA INTELLIGENCE Dropbox/Diseño DATA's/Tablas Madre/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C0FA60-FBC2-E545-8933-168B31CACD59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D11FD4B-E0AC-403E-AF20-3CDDE5CB105B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidado" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="170">
   <si>
     <t>Código Tabla</t>
   </si>
@@ -511,6 +511,30 @@
   </si>
   <si>
     <t>https://www.dropbox.com/s/a530lnvi1h5v858/2.3.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Resumen_Total_IPT</t>
+  </si>
+  <si>
+    <t>Vigentes_IPT</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Todos los IPT que existen por comuna y nombre del archivo</t>
+  </si>
+  <si>
+    <t>Observatorio Urbano</t>
+  </si>
+  <si>
+    <t>http://seguimientoipt.minvu.cl/main.php</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/8dez9vq15hla56l/7.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Todos los IPT vigentes por comuna, nombre y archivos con link de cada archivo</t>
   </si>
 </sst>
 </file>
@@ -600,8 +624,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A1:J34" totalsRowShown="0">
-  <autoFilter ref="A1:J34" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A1:J36" totalsRowShown="0">
+  <autoFilter ref="A1:J36" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{7C5348D6-A85E-4EC9-97BD-67166306597F}" name="Código Tabla" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{7A5582C2-7407-47EE-99EF-324377D124AB}" name="Nombre Tabla"/>
@@ -915,27 +939,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD49B1B1-33D3-49D9-BF85-AA2E2407F985}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="25.1640625" customWidth="1"/>
-    <col min="7" max="7" width="50.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -967,7 +991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -999,7 +1023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>50</v>
       </c>
@@ -1031,7 +1055,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -1055,7 +1079,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4.2</v>
       </c>
@@ -1079,7 +1103,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>36</v>
       </c>
@@ -1111,7 +1135,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>47</v>
       </c>
@@ -1143,7 +1167,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>48</v>
       </c>
@@ -1175,7 +1199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -1205,7 +1229,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -1235,7 +1259,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>4.3</v>
       </c>
@@ -1259,7 +1283,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -1283,7 +1307,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>72</v>
       </c>
@@ -1313,7 +1337,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>73</v>
       </c>
@@ -1343,7 +1367,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>74</v>
       </c>
@@ -1373,7 +1397,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>75</v>
       </c>
@@ -1403,7 +1427,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>76</v>
       </c>
@@ -1433,7 +1457,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>77</v>
       </c>
@@ -1463,7 +1487,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>78</v>
       </c>
@@ -1493,7 +1517,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>79</v>
       </c>
@@ -1523,7 +1547,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>80</v>
       </c>
@@ -1553,7 +1577,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>81</v>
       </c>
@@ -1583,7 +1607,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>82</v>
       </c>
@@ -1613,7 +1637,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>83</v>
       </c>
@@ -1643,7 +1667,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>84</v>
       </c>
@@ -1673,7 +1697,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>85</v>
       </c>
@@ -1703,7 +1727,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>86</v>
       </c>
@@ -1733,7 +1757,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>87</v>
       </c>
@@ -1763,7 +1787,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>88</v>
       </c>
@@ -1793,7 +1817,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>89</v>
       </c>
@@ -1823,7 +1847,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>90</v>
       </c>
@@ -1853,7 +1877,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>91</v>
       </c>
@@ -1883,7 +1907,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>92</v>
       </c>
@@ -1913,7 +1937,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>157</v>
       </c>
@@ -1943,6 +1967,70 @@
       </c>
       <c r="J34" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>166</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>163</v>
+      </c>
+      <c r="C36" t="s">
+        <v>169</v>
+      </c>
+      <c r="D36" t="s">
+        <v>164</v>
+      </c>
+      <c r="E36" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>166</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J36" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/00Consolidado Tablas Madre.xlsx
+++ b/00Consolidado Tablas Madre.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojas.DESKTOP-91OCPB2\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D11FD4B-E0AC-403E-AF20-3CDDE5CB105B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A66528D-E2AB-4F90-B79E-8ED95BF5CEDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidado" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="165">
   <si>
     <t>Código Tabla</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Método de Actualización (manual, automático, etc)</t>
   </si>
   <si>
-    <t>2.1</t>
-  </si>
-  <si>
     <t>Cantidad de Establecimientos de la Salud en Chile, Privados y Públicos</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t xml:space="preserve">Andrés Sebastian </t>
   </si>
   <si>
-    <t>US$ , KG</t>
-  </si>
-  <si>
     <t>Exportaciones_fruta_tonelada</t>
   </si>
   <si>
@@ -135,9 +129,6 @@
     <t>https://www.dropbox.com/s/xgfvod0d56tj13f/4.2.xlsx?dl=0</t>
   </si>
   <si>
-    <t>3.1</t>
-  </si>
-  <si>
     <t>Frecuencia de delitos por tipo de delito, tipo de información, año, trimestre y lugar.</t>
   </si>
   <si>
@@ -168,18 +159,9 @@
     <t>Tasa por 100 mil habitantes de delitos por tipo de delito, tipo de información, año, trimestre y lugar.</t>
   </si>
   <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
     <t>Farmacias_Chile</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
     <t>Empresas_por_Tamaño</t>
   </si>
   <si>
@@ -225,9 +207,6 @@
     <t>https://www.dropbox.com/s/28g6tsk9bdon8k0/4.3.xlsx?dl=0</t>
   </si>
   <si>
-    <t>Número}</t>
-  </si>
-  <si>
     <t>Importaciones_fruta_tonelada</t>
   </si>
   <si>
@@ -243,69 +222,6 @@
     <t>https://www.dropbox.com/s/jt997tm4yxw3w1e/4.4.xlsx?dl=0</t>
   </si>
   <si>
-    <t>6.1</t>
-  </si>
-  <si>
-    <t>6.2</t>
-  </si>
-  <si>
-    <t>6.3</t>
-  </si>
-  <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>6.5</t>
-  </si>
-  <si>
-    <t>6.6</t>
-  </si>
-  <si>
-    <t>6.7</t>
-  </si>
-  <si>
-    <t>6.8</t>
-  </si>
-  <si>
-    <t>6.9</t>
-  </si>
-  <si>
-    <t>6.10</t>
-  </si>
-  <si>
-    <t>6.11</t>
-  </si>
-  <si>
-    <t>6.12</t>
-  </si>
-  <si>
-    <t>6.13</t>
-  </si>
-  <si>
-    <t>6.14</t>
-  </si>
-  <si>
-    <t>6.15</t>
-  </si>
-  <si>
-    <t>6.16</t>
-  </si>
-  <si>
-    <t>6.17</t>
-  </si>
-  <si>
-    <t>6.18</t>
-  </si>
-  <si>
-    <t>6.19</t>
-  </si>
-  <si>
-    <t>6.20</t>
-  </si>
-  <si>
-    <t>6.21</t>
-  </si>
-  <si>
     <t>Empresas_Rubro_A</t>
   </si>
   <si>
@@ -486,30 +402,18 @@
     <t>https://www.dropbox.com/s/scwmtfaq4wn5nrm/6.20.xlsx?dl=0</t>
   </si>
   <si>
-    <t>Diaria</t>
-  </si>
-  <si>
-    <t>API</t>
-  </si>
-  <si>
     <t>Datos.gob</t>
   </si>
   <si>
     <t>https://datos.gob.cl/dataset/farmacias-en-chile</t>
   </si>
   <si>
-    <t>2.3</t>
-  </si>
-  <si>
     <t>Farmacias_Turno_Chile</t>
   </si>
   <si>
     <t>Cantidad de Farmacias de turno por comuna en Chile</t>
   </si>
   <si>
-    <t>Cantidad</t>
-  </si>
-  <si>
     <t>https://www.dropbox.com/s/a530lnvi1h5v858/2.3.xlsx?dl=0</t>
   </si>
   <si>
@@ -535,6 +439,87 @@
   </si>
   <si>
     <t>Todos los IPT vigentes por comuna, nombre y archivos con link de cada archivo</t>
+  </si>
+  <si>
+    <t>Cada 2 semanas</t>
+  </si>
+  <si>
+    <t>Directorio_establecimiento</t>
+  </si>
+  <si>
+    <t>http://datos.mineduc.cl/dashboards/20015/descarga-bases-de-datos-directorio-de-establecimientos-educacionales/</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/6gj1p24jc4x1mvq/00%20BD%20Directorio%20establecimientos.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Silvia Valdes</t>
+  </si>
+  <si>
+    <t>Procesos_Agroindustriales_fruta</t>
+  </si>
+  <si>
+    <t>Cantidad en kilos de fruta procesada por comuna, según especie de fruta, tipo de empresa, tipo de envase, destino, tipo de dueño, número de empleados, tipo de procesamiento.</t>
+  </si>
+  <si>
+    <t>Kilo</t>
+  </si>
+  <si>
+    <t>Empresas_Agricultura</t>
+  </si>
+  <si>
+    <t>Cantidad de empresas del rubro de la agricultura, por subrubro económico, actividad económica (especie plantada/cultivada), tamaño de empresa, razón social, RUT.</t>
+  </si>
+  <si>
+    <t>US$</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/t40e6ylpsnhew6q/4.5.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/p3nr5swcck0r46h/4.6.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Directorio de establecimientos educacionales, ubicación, depencia, ruralidad y orientacion religiosa</t>
+  </si>
+  <si>
+    <t>Ministerio de Educación</t>
+  </si>
+  <si>
+    <t>Monumentos_Nacionales_Conteo</t>
+  </si>
+  <si>
+    <t>Consejo de Monumentos Nacionales de Chile</t>
+  </si>
+  <si>
+    <t>https://www.monumentos.gob.cl/monumentos</t>
+  </si>
+  <si>
+    <t>Natalia Arancibia</t>
+  </si>
+  <si>
+    <t>Cantidad de monumentos nacionales por tipo y por región.</t>
+  </si>
+  <si>
+    <t>US$ , Kilo</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/su4hdsjf5yweilt/11.1.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Sentencias_JGarantia_Freq</t>
+  </si>
+  <si>
+    <t>Frecuencia de sentencias por Juzgado de Garantía, delito, región y mes</t>
+  </si>
+  <si>
+    <t>Poder Judicial</t>
+  </si>
+  <si>
+    <t>https://www2.pjud.cl/web/guest/cuadro-resumen-estadisticas-anuales-del-poder-judicial-ano-2007-a-2016</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/shnt3bnuh87m4xf/3.3.xlsx?dl=0</t>
   </si>
 </sst>
 </file>
@@ -591,7 +576,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -601,6 +586,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -624,8 +612,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A1:J36" totalsRowShown="0">
-  <autoFilter ref="A1:J36" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A1:J41" totalsRowShown="0">
+  <autoFilter ref="A1:J41" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J39">
+    <sortCondition ref="A1:A39"/>
+  </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{7C5348D6-A85E-4EC9-97BD-67166306597F}" name="Código Tabla" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{7A5582C2-7407-47EE-99EF-324377D124AB}" name="Nombre Tabla"/>
@@ -939,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD49B1B1-33D3-49D9-BF85-AA2E2407F985}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,8 +942,8 @@
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="64.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
     <col min="7" max="7" width="50.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
@@ -992,1061 +983,1228 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D8" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
         <v>31</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>4.2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F8" t="s">
-        <v>154</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="1" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>6</v>
+        <v>4.3</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="3"/>
       <c r="I11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="3"/>
       <c r="I12" s="1" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="J12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>72</v>
+      <c r="A13" s="4">
+        <v>4.5999999999999996</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="D13" t="s">
+        <v>145</v>
+      </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="1" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="J13" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>73</v>
+      <c r="A14" s="4">
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" t="s">
-        <v>95</v>
-      </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="J15" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>75</v>
+      <c r="A16" s="7">
+        <v>6.1</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="J16" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>76</v>
+      <c r="A17" s="7">
+        <v>6.1</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="J17" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>77</v>
+      <c r="A18" s="7">
+        <v>6.11</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="J18" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>78</v>
+      <c r="A19" s="7">
+        <v>6.12</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="J19" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>79</v>
+      <c r="A20" s="7">
+        <v>6.13</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="J20" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>80</v>
+      <c r="A21" s="7">
+        <v>6.14</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="J21" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>81</v>
+      <c r="A22" s="7">
+        <v>6.15</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="J22" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>82</v>
+      <c r="A23" s="7">
+        <v>6.16</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="J23" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>83</v>
+      <c r="A24" s="7">
+        <v>6.17</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="J24" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>84</v>
+      <c r="A25" s="7">
+        <v>6.18</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="J25" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>85</v>
+      <c r="A26" s="7">
+        <v>6.19</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="J26" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>86</v>
+      <c r="A27" s="7">
+        <v>6.2</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G27" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="J27" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>87</v>
+      <c r="A28" s="7">
+        <v>6.2</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G28" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="J28" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>88</v>
+      <c r="A29" s="7">
+        <v>6.21</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G29" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="J29" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>89</v>
+      <c r="A30" s="7">
+        <v>6.3</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G30" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="J30" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>90</v>
+      <c r="A31" s="7">
+        <v>6.4</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="J31" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>91</v>
+      <c r="A32" s="7">
+        <v>6.5</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G32" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="J32" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>92</v>
+      <c r="A33" s="7">
+        <v>6.6</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G33" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I33" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>6.8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" t="s">
+        <v>48</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>7.1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" t="s">
         <v>152</v>
       </c>
-      <c r="J33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="H37" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J37" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" t="s">
+        <v>134</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" t="s">
+        <v>134</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>11.1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" t="s">
         <v>157</v>
       </c>
-      <c r="B34" t="s">
-        <v>158</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D40" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" t="s">
+        <v>154</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D34" t="s">
+      <c r="J40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="B41" t="s">
         <v>160</v>
       </c>
-      <c r="E34" t="s">
-        <v>153</v>
-      </c>
-      <c r="F34" t="s">
-        <v>154</v>
-      </c>
-      <c r="G34" t="s">
-        <v>155</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I34" s="1" t="s">
+      <c r="C41" t="s">
         <v>161</v>
       </c>
-      <c r="J34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>7</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="D41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" t="s">
         <v>162</v>
       </c>
-      <c r="C35" t="s">
-        <v>165</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="H41" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E35" t="s">
-        <v>53</v>
-      </c>
-      <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s">
-        <v>166</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>7</v>
-      </c>
-      <c r="B36" t="s">
-        <v>163</v>
-      </c>
-      <c r="C36" t="s">
-        <v>169</v>
-      </c>
-      <c r="D36" t="s">
-        <v>164</v>
-      </c>
-      <c r="E36" t="s">
-        <v>53</v>
-      </c>
-      <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
-        <v>166</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J36" t="s">
-        <v>56</v>
+      <c r="J41" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" location="datosabiertos " xr:uid="{5911B0A5-0C21-4814-BAF8-15335BA8C082}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{C9E6B6EE-6E87-4957-B349-88CD50EABA12}"/>
-    <hyperlink ref="I4" r:id="rId3" xr:uid="{C94E5315-A85E-4A74-877B-9DEC863F6E66}"/>
-    <hyperlink ref="I5" r:id="rId4" xr:uid="{328450BD-3888-4523-BEEB-2C37E16B29C2}"/>
-    <hyperlink ref="I3" r:id="rId5" xr:uid="{4479E641-936D-4E07-AD89-A70226BE6C64}"/>
-    <hyperlink ref="I11" r:id="rId6" xr:uid="{9453A25A-ED22-47AD-9DA7-1EEEE458E0A6}"/>
-    <hyperlink ref="I12" r:id="rId7" xr:uid="{AC4861FE-44F3-453C-B9FB-C3BAE0D83FD7}"/>
+    <hyperlink ref="H3" r:id="rId1" location="datosabiertos " xr:uid="{5911B0A5-0C21-4814-BAF8-15335BA8C082}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{C9E6B6EE-6E87-4957-B349-88CD50EABA12}"/>
+    <hyperlink ref="I8" r:id="rId3" xr:uid="{C94E5315-A85E-4A74-877B-9DEC863F6E66}"/>
+    <hyperlink ref="I9" r:id="rId4" xr:uid="{328450BD-3888-4523-BEEB-2C37E16B29C2}"/>
+    <hyperlink ref="I2" r:id="rId5" xr:uid="{4479E641-936D-4E07-AD89-A70226BE6C64}"/>
+    <hyperlink ref="I10" r:id="rId6" xr:uid="{9453A25A-ED22-47AD-9DA7-1EEEE458E0A6}"/>
+    <hyperlink ref="I11" r:id="rId7" xr:uid="{AC4861FE-44F3-453C-B9FB-C3BAE0D83FD7}"/>
+    <hyperlink ref="I12" r:id="rId8" xr:uid="{DB598F35-4F10-44FA-845E-BC09D5BBB9A0}"/>
+    <hyperlink ref="I13" r:id="rId9" xr:uid="{FE516EE0-ED5B-488C-9714-20321DE0A1F9}"/>
+    <hyperlink ref="I40" r:id="rId10" xr:uid="{2941D0D9-FD68-49BD-BE97-E5CEF91C19F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
--- a/00Consolidado Tablas Madre.xlsx
+++ b/00Consolidado Tablas Madre.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojas.DESKTOP-91OCPB2\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A66528D-E2AB-4F90-B79E-8ED95BF5CEDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6366E4D4-D312-477C-90A4-A773FD302653}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidado" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="172">
   <si>
     <t>Código Tabla</t>
   </si>
@@ -520,6 +520,27 @@
   </si>
   <si>
     <t>https://www.dropbox.com/s/shnt3bnuh87m4xf/3.3.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>12.1</t>
+  </si>
+  <si>
+    <t>Ministerio de Ciencia, Tecnología, Conocimiento e Innovación de Chile</t>
+  </si>
+  <si>
+    <t>https://github.com/MinCiencia/Datos-COVID19/tree/master/output/producto32</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/xh8wlpw8too8gy9/DEfunciones.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>_2020_Defunciones</t>
+  </si>
+  <si>
+    <t>Cantidad de Defunciones en Chile en el 2020</t>
+  </si>
+  <si>
+    <t>Diaria</t>
   </si>
 </sst>
 </file>
@@ -612,8 +633,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A1:J41" totalsRowShown="0">
-  <autoFilter ref="A1:J41" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A1:J42" totalsRowShown="0">
+  <autoFilter ref="A1:J42" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J39">
     <sortCondition ref="A1:A39"/>
   </sortState>
@@ -930,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD49B1B1-33D3-49D9-BF85-AA2E2407F985}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2186,6 +2207,38 @@
       </c>
       <c r="J41" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C42" t="s">
+        <v>170</v>
+      </c>
+      <c r="D42" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" t="s">
+        <v>166</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J42" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/00Consolidado Tablas Madre.xlsx
+++ b/00Consolidado Tablas Madre.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6366E4D4-D312-477C-90A4-A773FD302653}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A517F7-29A8-4E90-933A-D68B5AA9F952}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidado" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="187">
   <si>
     <t>Código Tabla</t>
   </si>
@@ -541,6 +550,51 @@
   </si>
   <si>
     <t>Diaria</t>
+  </si>
+  <si>
+    <t>12.2</t>
+  </si>
+  <si>
+    <t>Cantidad de Defunciones en Chile en el 2021</t>
+  </si>
+  <si>
+    <t>_2021_Defunciones</t>
+  </si>
+  <si>
+    <t>12.3</t>
+  </si>
+  <si>
+    <t>_2020_Nacimientos</t>
+  </si>
+  <si>
+    <t>Cantidad de Nacimientos en Chile en el 2020</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/MinCiencia/Datos-COVID19/master/output/producto32/2021-Defunciones.csv</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/MinCiencia/Datos-COVID19/master/output/producto31/2020-Nacimientos.csv</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/kgz8b6e33v0xi3r/12.2.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/3dsub2o08qfba1d/12.3.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>12.4</t>
+  </si>
+  <si>
+    <t>_2021_Nacimientos</t>
+  </si>
+  <si>
+    <t>Cantidad de Nacimientos en Chile en el 2021</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/MinCiencia/Datos-COVID19/master/output/producto31/2021-Nacimientos.csv</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/co59p1j20we8g54/12.4.xlsx?dl=0</t>
   </si>
 </sst>
 </file>
@@ -633,8 +687,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A1:J42" totalsRowShown="0">
-  <autoFilter ref="A1:J42" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A1:J45" totalsRowShown="0">
+  <autoFilter ref="A1:J45" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J39">
     <sortCondition ref="A1:A39"/>
   </sortState>
@@ -951,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD49B1B1-33D3-49D9-BF85-AA2E2407F985}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2238,6 +2292,102 @@
         <v>168</v>
       </c>
       <c r="J42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B43" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" t="s">
+        <v>173</v>
+      </c>
+      <c r="D43" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" t="s">
+        <v>166</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B44" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" t="s">
+        <v>177</v>
+      </c>
+      <c r="D44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F44" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" t="s">
+        <v>166</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B45" t="s">
+        <v>183</v>
+      </c>
+      <c r="C45" t="s">
+        <v>184</v>
+      </c>
+      <c r="D45" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F45" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" t="s">
+        <v>166</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J45" t="s">
         <v>12</v>
       </c>
     </row>

--- a/00Consolidado Tablas Madre.xlsx
+++ b/00Consolidado Tablas Madre.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolinamario/DATA INTELLIGENCE Dropbox/Diseño DATA's/Tablas Madre/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A517F7-29A8-4E90-933A-D68B5AA9F952}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8450F07-5115-7A4A-AA3E-2EABD2FAED83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidado" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="234">
   <si>
     <t>Código Tabla</t>
   </si>
@@ -595,6 +586,147 @@
   </si>
   <si>
     <t>https://www.dropbox.com/s/co59p1j20we8g54/12.4.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Incendios_Comuna_Causa_HA</t>
+  </si>
+  <si>
+    <t>Incendios por tipo de terreno quemado (plantaciones, superficies naturales y otros) por tipo de causa de incendio. Fecha y duración en horas de procesos de inicio, control y extinción. Por comuna</t>
+  </si>
+  <si>
+    <t>Hectárea y horas</t>
+  </si>
+  <si>
+    <t>anual</t>
+  </si>
+  <si>
+    <t>SIDCO Y CONAF (Se solicitó por transparencia)</t>
+  </si>
+  <si>
+    <t>Se solicitó por transparencia</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/9wqudhztu25dwec/10.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>Docente por establecimiento</t>
+  </si>
+  <si>
+    <t>cantidad de docentes por establecimiento</t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>Ministerio educacion</t>
+  </si>
+  <si>
+    <t>http://datos.mineduc.cl/dashboards/20020/descarga-bases-de-datos-de-resumen-docentes-por-establecimiento/</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/fztpqcnvcmkpukc/00%20Docentes%20por%20establecimiento.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Cáncer_Cuello_Uterino_Chile_2011_2018</t>
+  </si>
+  <si>
+    <t>Cantidad de Diagnosticados con Cáncer de Cuello Uterino 2011-2018</t>
+  </si>
+  <si>
+    <t>https://deis.minsal.cl/</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/1kffkjxeoieivt9/2.4.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>Categoria desempeño por establecimiento educacional</t>
+  </si>
+  <si>
+    <t>Categoria de desempeño por cada establecimiento, nivel basica y media</t>
+  </si>
+  <si>
+    <t>http://informacionestadistica.agenciaeducacion.cl/#/bases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agencia educacion </t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/7a2wecy0ryzw55r/00%20Categoria%20desempe%C3%B1o%20por%20establecimiento.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Our World in Data</t>
+  </si>
+  <si>
+    <t>Sistema Nacional de Inventarios de Gases de Efecto Invernadero</t>
+  </si>
+  <si>
+    <t>https://snichile.mma.gob.cl/consulta/</t>
+  </si>
+  <si>
+    <t>https://ourworldindata.org/emissions-by-fuel</t>
+  </si>
+  <si>
+    <t>VIH_Edad_Chile_2012_2018</t>
+  </si>
+  <si>
+    <t>Cantidad de personas diagnosticadas con VIH/SIDA según rango de edad 2012-2018</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/1qr7ux20o9945as/2.5.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Caudal_obras_aguas_subterraneas</t>
+  </si>
+  <si>
+    <t>Caudal (m³/año) por obra de captación de aguas subterráneas según territorio, titular, cuenca y período.</t>
+  </si>
+  <si>
+    <t>https://snia.mop.gob.cl/cExtracciones2/#/busquedaPublica</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/jl6ftgcq103k4he/14.1.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Dirección General de Aguas (DGA)</t>
+  </si>
+  <si>
+    <t>Caudal m3/año</t>
+  </si>
+  <si>
+    <t>Indefinido</t>
+  </si>
+  <si>
+    <t>VIH_Inmigrantes_Chile_2015_2018</t>
+  </si>
+  <si>
+    <t>Cantidad de personas inmigrantes diagnosticadas con VIH/SIDA 2015-2018</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/j9ufp9lwz0rxakc/2.6xlsx.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>VIH_Pueblos_Originarios_Chile_2018</t>
+  </si>
+  <si>
+    <t>Cantidad de personas pertenecientes a Pueblos Originarios diagnosticadas con VIH/SIDA 2018</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/76ui7iz9co59tpq/2.7.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>VIH_Trans_Chile_2012_2018</t>
+  </si>
+  <si>
+    <t>Cantidad de personas trans diagnosticadas con VIH/SIDA 2012-2018</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/d34shmctbe30nho/2.8.xlsx?dl=0</t>
   </si>
 </sst>
 </file>
@@ -687,8 +819,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A1:J45" totalsRowShown="0">
-  <autoFilter ref="A1:J45" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A1:J57" totalsRowShown="0">
+  <autoFilter ref="A1:J57" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J39">
     <sortCondition ref="A1:A39"/>
   </sortState>
@@ -1005,27 +1137,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD49B1B1-33D3-49D9-BF85-AA2E2407F985}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="50.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="50.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1057,7 +1189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1.1000000000000001</v>
       </c>
@@ -1089,7 +1221,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2.1</v>
       </c>
@@ -1121,7 +1253,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>2.2000000000000002</v>
       </c>
@@ -1153,7 +1285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>2.2999999999999998</v>
       </c>
@@ -1185,7 +1317,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>3.1</v>
       </c>
@@ -1217,7 +1349,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>3.2</v>
       </c>
@@ -1249,7 +1381,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -1277,7 +1409,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>4.2</v>
       </c>
@@ -1305,7 +1437,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>4.3</v>
       </c>
@@ -1333,7 +1465,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -1361,7 +1493,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4.5</v>
       </c>
@@ -1387,7 +1519,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>4.5999999999999996</v>
       </c>
@@ -1415,7 +1547,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>5</v>
       </c>
@@ -1445,7 +1577,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>6</v>
       </c>
@@ -1475,7 +1607,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>6.1</v>
       </c>
@@ -1505,7 +1637,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>6.1</v>
       </c>
@@ -1535,7 +1667,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>6.11</v>
       </c>
@@ -1565,7 +1697,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>6.12</v>
       </c>
@@ -1595,7 +1727,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>6.13</v>
       </c>
@@ -1625,7 +1757,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>6.14</v>
       </c>
@@ -1655,7 +1787,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>6.15</v>
       </c>
@@ -1685,7 +1817,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>6.16</v>
       </c>
@@ -1715,7 +1847,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>6.17</v>
       </c>
@@ -1745,7 +1877,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>6.18</v>
       </c>
@@ -1775,7 +1907,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>6.19</v>
       </c>
@@ -1805,7 +1937,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>6.2</v>
       </c>
@@ -1835,7 +1967,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>6.2</v>
       </c>
@@ -1865,7 +1997,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>6.21</v>
       </c>
@@ -1895,7 +2027,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>6.3</v>
       </c>
@@ -1925,7 +2057,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>6.4</v>
       </c>
@@ -1955,7 +2087,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>6.5</v>
       </c>
@@ -1985,7 +2117,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>6.6</v>
       </c>
@@ -2015,7 +2147,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>6.7</v>
       </c>
@@ -2045,7 +2177,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>6.8</v>
       </c>
@@ -2075,7 +2207,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>6.9</v>
       </c>
@@ -2105,7 +2237,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>7.1</v>
       </c>
@@ -2137,7 +2269,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>9</v>
       </c>
@@ -2169,7 +2301,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>9</v>
       </c>
@@ -2201,7 +2333,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>11.1</v>
       </c>
@@ -2231,7 +2363,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>3.3</v>
       </c>
@@ -2263,7 +2395,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>165</v>
       </c>
@@ -2295,7 +2427,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>172</v>
       </c>
@@ -2327,7 +2459,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>175</v>
       </c>
@@ -2359,7 +2491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>182</v>
       </c>
@@ -2388,6 +2520,366 @@
         <v>186</v>
       </c>
       <c r="J45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>187</v>
+      </c>
+      <c r="C46" t="s">
+        <v>188</v>
+      </c>
+      <c r="D46" t="s">
+        <v>189</v>
+      </c>
+      <c r="E46" t="s">
+        <v>190</v>
+      </c>
+      <c r="F46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" t="s">
+        <v>191</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B47" t="s">
+        <v>195</v>
+      </c>
+      <c r="C47" t="s">
+        <v>196</v>
+      </c>
+      <c r="D47" t="s">
+        <v>197</v>
+      </c>
+      <c r="E47" t="s">
+        <v>47</v>
+      </c>
+      <c r="F47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" t="s">
+        <v>198</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J47" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>201</v>
+      </c>
+      <c r="C48" t="s">
+        <v>202</v>
+      </c>
+      <c r="D48" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B49" t="s">
+        <v>206</v>
+      </c>
+      <c r="C49" t="s">
+        <v>207</v>
+      </c>
+      <c r="D49" t="s">
+        <v>132</v>
+      </c>
+      <c r="E49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F49" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" t="s">
+        <v>209</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J49" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>13.1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" t="s">
+        <v>211</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>13.2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" t="s">
+        <v>47</v>
+      </c>
+      <c r="F51" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" t="s">
+        <v>212</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>13.3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" t="s">
+        <v>47</v>
+      </c>
+      <c r="F52" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" t="s">
+        <v>212</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I52" s="1"/>
+      <c r="J52" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>215</v>
+      </c>
+      <c r="C53" t="s">
+        <v>216</v>
+      </c>
+      <c r="D53" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" t="s">
+        <v>47</v>
+      </c>
+      <c r="F53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>14.1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>218</v>
+      </c>
+      <c r="C54" t="s">
+        <v>219</v>
+      </c>
+      <c r="D54" t="s">
+        <v>223</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F54" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" t="s">
+        <v>222</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="J54" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>225</v>
+      </c>
+      <c r="C55" t="s">
+        <v>226</v>
+      </c>
+      <c r="D55" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" t="s">
+        <v>47</v>
+      </c>
+      <c r="F55" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>228</v>
+      </c>
+      <c r="C56" t="s">
+        <v>229</v>
+      </c>
+      <c r="D56" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" t="s">
+        <v>47</v>
+      </c>
+      <c r="F56" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="B57" t="s">
+        <v>231</v>
+      </c>
+      <c r="C57" t="s">
+        <v>232</v>
+      </c>
+      <c r="D57" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" t="s">
+        <v>47</v>
+      </c>
+      <c r="F57" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="J57" t="s">
         <v>12</v>
       </c>
     </row>

--- a/00Consolidado Tablas Madre.xlsx
+++ b/00Consolidado Tablas Madre.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolinamario/DATA INTELLIGENCE Dropbox/Diseño DATA's/Tablas Madre/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCN\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8450F07-5115-7A4A-AA3E-2EABD2FAED83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5102D1-FDC9-48CE-95D2-0184051142F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidado" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="249">
   <si>
     <t>Código Tabla</t>
   </si>
@@ -727,6 +727,51 @@
   </si>
   <si>
     <t>https://www.dropbox.com/s/d34shmctbe30nho/2.8.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Incendios_arbol</t>
+  </si>
+  <si>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t>10.2</t>
+  </si>
+  <si>
+    <t>Superficie afectada de incendios por terreno quemado según tipo de árbol o material de uso de tierra.</t>
+  </si>
+  <si>
+    <t>Hectárea</t>
+  </si>
+  <si>
+    <t>CONAF</t>
+  </si>
+  <si>
+    <t>https://www.conaf.cl/incendios-forestales/incendios-forestales-en-chile/estadisticas-historicas/</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/bhkv3c1n1d05u00/10.2.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>VIH_Gestantes_Chile_2012__2018</t>
+  </si>
+  <si>
+    <t>Cantidad de Mujeres Gestantes diagnosticadas con VIH/SIDA 2012-2018</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/nmbwa2ng45rzi1s/2.9.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>Indice de desarrollo personal y social</t>
+  </si>
+  <si>
+    <t>niveles de desarrollo personal y social por establecimiento</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/xkcu8di6s2stiz5/00%20Indicadores%20desarrollo%20personal%20y%20social.xlsx?dl=0</t>
   </si>
 </sst>
 </file>
@@ -819,8 +864,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A1:J57" totalsRowShown="0">
-  <autoFilter ref="A1:J57" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A1:J60" totalsRowShown="0">
+  <autoFilter ref="A1:J60" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J39">
     <sortCondition ref="A1:A39"/>
   </sortState>
@@ -1137,27 +1182,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD49B1B1-33D3-49D9-BF85-AA2E2407F985}">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="50.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1189,7 +1234,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1.1000000000000001</v>
       </c>
@@ -1221,7 +1266,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2.1</v>
       </c>
@@ -1253,7 +1298,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2.2000000000000002</v>
       </c>
@@ -1285,7 +1330,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2.2999999999999998</v>
       </c>
@@ -1317,7 +1362,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>3.1</v>
       </c>
@@ -1349,7 +1394,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>3.2</v>
       </c>
@@ -1381,7 +1426,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -1409,7 +1454,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4.2</v>
       </c>
@@ -1437,7 +1482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>4.3</v>
       </c>
@@ -1465,7 +1510,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -1493,7 +1538,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>4.5</v>
       </c>
@@ -1519,7 +1564,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>4.5999999999999996</v>
       </c>
@@ -1547,7 +1592,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>5</v>
       </c>
@@ -1577,7 +1622,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>6</v>
       </c>
@@ -1607,7 +1652,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>6.1</v>
       </c>
@@ -1637,7 +1682,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>6.1</v>
       </c>
@@ -1667,7 +1712,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>6.11</v>
       </c>
@@ -1697,7 +1742,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>6.12</v>
       </c>
@@ -1727,7 +1772,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>6.13</v>
       </c>
@@ -1757,7 +1802,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>6.14</v>
       </c>
@@ -1787,7 +1832,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>6.15</v>
       </c>
@@ -1817,7 +1862,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>6.16</v>
       </c>
@@ -1847,7 +1892,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>6.17</v>
       </c>
@@ -1877,7 +1922,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>6.18</v>
       </c>
@@ -1907,7 +1952,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>6.19</v>
       </c>
@@ -1937,7 +1982,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>6.2</v>
       </c>
@@ -1967,7 +2012,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>6.2</v>
       </c>
@@ -1997,7 +2042,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>6.21</v>
       </c>
@@ -2027,7 +2072,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>6.3</v>
       </c>
@@ -2057,7 +2102,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>6.4</v>
       </c>
@@ -2087,7 +2132,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>6.5</v>
       </c>
@@ -2117,7 +2162,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>6.6</v>
       </c>
@@ -2147,7 +2192,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>6.7</v>
       </c>
@@ -2177,7 +2222,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>6.8</v>
       </c>
@@ -2207,7 +2252,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>6.9</v>
       </c>
@@ -2237,7 +2282,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>7.1</v>
       </c>
@@ -2269,7 +2314,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>9</v>
       </c>
@@ -2301,7 +2346,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>9</v>
       </c>
@@ -2333,7 +2378,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>11.1</v>
       </c>
@@ -2363,7 +2408,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>3.3</v>
       </c>
@@ -2395,7 +2440,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>165</v>
       </c>
@@ -2427,7 +2472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>172</v>
       </c>
@@ -2459,7 +2504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>175</v>
       </c>
@@ -2491,7 +2536,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>182</v>
       </c>
@@ -2523,9 +2568,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
-        <v>10</v>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="B46" t="s">
         <v>187</v>
@@ -2555,7 +2600,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>194</v>
       </c>
@@ -2587,7 +2632,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>2.4</v>
       </c>
@@ -2619,7 +2664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>205</v>
       </c>
@@ -2651,7 +2696,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>13.1</v>
       </c>
@@ -2675,7 +2720,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>13.2</v>
       </c>
@@ -2699,7 +2744,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>13.3</v>
       </c>
@@ -2723,7 +2768,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>2.5</v>
       </c>
@@ -2755,7 +2800,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>14.1</v>
       </c>
@@ -2787,7 +2832,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>2.6</v>
       </c>
@@ -2819,7 +2864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>2.7</v>
       </c>
@@ -2851,7 +2896,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>2.8</v>
       </c>
@@ -2881,6 +2926,102 @@
       </c>
       <c r="J57" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B58" t="s">
+        <v>234</v>
+      </c>
+      <c r="C58" t="s">
+        <v>237</v>
+      </c>
+      <c r="D58" t="s">
+        <v>238</v>
+      </c>
+      <c r="E58" t="s">
+        <v>47</v>
+      </c>
+      <c r="F58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" t="s">
+        <v>239</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>242</v>
+      </c>
+      <c r="C59" t="s">
+        <v>243</v>
+      </c>
+      <c r="D59" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" t="s">
+        <v>47</v>
+      </c>
+      <c r="F59" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B60" t="s">
+        <v>246</v>
+      </c>
+      <c r="C60" t="s">
+        <v>247</v>
+      </c>
+      <c r="D60" t="s">
+        <v>197</v>
+      </c>
+      <c r="E60" t="s">
+        <v>47</v>
+      </c>
+      <c r="F60" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" t="s">
+        <v>209</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="J60" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/00Consolidado Tablas Madre.xlsx
+++ b/00Consolidado Tablas Madre.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCN\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5102D1-FDC9-48CE-95D2-0184051142F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F305DB65-B808-4EAF-B402-987F4068B592}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidado" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="258">
   <si>
     <t>Código Tabla</t>
   </si>
@@ -765,13 +765,40 @@
     <t>7.4</t>
   </si>
   <si>
-    <t>Indice de desarrollo personal y social</t>
-  </si>
-  <si>
-    <t>niveles de desarrollo personal y social por establecimiento</t>
-  </si>
-  <si>
     <t>https://www.dropbox.com/s/xkcu8di6s2stiz5/00%20Indicadores%20desarrollo%20personal%20y%20social.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Puntaje promedio IDPS - Autoestima académica y motivación escolar</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>Puntaje promedio IDPS - Clima de Convivencia escolar</t>
+  </si>
+  <si>
+    <t>7.6</t>
+  </si>
+  <si>
+    <t>7.7</t>
+  </si>
+  <si>
+    <t>Puntaje promedio IDPS - Hábitos de vida saludable</t>
+  </si>
+  <si>
+    <t>Puntaje promedio IDPS - Participación y formación ciudadana</t>
+  </si>
+  <si>
+    <t>Puntaje promedio IDPS -  Autoestima académica y motivación escolar por establecimiento</t>
+  </si>
+  <si>
+    <t>Puntaje promedio IDPS -  Clima de Convivencia escolar por establecimiento</t>
+  </si>
+  <si>
+    <t>Puntaje promedio IDPS -  Hábitos de vida saludable por establecimiento</t>
+  </si>
+  <si>
+    <t>Puntaje promedio IDPS -  Participación y formación ciudadana por establecimiento</t>
   </si>
 </sst>
 </file>
@@ -864,8 +891,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A1:J60" totalsRowShown="0">
-  <autoFilter ref="A1:J60" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A1:J63" totalsRowShown="0">
+  <autoFilter ref="A1:J63" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J39">
     <sortCondition ref="A1:A39"/>
   </sortState>
@@ -1182,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD49B1B1-33D3-49D9-BF85-AA2E2407F985}">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2997,10 +3024,10 @@
         <v>245</v>
       </c>
       <c r="B60" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C60" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D60" t="s">
         <v>197</v>
@@ -3018,9 +3045,105 @@
         <v>208</v>
       </c>
       <c r="I60" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J60" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="J60" t="s">
+      <c r="B61" t="s">
+        <v>249</v>
+      </c>
+      <c r="C61" t="s">
+        <v>255</v>
+      </c>
+      <c r="D61" t="s">
+        <v>197</v>
+      </c>
+      <c r="E61" t="s">
+        <v>47</v>
+      </c>
+      <c r="F61" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" t="s">
+        <v>209</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J61" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B62" t="s">
+        <v>252</v>
+      </c>
+      <c r="C62" t="s">
+        <v>256</v>
+      </c>
+      <c r="D62" t="s">
+        <v>197</v>
+      </c>
+      <c r="E62" t="s">
+        <v>47</v>
+      </c>
+      <c r="F62" t="s">
+        <v>20</v>
+      </c>
+      <c r="G62" t="s">
+        <v>209</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J62" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B63" t="s">
+        <v>253</v>
+      </c>
+      <c r="C63" t="s">
+        <v>257</v>
+      </c>
+      <c r="D63" t="s">
+        <v>197</v>
+      </c>
+      <c r="E63" t="s">
+        <v>47</v>
+      </c>
+      <c r="F63" t="s">
+        <v>20</v>
+      </c>
+      <c r="G63" t="s">
+        <v>209</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J63" t="s">
         <v>142</v>
       </c>
     </row>

--- a/00Consolidado Tablas Madre.xlsx
+++ b/00Consolidado Tablas Madre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCN\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F305DB65-B808-4EAF-B402-987F4068B592}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05768FAD-4C9D-4EA5-A98A-571F5595AFD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="436">
   <si>
     <t>Código Tabla</t>
   </si>
@@ -36,130 +36,208 @@
     <t>Descripción Tabla</t>
   </si>
   <si>
+    <t>Unidad de Medida</t>
+  </si>
+  <si>
+    <t>Período de Actualización (mes, año, etc)</t>
+  </si>
+  <si>
+    <t>Método de Actualización (manual, automático, etc)</t>
+  </si>
+  <si>
     <t>Nombre Fuente</t>
   </si>
   <si>
     <t>Link Fuente</t>
   </si>
   <si>
-    <t>Unidad de Medida</t>
-  </si>
-  <si>
     <t>Link Dropbox</t>
   </si>
   <si>
     <t>Encargado</t>
   </si>
   <si>
-    <t>Período de Actualización (mes, año, etc)</t>
-  </si>
-  <si>
-    <t>Método de Actualización (manual, automático, etc)</t>
+    <t>Exportaciones_importanciones_valor_peso</t>
+  </si>
+  <si>
+    <t>Cantidad en US$ o peso en kg, de exportaciones e importaciones en chile según lugar de entrada/salida</t>
+  </si>
+  <si>
+    <t>US$ , Kilo</t>
+  </si>
+  <si>
+    <t>Mensual</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Aduana de Chile</t>
+  </si>
+  <si>
+    <t>https://www.aduana.cl/aduana/site/edic/base/port/estadisticas.html?filtro=20181205220946</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/v67sswj9rhvi9pi/1.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrés Sebastian </t>
+  </si>
+  <si>
+    <t>Establecimientos_de_la_Salud_Chile</t>
   </si>
   <si>
     <t>Cantidad de Establecimientos de la Salud en Chile, Privados y Públicos</t>
   </si>
   <si>
+    <t>Número</t>
+  </si>
+  <si>
+    <t>Semestral</t>
+  </si>
+  <si>
+    <t>Departamento de Estadísticas e Información de la Salud (DEIS)</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://deis.minsal.cl/#datosabiertos </t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/s/tggcc7htlduonkg/2.1.xlsx?dl=0 </t>
+  </si>
+  <si>
     <t>Carolina Marió</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/s/tggcc7htlduonkg/2.1.xlsx?dl=0 </t>
-  </si>
-  <si>
-    <t>Departamento de Estadísticas e Información de la Salud (DEIS)</t>
-  </si>
-  <si>
-    <t>Establecimientos_de_la_Salud_Chile</t>
-  </si>
-  <si>
-    <t>Semestral</t>
-  </si>
-  <si>
-    <t>Exportaciones_importanciones_valor_peso</t>
-  </si>
-  <si>
-    <t>Cantidad en US$ o peso en kg, de exportaciones e importaciones en chile según lugar de entrada/salida</t>
-  </si>
-  <si>
-    <t>Mensual</t>
-  </si>
-  <si>
-    <t>Manual</t>
-  </si>
-  <si>
-    <t>https://www.aduana.cl/aduana/site/edic/base/port/estadisticas.html?filtro=20181205220946</t>
-  </si>
-  <si>
-    <t>Aduana de Chile</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/v67sswj9rhvi9pi/1.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrés Sebastian </t>
+    <t>Farmacias_Chile</t>
+  </si>
+  <si>
+    <t>Cantidad de Farmacias por comuna en Chile</t>
+  </si>
+  <si>
+    <t>Cada 2 semanas</t>
+  </si>
+  <si>
+    <t>Datos.gob</t>
+  </si>
+  <si>
+    <t>https://datos.gob.cl/dataset/farmacias-en-chile</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/yxo5m6femifmf7s/Farmacias%20Coordenadas.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Farmacias_Turno_Chile</t>
+  </si>
+  <si>
+    <t>Cantidad de Farmacias de turno por comuna en Chile</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/a530lnvi1h5v858/2.3.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>DMCS_frecuencia</t>
+  </si>
+  <si>
+    <t>Frecuencia de delitos por tipo de delito, tipo de información, año, trimestre y lugar.</t>
+  </si>
+  <si>
+    <t>Trimestral</t>
+  </si>
+  <si>
+    <t>Paz Ciudadana, CEAD</t>
+  </si>
+  <si>
+    <t>https://datoscomunales.pazciudadana.cl/</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/ak9kogobp5v86lq/BD_Delito_PazCiudadana.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Paula Rojas</t>
+  </si>
+  <si>
+    <t>DMCS_tasa_100mil_hab</t>
+  </si>
+  <si>
+    <t>Tasa por 100 mil habitantes de delitos por tipo de delito, tipo de información, año, trimestre y lugar.</t>
   </si>
   <si>
     <t>Exportaciones_fruta_tonelada</t>
   </si>
   <si>
+    <t>Exportaciones en toneladas de especies de frutas desde Chile hacia otros países</t>
+  </si>
+  <si>
+    <t>Tonelada</t>
+  </si>
+  <si>
+    <t>Anual</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/ze54zqkt5cmpwew/4.1.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Claudia Garrido</t>
+  </si>
+  <si>
     <t>Exportaciones_fruta_dolares</t>
   </si>
   <si>
-    <t>Exportaciones en toneladas de especies de frutas desde Chile hacia otros países</t>
-  </si>
-  <si>
     <t>Exportaciones en dólares (USD FOB) de especies de frutas desde Chile hacia otros países</t>
   </si>
   <si>
-    <t>Tonelada</t>
-  </si>
-  <si>
     <t>US$ FOB</t>
   </si>
   <si>
-    <t>Claudia Garrido</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/ze54zqkt5cmpwew/4.1.xlsx?dl=0</t>
-  </si>
-  <si>
     <t>https://www.dropbox.com/s/xgfvod0d56tj13f/4.2.xlsx?dl=0</t>
   </si>
   <si>
-    <t>Frecuencia de delitos por tipo de delito, tipo de información, año, trimestre y lugar.</t>
-  </si>
-  <si>
-    <t>Trimestral</t>
-  </si>
-  <si>
-    <t>Número</t>
-  </si>
-  <si>
-    <t>Paula Rojas</t>
-  </si>
-  <si>
-    <t>Paz Ciudadana, CEAD</t>
-  </si>
-  <si>
-    <t>https://datoscomunales.pazciudadana.cl/</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/ak9kogobp5v86lq/BD_Delito_PazCiudadana.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>DMCS_frecuencia</t>
-  </si>
-  <si>
-    <t>DMCS_tasa_100mil_hab</t>
-  </si>
-  <si>
-    <t>Tasa por 100 mil habitantes de delitos por tipo de delito, tipo de información, año, trimestre y lugar.</t>
-  </si>
-  <si>
-    <t>Farmacias_Chile</t>
+    <t>Importaciones_fruta_tonelada</t>
+  </si>
+  <si>
+    <t>Importaciones en toneladas de especies de frutas desde diferentes países hacia Chile</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/28g6tsk9bdon8k0/4.3.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Importaciones_fruta_dolares</t>
+  </si>
+  <si>
+    <t>Exportaciones en dólares (USD CIF) de especies de frutas desde Chile hacia otros países</t>
+  </si>
+  <si>
+    <t>US$ CIF</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/jt997tm4yxw3w1e/4.4.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Empresas_Agricultura</t>
+  </si>
+  <si>
+    <t>Ventas Estimadas de empresas del rubro de la agricultura, por subrubro económico, actividad económica (especie plantada/cultivada), tamaño de empresa, razón social, RUT.</t>
+  </si>
+  <si>
+    <t>US$</t>
+  </si>
+  <si>
+    <t>Indefinido</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/t40e6ylpsnhew6q/4.5.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Procesos_Agroindustriales_fruta</t>
+  </si>
+  <si>
+    <t>Cantidad en kilos de fruta procesada por comuna, según especie de fruta, tipo de empresa, tipo de envase, destino, tipo de dueño, número de empleados, tipo de procesamiento.</t>
+  </si>
+  <si>
+    <t>Kilo</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/p3nr5swcck0r46h/4.6.xlsx?dl=0</t>
   </si>
   <si>
     <t>Empresas_por_Tamaño</t>
@@ -168,27 +246,18 @@
     <t>N° de Empresas, ventas, N° de trabajadores por género (trabajadores dependientes y a honorarios), etc. Según tampaño de empresa y comuna</t>
   </si>
   <si>
-    <t>Anual</t>
-  </si>
-  <si>
     <t>Sistema de impuestos internos</t>
   </si>
   <si>
     <t>https://www.sii.cl/sobre_el_sii/estadisticas/empresas/202010_PUB_TRAM_COMU.xlsb</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/s/0jrq49zgjcipyf7/5.xlsx?dl=0</t>
+  </si>
+  <si>
     <t>Fernanda Olivares</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/s/0jrq49zgjcipyf7/5.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>Cantidad de Farmacias por comuna en Chile</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/yxo5m6femifmf7s/Farmacias%20Coordenadas.xlsx?dl=0</t>
-  </si>
-  <si>
     <t>Empresas_por_Rubro</t>
   </si>
   <si>
@@ -201,312 +270,246 @@
     <t>https://www.dropbox.com/s/zfe0jc17v9pjgox/6.xlsx?dl=0</t>
   </si>
   <si>
-    <t>Importaciones en toneladas de especies de frutas desde diferentes países hacia Chile</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/28g6tsk9bdon8k0/4.3.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>Importaciones_fruta_tonelada</t>
-  </si>
-  <si>
-    <t>Importaciones_fruta_dolares</t>
-  </si>
-  <si>
-    <t>Exportaciones en dólares (USD CIF) de especies de frutas desde Chile hacia otros países</t>
-  </si>
-  <si>
-    <t>US$ CIF</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/jt997tm4yxw3w1e/4.4.xlsx?dl=0</t>
-  </si>
-  <si>
     <t>Empresas_Rubro_A</t>
   </si>
   <si>
+    <t>N° de Empresas, ventas, N° de trabajadores por género (trabajadores dependientes y a honorarios), etc. Según Rubro Agricultura, ganadería, silvicultura y pesca y comuna</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/cb6j2uqrmg4ijf6/6.1.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Empresas_Rubro_J</t>
+  </si>
+  <si>
+    <t>N° de Empresas, ventas, N° de trabajadores por género (trabajadores dependientes y a honorarios), etc. Según Rubro Información y comunicaciones y comuna</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/xi8jrfjspgiymvv/6.9.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Empresas_Rubro_K</t>
+  </si>
+  <si>
+    <t>N° de Empresas, ventas, N° de trabajadores por género (trabajadores dependientes y a honorarios), etc. Según Rubro Actividades financieras y de seguros y comuna</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/6h73i10ql5gw9pk/6.10.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Empresas_Rubro_L</t>
+  </si>
+  <si>
+    <t>N° de Empresas, ventas, N° de trabajadores por género (trabajadores dependientes y a honorarios), etc. Según Rubro Actividades inmobiliarias y comuna</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/ntywckio53aexo3/6.12.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Empresas_Rubro_M</t>
+  </si>
+  <si>
+    <t>N° de Empresas, ventas, N° de trabajadores por género (trabajadores dependientes y a honorarios), etc. Según Rubro Actividades profesionales, científicas y técnicas y comuna</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/xpjceorx7h1viyg/6.13.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Empresas_Rubro_N</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/8g2pd2mv6wqj098/6.14.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Empresas_Rubro_O</t>
+  </si>
+  <si>
+    <t>N° de Empresas, ventas, N° de trabajadores por género (trabajadores dependientes y a honorarios), etc. Según Rubro Administración pública y defensa; planes de seguridad social de afiliación obligatoria y comuna</t>
+  </si>
+  <si>
+    <t>Empresas_Rubro_P</t>
+  </si>
+  <si>
+    <t>N° de Empresas, ventas, N° de trabajadores por género (trabajadores dependientes y a honorarios), etc. Según Rubro Enseñanza y comuna</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/lc8li6z82a96r4f/6.15.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Empresas_Rubro_Q</t>
+  </si>
+  <si>
+    <t>N° de Empresas, ventas, N° de trabajadores por género (trabajadores dependientes y a honorarios), etc. Según Rubro Actividades de atención de la salud humana y de asistencia social y comuna</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/ts0oex7q1hmuscb/6.16.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Empresas_Rubro_R</t>
+  </si>
+  <si>
+    <t>N° de Empresas, ventas, N° de trabajadores por género (trabajadores dependientes y a honorarios), etc. Según Rubro Actividades artísticas, de entretenimiento y recreativas y comuna</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/gmg38k96afickpg/6.17.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Empresas_Rubro_S</t>
+  </si>
+  <si>
+    <t>N° de Empresas, ventas, N° de trabajadores por género (trabajadores dependientes y a honorarios), etc. Según Rubro Otras actividades de servicios y comuna</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/pgporjiba6v2aye/6.18.xlsx?dl=0</t>
+  </si>
+  <si>
     <t>Empresas_Rubro_B</t>
   </si>
   <si>
+    <t>N° de Empresas, ventas, N° de trabajadores por género (trabajadores dependientes y a honorarios), etc. Según Rubro Explotación de minas y canteras y comuna</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/hppyz39q2cors2o/6.2.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Empresas_Rubro_T</t>
+  </si>
+  <si>
+    <t>N° de Empresas, ventas, N° de trabajadores por género (trabajadores dependientes y a honorarios), etc. Según Rubro Actividades de los hogares como empleadores; actividades no diferenciadas de los hogares y comuna</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/c8vq4kcydmo15ed/6.19.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Empresas_Rubro_U</t>
+  </si>
+  <si>
+    <t>N° de Empresas, ventas, N° de trabajadores por género (trabajadores dependientes y a honorarios), etc. Según Rubro Actividades de organizaciones y órganos extraterritoriales y comuna</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/scwmtfaq4wn5nrm/6.20.xlsx?dl=0</t>
+  </si>
+  <si>
     <t>Empresas_Rubro_C</t>
   </si>
   <si>
+    <t>N° de Empresas, ventas, N° de trabajadores por género (trabajadores dependientes y a honorarios), etc. Según Rubro Industria manufacturera y comuna</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/3852f9ndobybm2z/6.3.xlsx?dl=0</t>
+  </si>
+  <si>
     <t>Empresas_Rubro_D</t>
   </si>
   <si>
+    <t>N° de Empresas, ventas, N° de trabajadores por género (trabajadores dependientes y a honorarios), etc. Según Rubro Suministro de electricidad, gas, vapor y aire acondicionado y comuna</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/3voyncv2rabgqk8/6.4.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Empresas_Rubro_E</t>
+  </si>
+  <si>
+    <t>N° de Empresas, ventas, N° de trabajadores por género (trabajadores dependientes y a honorarios), etc. Según Rubro Suministro de agua; evacuación de aguas residuales, gestión de desechos y descontaminación y comuna</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/gqd5bni0e20kagy/6.5.xlsx?dl=0</t>
+  </si>
+  <si>
     <t>Empresas_Rubro_F</t>
   </si>
   <si>
+    <t>N° de Empresas, ventas, N° de trabajadores por género (trabajadores dependientes y a honorarios), etc. Según Rubro Construcción y comuna</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/7mhrynlas2b52lj/6.6.xlsx?dl=0</t>
+  </si>
+  <si>
     <t>Empresas_Rubro_G</t>
   </si>
   <si>
+    <t>N° de Empresas, ventas, N° de trabajadores por género (trabajadores dependientes y a honorarios), etc. Según Rubro Comercio al por mayor y al por menor; reparación de vehículos automotores y motocicletas y comuna</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/b0mdsziy7a2puhf/6.7.xlsx?dl=0</t>
+  </si>
+  <si>
     <t>Empresas_Rubro_H</t>
   </si>
   <si>
+    <t>N° de Empresas, ventas, N° de trabajadores por género (trabajadores dependientes y a honorarios), etc. Según Rubro Transporte y almacenamiento y comuna</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/2yw7dxwk26xa3w9/6.8.xlsx?dl=0</t>
+  </si>
+  <si>
     <t>Empresas_Rubro_I</t>
   </si>
   <si>
-    <t>Empresas_Rubro_J</t>
-  </si>
-  <si>
-    <t>Empresas_Rubro_K</t>
-  </si>
-  <si>
-    <t>Empresas_Rubro_L</t>
-  </si>
-  <si>
-    <t>Empresas_Rubro_M</t>
-  </si>
-  <si>
-    <t>Empresas_Rubro_N</t>
-  </si>
-  <si>
-    <t>Empresas_Rubro_O</t>
-  </si>
-  <si>
-    <t>Empresas_Rubro_P</t>
-  </si>
-  <si>
-    <t>Empresas_Rubro_Q</t>
-  </si>
-  <si>
-    <t>Empresas_Rubro_R</t>
-  </si>
-  <si>
-    <t>Empresas_Rubro_S</t>
-  </si>
-  <si>
-    <t>Empresas_Rubro_T</t>
-  </si>
-  <si>
-    <t>Empresas_Rubro_U</t>
-  </si>
-  <si>
-    <t>Empresas_Rubro_E</t>
-  </si>
-  <si>
-    <t>N° de Empresas, ventas, N° de trabajadores por género (trabajadores dependientes y a honorarios), etc. Según Rubro Agricultura, ganadería, silvicultura y pesca y comuna</t>
-  </si>
-  <si>
-    <t>N° de Empresas, ventas, N° de trabajadores por género (trabajadores dependientes y a honorarios), etc. Según Rubro Explotación de minas y canteras y comuna</t>
-  </si>
-  <si>
-    <t>N° de Empresas, ventas, N° de trabajadores por género (trabajadores dependientes y a honorarios), etc. Según Rubro Industria manufacturera y comuna</t>
-  </si>
-  <si>
-    <t>N° de Empresas, ventas, N° de trabajadores por género (trabajadores dependientes y a honorarios), etc. Según Rubro Suministro de electricidad, gas, vapor y aire acondicionado y comuna</t>
-  </si>
-  <si>
-    <t>N° de Empresas, ventas, N° de trabajadores por género (trabajadores dependientes y a honorarios), etc. Según Rubro Suministro de agua; evacuación de aguas residuales, gestión de desechos y descontaminación y comuna</t>
-  </si>
-  <si>
-    <t>N° de Empresas, ventas, N° de trabajadores por género (trabajadores dependientes y a honorarios), etc. Según Rubro Construcción y comuna</t>
-  </si>
-  <si>
-    <t>N° de Empresas, ventas, N° de trabajadores por género (trabajadores dependientes y a honorarios), etc. Según Rubro Comercio al por mayor y al por menor; reparación de vehículos automotores y motocicletas y comuna</t>
-  </si>
-  <si>
-    <t>N° de Empresas, ventas, N° de trabajadores por género (trabajadores dependientes y a honorarios), etc. Según Rubro Transporte y almacenamiento y comuna</t>
-  </si>
-  <si>
     <t>N° de Empresas, ventas, N° de trabajadores por género (trabajadores dependientes y a honorarios), etc. Según Rubro Actividades de alojamiento y de servicio de comidas s y comuna</t>
   </si>
   <si>
-    <t>N° de Empresas, ventas, N° de trabajadores por género (trabajadores dependientes y a honorarios), etc. Según Rubro Información y comunicaciones y comuna</t>
-  </si>
-  <si>
-    <t>N° de Empresas, ventas, N° de trabajadores por género (trabajadores dependientes y a honorarios), etc. Según Rubro Actividades financieras y de seguros y comuna</t>
-  </si>
-  <si>
-    <t>N° de Empresas, ventas, N° de trabajadores por género (trabajadores dependientes y a honorarios), etc. Según Rubro Actividades inmobiliarias y comuna</t>
-  </si>
-  <si>
-    <t>N° de Empresas, ventas, N° de trabajadores por género (trabajadores dependientes y a honorarios), etc. Según Rubro Actividades profesionales, científicas y técnicas y comuna</t>
-  </si>
-  <si>
-    <t>N° de Empresas, ventas, N° de trabajadores por género (trabajadores dependientes y a honorarios), etc. Según Rubro Administración pública y defensa; planes de seguridad social de afiliación obligatoria y comuna</t>
-  </si>
-  <si>
-    <t>N° de Empresas, ventas, N° de trabajadores por género (trabajadores dependientes y a honorarios), etc. Según Rubro Enseñanza y comuna</t>
-  </si>
-  <si>
-    <t>N° de Empresas, ventas, N° de trabajadores por género (trabajadores dependientes y a honorarios), etc. Según Rubro Actividades de atención de la salud humana y de asistencia social y comuna</t>
-  </si>
-  <si>
-    <t>N° de Empresas, ventas, N° de trabajadores por género (trabajadores dependientes y a honorarios), etc. Según Rubro Actividades artísticas, de entretenimiento y recreativas y comuna</t>
-  </si>
-  <si>
-    <t>N° de Empresas, ventas, N° de trabajadores por género (trabajadores dependientes y a honorarios), etc. Según Rubro Otras actividades de servicios y comuna</t>
-  </si>
-  <si>
-    <t>N° de Empresas, ventas, N° de trabajadores por género (trabajadores dependientes y a honorarios), etc. Según Rubro Actividades de los hogares como empleadores; actividades no diferenciadas de los hogares y comuna</t>
-  </si>
-  <si>
-    <t>N° de Empresas, ventas, N° de trabajadores por género (trabajadores dependientes y a honorarios), etc. Según Rubro Actividades de organizaciones y órganos extraterritoriales y comuna</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/cb6j2uqrmg4ijf6/6.1.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/hppyz39q2cors2o/6.2.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/3852f9ndobybm2z/6.3.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/3voyncv2rabgqk8/6.4.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/gqd5bni0e20kagy/6.5.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/7mhrynlas2b52lj/6.6.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/b0mdsziy7a2puhf/6.7.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/2yw7dxwk26xa3w9/6.8.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/xi8jrfjspgiymvv/6.9.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/6h73i10ql5gw9pk/6.10.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/ntywckio53aexo3/6.12.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/xpjceorx7h1viyg/6.13.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/8g2pd2mv6wqj098/6.14.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/lc8li6z82a96r4f/6.15.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/ts0oex7q1hmuscb/6.16.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/gmg38k96afickpg/6.17.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/pgporjiba6v2aye/6.18.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/c8vq4kcydmo15ed/6.19.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/scwmtfaq4wn5nrm/6.20.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>Datos.gob</t>
-  </si>
-  <si>
-    <t>https://datos.gob.cl/dataset/farmacias-en-chile</t>
-  </si>
-  <si>
-    <t>Farmacias_Turno_Chile</t>
-  </si>
-  <si>
-    <t>Cantidad de Farmacias de turno por comuna en Chile</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/a530lnvi1h5v858/2.3.xlsx?dl=0</t>
+    <t>Directorio_establecimiento</t>
+  </si>
+  <si>
+    <t>Directorio de establecimientos educacionales, ubicación, depencia, ruralidad y orientacion religiosa</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Ministerio de Educación</t>
+  </si>
+  <si>
+    <t>http://datos.mineduc.cl/dashboards/20015/descarga-bases-de-datos-directorio-de-establecimientos-educacionales/</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/6gj1p24jc4x1mvq/00%20BD%20Directorio%20establecimientos.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Silvia Valdes</t>
   </si>
   <si>
     <t>Resumen_Total_IPT</t>
   </si>
   <si>
+    <t>Todos los IPT que existen por comuna y nombre del archivo</t>
+  </si>
+  <si>
+    <t>Observatorio Urbano</t>
+  </si>
+  <si>
+    <t>http://seguimientoipt.minvu.cl/main.php</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/8dez9vq15hla56l/7.xlsx?dl=0</t>
+  </si>
+  <si>
     <t>Vigentes_IPT</t>
   </si>
   <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Todos los IPT que existen por comuna y nombre del archivo</t>
-  </si>
-  <si>
-    <t>Observatorio Urbano</t>
-  </si>
-  <si>
-    <t>http://seguimientoipt.minvu.cl/main.php</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/8dez9vq15hla56l/7.xlsx?dl=0</t>
-  </si>
-  <si>
     <t>Todos los IPT vigentes por comuna, nombre y archivos con link de cada archivo</t>
   </si>
   <si>
-    <t>Cada 2 semanas</t>
-  </si>
-  <si>
-    <t>Directorio_establecimiento</t>
-  </si>
-  <si>
-    <t>http://datos.mineduc.cl/dashboards/20015/descarga-bases-de-datos-directorio-de-establecimientos-educacionales/</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/6gj1p24jc4x1mvq/00%20BD%20Directorio%20establecimientos.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>Silvia Valdes</t>
-  </si>
-  <si>
-    <t>Procesos_Agroindustriales_fruta</t>
-  </si>
-  <si>
-    <t>Cantidad en kilos de fruta procesada por comuna, según especie de fruta, tipo de empresa, tipo de envase, destino, tipo de dueño, número de empleados, tipo de procesamiento.</t>
-  </si>
-  <si>
-    <t>Kilo</t>
-  </si>
-  <si>
-    <t>Empresas_Agricultura</t>
-  </si>
-  <si>
-    <t>Cantidad de empresas del rubro de la agricultura, por subrubro económico, actividad económica (especie plantada/cultivada), tamaño de empresa, razón social, RUT.</t>
-  </si>
-  <si>
-    <t>US$</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/t40e6ylpsnhew6q/4.5.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/p3nr5swcck0r46h/4.6.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>Directorio de establecimientos educacionales, ubicación, depencia, ruralidad y orientacion religiosa</t>
-  </si>
-  <si>
-    <t>Ministerio de Educación</t>
-  </si>
-  <si>
     <t>Monumentos_Nacionales_Conteo</t>
   </si>
   <si>
+    <t>Cantidad de monumentos nacionales por tipo y por región.</t>
+  </si>
+  <si>
     <t>Consejo de Monumentos Nacionales de Chile</t>
   </si>
   <si>
     <t>https://www.monumentos.gob.cl/monumentos</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/s/su4hdsjf5yweilt/11.1.xlsx?dl=0</t>
+  </si>
+  <si>
     <t>Natalia Arancibia</t>
   </si>
   <si>
-    <t>Cantidad de monumentos nacionales por tipo y por región.</t>
-  </si>
-  <si>
-    <t>US$ , Kilo</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/su4hdsjf5yweilt/11.1.xlsx?dl=0</t>
-  </si>
-  <si>
     <t>Sentencias_JGarantia_Freq</t>
   </si>
   <si>
@@ -525,6 +528,15 @@
     <t>12.1</t>
   </si>
   <si>
+    <t>_2020_Defunciones</t>
+  </si>
+  <si>
+    <t>Cantidad de Defunciones en Chile en el 2020</t>
+  </si>
+  <si>
+    <t>Diaria</t>
+  </si>
+  <si>
     <t>Ministerio de Ciencia, Tecnología, Conocimiento e Innovación de Chile</t>
   </si>
   <si>
@@ -534,22 +546,19 @@
     <t>https://www.dropbox.com/s/xh8wlpw8too8gy9/DEfunciones.xlsx?dl=0</t>
   </si>
   <si>
-    <t>_2020_Defunciones</t>
-  </si>
-  <si>
-    <t>Cantidad de Defunciones en Chile en el 2020</t>
-  </si>
-  <si>
-    <t>Diaria</t>
-  </si>
-  <si>
     <t>12.2</t>
   </si>
   <si>
+    <t>_2021_Defunciones</t>
+  </si>
+  <si>
     <t>Cantidad de Defunciones en Chile en el 2021</t>
   </si>
   <si>
-    <t>_2021_Defunciones</t>
+    <t>https://raw.githubusercontent.com/MinCiencia/Datos-COVID19/master/output/producto32/2021-Defunciones.csv</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/kgz8b6e33v0xi3r/12.2.xlsx?dl=0</t>
   </si>
   <si>
     <t>12.3</t>
@@ -561,15 +570,9 @@
     <t>Cantidad de Nacimientos en Chile en el 2020</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/MinCiencia/Datos-COVID19/master/output/producto32/2021-Defunciones.csv</t>
-  </si>
-  <si>
     <t>https://raw.githubusercontent.com/MinCiencia/Datos-COVID19/master/output/producto31/2020-Nacimientos.csv</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/s/kgz8b6e33v0xi3r/12.2.xlsx?dl=0</t>
-  </si>
-  <si>
     <t>https://www.dropbox.com/s/3dsub2o08qfba1d/12.3.xlsx?dl=0</t>
   </si>
   <si>
@@ -588,6 +591,9 @@
     <t>https://www.dropbox.com/s/co59p1j20we8g54/12.4.xlsx?dl=0</t>
   </si>
   <si>
+    <t>10.1</t>
+  </si>
+  <si>
     <t>Incendios_Comuna_Causa_HA</t>
   </si>
   <si>
@@ -597,9 +603,6 @@
     <t>Hectárea y horas</t>
   </si>
   <si>
-    <t>anual</t>
-  </si>
-  <si>
     <t>SIDCO Y CONAF (Se solicitó por transparencia)</t>
   </si>
   <si>
@@ -618,187 +621,719 @@
     <t>cantidad de docentes por establecimiento</t>
   </si>
   <si>
+    <t>Ministerio educacion</t>
+  </si>
+  <si>
+    <t>http://datos.mineduc.cl/dashboards/20020/descarga-bases-de-datos-de-resumen-docentes-por-establecimiento/</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/fztpqcnvcmkpukc/00%20Docentes%20por%20establecimiento.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Cáncer_Cuello_Uterino_Chile_2011_2018</t>
+  </si>
+  <si>
+    <t>Cantidad de Diagnosticados con Cáncer de Cuello Uterino 2011-2018</t>
+  </si>
+  <si>
+    <t>https://deis.minsal.cl/</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/1kffkjxeoieivt9/2.4.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>Categoria desempeño por establecimiento educacional</t>
+  </si>
+  <si>
+    <t>Categoria de desempeño por cada establecimiento, nivel basica y media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agencia educacion </t>
+  </si>
+  <si>
+    <t>http://informacionestadistica.agenciaeducacion.cl/#/bases</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/7a2wecy0ryzw55r/00%20Categoria%20desempe%C3%B1o%20por%20establecimiento.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Emisiones_CO2_Combustible</t>
+  </si>
+  <si>
+    <t>Emisiones en toneladas de CO2 por quema de combustible, proceso de producción de cemento y flaring, desde 1990 a 2016.</t>
+  </si>
+  <si>
+    <t>Our World in Data</t>
+  </si>
+  <si>
+    <t>https://ourworldindata.org/emissions-by-fuel</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/jkrf6byw18hhw1q/13.1.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Emisiones_Tipo_Gas</t>
+  </si>
+  <si>
+    <t>Emisiones en toneladas de CO2 equivalente por tipo de gas (CO2, CH4, N2O, HFC y SF6), desde 1990 a 2016.</t>
+  </si>
+  <si>
+    <t>Sistema Nacional de Inventarios de Gases de Efecto Invernadero</t>
+  </si>
+  <si>
+    <t>https://snichile.mma.gob.cl/consulta/</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/p24p4pjjnnp484y/13.2.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Emisiones_Tipo_Gas_Sector</t>
+  </si>
+  <si>
+    <t>Emisiones en toneladas de CO2 equivalente por tipo de gas (CO2, CH4, N2O, HFC y SF6), sector y subsector (Agricultura, Energía, Procesos Industriales, Residuos y UCTUS, junto a sus subsectores), desde 1990 a 2016.</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/0eukbcpwgpg7xd9/13.3.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>VIH_Edad_Chile_2012_2018</t>
+  </si>
+  <si>
+    <t>Cantidad de personas diagnosticadas con VIH/SIDA según rango de edad 2012-2018</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/1qr7ux20o9945as/2.5.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Caudal_obras_aguas_subterraneas</t>
+  </si>
+  <si>
+    <t>Caudal (m³/año) por obra de captación de aguas subterráneas según territorio, titular, cuenca y período.</t>
+  </si>
+  <si>
+    <t>Caudal m3/año</t>
+  </si>
+  <si>
+    <t>Dirección General de Aguas (DGA)</t>
+  </si>
+  <si>
+    <t>https://snia.mop.gob.cl/cExtracciones2/#/busquedaPublica</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/jl6ftgcq103k4he/14.1.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>VIH_Inmigrantes_Chile_2015_2018</t>
+  </si>
+  <si>
+    <t>Cantidad de personas inmigrantes diagnosticadas con VIH/SIDA 2015-2018</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/j9ufp9lwz0rxakc/2.6xlsx.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>VIH_Pueblos_Originarios_Chile_2018</t>
+  </si>
+  <si>
+    <t>Cantidad de personas pertenecientes a Pueblos Originarios diagnosticadas con VIH/SIDA 2018</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/76ui7iz9co59tpq/2.7.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>VIH_Trans_Chile_2012_2018</t>
+  </si>
+  <si>
+    <t>Cantidad de personas trans diagnosticadas con VIH/SIDA 2012-2018</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/d34shmctbe30nho/2.8.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>10.2</t>
+  </si>
+  <si>
+    <t>Incendios_arbol</t>
+  </si>
+  <si>
+    <t>Superficie afectada de incendios por terreno quemado según tipo de árbol o material de uso de tierra.</t>
+  </si>
+  <si>
+    <t>Hectárea</t>
+  </si>
+  <si>
+    <t>CONAF</t>
+  </si>
+  <si>
+    <t>https://www.conaf.cl/incendios-forestales/incendios-forestales-en-chile/estadisticas-historicas/</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/bhkv3c1n1d05u00/10.2.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>VIH_Gestantes_Chile_2012__2018</t>
+  </si>
+  <si>
+    <t>Cantidad de Mujeres Gestantes diagnosticadas con VIH/SIDA 2012-2018</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/nmbwa2ng45rzi1s/2.9.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>Puntaje promedio IDPS - Autoestima académica y motivación escolar</t>
+  </si>
+  <si>
+    <t>Puntaje promedio IDPS -  Autoestima académica y motivación escolar por establecimiento</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/xkcu8di6s2stiz5/00%20Indicadores%20desarrollo%20personal%20y%20social.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>Puntaje promedio IDPS - Clima de Convivencia escolar</t>
+  </si>
+  <si>
+    <t>Puntaje promedio IDPS -  Clima de Convivencia escolar por establecimiento</t>
+  </si>
+  <si>
+    <t>7.6</t>
+  </si>
+  <si>
+    <t>Puntaje promedio IDPS - Hábitos de vida saludable</t>
+  </si>
+  <si>
+    <t>Puntaje promedio IDPS -  Hábitos de vida saludable por establecimiento</t>
+  </si>
+  <si>
+    <t>7.7</t>
+  </si>
+  <si>
+    <t>Puntaje promedio IDPS - Participación y formación ciudadana</t>
+  </si>
+  <si>
+    <t>Puntaje promedio IDPS -  Participación y formación ciudadana por establecimiento</t>
+  </si>
+  <si>
+    <t>7.8</t>
+  </si>
+  <si>
+    <t>Rinden Simce Lectura</t>
+  </si>
+  <si>
+    <t>Cantidad de alumnos que rinden simce lectura por establecimiento</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/r0rqjxai1dj2rrg/00%20SIMCE.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>Programa_Salud_Cardiovascular_2012_2014</t>
+  </si>
+  <si>
+    <t>Cantidad de personas pertenecientes a Pueblos Originarios en el Programa de Salud Cardiovascular 2012-2014</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/a6kro8jhtcim54u/2.10.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Espacios_Culturales_Comunas</t>
+  </si>
+  <si>
+    <t>Espacios culturales por categoría y por comuna en Chile. Información hasta mayo de 2020.</t>
+  </si>
+  <si>
+    <t>Observatorio Cultural</t>
+  </si>
+  <si>
+    <t>http://observatorio.cultura.gob.cl/index.php/espacios-culturales/</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/59hnkevsjqec3m9/11.2.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>PSCV_Rango_Edades_2012_2015</t>
+  </si>
+  <si>
+    <t>Cantidad de por rango de edad en el Programa de Salud Cardiovascular 2012-2015</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/nbhdw3o8eoh8ceh/2.11.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>PSCV_Rango_Edades_2016_2018</t>
+  </si>
+  <si>
+    <t>Cantidad de por rango de edad en el Programa de Salud Cardiovascular 2016-2018</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/1go5n2yn5uafb67/2.12.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Capacidad_Instalada_Generación</t>
+  </si>
+  <si>
+    <t>Capacidad Instalada de generación por central eléctrica y unidad de cada central</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Comisión Nacional de Energía</t>
+  </si>
+  <si>
+    <t>https://www.cne.cl/wp-content/uploads/2021/04/Capacidad_Instalada_Generaci%C3%B3n.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/wijaj0xneqcgq8k/16.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>4.12</t>
+  </si>
+  <si>
+    <t>Sup_Plantada_Frutícola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superficie plantada de árboles fruticolas, según tipo de fruta, especie, variedad, sistema de plantación y forma de riego </t>
+  </si>
+  <si>
+    <t>Oficina de Estudios y Políticas Agrarias</t>
+  </si>
+  <si>
+    <t>https://www.odepa.gob.cl/estadisticas-del-sector/catastros-fruticolas/catastro-fruticola-ciren-odepa}</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/x3v7hso5229am72/4.12.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Superficie_Plantada_Hortalizas</t>
+  </si>
+  <si>
+    <t>Superficie plantada estimada en hectáreas por tipo de hortalizas, distribuida por región y por año, desde 2010 a 2019.</t>
+  </si>
+  <si>
+    <t>https://www.odepa.gob.cl/estadisticas-del-sector/estadisticas-productivas</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/892d4lfcoo1qbv9/4.7.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Directorio_Agroindustria_2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encuesta Voluntaria. Directorio de empresas de la agroindustria hasta enero 2020. Notas: Los procesos de conservas, pulpas, pastas, mermeladas consideran para las empresas artesanales aquellas con producción igual o superior a 50.000 litros o 50.000 kilogramos por temporada. Para las empresas productoras de pasas y ciruelas deshidratadas sin infraestructura de secado se consideró una producción total igual o superior a 100.000 kilogramos por temporada. En el proceso de descascarado en frutos secos no se consideran empresas que sólo despelonen.
+</t>
+  </si>
+  <si>
+    <t>https://www.odepa.gob.cl/?s=directorio&amp;desde=1999&amp;hasta=2021</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/c13k6x4xnk9p6sw/4.13.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Servicio de Impuestos Internos</t>
+  </si>
+  <si>
+    <t>https://www.sii.cl/sobre_el_sii/serie_de_ingresos_tributarios.html</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/6vfawgzux1t943p/15.1.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>ManoObra_Agricultura_2008_2019</t>
+  </si>
+  <si>
+    <t>Cantidad de Trabajadores en la Industria Frutícola, por Predio e Industria, a nivel comunal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.odepa.gob.cl/estadisticas-del-sector/estadisticas-productivas </t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/vq9wvu9dje0mr1u/4.8.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Directorio_Apicultura_Chile</t>
+  </si>
+  <si>
+    <t>Directorio de Recintos dedicados a la apicultura, categorizados de acuerdo al tipo de recinto, producto, comuna, nombre de la empresa/dueño</t>
+  </si>
+  <si>
+    <t>Temporada</t>
+  </si>
+  <si>
+    <t>Servicio Agrícola Ganadero</t>
+  </si>
+  <si>
+    <t>https://www.sag.gob.cl/ambitos-de-accion/establecimientos-productores-procesadores-y-elaboradores/1702/registros</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/x1l4teoxkno71kp/17.2.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Plantaciones_Anuales</t>
+  </si>
+  <si>
+    <t>Instituto Forestal</t>
+  </si>
+  <si>
+    <t>https://wef.infor.cl/estadisticas_regionales/estadisticasregionales.php</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/bptphh448vlgw00/18.1.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Produccion_Madera_Aserrada</t>
+  </si>
+  <si>
+    <t>Miles de m3</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/nz9pb2e86isgjf3/18.2.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Ocupacion_Industria_Forestal</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/k7yfmawp90bel2j/18.3.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>Permiso_circulación</t>
+  </si>
+  <si>
+    <t>Instituto Nacional de Estadisticas</t>
+  </si>
+  <si>
+    <t>https://www.ine.cl/estadisticas/economia/transporte-y-comunicaciones/permiso-de-circulacion/parque-de-vehiculos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Monserrat Garrido</t>
+  </si>
+  <si>
+    <t>17.4</t>
+  </si>
+  <si>
+    <t>produccion_tonelada_acumulado</t>
+  </si>
+  <si>
+    <t>Produccion de carne aculumado en toneladas</t>
+  </si>
+  <si>
+    <t>https://bibliotecadigital.odepa.gob.cl/bitstream/handle/20.500.12650/70669/Boletin_carne_bov-feb21.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/ki2g5omncme6hcq/Boletin_carne_bov-feb21%20%281%29.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>17.5</t>
+  </si>
+  <si>
+    <t>17.6</t>
+  </si>
+  <si>
+    <t>17.7</t>
+  </si>
+  <si>
+    <t>17.8</t>
+  </si>
+  <si>
+    <t>17.9</t>
+  </si>
+  <si>
+    <t>17.10</t>
+  </si>
+  <si>
+    <t>Importaciones_toneladas_acumuladas</t>
+  </si>
+  <si>
+    <t>Importaciones de carne aculumado en toneladas</t>
+  </si>
+  <si>
+    <t>Expertaciones_tonaledas_acumulado</t>
+  </si>
+  <si>
+    <t>Exportaciones de carne aculumado en toneladas</t>
+  </si>
+  <si>
+    <t>Faena de Bovino en mataderos, numero de cabezas anual</t>
+  </si>
+  <si>
+    <t>Faena de Bovino en mataderos, numero de cabezas mensual</t>
+  </si>
+  <si>
+    <t>Faena de Bovino en mataderos, tonelada carne en vara mensual</t>
+  </si>
+  <si>
+    <t>Faena de Bovino en mataderos, tonelada carne en vara anual</t>
+  </si>
+  <si>
+    <t>19.1</t>
+  </si>
+  <si>
+    <t>19.2</t>
+  </si>
+  <si>
+    <t>desembarque_total_por_especie_y_mes_toneladas_2019</t>
+  </si>
+  <si>
+    <t>SERIE_CHILE_DESEMBARQUE_DE_PECES_POR_ESPECIE_TONELADAS</t>
+  </si>
+  <si>
+    <t>Sernapesca</t>
+  </si>
+  <si>
+    <t>http://www.sernapesca.cl/sites/default/files/2019_0201_series_2009-2019.xls</t>
+  </si>
+  <si>
+    <t>http://www.sernapesca.cl/sites/default/files/2019_0303_desembarque_total_por_mes.xlsx</t>
+  </si>
+  <si>
+    <t>Ingresos_Tributarios_Gobierno_Central</t>
+  </si>
+  <si>
+    <t>Detalla los ingresos tributarios,y las cuentas no tributarias, del gobierno de Chile entre 2009 y 2020.</t>
+  </si>
+  <si>
+    <t>Millones de CLP$ nominales</t>
+  </si>
+  <si>
+    <t>Muestra la estimación de la superficie forestal plantada por año y por región, desde 2008 hasta 2019.</t>
+  </si>
+  <si>
+    <t>Muestra la producción de madera aserrada por región y por año, desde 2008 hasta 2019.</t>
+  </si>
+  <si>
+    <t>Detalla la cantidad de trabajadores en la industria forestal primaria entre los años 2008 y 2019.</t>
+  </si>
+  <si>
+    <t>Cantidad de permisos de circulacion según tipo de vehículo</t>
+  </si>
+  <si>
+    <t>Chile, desembarque de peces por especie, entre 2009 y 2019.</t>
+  </si>
+  <si>
+    <t>Chile, desembarque  total, en toneladas, en el año 2019, por especie y mes.</t>
+  </si>
+  <si>
+    <t>17.1</t>
+  </si>
+  <si>
+    <t>17.3</t>
+  </si>
+  <si>
+    <t>17.11</t>
+  </si>
+  <si>
+    <t>https://www.odepa.gob.cl/wp-content/uploads/2020/06/Bovinos-2019-Tabulados_B2019.xlsx</t>
+  </si>
+  <si>
+    <t>Porcentaje_ganado_segun_explotacion</t>
+  </si>
+  <si>
+    <t>Distribución_por_tipo_explotacion</t>
+  </si>
+  <si>
+    <t>didstribucion_por_tipo_pastoreo</t>
+  </si>
+  <si>
+    <t>Porcentaje</t>
+  </si>
+  <si>
+    <t>Indefinido (cada 2 años al parecer)</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/p42l9yngbyfyqz4/17.1.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/e7c1bu1gajhmlxk/17.3.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/beboi9ailf1emsj/17.11.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Dsitribución (%) de explotación por actividad principal (lechería, engorda y crianza) por provincia. BOVINO</t>
+  </si>
+  <si>
+    <t>Dsitribución (%) de explotación por tipo de actividad pecuaria y por provincia. BOVINO</t>
+  </si>
+  <si>
+    <t>Dsitribución (%) de explotación por tipo pastoreo utilizado con el ganado y por provincia. BOVINO</t>
+  </si>
+  <si>
+    <t>Consumo_Madera_Troza</t>
+  </si>
+  <si>
+    <t>Consumo de madera en trozas por región y por industria, año 2019.</t>
+  </si>
+  <si>
+    <t>m3 ssc</t>
+  </si>
+  <si>
+    <t>https://wef.infor.cl/industria/industria.php</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/5lpe3vunjw4qloc/18.4.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>numero_de_cabezas_faena_bovino_matadero</t>
+  </si>
+  <si>
+    <t>Faena_bovinos_matadero_cantidad_cabezas_por_año</t>
+  </si>
+  <si>
+    <t>faena_bovino_matadero_tonelada_carne_vara</t>
+  </si>
+  <si>
+    <t>Faena_bovinos_matadero_tonelada_carne_en_vara</t>
+  </si>
+  <si>
+    <t>17.18</t>
+  </si>
+  <si>
+    <t>Faena_vacas_segun_total_faena_bovinos_matadero_cantidad_cabezas</t>
+  </si>
+  <si>
+    <t>Faena de vacas del total de Faena de Bovinos, numero de cabezas mensual</t>
+  </si>
+  <si>
     <t>Numero</t>
   </si>
   <si>
-    <t>Ministerio educacion</t>
-  </si>
-  <si>
-    <t>http://datos.mineduc.cl/dashboards/20020/descarga-bases-de-datos-de-resumen-docentes-por-establecimiento/</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/fztpqcnvcmkpukc/00%20Docentes%20por%20establecimiento.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>Cáncer_Cuello_Uterino_Chile_2011_2018</t>
-  </si>
-  <si>
-    <t>Cantidad de Diagnosticados con Cáncer de Cuello Uterino 2011-2018</t>
-  </si>
-  <si>
-    <t>https://deis.minsal.cl/</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/1kffkjxeoieivt9/2.4.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>7.3</t>
-  </si>
-  <si>
-    <t>Categoria desempeño por establecimiento educacional</t>
-  </si>
-  <si>
-    <t>Categoria de desempeño por cada establecimiento, nivel basica y media</t>
-  </si>
-  <si>
-    <t>http://informacionestadistica.agenciaeducacion.cl/#/bases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agencia educacion </t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/7a2wecy0ryzw55r/00%20Categoria%20desempe%C3%B1o%20por%20establecimiento.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>Our World in Data</t>
-  </si>
-  <si>
-    <t>Sistema Nacional de Inventarios de Gases de Efecto Invernadero</t>
-  </si>
-  <si>
-    <t>https://snichile.mma.gob.cl/consulta/</t>
-  </si>
-  <si>
-    <t>https://ourworldindata.org/emissions-by-fuel</t>
-  </si>
-  <si>
-    <t>VIH_Edad_Chile_2012_2018</t>
-  </si>
-  <si>
-    <t>Cantidad de personas diagnosticadas con VIH/SIDA según rango de edad 2012-2018</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/1qr7ux20o9945as/2.5.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>Caudal_obras_aguas_subterraneas</t>
-  </si>
-  <si>
-    <t>Caudal (m³/año) por obra de captación de aguas subterráneas según territorio, titular, cuenca y período.</t>
-  </si>
-  <si>
-    <t>https://snia.mop.gob.cl/cExtracciones2/#/busquedaPublica</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/jl6ftgcq103k4he/14.1.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>Dirección General de Aguas (DGA)</t>
-  </si>
-  <si>
-    <t>Caudal m3/año</t>
-  </si>
-  <si>
-    <t>Indefinido</t>
-  </si>
-  <si>
-    <t>VIH_Inmigrantes_Chile_2015_2018</t>
-  </si>
-  <si>
-    <t>Cantidad de personas inmigrantes diagnosticadas con VIH/SIDA 2015-2018</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/j9ufp9lwz0rxakc/2.6xlsx.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>VIH_Pueblos_Originarios_Chile_2018</t>
-  </si>
-  <si>
-    <t>Cantidad de personas pertenecientes a Pueblos Originarios diagnosticadas con VIH/SIDA 2018</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/76ui7iz9co59tpq/2.7.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>VIH_Trans_Chile_2012_2018</t>
-  </si>
-  <si>
-    <t>Cantidad de personas trans diagnosticadas con VIH/SIDA 2012-2018</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/d34shmctbe30nho/2.8.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>Incendios_arbol</t>
-  </si>
-  <si>
-    <t>10.1</t>
-  </si>
-  <si>
-    <t>10.2</t>
-  </si>
-  <si>
-    <t>Superficie afectada de incendios por terreno quemado según tipo de árbol o material de uso de tierra.</t>
-  </si>
-  <si>
-    <t>Hectárea</t>
-  </si>
-  <si>
-    <t>CONAF</t>
-  </si>
-  <si>
-    <t>https://www.conaf.cl/incendios-forestales/incendios-forestales-en-chile/estadisticas-historicas/</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/bhkv3c1n1d05u00/10.2.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>VIH_Gestantes_Chile_2012__2018</t>
-  </si>
-  <si>
-    <t>Cantidad de Mujeres Gestantes diagnosticadas con VIH/SIDA 2012-2018</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/nmbwa2ng45rzi1s/2.9.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>7.4</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/xkcu8di6s2stiz5/00%20Indicadores%20desarrollo%20personal%20y%20social.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>Puntaje promedio IDPS - Autoestima académica y motivación escolar</t>
-  </si>
-  <si>
-    <t>7.5</t>
-  </si>
-  <si>
-    <t>Puntaje promedio IDPS - Clima de Convivencia escolar</t>
-  </si>
-  <si>
-    <t>7.6</t>
-  </si>
-  <si>
-    <t>7.7</t>
-  </si>
-  <si>
-    <t>Puntaje promedio IDPS - Hábitos de vida saludable</t>
-  </si>
-  <si>
-    <t>Puntaje promedio IDPS - Participación y formación ciudadana</t>
-  </si>
-  <si>
-    <t>Puntaje promedio IDPS -  Autoestima académica y motivación escolar por establecimiento</t>
-  </si>
-  <si>
-    <t>Puntaje promedio IDPS -  Clima de Convivencia escolar por establecimiento</t>
-  </si>
-  <si>
-    <t>Puntaje promedio IDPS -  Hábitos de vida saludable por establecimiento</t>
-  </si>
-  <si>
-    <t>Puntaje promedio IDPS -  Participación y formación ciudadana por establecimiento</t>
+    <t>Faena_vacas_segun_total_faena_bovinos_matadero_cantidad_cabezas_Anual</t>
+  </si>
+  <si>
+    <t>17.19</t>
+  </si>
+  <si>
+    <t>Faena de vacas del total de Faena de Bovinos, numero de cabezas anual</t>
+  </si>
+  <si>
+    <t>Faena_vaquilla_segun_total_faena_bovinos_matadero_cantidad_cabezas</t>
+  </si>
+  <si>
+    <t>17.20</t>
+  </si>
+  <si>
+    <t>Faena de vaquilla del total de Faena de Bovinos, numero de cabezas mensual</t>
+  </si>
+  <si>
+    <t>Faena_vaquilla_segun_total_faena_bovinos_matadero_cantidad_cabezas_Anual</t>
+  </si>
+  <si>
+    <t>17.21</t>
+  </si>
+  <si>
+    <t>Faena de vaquilla del total de Faena de Bovinos, numero de cabezas anual</t>
+  </si>
+  <si>
+    <t>17.22</t>
+  </si>
+  <si>
+    <t>17.23</t>
+  </si>
+  <si>
+    <t>tonelada_exportacion_carne_bovino_por_destino_tonelada_2020</t>
+  </si>
+  <si>
+    <t>valor_miles_usd_fob_exportacion_carne_bovino_por_destino_tonelada_2020</t>
+  </si>
+  <si>
+    <t>paises de destino de exportacion de carne bovino toneladas año 2020</t>
+  </si>
+  <si>
+    <t>paises de destino de exportacion de carne bovino Miles de USD FOP año2020</t>
+  </si>
+  <si>
+    <t>Exportaciones_carne__por_principales_productos_destinos_tonelada_2020</t>
+  </si>
+  <si>
+    <t>17.24</t>
+  </si>
+  <si>
+    <t>Exportaciones de carne bovino por principales productos y destinos tonelada  año 2020</t>
+  </si>
+  <si>
+    <t>Exportaciones_carne__por_principales_productos_destinos_miles_usd_fob_2020</t>
+  </si>
+  <si>
+    <t>17.25</t>
+  </si>
+  <si>
+    <t>Exportaciones de carne bovino por principales productos y destinos miles usd fob  año 2020</t>
+  </si>
+  <si>
+    <t>17.37</t>
+  </si>
+  <si>
+    <t>Exportaciones_subproductos_bovinos_por_tipo_destinos_miles_usd_fob_2020</t>
+  </si>
+  <si>
+    <t>17.36</t>
+  </si>
+  <si>
+    <t>Exportaciones_subproductos_bovinos_por_tipo_destinos_tonelada_2020</t>
+  </si>
+  <si>
+    <t>Exportaciones de subproductos bovinos por tipo y destinos en miles usd fob año 2020</t>
+  </si>
+  <si>
+    <t>Exportaciones de subproductos bovinos por tipo y destinos en toneladas año 2020</t>
+  </si>
+  <si>
+    <t>17.38</t>
+  </si>
+  <si>
+    <t>Importaciones_carne_Bovino_por_origen_toneladas_2020</t>
+  </si>
+  <si>
+    <t>Importaciones de carne de bovino por origen en toneladas año 2020</t>
+  </si>
+  <si>
+    <t>17.39</t>
+  </si>
+  <si>
+    <t>Importaciones_carne_Bovino_por_origen_miles_usd_CIF_2020</t>
+  </si>
+  <si>
+    <t>Importaciones de carne de bovino por origen en  miles de USD CIF año 2020</t>
+  </si>
+  <si>
+    <t>17.40</t>
+  </si>
+  <si>
+    <t>17.41</t>
+  </si>
+  <si>
+    <t>Importaciones_carne_bovino_por_productos_origen_miles_usd_CIF_2020</t>
+  </si>
+  <si>
+    <t>Importaciones_carne_bovino_por_productos_origen_tonelada_2020</t>
+  </si>
+  <si>
+    <t>Importaciones de carne de bovino por productos y origen en toneladas año 2020</t>
+  </si>
+  <si>
+    <t>Importaciones de carne de bovino por productos y origen en miles de USD CIF año 2020</t>
   </si>
 </sst>
 </file>
@@ -842,7 +1377,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -850,12 +1385,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -868,9 +1413,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="2" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -891,8 +1446,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A1:J63" totalsRowShown="0">
-  <autoFilter ref="A1:J63" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A1:J106" totalsRowShown="0">
+  <autoFilter ref="A1:J106" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J39">
     <sortCondition ref="A1:A39"/>
   </sortState>
@@ -1209,13 +1764,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD49B1B1-33D3-49D9-BF85-AA2E2407F985}">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
@@ -1240,25 +1795,25 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1266,31 +1821,31 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="J2" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1298,31 +1853,31 @@
         <v>2.1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1330,31 +1885,31 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1362,31 +1917,31 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1394,31 +1949,31 @@
         <v>3.1</v>
       </c>
       <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1426,31 +1981,31 @@
         <v>3.2</v>
       </c>
       <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s">
         <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1458,27 +2013,27 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="3"/>
       <c r="I8" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1486,27 +2041,27 @@
         <v>4.2</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="3"/>
       <c r="I9" s="1" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="J9" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1514,27 +2069,27 @@
         <v>4.3</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="3"/>
       <c r="I10" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J10" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1542,27 +2097,27 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="3"/>
       <c r="I11" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J11" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1570,25 +2125,27 @@
         <v>4.5</v>
       </c>
       <c r="B12" t="s">
-        <v>146</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>147</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>148</v>
-      </c>
-      <c r="E12" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="3"/>
       <c r="I12" s="1" t="s">
-        <v>149</v>
+        <v>66</v>
       </c>
       <c r="J12" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1596,27 +2153,27 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>144</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="3"/>
       <c r="I13" s="1" t="s">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="J13" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1624,29 +2181,29 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1654,29 +2211,29 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1684,29 +2241,29 @@
         <v>6.1</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="J16" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1714,29 +2271,29 @@
         <v>6.1</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="J17" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1744,29 +2301,29 @@
         <v>6.11</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="J18" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1774,29 +2331,29 @@
         <v>6.12</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="J19" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1804,29 +2361,29 @@
         <v>6.13</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="J20" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1834,29 +2391,29 @@
         <v>6.14</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="J21" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1864,29 +2421,29 @@
         <v>6.15</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
         <v>99</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="J22" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1894,29 +2451,29 @@
         <v>6.16</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="J23" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1924,29 +2481,29 @@
         <v>6.17</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G24" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="J24" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1954,29 +2511,29 @@
         <v>6.18</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="J25" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1984,29 +2541,29 @@
         <v>6.19</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G26" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="J26" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2014,29 +2571,29 @@
         <v>6.2</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G27" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="J27" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2044,29 +2601,29 @@
         <v>6.2</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G28" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="J28" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2074,29 +2631,29 @@
         <v>6.21</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G29" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J29" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2104,29 +2661,29 @@
         <v>6.3</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="J30" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2134,29 +2691,29 @@
         <v>6.4</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G31" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="J31" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2164,29 +2721,29 @@
         <v>6.5</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G32" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="J32" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2194,29 +2751,29 @@
         <v>6.6</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="C33" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G33" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="J33" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2224,29 +2781,29 @@
         <v>6.7</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G34" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="J34" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2254,29 +2811,29 @@
         <v>6.8</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G35" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="J35" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2284,29 +2841,29 @@
         <v>6.9</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G36" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="J36" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2314,31 +2871,31 @@
         <v>7.1</v>
       </c>
       <c r="B37" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C37" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D37" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="E37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G37" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="J37" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2346,31 +2903,31 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="C38" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="D38" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="E38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G38" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="J38" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2378,31 +2935,31 @@
         <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="C39" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="D39" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="E39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G39" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="J39" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2410,29 +2967,31 @@
         <v>11.1</v>
       </c>
       <c r="B40" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C40" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" t="s">
         <v>157</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" t="s">
-        <v>154</v>
-      </c>
       <c r="H40" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>159</v>
       </c>
       <c r="J40" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2440,211 +2999,211 @@
         <v>3.3</v>
       </c>
       <c r="B41" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C41" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D41" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E41" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J41" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C42" t="s">
+        <v>168</v>
+      </c>
+      <c r="D42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C42" t="s">
+      <c r="F42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s">
         <v>170</v>
       </c>
-      <c r="D42" t="s">
-        <v>36</v>
-      </c>
-      <c r="E42" s="5" t="s">
+      <c r="H42" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="F42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s">
-        <v>166</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>167</v>
-      </c>
       <c r="I42" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J42" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B43" t="s">
         <v>174</v>
       </c>
       <c r="C43" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D43" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J43" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B44" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C44" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D44" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G44" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J44" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B45" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C45" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D45" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G45" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J45" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
       <c r="B46" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C46" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D46" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E46" t="s">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G46" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J46" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B47" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C47" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D47" t="s">
-        <v>197</v>
+        <v>21</v>
       </c>
       <c r="E47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G47" t="s">
         <v>198</v>
@@ -2656,7 +3215,7 @@
         <v>200</v>
       </c>
       <c r="J47" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2670,16 +3229,16 @@
         <v>202</v>
       </c>
       <c r="D48" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G48" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>203</v>
@@ -2688,7 +3247,7 @@
         <v>204</v>
       </c>
       <c r="J48" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2702,97 +3261,121 @@
         <v>207</v>
       </c>
       <c r="D49" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="E49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G49" t="s">
+        <v>208</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>210</v>
       </c>
       <c r="J49" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>13.1</v>
       </c>
+      <c r="B50" t="s">
+        <v>211</v>
+      </c>
+      <c r="C50" t="s">
+        <v>212</v>
+      </c>
       <c r="D50" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G50" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="I50" s="1"/>
+      <c r="I50" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="J50" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>13.2</v>
       </c>
+      <c r="B51" t="s">
+        <v>216</v>
+      </c>
+      <c r="C51" t="s">
+        <v>217</v>
+      </c>
       <c r="D51" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G51" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I51" s="1"/>
+        <v>219</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="J51" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>13.3</v>
       </c>
+      <c r="B52" t="s">
+        <v>221</v>
+      </c>
+      <c r="C52" t="s">
+        <v>222</v>
+      </c>
       <c r="D52" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G52" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I52" s="1"/>
+        <v>219</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>223</v>
+      </c>
       <c r="J52" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2800,31 +3383,31 @@
         <v>2.5</v>
       </c>
       <c r="B53" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="C53" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="D53" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G53" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>203</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="J53" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2832,31 +3415,31 @@
         <v>14.1</v>
       </c>
       <c r="B54" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C54" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="D54" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>224</v>
+        <v>65</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G54" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="J54" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2864,31 +3447,31 @@
         <v>2.6</v>
       </c>
       <c r="B55" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C55" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="D55" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G55" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>203</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="J55" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2896,31 +3479,31 @@
         <v>2.7</v>
       </c>
       <c r="B56" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C56" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="D56" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G56" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>203</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="J56" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -2928,63 +3511,63 @@
         <v>2.8</v>
       </c>
       <c r="B57" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C57" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="D57" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G57" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>203</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="J57" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B58" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="C58" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="D58" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G58" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="J58" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -2992,159 +3575,1531 @@
         <v>2.9</v>
       </c>
       <c r="B59" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C59" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="D59" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G59" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>203</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="J59" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B60" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C60" t="s">
         <v>254</v>
       </c>
       <c r="D60" t="s">
-        <v>197</v>
+        <v>21</v>
       </c>
       <c r="E60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G60" t="s">
+        <v>208</v>
+      </c>
+      <c r="H60" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="I60" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="J60" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B61" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C61" t="s">
+        <v>258</v>
+      </c>
+      <c r="D61" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" t="s">
+        <v>48</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s">
+        <v>208</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I61" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D61" t="s">
-        <v>197</v>
-      </c>
-      <c r="E61" t="s">
-        <v>47</v>
-      </c>
-      <c r="F61" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" t="s">
-        <v>209</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="J61" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B62" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C62" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D62" t="s">
-        <v>197</v>
+        <v>21</v>
       </c>
       <c r="E62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G62" t="s">
+        <v>208</v>
+      </c>
+      <c r="H62" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H62" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="I62" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="J62" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="B63" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="C63" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D63" t="s">
-        <v>197</v>
+        <v>21</v>
       </c>
       <c r="E63" t="s">
+        <v>48</v>
+      </c>
+      <c r="F63" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" t="s">
+        <v>208</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J63" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B64" t="s">
+        <v>266</v>
+      </c>
+      <c r="C64" t="s">
+        <v>267</v>
+      </c>
+      <c r="D64" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" t="s">
+        <v>48</v>
+      </c>
+      <c r="F64" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" t="s">
+        <v>208</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J64" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B65" t="s">
+        <v>270</v>
+      </c>
+      <c r="C65" t="s">
+        <v>271</v>
+      </c>
+      <c r="D65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" t="s">
+        <v>48</v>
+      </c>
+      <c r="F65" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" t="s">
+        <v>23</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="J65" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>11.2</v>
+      </c>
+      <c r="B66" t="s">
+        <v>273</v>
+      </c>
+      <c r="C66" t="s">
+        <v>274</v>
+      </c>
+      <c r="D66" t="s">
+        <v>143</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F66" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" t="s">
+        <v>275</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="J66" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B67" t="s">
+        <v>279</v>
+      </c>
+      <c r="C67" t="s">
+        <v>280</v>
+      </c>
+      <c r="D67" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" t="s">
+        <v>48</v>
+      </c>
+      <c r="F67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" t="s">
+        <v>23</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="J67" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B68" t="s">
+        <v>283</v>
+      </c>
+      <c r="C68" t="s">
+        <v>284</v>
+      </c>
+      <c r="D68" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" t="s">
+        <v>48</v>
+      </c>
+      <c r="F68" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="J68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>16</v>
+      </c>
+      <c r="B69" t="s">
+        <v>286</v>
+      </c>
+      <c r="C69" t="s">
+        <v>287</v>
+      </c>
+      <c r="D69" t="s">
+        <v>288</v>
+      </c>
+      <c r="E69" t="s">
+        <v>48</v>
+      </c>
+      <c r="F69" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" t="s">
+        <v>289</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J69" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="I70" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="J70" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="B71" t="s">
+        <v>298</v>
+      </c>
+      <c r="C71" t="s">
+        <v>299</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E71" t="s">
+        <v>48</v>
+      </c>
+      <c r="F71" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J71" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>4.13</v>
+      </c>
+      <c r="B72" t="s">
+        <v>302</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="D72" t="s">
+        <v>143</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F72" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J72" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>15.1</v>
+      </c>
+      <c r="B73" t="s">
+        <v>360</v>
+      </c>
+      <c r="C73" t="s">
+        <v>361</v>
+      </c>
+      <c r="D73" t="s">
+        <v>362</v>
+      </c>
+      <c r="E73" t="s">
+        <v>48</v>
+      </c>
+      <c r="F73" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" t="s">
+        <v>306</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J73" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="B74" t="s">
+        <v>309</v>
+      </c>
+      <c r="C74" t="s">
+        <v>310</v>
+      </c>
+      <c r="D74" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" t="s">
+        <v>48</v>
+      </c>
+      <c r="F74" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="J74" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>17.2</v>
+      </c>
+      <c r="B75" t="s">
+        <v>313</v>
+      </c>
+      <c r="C75" t="s">
+        <v>314</v>
+      </c>
+      <c r="D75" t="s">
+        <v>143</v>
+      </c>
+      <c r="E75" t="s">
+        <v>315</v>
+      </c>
+      <c r="F75" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" t="s">
+        <v>316</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="J75" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="B76" t="s">
+        <v>319</v>
+      </c>
+      <c r="C76" t="s">
+        <v>363</v>
+      </c>
+      <c r="D76" t="s">
+        <v>245</v>
+      </c>
+      <c r="E76" t="s">
+        <v>48</v>
+      </c>
+      <c r="F76" t="s">
+        <v>14</v>
+      </c>
+      <c r="G76" t="s">
+        <v>320</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J76" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>18.2</v>
+      </c>
+      <c r="B77" t="s">
+        <v>323</v>
+      </c>
+      <c r="C77" t="s">
+        <v>364</v>
+      </c>
+      <c r="D77" t="s">
+        <v>324</v>
+      </c>
+      <c r="E77" t="s">
+        <v>48</v>
+      </c>
+      <c r="F77" t="s">
+        <v>14</v>
+      </c>
+      <c r="G77" t="s">
+        <v>320</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="J77" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>18.3</v>
+      </c>
+      <c r="B78" t="s">
+        <v>326</v>
+      </c>
+      <c r="C78" t="s">
+        <v>365</v>
+      </c>
+      <c r="D78" t="s">
+        <v>21</v>
+      </c>
+      <c r="E78" t="s">
+        <v>48</v>
+      </c>
+      <c r="F78" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78" t="s">
+        <v>320</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J78" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B79" t="s">
+        <v>329</v>
+      </c>
+      <c r="C79" t="s">
+        <v>366</v>
+      </c>
+      <c r="D79" t="s">
+        <v>21</v>
+      </c>
+      <c r="E79" t="s">
+        <v>48</v>
+      </c>
+      <c r="F79" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" t="s">
+        <v>330</v>
+      </c>
+      <c r="H79" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="I79" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="J79" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B80" t="s">
+        <v>335</v>
+      </c>
+      <c r="C80" t="s">
+        <v>336</v>
+      </c>
+      <c r="D80" t="s">
         <v>47</v>
       </c>
-      <c r="F63" t="s">
-        <v>20</v>
-      </c>
-      <c r="G63" t="s">
-        <v>209</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="J63" t="s">
-        <v>142</v>
+      <c r="E80" t="s">
+        <v>48</v>
+      </c>
+      <c r="F80" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" t="s">
+        <v>295</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J80" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B81" t="s">
+        <v>345</v>
+      </c>
+      <c r="C81" t="s">
+        <v>346</v>
+      </c>
+      <c r="D81" t="s">
+        <v>47</v>
+      </c>
+      <c r="E81" t="s">
+        <v>48</v>
+      </c>
+      <c r="F81" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" t="s">
+        <v>295</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J81" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B82" t="s">
+        <v>347</v>
+      </c>
+      <c r="C82" t="s">
+        <v>348</v>
+      </c>
+      <c r="D82" t="s">
+        <v>47</v>
+      </c>
+      <c r="E82" t="s">
+        <v>48</v>
+      </c>
+      <c r="F82" t="s">
+        <v>14</v>
+      </c>
+      <c r="G82" t="s">
+        <v>295</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J82" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B83" t="s">
+        <v>389</v>
+      </c>
+      <c r="C83" t="s">
+        <v>350</v>
+      </c>
+      <c r="D83" t="s">
+        <v>21</v>
+      </c>
+      <c r="E83" t="s">
+        <v>48</v>
+      </c>
+      <c r="F83" t="s">
+        <v>14</v>
+      </c>
+      <c r="G83" t="s">
+        <v>295</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J83" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B84" t="s">
+        <v>390</v>
+      </c>
+      <c r="C84" t="s">
+        <v>349</v>
+      </c>
+      <c r="D84" t="s">
+        <v>21</v>
+      </c>
+      <c r="E84" t="s">
+        <v>48</v>
+      </c>
+      <c r="F84" t="s">
+        <v>14</v>
+      </c>
+      <c r="G84" t="s">
+        <v>295</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J84" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B85" t="s">
+        <v>391</v>
+      </c>
+      <c r="C85" t="s">
+        <v>351</v>
+      </c>
+      <c r="D85" t="s">
+        <v>47</v>
+      </c>
+      <c r="E85" t="s">
+        <v>48</v>
+      </c>
+      <c r="F85" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" t="s">
+        <v>295</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J85" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B86" t="s">
+        <v>392</v>
+      </c>
+      <c r="C86" t="s">
+        <v>352</v>
+      </c>
+      <c r="D86" t="s">
+        <v>47</v>
+      </c>
+      <c r="E86" t="s">
+        <v>48</v>
+      </c>
+      <c r="F86" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" t="s">
+        <v>295</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J86" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B87" t="s">
+        <v>356</v>
+      </c>
+      <c r="C87" t="s">
+        <v>367</v>
+      </c>
+      <c r="D87" t="s">
+        <v>47</v>
+      </c>
+      <c r="E87" t="s">
+        <v>48</v>
+      </c>
+      <c r="F87" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" t="s">
+        <v>357</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="I87" s="1"/>
+      <c r="J87" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B88" t="s">
+        <v>355</v>
+      </c>
+      <c r="C88" t="s">
+        <v>368</v>
+      </c>
+      <c r="D88" t="s">
+        <v>47</v>
+      </c>
+      <c r="E88" t="s">
+        <v>48</v>
+      </c>
+      <c r="F88" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" t="s">
+        <v>357</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="I88" s="1"/>
+      <c r="J88" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B89" t="s">
+        <v>373</v>
+      </c>
+      <c r="C89" t="s">
+        <v>381</v>
+      </c>
+      <c r="D89" t="s">
+        <v>376</v>
+      </c>
+      <c r="E89" t="s">
+        <v>377</v>
+      </c>
+      <c r="F89" t="s">
+        <v>14</v>
+      </c>
+      <c r="G89" t="s">
+        <v>295</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="J89" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B90" t="s">
+        <v>374</v>
+      </c>
+      <c r="C90" t="s">
+        <v>382</v>
+      </c>
+      <c r="D90" t="s">
+        <v>376</v>
+      </c>
+      <c r="E90" t="s">
+        <v>377</v>
+      </c>
+      <c r="F90" t="s">
+        <v>14</v>
+      </c>
+      <c r="G90" t="s">
+        <v>295</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J90" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B91" t="s">
+        <v>375</v>
+      </c>
+      <c r="C91" t="s">
+        <v>383</v>
+      </c>
+      <c r="D91" t="s">
+        <v>376</v>
+      </c>
+      <c r="E91" t="s">
+        <v>377</v>
+      </c>
+      <c r="F91" t="s">
+        <v>14</v>
+      </c>
+      <c r="G91" t="s">
+        <v>295</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="J91" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="B92" t="s">
+        <v>384</v>
+      </c>
+      <c r="C92" t="s">
+        <v>385</v>
+      </c>
+      <c r="D92" t="s">
+        <v>386</v>
+      </c>
+      <c r="E92" t="s">
+        <v>48</v>
+      </c>
+      <c r="F92" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" t="s">
+        <v>320</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="J92" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B93" t="s">
+        <v>394</v>
+      </c>
+      <c r="C93" t="s">
+        <v>395</v>
+      </c>
+      <c r="D93" t="s">
+        <v>396</v>
+      </c>
+      <c r="E93" t="s">
+        <v>48</v>
+      </c>
+      <c r="F93" t="s">
+        <v>14</v>
+      </c>
+      <c r="G93" t="s">
+        <v>295</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J93" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B94" t="s">
+        <v>397</v>
+      </c>
+      <c r="C94" t="s">
+        <v>399</v>
+      </c>
+      <c r="D94" t="s">
+        <v>396</v>
+      </c>
+      <c r="E94" t="s">
+        <v>48</v>
+      </c>
+      <c r="F94" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" t="s">
+        <v>295</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J94" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B95" t="s">
+        <v>400</v>
+      </c>
+      <c r="C95" t="s">
+        <v>402</v>
+      </c>
+      <c r="D95" t="s">
+        <v>396</v>
+      </c>
+      <c r="E95" t="s">
+        <v>48</v>
+      </c>
+      <c r="F95" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95" t="s">
+        <v>295</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J95" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B96" t="s">
+        <v>403</v>
+      </c>
+      <c r="C96" t="s">
+        <v>405</v>
+      </c>
+      <c r="D96" t="s">
+        <v>396</v>
+      </c>
+      <c r="E96" t="s">
+        <v>48</v>
+      </c>
+      <c r="F96" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96" t="s">
+        <v>295</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J96" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B97" t="s">
+        <v>408</v>
+      </c>
+      <c r="C97" t="s">
+        <v>410</v>
+      </c>
+      <c r="D97" t="s">
+        <v>47</v>
+      </c>
+      <c r="E97" t="s">
+        <v>48</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" t="s">
+        <v>295</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J97" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B98" t="s">
+        <v>409</v>
+      </c>
+      <c r="C98" t="s">
+        <v>411</v>
+      </c>
+      <c r="D98" t="s">
+        <v>53</v>
+      </c>
+      <c r="E98" t="s">
+        <v>48</v>
+      </c>
+      <c r="F98" t="s">
+        <v>14</v>
+      </c>
+      <c r="G98" t="s">
+        <v>295</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J98" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B99" t="s">
+        <v>412</v>
+      </c>
+      <c r="C99" t="s">
+        <v>414</v>
+      </c>
+      <c r="D99" t="s">
+        <v>47</v>
+      </c>
+      <c r="E99" t="s">
+        <v>48</v>
+      </c>
+      <c r="F99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" t="s">
+        <v>295</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J99" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B100" t="s">
+        <v>415</v>
+      </c>
+      <c r="C100" t="s">
+        <v>417</v>
+      </c>
+      <c r="D100" t="s">
+        <v>53</v>
+      </c>
+      <c r="E100" t="s">
+        <v>48</v>
+      </c>
+      <c r="F100" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100" t="s">
+        <v>295</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J100" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B101" t="s">
+        <v>419</v>
+      </c>
+      <c r="C101" t="s">
+        <v>422</v>
+      </c>
+      <c r="D101" t="s">
+        <v>53</v>
+      </c>
+      <c r="E101" t="s">
+        <v>48</v>
+      </c>
+      <c r="F101" t="s">
+        <v>14</v>
+      </c>
+      <c r="G101" t="s">
+        <v>295</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J101" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B102" t="s">
+        <v>421</v>
+      </c>
+      <c r="C102" t="s">
+        <v>423</v>
+      </c>
+      <c r="D102" t="s">
+        <v>47</v>
+      </c>
+      <c r="E102" t="s">
+        <v>48</v>
+      </c>
+      <c r="F102" t="s">
+        <v>14</v>
+      </c>
+      <c r="G102" t="s">
+        <v>295</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J102" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B103" t="s">
+        <v>425</v>
+      </c>
+      <c r="C103" t="s">
+        <v>426</v>
+      </c>
+      <c r="D103" t="s">
+        <v>47</v>
+      </c>
+      <c r="E103" t="s">
+        <v>48</v>
+      </c>
+      <c r="F103" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" t="s">
+        <v>295</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J103" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B104" t="s">
+        <v>428</v>
+      </c>
+      <c r="C104" t="s">
+        <v>429</v>
+      </c>
+      <c r="D104" t="s">
+        <v>60</v>
+      </c>
+      <c r="E104" t="s">
+        <v>48</v>
+      </c>
+      <c r="F104" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104" t="s">
+        <v>295</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J104" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B105" t="s">
+        <v>433</v>
+      </c>
+      <c r="C105" t="s">
+        <v>434</v>
+      </c>
+      <c r="D105" t="s">
+        <v>47</v>
+      </c>
+      <c r="E105" t="s">
+        <v>48</v>
+      </c>
+      <c r="F105" t="s">
+        <v>14</v>
+      </c>
+      <c r="G105" t="s">
+        <v>295</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J105" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B106" t="s">
+        <v>432</v>
+      </c>
+      <c r="C106" t="s">
+        <v>435</v>
+      </c>
+      <c r="D106" t="s">
+        <v>60</v>
+      </c>
+      <c r="E106" t="s">
+        <v>48</v>
+      </c>
+      <c r="F106" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106" t="s">
+        <v>295</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J106" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3160,10 +5115,36 @@
     <hyperlink ref="I12" r:id="rId8" xr:uid="{DB598F35-4F10-44FA-845E-BC09D5BBB9A0}"/>
     <hyperlink ref="I13" r:id="rId9" xr:uid="{FE516EE0-ED5B-488C-9714-20321DE0A1F9}"/>
     <hyperlink ref="I40" r:id="rId10" xr:uid="{2941D0D9-FD68-49BD-BE97-E5CEF91C19F1}"/>
+    <hyperlink ref="I66" r:id="rId11" xr:uid="{8C6D62BB-5F77-4E43-A2C0-4B9C82D8B833}"/>
+    <hyperlink ref="I50" r:id="rId12" xr:uid="{044C2CB3-B42D-4008-AB57-7D2A34CC4E84}"/>
+    <hyperlink ref="I51" r:id="rId13" xr:uid="{BB9B3C57-946D-4735-8CCB-E360255B90A6}"/>
+    <hyperlink ref="I52" r:id="rId14" xr:uid="{4A6C8201-1574-4551-9A9C-F243CDFC088B}"/>
+    <hyperlink ref="H69" r:id="rId15" xr:uid="{2A01B5CB-6E13-4421-AF4E-2DEF27E17522}"/>
+    <hyperlink ref="I69" r:id="rId16" xr:uid="{94228EAD-A640-40EC-9EBB-226D4CB50133}"/>
+    <hyperlink ref="H70" r:id="rId17" xr:uid="{43B8B26A-48BD-40F3-94AA-B4FE7AFC090B}"/>
+    <hyperlink ref="I70" r:id="rId18" xr:uid="{0E77E100-B94E-4689-9861-3926BDD5F1C2}"/>
+    <hyperlink ref="H72" r:id="rId19" xr:uid="{303E2F96-9C17-4AC1-9979-3D5DFF967B79}"/>
+    <hyperlink ref="I72" r:id="rId20" xr:uid="{20D5A78D-E1DE-4773-9544-4D2C520F2903}"/>
+    <hyperlink ref="I71" r:id="rId21" xr:uid="{675F0F9F-48B7-44BE-8415-0DFC7DCDA382}"/>
+    <hyperlink ref="I73" r:id="rId22" xr:uid="{914239B8-66A3-4B5A-BFDA-A0DD4CC21F97}"/>
+    <hyperlink ref="H73" r:id="rId23" xr:uid="{146728A6-A4D8-4655-9AC6-E4AFC9487D85}"/>
+    <hyperlink ref="H71" r:id="rId24" xr:uid="{77E6D235-047D-4604-9151-F6D390761670}"/>
+    <hyperlink ref="H74" r:id="rId25" xr:uid="{CBE902CB-B0AB-48A1-AEB4-B161B4B9805A}"/>
+    <hyperlink ref="H76" r:id="rId26" xr:uid="{5B6DFFFC-2AC1-489A-A901-760C70C922B3}"/>
+    <hyperlink ref="H77" r:id="rId27" xr:uid="{BD5652B3-697C-4C44-953D-CAB46A31F9B0}"/>
+    <hyperlink ref="H78" r:id="rId28" xr:uid="{28092483-2915-418B-A2AF-12AB85843ECE}"/>
+    <hyperlink ref="I76" r:id="rId29" xr:uid="{2F9FC809-7044-49F3-AD2A-337755DC1F7E}"/>
+    <hyperlink ref="I77" r:id="rId30" xr:uid="{48DE6A5E-29CD-479E-A57E-6C321D874174}"/>
+    <hyperlink ref="I78" r:id="rId31" xr:uid="{75950DFD-39AB-4949-8A68-8C6D8137D57C}"/>
+    <hyperlink ref="H79" r:id="rId32" xr:uid="{1CEE2C1C-5CAA-4221-9E9E-023216550247}"/>
+    <hyperlink ref="I79" r:id="rId33" display="https://www.dropbox.com/scl/fi/7m1z10fp5kfeodsxiwgyi/8.1.xlsx?cloud_editor=excel&amp;dl=0&amp;rlkey=zjmyfc1pkvo57zz610q9in13r" xr:uid="{A8BDBCBD-3D45-433E-945C-C50EF42330AA}"/>
+    <hyperlink ref="H92" r:id="rId34" xr:uid="{2D514D50-5C2E-4495-96EE-18447C70E010}"/>
+    <hyperlink ref="I92" r:id="rId35" xr:uid="{71AA66DE-A95F-45E5-A807-39BAEBABCD4A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId36"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId37"/>
   </tableParts>
 </worksheet>
 </file>
--- a/00Consolidado Tablas Madre.xlsx
+++ b/00Consolidado Tablas Madre.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCN\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojas.DESKTOP-91OCPB2\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05768FAD-4C9D-4EA5-A98A-571F5595AFD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E6A9FE-2FFC-466C-AABC-31F97E6E831C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="15375" windowHeight="7875" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidado" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="483">
   <si>
     <t>Código Tabla</t>
   </si>
@@ -1334,6 +1334,147 @@
   </si>
   <si>
     <t>Importaciones de carne de bovino por productos y origen en miles de USD CIF año 2020</t>
+  </si>
+  <si>
+    <t>17.42</t>
+  </si>
+  <si>
+    <t>Importaciones_subproductos_bovinos_por_tipo_origen_toneladas_2020</t>
+  </si>
+  <si>
+    <t>Importaciones_subproductos_bovinos_por_tipo_origen_miles_usd_cif_2020</t>
+  </si>
+  <si>
+    <t>17.43</t>
+  </si>
+  <si>
+    <t>Importaciones de subproductos bovinos por tipo y origen en toneladas año 2021</t>
+  </si>
+  <si>
+    <t>Importaciones de subproductos bovinos por tipo y origen en miles de USD CIF año 2020</t>
+  </si>
+  <si>
+    <t>Importaciones_semanales_carne_bovina_toneladas</t>
+  </si>
+  <si>
+    <t>17.44</t>
+  </si>
+  <si>
+    <t>Importaciones semanales de carne bovina (toneladas)</t>
+  </si>
+  <si>
+    <t>17.27</t>
+  </si>
+  <si>
+    <t>Cabezas_bovino_ganado_2019</t>
+  </si>
+  <si>
+    <t>Número de cabezas de ganado bovino por categoría, según región y provincia (2019).</t>
+  </si>
+  <si>
+    <t>17.28</t>
+  </si>
+  <si>
+    <t>Cabezas_ganado_raza</t>
+  </si>
+  <si>
+    <t>Número de cabezas de ganado bovino por razas, según región y provincia (2019).</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/x5eheg6xji61wrw/17.28.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>17.29</t>
+  </si>
+  <si>
+    <t>Cabezas_bovino_lechería</t>
+  </si>
+  <si>
+    <t>Número de cabezas de ganado bovino de lechería por categoría, según región y provincia (2019).</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/g2bgapw6nwzn6yp/17.29.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>17.30</t>
+  </si>
+  <si>
+    <t>Cabezas_bovino_carne</t>
+  </si>
+  <si>
+    <t>Número de cabezas de ganado bovino para carne por categoría, según región y provincia (2019).</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/p8t69mdfqmnx7t5/17.30.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>17.31</t>
+  </si>
+  <si>
+    <t>Cabezas_bovino_2007_2019</t>
+  </si>
+  <si>
+    <t>Número de cabezas de ganado bovino en 2007, 2015, 2017 y 2019, según región y provincia.</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/3oomvkhlpc7zzc4/17.31.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>17.32</t>
+  </si>
+  <si>
+    <t>Cabezas_vacas_vaquillas_2007_2019</t>
+  </si>
+  <si>
+    <t>Número de cabezas de vacas y vaquillas en 2007, 2015, 2017 y 2019, según región y provincia.</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/ungpn2khjodyjy7/17.32.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>17.33</t>
+  </si>
+  <si>
+    <t>Distribución_explotación_lechería</t>
+  </si>
+  <si>
+    <t>Distribución del número de explotaciones por tipo de lechería, según región y provincia (2019).</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/ns3ktxe6ockqxos/17.33.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>17.34</t>
+  </si>
+  <si>
+    <t>Distribución_explotación_comercialización</t>
+  </si>
+  <si>
+    <t>Distribución del número de explotaciones por principal canal de comercialización en los últimos 12 meses, según región y provincia (2019).</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/tuur3olkidprp9n/17.34.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>17.35</t>
+  </si>
+  <si>
+    <t>Distribución_origen_animales_engorda</t>
+  </si>
+  <si>
+    <t>Distribución del número de explotaciones por origen de los animales para engorda en explotaciones productoras de carne, según región y provincia (2019).</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/cbdlz56zlx8bwt2/17.35.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Costo_producción_leche</t>
+  </si>
+  <si>
+    <t>Costos de producción por litro de leche promedio, según región y provincia (2019).</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/sqr3g4a6f1qkwxk/17.36.xlsx?dl=0</t>
   </si>
 </sst>
 </file>
@@ -1446,8 +1587,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A1:J106" totalsRowShown="0">
-  <autoFilter ref="A1:J106" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A1:J119" totalsRowShown="0">
+  <autoFilter ref="A1:J119" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J39">
     <sortCondition ref="A1:A39"/>
   </sortState>
@@ -1764,10 +1905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD49B1B1-33D3-49D9-BF85-AA2E2407F985}">
-  <dimension ref="A1:J106"/>
+  <dimension ref="A1:J119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5100,6 +5241,392 @@
       </c>
       <c r="J106" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B107" t="s">
+        <v>437</v>
+      </c>
+      <c r="C107" t="s">
+        <v>441</v>
+      </c>
+      <c r="D107" t="s">
+        <v>47</v>
+      </c>
+      <c r="E107" t="s">
+        <v>48</v>
+      </c>
+      <c r="F107" t="s">
+        <v>14</v>
+      </c>
+      <c r="G107" t="s">
+        <v>295</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J107" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="B108" t="s">
+        <v>438</v>
+      </c>
+      <c r="C108" t="s">
+        <v>440</v>
+      </c>
+      <c r="D108" t="s">
+        <v>60</v>
+      </c>
+      <c r="E108" t="s">
+        <v>48</v>
+      </c>
+      <c r="F108" t="s">
+        <v>14</v>
+      </c>
+      <c r="G108" t="s">
+        <v>295</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J108" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="B109" t="s">
+        <v>442</v>
+      </c>
+      <c r="C109" t="s">
+        <v>444</v>
+      </c>
+      <c r="D109" t="s">
+        <v>47</v>
+      </c>
+      <c r="E109" t="s">
+        <v>48</v>
+      </c>
+      <c r="F109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G109" t="s">
+        <v>295</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J109" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="B110" t="s">
+        <v>446</v>
+      </c>
+      <c r="C110" t="s">
+        <v>447</v>
+      </c>
+      <c r="E110" t="s">
+        <v>48</v>
+      </c>
+      <c r="F110" t="s">
+        <v>14</v>
+      </c>
+      <c r="G110" t="s">
+        <v>295</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="J110" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="B111" t="s">
+        <v>449</v>
+      </c>
+      <c r="C111" t="s">
+        <v>450</v>
+      </c>
+      <c r="E111" t="s">
+        <v>48</v>
+      </c>
+      <c r="F111" t="s">
+        <v>14</v>
+      </c>
+      <c r="G111" t="s">
+        <v>295</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="J111" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B112" t="s">
+        <v>453</v>
+      </c>
+      <c r="C112" t="s">
+        <v>454</v>
+      </c>
+      <c r="E112" t="s">
+        <v>48</v>
+      </c>
+      <c r="F112" t="s">
+        <v>14</v>
+      </c>
+      <c r="G112" t="s">
+        <v>295</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="J112" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B113" t="s">
+        <v>457</v>
+      </c>
+      <c r="C113" t="s">
+        <v>458</v>
+      </c>
+      <c r="E113" t="s">
+        <v>48</v>
+      </c>
+      <c r="F113" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113" t="s">
+        <v>295</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="J113" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="B114" t="s">
+        <v>461</v>
+      </c>
+      <c r="C114" t="s">
+        <v>462</v>
+      </c>
+      <c r="E114" t="s">
+        <v>48</v>
+      </c>
+      <c r="F114" t="s">
+        <v>14</v>
+      </c>
+      <c r="G114" t="s">
+        <v>295</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="J114" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="B115" t="s">
+        <v>465</v>
+      </c>
+      <c r="C115" t="s">
+        <v>466</v>
+      </c>
+      <c r="E115" t="s">
+        <v>48</v>
+      </c>
+      <c r="F115" t="s">
+        <v>14</v>
+      </c>
+      <c r="G115" t="s">
+        <v>295</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="J115" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B116" t="s">
+        <v>469</v>
+      </c>
+      <c r="C116" t="s">
+        <v>470</v>
+      </c>
+      <c r="E116" t="s">
+        <v>48</v>
+      </c>
+      <c r="F116" t="s">
+        <v>14</v>
+      </c>
+      <c r="G116" t="s">
+        <v>295</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="J116" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="B117" t="s">
+        <v>473</v>
+      </c>
+      <c r="C117" t="s">
+        <v>474</v>
+      </c>
+      <c r="E117" t="s">
+        <v>48</v>
+      </c>
+      <c r="F117" t="s">
+        <v>14</v>
+      </c>
+      <c r="G117" t="s">
+        <v>295</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="J117" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B118" t="s">
+        <v>477</v>
+      </c>
+      <c r="C118" t="s">
+        <v>478</v>
+      </c>
+      <c r="E118" t="s">
+        <v>48</v>
+      </c>
+      <c r="F118" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" t="s">
+        <v>295</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="J118" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B119" t="s">
+        <v>480</v>
+      </c>
+      <c r="C119" t="s">
+        <v>481</v>
+      </c>
+      <c r="E119" t="s">
+        <v>48</v>
+      </c>
+      <c r="F119" t="s">
+        <v>14</v>
+      </c>
+      <c r="G119" t="s">
+        <v>295</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="J119" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/00Consolidado Tablas Madre.xlsx
+++ b/00Consolidado Tablas Madre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojas.DESKTOP-91OCPB2\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E6A9FE-2FFC-466C-AABC-31F97E6E831C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7AF798-067D-434D-9ABB-AB3B44B98F31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="15375" windowHeight="7875" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
+    <workbookView xWindow="1770" yWindow="1770" windowWidth="15375" windowHeight="7875" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidado" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="497">
   <si>
     <t>Código Tabla</t>
   </si>
@@ -1475,6 +1475,48 @@
   </si>
   <si>
     <t>https://www.dropbox.com/s/sqr3g4a6f1qkwxk/17.36.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>Superficie_cosechada_Ha</t>
+  </si>
+  <si>
+    <t>Superficie cosechada (Ha) por tipo de cultivo, región y año.</t>
+  </si>
+  <si>
+    <t>Instituto Nacional De Estadísticas (INE)</t>
+  </si>
+  <si>
+    <t>https://www.ine.cl/estadisticas/economia/agricultura-agroindustria-y-pesca/cosecha</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/pgvozwxl0ylv5zf/4.9.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>4.10</t>
+  </si>
+  <si>
+    <t>Producción_regional_cultivo</t>
+  </si>
+  <si>
+    <t>Producción en toneladas por cultivo, región y año.</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/lp286avyo201ebr/4.10.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>4.11</t>
+  </si>
+  <si>
+    <t>Rendimiento_regional_cultivo</t>
+  </si>
+  <si>
+    <t>Rendimiento (qqm/Ha) por tipo de cultivo, región y año.</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/bb6jcp9e5t0htrr/4.11.xlsx?dl=0</t>
   </si>
 </sst>
 </file>
@@ -1587,8 +1629,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A1:J119" totalsRowShown="0">
-  <autoFilter ref="A1:J119" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A1:J122" totalsRowShown="0">
+  <autoFilter ref="A1:J122" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J39">
     <sortCondition ref="A1:A39"/>
   </sortState>
@@ -1905,10 +1947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD49B1B1-33D3-49D9-BF85-AA2E2407F985}">
-  <dimension ref="A1:J119"/>
+  <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4192,17 +4234,14 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
-        <v>4.8</v>
+      <c r="A74" s="4" t="s">
+        <v>483</v>
       </c>
       <c r="B74" t="s">
-        <v>309</v>
+        <v>484</v>
       </c>
       <c r="C74" t="s">
-        <v>310</v>
-      </c>
-      <c r="D74" t="s">
-        <v>21</v>
+        <v>485</v>
       </c>
       <c r="E74" t="s">
         <v>48</v>
@@ -4210,63 +4249,57 @@
       <c r="F74" t="s">
         <v>14</v>
       </c>
-      <c r="G74" s="10" t="s">
+      <c r="G74" t="s">
+        <v>486</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="J74" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="B75" t="s">
+        <v>490</v>
+      </c>
+      <c r="C75" t="s">
+        <v>491</v>
+      </c>
+      <c r="E75" t="s">
+        <v>48</v>
+      </c>
+      <c r="F75" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" t="s">
         <v>295</v>
       </c>
-      <c r="H74" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="J74" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
-        <v>17.2</v>
-      </c>
-      <c r="B75" t="s">
-        <v>313</v>
-      </c>
-      <c r="C75" t="s">
-        <v>314</v>
-      </c>
-      <c r="D75" t="s">
-        <v>143</v>
-      </c>
-      <c r="E75" t="s">
-        <v>315</v>
-      </c>
-      <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s">
-        <v>316</v>
-      </c>
       <c r="H75" s="1" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>318</v>
+        <v>492</v>
       </c>
       <c r="J75" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="4">
-        <v>18.100000000000001</v>
+      <c r="A76" s="4" t="s">
+        <v>493</v>
       </c>
       <c r="B76" t="s">
-        <v>319</v>
+        <v>494</v>
       </c>
       <c r="C76" t="s">
-        <v>363</v>
-      </c>
-      <c r="D76" t="s">
-        <v>245</v>
+        <v>495</v>
       </c>
       <c r="E76" t="s">
         <v>48</v>
@@ -4275,30 +4308,30 @@
         <v>14</v>
       </c>
       <c r="G76" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>322</v>
+        <v>496</v>
       </c>
       <c r="J76" t="s">
-        <v>160</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>18.2</v>
+        <v>4.8</v>
       </c>
       <c r="B77" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="C77" t="s">
-        <v>364</v>
+        <v>310</v>
       </c>
       <c r="D77" t="s">
-        <v>324</v>
+        <v>21</v>
       </c>
       <c r="E77" t="s">
         <v>48</v>
@@ -4306,159 +4339,159 @@
       <c r="F77" t="s">
         <v>14</v>
       </c>
-      <c r="G77" t="s">
-        <v>320</v>
+      <c r="G77" s="10" t="s">
+        <v>295</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="J77" t="s">
-        <v>160</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
+        <v>17.2</v>
+      </c>
+      <c r="B78" t="s">
+        <v>313</v>
+      </c>
+      <c r="C78" t="s">
+        <v>314</v>
+      </c>
+      <c r="D78" t="s">
+        <v>143</v>
+      </c>
+      <c r="E78" t="s">
+        <v>315</v>
+      </c>
+      <c r="F78" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78" t="s">
+        <v>316</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="J78" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="B79" t="s">
+        <v>319</v>
+      </c>
+      <c r="C79" t="s">
+        <v>363</v>
+      </c>
+      <c r="D79" t="s">
+        <v>245</v>
+      </c>
+      <c r="E79" t="s">
+        <v>48</v>
+      </c>
+      <c r="F79" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" t="s">
+        <v>320</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J79" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>18.2</v>
+      </c>
+      <c r="B80" t="s">
+        <v>323</v>
+      </c>
+      <c r="C80" t="s">
+        <v>364</v>
+      </c>
+      <c r="D80" t="s">
+        <v>324</v>
+      </c>
+      <c r="E80" t="s">
+        <v>48</v>
+      </c>
+      <c r="F80" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" t="s">
+        <v>320</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="J80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
         <v>18.3</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B81" t="s">
         <v>326</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C81" t="s">
         <v>365</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D81" t="s">
         <v>21</v>
       </c>
-      <c r="E78" t="s">
-        <v>48</v>
-      </c>
-      <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s">
+      <c r="E81" t="s">
+        <v>48</v>
+      </c>
+      <c r="F81" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" t="s">
         <v>320</v>
       </c>
-      <c r="H78" s="1" t="s">
+      <c r="H81" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="I78" s="1" t="s">
+      <c r="I81" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="J78" t="s">
+      <c r="J81" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="B79" t="s">
-        <v>329</v>
-      </c>
-      <c r="C79" t="s">
-        <v>366</v>
-      </c>
-      <c r="D79" t="s">
-        <v>21</v>
-      </c>
-      <c r="E79" t="s">
-        <v>48</v>
-      </c>
-      <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s">
-        <v>330</v>
-      </c>
-      <c r="H79" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="I79" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="J79" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="B80" t="s">
-        <v>335</v>
-      </c>
-      <c r="C80" t="s">
-        <v>336</v>
-      </c>
-      <c r="D80" t="s">
-        <v>47</v>
-      </c>
-      <c r="E80" t="s">
-        <v>48</v>
-      </c>
-      <c r="F80" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" t="s">
-        <v>295</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J80" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="B81" t="s">
-        <v>345</v>
-      </c>
-      <c r="C81" t="s">
-        <v>346</v>
-      </c>
-      <c r="D81" t="s">
-        <v>47</v>
-      </c>
-      <c r="E81" t="s">
-        <v>48</v>
-      </c>
-      <c r="F81" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s">
-        <v>295</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J81" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="B82" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="C82" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="D82" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E82" t="s">
         <v>48</v>
@@ -4467,30 +4500,30 @@
         <v>14</v>
       </c>
       <c r="G82" t="s">
-        <v>295</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>338</v>
+        <v>330</v>
+      </c>
+      <c r="H82" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="I82" s="14" t="s">
+        <v>332</v>
       </c>
       <c r="J82" t="s">
-        <v>147</v>
+        <v>333</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B83" t="s">
-        <v>389</v>
+        <v>335</v>
       </c>
       <c r="C83" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="D83" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E83" t="s">
         <v>48</v>
@@ -4513,16 +4546,16 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B84" t="s">
-        <v>390</v>
+        <v>345</v>
       </c>
       <c r="C84" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D84" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E84" t="s">
         <v>48</v>
@@ -4545,13 +4578,13 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B85" t="s">
-        <v>391</v>
+        <v>347</v>
       </c>
       <c r="C85" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D85" t="s">
         <v>47</v>
@@ -4577,16 +4610,16 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B86" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C86" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D86" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E86" t="s">
         <v>48</v>
@@ -4609,16 +4642,16 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="B87" t="s">
-        <v>356</v>
+        <v>390</v>
       </c>
       <c r="C87" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="D87" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E87" t="s">
         <v>48</v>
@@ -4627,25 +4660,27 @@
         <v>14</v>
       </c>
       <c r="G87" t="s">
-        <v>357</v>
+        <v>295</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="I87" s="1"/>
+        <v>337</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>338</v>
+      </c>
       <c r="J87" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="B88" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="C88" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="D88" t="s">
         <v>47</v>
@@ -4657,31 +4692,33 @@
         <v>14</v>
       </c>
       <c r="G88" t="s">
-        <v>357</v>
+        <v>295</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="I88" s="1"/>
+        <v>337</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>338</v>
+      </c>
       <c r="J88" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="B89" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="C89" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="D89" t="s">
-        <v>376</v>
+        <v>47</v>
       </c>
       <c r="E89" t="s">
-        <v>377</v>
+        <v>48</v>
       </c>
       <c r="F89" t="s">
         <v>14</v>
@@ -4690,126 +4727,122 @@
         <v>295</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>378</v>
+        <v>338</v>
       </c>
       <c r="J89" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="B90" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="C90" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="D90" t="s">
-        <v>376</v>
+        <v>47</v>
       </c>
       <c r="E90" t="s">
-        <v>377</v>
+        <v>48</v>
       </c>
       <c r="F90" t="s">
         <v>14</v>
       </c>
       <c r="G90" t="s">
-        <v>295</v>
+        <v>357</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>379</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="I90" s="1"/>
       <c r="J90" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="B91" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="C91" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="D91" t="s">
+        <v>47</v>
+      </c>
+      <c r="E91" t="s">
+        <v>48</v>
+      </c>
+      <c r="F91" t="s">
+        <v>14</v>
+      </c>
+      <c r="G91" t="s">
+        <v>357</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="I91" s="1"/>
+      <c r="J91" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B92" t="s">
+        <v>373</v>
+      </c>
+      <c r="C92" t="s">
+        <v>381</v>
+      </c>
+      <c r="D92" t="s">
         <v>376</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E92" t="s">
         <v>377</v>
       </c>
-      <c r="F91" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" t="s">
+      <c r="F92" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" t="s">
         <v>295</v>
       </c>
-      <c r="H91" s="1" t="s">
+      <c r="H92" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="I91" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="J91" t="s">
+      <c r="I92" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="J92" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="4">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="B92" t="s">
-        <v>384</v>
-      </c>
-      <c r="C92" t="s">
-        <v>385</v>
-      </c>
-      <c r="D92" t="s">
-        <v>386</v>
-      </c>
-      <c r="E92" t="s">
-        <v>48</v>
-      </c>
-      <c r="F92" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" t="s">
-        <v>320</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="J92" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="B93" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="C93" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="D93" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="E93" t="s">
-        <v>48</v>
+        <v>377</v>
       </c>
       <c r="F93" t="s">
         <v>14</v>
@@ -4818,30 +4851,30 @@
         <v>295</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="J93" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="B94" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="C94" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="D94" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="E94" t="s">
-        <v>48</v>
+        <v>377</v>
       </c>
       <c r="F94" t="s">
         <v>14</v>
@@ -4850,27 +4883,27 @@
         <v>295</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="J94" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>401</v>
+      <c r="A95" s="4">
+        <v>18.399999999999999</v>
       </c>
       <c r="B95" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="C95" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="D95" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="E95" t="s">
         <v>48</v>
@@ -4879,27 +4912,27 @@
         <v>14</v>
       </c>
       <c r="G95" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>337</v>
+        <v>387</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>338</v>
+        <v>388</v>
       </c>
       <c r="J95" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="B96" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="C96" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="D96" t="s">
         <v>396</v>
@@ -4925,16 +4958,16 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B97" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="C97" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="D97" t="s">
-        <v>47</v>
+        <v>396</v>
       </c>
       <c r="E97" t="s">
         <v>48</v>
@@ -4957,16 +4990,16 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B98" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C98" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="D98" t="s">
-        <v>53</v>
+        <v>396</v>
       </c>
       <c r="E98" t="s">
         <v>48</v>
@@ -4989,16 +5022,16 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B99" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="C99" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="D99" t="s">
-        <v>47</v>
+        <v>396</v>
       </c>
       <c r="E99" t="s">
         <v>48</v>
@@ -5021,16 +5054,16 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="B100" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C100" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D100" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E100" t="s">
         <v>48</v>
@@ -5053,13 +5086,13 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="B101" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="C101" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="D101" t="s">
         <v>53</v>
@@ -5085,13 +5118,13 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B102" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="C102" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="D102" t="s">
         <v>47</v>
@@ -5117,16 +5150,16 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B103" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="C103" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="D103" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E103" t="s">
         <v>48</v>
@@ -5149,16 +5182,16 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="B104" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="C104" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="D104" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E104" t="s">
         <v>48</v>
@@ -5181,13 +5214,13 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="B105" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="C105" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="D105" t="s">
         <v>47</v>
@@ -5213,16 +5246,16 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B106" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C106" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="D106" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E106" t="s">
         <v>48</v>
@@ -5245,16 +5278,16 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B107" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C107" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="D107" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E107" t="s">
         <v>48</v>
@@ -5277,16 +5310,16 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="B108" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C108" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D108" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E108" t="s">
         <v>48</v>
@@ -5309,16 +5342,16 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="B109" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="C109" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="D109" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E109" t="s">
         <v>48</v>
@@ -5341,13 +5374,16 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="B110" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C110" t="s">
-        <v>447</v>
+        <v>441</v>
+      </c>
+      <c r="D110" t="s">
+        <v>47</v>
       </c>
       <c r="E110" t="s">
         <v>48</v>
@@ -5362,21 +5398,24 @@
         <v>337</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J110" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="B111" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="C111" t="s">
-        <v>450</v>
+        <v>440</v>
+      </c>
+      <c r="D111" t="s">
+        <v>60</v>
       </c>
       <c r="E111" t="s">
         <v>48</v>
@@ -5391,21 +5430,24 @@
         <v>337</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>451</v>
+        <v>338</v>
       </c>
       <c r="J111" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="B112" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="C112" t="s">
-        <v>454</v>
+        <v>444</v>
+      </c>
+      <c r="D112" t="s">
+        <v>47</v>
       </c>
       <c r="E112" t="s">
         <v>48</v>
@@ -5420,21 +5462,21 @@
         <v>337</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>455</v>
+        <v>338</v>
       </c>
       <c r="J112" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="B113" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="C113" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="E113" t="s">
         <v>48</v>
@@ -5449,7 +5491,7 @@
         <v>337</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>459</v>
+        <v>337</v>
       </c>
       <c r="J113" t="s">
         <v>42</v>
@@ -5457,13 +5499,13 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="B114" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="C114" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="E114" t="s">
         <v>48</v>
@@ -5478,7 +5520,7 @@
         <v>337</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="J114" t="s">
         <v>42</v>
@@ -5486,13 +5528,13 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="B115" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="C115" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="E115" t="s">
         <v>48</v>
@@ -5507,7 +5549,7 @@
         <v>337</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="J115" t="s">
         <v>42</v>
@@ -5515,13 +5557,13 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="B116" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="C116" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="E116" t="s">
         <v>48</v>
@@ -5536,7 +5578,7 @@
         <v>337</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="J116" t="s">
         <v>42</v>
@@ -5544,13 +5586,13 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="B117" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="C117" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="E117" t="s">
         <v>48</v>
@@ -5565,7 +5607,7 @@
         <v>337</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="J117" t="s">
         <v>42</v>
@@ -5573,13 +5615,13 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="B118" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="C118" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="E118" t="s">
         <v>48</v>
@@ -5594,7 +5636,7 @@
         <v>337</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="J118" t="s">
         <v>42</v>
@@ -5602,13 +5644,13 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>420</v>
+        <v>468</v>
       </c>
       <c r="B119" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="C119" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="E119" t="s">
         <v>48</v>
@@ -5623,9 +5665,96 @@
         <v>337</v>
       </c>
       <c r="I119" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="J119" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="B120" t="s">
+        <v>473</v>
+      </c>
+      <c r="C120" t="s">
+        <v>474</v>
+      </c>
+      <c r="E120" t="s">
+        <v>48</v>
+      </c>
+      <c r="F120" t="s">
+        <v>14</v>
+      </c>
+      <c r="G120" t="s">
+        <v>295</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="J120" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B121" t="s">
+        <v>477</v>
+      </c>
+      <c r="C121" t="s">
+        <v>478</v>
+      </c>
+      <c r="E121" t="s">
+        <v>48</v>
+      </c>
+      <c r="F121" t="s">
+        <v>14</v>
+      </c>
+      <c r="G121" t="s">
+        <v>295</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="J121" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B122" t="s">
+        <v>480</v>
+      </c>
+      <c r="C122" t="s">
+        <v>481</v>
+      </c>
+      <c r="E122" t="s">
+        <v>48</v>
+      </c>
+      <c r="F122" t="s">
+        <v>14</v>
+      </c>
+      <c r="G122" t="s">
+        <v>295</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I122" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="J119" t="s">
+      <c r="J122" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5656,17 +5785,17 @@
     <hyperlink ref="I73" r:id="rId22" xr:uid="{914239B8-66A3-4B5A-BFDA-A0DD4CC21F97}"/>
     <hyperlink ref="H73" r:id="rId23" xr:uid="{146728A6-A4D8-4655-9AC6-E4AFC9487D85}"/>
     <hyperlink ref="H71" r:id="rId24" xr:uid="{77E6D235-047D-4604-9151-F6D390761670}"/>
-    <hyperlink ref="H74" r:id="rId25" xr:uid="{CBE902CB-B0AB-48A1-AEB4-B161B4B9805A}"/>
-    <hyperlink ref="H76" r:id="rId26" xr:uid="{5B6DFFFC-2AC1-489A-A901-760C70C922B3}"/>
-    <hyperlink ref="H77" r:id="rId27" xr:uid="{BD5652B3-697C-4C44-953D-CAB46A31F9B0}"/>
-    <hyperlink ref="H78" r:id="rId28" xr:uid="{28092483-2915-418B-A2AF-12AB85843ECE}"/>
-    <hyperlink ref="I76" r:id="rId29" xr:uid="{2F9FC809-7044-49F3-AD2A-337755DC1F7E}"/>
-    <hyperlink ref="I77" r:id="rId30" xr:uid="{48DE6A5E-29CD-479E-A57E-6C321D874174}"/>
-    <hyperlink ref="I78" r:id="rId31" xr:uid="{75950DFD-39AB-4949-8A68-8C6D8137D57C}"/>
-    <hyperlink ref="H79" r:id="rId32" xr:uid="{1CEE2C1C-5CAA-4221-9E9E-023216550247}"/>
-    <hyperlink ref="I79" r:id="rId33" display="https://www.dropbox.com/scl/fi/7m1z10fp5kfeodsxiwgyi/8.1.xlsx?cloud_editor=excel&amp;dl=0&amp;rlkey=zjmyfc1pkvo57zz610q9in13r" xr:uid="{A8BDBCBD-3D45-433E-945C-C50EF42330AA}"/>
-    <hyperlink ref="H92" r:id="rId34" xr:uid="{2D514D50-5C2E-4495-96EE-18447C70E010}"/>
-    <hyperlink ref="I92" r:id="rId35" xr:uid="{71AA66DE-A95F-45E5-A807-39BAEBABCD4A}"/>
+    <hyperlink ref="H77" r:id="rId25" xr:uid="{CBE902CB-B0AB-48A1-AEB4-B161B4B9805A}"/>
+    <hyperlink ref="H79" r:id="rId26" xr:uid="{5B6DFFFC-2AC1-489A-A901-760C70C922B3}"/>
+    <hyperlink ref="H80" r:id="rId27" xr:uid="{BD5652B3-697C-4C44-953D-CAB46A31F9B0}"/>
+    <hyperlink ref="H81" r:id="rId28" xr:uid="{28092483-2915-418B-A2AF-12AB85843ECE}"/>
+    <hyperlink ref="I79" r:id="rId29" xr:uid="{2F9FC809-7044-49F3-AD2A-337755DC1F7E}"/>
+    <hyperlink ref="I80" r:id="rId30" xr:uid="{48DE6A5E-29CD-479E-A57E-6C321D874174}"/>
+    <hyperlink ref="I81" r:id="rId31" xr:uid="{75950DFD-39AB-4949-8A68-8C6D8137D57C}"/>
+    <hyperlink ref="H82" r:id="rId32" xr:uid="{1CEE2C1C-5CAA-4221-9E9E-023216550247}"/>
+    <hyperlink ref="I82" r:id="rId33" display="https://www.dropbox.com/scl/fi/7m1z10fp5kfeodsxiwgyi/8.1.xlsx?cloud_editor=excel&amp;dl=0&amp;rlkey=zjmyfc1pkvo57zz610q9in13r" xr:uid="{A8BDBCBD-3D45-433E-945C-C50EF42330AA}"/>
+    <hyperlink ref="H95" r:id="rId34" xr:uid="{2D514D50-5C2E-4495-96EE-18447C70E010}"/>
+    <hyperlink ref="I95" r:id="rId35" xr:uid="{71AA66DE-A95F-45E5-A807-39BAEBABCD4A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId36"/>

--- a/00Consolidado Tablas Madre.xlsx
+++ b/00Consolidado Tablas Madre.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojas.DESKTOP-91OCPB2\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7AF798-067D-434D-9ABB-AB3B44B98F31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D650C1D7-A644-4E24-B0A9-DC5C67B2140D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1770" windowWidth="15375" windowHeight="7875" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidado" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="575">
   <si>
     <t>Código Tabla</t>
   </si>
@@ -1153,9 +1153,6 @@
     <t>Distribución_por_tipo_explotacion</t>
   </si>
   <si>
-    <t>didstribucion_por_tipo_pastoreo</t>
-  </si>
-  <si>
     <t>Porcentaje</t>
   </si>
   <si>
@@ -1174,12 +1171,6 @@
     <t>Dsitribución (%) de explotación por actividad principal (lechería, engorda y crianza) por provincia. BOVINO</t>
   </si>
   <si>
-    <t>Dsitribución (%) de explotación por tipo de actividad pecuaria y por provincia. BOVINO</t>
-  </si>
-  <si>
-    <t>Dsitribución (%) de explotación por tipo pastoreo utilizado con el ganado y por provincia. BOVINO</t>
-  </si>
-  <si>
     <t>Consumo_Madera_Troza</t>
   </si>
   <si>
@@ -1517,6 +1508,249 @@
   </si>
   <si>
     <t>https://www.dropbox.com/s/bb6jcp9e5t0htrr/4.11.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>6.11</t>
+  </si>
+  <si>
+    <t>6.12</t>
+  </si>
+  <si>
+    <t>6.13</t>
+  </si>
+  <si>
+    <t>6.14</t>
+  </si>
+  <si>
+    <t>6.15</t>
+  </si>
+  <si>
+    <t>6.16</t>
+  </si>
+  <si>
+    <t>6.17</t>
+  </si>
+  <si>
+    <t>6.18</t>
+  </si>
+  <si>
+    <t>6.19</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>6.21</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>6.8</t>
+  </si>
+  <si>
+    <t>6.9</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>11.1</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>13.1</t>
+  </si>
+  <si>
+    <t>13.2</t>
+  </si>
+  <si>
+    <t>13.3</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>14.1</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>11.2</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>4.13</t>
+  </si>
+  <si>
+    <t>15.1</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>17.2</t>
+  </si>
+  <si>
+    <t>18.1</t>
+  </si>
+  <si>
+    <t>18.2</t>
+  </si>
+  <si>
+    <t>18.3</t>
+  </si>
+  <si>
+    <t>18.4</t>
+  </si>
+  <si>
+    <t>Distribucion_por_tipo_pastoreo</t>
+  </si>
+  <si>
+    <t>Distribución (%) de explotación por tipo pastoreo utilizado con el ganado y por provincia. BOVINO</t>
+  </si>
+  <si>
+    <t>Distribución (%) de explotación por tipo de actividad pecuaria y por provincia. BOVINO</t>
+  </si>
+  <si>
+    <t>17.12</t>
+  </si>
+  <si>
+    <t>17.13</t>
+  </si>
+  <si>
+    <t>17.14</t>
+  </si>
+  <si>
+    <t>17.15</t>
+  </si>
+  <si>
+    <t>17.16</t>
+  </si>
+  <si>
+    <t>17.17</t>
+  </si>
+  <si>
+    <t>Distribucion_uso_Inseminación_artificial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribución (%) de explotación de lecherias por provincias, si usan o no inseminación artificial </t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/voncb5k9r8whgij/17.12.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/0lbxt77i90ekvzm/17.13.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/04k7cwvvqf7wwdm/17.14.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/17vh2n9quid96na/17.15.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/ik6byic48ok4lfn/17.16.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/s53x7u1uij4gd23/17.17.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Distribucion_Utilizacion_leche_por_destino_produccion</t>
+  </si>
+  <si>
+    <t>Distribución (%) de distribución de la leche por destino de producción (plantas lecheras, queserías, etc) por provincia</t>
+  </si>
+  <si>
+    <t>Distribucion_lecherias_por_partos</t>
+  </si>
+  <si>
+    <t>Distribución (%) lecherías por provincia, según el número de partos por vaca</t>
+  </si>
+  <si>
+    <t>Distribucion_vaquillas_edad_primer_parto</t>
+  </si>
+  <si>
+    <t>Distribución (%) por provicia, según edad del primer parto de la vaquilla</t>
+  </si>
+  <si>
+    <t>Distribucion_destino_terneras_macho_en_lecherias</t>
+  </si>
+  <si>
+    <t>Distribución (%) por provicia, según destino de los terneros machos nacidos en lecherías</t>
+  </si>
+  <si>
+    <t>Distribucion_eliminacion_vacas_por_causa_lecherias</t>
+  </si>
+  <si>
+    <t>Distribución (%) por provicia, según razon de eliminación de vacas en lecherías</t>
   </si>
 </sst>
 </file>
@@ -1588,23 +1822,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1613,6 +1845,7 @@
   </cellStyles>
   <dxfs count="1">
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -1629,10 +1862,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A1:J122" totalsRowShown="0">
-  <autoFilter ref="A1:J122" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J39">
-    <sortCondition ref="A1:A39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A1:J128" totalsRowShown="0">
+  <autoFilter ref="A1:J128" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J122">
+    <sortCondition ref="A1:A122"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{7C5348D6-A85E-4EC9-97BD-67166306597F}" name="Código Tabla" dataDxfId="0"/>
@@ -1947,10 +2180,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD49B1B1-33D3-49D9-BF85-AA2E2407F985}">
-  <dimension ref="A1:J122"/>
+  <dimension ref="A1:J128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2000,209 +2233,205 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>1.1000000000000001</v>
+      <c r="A2" s="13">
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D6" t="s">
+        <v>288</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>2.1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>3.1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>3.2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" t="s">
-        <v>42</v>
-      </c>
-    </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>4.0999999999999996</v>
+      <c r="A8" s="13" t="s">
+        <v>188</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>189</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>191</v>
       </c>
       <c r="E8" t="s">
         <v>48</v>
@@ -2210,27 +2439,31 @@
       <c r="F8" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="3"/>
+      <c r="G8" t="s">
+        <v>192</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="I8" s="1" t="s">
-        <v>49</v>
+        <v>194</v>
       </c>
       <c r="J8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>4.2</v>
+      <c r="A9" s="13" t="s">
+        <v>242</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>243</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>244</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>245</v>
       </c>
       <c r="E9" t="s">
         <v>48</v>
@@ -2238,318 +2471,352 @@
       <c r="F9" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="3"/>
+      <c r="G9" t="s">
+        <v>246</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="I9" s="1" t="s">
-        <v>54</v>
+        <v>248</v>
       </c>
       <c r="J9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>4.3</v>
+      <c r="A10" s="13" t="s">
+        <v>526</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>157</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="B11" t="s">
+        <v>273</v>
+      </c>
+      <c r="C11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>275</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="J11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>170</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>170</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>170</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="B16" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D16" t="s">
         <v>47</v>
       </c>
-      <c r="E10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="B11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>213</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="B17" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>218</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="B18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>218</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="B19" t="s">
+        <v>227</v>
+      </c>
+      <c r="C19" t="s">
+        <v>228</v>
+      </c>
+      <c r="D19" t="s">
+        <v>229</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="B13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>6.1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>6.1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>6.11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>6.12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s">
-        <v>48</v>
-      </c>
       <c r="F19" t="s">
         <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>230</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>79</v>
+        <v>231</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>92</v>
+        <v>232</v>
       </c>
       <c r="J19" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>6.13</v>
+      <c r="A20" s="13" t="s">
+        <v>541</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>360</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="D20" t="s">
+        <v>362</v>
+      </c>
       <c r="E20" t="s">
         <v>48</v>
       </c>
@@ -2557,59 +2824,63 @@
         <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>306</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>95</v>
+        <v>308</v>
       </c>
       <c r="J20" t="s">
-        <v>76</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>6.14</v>
+      <c r="A21" s="13" t="s">
+        <v>369</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>373</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="D21" t="s">
+        <v>375</v>
+      </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>376</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>73</v>
+        <v>295</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>79</v>
+        <v>372</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>97</v>
+        <v>377</v>
       </c>
       <c r="J21" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>6.15</v>
+      <c r="A22" s="13" t="s">
+        <v>344</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>389</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
       <c r="E22" t="s">
         <v>48</v>
       </c>
@@ -2617,59 +2888,63 @@
         <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>73</v>
+        <v>295</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>97</v>
+        <v>338</v>
       </c>
       <c r="J22" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>6.16</v>
+      <c r="A23" s="13" t="s">
+        <v>371</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>548</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="2"/>
+        <v>549</v>
+      </c>
+      <c r="D23" t="s">
+        <v>375</v>
+      </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>376</v>
       </c>
       <c r="F23" t="s">
         <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>73</v>
+        <v>295</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>79</v>
+        <v>372</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>102</v>
+        <v>379</v>
       </c>
       <c r="J23" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <v>6.17</v>
+      <c r="A24" s="13" t="s">
+        <v>390</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>391</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="D24" t="s">
+        <v>393</v>
+      </c>
       <c r="E24" t="s">
         <v>48</v>
       </c>
@@ -2677,29 +2952,31 @@
         <v>14</v>
       </c>
       <c r="G24" t="s">
-        <v>73</v>
+        <v>295</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>105</v>
+        <v>338</v>
       </c>
       <c r="J24" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
-        <v>6.18</v>
+      <c r="A25" s="13" t="s">
+        <v>395</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>394</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
-      </c>
-      <c r="D25" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="D25" t="s">
+        <v>393</v>
+      </c>
       <c r="E25" t="s">
         <v>48</v>
       </c>
@@ -2707,59 +2984,63 @@
         <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>73</v>
+        <v>295</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>108</v>
+        <v>338</v>
       </c>
       <c r="J25" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
-        <v>6.19</v>
+      <c r="A26" s="13" t="s">
+        <v>543</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>313</v>
       </c>
       <c r="C26" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="D26" t="s">
+        <v>143</v>
+      </c>
       <c r="E26" t="s">
-        <v>48</v>
+        <v>315</v>
       </c>
       <c r="F26" t="s">
         <v>14</v>
       </c>
       <c r="G26" t="s">
-        <v>73</v>
+        <v>316</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>111</v>
+        <v>318</v>
       </c>
       <c r="J26" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
-        <v>6.2</v>
+      <c r="A27" s="13" t="s">
+        <v>398</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>397</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="D27" t="s">
+        <v>393</v>
+      </c>
       <c r="E27" t="s">
         <v>48</v>
       </c>
@@ -2767,29 +3048,31 @@
         <v>14</v>
       </c>
       <c r="G27" t="s">
-        <v>73</v>
+        <v>295</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>114</v>
+        <v>338</v>
       </c>
       <c r="J27" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
-        <v>6.2</v>
+      <c r="A28" s="13" t="s">
+        <v>401</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>400</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
-      </c>
-      <c r="D28" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="D28" t="s">
+        <v>393</v>
+      </c>
       <c r="E28" t="s">
         <v>48</v>
       </c>
@@ -2797,29 +3080,31 @@
         <v>14</v>
       </c>
       <c r="G28" t="s">
-        <v>73</v>
+        <v>295</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>117</v>
+        <v>338</v>
       </c>
       <c r="J28" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
-        <v>6.21</v>
+      <c r="A29" s="13" t="s">
+        <v>403</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>405</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
-      </c>
-      <c r="D29" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
       <c r="E29" t="s">
         <v>48</v>
       </c>
@@ -2827,29 +3112,31 @@
         <v>14</v>
       </c>
       <c r="G29" t="s">
-        <v>73</v>
+        <v>295</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>120</v>
+        <v>338</v>
       </c>
       <c r="J29" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
-        <v>6.3</v>
+      <c r="A30" s="13" t="s">
+        <v>404</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>406</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="D30" t="s">
+        <v>53</v>
+      </c>
       <c r="E30" t="s">
         <v>48</v>
       </c>
@@ -2857,29 +3144,31 @@
         <v>14</v>
       </c>
       <c r="G30" t="s">
-        <v>73</v>
+        <v>295</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>123</v>
+        <v>338</v>
       </c>
       <c r="J30" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
-        <v>6.4</v>
+      <c r="A31" s="13" t="s">
+        <v>410</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
+        <v>409</v>
       </c>
       <c r="C31" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
       <c r="E31" t="s">
         <v>48</v>
       </c>
@@ -2887,29 +3176,31 @@
         <v>14</v>
       </c>
       <c r="G31" t="s">
-        <v>73</v>
+        <v>295</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>126</v>
+        <v>338</v>
       </c>
       <c r="J31" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
-        <v>6.5</v>
+      <c r="A32" s="13" t="s">
+        <v>413</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>412</v>
       </c>
       <c r="C32" t="s">
-        <v>128</v>
-      </c>
-      <c r="D32" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="D32" t="s">
+        <v>53</v>
+      </c>
       <c r="E32" t="s">
         <v>48</v>
       </c>
@@ -2917,29 +3208,28 @@
         <v>14</v>
       </c>
       <c r="G32" t="s">
-        <v>73</v>
+        <v>295</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>129</v>
+        <v>338</v>
       </c>
       <c r="J32" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>6.6</v>
+      <c r="A33" s="13" t="s">
+        <v>442</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
+        <v>443</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
-      </c>
-      <c r="D33" s="2"/>
+        <v>444</v>
+      </c>
       <c r="E33" t="s">
         <v>48</v>
       </c>
@@ -2947,29 +3237,28 @@
         <v>14</v>
       </c>
       <c r="G33" t="s">
-        <v>73</v>
+        <v>295</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>132</v>
+        <v>337</v>
       </c>
       <c r="J33" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
-        <v>6.7</v>
+      <c r="A34" s="13" t="s">
+        <v>445</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>446</v>
       </c>
       <c r="C34" t="s">
-        <v>134</v>
-      </c>
-      <c r="D34" s="2"/>
+        <v>447</v>
+      </c>
       <c r="E34" t="s">
         <v>48</v>
       </c>
@@ -2977,29 +3266,28 @@
         <v>14</v>
       </c>
       <c r="G34" t="s">
-        <v>73</v>
+        <v>295</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>135</v>
+        <v>448</v>
       </c>
       <c r="J34" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
-        <v>6.8</v>
+      <c r="A35" s="13" t="s">
+        <v>449</v>
       </c>
       <c r="B35" t="s">
-        <v>136</v>
+        <v>450</v>
       </c>
       <c r="C35" t="s">
-        <v>137</v>
-      </c>
-      <c r="D35" s="2"/>
+        <v>451</v>
+      </c>
       <c r="E35" t="s">
         <v>48</v>
       </c>
@@ -3007,60 +3295,59 @@
         <v>14</v>
       </c>
       <c r="G35" t="s">
-        <v>73</v>
+        <v>295</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>138</v>
+        <v>452</v>
       </c>
       <c r="J35" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
-        <v>6.9</v>
+      <c r="A36" s="13" t="s">
+        <v>370</v>
       </c>
       <c r="B36" t="s">
-        <v>139</v>
+        <v>374</v>
       </c>
       <c r="C36" t="s">
-        <v>140</v>
-      </c>
-      <c r="D36" s="2"/>
+        <v>550</v>
+      </c>
+      <c r="D36" t="s">
+        <v>375</v>
+      </c>
       <c r="E36" t="s">
-        <v>48</v>
+        <v>376</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
       </c>
       <c r="G36" t="s">
-        <v>73</v>
+        <v>295</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>79</v>
+        <v>372</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>86</v>
+        <v>378</v>
       </c>
       <c r="J36" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
-        <v>7.1</v>
+      <c r="A37" s="13" t="s">
+        <v>453</v>
       </c>
       <c r="B37" t="s">
-        <v>141</v>
+        <v>454</v>
       </c>
       <c r="C37" t="s">
-        <v>142</v>
-      </c>
-      <c r="D37" t="s">
-        <v>143</v>
+        <v>455</v>
       </c>
       <c r="E37" t="s">
         <v>48</v>
@@ -3069,30 +3356,27 @@
         <v>14</v>
       </c>
       <c r="G37" t="s">
-        <v>144</v>
+        <v>295</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>145</v>
+        <v>337</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>146</v>
+        <v>456</v>
       </c>
       <c r="J37" t="s">
-        <v>147</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>9</v>
+      <c r="A38" s="13" t="s">
+        <v>457</v>
       </c>
       <c r="B38" t="s">
-        <v>148</v>
+        <v>458</v>
       </c>
       <c r="C38" t="s">
-        <v>149</v>
-      </c>
-      <c r="D38" t="s">
-        <v>143</v>
+        <v>459</v>
       </c>
       <c r="E38" t="s">
         <v>48</v>
@@ -3101,30 +3385,27 @@
         <v>14</v>
       </c>
       <c r="G38" t="s">
-        <v>150</v>
+        <v>295</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>151</v>
+        <v>337</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>152</v>
+        <v>460</v>
       </c>
       <c r="J38" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>9</v>
+      <c r="A39" s="13" t="s">
+        <v>461</v>
       </c>
       <c r="B39" t="s">
-        <v>153</v>
+        <v>462</v>
       </c>
       <c r="C39" t="s">
-        <v>154</v>
-      </c>
-      <c r="D39" t="s">
-        <v>143</v>
+        <v>463</v>
       </c>
       <c r="E39" t="s">
         <v>48</v>
@@ -3133,222 +3414,210 @@
         <v>14</v>
       </c>
       <c r="G39" t="s">
-        <v>150</v>
+        <v>295</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>151</v>
+        <v>337</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>152</v>
+        <v>464</v>
       </c>
       <c r="J39" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>11.1</v>
+      <c r="A40" s="13" t="s">
+        <v>465</v>
       </c>
       <c r="B40" t="s">
-        <v>155</v>
+        <v>466</v>
       </c>
       <c r="C40" t="s">
-        <v>156</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>65</v>
+        <v>467</v>
+      </c>
+      <c r="E40" t="s">
+        <v>48</v>
       </c>
       <c r="F40" t="s">
         <v>14</v>
       </c>
       <c r="G40" t="s">
-        <v>157</v>
+        <v>295</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>158</v>
+        <v>337</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>159</v>
+        <v>468</v>
       </c>
       <c r="J40" t="s">
-        <v>160</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>3.3</v>
+      <c r="A41" s="13" t="s">
+        <v>469</v>
       </c>
       <c r="B41" t="s">
-        <v>161</v>
+        <v>470</v>
       </c>
       <c r="C41" t="s">
-        <v>162</v>
-      </c>
-      <c r="D41" t="s">
-        <v>21</v>
+        <v>471</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="F41" t="s">
         <v>14</v>
       </c>
       <c r="G41" t="s">
-        <v>163</v>
+        <v>295</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>164</v>
+        <v>337</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>165</v>
+        <v>472</v>
       </c>
       <c r="J41" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>167</v>
+      <c r="A42" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="B42" t="s">
+        <v>474</v>
       </c>
       <c r="C42" t="s">
-        <v>168</v>
-      </c>
-      <c r="D42" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>169</v>
+        <v>475</v>
+      </c>
+      <c r="E42" t="s">
+        <v>48</v>
       </c>
       <c r="F42" t="s">
         <v>14</v>
       </c>
       <c r="G42" t="s">
-        <v>170</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>171</v>
+        <v>295</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>172</v>
+        <v>476</v>
       </c>
       <c r="J42" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>173</v>
+      <c r="A43" s="13" t="s">
+        <v>417</v>
       </c>
       <c r="B43" t="s">
-        <v>174</v>
+        <v>418</v>
       </c>
       <c r="C43" t="s">
-        <v>175</v>
+        <v>420</v>
       </c>
       <c r="D43" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>169</v>
+        <v>47</v>
+      </c>
+      <c r="E43" t="s">
+        <v>48</v>
       </c>
       <c r="F43" t="s">
         <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>170</v>
+        <v>295</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>176</v>
+        <v>337</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>177</v>
+        <v>338</v>
       </c>
       <c r="J43" t="s">
-        <v>26</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>178</v>
+      <c r="A44" s="13" t="s">
+        <v>417</v>
       </c>
       <c r="B44" t="s">
-        <v>179</v>
+        <v>477</v>
       </c>
       <c r="C44" t="s">
-        <v>180</v>
-      </c>
-      <c r="D44" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>169</v>
+        <v>478</v>
+      </c>
+      <c r="E44" t="s">
+        <v>48</v>
       </c>
       <c r="F44" t="s">
         <v>14</v>
       </c>
       <c r="G44" t="s">
-        <v>170</v>
+        <v>295</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>181</v>
+        <v>337</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>182</v>
+        <v>479</v>
       </c>
       <c r="J44" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>183</v>
+      <c r="A45" s="13" t="s">
+        <v>415</v>
       </c>
       <c r="B45" t="s">
-        <v>184</v>
+        <v>416</v>
       </c>
       <c r="C45" t="s">
-        <v>185</v>
+        <v>419</v>
       </c>
       <c r="D45" t="s">
-        <v>21</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>169</v>
+        <v>53</v>
+      </c>
+      <c r="E45" t="s">
+        <v>48</v>
       </c>
       <c r="F45" t="s">
         <v>14</v>
       </c>
       <c r="G45" t="s">
-        <v>170</v>
+        <v>295</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>186</v>
+        <v>337</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>187</v>
+        <v>338</v>
       </c>
       <c r="J45" t="s">
-        <v>26</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>188</v>
+      <c r="A46" s="13" t="s">
+        <v>421</v>
       </c>
       <c r="B46" t="s">
-        <v>189</v>
+        <v>422</v>
       </c>
       <c r="C46" t="s">
-        <v>190</v>
+        <v>423</v>
       </c>
       <c r="D46" t="s">
-        <v>191</v>
+        <v>47</v>
       </c>
       <c r="E46" t="s">
         <v>48</v>
@@ -3357,30 +3626,30 @@
         <v>14</v>
       </c>
       <c r="G46" t="s">
-        <v>192</v>
+        <v>295</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>193</v>
+        <v>337</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>194</v>
+        <v>338</v>
       </c>
       <c r="J46" t="s">
-        <v>50</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>195</v>
+      <c r="A47" s="13" t="s">
+        <v>424</v>
       </c>
       <c r="B47" t="s">
-        <v>196</v>
+        <v>425</v>
       </c>
       <c r="C47" t="s">
-        <v>197</v>
+        <v>426</v>
       </c>
       <c r="D47" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="E47" t="s">
         <v>48</v>
@@ -3389,30 +3658,30 @@
         <v>14</v>
       </c>
       <c r="G47" t="s">
-        <v>198</v>
+        <v>295</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>199</v>
+        <v>337</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>200</v>
+        <v>338</v>
       </c>
       <c r="J47" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
-        <v>2.4</v>
+      <c r="A48" s="13" t="s">
+        <v>334</v>
       </c>
       <c r="B48" t="s">
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="C48" t="s">
-        <v>202</v>
+        <v>336</v>
       </c>
       <c r="D48" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E48" t="s">
         <v>48</v>
@@ -3421,30 +3690,30 @@
         <v>14</v>
       </c>
       <c r="G48" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>203</v>
+        <v>337</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>204</v>
+        <v>338</v>
       </c>
       <c r="J48" t="s">
-        <v>26</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>205</v>
+      <c r="A49" s="13" t="s">
+        <v>427</v>
       </c>
       <c r="B49" t="s">
-        <v>206</v>
+        <v>430</v>
       </c>
       <c r="C49" t="s">
-        <v>207</v>
+        <v>431</v>
       </c>
       <c r="D49" t="s">
-        <v>143</v>
+        <v>47</v>
       </c>
       <c r="E49" t="s">
         <v>48</v>
@@ -3453,30 +3722,30 @@
         <v>14</v>
       </c>
       <c r="G49" t="s">
-        <v>208</v>
+        <v>295</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>209</v>
+        <v>337</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>210</v>
+        <v>338</v>
       </c>
       <c r="J49" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
-        <v>13.1</v>
+      <c r="A50" s="13" t="s">
+        <v>428</v>
       </c>
       <c r="B50" t="s">
-        <v>211</v>
+        <v>429</v>
       </c>
       <c r="C50" t="s">
-        <v>212</v>
+        <v>432</v>
       </c>
       <c r="D50" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E50" t="s">
         <v>48</v>
@@ -3485,27 +3754,27 @@
         <v>14</v>
       </c>
       <c r="G50" t="s">
-        <v>213</v>
+        <v>295</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>214</v>
+        <v>337</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>215</v>
+        <v>338</v>
       </c>
       <c r="J50" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
-        <v>13.2</v>
+      <c r="A51" s="13" t="s">
+        <v>433</v>
       </c>
       <c r="B51" t="s">
-        <v>216</v>
+        <v>434</v>
       </c>
       <c r="C51" t="s">
-        <v>217</v>
+        <v>438</v>
       </c>
       <c r="D51" t="s">
         <v>47</v>
@@ -3517,63 +3786,63 @@
         <v>14</v>
       </c>
       <c r="G51" t="s">
-        <v>218</v>
+        <v>295</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>219</v>
+        <v>337</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>220</v>
+        <v>338</v>
       </c>
       <c r="J51" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
-        <v>13.3</v>
+      <c r="A52" s="13" t="s">
+        <v>436</v>
       </c>
       <c r="B52" t="s">
-        <v>221</v>
+        <v>435</v>
       </c>
       <c r="C52" t="s">
-        <v>222</v>
+        <v>437</v>
       </c>
       <c r="D52" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" t="s">
+        <v>295</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J52" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="B53" t="s">
+        <v>439</v>
+      </c>
+      <c r="C53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D53" t="s">
         <v>47</v>
       </c>
-      <c r="E52" t="s">
-        <v>48</v>
-      </c>
-      <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>218</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="J52" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="B53" t="s">
-        <v>224</v>
-      </c>
-      <c r="C53" t="s">
-        <v>225</v>
-      </c>
-      <c r="D53" t="s">
-        <v>21</v>
-      </c>
       <c r="E53" t="s">
         <v>48</v>
       </c>
@@ -3581,62 +3850,62 @@
         <v>14</v>
       </c>
       <c r="G53" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>203</v>
+        <v>337</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>226</v>
+        <v>338</v>
       </c>
       <c r="J53" t="s">
-        <v>26</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
-        <v>14.1</v>
+      <c r="A54" s="13" t="s">
+        <v>339</v>
       </c>
       <c r="B54" t="s">
-        <v>227</v>
+        <v>345</v>
       </c>
       <c r="C54" t="s">
-        <v>228</v>
+        <v>346</v>
       </c>
       <c r="D54" t="s">
-        <v>229</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
+      </c>
+      <c r="E54" t="s">
+        <v>48</v>
       </c>
       <c r="F54" t="s">
         <v>14</v>
       </c>
       <c r="G54" t="s">
-        <v>230</v>
+        <v>295</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>231</v>
+        <v>337</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>232</v>
+        <v>338</v>
       </c>
       <c r="J54" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
-        <v>2.6</v>
+      <c r="A55" s="13" t="s">
+        <v>340</v>
       </c>
       <c r="B55" t="s">
-        <v>233</v>
+        <v>347</v>
       </c>
       <c r="C55" t="s">
-        <v>234</v>
+        <v>348</v>
       </c>
       <c r="D55" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E55" t="s">
         <v>48</v>
@@ -3645,27 +3914,27 @@
         <v>14</v>
       </c>
       <c r="G55" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>203</v>
+        <v>337</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>235</v>
+        <v>338</v>
       </c>
       <c r="J55" t="s">
-        <v>26</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
-        <v>2.7</v>
+      <c r="A56" s="13" t="s">
+        <v>341</v>
       </c>
       <c r="B56" t="s">
-        <v>236</v>
+        <v>386</v>
       </c>
       <c r="C56" t="s">
-        <v>237</v>
+        <v>350</v>
       </c>
       <c r="D56" t="s">
         <v>21</v>
@@ -3677,27 +3946,27 @@
         <v>14</v>
       </c>
       <c r="G56" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>203</v>
+        <v>337</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>238</v>
+        <v>338</v>
       </c>
       <c r="J56" t="s">
-        <v>26</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
-        <v>2.8</v>
+      <c r="A57" s="13" t="s">
+        <v>342</v>
       </c>
       <c r="B57" t="s">
-        <v>239</v>
+        <v>387</v>
       </c>
       <c r="C57" t="s">
-        <v>240</v>
+        <v>349</v>
       </c>
       <c r="D57" t="s">
         <v>21</v>
@@ -3709,63 +3978,63 @@
         <v>14</v>
       </c>
       <c r="G57" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>203</v>
+        <v>337</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>241</v>
+        <v>338</v>
       </c>
       <c r="J57" t="s">
-        <v>26</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>242</v>
+      <c r="A58" s="13" t="s">
+        <v>343</v>
       </c>
       <c r="B58" t="s">
-        <v>243</v>
+        <v>388</v>
       </c>
       <c r="C58" t="s">
-        <v>244</v>
+        <v>351</v>
       </c>
       <c r="D58" t="s">
+        <v>47</v>
+      </c>
+      <c r="E58" t="s">
+        <v>48</v>
+      </c>
+      <c r="F58" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" t="s">
+        <v>295</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J58" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="B59" t="s">
+        <v>319</v>
+      </c>
+      <c r="C59" t="s">
+        <v>363</v>
+      </c>
+      <c r="D59" t="s">
         <v>245</v>
       </c>
-      <c r="E58" t="s">
-        <v>48</v>
-      </c>
-      <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>246</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="J58" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
-        <v>2.9</v>
-      </c>
-      <c r="B59" t="s">
-        <v>249</v>
-      </c>
-      <c r="C59" t="s">
-        <v>250</v>
-      </c>
-      <c r="D59" t="s">
-        <v>21</v>
-      </c>
       <c r="E59" t="s">
         <v>48</v>
       </c>
@@ -3773,30 +4042,30 @@
         <v>14</v>
       </c>
       <c r="G59" t="s">
-        <v>23</v>
+        <v>320</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>203</v>
+        <v>321</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>251</v>
+        <v>322</v>
       </c>
       <c r="J59" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>252</v>
+      <c r="A60" s="13" t="s">
+        <v>545</v>
       </c>
       <c r="B60" t="s">
-        <v>253</v>
+        <v>323</v>
       </c>
       <c r="C60" t="s">
-        <v>254</v>
+        <v>364</v>
       </c>
       <c r="D60" t="s">
-        <v>21</v>
+        <v>324</v>
       </c>
       <c r="E60" t="s">
         <v>48</v>
@@ -3805,27 +4074,27 @@
         <v>14</v>
       </c>
       <c r="G60" t="s">
-        <v>208</v>
+        <v>320</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>209</v>
+        <v>321</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>255</v>
+        <v>325</v>
       </c>
       <c r="J60" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>256</v>
+      <c r="A61" s="13" t="s">
+        <v>546</v>
       </c>
       <c r="B61" t="s">
-        <v>257</v>
+        <v>326</v>
       </c>
       <c r="C61" t="s">
-        <v>258</v>
+        <v>365</v>
       </c>
       <c r="D61" t="s">
         <v>21</v>
@@ -3837,30 +4106,30 @@
         <v>14</v>
       </c>
       <c r="G61" t="s">
-        <v>208</v>
+        <v>320</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>209</v>
+        <v>321</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>255</v>
+        <v>327</v>
       </c>
       <c r="J61" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>259</v>
+      <c r="A62" s="13" t="s">
+        <v>547</v>
       </c>
       <c r="B62" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="C62" t="s">
-        <v>261</v>
+        <v>382</v>
       </c>
       <c r="D62" t="s">
-        <v>21</v>
+        <v>383</v>
       </c>
       <c r="E62" t="s">
         <v>48</v>
@@ -3869,30 +4138,30 @@
         <v>14</v>
       </c>
       <c r="G62" t="s">
-        <v>208</v>
+        <v>320</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>209</v>
+        <v>384</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>255</v>
+        <v>385</v>
       </c>
       <c r="J62" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>262</v>
+      <c r="A63" s="13" t="s">
+        <v>353</v>
       </c>
       <c r="B63" t="s">
-        <v>263</v>
+        <v>356</v>
       </c>
       <c r="C63" t="s">
-        <v>264</v>
+        <v>367</v>
       </c>
       <c r="D63" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E63" t="s">
         <v>48</v>
@@ -3901,30 +4170,28 @@
         <v>14</v>
       </c>
       <c r="G63" t="s">
-        <v>208</v>
+        <v>357</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>255</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="I63" s="1"/>
       <c r="J63" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>265</v>
+      <c r="A64" s="13" t="s">
+        <v>354</v>
       </c>
       <c r="B64" t="s">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="C64" t="s">
-        <v>267</v>
+        <v>368</v>
       </c>
       <c r="D64" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E64" t="s">
         <v>48</v>
@@ -3933,33 +4200,31 @@
         <v>14</v>
       </c>
       <c r="G64" t="s">
-        <v>208</v>
+        <v>357</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="J64" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="I64" s="1"/>
+      <c r="J64" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>269</v>
+      <c r="A65" s="13" t="s">
+        <v>495</v>
       </c>
       <c r="B65" t="s">
-        <v>270</v>
+        <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>271</v>
+        <v>20</v>
       </c>
       <c r="D65" t="s">
         <v>21</v>
       </c>
       <c r="E65" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F65" t="s">
         <v>14</v>
@@ -3968,49 +4233,49 @@
         <v>23</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>203</v>
+        <v>24</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>272</v>
+        <v>25</v>
       </c>
       <c r="J65" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
-        <v>11.2</v>
+      <c r="A66" s="13" t="s">
+        <v>269</v>
       </c>
       <c r="B66" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C66" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D66" t="s">
-        <v>143</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>65</v>
+        <v>21</v>
+      </c>
+      <c r="E66" t="s">
+        <v>48</v>
       </c>
       <c r="F66" t="s">
         <v>14</v>
       </c>
       <c r="G66" t="s">
-        <v>275</v>
+        <v>23</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>276</v>
+        <v>203</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="J66" t="s">
-        <v>160</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="13" t="s">
         <v>278</v>
       </c>
       <c r="B67" t="s">
@@ -4042,7 +4307,7 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="13" t="s">
         <v>282</v>
       </c>
       <c r="B68" t="s">
@@ -4074,81 +4339,81 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
-        <v>16</v>
+      <c r="A69" s="13" t="s">
+        <v>496</v>
       </c>
       <c r="B69" t="s">
-        <v>286</v>
+        <v>27</v>
       </c>
       <c r="C69" t="s">
-        <v>287</v>
+        <v>28</v>
       </c>
       <c r="D69" t="s">
-        <v>288</v>
-      </c>
-      <c r="E69" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="F69" t="s">
         <v>14</v>
       </c>
-      <c r="G69" t="s">
-        <v>289</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>290</v>
+      <c r="G69" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>291</v>
+        <v>32</v>
       </c>
       <c r="J69" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F70" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="H70" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="I70" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="J70" s="10" t="s">
-        <v>50</v>
+      <c r="A70" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="B70" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D70" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" t="s">
+        <v>30</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J70" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
-        <v>4.7</v>
+      <c r="A71" s="13" t="s">
+        <v>528</v>
       </c>
       <c r="B71" t="s">
-        <v>298</v>
+        <v>201</v>
       </c>
       <c r="C71" t="s">
-        <v>299</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>245</v>
+        <v>202</v>
+      </c>
+      <c r="D71" t="s">
+        <v>21</v>
       </c>
       <c r="E71" t="s">
         <v>48</v>
@@ -4156,63 +4421,63 @@
       <c r="F71" t="s">
         <v>14</v>
       </c>
-      <c r="G71" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>300</v>
+      <c r="G71" t="s">
+        <v>23</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>301</v>
+        <v>204</v>
       </c>
       <c r="J71" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
-        <v>4.13</v>
+      <c r="A72" s="13" t="s">
+        <v>532</v>
       </c>
       <c r="B72" t="s">
-        <v>302</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>303</v>
+        <v>224</v>
+      </c>
+      <c r="C72" t="s">
+        <v>225</v>
       </c>
       <c r="D72" t="s">
-        <v>143</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>65</v>
+        <v>21</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="F72" t="s">
         <v>14</v>
       </c>
-      <c r="G72" s="10" t="s">
-        <v>295</v>
+      <c r="G72" t="s">
+        <v>23</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>304</v>
+        <v>203</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>305</v>
+        <v>226</v>
       </c>
       <c r="J72" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
-        <v>15.1</v>
+      <c r="A73" s="13" t="s">
+        <v>534</v>
       </c>
       <c r="B73" t="s">
-        <v>360</v>
+        <v>233</v>
       </c>
       <c r="C73" t="s">
-        <v>361</v>
+        <v>234</v>
       </c>
       <c r="D73" t="s">
-        <v>362</v>
+        <v>21</v>
       </c>
       <c r="E73" t="s">
         <v>48</v>
@@ -4221,27 +4486,30 @@
         <v>14</v>
       </c>
       <c r="G73" t="s">
-        <v>306</v>
+        <v>23</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>307</v>
+        <v>203</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>308</v>
+        <v>235</v>
       </c>
       <c r="J73" t="s">
-        <v>160</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>483</v>
+      <c r="A74" s="13" t="s">
+        <v>535</v>
       </c>
       <c r="B74" t="s">
-        <v>484</v>
+        <v>236</v>
       </c>
       <c r="C74" t="s">
-        <v>485</v>
+        <v>237</v>
+      </c>
+      <c r="D74" t="s">
+        <v>21</v>
       </c>
       <c r="E74" t="s">
         <v>48</v>
@@ -4250,27 +4518,30 @@
         <v>14</v>
       </c>
       <c r="G74" t="s">
-        <v>486</v>
+        <v>23</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>487</v>
+        <v>203</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>488</v>
+        <v>238</v>
       </c>
       <c r="J74" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>489</v>
+      <c r="A75" s="13" t="s">
+        <v>536</v>
       </c>
       <c r="B75" t="s">
-        <v>490</v>
+        <v>239</v>
       </c>
       <c r="C75" t="s">
-        <v>491</v>
+        <v>240</v>
+      </c>
+      <c r="D75" t="s">
+        <v>21</v>
       </c>
       <c r="E75" t="s">
         <v>48</v>
@@ -4279,27 +4550,30 @@
         <v>14</v>
       </c>
       <c r="G75" t="s">
-        <v>295</v>
+        <v>23</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>300</v>
+        <v>203</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>492</v>
+        <v>241</v>
       </c>
       <c r="J75" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>493</v>
+      <c r="A76" s="13" t="s">
+        <v>537</v>
       </c>
       <c r="B76" t="s">
-        <v>494</v>
+        <v>249</v>
       </c>
       <c r="C76" t="s">
-        <v>495</v>
+        <v>250</v>
+      </c>
+      <c r="D76" t="s">
+        <v>21</v>
       </c>
       <c r="E76" t="s">
         <v>48</v>
@@ -4308,603 +4582,568 @@
         <v>14</v>
       </c>
       <c r="G76" t="s">
-        <v>295</v>
+        <v>23</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>300</v>
+        <v>203</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>496</v>
+        <v>251</v>
       </c>
       <c r="J76" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="4">
-        <v>4.8</v>
+      <c r="A77" s="13" t="s">
+        <v>498</v>
       </c>
       <c r="B77" t="s">
-        <v>309</v>
+        <v>36</v>
       </c>
       <c r="C77" t="s">
-        <v>310</v>
+        <v>37</v>
       </c>
       <c r="D77" t="s">
         <v>21</v>
       </c>
       <c r="E77" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F77" t="s">
         <v>14</v>
       </c>
-      <c r="G77" s="10" t="s">
+      <c r="G77" t="s">
+        <v>39</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J77" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="B78" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" t="s">
+        <v>44</v>
+      </c>
+      <c r="D78" t="s">
+        <v>21</v>
+      </c>
+      <c r="E78" t="s">
+        <v>38</v>
+      </c>
+      <c r="F78" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78" t="s">
+        <v>39</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J78" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="B79" t="s">
+        <v>161</v>
+      </c>
+      <c r="C79" t="s">
+        <v>162</v>
+      </c>
+      <c r="D79" t="s">
+        <v>21</v>
+      </c>
+      <c r="E79" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" t="s">
+        <v>163</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J79" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="B80" t="s">
+        <v>45</v>
+      </c>
+      <c r="C80" t="s">
+        <v>46</v>
+      </c>
+      <c r="D80" t="s">
+        <v>47</v>
+      </c>
+      <c r="E80" t="s">
+        <v>48</v>
+      </c>
+      <c r="F80" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" s="2"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J80" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="B81" t="s">
+        <v>487</v>
+      </c>
+      <c r="C81" t="s">
+        <v>488</v>
+      </c>
+      <c r="E81" t="s">
+        <v>48</v>
+      </c>
+      <c r="F81" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" t="s">
         <v>295</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="H81" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="J81" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B82" t="s">
+        <v>491</v>
+      </c>
+      <c r="C82" t="s">
+        <v>492</v>
+      </c>
+      <c r="E82" t="s">
+        <v>48</v>
+      </c>
+      <c r="F82" t="s">
+        <v>14</v>
+      </c>
+      <c r="G82" t="s">
+        <v>295</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="J82" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="B84" t="s">
+        <v>302</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D84" t="s">
+        <v>143</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F84" t="s">
+        <v>14</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J84" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="B85" t="s">
+        <v>51</v>
+      </c>
+      <c r="C85" t="s">
+        <v>52</v>
+      </c>
+      <c r="D85" t="s">
+        <v>53</v>
+      </c>
+      <c r="E85" t="s">
+        <v>48</v>
+      </c>
+      <c r="F85" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" s="2"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J85" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="B86" t="s">
+        <v>55</v>
+      </c>
+      <c r="C86" t="s">
+        <v>56</v>
+      </c>
+      <c r="D86" t="s">
+        <v>47</v>
+      </c>
+      <c r="E86" t="s">
+        <v>48</v>
+      </c>
+      <c r="F86" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" s="2"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J86" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="B87" t="s">
+        <v>58</v>
+      </c>
+      <c r="C87" t="s">
+        <v>59</v>
+      </c>
+      <c r="D87" t="s">
+        <v>60</v>
+      </c>
+      <c r="E87" t="s">
+        <v>48</v>
+      </c>
+      <c r="F87" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" s="2"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J87" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="B88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C88" t="s">
+        <v>63</v>
+      </c>
+      <c r="D88" t="s">
+        <v>64</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F88" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" s="2"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J88" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="B89" t="s">
+        <v>67</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" t="s">
+        <v>48</v>
+      </c>
+      <c r="F89" t="s">
+        <v>14</v>
+      </c>
+      <c r="G89" s="2"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J89" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="B90" t="s">
+        <v>298</v>
+      </c>
+      <c r="C90" t="s">
+        <v>299</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E90" t="s">
+        <v>48</v>
+      </c>
+      <c r="F90" t="s">
+        <v>14</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J90" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="B91" t="s">
+        <v>309</v>
+      </c>
+      <c r="C91" t="s">
+        <v>310</v>
+      </c>
+      <c r="D91" t="s">
+        <v>21</v>
+      </c>
+      <c r="E91" t="s">
+        <v>48</v>
+      </c>
+      <c r="F91" t="s">
+        <v>14</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H91" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="I77" s="1" t="s">
+      <c r="I91" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="J77" t="s">
+      <c r="J91" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="4">
-        <v>17.2</v>
-      </c>
-      <c r="B78" t="s">
-        <v>313</v>
-      </c>
-      <c r="C78" t="s">
-        <v>314</v>
-      </c>
-      <c r="D78" t="s">
-        <v>143</v>
-      </c>
-      <c r="E78" t="s">
-        <v>315</v>
-      </c>
-      <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s">
-        <v>316</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="J78" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="4">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="B79" t="s">
-        <v>319</v>
-      </c>
-      <c r="C79" t="s">
-        <v>363</v>
-      </c>
-      <c r="D79" t="s">
-        <v>245</v>
-      </c>
-      <c r="E79" t="s">
-        <v>48</v>
-      </c>
-      <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s">
-        <v>320</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="J79" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
-        <v>18.2</v>
-      </c>
-      <c r="B80" t="s">
-        <v>323</v>
-      </c>
-      <c r="C80" t="s">
-        <v>364</v>
-      </c>
-      <c r="D80" t="s">
-        <v>324</v>
-      </c>
-      <c r="E80" t="s">
-        <v>48</v>
-      </c>
-      <c r="F80" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" t="s">
-        <v>320</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="J80" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="4">
-        <v>18.3</v>
-      </c>
-      <c r="B81" t="s">
-        <v>326</v>
-      </c>
-      <c r="C81" t="s">
-        <v>365</v>
-      </c>
-      <c r="D81" t="s">
-        <v>21</v>
-      </c>
-      <c r="E81" t="s">
-        <v>48</v>
-      </c>
-      <c r="F81" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s">
-        <v>320</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J81" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="B82" t="s">
-        <v>329</v>
-      </c>
-      <c r="C82" t="s">
-        <v>366</v>
-      </c>
-      <c r="D82" t="s">
-        <v>21</v>
-      </c>
-      <c r="E82" t="s">
-        <v>48</v>
-      </c>
-      <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s">
-        <v>330</v>
-      </c>
-      <c r="H82" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="I82" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="J82" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="B83" t="s">
-        <v>335</v>
-      </c>
-      <c r="C83" t="s">
-        <v>336</v>
-      </c>
-      <c r="D83" t="s">
-        <v>47</v>
-      </c>
-      <c r="E83" t="s">
-        <v>48</v>
-      </c>
-      <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" t="s">
-        <v>295</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J83" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="B84" t="s">
-        <v>345</v>
-      </c>
-      <c r="C84" t="s">
-        <v>346</v>
-      </c>
-      <c r="D84" t="s">
-        <v>47</v>
-      </c>
-      <c r="E84" t="s">
-        <v>48</v>
-      </c>
-      <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s">
-        <v>295</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J84" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="B85" t="s">
-        <v>347</v>
-      </c>
-      <c r="C85" t="s">
-        <v>348</v>
-      </c>
-      <c r="D85" t="s">
-        <v>47</v>
-      </c>
-      <c r="E85" t="s">
-        <v>48</v>
-      </c>
-      <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s">
-        <v>295</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J85" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="B86" t="s">
-        <v>389</v>
-      </c>
-      <c r="C86" t="s">
-        <v>350</v>
-      </c>
-      <c r="D86" t="s">
-        <v>21</v>
-      </c>
-      <c r="E86" t="s">
-        <v>48</v>
-      </c>
-      <c r="F86" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" t="s">
-        <v>295</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J86" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="B87" t="s">
-        <v>390</v>
-      </c>
-      <c r="C87" t="s">
-        <v>349</v>
-      </c>
-      <c r="D87" t="s">
-        <v>21</v>
-      </c>
-      <c r="E87" t="s">
-        <v>48</v>
-      </c>
-      <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s">
-        <v>295</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J87" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="B88" t="s">
-        <v>391</v>
-      </c>
-      <c r="C88" t="s">
-        <v>351</v>
-      </c>
-      <c r="D88" t="s">
-        <v>47</v>
-      </c>
-      <c r="E88" t="s">
-        <v>48</v>
-      </c>
-      <c r="F88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" t="s">
-        <v>295</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J88" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B89" t="s">
-        <v>392</v>
-      </c>
-      <c r="C89" t="s">
-        <v>352</v>
-      </c>
-      <c r="D89" t="s">
-        <v>47</v>
-      </c>
-      <c r="E89" t="s">
-        <v>48</v>
-      </c>
-      <c r="F89" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" t="s">
-        <v>295</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J89" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="B90" t="s">
-        <v>356</v>
-      </c>
-      <c r="C90" t="s">
-        <v>367</v>
-      </c>
-      <c r="D90" t="s">
-        <v>47</v>
-      </c>
-      <c r="E90" t="s">
-        <v>48</v>
-      </c>
-      <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s">
-        <v>357</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="I90" s="1"/>
-      <c r="J90" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="B91" t="s">
-        <v>355</v>
-      </c>
-      <c r="C91" t="s">
-        <v>368</v>
-      </c>
-      <c r="D91" t="s">
-        <v>47</v>
-      </c>
-      <c r="E91" t="s">
-        <v>48</v>
-      </c>
-      <c r="F91" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" t="s">
-        <v>357</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="I91" s="1"/>
-      <c r="J91" t="s">
-        <v>147</v>
-      </c>
-    </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
-        <v>369</v>
+      <c r="A92" s="13" t="s">
+        <v>480</v>
       </c>
       <c r="B92" t="s">
-        <v>373</v>
+        <v>481</v>
       </c>
       <c r="C92" t="s">
-        <v>381</v>
-      </c>
-      <c r="D92" t="s">
-        <v>376</v>
+        <v>482</v>
       </c>
       <c r="E92" t="s">
-        <v>377</v>
+        <v>48</v>
       </c>
       <c r="F92" t="s">
         <v>14</v>
       </c>
       <c r="G92" t="s">
-        <v>295</v>
+        <v>483</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>372</v>
+        <v>484</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>378</v>
+        <v>485</v>
       </c>
       <c r="J92" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
-        <v>370</v>
+      <c r="A93" s="13" t="s">
+        <v>506</v>
       </c>
       <c r="B93" t="s">
-        <v>374</v>
+        <v>81</v>
       </c>
       <c r="C93" t="s">
-        <v>382</v>
-      </c>
-      <c r="D93" t="s">
-        <v>376</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D93" s="2"/>
       <c r="E93" t="s">
-        <v>377</v>
+        <v>48</v>
       </c>
       <c r="F93" t="s">
         <v>14</v>
       </c>
       <c r="G93" t="s">
-        <v>295</v>
+        <v>73</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>379</v>
+        <v>83</v>
       </c>
       <c r="J93" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>371</v>
+      <c r="A94" s="13" t="s">
+        <v>506</v>
       </c>
       <c r="B94" t="s">
-        <v>375</v>
+        <v>84</v>
       </c>
       <c r="C94" t="s">
-        <v>383</v>
-      </c>
-      <c r="D94" t="s">
-        <v>376</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D94" s="2"/>
       <c r="E94" t="s">
-        <v>377</v>
+        <v>48</v>
       </c>
       <c r="F94" t="s">
         <v>14</v>
       </c>
       <c r="G94" t="s">
-        <v>295</v>
+        <v>73</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>380</v>
+        <v>86</v>
       </c>
       <c r="J94" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="4">
-        <v>18.399999999999999</v>
+      <c r="A95" s="13" t="s">
+        <v>507</v>
       </c>
       <c r="B95" t="s">
-        <v>384</v>
+        <v>87</v>
       </c>
       <c r="C95" t="s">
-        <v>385</v>
-      </c>
-      <c r="D95" t="s">
-        <v>386</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D95" s="2"/>
       <c r="E95" t="s">
         <v>48</v>
       </c>
@@ -4912,31 +5151,29 @@
         <v>14</v>
       </c>
       <c r="G95" t="s">
-        <v>320</v>
+        <v>73</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>388</v>
+        <v>89</v>
       </c>
       <c r="J95" t="s">
-        <v>160</v>
+        <v>76</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>393</v>
+      <c r="A96" s="13" t="s">
+        <v>508</v>
       </c>
       <c r="B96" t="s">
-        <v>394</v>
+        <v>90</v>
       </c>
       <c r="C96" t="s">
-        <v>395</v>
-      </c>
-      <c r="D96" t="s">
-        <v>396</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="D96" s="2"/>
       <c r="E96" t="s">
         <v>48</v>
       </c>
@@ -4944,863 +5181,1052 @@
         <v>14</v>
       </c>
       <c r="G96" t="s">
+        <v>73</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J96" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="B97" t="s">
+        <v>93</v>
+      </c>
+      <c r="C97" t="s">
+        <v>94</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" t="s">
+        <v>48</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" t="s">
+        <v>73</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J97" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="B98" t="s">
+        <v>96</v>
+      </c>
+      <c r="C98" t="s">
+        <v>94</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s">
+        <v>48</v>
+      </c>
+      <c r="F98" t="s">
+        <v>14</v>
+      </c>
+      <c r="G98" t="s">
+        <v>73</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J98" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="B99" t="s">
+        <v>98</v>
+      </c>
+      <c r="C99" t="s">
+        <v>99</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s">
+        <v>48</v>
+      </c>
+      <c r="F99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" t="s">
+        <v>73</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J99" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="B100" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100" t="s">
+        <v>101</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s">
+        <v>48</v>
+      </c>
+      <c r="F100" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100" t="s">
+        <v>73</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J100" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="B101" t="s">
+        <v>103</v>
+      </c>
+      <c r="C101" t="s">
+        <v>104</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s">
+        <v>48</v>
+      </c>
+      <c r="F101" t="s">
+        <v>14</v>
+      </c>
+      <c r="G101" t="s">
+        <v>73</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J101" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="B102" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" t="s">
+        <v>107</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" t="s">
+        <v>48</v>
+      </c>
+      <c r="F102" t="s">
+        <v>14</v>
+      </c>
+      <c r="G102" t="s">
+        <v>73</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J102" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="B103" t="s">
+        <v>109</v>
+      </c>
+      <c r="C103" t="s">
+        <v>110</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s">
+        <v>48</v>
+      </c>
+      <c r="F103" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" t="s">
+        <v>73</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J103" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="B104" t="s">
+        <v>112</v>
+      </c>
+      <c r="C104" t="s">
+        <v>113</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s">
+        <v>48</v>
+      </c>
+      <c r="F104" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104" t="s">
+        <v>73</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J104" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="B105" t="s">
+        <v>115</v>
+      </c>
+      <c r="C105" t="s">
+        <v>116</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s">
+        <v>48</v>
+      </c>
+      <c r="F105" t="s">
+        <v>14</v>
+      </c>
+      <c r="G105" t="s">
+        <v>73</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J105" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="B106" t="s">
+        <v>118</v>
+      </c>
+      <c r="C106" t="s">
+        <v>119</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s">
+        <v>48</v>
+      </c>
+      <c r="F106" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106" t="s">
+        <v>73</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J106" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="B107" t="s">
+        <v>121</v>
+      </c>
+      <c r="C107" t="s">
+        <v>122</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s">
+        <v>48</v>
+      </c>
+      <c r="F107" t="s">
+        <v>14</v>
+      </c>
+      <c r="G107" t="s">
+        <v>73</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J107" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="B108" t="s">
+        <v>124</v>
+      </c>
+      <c r="C108" t="s">
+        <v>125</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s">
+        <v>48</v>
+      </c>
+      <c r="F108" t="s">
+        <v>14</v>
+      </c>
+      <c r="G108" t="s">
+        <v>73</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J108" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="B109" t="s">
+        <v>127</v>
+      </c>
+      <c r="C109" t="s">
+        <v>128</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s">
+        <v>48</v>
+      </c>
+      <c r="F109" t="s">
+        <v>14</v>
+      </c>
+      <c r="G109" t="s">
+        <v>73</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J109" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="B110" t="s">
+        <v>130</v>
+      </c>
+      <c r="C110" t="s">
+        <v>131</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s">
+        <v>48</v>
+      </c>
+      <c r="F110" t="s">
+        <v>14</v>
+      </c>
+      <c r="G110" t="s">
+        <v>73</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J110" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="B111" t="s">
+        <v>133</v>
+      </c>
+      <c r="C111" t="s">
+        <v>134</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s">
+        <v>48</v>
+      </c>
+      <c r="F111" t="s">
+        <v>14</v>
+      </c>
+      <c r="G111" t="s">
+        <v>73</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J111" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="B112" t="s">
+        <v>136</v>
+      </c>
+      <c r="C112" t="s">
+        <v>137</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" t="s">
+        <v>48</v>
+      </c>
+      <c r="F112" t="s">
+        <v>14</v>
+      </c>
+      <c r="G112" t="s">
+        <v>73</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J112" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="B113" t="s">
+        <v>139</v>
+      </c>
+      <c r="C113" t="s">
+        <v>140</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" t="s">
+        <v>48</v>
+      </c>
+      <c r="F113" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113" t="s">
+        <v>73</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J113" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="B114" t="s">
+        <v>141</v>
+      </c>
+      <c r="C114" t="s">
+        <v>142</v>
+      </c>
+      <c r="D114" t="s">
+        <v>143</v>
+      </c>
+      <c r="E114" t="s">
+        <v>48</v>
+      </c>
+      <c r="F114" t="s">
+        <v>14</v>
+      </c>
+      <c r="G114" t="s">
+        <v>144</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J114" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B115" t="s">
+        <v>196</v>
+      </c>
+      <c r="C115" t="s">
+        <v>197</v>
+      </c>
+      <c r="D115" t="s">
+        <v>21</v>
+      </c>
+      <c r="E115" t="s">
+        <v>48</v>
+      </c>
+      <c r="F115" t="s">
+        <v>14</v>
+      </c>
+      <c r="G115" t="s">
+        <v>198</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J115" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B116" t="s">
+        <v>206</v>
+      </c>
+      <c r="C116" t="s">
+        <v>207</v>
+      </c>
+      <c r="D116" t="s">
+        <v>143</v>
+      </c>
+      <c r="E116" t="s">
+        <v>48</v>
+      </c>
+      <c r="F116" t="s">
+        <v>14</v>
+      </c>
+      <c r="G116" t="s">
+        <v>208</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J116" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="B117" t="s">
+        <v>253</v>
+      </c>
+      <c r="C117" t="s">
+        <v>254</v>
+      </c>
+      <c r="D117" t="s">
+        <v>21</v>
+      </c>
+      <c r="E117" t="s">
+        <v>48</v>
+      </c>
+      <c r="F117" t="s">
+        <v>14</v>
+      </c>
+      <c r="G117" t="s">
+        <v>208</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J117" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B118" t="s">
+        <v>257</v>
+      </c>
+      <c r="C118" t="s">
+        <v>258</v>
+      </c>
+      <c r="D118" t="s">
+        <v>21</v>
+      </c>
+      <c r="E118" t="s">
+        <v>48</v>
+      </c>
+      <c r="F118" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" t="s">
+        <v>208</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J118" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="B119" t="s">
+        <v>260</v>
+      </c>
+      <c r="C119" t="s">
+        <v>261</v>
+      </c>
+      <c r="D119" t="s">
+        <v>21</v>
+      </c>
+      <c r="E119" t="s">
+        <v>48</v>
+      </c>
+      <c r="F119" t="s">
+        <v>14</v>
+      </c>
+      <c r="G119" t="s">
+        <v>208</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J119" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="B120" t="s">
+        <v>263</v>
+      </c>
+      <c r="C120" t="s">
+        <v>264</v>
+      </c>
+      <c r="D120" t="s">
+        <v>21</v>
+      </c>
+      <c r="E120" t="s">
+        <v>48</v>
+      </c>
+      <c r="F120" t="s">
+        <v>14</v>
+      </c>
+      <c r="G120" t="s">
+        <v>208</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J120" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="B121" t="s">
+        <v>266</v>
+      </c>
+      <c r="C121" t="s">
+        <v>267</v>
+      </c>
+      <c r="D121" t="s">
+        <v>21</v>
+      </c>
+      <c r="E121" t="s">
+        <v>48</v>
+      </c>
+      <c r="F121" t="s">
+        <v>14</v>
+      </c>
+      <c r="G121" t="s">
+        <v>208</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J121" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="B122" t="s">
+        <v>329</v>
+      </c>
+      <c r="C122" t="s">
+        <v>366</v>
+      </c>
+      <c r="D122" t="s">
+        <v>21</v>
+      </c>
+      <c r="E122" t="s">
+        <v>48</v>
+      </c>
+      <c r="F122" t="s">
+        <v>14</v>
+      </c>
+      <c r="G122" t="s">
+        <v>330</v>
+      </c>
+      <c r="H122" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="I122" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="J122" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="B123" t="s">
+        <v>557</v>
+      </c>
+      <c r="C123" t="s">
+        <v>558</v>
+      </c>
+      <c r="D123" t="s">
+        <v>375</v>
+      </c>
+      <c r="E123" t="s">
+        <v>376</v>
+      </c>
+      <c r="F123" t="s">
+        <v>14</v>
+      </c>
+      <c r="G123" t="s">
         <v>295</v>
       </c>
-      <c r="H96" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J96" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="B97" t="s">
-        <v>397</v>
-      </c>
-      <c r="C97" t="s">
-        <v>399</v>
-      </c>
-      <c r="D97" t="s">
-        <v>396</v>
-      </c>
-      <c r="E97" t="s">
-        <v>48</v>
-      </c>
-      <c r="F97" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s">
+      <c r="H123" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="J123" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="B124" t="s">
+        <v>565</v>
+      </c>
+      <c r="C124" t="s">
+        <v>566</v>
+      </c>
+      <c r="D124" t="s">
+        <v>375</v>
+      </c>
+      <c r="E124" t="s">
+        <v>376</v>
+      </c>
+      <c r="F124" t="s">
+        <v>14</v>
+      </c>
+      <c r="G124" t="s">
         <v>295</v>
       </c>
-      <c r="H97" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J97" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="B98" t="s">
-        <v>400</v>
-      </c>
-      <c r="C98" t="s">
-        <v>402</v>
-      </c>
-      <c r="D98" t="s">
-        <v>396</v>
-      </c>
-      <c r="E98" t="s">
-        <v>48</v>
-      </c>
-      <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s">
+      <c r="H124" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="J124" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="B125" t="s">
+        <v>567</v>
+      </c>
+      <c r="C125" t="s">
+        <v>568</v>
+      </c>
+      <c r="D125" t="s">
+        <v>375</v>
+      </c>
+      <c r="E125" t="s">
+        <v>376</v>
+      </c>
+      <c r="F125" t="s">
+        <v>14</v>
+      </c>
+      <c r="G125" t="s">
         <v>295</v>
       </c>
-      <c r="H98" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J98" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="B99" t="s">
-        <v>403</v>
-      </c>
-      <c r="C99" t="s">
-        <v>405</v>
-      </c>
-      <c r="D99" t="s">
-        <v>396</v>
-      </c>
-      <c r="E99" t="s">
-        <v>48</v>
-      </c>
-      <c r="F99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" t="s">
+      <c r="H125" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="J125" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="B126" t="s">
+        <v>569</v>
+      </c>
+      <c r="C126" t="s">
+        <v>570</v>
+      </c>
+      <c r="D126" t="s">
+        <v>375</v>
+      </c>
+      <c r="E126" t="s">
+        <v>376</v>
+      </c>
+      <c r="F126" t="s">
+        <v>14</v>
+      </c>
+      <c r="G126" t="s">
         <v>295</v>
       </c>
-      <c r="H99" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J99" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="B100" t="s">
-        <v>408</v>
-      </c>
-      <c r="C100" t="s">
-        <v>410</v>
-      </c>
-      <c r="D100" t="s">
-        <v>47</v>
-      </c>
-      <c r="E100" t="s">
-        <v>48</v>
-      </c>
-      <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s">
+      <c r="H126" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J126" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="B127" t="s">
+        <v>571</v>
+      </c>
+      <c r="C127" t="s">
+        <v>572</v>
+      </c>
+      <c r="D127" t="s">
+        <v>375</v>
+      </c>
+      <c r="E127" t="s">
+        <v>376</v>
+      </c>
+      <c r="F127" t="s">
+        <v>14</v>
+      </c>
+      <c r="G127" t="s">
         <v>295</v>
       </c>
-      <c r="H100" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J100" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="B101" t="s">
-        <v>409</v>
-      </c>
-      <c r="C101" t="s">
-        <v>411</v>
-      </c>
-      <c r="D101" t="s">
-        <v>53</v>
-      </c>
-      <c r="E101" t="s">
-        <v>48</v>
-      </c>
-      <c r="F101" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" t="s">
+      <c r="H127" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="J127" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="B128" t="s">
+        <v>573</v>
+      </c>
+      <c r="C128" t="s">
+        <v>574</v>
+      </c>
+      <c r="D128" t="s">
+        <v>375</v>
+      </c>
+      <c r="E128" t="s">
+        <v>376</v>
+      </c>
+      <c r="F128" t="s">
+        <v>14</v>
+      </c>
+      <c r="G128" t="s">
         <v>295</v>
       </c>
-      <c r="H101" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J101" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="B102" t="s">
-        <v>412</v>
-      </c>
-      <c r="C102" t="s">
-        <v>414</v>
-      </c>
-      <c r="D102" t="s">
-        <v>47</v>
-      </c>
-      <c r="E102" t="s">
-        <v>48</v>
-      </c>
-      <c r="F102" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" t="s">
-        <v>295</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J102" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="B103" t="s">
-        <v>415</v>
-      </c>
-      <c r="C103" t="s">
-        <v>417</v>
-      </c>
-      <c r="D103" t="s">
-        <v>53</v>
-      </c>
-      <c r="E103" t="s">
-        <v>48</v>
-      </c>
-      <c r="F103" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" t="s">
-        <v>295</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J103" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="B104" t="s">
-        <v>419</v>
-      </c>
-      <c r="C104" t="s">
-        <v>422</v>
-      </c>
-      <c r="D104" t="s">
-        <v>53</v>
-      </c>
-      <c r="E104" t="s">
-        <v>48</v>
-      </c>
-      <c r="F104" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" t="s">
-        <v>295</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J104" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="B105" t="s">
-        <v>421</v>
-      </c>
-      <c r="C105" t="s">
-        <v>423</v>
-      </c>
-      <c r="D105" t="s">
-        <v>47</v>
-      </c>
-      <c r="E105" t="s">
-        <v>48</v>
-      </c>
-      <c r="F105" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" t="s">
-        <v>295</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J105" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="B106" t="s">
-        <v>425</v>
-      </c>
-      <c r="C106" t="s">
-        <v>426</v>
-      </c>
-      <c r="D106" t="s">
-        <v>47</v>
-      </c>
-      <c r="E106" t="s">
-        <v>48</v>
-      </c>
-      <c r="F106" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" t="s">
-        <v>295</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J106" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="B107" t="s">
-        <v>428</v>
-      </c>
-      <c r="C107" t="s">
-        <v>429</v>
-      </c>
-      <c r="D107" t="s">
-        <v>60</v>
-      </c>
-      <c r="E107" t="s">
-        <v>48</v>
-      </c>
-      <c r="F107" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" t="s">
-        <v>295</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J107" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="B108" t="s">
-        <v>433</v>
-      </c>
-      <c r="C108" t="s">
-        <v>434</v>
-      </c>
-      <c r="D108" t="s">
-        <v>47</v>
-      </c>
-      <c r="E108" t="s">
-        <v>48</v>
-      </c>
-      <c r="F108" t="s">
-        <v>14</v>
-      </c>
-      <c r="G108" t="s">
-        <v>295</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J108" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="B109" t="s">
-        <v>432</v>
-      </c>
-      <c r="C109" t="s">
-        <v>435</v>
-      </c>
-      <c r="D109" t="s">
-        <v>60</v>
-      </c>
-      <c r="E109" t="s">
-        <v>48</v>
-      </c>
-      <c r="F109" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" t="s">
-        <v>295</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J109" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="B110" t="s">
-        <v>437</v>
-      </c>
-      <c r="C110" t="s">
-        <v>441</v>
-      </c>
-      <c r="D110" t="s">
-        <v>47</v>
-      </c>
-      <c r="E110" t="s">
-        <v>48</v>
-      </c>
-      <c r="F110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G110" t="s">
-        <v>295</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J110" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="B111" t="s">
-        <v>438</v>
-      </c>
-      <c r="C111" t="s">
-        <v>440</v>
-      </c>
-      <c r="D111" t="s">
-        <v>60</v>
-      </c>
-      <c r="E111" t="s">
-        <v>48</v>
-      </c>
-      <c r="F111" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" t="s">
-        <v>295</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J111" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="B112" t="s">
-        <v>442</v>
-      </c>
-      <c r="C112" t="s">
-        <v>444</v>
-      </c>
-      <c r="D112" t="s">
-        <v>47</v>
-      </c>
-      <c r="E112" t="s">
-        <v>48</v>
-      </c>
-      <c r="F112" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" t="s">
-        <v>295</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J112" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="B113" t="s">
-        <v>446</v>
-      </c>
-      <c r="C113" t="s">
-        <v>447</v>
-      </c>
-      <c r="E113" t="s">
-        <v>48</v>
-      </c>
-      <c r="F113" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" t="s">
-        <v>295</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="J113" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="B114" t="s">
-        <v>449</v>
-      </c>
-      <c r="C114" t="s">
-        <v>450</v>
-      </c>
-      <c r="E114" t="s">
-        <v>48</v>
-      </c>
-      <c r="F114" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" t="s">
-        <v>295</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="J114" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="B115" t="s">
-        <v>453</v>
-      </c>
-      <c r="C115" t="s">
-        <v>454</v>
-      </c>
-      <c r="E115" t="s">
-        <v>48</v>
-      </c>
-      <c r="F115" t="s">
-        <v>14</v>
-      </c>
-      <c r="G115" t="s">
-        <v>295</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="J115" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="B116" t="s">
-        <v>457</v>
-      </c>
-      <c r="C116" t="s">
-        <v>458</v>
-      </c>
-      <c r="E116" t="s">
-        <v>48</v>
-      </c>
-      <c r="F116" t="s">
-        <v>14</v>
-      </c>
-      <c r="G116" t="s">
-        <v>295</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="J116" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="B117" t="s">
-        <v>461</v>
-      </c>
-      <c r="C117" t="s">
-        <v>462</v>
-      </c>
-      <c r="E117" t="s">
-        <v>48</v>
-      </c>
-      <c r="F117" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117" t="s">
-        <v>295</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="J117" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="B118" t="s">
-        <v>465</v>
-      </c>
-      <c r="C118" t="s">
-        <v>466</v>
-      </c>
-      <c r="E118" t="s">
-        <v>48</v>
-      </c>
-      <c r="F118" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" t="s">
-        <v>295</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I118" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="J118" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="B119" t="s">
-        <v>469</v>
-      </c>
-      <c r="C119" t="s">
-        <v>470</v>
-      </c>
-      <c r="E119" t="s">
-        <v>48</v>
-      </c>
-      <c r="F119" t="s">
-        <v>14</v>
-      </c>
-      <c r="G119" t="s">
-        <v>295</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I119" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="J119" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="B120" t="s">
-        <v>473</v>
-      </c>
-      <c r="C120" t="s">
-        <v>474</v>
-      </c>
-      <c r="E120" t="s">
-        <v>48</v>
-      </c>
-      <c r="F120" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120" t="s">
-        <v>295</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I120" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="J120" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="B121" t="s">
-        <v>477</v>
-      </c>
-      <c r="C121" t="s">
-        <v>478</v>
-      </c>
-      <c r="E121" t="s">
-        <v>48</v>
-      </c>
-      <c r="F121" t="s">
-        <v>14</v>
-      </c>
-      <c r="G121" t="s">
-        <v>295</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I121" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="J121" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="B122" t="s">
-        <v>480</v>
-      </c>
-      <c r="C122" t="s">
-        <v>481</v>
-      </c>
-      <c r="E122" t="s">
-        <v>48</v>
-      </c>
-      <c r="F122" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" t="s">
-        <v>295</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="J122" t="s">
-        <v>42</v>
+      <c r="H128" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="J128" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" location="datosabiertos " xr:uid="{5911B0A5-0C21-4814-BAF8-15335BA8C082}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{C9E6B6EE-6E87-4957-B349-88CD50EABA12}"/>
-    <hyperlink ref="I8" r:id="rId3" xr:uid="{C94E5315-A85E-4A74-877B-9DEC863F6E66}"/>
-    <hyperlink ref="I9" r:id="rId4" xr:uid="{328450BD-3888-4523-BEEB-2C37E16B29C2}"/>
-    <hyperlink ref="I2" r:id="rId5" xr:uid="{4479E641-936D-4E07-AD89-A70226BE6C64}"/>
-    <hyperlink ref="I10" r:id="rId6" xr:uid="{9453A25A-ED22-47AD-9DA7-1EEEE458E0A6}"/>
-    <hyperlink ref="I11" r:id="rId7" xr:uid="{AC4861FE-44F3-453C-B9FB-C3BAE0D83FD7}"/>
-    <hyperlink ref="I12" r:id="rId8" xr:uid="{DB598F35-4F10-44FA-845E-BC09D5BBB9A0}"/>
-    <hyperlink ref="I13" r:id="rId9" xr:uid="{FE516EE0-ED5B-488C-9714-20321DE0A1F9}"/>
-    <hyperlink ref="I40" r:id="rId10" xr:uid="{2941D0D9-FD68-49BD-BE97-E5CEF91C19F1}"/>
-    <hyperlink ref="I66" r:id="rId11" xr:uid="{8C6D62BB-5F77-4E43-A2C0-4B9C82D8B833}"/>
-    <hyperlink ref="I50" r:id="rId12" xr:uid="{044C2CB3-B42D-4008-AB57-7D2A34CC4E84}"/>
-    <hyperlink ref="I51" r:id="rId13" xr:uid="{BB9B3C57-946D-4735-8CCB-E360255B90A6}"/>
-    <hyperlink ref="I52" r:id="rId14" xr:uid="{4A6C8201-1574-4551-9A9C-F243CDFC088B}"/>
-    <hyperlink ref="H69" r:id="rId15" xr:uid="{2A01B5CB-6E13-4421-AF4E-2DEF27E17522}"/>
-    <hyperlink ref="I69" r:id="rId16" xr:uid="{94228EAD-A640-40EC-9EBB-226D4CB50133}"/>
-    <hyperlink ref="H70" r:id="rId17" xr:uid="{43B8B26A-48BD-40F3-94AA-B4FE7AFC090B}"/>
-    <hyperlink ref="I70" r:id="rId18" xr:uid="{0E77E100-B94E-4689-9861-3926BDD5F1C2}"/>
-    <hyperlink ref="H72" r:id="rId19" xr:uid="{303E2F96-9C17-4AC1-9979-3D5DFF967B79}"/>
-    <hyperlink ref="I72" r:id="rId20" xr:uid="{20D5A78D-E1DE-4773-9544-4D2C520F2903}"/>
-    <hyperlink ref="I71" r:id="rId21" xr:uid="{675F0F9F-48B7-44BE-8415-0DFC7DCDA382}"/>
-    <hyperlink ref="I73" r:id="rId22" xr:uid="{914239B8-66A3-4B5A-BFDA-A0DD4CC21F97}"/>
-    <hyperlink ref="H73" r:id="rId23" xr:uid="{146728A6-A4D8-4655-9AC6-E4AFC9487D85}"/>
-    <hyperlink ref="H71" r:id="rId24" xr:uid="{77E6D235-047D-4604-9151-F6D390761670}"/>
-    <hyperlink ref="H77" r:id="rId25" xr:uid="{CBE902CB-B0AB-48A1-AEB4-B161B4B9805A}"/>
-    <hyperlink ref="H79" r:id="rId26" xr:uid="{5B6DFFFC-2AC1-489A-A901-760C70C922B3}"/>
-    <hyperlink ref="H80" r:id="rId27" xr:uid="{BD5652B3-697C-4C44-953D-CAB46A31F9B0}"/>
-    <hyperlink ref="H81" r:id="rId28" xr:uid="{28092483-2915-418B-A2AF-12AB85843ECE}"/>
-    <hyperlink ref="I79" r:id="rId29" xr:uid="{2F9FC809-7044-49F3-AD2A-337755DC1F7E}"/>
-    <hyperlink ref="I80" r:id="rId30" xr:uid="{48DE6A5E-29CD-479E-A57E-6C321D874174}"/>
-    <hyperlink ref="I81" r:id="rId31" xr:uid="{75950DFD-39AB-4949-8A68-8C6D8137D57C}"/>
-    <hyperlink ref="H82" r:id="rId32" xr:uid="{1CEE2C1C-5CAA-4221-9E9E-023216550247}"/>
-    <hyperlink ref="I82" r:id="rId33" display="https://www.dropbox.com/scl/fi/7m1z10fp5kfeodsxiwgyi/8.1.xlsx?cloud_editor=excel&amp;dl=0&amp;rlkey=zjmyfc1pkvo57zz610q9in13r" xr:uid="{A8BDBCBD-3D45-433E-945C-C50EF42330AA}"/>
-    <hyperlink ref="H95" r:id="rId34" xr:uid="{2D514D50-5C2E-4495-96EE-18447C70E010}"/>
-    <hyperlink ref="I95" r:id="rId35" xr:uid="{71AA66DE-A95F-45E5-A807-39BAEBABCD4A}"/>
+    <hyperlink ref="H65" r:id="rId1" location="datosabiertos " xr:uid="{5911B0A5-0C21-4814-BAF8-15335BA8C082}"/>
+    <hyperlink ref="I65" r:id="rId2" xr:uid="{C9E6B6EE-6E87-4957-B349-88CD50EABA12}"/>
+    <hyperlink ref="I80" r:id="rId3" xr:uid="{C94E5315-A85E-4A74-877B-9DEC863F6E66}"/>
+    <hyperlink ref="I85" r:id="rId4" xr:uid="{328450BD-3888-4523-BEEB-2C37E16B29C2}"/>
+    <hyperlink ref="I7" r:id="rId5" xr:uid="{4479E641-936D-4E07-AD89-A70226BE6C64}"/>
+    <hyperlink ref="I86" r:id="rId6" xr:uid="{9453A25A-ED22-47AD-9DA7-1EEEE458E0A6}"/>
+    <hyperlink ref="I87" r:id="rId7" xr:uid="{AC4861FE-44F3-453C-B9FB-C3BAE0D83FD7}"/>
+    <hyperlink ref="I88" r:id="rId8" xr:uid="{DB598F35-4F10-44FA-845E-BC09D5BBB9A0}"/>
+    <hyperlink ref="I89" r:id="rId9" xr:uid="{FE516EE0-ED5B-488C-9714-20321DE0A1F9}"/>
+    <hyperlink ref="I10" r:id="rId10" xr:uid="{2941D0D9-FD68-49BD-BE97-E5CEF91C19F1}"/>
+    <hyperlink ref="I11" r:id="rId11" xr:uid="{8C6D62BB-5F77-4E43-A2C0-4B9C82D8B833}"/>
+    <hyperlink ref="I16" r:id="rId12" xr:uid="{044C2CB3-B42D-4008-AB57-7D2A34CC4E84}"/>
+    <hyperlink ref="I17" r:id="rId13" xr:uid="{BB9B3C57-946D-4735-8CCB-E360255B90A6}"/>
+    <hyperlink ref="I18" r:id="rId14" xr:uid="{4A6C8201-1574-4551-9A9C-F243CDFC088B}"/>
+    <hyperlink ref="H6" r:id="rId15" xr:uid="{2A01B5CB-6E13-4421-AF4E-2DEF27E17522}"/>
+    <hyperlink ref="I6" r:id="rId16" xr:uid="{94228EAD-A640-40EC-9EBB-226D4CB50133}"/>
+    <hyperlink ref="H83" r:id="rId17" xr:uid="{43B8B26A-48BD-40F3-94AA-B4FE7AFC090B}"/>
+    <hyperlink ref="I83" r:id="rId18" xr:uid="{0E77E100-B94E-4689-9861-3926BDD5F1C2}"/>
+    <hyperlink ref="H84" r:id="rId19" xr:uid="{303E2F96-9C17-4AC1-9979-3D5DFF967B79}"/>
+    <hyperlink ref="I84" r:id="rId20" xr:uid="{20D5A78D-E1DE-4773-9544-4D2C520F2903}"/>
+    <hyperlink ref="I90" r:id="rId21" xr:uid="{675F0F9F-48B7-44BE-8415-0DFC7DCDA382}"/>
+    <hyperlink ref="I20" r:id="rId22" xr:uid="{914239B8-66A3-4B5A-BFDA-A0DD4CC21F97}"/>
+    <hyperlink ref="H20" r:id="rId23" xr:uid="{146728A6-A4D8-4655-9AC6-E4AFC9487D85}"/>
+    <hyperlink ref="H90" r:id="rId24" xr:uid="{77E6D235-047D-4604-9151-F6D390761670}"/>
+    <hyperlink ref="H91" r:id="rId25" xr:uid="{CBE902CB-B0AB-48A1-AEB4-B161B4B9805A}"/>
+    <hyperlink ref="H59" r:id="rId26" xr:uid="{5B6DFFFC-2AC1-489A-A901-760C70C922B3}"/>
+    <hyperlink ref="H60" r:id="rId27" xr:uid="{BD5652B3-697C-4C44-953D-CAB46A31F9B0}"/>
+    <hyperlink ref="H61" r:id="rId28" xr:uid="{28092483-2915-418B-A2AF-12AB85843ECE}"/>
+    <hyperlink ref="I59" r:id="rId29" xr:uid="{2F9FC809-7044-49F3-AD2A-337755DC1F7E}"/>
+    <hyperlink ref="I60" r:id="rId30" xr:uid="{48DE6A5E-29CD-479E-A57E-6C321D874174}"/>
+    <hyperlink ref="I61" r:id="rId31" xr:uid="{75950DFD-39AB-4949-8A68-8C6D8137D57C}"/>
+    <hyperlink ref="H122" r:id="rId32" xr:uid="{1CEE2C1C-5CAA-4221-9E9E-023216550247}"/>
+    <hyperlink ref="I122" r:id="rId33" display="https://www.dropbox.com/scl/fi/7m1z10fp5kfeodsxiwgyi/8.1.xlsx?cloud_editor=excel&amp;dl=0&amp;rlkey=zjmyfc1pkvo57zz610q9in13r" xr:uid="{A8BDBCBD-3D45-433E-945C-C50EF42330AA}"/>
+    <hyperlink ref="H62" r:id="rId34" xr:uid="{2D514D50-5C2E-4495-96EE-18447C70E010}"/>
+    <hyperlink ref="I62" r:id="rId35" xr:uid="{71AA66DE-A95F-45E5-A807-39BAEBABCD4A}"/>
+    <hyperlink ref="H26" r:id="rId36" xr:uid="{6C5E3E67-C5AC-47FF-8E1F-0B6D283FBB47}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId36"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId37"/>
   <tableParts count="1">
-    <tablePart r:id="rId37"/>
+    <tablePart r:id="rId38"/>
   </tableParts>
 </worksheet>
 </file>
--- a/00Consolidado Tablas Madre.xlsx
+++ b/00Consolidado Tablas Madre.xlsx
@@ -5,27 +5,57 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D650C1D7-A644-4E24-B0A9-DC5C67B2140D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177B5E37-0683-4BA1-A71B-D8DFDC1CC9F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidado" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="SegmentaciónDeDatos_Código_Tabla">#N/A</definedName>
+    <definedName name="SegmentaciónDeDatos_Encargado">#N/A</definedName>
+    <definedName name="SegmentaciónDeDatos_Industria">#N/A</definedName>
+    <definedName name="SegmentaciónDeDatos_Nombre_Fuente">#N/A</definedName>
+    <definedName name="SegmentaciónDeDatos_Sector">#N/A</definedName>
+    <definedName name="SegmentaciónDeDatos_Unidad_de_Medida">#N/A</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
+      <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicerCache r:id="rId2"/>
+        <x14:slicerCache r:id="rId3"/>
+        <x14:slicerCache r:id="rId4"/>
+        <x14:slicerCache r:id="rId5"/>
+        <x14:slicerCache r:id="rId6"/>
+        <x14:slicerCache r:id="rId7"/>
+      </x15:slicerCaches>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="596">
   <si>
     <t>Código Tabla</t>
   </si>
@@ -1751,6 +1781,69 @@
   </si>
   <si>
     <t>Distribución (%) por provicia, según razon de eliminación de vacas en lecherías</t>
+  </si>
+  <si>
+    <t>Industria</t>
+  </si>
+  <si>
+    <t>Energía y medio ambiente</t>
+  </si>
+  <si>
+    <t>Agricultura y Ganadería</t>
+  </si>
+  <si>
+    <t>Sociedad</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Emisiones</t>
+  </si>
+  <si>
+    <t>Política y Gobierno</t>
+  </si>
+  <si>
+    <t>Silvicultura</t>
+  </si>
+  <si>
+    <t>Agricultura</t>
+  </si>
+  <si>
+    <t>Ganadería</t>
+  </si>
+  <si>
+    <t>Salud e Industria Farmacéutica</t>
+  </si>
+  <si>
+    <t>Estabecimientos de la salud y farmacias</t>
+  </si>
+  <si>
+    <t>Programas de Salud</t>
+  </si>
+  <si>
+    <t>Estado de salud</t>
+  </si>
+  <si>
+    <t>Calidad de Vida</t>
+  </si>
+  <si>
+    <t>Pesca y acuicultura</t>
+  </si>
+  <si>
+    <t>Educación y ciencia</t>
+  </si>
+  <si>
+    <t>Delincuencia y aplicación de la ley</t>
+  </si>
+  <si>
+    <t>Economía</t>
+  </si>
+  <si>
+    <t>Desarrollo Rural/Urbano</t>
+  </si>
+  <si>
+    <t>Energía</t>
   </si>
 </sst>
 </file>
@@ -1861,13 +1954,575 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Código Tabla">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DC35087-1D6B-4F12-82B4-87305E65D5CB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Código Tabla"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="83820" y="38101"/>
+              <a:ext cx="3238500" cy="1722120"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-HN" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de tabla. Las segmentaciones de tabla no se admiten en esta versión de Excel.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2007 o en una versión anterior, no se podrá usar la segmentación.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>807720</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>137161</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Unidad de Medida">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A44943CA-7946-4C66-BB4C-CAF9D6E30B1D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Unidad de Medida"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11955780" y="7621"/>
+              <a:ext cx="3383280" cy="1775460"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-HN" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de tabla. Las segmentaciones de tabla no se admiten en esta versión de Excel.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2007 o en una versión anterior, no se podrá usar la segmentación.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2377440</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>144781</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Nombre Fuente">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63C76C2A-6AE6-4382-B3F1-B8B594D53969}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Nombre Fuente"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7703820" y="1"/>
+              <a:ext cx="3733800" cy="1790700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-HN" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de tabla. Las segmentaciones de tabla no se admiten en esta versión de Excel.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2007 o en una versión anterior, no se podrá usar la segmentación.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1485900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Encargado">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C15A5C79-A6AC-4782-981F-E241D986C129}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Encargado"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="16101060" y="1"/>
+              <a:ext cx="2956560" cy="1828800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-HN" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de tabla. Las segmentaciones de tabla no se admiten en esta versión de Excel.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2007 o en una versión anterior, no se podrá usar la segmentación.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>106681</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Industria">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE615EB1-CE84-41CE-A011-C286FE9EFDD3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Industria"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3375660" y="22861"/>
+              <a:ext cx="1828800" cy="1729740"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-HN" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de tabla. Las segmentaciones de tabla no se admiten en esta versión de Excel.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2007 o en una versión anterior, no se podrá usar la segmentación.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2179320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4008120</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>144781</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="7" name="Sector">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8729FF70-D1F6-4D4D-B2F5-93E139B46F3D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Sector"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5478780" y="22861"/>
+              <a:ext cx="1828800" cy="1767840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-HN" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de tabla. Las segmentaciones de tabla no se admiten en esta versión de Excel.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2007 o en una versión anterior, no se podrá usar la segmentación.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Código_Tabla" xr10:uid="{67B76EAF-0F16-4244-AC47-8F03F250A49C}" sourceName="Código Tabla">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="1"/>
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
+      <x15:slicerCacheHideItemsWithNoData/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Unidad_de_Medida" xr10:uid="{659AC3D7-E25A-4E4B-8D8A-34D9AA04974D}" sourceName="Unidad de Medida">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="4"/>
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
+      <x15:slicerCacheHideItemsWithNoData/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Nombre_Fuente" xr10:uid="{51FE2ABD-9559-42A9-887C-79AAAD6B915D}" sourceName="Nombre Fuente">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="7"/>
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
+      <x15:slicerCacheHideItemsWithNoData/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Encargado" xr10:uid="{7565C164-7AAF-47E9-9079-19899581E211}" sourceName="Encargado">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="10"/>
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
+      <x15:slicerCacheHideItemsWithNoData/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache5.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Industria" xr10:uid="{39C02BA3-1ED6-48DE-AD37-07753E8643F5}" sourceName="Industria">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="11"/>
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
+      <x15:slicerCacheHideItemsWithNoData/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache6.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Sector" xr10:uid="{F8F96E58-9449-41ED-9591-3B02A6E1B9EE}" sourceName="Sector">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="12"/>
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
+      <x15:slicerCacheHideItemsWithNoData/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Código Tabla" xr10:uid="{ACADD536-4F26-4F32-AA2C-B6B02C14A824}" cache="SegmentaciónDeDatos_Código_Tabla" caption="Código Tabla" columnCount="5" style="SlicerStyleDark1" rowHeight="234950"/>
+  <slicer name="Unidad de Medida" xr10:uid="{6574F389-29CB-47FF-B34C-0B381A5AA264}" cache="SegmentaciónDeDatos_Unidad_de_Medida" caption="Unidad de Medida" columnCount="2" style="SlicerStyleDark1" rowHeight="234950"/>
+  <slicer name="Nombre Fuente" xr10:uid="{FCDE2E95-E63C-47A4-8F50-C4F8F5EADAEA}" cache="SegmentaciónDeDatos_Nombre_Fuente" caption="Nombre Fuente" columnCount="2" style="SlicerStyleDark1" rowHeight="234950"/>
+  <slicer name="Encargado" xr10:uid="{4B8EAA2A-5539-4124-8E5D-AA4E68FD63C8}" cache="SegmentaciónDeDatos_Encargado" caption="Encargado" columnCount="2" style="SlicerStyleDark1" rowHeight="234950"/>
+  <slicer name="Industria" xr10:uid="{5E69910F-72C0-4CCC-9A40-0C33D8089AF2}" cache="SegmentaciónDeDatos_Industria" caption="Industria" style="SlicerStyleDark1" rowHeight="234950"/>
+  <slicer name="Sector" xr10:uid="{FFD6B83F-B469-4B90-8DC1-E5E803E2AA9A}" cache="SegmentaciónDeDatos_Sector" caption="Sector" startItem="1" style="SlicerStyleDark1" rowHeight="234950"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A1:J128" totalsRowShown="0">
-  <autoFilter ref="A1:J128" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J122">
-    <sortCondition ref="A1:A122"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A11:L138" totalsRowShown="0">
+  <autoFilter ref="A11:L138" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:J132">
+    <sortCondition ref="A11:A132"/>
   </sortState>
-  <tableColumns count="10">
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{7C5348D6-A85E-4EC9-97BD-67166306597F}" name="Código Tabla" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{7A5582C2-7407-47EE-99EF-324377D124AB}" name="Nombre Tabla"/>
     <tableColumn id="3" xr3:uid="{E88E1312-D7F0-4EF8-8A1C-5848657F882E}" name="Descripción Tabla"/>
@@ -1878,6 +2533,8 @@
     <tableColumn id="8" xr3:uid="{6EA9854F-D490-402B-B8ED-E56E5C99398A}" name="Link Fuente" dataCellStyle="Hipervínculo"/>
     <tableColumn id="9" xr3:uid="{58A01724-6760-447C-94EE-93AD000674C9}" name="Link Dropbox" dataCellStyle="Hipervínculo"/>
     <tableColumn id="10" xr3:uid="{1A8590E9-7E89-4AEA-AC6B-568E6E872653}" name="Encargado"/>
+    <tableColumn id="11" xr3:uid="{74465A46-0500-4CAB-8139-88F1D6FAE0BD}" name="Industria"/>
+    <tableColumn id="12" xr3:uid="{5D8D9920-33AF-4B62-A976-E2A4F3CD2950}" name="Sector"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2180,997 +2837,758 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD49B1B1-33D3-49D9-BF85-AA2E2407F985}">
-  <dimension ref="A1:J128"/>
+  <dimension ref="A11:L138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="50.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="7" max="7" width="28.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="K11" t="s">
+        <v>575</v>
+      </c>
+      <c r="L11" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B12" t="s">
         <v>71</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C12" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B13" t="s">
         <v>77</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C13" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B14" t="s">
         <v>148</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C14" t="s">
         <v>149</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D14" t="s">
         <v>143</v>
       </c>
-      <c r="E4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
         <v>150</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="K14" t="s">
+        <v>578</v>
+      </c>
+      <c r="L14" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B15" t="s">
         <v>153</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C15" t="s">
         <v>154</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D15" t="s">
         <v>143</v>
       </c>
-      <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
         <v>150</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J15" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="K15" t="s">
+        <v>578</v>
+      </c>
+      <c r="L15" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B16" t="s">
         <v>286</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C16" t="s">
         <v>287</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D16" t="s">
         <v>288</v>
       </c>
-      <c r="E6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
         <v>289</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J16" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="K16" t="s">
+        <v>576</v>
+      </c>
+      <c r="L16" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
         <v>494</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B17" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D17" t="s">
         <v>12</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E17" t="s">
         <v>13</v>
       </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="K17" t="s">
+        <v>578</v>
+      </c>
+      <c r="L17" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B18" t="s">
         <v>189</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C18" t="s">
         <v>190</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D18" t="s">
         <v>191</v>
       </c>
-      <c r="E8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
         <v>192</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J18" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="K18" t="s">
+        <v>577</v>
+      </c>
+      <c r="L18" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B19" t="s">
         <v>243</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C19" t="s">
         <v>244</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D19" t="s">
         <v>245</v>
       </c>
-      <c r="E9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
         <v>246</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J19" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="K19" t="s">
+        <v>577</v>
+      </c>
+      <c r="L19" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
         <v>526</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B20" t="s">
         <v>155</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C20" t="s">
         <v>156</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
         <v>157</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="J10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="B11" t="s">
-        <v>273</v>
-      </c>
-      <c r="C11" t="s">
-        <v>274</v>
-      </c>
-      <c r="D11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>275</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C12" t="s">
-        <v>168</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>170</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="J12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="B13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>170</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="J13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="B14" t="s">
-        <v>179</v>
-      </c>
-      <c r="C14" t="s">
-        <v>180</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>170</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="J14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="B15" t="s">
-        <v>184</v>
-      </c>
-      <c r="C15" t="s">
-        <v>185</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>170</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="J15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>529</v>
-      </c>
-      <c r="B16" t="s">
-        <v>211</v>
-      </c>
-      <c r="C16" t="s">
-        <v>212</v>
-      </c>
-      <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>213</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>530</v>
-      </c>
-      <c r="B17" t="s">
-        <v>216</v>
-      </c>
-      <c r="C17" t="s">
-        <v>217</v>
-      </c>
-      <c r="D17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>218</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="J17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>531</v>
-      </c>
-      <c r="B18" t="s">
-        <v>221</v>
-      </c>
-      <c r="C18" t="s">
-        <v>222</v>
-      </c>
-      <c r="D18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>218</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="J18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>533</v>
-      </c>
-      <c r="B19" t="s">
-        <v>227</v>
-      </c>
-      <c r="C19" t="s">
-        <v>228</v>
-      </c>
-      <c r="D19" t="s">
-        <v>229</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>230</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="J19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>541</v>
-      </c>
-      <c r="B20" t="s">
-        <v>360</v>
-      </c>
-      <c r="C20" t="s">
-        <v>361</v>
-      </c>
-      <c r="D20" t="s">
-        <v>362</v>
-      </c>
-      <c r="E20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>306</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="J20" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>578</v>
+      </c>
+      <c r="L20" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="B21" t="s">
+        <v>273</v>
+      </c>
+      <c r="C21" t="s">
+        <v>274</v>
+      </c>
+      <c r="D21" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>275</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="J21" t="s">
+        <v>160</v>
+      </c>
+      <c r="K21" t="s">
+        <v>578</v>
+      </c>
+      <c r="L21" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>170</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
+        <v>170</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s">
+        <v>170</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s">
+        <v>170</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="B26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C26" t="s">
+        <v>212</v>
+      </c>
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s">
+        <v>213</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J26" t="s">
+        <v>160</v>
+      </c>
+      <c r="K26" t="s">
+        <v>576</v>
+      </c>
+      <c r="L26" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="B27" t="s">
+        <v>216</v>
+      </c>
+      <c r="C27" t="s">
+        <v>217</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s">
+        <v>218</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J27" t="s">
+        <v>160</v>
+      </c>
+      <c r="K27" t="s">
+        <v>576</v>
+      </c>
+      <c r="L27" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="B28" t="s">
+        <v>221</v>
+      </c>
+      <c r="C28" t="s">
+        <v>222</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J28" t="s">
+        <v>160</v>
+      </c>
+      <c r="K28" t="s">
+        <v>576</v>
+      </c>
+      <c r="L28" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="B29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C29" t="s">
+        <v>228</v>
+      </c>
+      <c r="D29" t="s">
+        <v>229</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s">
+        <v>230</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="B30" t="s">
+        <v>360</v>
+      </c>
+      <c r="C30" t="s">
+        <v>361</v>
+      </c>
+      <c r="D30" t="s">
+        <v>362</v>
+      </c>
+      <c r="E30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s">
+        <v>306</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J30" t="s">
+        <v>160</v>
+      </c>
+      <c r="K30" t="s">
+        <v>578</v>
+      </c>
+      <c r="L30" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B31" t="s">
         <v>373</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C31" t="s">
         <v>380</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D31" t="s">
         <v>375</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E31" t="s">
         <v>376</v>
-      </c>
-      <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>295</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="J21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="B22" t="s">
-        <v>389</v>
-      </c>
-      <c r="C22" t="s">
-        <v>352</v>
-      </c>
-      <c r="D22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>295</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="B23" t="s">
-        <v>548</v>
-      </c>
-      <c r="C23" t="s">
-        <v>549</v>
-      </c>
-      <c r="D23" t="s">
-        <v>375</v>
-      </c>
-      <c r="E23" t="s">
-        <v>376</v>
-      </c>
-      <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>295</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="J23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="B24" t="s">
-        <v>391</v>
-      </c>
-      <c r="C24" t="s">
-        <v>392</v>
-      </c>
-      <c r="D24" t="s">
-        <v>393</v>
-      </c>
-      <c r="E24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>295</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J24" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="B25" t="s">
-        <v>394</v>
-      </c>
-      <c r="C25" t="s">
-        <v>396</v>
-      </c>
-      <c r="D25" t="s">
-        <v>393</v>
-      </c>
-      <c r="E25" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>295</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J25" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>543</v>
-      </c>
-      <c r="B26" t="s">
-        <v>313</v>
-      </c>
-      <c r="C26" t="s">
-        <v>314</v>
-      </c>
-      <c r="D26" t="s">
-        <v>143</v>
-      </c>
-      <c r="E26" t="s">
-        <v>315</v>
-      </c>
-      <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>316</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="J26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>398</v>
-      </c>
-      <c r="B27" t="s">
-        <v>397</v>
-      </c>
-      <c r="C27" t="s">
-        <v>399</v>
-      </c>
-      <c r="D27" t="s">
-        <v>393</v>
-      </c>
-      <c r="E27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>295</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J27" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>401</v>
-      </c>
-      <c r="B28" t="s">
-        <v>400</v>
-      </c>
-      <c r="C28" t="s">
-        <v>402</v>
-      </c>
-      <c r="D28" t="s">
-        <v>393</v>
-      </c>
-      <c r="E28" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>295</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J28" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="B29" t="s">
-        <v>405</v>
-      </c>
-      <c r="C29" t="s">
-        <v>407</v>
-      </c>
-      <c r="D29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>295</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J29" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>404</v>
-      </c>
-      <c r="B30" t="s">
-        <v>406</v>
-      </c>
-      <c r="C30" t="s">
-        <v>408</v>
-      </c>
-      <c r="D30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>295</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="J30" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="B31" t="s">
-        <v>409</v>
-      </c>
-      <c r="C31" t="s">
-        <v>411</v>
-      </c>
-      <c r="D31" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" t="s">
-        <v>48</v>
       </c>
       <c r="F31" t="s">
         <v>14</v>
@@ -3179,27 +3597,27 @@
         <v>295</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="J31" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
-        <v>413</v>
+        <v>344</v>
       </c>
       <c r="B32" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="C32" t="s">
-        <v>414</v>
+        <v>352</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E32" t="s">
         <v>48</v>
@@ -3219,19 +3637,28 @@
       <c r="J32" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" t="s">
+        <v>577</v>
+      </c>
+      <c r="L32" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>442</v>
+        <v>371</v>
       </c>
       <c r="B33" t="s">
-        <v>443</v>
+        <v>548</v>
       </c>
       <c r="C33" t="s">
-        <v>444</v>
+        <v>549</v>
+      </c>
+      <c r="D33" t="s">
+        <v>375</v>
       </c>
       <c r="E33" t="s">
-        <v>48</v>
+        <v>376</v>
       </c>
       <c r="F33" t="s">
         <v>14</v>
@@ -3240,24 +3667,27 @@
         <v>295</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="J33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
-        <v>445</v>
+        <v>390</v>
       </c>
       <c r="B34" t="s">
-        <v>446</v>
+        <v>391</v>
       </c>
       <c r="C34" t="s">
-        <v>447</v>
+        <v>392</v>
+      </c>
+      <c r="D34" t="s">
+        <v>393</v>
       </c>
       <c r="E34" t="s">
         <v>48</v>
@@ -3272,21 +3702,30 @@
         <v>337</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>448</v>
+        <v>338</v>
       </c>
       <c r="J34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="K34" t="s">
+        <v>577</v>
+      </c>
+      <c r="L34" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
-        <v>449</v>
+        <v>395</v>
       </c>
       <c r="B35" t="s">
-        <v>450</v>
+        <v>394</v>
       </c>
       <c r="C35" t="s">
-        <v>451</v>
+        <v>396</v>
+      </c>
+      <c r="D35" t="s">
+        <v>393</v>
       </c>
       <c r="E35" t="s">
         <v>48</v>
@@ -3301,53 +3740,68 @@
         <v>337</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>452</v>
+        <v>338</v>
       </c>
       <c r="J35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="K35" t="s">
+        <v>577</v>
+      </c>
+      <c r="L35" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
-        <v>370</v>
+        <v>543</v>
       </c>
       <c r="B36" t="s">
-        <v>374</v>
+        <v>313</v>
       </c>
       <c r="C36" t="s">
-        <v>550</v>
+        <v>314</v>
       </c>
       <c r="D36" t="s">
-        <v>375</v>
+        <v>143</v>
       </c>
       <c r="E36" t="s">
-        <v>376</v>
+        <v>315</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
       </c>
       <c r="G36" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>372</v>
+        <v>317</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>378</v>
+        <v>318</v>
       </c>
       <c r="J36" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="K36" t="s">
+        <v>577</v>
+      </c>
+      <c r="L36" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
-        <v>453</v>
+        <v>398</v>
       </c>
       <c r="B37" t="s">
-        <v>454</v>
+        <v>397</v>
       </c>
       <c r="C37" t="s">
-        <v>455</v>
+        <v>399</v>
+      </c>
+      <c r="D37" t="s">
+        <v>393</v>
       </c>
       <c r="E37" t="s">
         <v>48</v>
@@ -3362,21 +3816,30 @@
         <v>337</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>456</v>
+        <v>338</v>
       </c>
       <c r="J37" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="K37" t="s">
+        <v>577</v>
+      </c>
+      <c r="L37" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
-        <v>457</v>
+        <v>401</v>
       </c>
       <c r="B38" t="s">
-        <v>458</v>
+        <v>400</v>
       </c>
       <c r="C38" t="s">
-        <v>459</v>
+        <v>402</v>
+      </c>
+      <c r="D38" t="s">
+        <v>393</v>
       </c>
       <c r="E38" t="s">
         <v>48</v>
@@ -3391,21 +3854,30 @@
         <v>337</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>460</v>
+        <v>338</v>
       </c>
       <c r="J38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="K38" t="s">
+        <v>577</v>
+      </c>
+      <c r="L38" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
-        <v>461</v>
+        <v>403</v>
       </c>
       <c r="B39" t="s">
-        <v>462</v>
+        <v>405</v>
       </c>
       <c r="C39" t="s">
-        <v>463</v>
+        <v>407</v>
+      </c>
+      <c r="D39" t="s">
+        <v>47</v>
       </c>
       <c r="E39" t="s">
         <v>48</v>
@@ -3420,21 +3892,30 @@
         <v>337</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>464</v>
+        <v>338</v>
       </c>
       <c r="J39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="K39" t="s">
+        <v>577</v>
+      </c>
+      <c r="L39" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
-        <v>465</v>
+        <v>404</v>
       </c>
       <c r="B40" t="s">
-        <v>466</v>
+        <v>406</v>
       </c>
       <c r="C40" t="s">
-        <v>467</v>
+        <v>408</v>
+      </c>
+      <c r="D40" t="s">
+        <v>53</v>
       </c>
       <c r="E40" t="s">
         <v>48</v>
@@ -3449,21 +3930,30 @@
         <v>337</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>468</v>
+        <v>338</v>
       </c>
       <c r="J40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="K40" t="s">
+        <v>577</v>
+      </c>
+      <c r="L40" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
-        <v>469</v>
+        <v>410</v>
       </c>
       <c r="B41" t="s">
-        <v>470</v>
+        <v>409</v>
       </c>
       <c r="C41" t="s">
-        <v>471</v>
+        <v>411</v>
+      </c>
+      <c r="D41" t="s">
+        <v>47</v>
       </c>
       <c r="E41" t="s">
         <v>48</v>
@@ -3478,21 +3968,30 @@
         <v>337</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>472</v>
+        <v>338</v>
       </c>
       <c r="J41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="K41" t="s">
+        <v>577</v>
+      </c>
+      <c r="L41" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
-        <v>473</v>
+        <v>413</v>
       </c>
       <c r="B42" t="s">
-        <v>474</v>
+        <v>412</v>
       </c>
       <c r="C42" t="s">
-        <v>475</v>
+        <v>414</v>
+      </c>
+      <c r="D42" t="s">
+        <v>53</v>
       </c>
       <c r="E42" t="s">
         <v>48</v>
@@ -3507,24 +4006,27 @@
         <v>337</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>476</v>
+        <v>338</v>
       </c>
       <c r="J42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="K42" t="s">
+        <v>577</v>
+      </c>
+      <c r="L42" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="B43" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="C43" t="s">
-        <v>420</v>
-      </c>
-      <c r="D43" t="s">
-        <v>47</v>
+        <v>444</v>
       </c>
       <c r="E43" t="s">
         <v>48</v>
@@ -3539,21 +4041,27 @@
         <v>337</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J43" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="K43" t="s">
+        <v>577</v>
+      </c>
+      <c r="L43" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="B44" t="s">
-        <v>477</v>
+        <v>446</v>
       </c>
       <c r="C44" t="s">
-        <v>478</v>
+        <v>447</v>
       </c>
       <c r="E44" t="s">
         <v>48</v>
@@ -3568,24 +4076,27 @@
         <v>337</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>479</v>
+        <v>448</v>
       </c>
       <c r="J44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44" t="s">
+        <v>577</v>
+      </c>
+      <c r="L44" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="B45" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="C45" t="s">
-        <v>419</v>
-      </c>
-      <c r="D45" t="s">
-        <v>53</v>
+        <v>451</v>
       </c>
       <c r="E45" t="s">
         <v>48</v>
@@ -3600,27 +4111,33 @@
         <v>337</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>338</v>
+        <v>452</v>
       </c>
       <c r="J45" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="K45" t="s">
+        <v>577</v>
+      </c>
+      <c r="L45" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
-        <v>421</v>
+        <v>370</v>
       </c>
       <c r="B46" t="s">
-        <v>422</v>
+        <v>374</v>
       </c>
       <c r="C46" t="s">
-        <v>423</v>
+        <v>550</v>
       </c>
       <c r="D46" t="s">
-        <v>47</v>
+        <v>375</v>
       </c>
       <c r="E46" t="s">
-        <v>48</v>
+        <v>376</v>
       </c>
       <c r="F46" t="s">
         <v>14</v>
@@ -3629,27 +4146,24 @@
         <v>295</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="J46" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
-        <v>424</v>
+        <v>453</v>
       </c>
       <c r="B47" t="s">
-        <v>425</v>
+        <v>454</v>
       </c>
       <c r="C47" t="s">
-        <v>426</v>
-      </c>
-      <c r="D47" t="s">
-        <v>60</v>
+        <v>455</v>
       </c>
       <c r="E47" t="s">
         <v>48</v>
@@ -3664,24 +4178,27 @@
         <v>337</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>338</v>
+        <v>456</v>
       </c>
       <c r="J47" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="K47" t="s">
+        <v>577</v>
+      </c>
+      <c r="L47" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
-        <v>334</v>
+        <v>457</v>
       </c>
       <c r="B48" t="s">
-        <v>335</v>
+        <v>458</v>
       </c>
       <c r="C48" t="s">
-        <v>336</v>
-      </c>
-      <c r="D48" t="s">
-        <v>47</v>
+        <v>459</v>
       </c>
       <c r="E48" t="s">
         <v>48</v>
@@ -3696,24 +4213,27 @@
         <v>337</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>338</v>
+        <v>460</v>
       </c>
       <c r="J48" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="K48" t="s">
+        <v>577</v>
+      </c>
+      <c r="L48" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="B49" t="s">
-        <v>430</v>
+        <v>462</v>
       </c>
       <c r="C49" t="s">
-        <v>431</v>
-      </c>
-      <c r="D49" t="s">
-        <v>47</v>
+        <v>463</v>
       </c>
       <c r="E49" t="s">
         <v>48</v>
@@ -3728,24 +4248,27 @@
         <v>337</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>338</v>
+        <v>464</v>
       </c>
       <c r="J49" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="K49" t="s">
+        <v>577</v>
+      </c>
+      <c r="L49" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
-        <v>428</v>
+        <v>465</v>
       </c>
       <c r="B50" t="s">
-        <v>429</v>
+        <v>466</v>
       </c>
       <c r="C50" t="s">
-        <v>432</v>
-      </c>
-      <c r="D50" t="s">
-        <v>60</v>
+        <v>467</v>
       </c>
       <c r="E50" t="s">
         <v>48</v>
@@ -3760,24 +4283,27 @@
         <v>337</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>338</v>
+        <v>468</v>
       </c>
       <c r="J50" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="K50" t="s">
+        <v>577</v>
+      </c>
+      <c r="L50" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
-        <v>433</v>
+        <v>469</v>
       </c>
       <c r="B51" t="s">
-        <v>434</v>
+        <v>470</v>
       </c>
       <c r="C51" t="s">
-        <v>438</v>
-      </c>
-      <c r="D51" t="s">
-        <v>47</v>
+        <v>471</v>
       </c>
       <c r="E51" t="s">
         <v>48</v>
@@ -3792,24 +4318,27 @@
         <v>337</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>338</v>
+        <v>472</v>
       </c>
       <c r="J51" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="K51" t="s">
+        <v>577</v>
+      </c>
+      <c r="L51" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
-        <v>436</v>
+        <v>473</v>
       </c>
       <c r="B52" t="s">
-        <v>435</v>
+        <v>474</v>
       </c>
       <c r="C52" t="s">
-        <v>437</v>
-      </c>
-      <c r="D52" t="s">
-        <v>60</v>
+        <v>475</v>
       </c>
       <c r="E52" t="s">
         <v>48</v>
@@ -3824,21 +4353,27 @@
         <v>337</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>338</v>
+        <v>476</v>
       </c>
       <c r="J52" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="K52" t="s">
+        <v>577</v>
+      </c>
+      <c r="L52" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="B53" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="C53" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="D53" t="s">
         <v>47</v>
@@ -3861,19 +4396,22 @@
       <c r="J53" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53" t="s">
+        <v>577</v>
+      </c>
+      <c r="L53" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
-        <v>339</v>
+        <v>417</v>
       </c>
       <c r="B54" t="s">
-        <v>345</v>
+        <v>477</v>
       </c>
       <c r="C54" t="s">
-        <v>346</v>
-      </c>
-      <c r="D54" t="s">
-        <v>47</v>
+        <v>478</v>
       </c>
       <c r="E54" t="s">
         <v>48</v>
@@ -3888,24 +4426,30 @@
         <v>337</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>338</v>
+        <v>479</v>
       </c>
       <c r="J54" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="K54" t="s">
+        <v>577</v>
+      </c>
+      <c r="L54" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
-        <v>340</v>
+        <v>415</v>
       </c>
       <c r="B55" t="s">
-        <v>347</v>
+        <v>416</v>
       </c>
       <c r="C55" t="s">
-        <v>348</v>
+        <v>419</v>
       </c>
       <c r="D55" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E55" t="s">
         <v>48</v>
@@ -3925,19 +4469,25 @@
       <c r="J55" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55" t="s">
+        <v>577</v>
+      </c>
+      <c r="L55" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>341</v>
+        <v>421</v>
       </c>
       <c r="B56" t="s">
-        <v>386</v>
+        <v>422</v>
       </c>
       <c r="C56" t="s">
-        <v>350</v>
+        <v>423</v>
       </c>
       <c r="D56" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E56" t="s">
         <v>48</v>
@@ -3957,19 +4507,25 @@
       <c r="J56" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56" t="s">
+        <v>577</v>
+      </c>
+      <c r="L56" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
-        <v>342</v>
+        <v>424</v>
       </c>
       <c r="B57" t="s">
-        <v>387</v>
+        <v>425</v>
       </c>
       <c r="C57" t="s">
-        <v>349</v>
+        <v>426</v>
       </c>
       <c r="D57" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="E57" t="s">
         <v>48</v>
@@ -3989,16 +4545,22 @@
       <c r="J57" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57" t="s">
+        <v>577</v>
+      </c>
+      <c r="L57" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B58" t="s">
-        <v>388</v>
+        <v>335</v>
       </c>
       <c r="C58" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="D58" t="s">
         <v>47</v>
@@ -4021,19 +4583,25 @@
       <c r="J58" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58" t="s">
+        <v>577</v>
+      </c>
+      <c r="L58" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
-        <v>544</v>
+        <v>427</v>
       </c>
       <c r="B59" t="s">
-        <v>319</v>
+        <v>430</v>
       </c>
       <c r="C59" t="s">
-        <v>363</v>
+        <v>431</v>
       </c>
       <c r="D59" t="s">
-        <v>245</v>
+        <v>47</v>
       </c>
       <c r="E59" t="s">
         <v>48</v>
@@ -4042,30 +4610,36 @@
         <v>14</v>
       </c>
       <c r="G59" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="J59" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="K59" t="s">
+        <v>577</v>
+      </c>
+      <c r="L59" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
-        <v>545</v>
+        <v>428</v>
       </c>
       <c r="B60" t="s">
-        <v>323</v>
+        <v>429</v>
       </c>
       <c r="C60" t="s">
-        <v>364</v>
+        <v>432</v>
       </c>
       <c r="D60" t="s">
-        <v>324</v>
+        <v>60</v>
       </c>
       <c r="E60" t="s">
         <v>48</v>
@@ -4074,30 +4648,36 @@
         <v>14</v>
       </c>
       <c r="G60" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="J60" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="K60" t="s">
+        <v>577</v>
+      </c>
+      <c r="L60" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
-        <v>546</v>
+        <v>433</v>
       </c>
       <c r="B61" t="s">
-        <v>326</v>
+        <v>434</v>
       </c>
       <c r="C61" t="s">
-        <v>365</v>
+        <v>438</v>
       </c>
       <c r="D61" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E61" t="s">
         <v>48</v>
@@ -4106,30 +4686,36 @@
         <v>14</v>
       </c>
       <c r="G61" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="J61" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="K61" t="s">
+        <v>577</v>
+      </c>
+      <c r="L61" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
-        <v>547</v>
+        <v>436</v>
       </c>
       <c r="B62" t="s">
-        <v>381</v>
+        <v>435</v>
       </c>
       <c r="C62" t="s">
-        <v>382</v>
+        <v>437</v>
       </c>
       <c r="D62" t="s">
-        <v>383</v>
+        <v>60</v>
       </c>
       <c r="E62" t="s">
         <v>48</v>
@@ -4138,27 +4724,33 @@
         <v>14</v>
       </c>
       <c r="G62" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>384</v>
+        <v>337</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>385</v>
+        <v>338</v>
       </c>
       <c r="J62" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="K62" t="s">
+        <v>577</v>
+      </c>
+      <c r="L62" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
-        <v>353</v>
+        <v>440</v>
       </c>
       <c r="B63" t="s">
-        <v>356</v>
+        <v>439</v>
       </c>
       <c r="C63" t="s">
-        <v>367</v>
+        <v>441</v>
       </c>
       <c r="D63" t="s">
         <v>47</v>
@@ -4170,25 +4762,33 @@
         <v>14</v>
       </c>
       <c r="G63" t="s">
-        <v>357</v>
+        <v>295</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="I63" s="1"/>
+        <v>337</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>338</v>
+      </c>
       <c r="J63" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63" t="s">
+        <v>577</v>
+      </c>
+      <c r="L63" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B64" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C64" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="D64" t="s">
         <v>47</v>
@@ -4200,57 +4800,71 @@
         <v>14</v>
       </c>
       <c r="G64" t="s">
-        <v>357</v>
+        <v>295</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="I64" s="1"/>
+        <v>337</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>338</v>
+      </c>
       <c r="J64" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64" t="s">
+        <v>577</v>
+      </c>
+      <c r="L64" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
-        <v>495</v>
+        <v>340</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>347</v>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>348</v>
       </c>
       <c r="D65" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E65" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="F65" t="s">
         <v>14</v>
       </c>
       <c r="G65" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>24</v>
+        <v>337</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>25</v>
+        <v>338</v>
       </c>
       <c r="J65" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="K65" t="s">
+        <v>577</v>
+      </c>
+      <c r="L65" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="13" t="s">
-        <v>269</v>
+        <v>341</v>
       </c>
       <c r="B66" t="s">
-        <v>270</v>
+        <v>386</v>
       </c>
       <c r="C66" t="s">
-        <v>271</v>
+        <v>350</v>
       </c>
       <c r="D66" t="s">
         <v>21</v>
@@ -4262,27 +4876,33 @@
         <v>14</v>
       </c>
       <c r="G66" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>203</v>
+        <v>337</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>272</v>
+        <v>338</v>
       </c>
       <c r="J66" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="K66" t="s">
+        <v>577</v>
+      </c>
+      <c r="L66" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="13" t="s">
-        <v>278</v>
+        <v>342</v>
       </c>
       <c r="B67" t="s">
-        <v>279</v>
+        <v>387</v>
       </c>
       <c r="C67" t="s">
-        <v>280</v>
+        <v>349</v>
       </c>
       <c r="D67" t="s">
         <v>21</v>
@@ -4294,30 +4914,36 @@
         <v>14</v>
       </c>
       <c r="G67" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>203</v>
+        <v>337</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>281</v>
+        <v>338</v>
       </c>
       <c r="J67" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="K67" t="s">
+        <v>577</v>
+      </c>
+      <c r="L67" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="13" t="s">
-        <v>282</v>
+        <v>343</v>
       </c>
       <c r="B68" t="s">
-        <v>283</v>
+        <v>388</v>
       </c>
       <c r="C68" t="s">
-        <v>284</v>
+        <v>351</v>
       </c>
       <c r="D68" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E68" t="s">
         <v>48</v>
@@ -4326,91 +4952,109 @@
         <v>14</v>
       </c>
       <c r="G68" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>203</v>
+        <v>337</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="J68" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="K68" t="s">
+        <v>577</v>
+      </c>
+      <c r="L68" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="13" t="s">
-        <v>496</v>
+        <v>544</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>319</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>363</v>
       </c>
       <c r="D69" t="s">
-        <v>21</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>29</v>
+        <v>245</v>
+      </c>
+      <c r="E69" t="s">
+        <v>48</v>
       </c>
       <c r="F69" t="s">
         <v>14</v>
       </c>
-      <c r="G69" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>31</v>
+      <c r="G69" t="s">
+        <v>320</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>321</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>32</v>
+        <v>322</v>
       </c>
       <c r="J69" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="K69" t="s">
+        <v>577</v>
+      </c>
+      <c r="L69" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="13" t="s">
-        <v>497</v>
+        <v>545</v>
       </c>
       <c r="B70" t="s">
-        <v>33</v>
+        <v>323</v>
       </c>
       <c r="C70" t="s">
-        <v>34</v>
+        <v>364</v>
       </c>
       <c r="D70" t="s">
-        <v>21</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>29</v>
+        <v>324</v>
+      </c>
+      <c r="E70" t="s">
+        <v>48</v>
       </c>
       <c r="F70" t="s">
         <v>14</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>320</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>31</v>
+        <v>321</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>35</v>
+        <v>325</v>
       </c>
       <c r="J70" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="K70" t="s">
+        <v>577</v>
+      </c>
+      <c r="L70" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="13" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="B71" t="s">
-        <v>201</v>
+        <v>326</v>
       </c>
       <c r="C71" t="s">
-        <v>202</v>
+        <v>365</v>
       </c>
       <c r="D71" t="s">
         <v>21</v>
@@ -4422,62 +5066,74 @@
         <v>14</v>
       </c>
       <c r="G71" t="s">
-        <v>23</v>
+        <v>320</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>203</v>
+        <v>321</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>204</v>
+        <v>327</v>
       </c>
       <c r="J71" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="K71" t="s">
+        <v>577</v>
+      </c>
+      <c r="L71" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="13" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="B72" t="s">
-        <v>224</v>
+        <v>381</v>
       </c>
       <c r="C72" t="s">
-        <v>225</v>
+        <v>382</v>
       </c>
       <c r="D72" t="s">
-        <v>21</v>
-      </c>
-      <c r="E72" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="E72" t="s">
         <v>48</v>
       </c>
       <c r="F72" t="s">
         <v>14</v>
       </c>
       <c r="G72" t="s">
-        <v>23</v>
+        <v>320</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>203</v>
+        <v>384</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>226</v>
+        <v>385</v>
       </c>
       <c r="J72" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="K72" t="s">
+        <v>577</v>
+      </c>
+      <c r="L72" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="13" t="s">
-        <v>534</v>
+        <v>353</v>
       </c>
       <c r="B73" t="s">
-        <v>233</v>
+        <v>356</v>
       </c>
       <c r="C73" t="s">
-        <v>234</v>
+        <v>367</v>
       </c>
       <c r="D73" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E73" t="s">
         <v>48</v>
@@ -4486,30 +5142,34 @@
         <v>14</v>
       </c>
       <c r="G73" t="s">
-        <v>23</v>
+        <v>357</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>235</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="I73" s="1"/>
       <c r="J73" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="K73" t="s">
+        <v>577</v>
+      </c>
+      <c r="L73" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="13" t="s">
-        <v>535</v>
+        <v>354</v>
       </c>
       <c r="B74" t="s">
-        <v>236</v>
+        <v>355</v>
       </c>
       <c r="C74" t="s">
-        <v>237</v>
+        <v>368</v>
       </c>
       <c r="D74" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E74" t="s">
         <v>48</v>
@@ -4518,33 +5178,37 @@
         <v>14</v>
       </c>
       <c r="G74" t="s">
-        <v>23</v>
+        <v>357</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>238</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="I74" s="1"/>
       <c r="J74" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="K74" t="s">
+        <v>577</v>
+      </c>
+      <c r="L74" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="13" t="s">
-        <v>536</v>
+        <v>495</v>
       </c>
       <c r="B75" t="s">
-        <v>239</v>
+        <v>19</v>
       </c>
       <c r="C75" t="s">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="D75" t="s">
         <v>21</v>
       </c>
       <c r="E75" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F75" t="s">
         <v>14</v>
@@ -4553,24 +5217,30 @@
         <v>23</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>203</v>
+        <v>24</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>241</v>
+        <v>25</v>
       </c>
       <c r="J75" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K75" t="s">
+        <v>585</v>
+      </c>
+      <c r="L75" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
-        <v>537</v>
+        <v>269</v>
       </c>
       <c r="B76" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="C76" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="D76" t="s">
         <v>21</v>
@@ -4588,442 +5258,555 @@
         <v>203</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="J76" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K76" t="s">
+        <v>585</v>
+      </c>
+      <c r="L76" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="13" t="s">
-        <v>498</v>
+        <v>278</v>
       </c>
       <c r="B77" t="s">
-        <v>36</v>
+        <v>279</v>
       </c>
       <c r="C77" t="s">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="D77" t="s">
         <v>21</v>
       </c>
       <c r="E77" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F77" t="s">
         <v>14</v>
       </c>
       <c r="G77" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>41</v>
+        <v>281</v>
       </c>
       <c r="J77" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="K77" t="s">
+        <v>585</v>
+      </c>
+      <c r="L77" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
-        <v>499</v>
+        <v>282</v>
       </c>
       <c r="B78" t="s">
-        <v>43</v>
+        <v>283</v>
       </c>
       <c r="C78" t="s">
-        <v>44</v>
+        <v>284</v>
       </c>
       <c r="D78" t="s">
         <v>21</v>
       </c>
       <c r="E78" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
       </c>
       <c r="G78" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>41</v>
+        <v>285</v>
       </c>
       <c r="J78" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="K78" t="s">
+        <v>585</v>
+      </c>
+      <c r="L78" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
-        <v>527</v>
+        <v>496</v>
       </c>
       <c r="B79" t="s">
-        <v>161</v>
+        <v>27</v>
       </c>
       <c r="C79" t="s">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="D79" t="s">
         <v>21</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F79" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J79" t="s">
+        <v>26</v>
+      </c>
+      <c r="K79" t="s">
+        <v>585</v>
+      </c>
+      <c r="L79" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="B80" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80" t="s">
+        <v>34</v>
+      </c>
+      <c r="D80" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F80" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" t="s">
+        <v>30</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J80" t="s">
+        <v>26</v>
+      </c>
+      <c r="K80" t="s">
+        <v>585</v>
+      </c>
+      <c r="L80" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="B81" t="s">
+        <v>201</v>
+      </c>
+      <c r="C81" t="s">
+        <v>202</v>
+      </c>
+      <c r="D81" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" t="s">
+        <v>48</v>
+      </c>
+      <c r="F81" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" t="s">
+        <v>23</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J81" t="s">
+        <v>26</v>
+      </c>
+      <c r="K81" t="s">
+        <v>585</v>
+      </c>
+      <c r="L81" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="B82" t="s">
+        <v>224</v>
+      </c>
+      <c r="C82" t="s">
+        <v>225</v>
+      </c>
+      <c r="D82" t="s">
+        <v>21</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F82" t="s">
+        <v>14</v>
+      </c>
+      <c r="G82" t="s">
+        <v>23</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J82" t="s">
+        <v>26</v>
+      </c>
+      <c r="K82" t="s">
+        <v>585</v>
+      </c>
+      <c r="L82" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="B83" t="s">
+        <v>233</v>
+      </c>
+      <c r="C83" t="s">
+        <v>234</v>
+      </c>
+      <c r="D83" t="s">
+        <v>21</v>
+      </c>
+      <c r="E83" t="s">
+        <v>48</v>
+      </c>
+      <c r="F83" t="s">
+        <v>14</v>
+      </c>
+      <c r="G83" t="s">
+        <v>23</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J83" t="s">
+        <v>26</v>
+      </c>
+      <c r="K83" t="s">
+        <v>585</v>
+      </c>
+      <c r="L83" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="B84" t="s">
+        <v>236</v>
+      </c>
+      <c r="C84" t="s">
+        <v>237</v>
+      </c>
+      <c r="D84" t="s">
+        <v>21</v>
+      </c>
+      <c r="E84" t="s">
+        <v>48</v>
+      </c>
+      <c r="F84" t="s">
+        <v>14</v>
+      </c>
+      <c r="G84" t="s">
+        <v>23</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J84" t="s">
+        <v>26</v>
+      </c>
+      <c r="K84" t="s">
+        <v>585</v>
+      </c>
+      <c r="L84" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="B85" t="s">
+        <v>239</v>
+      </c>
+      <c r="C85" t="s">
+        <v>240</v>
+      </c>
+      <c r="D85" t="s">
+        <v>21</v>
+      </c>
+      <c r="E85" t="s">
+        <v>48</v>
+      </c>
+      <c r="F85" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" t="s">
+        <v>23</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J85" t="s">
+        <v>26</v>
+      </c>
+      <c r="K85" t="s">
+        <v>585</v>
+      </c>
+      <c r="L85" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="B86" t="s">
+        <v>249</v>
+      </c>
+      <c r="C86" t="s">
+        <v>250</v>
+      </c>
+      <c r="D86" t="s">
+        <v>21</v>
+      </c>
+      <c r="E86" t="s">
+        <v>48</v>
+      </c>
+      <c r="F86" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" t="s">
+        <v>23</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J86" t="s">
+        <v>26</v>
+      </c>
+      <c r="K86" t="s">
+        <v>585</v>
+      </c>
+      <c r="L86" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="B87" t="s">
+        <v>36</v>
+      </c>
+      <c r="C87" t="s">
+        <v>37</v>
+      </c>
+      <c r="D87" t="s">
+        <v>21</v>
+      </c>
+      <c r="E87" t="s">
+        <v>38</v>
+      </c>
+      <c r="F87" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" t="s">
+        <v>39</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J87" t="s">
+        <v>42</v>
+      </c>
+      <c r="K87" t="s">
+        <v>578</v>
+      </c>
+      <c r="L87" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="B88" t="s">
+        <v>43</v>
+      </c>
+      <c r="C88" t="s">
+        <v>44</v>
+      </c>
+      <c r="D88" t="s">
+        <v>21</v>
+      </c>
+      <c r="E88" t="s">
+        <v>38</v>
+      </c>
+      <c r="F88" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" t="s">
+        <v>39</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J88" t="s">
+        <v>42</v>
+      </c>
+      <c r="K88" t="s">
+        <v>578</v>
+      </c>
+      <c r="L88" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="B89" t="s">
+        <v>161</v>
+      </c>
+      <c r="C89" t="s">
+        <v>162</v>
+      </c>
+      <c r="D89" t="s">
+        <v>21</v>
+      </c>
+      <c r="E89" t="s">
         <v>13</v>
       </c>
-      <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s">
+      <c r="F89" t="s">
+        <v>14</v>
+      </c>
+      <c r="G89" t="s">
         <v>163</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="H89" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="I79" s="1" t="s">
+      <c r="I89" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="J79" t="s">
+      <c r="J89" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="13" t="s">
+      <c r="K89" t="s">
+        <v>578</v>
+      </c>
+      <c r="L89" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B90" t="s">
         <v>45</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C90" t="s">
         <v>46</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D90" t="s">
         <v>47</v>
       </c>
-      <c r="E80" t="s">
-        <v>48</v>
-      </c>
-      <c r="F80" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" s="2"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="1" t="s">
+      <c r="E90" t="s">
+        <v>48</v>
+      </c>
+      <c r="F90" t="s">
+        <v>14</v>
+      </c>
+      <c r="G90" s="2"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="J80" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="13" t="s">
-        <v>486</v>
-      </c>
-      <c r="B81" t="s">
-        <v>487</v>
-      </c>
-      <c r="C81" t="s">
-        <v>488</v>
-      </c>
-      <c r="E81" t="s">
-        <v>48</v>
-      </c>
-      <c r="F81" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s">
-        <v>295</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="J81" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="B82" t="s">
-        <v>491</v>
-      </c>
-      <c r="C82" t="s">
-        <v>492</v>
-      </c>
-      <c r="E82" t="s">
-        <v>48</v>
-      </c>
-      <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s">
-        <v>295</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="J82" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="H83" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="I83" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="J83" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
-        <v>540</v>
-      </c>
-      <c r="B84" t="s">
-        <v>302</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="D84" t="s">
-        <v>143</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="J84" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="13" t="s">
-        <v>501</v>
-      </c>
-      <c r="B85" t="s">
-        <v>51</v>
-      </c>
-      <c r="C85" t="s">
-        <v>52</v>
-      </c>
-      <c r="D85" t="s">
-        <v>53</v>
-      </c>
-      <c r="E85" t="s">
-        <v>48</v>
-      </c>
-      <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" s="2"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J85" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="B86" t="s">
-        <v>55</v>
-      </c>
-      <c r="C86" t="s">
-        <v>56</v>
-      </c>
-      <c r="D86" t="s">
-        <v>47</v>
-      </c>
-      <c r="E86" t="s">
-        <v>48</v>
-      </c>
-      <c r="F86" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" s="2"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J86" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="13" t="s">
-        <v>503</v>
-      </c>
-      <c r="B87" t="s">
-        <v>58</v>
-      </c>
-      <c r="C87" t="s">
-        <v>59</v>
-      </c>
-      <c r="D87" t="s">
-        <v>60</v>
-      </c>
-      <c r="E87" t="s">
-        <v>48</v>
-      </c>
-      <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" s="2"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J87" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="13" t="s">
-        <v>504</v>
-      </c>
-      <c r="B88" t="s">
-        <v>62</v>
-      </c>
-      <c r="C88" t="s">
-        <v>63</v>
-      </c>
-      <c r="D88" t="s">
-        <v>64</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" s="2"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J88" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="13" t="s">
-        <v>505</v>
-      </c>
-      <c r="B89" t="s">
-        <v>67</v>
-      </c>
-      <c r="C89" t="s">
-        <v>68</v>
-      </c>
-      <c r="D89" t="s">
-        <v>69</v>
-      </c>
-      <c r="E89" t="s">
-        <v>48</v>
-      </c>
-      <c r="F89" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" s="2"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J89" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="13" t="s">
-        <v>539</v>
-      </c>
-      <c r="B90" t="s">
-        <v>298</v>
-      </c>
-      <c r="C90" t="s">
-        <v>299</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="E90" t="s">
-        <v>48</v>
-      </c>
-      <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="H90" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="J90" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K90" t="s">
+        <v>577</v>
+      </c>
+      <c r="L90" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="13" t="s">
-        <v>542</v>
+        <v>486</v>
       </c>
       <c r="B91" t="s">
-        <v>309</v>
+        <v>487</v>
       </c>
       <c r="C91" t="s">
-        <v>310</v>
-      </c>
-      <c r="D91" t="s">
-        <v>21</v>
+        <v>488</v>
       </c>
       <c r="E91" t="s">
         <v>48</v>
@@ -5031,28 +5814,34 @@
       <c r="F91" t="s">
         <v>14</v>
       </c>
-      <c r="G91" s="7" t="s">
+      <c r="G91" t="s">
         <v>295</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>312</v>
+        <v>489</v>
       </c>
       <c r="J91" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="K91" t="s">
+        <v>577</v>
+      </c>
+      <c r="L91" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="13" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="B92" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="C92" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="E92" t="s">
         <v>48</v>
@@ -5061,327 +5850,390 @@
         <v>14</v>
       </c>
       <c r="G92" t="s">
-        <v>483</v>
+        <v>295</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>484</v>
+        <v>300</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="J92" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="13" t="s">
+      <c r="K92" t="s">
+        <v>577</v>
+      </c>
+      <c r="L92" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="I93" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K93" t="s">
+        <v>577</v>
+      </c>
+      <c r="L93" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="B94" t="s">
+        <v>302</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D94" t="s">
+        <v>143</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F94" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J94" t="s">
+        <v>50</v>
+      </c>
+      <c r="K94" t="s">
+        <v>577</v>
+      </c>
+      <c r="L94" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="B95" t="s">
+        <v>51</v>
+      </c>
+      <c r="C95" t="s">
+        <v>52</v>
+      </c>
+      <c r="D95" t="s">
+        <v>53</v>
+      </c>
+      <c r="E95" t="s">
+        <v>48</v>
+      </c>
+      <c r="F95" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95" s="2"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J95" t="s">
+        <v>50</v>
+      </c>
+      <c r="K95" t="s">
+        <v>577</v>
+      </c>
+      <c r="L95" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="B96" t="s">
+        <v>55</v>
+      </c>
+      <c r="C96" t="s">
+        <v>56</v>
+      </c>
+      <c r="D96" t="s">
+        <v>47</v>
+      </c>
+      <c r="E96" t="s">
+        <v>48</v>
+      </c>
+      <c r="F96" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96" s="2"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J96" t="s">
+        <v>50</v>
+      </c>
+      <c r="K96" t="s">
+        <v>577</v>
+      </c>
+      <c r="L96" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="B97" t="s">
+        <v>58</v>
+      </c>
+      <c r="C97" t="s">
+        <v>59</v>
+      </c>
+      <c r="D97" t="s">
+        <v>60</v>
+      </c>
+      <c r="E97" t="s">
+        <v>48</v>
+      </c>
+      <c r="F97" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" s="2"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J97" t="s">
+        <v>50</v>
+      </c>
+      <c r="K97" t="s">
+        <v>577</v>
+      </c>
+      <c r="L97" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="B98" t="s">
+        <v>62</v>
+      </c>
+      <c r="C98" t="s">
+        <v>63</v>
+      </c>
+      <c r="D98" t="s">
+        <v>64</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F98" t="s">
+        <v>14</v>
+      </c>
+      <c r="G98" s="2"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J98" t="s">
+        <v>50</v>
+      </c>
+      <c r="K98" t="s">
+        <v>577</v>
+      </c>
+      <c r="L98" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="B99" t="s">
+        <v>67</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" t="s">
+        <v>48</v>
+      </c>
+      <c r="F99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" s="2"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J99" t="s">
+        <v>50</v>
+      </c>
+      <c r="K99" t="s">
+        <v>577</v>
+      </c>
+      <c r="L99" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="B100" t="s">
+        <v>298</v>
+      </c>
+      <c r="C100" t="s">
+        <v>299</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E100" t="s">
+        <v>48</v>
+      </c>
+      <c r="F100" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J100" t="s">
+        <v>50</v>
+      </c>
+      <c r="K100" t="s">
+        <v>577</v>
+      </c>
+      <c r="L100" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A101" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="B101" t="s">
+        <v>309</v>
+      </c>
+      <c r="C101" t="s">
+        <v>310</v>
+      </c>
+      <c r="D101" t="s">
+        <v>21</v>
+      </c>
+      <c r="E101" t="s">
+        <v>48</v>
+      </c>
+      <c r="F101" t="s">
+        <v>14</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="J101" t="s">
+        <v>26</v>
+      </c>
+      <c r="K101" t="s">
+        <v>577</v>
+      </c>
+      <c r="L101" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A102" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="B102" t="s">
+        <v>481</v>
+      </c>
+      <c r="C102" t="s">
+        <v>482</v>
+      </c>
+      <c r="E102" t="s">
+        <v>48</v>
+      </c>
+      <c r="F102" t="s">
+        <v>14</v>
+      </c>
+      <c r="G102" t="s">
+        <v>483</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="J102" t="s">
+        <v>42</v>
+      </c>
+      <c r="K102" t="s">
+        <v>577</v>
+      </c>
+      <c r="L102" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A103" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B103" t="s">
         <v>81</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C103" t="s">
         <v>82</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s">
-        <v>48</v>
-      </c>
-      <c r="F93" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" t="s">
-        <v>73</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J93" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="13" t="s">
-        <v>506</v>
-      </c>
-      <c r="B94" t="s">
-        <v>84</v>
-      </c>
-      <c r="C94" t="s">
-        <v>85</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s">
-        <v>48</v>
-      </c>
-      <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s">
-        <v>73</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J94" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="13" t="s">
-        <v>507</v>
-      </c>
-      <c r="B95" t="s">
-        <v>87</v>
-      </c>
-      <c r="C95" t="s">
-        <v>88</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s">
-        <v>48</v>
-      </c>
-      <c r="F95" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" t="s">
-        <v>73</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J95" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="13" t="s">
-        <v>508</v>
-      </c>
-      <c r="B96" t="s">
-        <v>90</v>
-      </c>
-      <c r="C96" t="s">
-        <v>91</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s">
-        <v>48</v>
-      </c>
-      <c r="F96" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" t="s">
-        <v>73</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J96" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="13" t="s">
-        <v>509</v>
-      </c>
-      <c r="B97" t="s">
-        <v>93</v>
-      </c>
-      <c r="C97" t="s">
-        <v>94</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s">
-        <v>48</v>
-      </c>
-      <c r="F97" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s">
-        <v>73</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J97" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="13" t="s">
-        <v>510</v>
-      </c>
-      <c r="B98" t="s">
-        <v>96</v>
-      </c>
-      <c r="C98" t="s">
-        <v>94</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s">
-        <v>48</v>
-      </c>
-      <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s">
-        <v>73</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J98" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="B99" t="s">
-        <v>98</v>
-      </c>
-      <c r="C99" t="s">
-        <v>99</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s">
-        <v>48</v>
-      </c>
-      <c r="F99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" t="s">
-        <v>73</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J99" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="13" t="s">
-        <v>512</v>
-      </c>
-      <c r="B100" t="s">
-        <v>100</v>
-      </c>
-      <c r="C100" t="s">
-        <v>101</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s">
-        <v>48</v>
-      </c>
-      <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s">
-        <v>73</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J100" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="13" t="s">
-        <v>513</v>
-      </c>
-      <c r="B101" t="s">
-        <v>103</v>
-      </c>
-      <c r="C101" t="s">
-        <v>104</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" t="s">
-        <v>48</v>
-      </c>
-      <c r="F101" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" t="s">
-        <v>73</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J101" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="13" t="s">
-        <v>514</v>
-      </c>
-      <c r="B102" t="s">
-        <v>106</v>
-      </c>
-      <c r="C102" t="s">
-        <v>107</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" t="s">
-        <v>48</v>
-      </c>
-      <c r="F102" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" t="s">
-        <v>73</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J102" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="13" t="s">
-        <v>515</v>
-      </c>
-      <c r="B103" t="s">
-        <v>109</v>
-      </c>
-      <c r="C103" t="s">
-        <v>110</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s">
@@ -5397,21 +6249,21 @@
         <v>79</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="J103" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="13" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="B104" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C104" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s">
@@ -5427,21 +6279,21 @@
         <v>79</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="J104" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="13" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="B105" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C105" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s">
@@ -5457,21 +6309,21 @@
         <v>79</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="J105" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="13" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="B106" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C106" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s">
@@ -5487,21 +6339,21 @@
         <v>79</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="J106" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="13" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="B107" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="C107" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s">
@@ -5517,21 +6369,21 @@
         <v>79</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="J107" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="13" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="B108" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="C108" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s">
@@ -5547,21 +6399,21 @@
         <v>79</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="J108" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="13" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="B109" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="C109" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s">
@@ -5577,21 +6429,21 @@
         <v>79</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="J109" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="13" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="B110" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C110" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s">
@@ -5607,21 +6459,21 @@
         <v>79</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="J110" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="13" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="B111" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="C111" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s">
@@ -5637,21 +6489,21 @@
         <v>79</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="J111" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="13" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="B112" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="C112" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s">
@@ -5667,21 +6519,21 @@
         <v>79</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="J112" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="13" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="B113" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="C113" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s">
@@ -5697,25 +6549,23 @@
         <v>79</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="J113" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="13" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="B114" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="C114" t="s">
-        <v>142</v>
-      </c>
-      <c r="D114" t="s">
-        <v>143</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D114" s="2"/>
       <c r="E114" t="s">
         <v>48</v>
       </c>
@@ -5723,31 +6573,29 @@
         <v>14</v>
       </c>
       <c r="G114" t="s">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="J114" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="13" t="s">
-        <v>195</v>
+        <v>516</v>
       </c>
       <c r="B115" t="s">
-        <v>196</v>
+        <v>115</v>
       </c>
       <c r="C115" t="s">
-        <v>197</v>
-      </c>
-      <c r="D115" t="s">
-        <v>21</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="D115" s="2"/>
       <c r="E115" t="s">
         <v>48</v>
       </c>
@@ -5755,31 +6603,29 @@
         <v>14</v>
       </c>
       <c r="G115" t="s">
-        <v>198</v>
+        <v>73</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="J115" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="13" t="s">
-        <v>205</v>
+        <v>517</v>
       </c>
       <c r="B116" t="s">
-        <v>206</v>
+        <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>207</v>
-      </c>
-      <c r="D116" t="s">
-        <v>143</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="D116" s="2"/>
       <c r="E116" t="s">
         <v>48</v>
       </c>
@@ -5787,31 +6633,29 @@
         <v>14</v>
       </c>
       <c r="G116" t="s">
-        <v>208</v>
+        <v>73</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="J116" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="13" t="s">
-        <v>252</v>
+        <v>518</v>
       </c>
       <c r="B117" t="s">
-        <v>253</v>
+        <v>121</v>
       </c>
       <c r="C117" t="s">
-        <v>254</v>
-      </c>
-      <c r="D117" t="s">
-        <v>21</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="D117" s="2"/>
       <c r="E117" t="s">
         <v>48</v>
       </c>
@@ -5819,31 +6663,29 @@
         <v>14</v>
       </c>
       <c r="G117" t="s">
-        <v>208</v>
+        <v>73</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>255</v>
+        <v>123</v>
       </c>
       <c r="J117" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="13" t="s">
-        <v>256</v>
+        <v>519</v>
       </c>
       <c r="B118" t="s">
-        <v>257</v>
+        <v>124</v>
       </c>
       <c r="C118" t="s">
-        <v>258</v>
-      </c>
-      <c r="D118" t="s">
-        <v>21</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D118" s="2"/>
       <c r="E118" t="s">
         <v>48</v>
       </c>
@@ -5851,31 +6693,29 @@
         <v>14</v>
       </c>
       <c r="G118" t="s">
-        <v>208</v>
+        <v>73</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>255</v>
+        <v>126</v>
       </c>
       <c r="J118" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="13" t="s">
-        <v>259</v>
+        <v>520</v>
       </c>
       <c r="B119" t="s">
-        <v>260</v>
+        <v>127</v>
       </c>
       <c r="C119" t="s">
-        <v>261</v>
-      </c>
-      <c r="D119" t="s">
-        <v>21</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="D119" s="2"/>
       <c r="E119" t="s">
         <v>48</v>
       </c>
@@ -5883,31 +6723,29 @@
         <v>14</v>
       </c>
       <c r="G119" t="s">
-        <v>208</v>
+        <v>73</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>255</v>
+        <v>129</v>
       </c>
       <c r="J119" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="13" t="s">
-        <v>262</v>
+        <v>521</v>
       </c>
       <c r="B120" t="s">
-        <v>263</v>
+        <v>130</v>
       </c>
       <c r="C120" t="s">
-        <v>264</v>
-      </c>
-      <c r="D120" t="s">
-        <v>21</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D120" s="2"/>
       <c r="E120" t="s">
         <v>48</v>
       </c>
@@ -5915,31 +6753,29 @@
         <v>14</v>
       </c>
       <c r="G120" t="s">
-        <v>208</v>
+        <v>73</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>255</v>
+        <v>132</v>
       </c>
       <c r="J120" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="13" t="s">
-        <v>265</v>
+        <v>522</v>
       </c>
       <c r="B121" t="s">
-        <v>266</v>
+        <v>133</v>
       </c>
       <c r="C121" t="s">
-        <v>267</v>
-      </c>
-      <c r="D121" t="s">
-        <v>21</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="D121" s="2"/>
       <c r="E121" t="s">
         <v>48</v>
       </c>
@@ -5947,31 +6783,29 @@
         <v>14</v>
       </c>
       <c r="G121" t="s">
-        <v>208</v>
+        <v>73</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="J121" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="J121" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="13" t="s">
-        <v>328</v>
+        <v>523</v>
       </c>
       <c r="B122" t="s">
-        <v>329</v>
+        <v>136</v>
       </c>
       <c r="C122" t="s">
-        <v>366</v>
-      </c>
-      <c r="D122" t="s">
-        <v>21</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="D122" s="2"/>
       <c r="E122" t="s">
         <v>48</v>
       </c>
@@ -5979,254 +6813,664 @@
         <v>14</v>
       </c>
       <c r="G122" t="s">
-        <v>330</v>
-      </c>
-      <c r="H122" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="I122" s="10" t="s">
-        <v>332</v>
+        <v>73</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="J122" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="13" t="s">
-        <v>551</v>
+        <v>524</v>
       </c>
       <c r="B123" t="s">
-        <v>557</v>
+        <v>139</v>
       </c>
       <c r="C123" t="s">
-        <v>558</v>
-      </c>
-      <c r="D123" t="s">
-        <v>375</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="D123" s="2"/>
       <c r="E123" t="s">
-        <v>376</v>
+        <v>48</v>
       </c>
       <c r="F123" t="s">
         <v>14</v>
       </c>
       <c r="G123" t="s">
-        <v>295</v>
+        <v>73</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>559</v>
+        <v>86</v>
       </c>
       <c r="J123" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="B124" t="s">
+        <v>141</v>
+      </c>
+      <c r="C124" t="s">
+        <v>142</v>
+      </c>
+      <c r="D124" t="s">
+        <v>143</v>
+      </c>
+      <c r="E124" t="s">
+        <v>48</v>
+      </c>
+      <c r="F124" t="s">
+        <v>14</v>
+      </c>
+      <c r="G124" t="s">
+        <v>144</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J124" t="s">
+        <v>147</v>
+      </c>
+      <c r="K124" t="s">
+        <v>578</v>
+      </c>
+      <c r="L124" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A125" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B125" t="s">
+        <v>196</v>
+      </c>
+      <c r="C125" t="s">
+        <v>197</v>
+      </c>
+      <c r="D125" t="s">
+        <v>21</v>
+      </c>
+      <c r="E125" t="s">
+        <v>48</v>
+      </c>
+      <c r="F125" t="s">
+        <v>14</v>
+      </c>
+      <c r="G125" t="s">
+        <v>198</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J125" t="s">
+        <v>147</v>
+      </c>
+      <c r="K125" t="s">
+        <v>578</v>
+      </c>
+      <c r="L125" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A126" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B126" t="s">
+        <v>206</v>
+      </c>
+      <c r="C126" t="s">
+        <v>207</v>
+      </c>
+      <c r="D126" t="s">
+        <v>143</v>
+      </c>
+      <c r="E126" t="s">
+        <v>48</v>
+      </c>
+      <c r="F126" t="s">
+        <v>14</v>
+      </c>
+      <c r="G126" t="s">
+        <v>208</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J126" t="s">
+        <v>147</v>
+      </c>
+      <c r="K126" t="s">
+        <v>578</v>
+      </c>
+      <c r="L126" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A127" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="B127" t="s">
+        <v>253</v>
+      </c>
+      <c r="C127" t="s">
+        <v>254</v>
+      </c>
+      <c r="D127" t="s">
+        <v>21</v>
+      </c>
+      <c r="E127" t="s">
+        <v>48</v>
+      </c>
+      <c r="F127" t="s">
+        <v>14</v>
+      </c>
+      <c r="G127" t="s">
+        <v>208</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J127" t="s">
+        <v>147</v>
+      </c>
+      <c r="K127" t="s">
+        <v>578</v>
+      </c>
+      <c r="L127" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A128" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B128" t="s">
+        <v>257</v>
+      </c>
+      <c r="C128" t="s">
+        <v>258</v>
+      </c>
+      <c r="D128" t="s">
+        <v>21</v>
+      </c>
+      <c r="E128" t="s">
+        <v>48</v>
+      </c>
+      <c r="F128" t="s">
+        <v>14</v>
+      </c>
+      <c r="G128" t="s">
+        <v>208</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J128" t="s">
+        <v>147</v>
+      </c>
+      <c r="K128" t="s">
+        <v>578</v>
+      </c>
+      <c r="L128" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A129" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="B129" t="s">
+        <v>260</v>
+      </c>
+      <c r="C129" t="s">
+        <v>261</v>
+      </c>
+      <c r="D129" t="s">
+        <v>21</v>
+      </c>
+      <c r="E129" t="s">
+        <v>48</v>
+      </c>
+      <c r="F129" t="s">
+        <v>14</v>
+      </c>
+      <c r="G129" t="s">
+        <v>208</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J129" t="s">
+        <v>147</v>
+      </c>
+      <c r="K129" t="s">
+        <v>578</v>
+      </c>
+      <c r="L129" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A130" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="B130" t="s">
+        <v>263</v>
+      </c>
+      <c r="C130" t="s">
+        <v>264</v>
+      </c>
+      <c r="D130" t="s">
+        <v>21</v>
+      </c>
+      <c r="E130" t="s">
+        <v>48</v>
+      </c>
+      <c r="F130" t="s">
+        <v>14</v>
+      </c>
+      <c r="G130" t="s">
+        <v>208</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J130" t="s">
+        <v>147</v>
+      </c>
+      <c r="K130" t="s">
+        <v>578</v>
+      </c>
+      <c r="L130" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A131" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="B131" t="s">
+        <v>266</v>
+      </c>
+      <c r="C131" t="s">
+        <v>267</v>
+      </c>
+      <c r="D131" t="s">
+        <v>21</v>
+      </c>
+      <c r="E131" t="s">
+        <v>48</v>
+      </c>
+      <c r="F131" t="s">
+        <v>14</v>
+      </c>
+      <c r="G131" t="s">
+        <v>208</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J131" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="K131" t="s">
+        <v>578</v>
+      </c>
+      <c r="L131" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A132" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="B132" t="s">
+        <v>329</v>
+      </c>
+      <c r="C132" t="s">
+        <v>366</v>
+      </c>
+      <c r="D132" t="s">
+        <v>21</v>
+      </c>
+      <c r="E132" t="s">
+        <v>48</v>
+      </c>
+      <c r="F132" t="s">
+        <v>14</v>
+      </c>
+      <c r="G132" t="s">
+        <v>330</v>
+      </c>
+      <c r="H132" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="I132" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="J132" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A133" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="B133" t="s">
+        <v>557</v>
+      </c>
+      <c r="C133" t="s">
+        <v>558</v>
+      </c>
+      <c r="D133" t="s">
+        <v>375</v>
+      </c>
+      <c r="E133" t="s">
+        <v>376</v>
+      </c>
+      <c r="F133" t="s">
+        <v>14</v>
+      </c>
+      <c r="G133" t="s">
+        <v>295</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="J133" t="s">
+        <v>76</v>
+      </c>
+      <c r="K133" t="s">
+        <v>577</v>
+      </c>
+      <c r="L133" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A134" s="13" t="s">
         <v>552</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B134" t="s">
         <v>565</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C134" t="s">
         <v>566</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D134" t="s">
         <v>375</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E134" t="s">
         <v>376</v>
       </c>
-      <c r="F124" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124" t="s">
+      <c r="F134" t="s">
+        <v>14</v>
+      </c>
+      <c r="G134" t="s">
         <v>295</v>
       </c>
-      <c r="H124" s="1" t="s">
+      <c r="H134" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="I124" s="1" t="s">
+      <c r="I134" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="J124" t="s">
+      <c r="J134" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="13" t="s">
+      <c r="K134" t="s">
+        <v>577</v>
+      </c>
+      <c r="L134" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A135" s="13" t="s">
         <v>553</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B135" t="s">
         <v>567</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C135" t="s">
         <v>568</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D135" t="s">
         <v>375</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E135" t="s">
         <v>376</v>
       </c>
-      <c r="F125" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" t="s">
+      <c r="F135" t="s">
+        <v>14</v>
+      </c>
+      <c r="G135" t="s">
         <v>295</v>
       </c>
-      <c r="H125" s="1" t="s">
+      <c r="H135" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="I125" s="1" t="s">
+      <c r="I135" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="J125" t="s">
+      <c r="J135" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="13" t="s">
+      <c r="K135" t="s">
+        <v>577</v>
+      </c>
+      <c r="L135" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A136" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B136" t="s">
         <v>569</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C136" t="s">
         <v>570</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D136" t="s">
         <v>375</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E136" t="s">
         <v>376</v>
       </c>
-      <c r="F126" t="s">
-        <v>14</v>
-      </c>
-      <c r="G126" t="s">
+      <c r="F136" t="s">
+        <v>14</v>
+      </c>
+      <c r="G136" t="s">
         <v>295</v>
       </c>
-      <c r="H126" s="1" t="s">
+      <c r="H136" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="I126" s="1" t="s">
+      <c r="I136" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="J126" t="s">
+      <c r="J136" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="13" t="s">
+      <c r="K136" t="s">
+        <v>577</v>
+      </c>
+      <c r="L136" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A137" s="13" t="s">
         <v>555</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B137" t="s">
         <v>571</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C137" t="s">
         <v>572</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D137" t="s">
         <v>375</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E137" t="s">
         <v>376</v>
       </c>
-      <c r="F127" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127" t="s">
+      <c r="F137" t="s">
+        <v>14</v>
+      </c>
+      <c r="G137" t="s">
         <v>295</v>
       </c>
-      <c r="H127" s="1" t="s">
+      <c r="H137" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="I127" s="1" t="s">
+      <c r="I137" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="J127" t="s">
+      <c r="J137" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="13" t="s">
+      <c r="K137" t="s">
+        <v>577</v>
+      </c>
+      <c r="L137" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A138" s="13" t="s">
         <v>556</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B138" t="s">
         <v>573</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C138" t="s">
         <v>574</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D138" t="s">
         <v>375</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E138" t="s">
         <v>376</v>
       </c>
-      <c r="F128" t="s">
-        <v>14</v>
-      </c>
-      <c r="G128" t="s">
+      <c r="F138" t="s">
+        <v>14</v>
+      </c>
+      <c r="G138" t="s">
         <v>295</v>
       </c>
-      <c r="H128" s="1" t="s">
+      <c r="H138" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="I128" s="1" t="s">
+      <c r="I138" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="J128" t="s">
+      <c r="J138" t="s">
         <v>76</v>
+      </c>
+      <c r="K138" t="s">
+        <v>577</v>
+      </c>
+      <c r="L138" t="s">
+        <v>584</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H65" r:id="rId1" location="datosabiertos " xr:uid="{5911B0A5-0C21-4814-BAF8-15335BA8C082}"/>
-    <hyperlink ref="I65" r:id="rId2" xr:uid="{C9E6B6EE-6E87-4957-B349-88CD50EABA12}"/>
-    <hyperlink ref="I80" r:id="rId3" xr:uid="{C94E5315-A85E-4A74-877B-9DEC863F6E66}"/>
-    <hyperlink ref="I85" r:id="rId4" xr:uid="{328450BD-3888-4523-BEEB-2C37E16B29C2}"/>
-    <hyperlink ref="I7" r:id="rId5" xr:uid="{4479E641-936D-4E07-AD89-A70226BE6C64}"/>
-    <hyperlink ref="I86" r:id="rId6" xr:uid="{9453A25A-ED22-47AD-9DA7-1EEEE458E0A6}"/>
-    <hyperlink ref="I87" r:id="rId7" xr:uid="{AC4861FE-44F3-453C-B9FB-C3BAE0D83FD7}"/>
-    <hyperlink ref="I88" r:id="rId8" xr:uid="{DB598F35-4F10-44FA-845E-BC09D5BBB9A0}"/>
-    <hyperlink ref="I89" r:id="rId9" xr:uid="{FE516EE0-ED5B-488C-9714-20321DE0A1F9}"/>
-    <hyperlink ref="I10" r:id="rId10" xr:uid="{2941D0D9-FD68-49BD-BE97-E5CEF91C19F1}"/>
-    <hyperlink ref="I11" r:id="rId11" xr:uid="{8C6D62BB-5F77-4E43-A2C0-4B9C82D8B833}"/>
-    <hyperlink ref="I16" r:id="rId12" xr:uid="{044C2CB3-B42D-4008-AB57-7D2A34CC4E84}"/>
-    <hyperlink ref="I17" r:id="rId13" xr:uid="{BB9B3C57-946D-4735-8CCB-E360255B90A6}"/>
-    <hyperlink ref="I18" r:id="rId14" xr:uid="{4A6C8201-1574-4551-9A9C-F243CDFC088B}"/>
-    <hyperlink ref="H6" r:id="rId15" xr:uid="{2A01B5CB-6E13-4421-AF4E-2DEF27E17522}"/>
-    <hyperlink ref="I6" r:id="rId16" xr:uid="{94228EAD-A640-40EC-9EBB-226D4CB50133}"/>
-    <hyperlink ref="H83" r:id="rId17" xr:uid="{43B8B26A-48BD-40F3-94AA-B4FE7AFC090B}"/>
-    <hyperlink ref="I83" r:id="rId18" xr:uid="{0E77E100-B94E-4689-9861-3926BDD5F1C2}"/>
-    <hyperlink ref="H84" r:id="rId19" xr:uid="{303E2F96-9C17-4AC1-9979-3D5DFF967B79}"/>
-    <hyperlink ref="I84" r:id="rId20" xr:uid="{20D5A78D-E1DE-4773-9544-4D2C520F2903}"/>
-    <hyperlink ref="I90" r:id="rId21" xr:uid="{675F0F9F-48B7-44BE-8415-0DFC7DCDA382}"/>
-    <hyperlink ref="I20" r:id="rId22" xr:uid="{914239B8-66A3-4B5A-BFDA-A0DD4CC21F97}"/>
-    <hyperlink ref="H20" r:id="rId23" xr:uid="{146728A6-A4D8-4655-9AC6-E4AFC9487D85}"/>
-    <hyperlink ref="H90" r:id="rId24" xr:uid="{77E6D235-047D-4604-9151-F6D390761670}"/>
-    <hyperlink ref="H91" r:id="rId25" xr:uid="{CBE902CB-B0AB-48A1-AEB4-B161B4B9805A}"/>
-    <hyperlink ref="H59" r:id="rId26" xr:uid="{5B6DFFFC-2AC1-489A-A901-760C70C922B3}"/>
-    <hyperlink ref="H60" r:id="rId27" xr:uid="{BD5652B3-697C-4C44-953D-CAB46A31F9B0}"/>
-    <hyperlink ref="H61" r:id="rId28" xr:uid="{28092483-2915-418B-A2AF-12AB85843ECE}"/>
-    <hyperlink ref="I59" r:id="rId29" xr:uid="{2F9FC809-7044-49F3-AD2A-337755DC1F7E}"/>
-    <hyperlink ref="I60" r:id="rId30" xr:uid="{48DE6A5E-29CD-479E-A57E-6C321D874174}"/>
-    <hyperlink ref="I61" r:id="rId31" xr:uid="{75950DFD-39AB-4949-8A68-8C6D8137D57C}"/>
-    <hyperlink ref="H122" r:id="rId32" xr:uid="{1CEE2C1C-5CAA-4221-9E9E-023216550247}"/>
-    <hyperlink ref="I122" r:id="rId33" display="https://www.dropbox.com/scl/fi/7m1z10fp5kfeodsxiwgyi/8.1.xlsx?cloud_editor=excel&amp;dl=0&amp;rlkey=zjmyfc1pkvo57zz610q9in13r" xr:uid="{A8BDBCBD-3D45-433E-945C-C50EF42330AA}"/>
-    <hyperlink ref="H62" r:id="rId34" xr:uid="{2D514D50-5C2E-4495-96EE-18447C70E010}"/>
-    <hyperlink ref="I62" r:id="rId35" xr:uid="{71AA66DE-A95F-45E5-A807-39BAEBABCD4A}"/>
-    <hyperlink ref="H26" r:id="rId36" xr:uid="{6C5E3E67-C5AC-47FF-8E1F-0B6D283FBB47}"/>
+    <hyperlink ref="H75" r:id="rId1" location="datosabiertos " xr:uid="{5911B0A5-0C21-4814-BAF8-15335BA8C082}"/>
+    <hyperlink ref="I75" r:id="rId2" xr:uid="{C9E6B6EE-6E87-4957-B349-88CD50EABA12}"/>
+    <hyperlink ref="I90" r:id="rId3" xr:uid="{C94E5315-A85E-4A74-877B-9DEC863F6E66}"/>
+    <hyperlink ref="I95" r:id="rId4" xr:uid="{328450BD-3888-4523-BEEB-2C37E16B29C2}"/>
+    <hyperlink ref="I17" r:id="rId5" xr:uid="{4479E641-936D-4E07-AD89-A70226BE6C64}"/>
+    <hyperlink ref="I96" r:id="rId6" xr:uid="{9453A25A-ED22-47AD-9DA7-1EEEE458E0A6}"/>
+    <hyperlink ref="I97" r:id="rId7" xr:uid="{AC4861FE-44F3-453C-B9FB-C3BAE0D83FD7}"/>
+    <hyperlink ref="I98" r:id="rId8" xr:uid="{DB598F35-4F10-44FA-845E-BC09D5BBB9A0}"/>
+    <hyperlink ref="I99" r:id="rId9" xr:uid="{FE516EE0-ED5B-488C-9714-20321DE0A1F9}"/>
+    <hyperlink ref="I20" r:id="rId10" xr:uid="{2941D0D9-FD68-49BD-BE97-E5CEF91C19F1}"/>
+    <hyperlink ref="I21" r:id="rId11" xr:uid="{8C6D62BB-5F77-4E43-A2C0-4B9C82D8B833}"/>
+    <hyperlink ref="I26" r:id="rId12" xr:uid="{044C2CB3-B42D-4008-AB57-7D2A34CC4E84}"/>
+    <hyperlink ref="I27" r:id="rId13" xr:uid="{BB9B3C57-946D-4735-8CCB-E360255B90A6}"/>
+    <hyperlink ref="I28" r:id="rId14" xr:uid="{4A6C8201-1574-4551-9A9C-F243CDFC088B}"/>
+    <hyperlink ref="H16" r:id="rId15" xr:uid="{2A01B5CB-6E13-4421-AF4E-2DEF27E17522}"/>
+    <hyperlink ref="I16" r:id="rId16" xr:uid="{94228EAD-A640-40EC-9EBB-226D4CB50133}"/>
+    <hyperlink ref="H93" r:id="rId17" xr:uid="{43B8B26A-48BD-40F3-94AA-B4FE7AFC090B}"/>
+    <hyperlink ref="I93" r:id="rId18" xr:uid="{0E77E100-B94E-4689-9861-3926BDD5F1C2}"/>
+    <hyperlink ref="H94" r:id="rId19" xr:uid="{303E2F96-9C17-4AC1-9979-3D5DFF967B79}"/>
+    <hyperlink ref="I94" r:id="rId20" xr:uid="{20D5A78D-E1DE-4773-9544-4D2C520F2903}"/>
+    <hyperlink ref="I100" r:id="rId21" xr:uid="{675F0F9F-48B7-44BE-8415-0DFC7DCDA382}"/>
+    <hyperlink ref="I30" r:id="rId22" xr:uid="{914239B8-66A3-4B5A-BFDA-A0DD4CC21F97}"/>
+    <hyperlink ref="H30" r:id="rId23" xr:uid="{146728A6-A4D8-4655-9AC6-E4AFC9487D85}"/>
+    <hyperlink ref="H100" r:id="rId24" xr:uid="{77E6D235-047D-4604-9151-F6D390761670}"/>
+    <hyperlink ref="H101" r:id="rId25" xr:uid="{CBE902CB-B0AB-48A1-AEB4-B161B4B9805A}"/>
+    <hyperlink ref="H69" r:id="rId26" xr:uid="{5B6DFFFC-2AC1-489A-A901-760C70C922B3}"/>
+    <hyperlink ref="H70" r:id="rId27" xr:uid="{BD5652B3-697C-4C44-953D-CAB46A31F9B0}"/>
+    <hyperlink ref="H71" r:id="rId28" xr:uid="{28092483-2915-418B-A2AF-12AB85843ECE}"/>
+    <hyperlink ref="I69" r:id="rId29" xr:uid="{2F9FC809-7044-49F3-AD2A-337755DC1F7E}"/>
+    <hyperlink ref="I70" r:id="rId30" xr:uid="{48DE6A5E-29CD-479E-A57E-6C321D874174}"/>
+    <hyperlink ref="I71" r:id="rId31" xr:uid="{75950DFD-39AB-4949-8A68-8C6D8137D57C}"/>
+    <hyperlink ref="H132" r:id="rId32" xr:uid="{1CEE2C1C-5CAA-4221-9E9E-023216550247}"/>
+    <hyperlink ref="I132" r:id="rId33" display="https://www.dropbox.com/scl/fi/7m1z10fp5kfeodsxiwgyi/8.1.xlsx?cloud_editor=excel&amp;dl=0&amp;rlkey=zjmyfc1pkvo57zz610q9in13r" xr:uid="{A8BDBCBD-3D45-433E-945C-C50EF42330AA}"/>
+    <hyperlink ref="H72" r:id="rId34" xr:uid="{2D514D50-5C2E-4495-96EE-18447C70E010}"/>
+    <hyperlink ref="I72" r:id="rId35" xr:uid="{71AA66DE-A95F-45E5-A807-39BAEBABCD4A}"/>
+    <hyperlink ref="H36" r:id="rId36" xr:uid="{6C5E3E67-C5AC-47FF-8E1F-0B6D283FBB47}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId37"/>
+  <drawing r:id="rId38"/>
   <tableParts count="1">
-    <tablePart r:id="rId38"/>
+    <tablePart r:id="rId39"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId40"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/00Consolidado Tablas Madre.xlsx
+++ b/00Consolidado Tablas Madre.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCN\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177B5E37-0683-4BA1-A71B-D8DFDC1CC9F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E7A947-FA50-4292-831B-123BD02BDC37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidado" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="SegmentaciónDeDatos_Sector">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_Unidad_de_Medida">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -41,15 +41,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -1093,15 +1084,9 @@
     <t>17.10</t>
   </si>
   <si>
-    <t>Importaciones_toneladas_acumuladas</t>
-  </si>
-  <si>
     <t>Importaciones de carne aculumado en toneladas</t>
   </si>
   <si>
-    <t>Expertaciones_tonaledas_acumulado</t>
-  </si>
-  <si>
     <t>Exportaciones de carne aculumado en toneladas</t>
   </si>
   <si>
@@ -1216,12 +1201,6 @@
     <t>https://www.dropbox.com/s/5lpe3vunjw4qloc/18.4.xlsx?dl=0</t>
   </si>
   <si>
-    <t>numero_de_cabezas_faena_bovino_matadero</t>
-  </si>
-  <si>
-    <t>Faena_bovinos_matadero_cantidad_cabezas_por_año</t>
-  </si>
-  <si>
     <t>faena_bovino_matadero_tonelada_carne_vara</t>
   </si>
   <si>
@@ -1844,6 +1823,18 @@
   </si>
   <si>
     <t>Energía</t>
+  </si>
+  <si>
+    <t>Importaciones_carne_acumuladas_en_toneladas</t>
+  </si>
+  <si>
+    <t>Exportaciones_carne_acumulado_enero_en_tonaledas</t>
+  </si>
+  <si>
+    <t>faena_bovino_en_matadero_numero_animales</t>
+  </si>
+  <si>
+    <t>Faena_bovinos_matadero_cantidad_animales_por_año</t>
   </si>
 </sst>
 </file>
@@ -2121,7 +2112,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2377440</xdr:colOff>
+      <xdr:colOff>2320290</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>144781</xdr:rowOff>
     </xdr:to>
@@ -2840,27 +2831,27 @@
   <dimension ref="A11:L138"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <pane ySplit="11" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="28.44140625" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
-    <col min="10" max="10" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2892,13 +2883,13 @@
         <v>9</v>
       </c>
       <c r="K11" t="s">
+        <v>571</v>
+      </c>
+      <c r="L11" t="s">
         <v>575</v>
       </c>
-      <c r="L11" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>5</v>
       </c>
@@ -2928,7 +2919,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>6</v>
       </c>
@@ -2958,7 +2949,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>9</v>
       </c>
@@ -2990,13 +2981,13 @@
         <v>76</v>
       </c>
       <c r="K14" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="L14" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>9</v>
       </c>
@@ -3028,13 +3019,13 @@
         <v>76</v>
       </c>
       <c r="K15" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="L15" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>16</v>
       </c>
@@ -3066,15 +3057,15 @@
         <v>76</v>
       </c>
       <c r="K16" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="L16" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -3104,13 +3095,13 @@
         <v>18</v>
       </c>
       <c r="K17" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="L17" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>188</v>
       </c>
@@ -3142,13 +3133,13 @@
         <v>50</v>
       </c>
       <c r="K18" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L18" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>242</v>
       </c>
@@ -3180,15 +3171,15 @@
         <v>50</v>
       </c>
       <c r="K19" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L19" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B20" t="s">
         <v>155</v>
@@ -3218,15 +3209,15 @@
         <v>160</v>
       </c>
       <c r="K20" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="L20" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B21" t="s">
         <v>273</v>
@@ -3256,13 +3247,13 @@
         <v>160</v>
       </c>
       <c r="K21" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="L21" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>166</v>
       </c>
@@ -3294,7 +3285,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>173</v>
       </c>
@@ -3326,7 +3317,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>178</v>
       </c>
@@ -3358,7 +3349,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>183</v>
       </c>
@@ -3390,9 +3381,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B26" t="s">
         <v>211</v>
@@ -3422,15 +3413,15 @@
         <v>160</v>
       </c>
       <c r="K26" t="s">
+        <v>572</v>
+      </c>
+      <c r="L26" t="s">
         <v>576</v>
       </c>
-      <c r="L26" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B27" t="s">
         <v>216</v>
@@ -3460,15 +3451,15 @@
         <v>160</v>
       </c>
       <c r="K27" t="s">
+        <v>572</v>
+      </c>
+      <c r="L27" t="s">
         <v>576</v>
       </c>
-      <c r="L27" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B28" t="s">
         <v>221</v>
@@ -3498,15 +3489,15 @@
         <v>160</v>
       </c>
       <c r="K28" t="s">
+        <v>572</v>
+      </c>
+      <c r="L28" t="s">
         <v>576</v>
       </c>
-      <c r="L28" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B29" t="s">
         <v>227</v>
@@ -3536,18 +3527,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B30" t="s">
+        <v>358</v>
+      </c>
+      <c r="C30" t="s">
+        <v>359</v>
+      </c>
+      <c r="D30" t="s">
         <v>360</v>
-      </c>
-      <c r="C30" t="s">
-        <v>361</v>
-      </c>
-      <c r="D30" t="s">
-        <v>362</v>
       </c>
       <c r="E30" t="s">
         <v>48</v>
@@ -3568,27 +3559,27 @@
         <v>160</v>
       </c>
       <c r="K30" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="L30" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B31" t="s">
+        <v>371</v>
+      </c>
+      <c r="C31" t="s">
+        <v>378</v>
+      </c>
+      <c r="D31" t="s">
         <v>373</v>
       </c>
-      <c r="C31" t="s">
-        <v>380</v>
-      </c>
-      <c r="D31" t="s">
-        <v>375</v>
-      </c>
       <c r="E31" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F31" t="s">
         <v>14</v>
@@ -3597,24 +3588,24 @@
         <v>295</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J31" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>344</v>
       </c>
       <c r="B32" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C32" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D32" t="s">
         <v>47</v>
@@ -3638,27 +3629,27 @@
         <v>147</v>
       </c>
       <c r="K32" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L32" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B33" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C33" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D33" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E33" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F33" t="s">
         <v>14</v>
@@ -3667,27 +3658,27 @@
         <v>295</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J33" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B34" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C34" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E34" t="s">
         <v>48</v>
@@ -3708,24 +3699,24 @@
         <v>147</v>
       </c>
       <c r="K34" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L34" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B35" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C35" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D35" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E35" t="s">
         <v>48</v>
@@ -3746,15 +3737,15 @@
         <v>147</v>
       </c>
       <c r="K35" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L35" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B36" t="s">
         <v>313</v>
@@ -3784,24 +3775,24 @@
         <v>26</v>
       </c>
       <c r="K36" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L36" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B37" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C37" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D37" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E37" t="s">
         <v>48</v>
@@ -3822,24 +3813,24 @@
         <v>147</v>
       </c>
       <c r="K37" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L37" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B38" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C38" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D38" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E38" t="s">
         <v>48</v>
@@ -3860,21 +3851,21 @@
         <v>147</v>
       </c>
       <c r="K38" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L38" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="B39" t="s">
+        <v>401</v>
+      </c>
+      <c r="C39" t="s">
         <v>403</v>
-      </c>
-      <c r="B39" t="s">
-        <v>405</v>
-      </c>
-      <c r="C39" t="s">
-        <v>407</v>
       </c>
       <c r="D39" t="s">
         <v>47</v>
@@ -3898,21 +3889,21 @@
         <v>147</v>
       </c>
       <c r="K39" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L39" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="B40" t="s">
+        <v>402</v>
+      </c>
+      <c r="C40" t="s">
         <v>404</v>
-      </c>
-      <c r="B40" t="s">
-        <v>406</v>
-      </c>
-      <c r="C40" t="s">
-        <v>408</v>
       </c>
       <c r="D40" t="s">
         <v>53</v>
@@ -3936,21 +3927,21 @@
         <v>147</v>
       </c>
       <c r="K40" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L40" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B41" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C41" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D41" t="s">
         <v>47</v>
@@ -3974,21 +3965,21 @@
         <v>147</v>
       </c>
       <c r="K41" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L41" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B42" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C42" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D42" t="s">
         <v>53</v>
@@ -4012,21 +4003,21 @@
         <v>147</v>
       </c>
       <c r="K42" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L42" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B43" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C43" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E43" t="s">
         <v>48</v>
@@ -4047,21 +4038,21 @@
         <v>42</v>
       </c>
       <c r="K43" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L43" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B44" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C44" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E44" t="s">
         <v>48</v>
@@ -4076,27 +4067,27 @@
         <v>337</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="J44" t="s">
         <v>42</v>
       </c>
       <c r="K44" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L44" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B45" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C45" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E45" t="s">
         <v>48</v>
@@ -4111,33 +4102,33 @@
         <v>337</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="J45" t="s">
         <v>42</v>
       </c>
       <c r="K45" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L45" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B46" t="s">
+        <v>372</v>
+      </c>
+      <c r="C46" t="s">
+        <v>546</v>
+      </c>
+      <c r="D46" t="s">
+        <v>373</v>
+      </c>
+      <c r="E46" t="s">
         <v>374</v>
-      </c>
-      <c r="C46" t="s">
-        <v>550</v>
-      </c>
-      <c r="D46" t="s">
-        <v>375</v>
-      </c>
-      <c r="E46" t="s">
-        <v>376</v>
       </c>
       <c r="F46" t="s">
         <v>14</v>
@@ -4146,24 +4137,24 @@
         <v>295</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J46" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B47" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C47" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E47" t="s">
         <v>48</v>
@@ -4178,27 +4169,27 @@
         <v>337</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="J47" t="s">
         <v>42</v>
       </c>
       <c r="K47" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L47" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B48" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C48" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E48" t="s">
         <v>48</v>
@@ -4213,27 +4204,27 @@
         <v>337</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="J48" t="s">
         <v>42</v>
       </c>
       <c r="K48" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L48" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B49" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C49" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E49" t="s">
         <v>48</v>
@@ -4248,27 +4239,27 @@
         <v>337</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="J49" t="s">
         <v>42</v>
       </c>
       <c r="K49" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L49" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B50" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C50" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E50" t="s">
         <v>48</v>
@@ -4283,27 +4274,27 @@
         <v>337</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="J50" t="s">
         <v>42</v>
       </c>
       <c r="K50" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L50" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B51" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C51" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E51" t="s">
         <v>48</v>
@@ -4318,27 +4309,27 @@
         <v>337</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="J51" t="s">
         <v>42</v>
       </c>
       <c r="K51" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L51" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B52" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C52" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E52" t="s">
         <v>48</v>
@@ -4353,27 +4344,27 @@
         <v>337</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="J52" t="s">
         <v>42</v>
       </c>
       <c r="K52" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L52" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B53" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C53" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D53" t="s">
         <v>47</v>
@@ -4397,21 +4388,21 @@
         <v>147</v>
       </c>
       <c r="K53" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L53" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B54" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C54" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E54" t="s">
         <v>48</v>
@@ -4426,27 +4417,27 @@
         <v>337</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="J54" t="s">
         <v>42</v>
       </c>
       <c r="K54" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L54" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="B55" t="s">
+        <v>412</v>
+      </c>
+      <c r="C55" t="s">
         <v>415</v>
-      </c>
-      <c r="B55" t="s">
-        <v>416</v>
-      </c>
-      <c r="C55" t="s">
-        <v>419</v>
       </c>
       <c r="D55" t="s">
         <v>53</v>
@@ -4470,21 +4461,21 @@
         <v>147</v>
       </c>
       <c r="K55" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L55" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B56" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C56" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D56" t="s">
         <v>47</v>
@@ -4508,21 +4499,21 @@
         <v>147</v>
       </c>
       <c r="K56" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L56" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B57" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C57" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D57" t="s">
         <v>60</v>
@@ -4546,13 +4537,13 @@
         <v>147</v>
       </c>
       <c r="K57" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L57" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>334</v>
       </c>
@@ -4584,21 +4575,21 @@
         <v>147</v>
       </c>
       <c r="K58" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L58" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="B59" t="s">
+        <v>426</v>
+      </c>
+      <c r="C59" t="s">
         <v>427</v>
-      </c>
-      <c r="B59" t="s">
-        <v>430</v>
-      </c>
-      <c r="C59" t="s">
-        <v>431</v>
       </c>
       <c r="D59" t="s">
         <v>47</v>
@@ -4622,21 +4613,21 @@
         <v>147</v>
       </c>
       <c r="K59" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L59" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="B60" t="s">
+        <v>425</v>
+      </c>
+      <c r="C60" t="s">
         <v>428</v>
-      </c>
-      <c r="B60" t="s">
-        <v>429</v>
-      </c>
-      <c r="C60" t="s">
-        <v>432</v>
       </c>
       <c r="D60" t="s">
         <v>60</v>
@@ -4660,21 +4651,21 @@
         <v>147</v>
       </c>
       <c r="K60" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L60" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B61" t="s">
+        <v>430</v>
+      </c>
+      <c r="C61" t="s">
         <v>434</v>
-      </c>
-      <c r="C61" t="s">
-        <v>438</v>
       </c>
       <c r="D61" t="s">
         <v>47</v>
@@ -4698,21 +4689,21 @@
         <v>147</v>
       </c>
       <c r="K61" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L61" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B62" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C62" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D62" t="s">
         <v>60</v>
@@ -4736,21 +4727,21 @@
         <v>147</v>
       </c>
       <c r="K62" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L62" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B63" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C63" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D63" t="s">
         <v>47</v>
@@ -4774,21 +4765,21 @@
         <v>147</v>
       </c>
       <c r="K63" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L63" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>339</v>
       </c>
       <c r="B64" t="s">
+        <v>592</v>
+      </c>
+      <c r="C64" t="s">
         <v>345</v>
-      </c>
-      <c r="C64" t="s">
-        <v>346</v>
       </c>
       <c r="D64" t="s">
         <v>47</v>
@@ -4812,21 +4803,21 @@
         <v>147</v>
       </c>
       <c r="K64" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L64" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>340</v>
       </c>
       <c r="B65" t="s">
-        <v>347</v>
+        <v>593</v>
       </c>
       <c r="C65" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D65" t="s">
         <v>47</v>
@@ -4850,21 +4841,21 @@
         <v>147</v>
       </c>
       <c r="K65" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L65" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>341</v>
       </c>
       <c r="B66" t="s">
-        <v>386</v>
+        <v>594</v>
       </c>
       <c r="C66" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D66" t="s">
         <v>21</v>
@@ -4888,21 +4879,21 @@
         <v>147</v>
       </c>
       <c r="K66" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L66" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>342</v>
       </c>
       <c r="B67" t="s">
-        <v>387</v>
+        <v>595</v>
       </c>
       <c r="C67" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D67" t="s">
         <v>21</v>
@@ -4926,21 +4917,21 @@
         <v>147</v>
       </c>
       <c r="K67" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L67" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>343</v>
       </c>
       <c r="B68" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C68" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D68" t="s">
         <v>47</v>
@@ -4964,21 +4955,21 @@
         <v>147</v>
       </c>
       <c r="K68" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L68" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B69" t="s">
         <v>319</v>
       </c>
       <c r="C69" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D69" t="s">
         <v>245</v>
@@ -5002,21 +4993,21 @@
         <v>160</v>
       </c>
       <c r="K69" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L69" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B70" t="s">
         <v>323</v>
       </c>
       <c r="C70" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D70" t="s">
         <v>324</v>
@@ -5040,21 +5031,21 @@
         <v>160</v>
       </c>
       <c r="K70" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L70" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B71" t="s">
         <v>326</v>
       </c>
       <c r="C71" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D71" t="s">
         <v>21</v>
@@ -5078,24 +5069,24 @@
         <v>160</v>
       </c>
       <c r="K71" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L71" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B72" t="s">
+        <v>379</v>
+      </c>
+      <c r="C72" t="s">
+        <v>380</v>
+      </c>
+      <c r="D72" t="s">
         <v>381</v>
-      </c>
-      <c r="C72" t="s">
-        <v>382</v>
-      </c>
-      <c r="D72" t="s">
-        <v>383</v>
       </c>
       <c r="E72" t="s">
         <v>48</v>
@@ -5107,30 +5098,30 @@
         <v>320</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="J72" t="s">
         <v>160</v>
       </c>
       <c r="K72" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L72" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B73" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C73" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D73" t="s">
         <v>47</v>
@@ -5142,31 +5133,31 @@
         <v>14</v>
       </c>
       <c r="G73" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="I73" s="1"/>
       <c r="J73" t="s">
         <v>147</v>
       </c>
       <c r="K73" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L73" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B74" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C74" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D74" t="s">
         <v>47</v>
@@ -5178,25 +5169,25 @@
         <v>14</v>
       </c>
       <c r="G74" t="s">
+        <v>355</v>
+      </c>
+      <c r="H74" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="I74" s="1"/>
       <c r="J74" t="s">
         <v>147</v>
       </c>
       <c r="K74" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L74" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B75" t="s">
         <v>19</v>
@@ -5226,13 +5217,13 @@
         <v>26</v>
       </c>
       <c r="K75" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="L75" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>269</v>
       </c>
@@ -5264,13 +5255,13 @@
         <v>26</v>
       </c>
       <c r="K76" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="L76" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>278</v>
       </c>
@@ -5302,13 +5293,13 @@
         <v>26</v>
       </c>
       <c r="K77" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="L77" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>282</v>
       </c>
@@ -5340,15 +5331,15 @@
         <v>26</v>
       </c>
       <c r="K78" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="L78" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B79" t="s">
         <v>27</v>
@@ -5378,15 +5369,15 @@
         <v>26</v>
       </c>
       <c r="K79" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="L79" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B80" t="s">
         <v>33</v>
@@ -5416,15 +5407,15 @@
         <v>26</v>
       </c>
       <c r="K80" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="L80" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B81" t="s">
         <v>201</v>
@@ -5454,15 +5445,15 @@
         <v>26</v>
       </c>
       <c r="K81" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="L81" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B82" t="s">
         <v>224</v>
@@ -5492,15 +5483,15 @@
         <v>26</v>
       </c>
       <c r="K82" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="L82" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B83" t="s">
         <v>233</v>
@@ -5530,15 +5521,15 @@
         <v>26</v>
       </c>
       <c r="K83" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="L83" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B84" t="s">
         <v>236</v>
@@ -5568,15 +5559,15 @@
         <v>26</v>
       </c>
       <c r="K84" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="L84" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B85" t="s">
         <v>239</v>
@@ -5606,15 +5597,15 @@
         <v>26</v>
       </c>
       <c r="K85" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="L85" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B86" t="s">
         <v>249</v>
@@ -5644,15 +5635,15 @@
         <v>26</v>
       </c>
       <c r="K86" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="L86" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B87" t="s">
         <v>36</v>
@@ -5682,15 +5673,15 @@
         <v>42</v>
       </c>
       <c r="K87" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="L87" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B88" t="s">
         <v>43</v>
@@ -5720,15 +5711,15 @@
         <v>42</v>
       </c>
       <c r="K88" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="L88" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B89" t="s">
         <v>161</v>
@@ -5758,15 +5749,15 @@
         <v>42</v>
       </c>
       <c r="K89" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="L89" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B90" t="s">
         <v>45</v>
@@ -5792,21 +5783,21 @@
         <v>50</v>
       </c>
       <c r="K90" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L90" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B91" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C91" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E91" t="s">
         <v>48</v>
@@ -5821,27 +5812,27 @@
         <v>300</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="J91" t="s">
         <v>42</v>
       </c>
       <c r="K91" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L91" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B92" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C92" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E92" t="s">
         <v>48</v>
@@ -5856,19 +5847,19 @@
         <v>300</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="J92" t="s">
         <v>42</v>
       </c>
       <c r="K92" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L92" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
         <v>292</v>
       </c>
@@ -5900,15 +5891,15 @@
         <v>50</v>
       </c>
       <c r="K93" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L93" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B94" t="s">
         <v>302</v>
@@ -5938,15 +5929,15 @@
         <v>50</v>
       </c>
       <c r="K94" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L94" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B95" t="s">
         <v>51</v>
@@ -5972,15 +5963,15 @@
         <v>50</v>
       </c>
       <c r="K95" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L95" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B96" t="s">
         <v>55</v>
@@ -6006,15 +5997,15 @@
         <v>50</v>
       </c>
       <c r="K96" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L96" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B97" t="s">
         <v>58</v>
@@ -6040,15 +6031,15 @@
         <v>50</v>
       </c>
       <c r="K97" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L97" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B98" t="s">
         <v>62</v>
@@ -6074,15 +6065,15 @@
         <v>50</v>
       </c>
       <c r="K98" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L98" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B99" t="s">
         <v>67</v>
@@ -6108,15 +6099,15 @@
         <v>50</v>
       </c>
       <c r="K99" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L99" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B100" t="s">
         <v>298</v>
@@ -6146,15 +6137,15 @@
         <v>50</v>
       </c>
       <c r="K100" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L100" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B101" t="s">
         <v>309</v>
@@ -6184,50 +6175,50 @@
         <v>26</v>
       </c>
       <c r="K101" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L101" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="B102" t="s">
+        <v>477</v>
+      </c>
+      <c r="C102" t="s">
+        <v>478</v>
+      </c>
+      <c r="E102" t="s">
+        <v>48</v>
+      </c>
+      <c r="F102" t="s">
+        <v>14</v>
+      </c>
+      <c r="G102" t="s">
+        <v>479</v>
+      </c>
+      <c r="H102" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B102" t="s">
+      <c r="I102" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="C102" t="s">
-        <v>482</v>
-      </c>
-      <c r="E102" t="s">
-        <v>48</v>
-      </c>
-      <c r="F102" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" t="s">
-        <v>483</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>485</v>
       </c>
       <c r="J102" t="s">
         <v>42</v>
       </c>
       <c r="K102" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L102" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B103" t="s">
         <v>81</v>
@@ -6255,9 +6246,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B104" t="s">
         <v>84</v>
@@ -6285,9 +6276,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B105" t="s">
         <v>87</v>
@@ -6315,9 +6306,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B106" t="s">
         <v>90</v>
@@ -6345,9 +6336,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B107" t="s">
         <v>93</v>
@@ -6375,9 +6366,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B108" t="s">
         <v>96</v>
@@ -6405,9 +6396,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B109" t="s">
         <v>98</v>
@@ -6435,9 +6426,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B110" t="s">
         <v>100</v>
@@ -6465,9 +6456,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B111" t="s">
         <v>103</v>
@@ -6495,9 +6486,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B112" t="s">
         <v>106</v>
@@ -6525,9 +6516,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B113" t="s">
         <v>109</v>
@@ -6555,9 +6546,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B114" t="s">
         <v>112</v>
@@ -6585,9 +6576,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B115" t="s">
         <v>115</v>
@@ -6615,9 +6606,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B116" t="s">
         <v>118</v>
@@ -6645,9 +6636,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B117" t="s">
         <v>121</v>
@@ -6675,9 +6666,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B118" t="s">
         <v>124</v>
@@ -6705,9 +6696,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B119" t="s">
         <v>127</v>
@@ -6735,9 +6726,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B120" t="s">
         <v>130</v>
@@ -6765,9 +6756,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B121" t="s">
         <v>133</v>
@@ -6795,9 +6786,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B122" t="s">
         <v>136</v>
@@ -6825,9 +6816,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B123" t="s">
         <v>139</v>
@@ -6855,9 +6846,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B124" t="s">
         <v>141</v>
@@ -6887,13 +6878,13 @@
         <v>147</v>
       </c>
       <c r="K124" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="L124" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
         <v>195</v>
       </c>
@@ -6925,13 +6916,13 @@
         <v>147</v>
       </c>
       <c r="K125" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="L125" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
         <v>205</v>
       </c>
@@ -6963,13 +6954,13 @@
         <v>147</v>
       </c>
       <c r="K126" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="L126" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
         <v>252</v>
       </c>
@@ -7001,13 +6992,13 @@
         <v>147</v>
       </c>
       <c r="K127" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="L127" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
         <v>256</v>
       </c>
@@ -7039,13 +7030,13 @@
         <v>147</v>
       </c>
       <c r="K128" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="L128" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
         <v>259</v>
       </c>
@@ -7077,13 +7068,13 @@
         <v>147</v>
       </c>
       <c r="K129" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="L129" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
         <v>262</v>
       </c>
@@ -7115,13 +7106,13 @@
         <v>147</v>
       </c>
       <c r="K130" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="L130" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
         <v>265</v>
       </c>
@@ -7153,13 +7144,13 @@
         <v>147</v>
       </c>
       <c r="K131" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="L131" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
         <v>328</v>
       </c>
@@ -7167,7 +7158,7 @@
         <v>329</v>
       </c>
       <c r="C132" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D132" t="s">
         <v>21</v>
@@ -7191,21 +7182,21 @@
         <v>333</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B133" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C133" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D133" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E133" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F133" t="s">
         <v>14</v>
@@ -7214,36 +7205,36 @@
         <v>295</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="J133" t="s">
         <v>76</v>
       </c>
       <c r="K133" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L133" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B134" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C134" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D134" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E134" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F134" t="s">
         <v>14</v>
@@ -7252,36 +7243,36 @@
         <v>295</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="J134" t="s">
         <v>76</v>
       </c>
       <c r="K134" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L134" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B135" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C135" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D135" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E135" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F135" t="s">
         <v>14</v>
@@ -7290,36 +7281,36 @@
         <v>295</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="J135" t="s">
         <v>76</v>
       </c>
       <c r="K135" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L135" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B136" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C136" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D136" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E136" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F136" t="s">
         <v>14</v>
@@ -7328,36 +7319,36 @@
         <v>295</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="J136" t="s">
         <v>76</v>
       </c>
       <c r="K136" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L136" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B137" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C137" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D137" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E137" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F137" t="s">
         <v>14</v>
@@ -7366,36 +7357,36 @@
         <v>295</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="J137" t="s">
         <v>76</v>
       </c>
       <c r="K137" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L137" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B138" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C138" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D138" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E138" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F138" t="s">
         <v>14</v>
@@ -7404,19 +7395,19 @@
         <v>295</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="J138" t="s">
         <v>76</v>
       </c>
       <c r="K138" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="L138" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>

--- a/00Consolidado Tablas Madre.xlsx
+++ b/00Consolidado Tablas Madre.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCN\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E7A947-FA50-4292-831B-123BD02BDC37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5ECF33E-4B14-4BFA-ACBF-4DD6AB0693D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidado" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="SegmentaciónDeDatos_Sector">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_Unidad_de_Medida">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -41,6 +41,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -225,9 +234,6 @@
     <t>Importaciones_fruta_dolares</t>
   </si>
   <si>
-    <t>Exportaciones en dólares (USD CIF) de especies de frutas desde Chile hacia otros países</t>
-  </si>
-  <si>
     <t>US$ CIF</t>
   </si>
   <si>
@@ -1835,6 +1841,9 @@
   </si>
   <si>
     <t>Faena_bovinos_matadero_cantidad_animales_por_año</t>
+  </si>
+  <si>
+    <t>Importaciones en dólares (USD CIF) de especies de frutas hacia Chile de otros países</t>
   </si>
 </sst>
 </file>
@@ -2498,12 +2507,12 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Código Tabla" xr10:uid="{ACADD536-4F26-4F32-AA2C-B6B02C14A824}" cache="SegmentaciónDeDatos_Código_Tabla" caption="Código Tabla" columnCount="5" style="SlicerStyleDark1" rowHeight="234950"/>
+  <slicer name="Código Tabla" xr10:uid="{ACADD536-4F26-4F32-AA2C-B6B02C14A824}" cache="SegmentaciónDeDatos_Código_Tabla" caption="Código Tabla" startItem="40" columnCount="5" style="SlicerStyleDark1" rowHeight="234950"/>
   <slicer name="Unidad de Medida" xr10:uid="{6574F389-29CB-47FF-B34C-0B381A5AA264}" cache="SegmentaciónDeDatos_Unidad_de_Medida" caption="Unidad de Medida" columnCount="2" style="SlicerStyleDark1" rowHeight="234950"/>
   <slicer name="Nombre Fuente" xr10:uid="{FCDE2E95-E63C-47A4-8F50-C4F8F5EADAEA}" cache="SegmentaciónDeDatos_Nombre_Fuente" caption="Nombre Fuente" columnCount="2" style="SlicerStyleDark1" rowHeight="234950"/>
   <slicer name="Encargado" xr10:uid="{4B8EAA2A-5539-4124-8E5D-AA4E68FD63C8}" cache="SegmentaciónDeDatos_Encargado" caption="Encargado" columnCount="2" style="SlicerStyleDark1" rowHeight="234950"/>
   <slicer name="Industria" xr10:uid="{5E69910F-72C0-4CCC-9A40-0C33D8089AF2}" cache="SegmentaciónDeDatos_Industria" caption="Industria" style="SlicerStyleDark1" rowHeight="234950"/>
-  <slicer name="Sector" xr10:uid="{FFD6B83F-B469-4B90-8DC1-E5E803E2AA9A}" cache="SegmentaciónDeDatos_Sector" caption="Sector" startItem="1" style="SlicerStyleDark1" rowHeight="234950"/>
+  <slicer name="Sector" xr10:uid="{FFD6B83F-B469-4B90-8DC1-E5E803E2AA9A}" cache="SegmentaciónDeDatos_Sector" caption="Sector" style="SlicerStyleDark1" rowHeight="234950"/>
 </slicers>
 </file>
 
@@ -2831,8 +2840,8 @@
   <dimension ref="A11:L138"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
+      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2883,10 +2892,10 @@
         <v>9</v>
       </c>
       <c r="K11" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2894,10 +2903,10 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s">
         <v>71</v>
-      </c>
-      <c r="C12" t="s">
-        <v>72</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s">
@@ -2907,16 +2916,16 @@
         <v>14</v>
       </c>
       <c r="G12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" t="s">
         <v>75</v>
-      </c>
-      <c r="J12" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2924,10 +2933,10 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" t="s">
         <v>77</v>
-      </c>
-      <c r="C13" t="s">
-        <v>78</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s">
@@ -2937,16 +2946,16 @@
         <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="J13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -2954,37 +2963,37 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" t="s">
         <v>148</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
         <v>149</v>
       </c>
-      <c r="D14" t="s">
-        <v>143</v>
-      </c>
-      <c r="E14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="J14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K14" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L14" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -2992,13 +3001,13 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" t="s">
         <v>153</v>
       </c>
-      <c r="C15" t="s">
-        <v>154</v>
-      </c>
       <c r="D15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E15" t="s">
         <v>48</v>
@@ -3007,22 +3016,22 @@
         <v>14</v>
       </c>
       <c r="G15" t="s">
+        <v>149</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="J15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K15" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L15" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -3030,42 +3039,42 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
+        <v>285</v>
+      </c>
+      <c r="C16" t="s">
         <v>286</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>287</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
         <v>288</v>
       </c>
-      <c r="E16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="J16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K16" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L16" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -3095,191 +3104,191 @@
         <v>18</v>
       </c>
       <c r="K17" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L17" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" t="s">
         <v>188</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>189</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>190</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
         <v>191</v>
       </c>
-      <c r="E18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H18" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="J18" t="s">
         <v>50</v>
       </c>
       <c r="K18" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L18" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="B19" t="s">
         <v>242</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>243</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>244</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
         <v>245</v>
       </c>
-      <c r="E19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="H19" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="J19" t="s">
         <v>50</v>
       </c>
       <c r="K19" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L19" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" t="s">
         <v>155</v>
-      </c>
-      <c r="C20" t="s">
-        <v>156</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F20" t="s">
         <v>14</v>
       </c>
       <c r="G20" t="s">
+        <v>156</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" t="s">
         <v>159</v>
       </c>
-      <c r="J20" t="s">
-        <v>160</v>
-      </c>
       <c r="K20" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L20" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B21" t="s">
+        <v>272</v>
+      </c>
+      <c r="C21" t="s">
         <v>273</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
         <v>274</v>
       </c>
-      <c r="D21" t="s">
-        <v>143</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="H21" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="J21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K21" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L21" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C22" t="s">
         <v>167</v>
-      </c>
-      <c r="C22" t="s">
-        <v>168</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
       </c>
       <c r="E22" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
         <v>169</v>
       </c>
-      <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="H22" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="I22" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="J22" t="s">
         <v>26</v>
@@ -3287,31 +3296,31 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23" t="s">
         <v>173</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>174</v>
-      </c>
-      <c r="C23" t="s">
-        <v>175</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
         <v>169</v>
       </c>
-      <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>170</v>
-      </c>
       <c r="H23" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="J23" t="s">
         <v>26</v>
@@ -3319,31 +3328,31 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24" t="s">
         <v>178</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>179</v>
-      </c>
-      <c r="C24" t="s">
-        <v>180</v>
       </c>
       <c r="D24" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s">
         <v>169</v>
       </c>
-      <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>170</v>
-      </c>
       <c r="H24" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="J24" t="s">
         <v>26</v>
@@ -3351,31 +3360,31 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B25" t="s">
         <v>183</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>184</v>
-      </c>
-      <c r="C25" t="s">
-        <v>185</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
       </c>
       <c r="E25" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s">
         <v>169</v>
       </c>
-      <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>170</v>
-      </c>
       <c r="H25" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="J25" t="s">
         <v>26</v>
@@ -3383,13 +3392,13 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B26" t="s">
+        <v>210</v>
+      </c>
+      <c r="C26" t="s">
         <v>211</v>
-      </c>
-      <c r="C26" t="s">
-        <v>212</v>
       </c>
       <c r="D26" t="s">
         <v>47</v>
@@ -3401,33 +3410,33 @@
         <v>14</v>
       </c>
       <c r="G26" t="s">
+        <v>212</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="J26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K26" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L26" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B27" t="s">
+        <v>215</v>
+      </c>
+      <c r="C27" t="s">
         <v>216</v>
-      </c>
-      <c r="C27" t="s">
-        <v>217</v>
       </c>
       <c r="D27" t="s">
         <v>47</v>
@@ -3439,33 +3448,33 @@
         <v>14</v>
       </c>
       <c r="G27" t="s">
+        <v>217</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="J27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K27" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L27" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B28" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28" t="s">
         <v>221</v>
-      </c>
-      <c r="C28" t="s">
-        <v>222</v>
       </c>
       <c r="D28" t="s">
         <v>47</v>
@@ -3477,51 +3486,51 @@
         <v>14</v>
       </c>
       <c r="G28" t="s">
+        <v>217</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="I28" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K28" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L28" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B29" t="s">
+        <v>226</v>
+      </c>
+      <c r="C29" t="s">
         <v>227</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>228</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s">
         <v>229</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="H29" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="J29" t="s">
         <v>42</v>
@@ -3529,17 +3538,17 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B30" t="s">
+        <v>357</v>
+      </c>
+      <c r="C30" t="s">
         <v>358</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>359</v>
       </c>
-      <c r="D30" t="s">
-        <v>360</v>
-      </c>
       <c r="E30" t="s">
         <v>48</v>
       </c>
@@ -3547,65 +3556,65 @@
         <v>14</v>
       </c>
       <c r="G30" t="s">
+        <v>305</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>308</v>
-      </c>
       <c r="J30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K30" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L30" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D31" t="s">
+        <v>372</v>
+      </c>
+      <c r="E31" t="s">
         <v>373</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s">
+        <v>294</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>295</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>375</v>
-      </c>
       <c r="J31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B32" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C32" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D32" t="s">
         <v>47</v>
@@ -3617,69 +3626,69 @@
         <v>14</v>
       </c>
       <c r="G32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H32" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="J32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K32" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L32" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="B33" t="s">
+        <v>543</v>
+      </c>
+      <c r="C33" t="s">
+        <v>544</v>
+      </c>
+      <c r="D33" t="s">
+        <v>372</v>
+      </c>
+      <c r="E33" t="s">
+        <v>373</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" t="s">
+        <v>294</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B33" t="s">
-        <v>544</v>
-      </c>
-      <c r="C33" t="s">
-        <v>545</v>
-      </c>
-      <c r="D33" t="s">
-        <v>373</v>
-      </c>
-      <c r="E33" t="s">
-        <v>374</v>
-      </c>
-      <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>295</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>370</v>
-      </c>
       <c r="I33" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="B34" t="s">
         <v>386</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>387</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>388</v>
       </c>
-      <c r="D34" t="s">
-        <v>389</v>
-      </c>
       <c r="E34" t="s">
         <v>48</v>
       </c>
@@ -3687,36 +3696,36 @@
         <v>14</v>
       </c>
       <c r="G34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H34" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="J34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K34" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L34" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="B35" t="s">
+        <v>389</v>
+      </c>
+      <c r="C35" t="s">
         <v>391</v>
       </c>
-      <c r="B35" t="s">
-        <v>390</v>
-      </c>
-      <c r="C35" t="s">
-        <v>392</v>
-      </c>
       <c r="D35" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E35" t="s">
         <v>48</v>
@@ -3725,74 +3734,74 @@
         <v>14</v>
       </c>
       <c r="G35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H35" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="J35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K35" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L35" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B36" t="s">
+        <v>312</v>
+      </c>
+      <c r="C36" t="s">
         <v>313</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" t="s">
         <v>314</v>
       </c>
-      <c r="D36" t="s">
-        <v>143</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" t="s">
         <v>315</v>
       </c>
-      <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="H36" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="J36" t="s">
         <v>26</v>
       </c>
       <c r="K36" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L36" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="B37" t="s">
+        <v>392</v>
+      </c>
+      <c r="C37" t="s">
         <v>394</v>
       </c>
-      <c r="B37" t="s">
-        <v>393</v>
-      </c>
-      <c r="C37" t="s">
-        <v>395</v>
-      </c>
       <c r="D37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E37" t="s">
         <v>48</v>
@@ -3801,36 +3810,36 @@
         <v>14</v>
       </c>
       <c r="G37" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H37" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="J37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K37" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L37" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="B38" t="s">
+        <v>395</v>
+      </c>
+      <c r="C38" t="s">
         <v>397</v>
       </c>
-      <c r="B38" t="s">
-        <v>396</v>
-      </c>
-      <c r="C38" t="s">
-        <v>398</v>
-      </c>
       <c r="D38" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E38" t="s">
         <v>48</v>
@@ -3839,33 +3848,33 @@
         <v>14</v>
       </c>
       <c r="G38" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H38" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="J38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K38" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L38" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B39" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C39" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D39" t="s">
         <v>47</v>
@@ -3877,33 +3886,33 @@
         <v>14</v>
       </c>
       <c r="G39" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H39" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="J39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K39" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L39" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B40" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C40" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D40" t="s">
         <v>53</v>
@@ -3915,33 +3924,33 @@
         <v>14</v>
       </c>
       <c r="G40" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H40" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="J40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K40" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L40" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="B41" t="s">
+        <v>404</v>
+      </c>
+      <c r="C41" t="s">
         <v>406</v>
-      </c>
-      <c r="B41" t="s">
-        <v>405</v>
-      </c>
-      <c r="C41" t="s">
-        <v>407</v>
       </c>
       <c r="D41" t="s">
         <v>47</v>
@@ -3953,33 +3962,33 @@
         <v>14</v>
       </c>
       <c r="G41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H41" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="J41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K41" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L41" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="B42" t="s">
+        <v>407</v>
+      </c>
+      <c r="C42" t="s">
         <v>409</v>
-      </c>
-      <c r="B42" t="s">
-        <v>408</v>
-      </c>
-      <c r="C42" t="s">
-        <v>410</v>
       </c>
       <c r="D42" t="s">
         <v>53</v>
@@ -3991,34 +4000,34 @@
         <v>14</v>
       </c>
       <c r="G42" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H42" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="J42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K42" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L42" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="B43" t="s">
         <v>438</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>439</v>
       </c>
-      <c r="C43" t="s">
-        <v>440</v>
-      </c>
       <c r="E43" t="s">
         <v>48</v>
       </c>
@@ -4026,345 +4035,345 @@
         <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J43" t="s">
         <v>42</v>
       </c>
       <c r="K43" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L43" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="B44" t="s">
         <v>441</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>442</v>
       </c>
-      <c r="C44" t="s">
+      <c r="E44" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s">
+        <v>294</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="E44" t="s">
-        <v>48</v>
-      </c>
-      <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>295</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>444</v>
       </c>
       <c r="J44" t="s">
         <v>42</v>
       </c>
       <c r="K44" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L44" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="B45" t="s">
         <v>445</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>446</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E45" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s">
+        <v>294</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="E45" t="s">
-        <v>48</v>
-      </c>
-      <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>295</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>448</v>
       </c>
       <c r="J45" t="s">
         <v>42</v>
       </c>
       <c r="K45" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L45" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B46" t="s">
+        <v>371</v>
+      </c>
+      <c r="C46" t="s">
+        <v>545</v>
+      </c>
+      <c r="D46" t="s">
         <v>372</v>
       </c>
-      <c r="C46" t="s">
-        <v>546</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>373</v>
       </c>
-      <c r="E46" t="s">
-        <v>374</v>
-      </c>
       <c r="F46" t="s">
         <v>14</v>
       </c>
       <c r="G46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="B47" t="s">
         <v>449</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>450</v>
       </c>
-      <c r="C47" t="s">
+      <c r="E47" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s">
+        <v>294</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="E47" t="s">
-        <v>48</v>
-      </c>
-      <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>295</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="J47" t="s">
         <v>42</v>
       </c>
       <c r="K47" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L47" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="B48" t="s">
         <v>453</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>454</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E48" t="s">
+        <v>48</v>
+      </c>
+      <c r="F48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s">
+        <v>294</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="E48" t="s">
-        <v>48</v>
-      </c>
-      <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>295</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="J48" t="s">
         <v>42</v>
       </c>
       <c r="K48" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L48" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="B49" t="s">
         <v>457</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>458</v>
       </c>
-      <c r="C49" t="s">
+      <c r="E49" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" t="s">
+        <v>294</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="E49" t="s">
-        <v>48</v>
-      </c>
-      <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>295</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>460</v>
       </c>
       <c r="J49" t="s">
         <v>42</v>
       </c>
       <c r="K49" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L49" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="B50" t="s">
         <v>461</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>462</v>
       </c>
-      <c r="C50" t="s">
+      <c r="E50" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" t="s">
+        <v>294</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="E50" t="s">
-        <v>48</v>
-      </c>
-      <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>295</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="J50" t="s">
         <v>42</v>
       </c>
       <c r="K50" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L50" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="B51" t="s">
         <v>465</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>466</v>
       </c>
-      <c r="C51" t="s">
+      <c r="E51" t="s">
+        <v>48</v>
+      </c>
+      <c r="F51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" t="s">
+        <v>294</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="E51" t="s">
-        <v>48</v>
-      </c>
-      <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>295</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>468</v>
       </c>
       <c r="J51" t="s">
         <v>42</v>
       </c>
       <c r="K51" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L51" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="B52" t="s">
         <v>469</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>470</v>
       </c>
-      <c r="C52" t="s">
+      <c r="E52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" t="s">
+        <v>294</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I52" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="E52" t="s">
-        <v>48</v>
-      </c>
-      <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>295</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>472</v>
       </c>
       <c r="J52" t="s">
         <v>42</v>
       </c>
       <c r="K52" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L52" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="B53" t="s">
         <v>413</v>
       </c>
-      <c r="B53" t="s">
-        <v>414</v>
-      </c>
       <c r="C53" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D53" t="s">
         <v>47</v>
@@ -4376,68 +4385,68 @@
         <v>14</v>
       </c>
       <c r="G53" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H53" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I53" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="J53" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K53" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L53" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B54" t="s">
+        <v>472</v>
+      </c>
+      <c r="C54" t="s">
         <v>473</v>
       </c>
-      <c r="C54" t="s">
+      <c r="E54" t="s">
+        <v>48</v>
+      </c>
+      <c r="F54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" t="s">
+        <v>294</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>474</v>
-      </c>
-      <c r="E54" t="s">
-        <v>48</v>
-      </c>
-      <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
-        <v>295</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>475</v>
       </c>
       <c r="J54" t="s">
         <v>42</v>
       </c>
       <c r="K54" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L54" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="B55" t="s">
         <v>411</v>
       </c>
-      <c r="B55" t="s">
-        <v>412</v>
-      </c>
       <c r="C55" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D55" t="s">
         <v>53</v>
@@ -4449,33 +4458,33 @@
         <v>14</v>
       </c>
       <c r="G55" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H55" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I55" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="J55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K55" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L55" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="B56" t="s">
         <v>417</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>418</v>
-      </c>
-      <c r="C56" t="s">
-        <v>419</v>
       </c>
       <c r="D56" t="s">
         <v>47</v>
@@ -4487,36 +4496,36 @@
         <v>14</v>
       </c>
       <c r="G56" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H56" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I56" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I56" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="J56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K56" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L56" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="B57" t="s">
         <v>420</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>421</v>
       </c>
-      <c r="C57" t="s">
-        <v>422</v>
-      </c>
       <c r="D57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E57" t="s">
         <v>48</v>
@@ -4525,33 +4534,33 @@
         <v>14</v>
       </c>
       <c r="G57" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H57" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I57" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I57" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="J57" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K57" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L57" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="B58" t="s">
         <v>334</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>335</v>
-      </c>
-      <c r="C58" t="s">
-        <v>336</v>
       </c>
       <c r="D58" t="s">
         <v>47</v>
@@ -4563,33 +4572,33 @@
         <v>14</v>
       </c>
       <c r="G58" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H58" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I58" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I58" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="J58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K58" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L58" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B59" t="s">
+        <v>425</v>
+      </c>
+      <c r="C59" t="s">
         <v>426</v>
-      </c>
-      <c r="C59" t="s">
-        <v>427</v>
       </c>
       <c r="D59" t="s">
         <v>47</v>
@@ -4601,36 +4610,36 @@
         <v>14</v>
       </c>
       <c r="G59" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H59" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I59" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I59" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="J59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K59" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L59" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="B60" t="s">
         <v>424</v>
       </c>
-      <c r="B60" t="s">
-        <v>425</v>
-      </c>
       <c r="C60" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E60" t="s">
         <v>48</v>
@@ -4639,33 +4648,33 @@
         <v>14</v>
       </c>
       <c r="G60" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H60" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I60" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="J60" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K60" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L60" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="B61" t="s">
         <v>429</v>
       </c>
-      <c r="B61" t="s">
-        <v>430</v>
-      </c>
       <c r="C61" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D61" t="s">
         <v>47</v>
@@ -4677,36 +4686,36 @@
         <v>14</v>
       </c>
       <c r="G61" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H61" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I61" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I61" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="J61" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K61" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L61" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="B62" t="s">
+        <v>430</v>
+      </c>
+      <c r="C62" t="s">
         <v>432</v>
       </c>
-      <c r="B62" t="s">
-        <v>431</v>
-      </c>
-      <c r="C62" t="s">
-        <v>433</v>
-      </c>
       <c r="D62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E62" t="s">
         <v>48</v>
@@ -4715,33 +4724,33 @@
         <v>14</v>
       </c>
       <c r="G62" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H62" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I62" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I62" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="J62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K62" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L62" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="B63" t="s">
+        <v>434</v>
+      </c>
+      <c r="C63" t="s">
         <v>436</v>
-      </c>
-      <c r="B63" t="s">
-        <v>435</v>
-      </c>
-      <c r="C63" t="s">
-        <v>437</v>
       </c>
       <c r="D63" t="s">
         <v>47</v>
@@ -4753,33 +4762,33 @@
         <v>14</v>
       </c>
       <c r="G63" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H63" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I63" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I63" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="J63" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K63" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L63" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B64" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C64" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D64" t="s">
         <v>47</v>
@@ -4791,33 +4800,33 @@
         <v>14</v>
       </c>
       <c r="G64" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H64" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I64" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I64" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="J64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K64" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L64" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B65" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C65" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D65" t="s">
         <v>47</v>
@@ -4829,33 +4838,33 @@
         <v>14</v>
       </c>
       <c r="G65" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H65" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I65" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I65" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="J65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K65" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L65" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B66" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C66" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D66" t="s">
         <v>21</v>
@@ -4867,33 +4876,33 @@
         <v>14</v>
       </c>
       <c r="G66" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H66" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I66" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I66" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="J66" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K66" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L66" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B67" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C67" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D67" t="s">
         <v>21</v>
@@ -4905,33 +4914,33 @@
         <v>14</v>
       </c>
       <c r="G67" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H67" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I67" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I67" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="J67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K67" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L67" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B68" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D68" t="s">
         <v>47</v>
@@ -4943,109 +4952,109 @@
         <v>14</v>
       </c>
       <c r="G68" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H68" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I68" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I68" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="J68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K68" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L68" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B69" t="s">
+        <v>318</v>
+      </c>
+      <c r="C69" t="s">
+        <v>360</v>
+      </c>
+      <c r="D69" t="s">
+        <v>244</v>
+      </c>
+      <c r="E69" t="s">
+        <v>48</v>
+      </c>
+      <c r="F69" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" t="s">
         <v>319</v>
       </c>
-      <c r="C69" t="s">
-        <v>361</v>
-      </c>
-      <c r="D69" t="s">
-        <v>245</v>
-      </c>
-      <c r="E69" t="s">
-        <v>48</v>
-      </c>
-      <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s">
+      <c r="H69" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="H69" s="1" t="s">
+      <c r="I69" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="I69" s="1" t="s">
-        <v>322</v>
-      </c>
       <c r="J69" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K69" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L69" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B70" t="s">
+        <v>322</v>
+      </c>
+      <c r="C70" t="s">
+        <v>361</v>
+      </c>
+      <c r="D70" t="s">
         <v>323</v>
       </c>
-      <c r="C70" t="s">
-        <v>362</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
+        <v>48</v>
+      </c>
+      <c r="F70" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" t="s">
+        <v>319</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I70" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E70" t="s">
-        <v>48</v>
-      </c>
-      <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s">
-        <v>320</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="J70" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K70" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L70" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B71" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C71" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D71" t="s">
         <v>21</v>
@@ -5057,71 +5066,71 @@
         <v>14</v>
       </c>
       <c r="G71" t="s">
+        <v>319</v>
+      </c>
+      <c r="H71" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="H71" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="I71" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J71" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K71" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L71" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B72" t="s">
+        <v>378</v>
+      </c>
+      <c r="C72" t="s">
         <v>379</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>380</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
+        <v>48</v>
+      </c>
+      <c r="F72" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" t="s">
+        <v>319</v>
+      </c>
+      <c r="H72" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="E72" t="s">
-        <v>48</v>
-      </c>
-      <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s">
-        <v>320</v>
-      </c>
-      <c r="H72" s="1" t="s">
+      <c r="I72" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="I72" s="1" t="s">
-        <v>383</v>
-      </c>
       <c r="J72" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K72" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L72" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B73" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C73" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D73" t="s">
         <v>47</v>
@@ -5133,31 +5142,31 @@
         <v>14</v>
       </c>
       <c r="G73" t="s">
+        <v>354</v>
+      </c>
+      <c r="H73" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="I73" s="1"/>
       <c r="J73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K73" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L73" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="B74" t="s">
         <v>352</v>
       </c>
-      <c r="B74" t="s">
-        <v>353</v>
-      </c>
       <c r="C74" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D74" t="s">
         <v>47</v>
@@ -5169,25 +5178,25 @@
         <v>14</v>
       </c>
       <c r="G74" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I74" s="1"/>
       <c r="J74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K74" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L74" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B75" t="s">
         <v>19</v>
@@ -5217,21 +5226,21 @@
         <v>26</v>
       </c>
       <c r="K75" t="s">
+        <v>580</v>
+      </c>
+      <c r="L75" t="s">
         <v>581</v>
-      </c>
-      <c r="L75" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="B76" t="s">
         <v>269</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>270</v>
-      </c>
-      <c r="C76" t="s">
-        <v>271</v>
       </c>
       <c r="D76" t="s">
         <v>21</v>
@@ -5246,30 +5255,30 @@
         <v>23</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J76" t="s">
         <v>26</v>
       </c>
       <c r="K76" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L76" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="B77" t="s">
         <v>278</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>279</v>
-      </c>
-      <c r="C77" t="s">
-        <v>280</v>
       </c>
       <c r="D77" t="s">
         <v>21</v>
@@ -5284,30 +5293,30 @@
         <v>23</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J77" t="s">
         <v>26</v>
       </c>
       <c r="K77" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L77" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="B78" t="s">
         <v>282</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>283</v>
-      </c>
-      <c r="C78" t="s">
-        <v>284</v>
       </c>
       <c r="D78" t="s">
         <v>21</v>
@@ -5322,24 +5331,24 @@
         <v>23</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J78" t="s">
         <v>26</v>
       </c>
       <c r="K78" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L78" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B79" t="s">
         <v>27</v>
@@ -5369,15 +5378,15 @@
         <v>26</v>
       </c>
       <c r="K79" t="s">
+        <v>580</v>
+      </c>
+      <c r="L79" t="s">
         <v>581</v>
-      </c>
-      <c r="L79" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B80" t="s">
         <v>33</v>
@@ -5407,21 +5416,21 @@
         <v>26</v>
       </c>
       <c r="K80" t="s">
+        <v>580</v>
+      </c>
+      <c r="L80" t="s">
         <v>581</v>
-      </c>
-      <c r="L80" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B81" t="s">
+        <v>200</v>
+      </c>
+      <c r="C81" t="s">
         <v>201</v>
-      </c>
-      <c r="C81" t="s">
-        <v>202</v>
       </c>
       <c r="D81" t="s">
         <v>21</v>
@@ -5436,30 +5445,30 @@
         <v>23</v>
       </c>
       <c r="H81" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I81" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="J81" t="s">
         <v>26</v>
       </c>
       <c r="K81" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L81" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B82" t="s">
+        <v>223</v>
+      </c>
+      <c r="C82" t="s">
         <v>224</v>
-      </c>
-      <c r="C82" t="s">
-        <v>225</v>
       </c>
       <c r="D82" t="s">
         <v>21</v>
@@ -5474,30 +5483,30 @@
         <v>23</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J82" t="s">
         <v>26</v>
       </c>
       <c r="K82" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L82" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B83" t="s">
+        <v>232</v>
+      </c>
+      <c r="C83" t="s">
         <v>233</v>
-      </c>
-      <c r="C83" t="s">
-        <v>234</v>
       </c>
       <c r="D83" t="s">
         <v>21</v>
@@ -5512,30 +5521,30 @@
         <v>23</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J83" t="s">
         <v>26</v>
       </c>
       <c r="K83" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L83" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B84" t="s">
+        <v>235</v>
+      </c>
+      <c r="C84" t="s">
         <v>236</v>
-      </c>
-      <c r="C84" t="s">
-        <v>237</v>
       </c>
       <c r="D84" t="s">
         <v>21</v>
@@ -5550,30 +5559,30 @@
         <v>23</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J84" t="s">
         <v>26</v>
       </c>
       <c r="K84" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L84" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B85" t="s">
+        <v>238</v>
+      </c>
+      <c r="C85" t="s">
         <v>239</v>
-      </c>
-      <c r="C85" t="s">
-        <v>240</v>
       </c>
       <c r="D85" t="s">
         <v>21</v>
@@ -5588,30 +5597,30 @@
         <v>23</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J85" t="s">
         <v>26</v>
       </c>
       <c r="K85" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L85" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B86" t="s">
+        <v>248</v>
+      </c>
+      <c r="C86" t="s">
         <v>249</v>
-      </c>
-      <c r="C86" t="s">
-        <v>250</v>
       </c>
       <c r="D86" t="s">
         <v>21</v>
@@ -5626,24 +5635,24 @@
         <v>23</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J86" t="s">
         <v>26</v>
       </c>
       <c r="K86" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L86" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B87" t="s">
         <v>36</v>
@@ -5673,15 +5682,15 @@
         <v>42</v>
       </c>
       <c r="K87" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L87" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B88" t="s">
         <v>43</v>
@@ -5711,21 +5720,21 @@
         <v>42</v>
       </c>
       <c r="K88" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L88" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B89" t="s">
+        <v>160</v>
+      </c>
+      <c r="C89" t="s">
         <v>161</v>
-      </c>
-      <c r="C89" t="s">
-        <v>162</v>
       </c>
       <c r="D89" t="s">
         <v>21</v>
@@ -5737,27 +5746,27 @@
         <v>14</v>
       </c>
       <c r="G89" t="s">
+        <v>162</v>
+      </c>
+      <c r="H89" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H89" s="1" t="s">
+      <c r="I89" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="J89" t="s">
         <v>42</v>
       </c>
       <c r="K89" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L89" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B90" t="s">
         <v>45</v>
@@ -5783,161 +5792,161 @@
         <v>50</v>
       </c>
       <c r="K90" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L90" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="B91" t="s">
         <v>482</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>483</v>
       </c>
-      <c r="C91" t="s">
+      <c r="E91" t="s">
+        <v>48</v>
+      </c>
+      <c r="F91" t="s">
+        <v>14</v>
+      </c>
+      <c r="G91" t="s">
+        <v>294</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I91" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="E91" t="s">
-        <v>48</v>
-      </c>
-      <c r="F91" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" t="s">
-        <v>295</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>485</v>
       </c>
       <c r="J91" t="s">
         <v>42</v>
       </c>
       <c r="K91" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L91" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="B92" t="s">
         <v>486</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>487</v>
       </c>
-      <c r="C92" t="s">
+      <c r="E92" t="s">
+        <v>48</v>
+      </c>
+      <c r="F92" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" t="s">
+        <v>294</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I92" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="E92" t="s">
-        <v>48</v>
-      </c>
-      <c r="F92" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" t="s">
-        <v>295</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>489</v>
       </c>
       <c r="J92" t="s">
         <v>42</v>
       </c>
       <c r="K92" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L92" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="B93" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="C93" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="D93" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G93" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="D93" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="E93" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" s="7" t="s">
+      <c r="H93" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="H93" s="8" t="s">
+      <c r="I93" s="8" t="s">
         <v>296</v>
-      </c>
-      <c r="I93" s="8" t="s">
-        <v>297</v>
       </c>
       <c r="J93" s="7" t="s">
         <v>50</v>
       </c>
       <c r="K93" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L93" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B94" t="s">
+        <v>301</v>
+      </c>
+      <c r="C94" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="D94" t="s">
+        <v>142</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F94" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H94" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D94" t="s">
-        <v>143</v>
-      </c>
-      <c r="E94" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="H94" s="1" t="s">
+      <c r="I94" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="J94" t="s">
         <v>50</v>
       </c>
       <c r="K94" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L94" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B95" t="s">
         <v>51</v>
@@ -5963,15 +5972,15 @@
         <v>50</v>
       </c>
       <c r="K95" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L95" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B96" t="s">
         <v>55</v>
@@ -5997,24 +6006,24 @@
         <v>50</v>
       </c>
       <c r="K96" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L96" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B97" t="s">
         <v>58</v>
       </c>
       <c r="C97" t="s">
+        <v>595</v>
+      </c>
+      <c r="D97" t="s">
         <v>59</v>
-      </c>
-      <c r="D97" t="s">
-        <v>60</v>
       </c>
       <c r="E97" t="s">
         <v>48</v>
@@ -6025,33 +6034,33 @@
       <c r="G97" s="2"/>
       <c r="H97" s="3"/>
       <c r="I97" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J97" t="s">
         <v>50</v>
       </c>
       <c r="K97" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L97" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B98" t="s">
+        <v>61</v>
+      </c>
+      <c r="C98" t="s">
         <v>62</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>63</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="F98" t="s">
         <v>14</v>
@@ -6059,30 +6068,30 @@
       <c r="G98" s="2"/>
       <c r="H98" s="3"/>
       <c r="I98" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J98" t="s">
         <v>50</v>
       </c>
       <c r="K98" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L98" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B99" t="s">
+        <v>66</v>
+      </c>
+      <c r="C99" t="s">
         <v>67</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>68</v>
-      </c>
-      <c r="D99" t="s">
-        <v>69</v>
       </c>
       <c r="E99" t="s">
         <v>48</v>
@@ -6093,65 +6102,65 @@
       <c r="G99" s="2"/>
       <c r="H99" s="3"/>
       <c r="I99" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J99" t="s">
         <v>50</v>
       </c>
       <c r="K99" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L99" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B100" t="s">
+        <v>297</v>
+      </c>
+      <c r="C100" t="s">
         <v>298</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E100" t="s">
+        <v>48</v>
+      </c>
+      <c r="F100" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H100" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="D100" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="E100" t="s">
-        <v>48</v>
-      </c>
-      <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="H100" s="5" t="s">
+      <c r="I100" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="J100" t="s">
         <v>50</v>
       </c>
       <c r="K100" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L100" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B101" t="s">
+        <v>308</v>
+      </c>
+      <c r="C101" t="s">
         <v>309</v>
-      </c>
-      <c r="C101" t="s">
-        <v>310</v>
       </c>
       <c r="D101" t="s">
         <v>21</v>
@@ -6163,68 +6172,68 @@
         <v>14</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H101" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I101" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="J101" t="s">
         <v>26</v>
       </c>
       <c r="K101" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L101" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="B102" t="s">
         <v>476</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>477</v>
       </c>
-      <c r="C102" t="s">
+      <c r="E102" t="s">
+        <v>48</v>
+      </c>
+      <c r="F102" t="s">
+        <v>14</v>
+      </c>
+      <c r="G102" t="s">
         <v>478</v>
       </c>
-      <c r="E102" t="s">
-        <v>48</v>
-      </c>
-      <c r="F102" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" t="s">
+      <c r="H102" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="H102" s="1" t="s">
+      <c r="I102" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="J102" t="s">
         <v>42</v>
       </c>
       <c r="K102" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L102" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B103" t="s">
+        <v>80</v>
+      </c>
+      <c r="C103" t="s">
         <v>81</v>
-      </c>
-      <c r="C103" t="s">
-        <v>82</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s">
@@ -6234,27 +6243,27 @@
         <v>14</v>
       </c>
       <c r="G103" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J103" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B104" t="s">
+        <v>83</v>
+      </c>
+      <c r="C104" t="s">
         <v>84</v>
-      </c>
-      <c r="C104" t="s">
-        <v>85</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s">
@@ -6264,27 +6273,27 @@
         <v>14</v>
       </c>
       <c r="G104" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J104" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B105" t="s">
+        <v>86</v>
+      </c>
+      <c r="C105" t="s">
         <v>87</v>
-      </c>
-      <c r="C105" t="s">
-        <v>88</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s">
@@ -6294,27 +6303,27 @@
         <v>14</v>
       </c>
       <c r="G105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J105" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B106" t="s">
+        <v>89</v>
+      </c>
+      <c r="C106" t="s">
         <v>90</v>
-      </c>
-      <c r="C106" t="s">
-        <v>91</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s">
@@ -6324,27 +6333,27 @@
         <v>14</v>
       </c>
       <c r="G106" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J106" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B107" t="s">
+        <v>92</v>
+      </c>
+      <c r="C107" t="s">
         <v>93</v>
-      </c>
-      <c r="C107" t="s">
-        <v>94</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s">
@@ -6354,27 +6363,27 @@
         <v>14</v>
       </c>
       <c r="G107" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J107" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B108" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C108" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s">
@@ -6384,27 +6393,27 @@
         <v>14</v>
       </c>
       <c r="G108" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J108" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B109" t="s">
+        <v>97</v>
+      </c>
+      <c r="C109" t="s">
         <v>98</v>
-      </c>
-      <c r="C109" t="s">
-        <v>99</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s">
@@ -6414,27 +6423,27 @@
         <v>14</v>
       </c>
       <c r="G109" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J109" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B110" t="s">
+        <v>99</v>
+      </c>
+      <c r="C110" t="s">
         <v>100</v>
-      </c>
-      <c r="C110" t="s">
-        <v>101</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s">
@@ -6444,27 +6453,27 @@
         <v>14</v>
       </c>
       <c r="G110" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B111" t="s">
+        <v>102</v>
+      </c>
+      <c r="C111" t="s">
         <v>103</v>
-      </c>
-      <c r="C111" t="s">
-        <v>104</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s">
@@ -6474,27 +6483,27 @@
         <v>14</v>
       </c>
       <c r="G111" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J111" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B112" t="s">
+        <v>105</v>
+      </c>
+      <c r="C112" t="s">
         <v>106</v>
-      </c>
-      <c r="C112" t="s">
-        <v>107</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s">
@@ -6504,27 +6513,27 @@
         <v>14</v>
       </c>
       <c r="G112" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J112" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B113" t="s">
+        <v>108</v>
+      </c>
+      <c r="C113" t="s">
         <v>109</v>
-      </c>
-      <c r="C113" t="s">
-        <v>110</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s">
@@ -6534,27 +6543,27 @@
         <v>14</v>
       </c>
       <c r="G113" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J113" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B114" t="s">
+        <v>111</v>
+      </c>
+      <c r="C114" t="s">
         <v>112</v>
-      </c>
-      <c r="C114" t="s">
-        <v>113</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s">
@@ -6564,27 +6573,27 @@
         <v>14</v>
       </c>
       <c r="G114" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J114" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B115" t="s">
+        <v>114</v>
+      </c>
+      <c r="C115" t="s">
         <v>115</v>
-      </c>
-      <c r="C115" t="s">
-        <v>116</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s">
@@ -6594,27 +6603,27 @@
         <v>14</v>
       </c>
       <c r="G115" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J115" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B116" t="s">
+        <v>117</v>
+      </c>
+      <c r="C116" t="s">
         <v>118</v>
-      </c>
-      <c r="C116" t="s">
-        <v>119</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s">
@@ -6624,27 +6633,27 @@
         <v>14</v>
       </c>
       <c r="G116" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J116" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B117" t="s">
+        <v>120</v>
+      </c>
+      <c r="C117" t="s">
         <v>121</v>
-      </c>
-      <c r="C117" t="s">
-        <v>122</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s">
@@ -6654,27 +6663,27 @@
         <v>14</v>
       </c>
       <c r="G117" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J117" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B118" t="s">
+        <v>123</v>
+      </c>
+      <c r="C118" t="s">
         <v>124</v>
-      </c>
-      <c r="C118" t="s">
-        <v>125</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s">
@@ -6684,27 +6693,27 @@
         <v>14</v>
       </c>
       <c r="G118" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J118" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B119" t="s">
+        <v>126</v>
+      </c>
+      <c r="C119" t="s">
         <v>127</v>
-      </c>
-      <c r="C119" t="s">
-        <v>128</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s">
@@ -6714,27 +6723,27 @@
         <v>14</v>
       </c>
       <c r="G119" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J119" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B120" t="s">
+        <v>129</v>
+      </c>
+      <c r="C120" t="s">
         <v>130</v>
-      </c>
-      <c r="C120" t="s">
-        <v>131</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s">
@@ -6744,27 +6753,27 @@
         <v>14</v>
       </c>
       <c r="G120" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J120" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B121" t="s">
+        <v>132</v>
+      </c>
+      <c r="C121" t="s">
         <v>133</v>
-      </c>
-      <c r="C121" t="s">
-        <v>134</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s">
@@ -6774,27 +6783,27 @@
         <v>14</v>
       </c>
       <c r="G121" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B122" t="s">
+        <v>135</v>
+      </c>
+      <c r="C122" t="s">
         <v>136</v>
-      </c>
-      <c r="C122" t="s">
-        <v>137</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s">
@@ -6804,27 +6813,27 @@
         <v>14</v>
       </c>
       <c r="G122" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J122" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B123" t="s">
+        <v>138</v>
+      </c>
+      <c r="C123" t="s">
         <v>139</v>
-      </c>
-      <c r="C123" t="s">
-        <v>140</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s">
@@ -6834,65 +6843,65 @@
         <v>14</v>
       </c>
       <c r="G123" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J123" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B124" t="s">
+        <v>140</v>
+      </c>
+      <c r="C124" t="s">
         <v>141</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>142</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
+        <v>48</v>
+      </c>
+      <c r="F124" t="s">
+        <v>14</v>
+      </c>
+      <c r="G124" t="s">
         <v>143</v>
       </c>
-      <c r="E124" t="s">
-        <v>48</v>
-      </c>
-      <c r="F124" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124" t="s">
+      <c r="H124" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H124" s="1" t="s">
+      <c r="I124" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="I124" s="1" t="s">
+      <c r="J124" t="s">
         <v>146</v>
       </c>
-      <c r="J124" t="s">
-        <v>147</v>
-      </c>
       <c r="K124" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L124" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B125" t="s">
         <v>195</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>196</v>
-      </c>
-      <c r="C125" t="s">
-        <v>197</v>
       </c>
       <c r="D125" t="s">
         <v>21</v>
@@ -6904,71 +6913,71 @@
         <v>14</v>
       </c>
       <c r="G125" t="s">
+        <v>197</v>
+      </c>
+      <c r="H125" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="H125" s="1" t="s">
+      <c r="I125" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="I125" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="J125" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K125" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L125" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B126" t="s">
         <v>205</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>206</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
+        <v>142</v>
+      </c>
+      <c r="E126" t="s">
+        <v>48</v>
+      </c>
+      <c r="F126" t="s">
+        <v>14</v>
+      </c>
+      <c r="G126" t="s">
         <v>207</v>
       </c>
-      <c r="D126" t="s">
-        <v>143</v>
-      </c>
-      <c r="E126" t="s">
-        <v>48</v>
-      </c>
-      <c r="F126" t="s">
-        <v>14</v>
-      </c>
-      <c r="G126" t="s">
+      <c r="H126" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H126" s="1" t="s">
+      <c r="I126" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="I126" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="J126" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K126" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L126" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="B127" t="s">
         <v>252</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
         <v>253</v>
-      </c>
-      <c r="C127" t="s">
-        <v>254</v>
       </c>
       <c r="D127" t="s">
         <v>21</v>
@@ -6980,33 +6989,33 @@
         <v>14</v>
       </c>
       <c r="G127" t="s">
+        <v>207</v>
+      </c>
+      <c r="H127" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H127" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="I127" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J127" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K127" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L127" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="B128" t="s">
         <v>256</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>257</v>
-      </c>
-      <c r="C128" t="s">
-        <v>258</v>
       </c>
       <c r="D128" t="s">
         <v>21</v>
@@ -7018,33 +7027,33 @@
         <v>14</v>
       </c>
       <c r="G128" t="s">
+        <v>207</v>
+      </c>
+      <c r="H128" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H128" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="I128" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J128" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K128" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L128" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="B129" t="s">
         <v>259</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
         <v>260</v>
-      </c>
-      <c r="C129" t="s">
-        <v>261</v>
       </c>
       <c r="D129" t="s">
         <v>21</v>
@@ -7056,33 +7065,33 @@
         <v>14</v>
       </c>
       <c r="G129" t="s">
+        <v>207</v>
+      </c>
+      <c r="H129" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H129" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="I129" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J129" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K129" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L129" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B130" t="s">
         <v>262</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
         <v>263</v>
-      </c>
-      <c r="C130" t="s">
-        <v>264</v>
       </c>
       <c r="D130" t="s">
         <v>21</v>
@@ -7094,33 +7103,33 @@
         <v>14</v>
       </c>
       <c r="G130" t="s">
+        <v>207</v>
+      </c>
+      <c r="H130" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H130" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="I130" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J130" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K130" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L130" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="B131" t="s">
         <v>265</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>266</v>
-      </c>
-      <c r="C131" t="s">
-        <v>267</v>
       </c>
       <c r="D131" t="s">
         <v>21</v>
@@ -7132,33 +7141,33 @@
         <v>14</v>
       </c>
       <c r="G131" t="s">
+        <v>207</v>
+      </c>
+      <c r="H131" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H131" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="I131" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J131" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K131" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L131" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="B132" t="s">
         <v>328</v>
       </c>
-      <c r="B132" t="s">
-        <v>329</v>
-      </c>
       <c r="C132" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D132" t="s">
         <v>21</v>
@@ -7170,244 +7179,244 @@
         <v>14</v>
       </c>
       <c r="G132" t="s">
+        <v>329</v>
+      </c>
+      <c r="H132" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="H132" s="10" t="s">
+      <c r="I132" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="I132" s="10" t="s">
+      <c r="J132" t="s">
         <v>332</v>
-      </c>
-      <c r="J132" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B133" t="s">
+        <v>552</v>
+      </c>
+      <c r="C133" t="s">
         <v>553</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
+        <v>372</v>
+      </c>
+      <c r="E133" t="s">
+        <v>373</v>
+      </c>
+      <c r="F133" t="s">
+        <v>14</v>
+      </c>
+      <c r="G133" t="s">
+        <v>294</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="I133" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="D133" t="s">
-        <v>373</v>
-      </c>
-      <c r="E133" t="s">
-        <v>374</v>
-      </c>
-      <c r="F133" t="s">
-        <v>14</v>
-      </c>
-      <c r="G133" t="s">
-        <v>295</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>555</v>
-      </c>
       <c r="J133" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K133" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L133" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B134" t="s">
+        <v>560</v>
+      </c>
+      <c r="C134" t="s">
         <v>561</v>
       </c>
-      <c r="C134" t="s">
-        <v>562</v>
-      </c>
       <c r="D134" t="s">
+        <v>372</v>
+      </c>
+      <c r="E134" t="s">
         <v>373</v>
       </c>
-      <c r="E134" t="s">
-        <v>374</v>
-      </c>
       <c r="F134" t="s">
         <v>14</v>
       </c>
       <c r="G134" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J134" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K134" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L134" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B135" t="s">
+        <v>562</v>
+      </c>
+      <c r="C135" t="s">
         <v>563</v>
       </c>
-      <c r="C135" t="s">
-        <v>564</v>
-      </c>
       <c r="D135" t="s">
+        <v>372</v>
+      </c>
+      <c r="E135" t="s">
         <v>373</v>
       </c>
-      <c r="E135" t="s">
-        <v>374</v>
-      </c>
       <c r="F135" t="s">
         <v>14</v>
       </c>
       <c r="G135" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J135" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K135" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L135" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B136" t="s">
+        <v>564</v>
+      </c>
+      <c r="C136" t="s">
         <v>565</v>
       </c>
-      <c r="C136" t="s">
-        <v>566</v>
-      </c>
       <c r="D136" t="s">
+        <v>372</v>
+      </c>
+      <c r="E136" t="s">
         <v>373</v>
       </c>
-      <c r="E136" t="s">
-        <v>374</v>
-      </c>
       <c r="F136" t="s">
         <v>14</v>
       </c>
       <c r="G136" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J136" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K136" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L136" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B137" t="s">
+        <v>566</v>
+      </c>
+      <c r="C137" t="s">
         <v>567</v>
       </c>
-      <c r="C137" t="s">
-        <v>568</v>
-      </c>
       <c r="D137" t="s">
+        <v>372</v>
+      </c>
+      <c r="E137" t="s">
         <v>373</v>
       </c>
-      <c r="E137" t="s">
-        <v>374</v>
-      </c>
       <c r="F137" t="s">
         <v>14</v>
       </c>
       <c r="G137" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J137" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K137" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L137" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B138" t="s">
+        <v>568</v>
+      </c>
+      <c r="C138" t="s">
         <v>569</v>
       </c>
-      <c r="C138" t="s">
-        <v>570</v>
-      </c>
       <c r="D138" t="s">
+        <v>372</v>
+      </c>
+      <c r="E138" t="s">
         <v>373</v>
       </c>
-      <c r="E138" t="s">
-        <v>374</v>
-      </c>
       <c r="F138" t="s">
         <v>14</v>
       </c>
       <c r="G138" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J138" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K138" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L138" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>

--- a/00Consolidado Tablas Madre.xlsx
+++ b/00Consolidado Tablas Madre.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojas.DESKTOP-91OCPB2\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5ECF33E-4B14-4BFA-ACBF-4DD6AB0693D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB62980-B0E9-448A-8253-F85B8A926EAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidado" sheetId="1" r:id="rId1"/>
@@ -41,21 +41,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="599">
   <si>
     <t>Código Tabla</t>
   </si>
@@ -1844,6 +1835,15 @@
   </si>
   <si>
     <t>Importaciones en dólares (USD CIF) de especies de frutas hacia Chile de otros países</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>$/Litro</t>
+  </si>
+  <si>
+    <t>qqm/ha</t>
   </si>
 </sst>
 </file>
@@ -2840,8 +2840,8 @@
   <dimension ref="A11:L138"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H97" sqref="H97"/>
+      <pane ySplit="11" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4028,6 +4028,9 @@
       <c r="C43" t="s">
         <v>439</v>
       </c>
+      <c r="D43" t="s">
+        <v>596</v>
+      </c>
       <c r="E43" t="s">
         <v>48</v>
       </c>
@@ -4063,6 +4066,9 @@
       <c r="C44" t="s">
         <v>442</v>
       </c>
+      <c r="D44" t="s">
+        <v>596</v>
+      </c>
       <c r="E44" t="s">
         <v>48</v>
       </c>
@@ -4098,6 +4104,9 @@
       <c r="C45" t="s">
         <v>446</v>
       </c>
+      <c r="D45" t="s">
+        <v>596</v>
+      </c>
       <c r="E45" t="s">
         <v>48</v>
       </c>
@@ -4165,6 +4174,9 @@
       <c r="C47" t="s">
         <v>450</v>
       </c>
+      <c r="D47" t="s">
+        <v>596</v>
+      </c>
       <c r="E47" t="s">
         <v>48</v>
       </c>
@@ -4200,6 +4212,9 @@
       <c r="C48" t="s">
         <v>454</v>
       </c>
+      <c r="D48" t="s">
+        <v>596</v>
+      </c>
       <c r="E48" t="s">
         <v>48</v>
       </c>
@@ -4235,6 +4250,9 @@
       <c r="C49" t="s">
         <v>458</v>
       </c>
+      <c r="D49" t="s">
+        <v>596</v>
+      </c>
       <c r="E49" t="s">
         <v>48</v>
       </c>
@@ -4270,6 +4288,9 @@
       <c r="C50" t="s">
         <v>462</v>
       </c>
+      <c r="D50" t="s">
+        <v>372</v>
+      </c>
       <c r="E50" t="s">
         <v>48</v>
       </c>
@@ -4305,6 +4326,9 @@
       <c r="C51" t="s">
         <v>466</v>
       </c>
+      <c r="D51" t="s">
+        <v>372</v>
+      </c>
       <c r="E51" t="s">
         <v>48</v>
       </c>
@@ -4340,6 +4364,9 @@
       <c r="C52" t="s">
         <v>470</v>
       </c>
+      <c r="D52" t="s">
+        <v>372</v>
+      </c>
       <c r="E52" t="s">
         <v>48</v>
       </c>
@@ -4412,6 +4439,9 @@
       </c>
       <c r="C54" t="s">
         <v>473</v>
+      </c>
+      <c r="D54" t="s">
+        <v>597</v>
       </c>
       <c r="E54" t="s">
         <v>48</v>
@@ -5808,6 +5838,9 @@
       <c r="C91" t="s">
         <v>483</v>
       </c>
+      <c r="D91" t="s">
+        <v>47</v>
+      </c>
       <c r="E91" t="s">
         <v>48</v>
       </c>
@@ -5842,6 +5875,9 @@
       </c>
       <c r="C92" t="s">
         <v>487</v>
+      </c>
+      <c r="D92" t="s">
+        <v>598</v>
       </c>
       <c r="E92" t="s">
         <v>48</v>
@@ -6199,6 +6235,9 @@
       </c>
       <c r="C102" t="s">
         <v>477</v>
+      </c>
+      <c r="D102" t="s">
+        <v>244</v>
       </c>
       <c r="E102" t="s">
         <v>48</v>

--- a/00Consolidado Tablas Madre.xlsx
+++ b/00Consolidado Tablas Madre.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="631">
   <si>
     <t>Código Tabla</t>
   </si>
@@ -1925,6 +1925,30 @@
   </si>
   <si>
     <t>Cosecha de especies en centros de acuicultura por especie y por mes año 2019</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Pueblos_Comuna_Edad</t>
+  </si>
+  <si>
+    <t>Persona</t>
+  </si>
+  <si>
+    <t>Indefinido (Decenio)</t>
+  </si>
+  <si>
+    <t>Instituto Nacional de Estadísticas</t>
+  </si>
+  <si>
+    <t>Demografía</t>
+  </si>
+  <si>
+    <t>20.01</t>
+  </si>
+  <si>
+    <t>Pueblos_Comuna_Genero</t>
   </si>
 </sst>
 </file>
@@ -2598,8 +2622,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A11:L146" totalsRowShown="0">
-  <autoFilter ref="A11:L146" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A11:L148" totalsRowShown="0">
+  <autoFilter ref="A11:L148" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:J136">
     <sortCondition ref="A11:A136"/>
   </sortState>
@@ -2918,11 +2942,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD49B1B1-33D3-49D9-BF85-AA2E2407F985}">
-  <dimension ref="A11:L146"/>
+  <dimension ref="A11:L148"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C126" sqref="C126"/>
+      <pane ySplit="11" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A149" sqref="A149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -7803,6 +7827,68 @@
       </c>
       <c r="L146" t="s">
         <v>315</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147" s="13" t="s">
+        <v>623</v>
+      </c>
+      <c r="B147" t="s">
+        <v>624</v>
+      </c>
+      <c r="D147" t="s">
+        <v>625</v>
+      </c>
+      <c r="E147" t="s">
+        <v>626</v>
+      </c>
+      <c r="F147" t="s">
+        <v>15</v>
+      </c>
+      <c r="G147" t="s">
+        <v>627</v>
+      </c>
+      <c r="H147" s="10"/>
+      <c r="I147" s="1"/>
+      <c r="J147" t="s">
+        <v>536</v>
+      </c>
+      <c r="K147" t="s">
+        <v>30</v>
+      </c>
+      <c r="L147" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="B148" t="s">
+        <v>630</v>
+      </c>
+      <c r="D148" t="s">
+        <v>625</v>
+      </c>
+      <c r="E148" t="s">
+        <v>626</v>
+      </c>
+      <c r="F148" t="s">
+        <v>15</v>
+      </c>
+      <c r="G148" t="s">
+        <v>627</v>
+      </c>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" t="s">
+        <v>536</v>
+      </c>
+      <c r="K148" t="s">
+        <v>30</v>
+      </c>
+      <c r="L148" t="s">
+        <v>628</v>
       </c>
     </row>
   </sheetData>

--- a/00Consolidado Tablas Madre.xlsx
+++ b/00Consolidado Tablas Madre.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCN\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE8F95F-CA55-47FC-9203-92F13E8A1024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47820538-CB65-48C5-9C6B-DCECFF3DF647}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <definedName name="SegmentaciónDeDatos_Sector">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_Unidad_de_Medida">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -41,21 +41,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="629">
   <si>
     <t>Código Tabla</t>
   </si>
@@ -1003,15 +994,6 @@
   </si>
   <si>
     <t>Pesca y acuicultura</t>
-  </si>
-  <si>
-    <t>19.2</t>
-  </si>
-  <si>
-    <t>desembarque_total_por_especie_y_mes_toneladas_2019</t>
-  </si>
-  <si>
-    <t>Chile, desembarque  total, en toneladas, en el año 2019, por especie y mes.</t>
   </si>
   <si>
     <t>http://www.sernapesca.cl/sites/default/files/2019_0303_desembarque_total_por_mes.xlsx</t>
@@ -1949,13 +1931,16 @@
   </si>
   <si>
     <t>Pueblos_Comuna_Genero</t>
+  </si>
+  <si>
+    <t>17.26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2612,7 +2597,7 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Código Tabla" xr10:uid="{ACADD536-4F26-4F32-AA2C-B6B02C14A824}" cache="SegmentaciónDeDatos_Código_Tabla" caption="Código Tabla" columnCount="5" style="SlicerStyleDark1" rowHeight="234950"/>
+  <slicer name="Código Tabla" xr10:uid="{ACADD536-4F26-4F32-AA2C-B6B02C14A824}" cache="SegmentaciónDeDatos_Código_Tabla" caption="Código Tabla" startItem="35" columnCount="5" style="SlicerStyleDark1" rowHeight="234950"/>
   <slicer name="Unidad de Medida" xr10:uid="{6574F389-29CB-47FF-B34C-0B381A5AA264}" cache="SegmentaciónDeDatos_Unidad_de_Medida" caption="Unidad de Medida" columnCount="2" style="SlicerStyleDark1" rowHeight="234950"/>
   <slicer name="Nombre Fuente" xr10:uid="{FCDE2E95-E63C-47A4-8F50-C4F8F5EADAEA}" cache="SegmentaciónDeDatos_Nombre_Fuente" caption="Nombre Fuente" columnCount="2" style="SlicerStyleDark1" rowHeight="234950"/>
   <slicer name="Encargado" xr10:uid="{4B8EAA2A-5539-4124-8E5D-AA4E68FD63C8}" cache="SegmentaciónDeDatos_Encargado" caption="Encargado" columnCount="2" style="SlicerStyleDark1" rowHeight="234950"/>
@@ -2622,10 +2607,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A11:L148" totalsRowShown="0">
-  <autoFilter ref="A11:L148" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:J136">
-    <sortCondition ref="A11:A136"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A11:L147" totalsRowShown="0">
+  <autoFilter ref="A11:L147" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:J135">
+    <sortCondition ref="A11:A135"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{7C5348D6-A85E-4EC9-97BD-67166306597F}" name="Código Tabla" dataDxfId="0"/>
@@ -2646,7 +2631,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2942,14 +2927,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD49B1B1-33D3-49D9-BF85-AA2E2407F985}">
-  <dimension ref="A11:L148"/>
+  <dimension ref="A11:L147"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A149" sqref="A149"/>
+      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
@@ -2965,7 +2950,7 @@
     <col min="12" max="12" width="33.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3003,7 +2988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>5</v>
       </c>
@@ -3033,7 +3018,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>6</v>
       </c>
@@ -3063,7 +3048,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>9</v>
       </c>
@@ -3101,7 +3086,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>9</v>
       </c>
@@ -3139,7 +3124,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>16</v>
       </c>
@@ -3177,7 +3162,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>42</v>
       </c>
@@ -3215,7 +3200,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>52</v>
       </c>
@@ -3253,7 +3238,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>56</v>
       </c>
@@ -3291,7 +3276,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>66</v>
       </c>
@@ -3329,7 +3314,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>73</v>
       </c>
@@ -3367,7 +3352,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>83</v>
       </c>
@@ -3405,7 +3390,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>89</v>
       </c>
@@ -3437,7 +3422,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>97</v>
       </c>
@@ -3469,7 +3454,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>102</v>
       </c>
@@ -3501,7 +3486,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>107</v>
       </c>
@@ -3533,7 +3518,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>112</v>
       </c>
@@ -3571,7 +3556,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>120</v>
       </c>
@@ -3609,7 +3594,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>126</v>
       </c>
@@ -3647,7 +3632,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>130</v>
       </c>
@@ -3679,7 +3664,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>138</v>
       </c>
@@ -3717,7 +3702,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>146</v>
       </c>
@@ -3748,8 +3733,14 @@
       <c r="J32" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="K32" t="s">
+        <v>64</v>
+      </c>
+      <c r="L32" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>154</v>
       </c>
@@ -3787,7 +3778,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>161</v>
       </c>
@@ -3818,8 +3809,14 @@
       <c r="J34" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="K34" t="s">
+        <v>64</v>
+      </c>
+      <c r="L34" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>165</v>
       </c>
@@ -3857,7 +3854,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>169</v>
       </c>
@@ -3895,7 +3892,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>172</v>
       </c>
@@ -3933,7 +3930,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>180</v>
       </c>
@@ -3971,7 +3968,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>183</v>
       </c>
@@ -4009,7 +4006,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>186</v>
       </c>
@@ -4047,7 +4044,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>189</v>
       </c>
@@ -4085,7 +4082,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>193</v>
       </c>
@@ -4123,7 +4120,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>196</v>
       </c>
@@ -4161,7 +4158,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>199</v>
       </c>
@@ -4199,7 +4196,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>203</v>
       </c>
@@ -4237,7 +4234,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>207</v>
       </c>
@@ -4275,7 +4272,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>211</v>
       </c>
@@ -4306,8 +4303,14 @@
       <c r="J47" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="K47" t="s">
+        <v>64</v>
+      </c>
+      <c r="L47" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>215</v>
       </c>
@@ -4345,7 +4348,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>219</v>
       </c>
@@ -4383,7 +4386,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>223</v>
       </c>
@@ -4421,7 +4424,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>227</v>
       </c>
@@ -4459,7 +4462,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>231</v>
       </c>
@@ -4497,7 +4500,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>235</v>
       </c>
@@ -4535,9 +4538,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>239</v>
+        <v>628</v>
       </c>
       <c r="B54" t="s">
         <v>240</v>
@@ -4573,7 +4576,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>239</v>
       </c>
@@ -4611,7 +4614,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>246</v>
       </c>
@@ -4649,7 +4652,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>249</v>
       </c>
@@ -4687,7 +4690,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>252</v>
       </c>
@@ -4725,7 +4728,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>256</v>
       </c>
@@ -4763,7 +4766,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>259</v>
       </c>
@@ -4801,7 +4804,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>262</v>
       </c>
@@ -4839,7 +4842,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>265</v>
       </c>
@@ -4877,7 +4880,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>268</v>
       </c>
@@ -4915,7 +4918,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>271</v>
       </c>
@@ -4953,7 +4956,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>274</v>
       </c>
@@ -4991,7 +4994,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>277</v>
       </c>
@@ -5029,7 +5032,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>280</v>
       </c>
@@ -5067,7 +5070,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>283</v>
       </c>
@@ -5105,7 +5108,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>286</v>
       </c>
@@ -5143,7 +5146,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>289</v>
       </c>
@@ -5181,7 +5184,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>295</v>
       </c>
@@ -5219,7 +5222,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>300</v>
       </c>
@@ -5257,7 +5260,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>304</v>
       </c>
@@ -5295,7 +5298,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>310</v>
       </c>
@@ -5331,89 +5334,91 @@
         <v>315</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B75" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C75" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D75" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="E75" t="s">
-        <v>14</v>
+        <v>320</v>
       </c>
       <c r="F75" t="s">
         <v>15</v>
       </c>
       <c r="G75" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="I75" s="1"/>
+        <v>322</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="J75" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="K75" t="s">
-        <v>64</v>
+        <v>324</v>
       </c>
       <c r="L75" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B76" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C76" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D76" t="s">
         <v>76</v>
       </c>
       <c r="E76" t="s">
-        <v>323</v>
+        <v>14</v>
       </c>
       <c r="F76" t="s">
         <v>15</v>
       </c>
       <c r="G76" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="J76" t="s">
         <v>96</v>
       </c>
       <c r="K76" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="L76" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B77" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C77" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D77" t="s">
         <v>76</v>
@@ -5425,33 +5430,33 @@
         <v>15</v>
       </c>
       <c r="G77" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="J77" t="s">
         <v>96</v>
       </c>
       <c r="K77" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="L77" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B78" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C78" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D78" t="s">
         <v>76</v>
@@ -5463,223 +5468,223 @@
         <v>15</v>
       </c>
       <c r="G78" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J78" t="s">
         <v>96</v>
       </c>
       <c r="K78" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="L78" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B79" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C79" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D79" t="s">
         <v>76</v>
       </c>
-      <c r="E79" t="s">
-        <v>14</v>
+      <c r="E79" s="4" t="s">
+        <v>343</v>
       </c>
       <c r="F79" t="s">
         <v>15</v>
       </c>
-      <c r="G79" t="s">
-        <v>324</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>332</v>
+      <c r="G79" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>345</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="J79" t="s">
         <v>96</v>
       </c>
       <c r="K79" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="L79" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B80" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C80" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D80" t="s">
         <v>76</v>
       </c>
-      <c r="E80" s="4" t="s">
-        <v>346</v>
+      <c r="E80" s="12" t="s">
+        <v>343</v>
       </c>
       <c r="F80" t="s">
         <v>15</v>
       </c>
-      <c r="G80" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="H80" s="5" t="s">
-        <v>348</v>
+      <c r="G80" t="s">
+        <v>344</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>345</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J80" t="s">
         <v>96</v>
       </c>
       <c r="K80" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="L80" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B81" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C81" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D81" t="s">
         <v>76</v>
       </c>
-      <c r="E81" s="12" t="s">
-        <v>346</v>
+      <c r="E81" t="s">
+        <v>14</v>
       </c>
       <c r="F81" t="s">
         <v>15</v>
       </c>
       <c r="G81" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J81" t="s">
         <v>96</v>
       </c>
       <c r="K81" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="L81" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B82" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C82" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D82" t="s">
         <v>76</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F82" t="s">
         <v>15</v>
       </c>
       <c r="G82" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="J82" t="s">
         <v>96</v>
       </c>
       <c r="K82" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="L82" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B83" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C83" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D83" t="s">
         <v>76</v>
       </c>
-      <c r="E83" s="12" t="s">
+      <c r="E83" t="s">
         <v>14</v>
       </c>
       <c r="F83" t="s">
         <v>15</v>
       </c>
       <c r="G83" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="J83" t="s">
         <v>96</v>
       </c>
       <c r="K83" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="L83" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B84" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C84" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D84" t="s">
         <v>76</v>
@@ -5691,33 +5696,33 @@
         <v>15</v>
       </c>
       <c r="G84" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J84" t="s">
         <v>96</v>
       </c>
       <c r="K84" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="L84" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B85" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C85" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D85" t="s">
         <v>76</v>
@@ -5729,33 +5734,33 @@
         <v>15</v>
       </c>
       <c r="G85" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="J85" t="s">
         <v>96</v>
       </c>
       <c r="K85" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="L85" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B86" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C86" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D86" t="s">
         <v>76</v>
@@ -5767,89 +5772,89 @@
         <v>15</v>
       </c>
       <c r="G86" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J86" t="s">
         <v>96</v>
       </c>
       <c r="K86" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="L86" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B87" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C87" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D87" t="s">
         <v>76</v>
       </c>
       <c r="E87" t="s">
-        <v>14</v>
+        <v>379</v>
       </c>
       <c r="F87" t="s">
         <v>15</v>
       </c>
       <c r="G87" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>332</v>
+        <v>381</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="J87" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="K87" t="s">
-        <v>327</v>
+        <v>30</v>
       </c>
       <c r="L87" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B88" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C88" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D88" t="s">
         <v>76</v>
       </c>
       <c r="E88" t="s">
+        <v>379</v>
+      </c>
+      <c r="F88" t="s">
+        <v>15</v>
+      </c>
+      <c r="G88" t="s">
+        <v>380</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="I88" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="F88" t="s">
-        <v>15</v>
-      </c>
-      <c r="G88" t="s">
-        <v>383</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="J88" t="s">
         <v>137</v>
@@ -5858,10 +5863,10 @@
         <v>30</v>
       </c>
       <c r="L88" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
         <v>387</v>
       </c>
@@ -5875,19 +5880,19 @@
         <v>76</v>
       </c>
       <c r="E89" t="s">
-        <v>382</v>
+        <v>46</v>
       </c>
       <c r="F89" t="s">
         <v>15</v>
       </c>
       <c r="G89" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="J89" t="s">
         <v>137</v>
@@ -5896,56 +5901,52 @@
         <v>30</v>
       </c>
       <c r="L89" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B90" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C90" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D90" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="E90" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F90" t="s">
         <v>15</v>
       </c>
-      <c r="G90" t="s">
-        <v>393</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>394</v>
-      </c>
+      <c r="G90" s="2"/>
+      <c r="H90" s="3"/>
       <c r="I90" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="J90" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="K90" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="L90" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B91" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C91" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D91" t="s">
         <v>115</v>
@@ -5956,13 +5957,17 @@
       <c r="F91" t="s">
         <v>15</v>
       </c>
-      <c r="G91" s="2"/>
-      <c r="H91" s="3"/>
+      <c r="G91" t="s">
+        <v>151</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>400</v>
+      </c>
       <c r="I91" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="J91" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="K91" t="s">
         <v>64</v>
@@ -5971,18 +5976,18 @@
         <v>179</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B92" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C92" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D92" t="s">
-        <v>115</v>
+        <v>405</v>
       </c>
       <c r="E92" t="s">
         <v>14</v>
@@ -5994,10 +5999,10 @@
         <v>151</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="J92" t="s">
         <v>137</v>
@@ -6009,36 +6014,36 @@
         <v>179</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
-      <c r="A93" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="B93" t="s">
-        <v>406</v>
-      </c>
-      <c r="C93" t="s">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="14" t="s">
         <v>407</v>
       </c>
-      <c r="D93" t="s">
+      <c r="B93" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="E93" t="s">
-        <v>14</v>
-      </c>
-      <c r="F93" t="s">
-        <v>15</v>
-      </c>
-      <c r="G93" t="s">
+      <c r="C93" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H93" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="J93" t="s">
-        <v>137</v>
+      <c r="H93" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="I93" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="K93" t="s">
         <v>64</v>
@@ -6047,35 +6052,35 @@
         <v>179</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
-      <c r="A94" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="C94" s="7" t="s">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="D94" s="7" t="s">
-        <v>69</v>
+      <c r="B94" t="s">
+        <v>413</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="D94" t="s">
+        <v>26</v>
       </c>
       <c r="E94" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F94" s="7" t="s">
+      <c r="F94" t="s">
         <v>15</v>
       </c>
       <c r="G94" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H94" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="I94" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="J94" s="7" t="s">
+      <c r="H94" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="J94" t="s">
         <v>63</v>
       </c>
       <c r="K94" t="s">
@@ -6085,33 +6090,29 @@
         <v>179</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B95" t="s">
-        <v>416</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="C95" t="s">
+        <v>419</v>
       </c>
       <c r="D95" t="s">
-        <v>26</v>
-      </c>
-      <c r="E95" s="11" t="s">
-        <v>77</v>
+        <v>192</v>
+      </c>
+      <c r="E95" t="s">
+        <v>14</v>
       </c>
       <c r="F95" t="s">
         <v>15</v>
       </c>
-      <c r="G95" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>418</v>
-      </c>
+      <c r="G95" s="2"/>
+      <c r="H95" s="3"/>
       <c r="I95" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J95" t="s">
         <v>63</v>
@@ -6123,18 +6124,18 @@
         <v>179</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B96" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C96" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D96" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
       <c r="E96" t="s">
         <v>14</v>
@@ -6145,7 +6146,7 @@
       <c r="G96" s="2"/>
       <c r="H96" s="3"/>
       <c r="I96" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="J96" t="s">
         <v>63</v>
@@ -6157,18 +6158,18 @@
         <v>179</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B97" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C97" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D97" t="s">
-        <v>115</v>
+        <v>255</v>
       </c>
       <c r="E97" t="s">
         <v>14</v>
@@ -6179,7 +6180,7 @@
       <c r="G97" s="2"/>
       <c r="H97" s="3"/>
       <c r="I97" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="J97" t="s">
         <v>63</v>
@@ -6191,21 +6192,21 @@
         <v>179</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B98" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C98" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D98" t="s">
-        <v>255</v>
-      </c>
-      <c r="E98" t="s">
-        <v>14</v>
+        <v>45</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F98" t="s">
         <v>15</v>
@@ -6213,7 +6214,7 @@
       <c r="G98" s="2"/>
       <c r="H98" s="3"/>
       <c r="I98" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="J98" t="s">
         <v>63</v>
@@ -6225,21 +6226,21 @@
         <v>179</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B99" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C99" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D99" t="s">
-        <v>45</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>77</v>
+        <v>436</v>
+      </c>
+      <c r="E99" t="s">
+        <v>14</v>
       </c>
       <c r="F99" t="s">
         <v>15</v>
@@ -6247,7 +6248,7 @@
       <c r="G99" s="2"/>
       <c r="H99" s="3"/>
       <c r="I99" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="J99" t="s">
         <v>63</v>
@@ -6259,18 +6260,18 @@
         <v>179</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B100" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C100" t="s">
-        <v>438</v>
-      </c>
-      <c r="D100" t="s">
-        <v>439</v>
+        <v>440</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="E100" t="s">
         <v>14</v>
@@ -6278,10 +6279,14 @@
       <c r="F100" t="s">
         <v>15</v>
       </c>
-      <c r="G100" s="2"/>
-      <c r="H100" s="3"/>
+      <c r="G100" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>400</v>
+      </c>
       <c r="I100" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J100" t="s">
         <v>63</v>
@@ -6293,18 +6298,18 @@
         <v>179</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B101" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C101" t="s">
-        <v>443</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>69</v>
+        <v>444</v>
+      </c>
+      <c r="D101" t="s">
+        <v>76</v>
       </c>
       <c r="E101" t="s">
         <v>14</v>
@@ -6315,14 +6320,14 @@
       <c r="G101" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H101" s="5" t="s">
-        <v>403</v>
+      <c r="H101" s="1" t="s">
+        <v>445</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="J101" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="K101" t="s">
         <v>64</v>
@@ -6331,18 +6336,18 @@
         <v>179</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B102" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C102" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D102" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E102" t="s">
         <v>14</v>
@@ -6350,17 +6355,17 @@
       <c r="F102" t="s">
         <v>15</v>
       </c>
-      <c r="G102" s="7" t="s">
-        <v>151</v>
+      <c r="G102" t="s">
+        <v>450</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="J102" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="K102" t="s">
         <v>64</v>
@@ -6369,19 +6374,17 @@
         <v>179</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B103" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C103" t="s">
-        <v>452</v>
-      </c>
-      <c r="D103" t="s">
-        <v>69</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="D103" s="2"/>
       <c r="E103" t="s">
         <v>14</v>
       </c>
@@ -6389,27 +6392,21 @@
         <v>15</v>
       </c>
       <c r="G103" t="s">
+        <v>16</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="J103" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="13" t="s">
         <v>453</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="J103" t="s">
-        <v>137</v>
-      </c>
-      <c r="K103" t="s">
-        <v>64</v>
-      </c>
-      <c r="L103" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12">
-      <c r="A104" s="13" t="s">
-        <v>456</v>
       </c>
       <c r="B104" t="s">
         <v>457</v>
@@ -6437,15 +6434,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B105" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C105" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s">
@@ -6461,21 +6458,21 @@
         <v>22</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J105" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B106" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C106" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s">
@@ -6491,21 +6488,21 @@
         <v>22</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="J106" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B107" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C107" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s">
@@ -6521,21 +6518,21 @@
         <v>22</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J107" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B108" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C108" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s">
@@ -6557,7 +6554,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>475</v>
       </c>
@@ -6565,7 +6562,7 @@
         <v>476</v>
       </c>
       <c r="C109" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s">
@@ -6581,13 +6578,13 @@
         <v>22</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="J109" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>478</v>
       </c>
@@ -6611,21 +6608,21 @@
         <v>22</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="J110" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B111" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C111" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s">
@@ -6641,21 +6638,27 @@
         <v>22</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="J111" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="112" spans="1:12">
+      <c r="K111" t="s">
+        <v>64</v>
+      </c>
+      <c r="L111" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B112" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C112" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s">
@@ -6671,21 +6674,21 @@
         <v>22</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J112" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B113" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C113" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s">
@@ -6701,21 +6704,21 @@
         <v>22</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="J113" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B114" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C114" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s">
@@ -6731,15 +6734,15 @@
         <v>22</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="J114" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B115" t="s">
         <v>498</v>
@@ -6767,15 +6770,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="B116" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C116" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s">
@@ -6791,21 +6794,21 @@
         <v>22</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="J116" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B117" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C117" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s">
@@ -6821,21 +6824,21 @@
         <v>22</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="J117" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B118" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C118" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s">
@@ -6851,21 +6854,21 @@
         <v>22</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="J118" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B119" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C119" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s">
@@ -6881,21 +6884,21 @@
         <v>22</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="J119" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B120" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C120" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s">
@@ -6911,21 +6914,21 @@
         <v>22</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="J120" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B121" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C121" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s">
@@ -6941,21 +6944,21 @@
         <v>22</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="J121" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B122" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C122" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s">
@@ -6971,21 +6974,21 @@
         <v>22</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="J122" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B123" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C123" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s">
@@ -6997,25 +7000,23 @@
       <c r="G123" t="s">
         <v>16</v>
       </c>
-      <c r="H123" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I123" s="1" t="s">
+      <c r="H123" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="I123" s="1"/>
+      <c r="J123" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="B124" t="s">
+        <v>535</v>
+      </c>
+      <c r="C124" t="s">
         <v>531</v>
-      </c>
-      <c r="J123" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12">
-      <c r="A124" s="13" t="s">
-        <v>532</v>
-      </c>
-      <c r="B124" t="s">
-        <v>533</v>
-      </c>
-      <c r="C124" t="s">
-        <v>534</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s">
@@ -7028,22 +7029,22 @@
         <v>16</v>
       </c>
       <c r="H124" s="10" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="I124" s="1"/>
       <c r="J124" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="13" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="125" spans="1:12">
-      <c r="A125" s="13" t="s">
+      <c r="B125" t="s">
         <v>537</v>
       </c>
-      <c r="B125" t="s">
-        <v>538</v>
-      </c>
       <c r="C125" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s">
@@ -7056,22 +7057,22 @@
         <v>16</v>
       </c>
       <c r="H125" s="10" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="I125" s="1"/>
       <c r="J125" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="B126" t="s">
         <v>539</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>540</v>
-      </c>
-      <c r="C126" t="s">
-        <v>534</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s">
@@ -7083,15 +7084,17 @@
       <c r="G126" t="s">
         <v>16</v>
       </c>
-      <c r="H126" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="I126" s="1"/>
+      <c r="H126" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>459</v>
+      </c>
       <c r="J126" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
         <v>541</v>
       </c>
@@ -7101,7 +7104,9 @@
       <c r="C127" t="s">
         <v>543</v>
       </c>
-      <c r="D127" s="2"/>
+      <c r="D127" t="s">
+        <v>26</v>
+      </c>
       <c r="E127" t="s">
         <v>14</v>
       </c>
@@ -7109,30 +7114,36 @@
         <v>15</v>
       </c>
       <c r="G127" t="s">
-        <v>16</v>
+        <v>544</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>22</v>
+        <v>545</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>462</v>
+        <v>546</v>
       </c>
       <c r="J127" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12">
+        <v>159</v>
+      </c>
+      <c r="K127" t="s">
+        <v>30</v>
+      </c>
+      <c r="L127" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B128" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="C128" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="D128" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="E128" t="s">
         <v>14</v>
@@ -7141,13 +7152,13 @@
         <v>15</v>
       </c>
       <c r="G128" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="J128" t="s">
         <v>159</v>
@@ -7156,21 +7167,21 @@
         <v>30</v>
       </c>
       <c r="L128" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B129" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C129" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="D129" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="E129" t="s">
         <v>14</v>
@@ -7179,13 +7190,13 @@
         <v>15</v>
       </c>
       <c r="G129" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="J129" t="s">
         <v>159</v>
@@ -7194,36 +7205,36 @@
         <v>30</v>
       </c>
       <c r="L129" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
+        <v>560</v>
+      </c>
+      <c r="B130" t="s">
+        <v>561</v>
+      </c>
+      <c r="C130" t="s">
+        <v>562</v>
+      </c>
+      <c r="D130" t="s">
+        <v>76</v>
+      </c>
+      <c r="E130" t="s">
+        <v>14</v>
+      </c>
+      <c r="F130" t="s">
+        <v>15</v>
+      </c>
+      <c r="G130" t="s">
         <v>557</v>
       </c>
-      <c r="B130" t="s">
+      <c r="H130" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="C130" t="s">
-        <v>559</v>
-      </c>
-      <c r="D130" t="s">
-        <v>26</v>
-      </c>
-      <c r="E130" t="s">
-        <v>14</v>
-      </c>
-      <c r="F130" t="s">
-        <v>15</v>
-      </c>
-      <c r="G130" t="s">
-        <v>560</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>561</v>
-      </c>
       <c r="I130" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="J130" t="s">
         <v>159</v>
@@ -7232,18 +7243,18 @@
         <v>30</v>
       </c>
       <c r="L130" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B131" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C131" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D131" t="s">
         <v>76</v>
@@ -7255,13 +7266,13 @@
         <v>15</v>
       </c>
       <c r="G131" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="J131" t="s">
         <v>159</v>
@@ -7270,10 +7281,10 @@
         <v>30</v>
       </c>
       <c r="L131" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
         <v>567</v>
       </c>
@@ -7293,13 +7304,13 @@
         <v>15</v>
       </c>
       <c r="G132" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="J132" t="s">
         <v>159</v>
@@ -7308,10 +7319,10 @@
         <v>30</v>
       </c>
       <c r="L132" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
         <v>570</v>
       </c>
@@ -7331,13 +7342,13 @@
         <v>15</v>
       </c>
       <c r="G133" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="J133" t="s">
         <v>159</v>
@@ -7346,10 +7357,10 @@
         <v>30</v>
       </c>
       <c r="L133" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
         <v>573</v>
       </c>
@@ -7369,33 +7380,33 @@
         <v>15</v>
       </c>
       <c r="G134" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="J134" t="s">
+        <v>576</v>
+      </c>
+      <c r="J134" s="6" t="s">
         <v>159</v>
       </c>
       <c r="K134" t="s">
         <v>30</v>
       </c>
       <c r="L134" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B135" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C135" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D135" t="s">
         <v>76</v>
@@ -7407,65 +7418,65 @@
         <v>15</v>
       </c>
       <c r="G135" t="s">
-        <v>560</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="J135" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="K135" t="s">
-        <v>30</v>
-      </c>
-      <c r="L135" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12">
+        <v>580</v>
+      </c>
+      <c r="H135" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="I135" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="J135" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="B136" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C136" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="D136" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="E136" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="F136" t="s">
         <v>15</v>
       </c>
       <c r="G136" t="s">
-        <v>583</v>
-      </c>
-      <c r="H136" s="10" t="s">
-        <v>584</v>
-      </c>
-      <c r="I136" s="10" t="s">
-        <v>585</v>
+        <v>151</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>587</v>
       </c>
       <c r="J136" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12">
+        <v>19</v>
+      </c>
+      <c r="K136" t="s">
+        <v>64</v>
+      </c>
+      <c r="L136" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B137" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C137" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D137" t="s">
         <v>149</v>
@@ -7483,7 +7494,7 @@
         <v>152</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="J137" t="s">
         <v>19</v>
@@ -7495,15 +7506,15 @@
         <v>160</v>
       </c>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B138" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C138" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D138" t="s">
         <v>149</v>
@@ -7521,7 +7532,7 @@
         <v>152</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="J138" t="s">
         <v>19</v>
@@ -7533,15 +7544,15 @@
         <v>160</v>
       </c>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B139" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C139" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D139" t="s">
         <v>149</v>
@@ -7559,7 +7570,7 @@
         <v>152</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="J139" t="s">
         <v>19</v>
@@ -7571,15 +7582,15 @@
         <v>160</v>
       </c>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B140" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C140" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D140" t="s">
         <v>149</v>
@@ -7597,7 +7608,7 @@
         <v>152</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="J140" t="s">
         <v>19</v>
@@ -7609,15 +7620,15 @@
         <v>160</v>
       </c>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B141" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C141" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D141" t="s">
         <v>149</v>
@@ -7635,7 +7646,7 @@
         <v>152</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="J141" t="s">
         <v>19</v>
@@ -7647,45 +7658,43 @@
         <v>160</v>
       </c>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B142" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C142" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D142" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="E142" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="F142" t="s">
         <v>15</v>
       </c>
       <c r="G142" t="s">
-        <v>151</v>
+        <v>313</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I142" s="1" t="s">
-        <v>610</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="I142" s="1"/>
       <c r="J142" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="K142" t="s">
         <v>64</v>
       </c>
       <c r="L142" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
         <v>611</v>
       </c>
@@ -7708,7 +7717,7 @@
         <v>313</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I143" s="1"/>
       <c r="J143" t="s">
@@ -7721,7 +7730,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
         <v>614</v>
       </c>
@@ -7744,7 +7753,7 @@
         <v>313</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I144" s="1"/>
       <c r="J144" t="s">
@@ -7757,7 +7766,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
         <v>617</v>
       </c>
@@ -7780,7 +7789,7 @@
         <v>313</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I145" s="1"/>
       <c r="J145" t="s">
@@ -7793,116 +7802,80 @@
         <v>315</v>
       </c>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
         <v>620</v>
       </c>
       <c r="B146" t="s">
         <v>621</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>622</v>
       </c>
-      <c r="D146" t="s">
-        <v>115</v>
-      </c>
       <c r="E146" t="s">
-        <v>14</v>
+        <v>623</v>
       </c>
       <c r="F146" t="s">
         <v>15</v>
       </c>
       <c r="G146" t="s">
-        <v>313</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>319</v>
-      </c>
+        <v>624</v>
+      </c>
+      <c r="H146" s="10"/>
       <c r="I146" s="1"/>
       <c r="J146" t="s">
-        <v>159</v>
+        <v>533</v>
       </c>
       <c r="K146" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="L146" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
+        <v>626</v>
+      </c>
+      <c r="B147" t="s">
+        <v>627</v>
+      </c>
+      <c r="D147" t="s">
+        <v>622</v>
+      </c>
+      <c r="E147" t="s">
         <v>623</v>
       </c>
-      <c r="B147" t="s">
+      <c r="F147" t="s">
+        <v>15</v>
+      </c>
+      <c r="G147" t="s">
         <v>624</v>
       </c>
-      <c r="D147" t="s">
-        <v>625</v>
-      </c>
-      <c r="E147" t="s">
-        <v>626</v>
-      </c>
-      <c r="F147" t="s">
-        <v>15</v>
-      </c>
-      <c r="G147" t="s">
-        <v>627</v>
-      </c>
-      <c r="H147" s="10"/>
+      <c r="H147" s="1"/>
       <c r="I147" s="1"/>
       <c r="J147" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="K147" t="s">
         <v>30</v>
       </c>
       <c r="L147" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12">
-      <c r="A148" s="13" t="s">
-        <v>629</v>
-      </c>
-      <c r="B148" t="s">
-        <v>630</v>
-      </c>
-      <c r="D148" t="s">
         <v>625</v>
-      </c>
-      <c r="E148" t="s">
-        <v>626</v>
-      </c>
-      <c r="F148" t="s">
-        <v>15</v>
-      </c>
-      <c r="G148" t="s">
-        <v>627</v>
-      </c>
-      <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
-      <c r="J148" t="s">
-        <v>536</v>
-      </c>
-      <c r="K148" t="s">
-        <v>30</v>
-      </c>
-      <c r="L148" t="s">
-        <v>628</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H76" r:id="rId1" location="datosabiertos " xr:uid="{5911B0A5-0C21-4814-BAF8-15335BA8C082}"/>
-    <hyperlink ref="I76" r:id="rId2" xr:uid="{C9E6B6EE-6E87-4957-B349-88CD50EABA12}"/>
-    <hyperlink ref="I91" r:id="rId3" xr:uid="{C94E5315-A85E-4A74-877B-9DEC863F6E66}"/>
-    <hyperlink ref="I96" r:id="rId4" xr:uid="{328450BD-3888-4523-BEEB-2C37E16B29C2}"/>
+    <hyperlink ref="H75" r:id="rId1" location="datosabiertos " xr:uid="{5911B0A5-0C21-4814-BAF8-15335BA8C082}"/>
+    <hyperlink ref="I75" r:id="rId2" xr:uid="{C9E6B6EE-6E87-4957-B349-88CD50EABA12}"/>
+    <hyperlink ref="I90" r:id="rId3" xr:uid="{C94E5315-A85E-4A74-877B-9DEC863F6E66}"/>
+    <hyperlink ref="I95" r:id="rId4" xr:uid="{328450BD-3888-4523-BEEB-2C37E16B29C2}"/>
     <hyperlink ref="I18" r:id="rId5" xr:uid="{4479E641-936D-4E07-AD89-A70226BE6C64}"/>
-    <hyperlink ref="I97" r:id="rId6" xr:uid="{9453A25A-ED22-47AD-9DA7-1EEEE458E0A6}"/>
-    <hyperlink ref="I98" r:id="rId7" xr:uid="{AC4861FE-44F3-453C-B9FB-C3BAE0D83FD7}"/>
-    <hyperlink ref="I99" r:id="rId8" xr:uid="{DB598F35-4F10-44FA-845E-BC09D5BBB9A0}"/>
-    <hyperlink ref="I100" r:id="rId9" xr:uid="{FE516EE0-ED5B-488C-9714-20321DE0A1F9}"/>
+    <hyperlink ref="I96" r:id="rId6" xr:uid="{9453A25A-ED22-47AD-9DA7-1EEEE458E0A6}"/>
+    <hyperlink ref="I97" r:id="rId7" xr:uid="{AC4861FE-44F3-453C-B9FB-C3BAE0D83FD7}"/>
+    <hyperlink ref="I98" r:id="rId8" xr:uid="{DB598F35-4F10-44FA-845E-BC09D5BBB9A0}"/>
+    <hyperlink ref="I99" r:id="rId9" xr:uid="{FE516EE0-ED5B-488C-9714-20321DE0A1F9}"/>
     <hyperlink ref="I21" r:id="rId10" xr:uid="{2941D0D9-FD68-49BD-BE97-E5CEF91C19F1}"/>
     <hyperlink ref="I22" r:id="rId11" xr:uid="{8C6D62BB-5F77-4E43-A2C0-4B9C82D8B833}"/>
     <hyperlink ref="I27" r:id="rId12" xr:uid="{044C2CB3-B42D-4008-AB57-7D2A34CC4E84}"/>
@@ -7910,29 +7883,29 @@
     <hyperlink ref="I29" r:id="rId14" xr:uid="{4A6C8201-1574-4551-9A9C-F243CDFC088B}"/>
     <hyperlink ref="H16" r:id="rId15" xr:uid="{2A01B5CB-6E13-4421-AF4E-2DEF27E17522}"/>
     <hyperlink ref="I16" r:id="rId16" xr:uid="{94228EAD-A640-40EC-9EBB-226D4CB50133}"/>
-    <hyperlink ref="H94" r:id="rId17" xr:uid="{43B8B26A-48BD-40F3-94AA-B4FE7AFC090B}"/>
-    <hyperlink ref="I94" r:id="rId18" xr:uid="{0E77E100-B94E-4689-9861-3926BDD5F1C2}"/>
-    <hyperlink ref="H95" r:id="rId19" xr:uid="{303E2F96-9C17-4AC1-9979-3D5DFF967B79}"/>
-    <hyperlink ref="I95" r:id="rId20" xr:uid="{20D5A78D-E1DE-4773-9544-4D2C520F2903}"/>
-    <hyperlink ref="I101" r:id="rId21" xr:uid="{675F0F9F-48B7-44BE-8415-0DFC7DCDA382}"/>
+    <hyperlink ref="H93" r:id="rId17" xr:uid="{43B8B26A-48BD-40F3-94AA-B4FE7AFC090B}"/>
+    <hyperlink ref="I93" r:id="rId18" xr:uid="{0E77E100-B94E-4689-9861-3926BDD5F1C2}"/>
+    <hyperlink ref="H94" r:id="rId19" xr:uid="{303E2F96-9C17-4AC1-9979-3D5DFF967B79}"/>
+    <hyperlink ref="I94" r:id="rId20" xr:uid="{20D5A78D-E1DE-4773-9544-4D2C520F2903}"/>
+    <hyperlink ref="I100" r:id="rId21" xr:uid="{675F0F9F-48B7-44BE-8415-0DFC7DCDA382}"/>
     <hyperlink ref="I31" r:id="rId22" xr:uid="{914239B8-66A3-4B5A-BFDA-A0DD4CC21F97}"/>
     <hyperlink ref="H31" r:id="rId23" xr:uid="{146728A6-A4D8-4655-9AC6-E4AFC9487D85}"/>
-    <hyperlink ref="H101" r:id="rId24" xr:uid="{77E6D235-047D-4604-9151-F6D390761670}"/>
-    <hyperlink ref="H102" r:id="rId25" xr:uid="{CBE902CB-B0AB-48A1-AEB4-B161B4B9805A}"/>
+    <hyperlink ref="H100" r:id="rId24" xr:uid="{77E6D235-047D-4604-9151-F6D390761670}"/>
+    <hyperlink ref="H101" r:id="rId25" xr:uid="{CBE902CB-B0AB-48A1-AEB4-B161B4B9805A}"/>
     <hyperlink ref="H70" r:id="rId26" xr:uid="{5B6DFFFC-2AC1-489A-A901-760C70C922B3}"/>
     <hyperlink ref="H71" r:id="rId27" xr:uid="{BD5652B3-697C-4C44-953D-CAB46A31F9B0}"/>
     <hyperlink ref="H72" r:id="rId28" xr:uid="{28092483-2915-418B-A2AF-12AB85843ECE}"/>
     <hyperlink ref="I70" r:id="rId29" xr:uid="{2F9FC809-7044-49F3-AD2A-337755DC1F7E}"/>
     <hyperlink ref="I71" r:id="rId30" xr:uid="{48DE6A5E-29CD-479E-A57E-6C321D874174}"/>
     <hyperlink ref="I72" r:id="rId31" xr:uid="{75950DFD-39AB-4949-8A68-8C6D8137D57C}"/>
-    <hyperlink ref="H136" r:id="rId32" xr:uid="{1CEE2C1C-5CAA-4221-9E9E-023216550247}"/>
-    <hyperlink ref="I136" r:id="rId33" display="https://www.dropbox.com/scl/fi/7m1z10fp5kfeodsxiwgyi/8.1.xlsx?cloud_editor=excel&amp;dl=0&amp;rlkey=zjmyfc1pkvo57zz610q9in13r" xr:uid="{A8BDBCBD-3D45-433E-945C-C50EF42330AA}"/>
+    <hyperlink ref="H135" r:id="rId32" xr:uid="{1CEE2C1C-5CAA-4221-9E9E-023216550247}"/>
+    <hyperlink ref="I135" r:id="rId33" display="https://www.dropbox.com/scl/fi/7m1z10fp5kfeodsxiwgyi/8.1.xlsx?cloud_editor=excel&amp;dl=0&amp;rlkey=zjmyfc1pkvo57zz610q9in13r" xr:uid="{A8BDBCBD-3D45-433E-945C-C50EF42330AA}"/>
     <hyperlink ref="H73" r:id="rId34" xr:uid="{2D514D50-5C2E-4495-96EE-18447C70E010}"/>
     <hyperlink ref="I73" r:id="rId35" xr:uid="{71AA66DE-A95F-45E5-A807-39BAEBABCD4A}"/>
     <hyperlink ref="H37" r:id="rId36" xr:uid="{6C5E3E67-C5AC-47FF-8E1F-0B6D283FBB47}"/>
-    <hyperlink ref="H124" r:id="rId37" xr:uid="{05278A2C-EF32-4288-AC79-E2F3C414DCB0}"/>
-    <hyperlink ref="H126" r:id="rId38" xr:uid="{465BC4F3-228B-4122-9B29-D51AB49EBEC3}"/>
-    <hyperlink ref="H125" r:id="rId39" xr:uid="{CF7976C9-7F90-4DC9-A637-E9D9624A45D4}"/>
+    <hyperlink ref="H123" r:id="rId37" xr:uid="{05278A2C-EF32-4288-AC79-E2F3C414DCB0}"/>
+    <hyperlink ref="H125" r:id="rId38" xr:uid="{465BC4F3-228B-4122-9B29-D51AB49EBEC3}"/>
+    <hyperlink ref="H124" r:id="rId39" xr:uid="{CF7976C9-7F90-4DC9-A637-E9D9624A45D4}"/>
     <hyperlink ref="I17" r:id="rId40" xr:uid="{53595853-D5EB-4109-8B5D-34F99DF8A989}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00Consolidado Tablas Madre.xlsx
+++ b/00Consolidado Tablas Madre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCN\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47820538-CB65-48C5-9C6B-DCECFF3DF647}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAD15F1-DD1C-4C86-904B-941F0F53C99F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="623">
   <si>
     <t>Código Tabla</t>
   </si>
@@ -1889,24 +1889,6 @@
   </si>
   <si>
     <t>Desembarque total  año 2019 de pesca y acuicultura por puerto y especie</t>
-  </si>
-  <si>
-    <t>19.5</t>
-  </si>
-  <si>
-    <t>COSECHA_CHILE_DE_CENTROS_ACUICULTURA_2019_TONELADAS</t>
-  </si>
-  <si>
-    <t>Cosecha de especies en centros de acuicultura por especie y region año 2019</t>
-  </si>
-  <si>
-    <t>19.6</t>
-  </si>
-  <si>
-    <t>COSECHA_CENTROS_ACUICULTURA_ESPECIE_MES_2019_TONELADA</t>
-  </si>
-  <si>
-    <t>Cosecha de especies en centros de acuicultura por especie y por mes año 2019</t>
   </si>
   <si>
     <t>20</t>
@@ -2607,8 +2589,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A11:L147" totalsRowShown="0">
-  <autoFilter ref="A11:L147" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A11:L145" totalsRowShown="0">
+  <autoFilter ref="A11:L145" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:J135">
     <sortCondition ref="A11:A135"/>
   </sortState>
@@ -2927,11 +2909,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD49B1B1-33D3-49D9-BF85-AA2E2407F985}">
-  <dimension ref="A11:L147"/>
+  <dimension ref="A11:L145"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <pane ySplit="11" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4540,7 +4522,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="B54" t="s">
         <v>240</v>
@@ -7737,131 +7719,59 @@
       <c r="B144" t="s">
         <v>615</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>616</v>
       </c>
-      <c r="D144" t="s">
-        <v>115</v>
-      </c>
       <c r="E144" t="s">
-        <v>14</v>
+        <v>617</v>
       </c>
       <c r="F144" t="s">
         <v>15</v>
       </c>
       <c r="G144" t="s">
-        <v>313</v>
-      </c>
-      <c r="H144" s="1" t="s">
-        <v>316</v>
-      </c>
+        <v>618</v>
+      </c>
+      <c r="H144" s="10"/>
       <c r="I144" s="1"/>
       <c r="J144" t="s">
-        <v>159</v>
+        <v>533</v>
       </c>
       <c r="K144" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="L144" t="s">
-        <v>315</v>
+        <v>619</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
+        <v>620</v>
+      </c>
+      <c r="B145" t="s">
+        <v>621</v>
+      </c>
+      <c r="D145" t="s">
+        <v>616</v>
+      </c>
+      <c r="E145" t="s">
         <v>617</v>
       </c>
-      <c r="B145" t="s">
+      <c r="F145" t="s">
+        <v>15</v>
+      </c>
+      <c r="G145" t="s">
         <v>618</v>
       </c>
-      <c r="C145" t="s">
-        <v>619</v>
-      </c>
-      <c r="D145" t="s">
-        <v>115</v>
-      </c>
-      <c r="E145" t="s">
-        <v>14</v>
-      </c>
-      <c r="F145" t="s">
-        <v>15</v>
-      </c>
-      <c r="G145" t="s">
-        <v>313</v>
-      </c>
-      <c r="H145" s="1" t="s">
-        <v>316</v>
-      </c>
+      <c r="H145" s="1"/>
       <c r="I145" s="1"/>
       <c r="J145" t="s">
-        <v>159</v>
+        <v>533</v>
       </c>
       <c r="K145" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="L145" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A146" s="13" t="s">
-        <v>620</v>
-      </c>
-      <c r="B146" t="s">
-        <v>621</v>
-      </c>
-      <c r="D146" t="s">
-        <v>622</v>
-      </c>
-      <c r="E146" t="s">
-        <v>623</v>
-      </c>
-      <c r="F146" t="s">
-        <v>15</v>
-      </c>
-      <c r="G146" t="s">
-        <v>624</v>
-      </c>
-      <c r="H146" s="10"/>
-      <c r="I146" s="1"/>
-      <c r="J146" t="s">
-        <v>533</v>
-      </c>
-      <c r="K146" t="s">
-        <v>30</v>
-      </c>
-      <c r="L146" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" s="13" t="s">
-        <v>626</v>
-      </c>
-      <c r="B147" t="s">
-        <v>627</v>
-      </c>
-      <c r="D147" t="s">
-        <v>622</v>
-      </c>
-      <c r="E147" t="s">
-        <v>623</v>
-      </c>
-      <c r="F147" t="s">
-        <v>15</v>
-      </c>
-      <c r="G147" t="s">
-        <v>624</v>
-      </c>
-      <c r="H147" s="1"/>
-      <c r="I147" s="1"/>
-      <c r="J147" t="s">
-        <v>533</v>
-      </c>
-      <c r="K147" t="s">
-        <v>30</v>
-      </c>
-      <c r="L147" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>

--- a/00Consolidado Tablas Madre.xlsx
+++ b/00Consolidado Tablas Madre.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCN\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAD15F1-DD1C-4C86-904B-941F0F53C99F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8DC3A4-4E6B-40F7-8E5A-3FA21AF588C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidado" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="SegmentaciónDeDatos_Sector">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_Unidad_de_Medida">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -41,12 +41,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="579">
   <si>
     <t>Código Tabla</t>
   </si>
@@ -489,12 +498,6 @@
     <t>17.1</t>
   </si>
   <si>
-    <t>Porcentaje_ganado_segun_explotacion</t>
-  </si>
-  <si>
-    <t>Dsitribución (%) de explotación por actividad principal (lechería, engorda y crianza) por provincia. BOVINO</t>
-  </si>
-  <si>
     <t>Porcentaje</t>
   </si>
   <si>
@@ -507,18 +510,9 @@
     <t>https://www.odepa.gob.cl/wp-content/uploads/2020/06/Bovinos-2019-Tabulados_B2019.xlsx</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/s/p42l9yngbyfyqz4/17.1.xlsx?dl=0</t>
-  </si>
-  <si>
     <t>17.10</t>
   </si>
   <si>
-    <t>Faena_bovinos_matadero_tonelada_carne_en_vara</t>
-  </si>
-  <si>
-    <t>Faena de Bovino en mataderos, tonelada carne en vara anual</t>
-  </si>
-  <si>
     <t>https://bibliotecadigital.odepa.gob.cl/bitstream/handle/20.500.12650/70669/Boletin_carne_bov-feb21.xlsx</t>
   </si>
   <si>
@@ -558,12 +552,6 @@
     <t>17.19</t>
   </si>
   <si>
-    <t>Faena_vacas_segun_total_faena_bovinos_matadero_cantidad_cabezas_Anual</t>
-  </si>
-  <si>
-    <t>Faena de vacas del total de Faena de Bovinos, numero de cabezas anual</t>
-  </si>
-  <si>
     <t>17.2</t>
   </si>
   <si>
@@ -600,51 +588,21 @@
     <t>17.21</t>
   </si>
   <si>
-    <t>Faena_vaquilla_segun_total_faena_bovinos_matadero_cantidad_cabezas_Anual</t>
-  </si>
-  <si>
-    <t>Faena de vaquilla del total de Faena de Bovinos, numero de cabezas anual</t>
-  </si>
-  <si>
     <t>17.22</t>
   </si>
   <si>
-    <t>tonelada_exportacion_carne_bovino_por_destino_tonelada_2020</t>
-  </si>
-  <si>
-    <t>paises de destino de exportacion de carne bovino toneladas año 2020</t>
-  </si>
-  <si>
     <t>17.23</t>
   </si>
   <si>
-    <t>valor_miles_usd_fob_exportacion_carne_bovino_por_destino_tonelada_2020</t>
-  </si>
-  <si>
-    <t>paises de destino de exportacion de carne bovino Miles de USD FOP año2020</t>
-  </si>
-  <si>
     <t>US$ FOB</t>
   </si>
   <si>
     <t>17.24</t>
   </si>
   <si>
-    <t>Exportaciones_carne__por_principales_productos_destinos_tonelada_2020</t>
-  </si>
-  <si>
-    <t>Exportaciones de carne bovino por principales productos y destinos tonelada  año 2020</t>
-  </si>
-  <si>
     <t>17.25</t>
   </si>
   <si>
-    <t>Exportaciones_carne__por_principales_productos_destinos_miles_usd_fob_2020</t>
-  </si>
-  <si>
-    <t>Exportaciones de carne bovino por principales productos y destinos miles usd fob  año 2020</t>
-  </si>
-  <si>
     <t>17.27</t>
   </si>
   <si>
@@ -669,18 +627,6 @@
     <t>https://www.dropbox.com/s/x5eheg6xji61wrw/17.28.xlsx?dl=0</t>
   </si>
   <si>
-    <t>17.29</t>
-  </si>
-  <si>
-    <t>Cabezas_bovino_lechería</t>
-  </si>
-  <si>
-    <t>Número de cabezas de ganado bovino de lechería por categoría, según región y provincia (2019).</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/g2bgapw6nwzn6yp/17.29.xlsx?dl=0</t>
-  </si>
-  <si>
     <t>17.3</t>
   </si>
   <si>
@@ -693,87 +639,36 @@
     <t>https://www.dropbox.com/s/e7c1bu1gajhmlxk/17.3.xlsx?dl=0</t>
   </si>
   <si>
-    <t>17.30</t>
-  </si>
-  <si>
-    <t>Cabezas_bovino_carne</t>
-  </si>
-  <si>
-    <t>Número de cabezas de ganado bovino para carne por categoría, según región y provincia (2019).</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/p8t69mdfqmnx7t5/17.30.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>17.31</t>
-  </si>
-  <si>
     <t>Cabezas_bovino_2007_2019</t>
   </si>
   <si>
     <t>Número de cabezas de ganado bovino en 2007, 2015, 2017 y 2019, según región y provincia.</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/s/3oomvkhlpc7zzc4/17.31.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>17.32</t>
-  </si>
-  <si>
     <t>Cabezas_vacas_vaquillas_2007_2019</t>
   </si>
   <si>
     <t>Número de cabezas de vacas y vaquillas en 2007, 2015, 2017 y 2019, según región y provincia.</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/s/ungpn2khjodyjy7/17.32.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>17.33</t>
-  </si>
-  <si>
     <t>Distribución_explotación_lechería</t>
   </si>
   <si>
     <t>Distribución del número de explotaciones por tipo de lechería, según región y provincia (2019).</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/s/ns3ktxe6ockqxos/17.33.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>17.34</t>
-  </si>
-  <si>
     <t>Distribución_explotación_comercialización</t>
   </si>
   <si>
     <t>Distribución del número de explotaciones por principal canal de comercialización en los últimos 12 meses, según región y provincia (2019).</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/s/tuur3olkidprp9n/17.34.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>17.35</t>
-  </si>
-  <si>
     <t>Distribución_origen_animales_engorda</t>
   </si>
   <si>
     <t>Distribución del número de explotaciones por origen de los animales para engorda en explotaciones productoras de carne, según región y provincia (2019).</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/s/cbdlz56zlx8bwt2/17.35.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>17.36</t>
-  </si>
-  <si>
-    <t>Exportaciones_subproductos_bovinos_por_tipo_destinos_tonelada_2020</t>
-  </si>
-  <si>
-    <t>Exportaciones de subproductos bovinos por tipo y destinos en toneladas año 2020</t>
-  </si>
-  <si>
     <t>Costo_producción_leche</t>
   </si>
   <si>
@@ -783,36 +678,6 @@
     <t>$/Litro</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/s/sqr3g4a6f1qkwxk/17.36.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>17.37</t>
-  </si>
-  <si>
-    <t>Exportaciones_subproductos_bovinos_por_tipo_destinos_miles_usd_fob_2020</t>
-  </si>
-  <si>
-    <t>Exportaciones de subproductos bovinos por tipo y destinos en miles usd fob año 2020</t>
-  </si>
-  <si>
-    <t>17.38</t>
-  </si>
-  <si>
-    <t>Importaciones_carne_Bovino_por_origen_toneladas_2020</t>
-  </si>
-  <si>
-    <t>Importaciones de carne de bovino por origen en toneladas año 2020</t>
-  </si>
-  <si>
-    <t>17.39</t>
-  </si>
-  <si>
-    <t>Importaciones_carne_Bovino_por_origen_miles_usd_CIF_2020</t>
-  </si>
-  <si>
-    <t>Importaciones de carne de bovino por origen en  miles de USD CIF año 2020</t>
-  </si>
-  <si>
     <t>US$ CIF</t>
   </si>
   <si>
@@ -825,45 +690,6 @@
     <t>Produccion de carne aculumado en toneladas</t>
   </si>
   <si>
-    <t>17.40</t>
-  </si>
-  <si>
-    <t>Importaciones_carne_bovino_por_productos_origen_tonelada_2020</t>
-  </si>
-  <si>
-    <t>Importaciones de carne de bovino por productos y origen en toneladas año 2020</t>
-  </si>
-  <si>
-    <t>17.41</t>
-  </si>
-  <si>
-    <t>Importaciones_carne_bovino_por_productos_origen_miles_usd_CIF_2020</t>
-  </si>
-  <si>
-    <t>Importaciones de carne de bovino por productos y origen en miles de USD CIF año 2020</t>
-  </si>
-  <si>
-    <t>17.42</t>
-  </si>
-  <si>
-    <t>Importaciones_subproductos_bovinos_por_tipo_origen_toneladas_2020</t>
-  </si>
-  <si>
-    <t>Importaciones de subproductos bovinos por tipo y origen en miles de USD CIF año 2020</t>
-  </si>
-  <si>
-    <t>17.43</t>
-  </si>
-  <si>
-    <t>Importaciones_subproductos_bovinos_por_tipo_origen_miles_usd_cif_2020</t>
-  </si>
-  <si>
-    <t>Importaciones de subproductos bovinos por tipo y origen en toneladas año 2021</t>
-  </si>
-  <si>
-    <t>17.44</t>
-  </si>
-  <si>
     <t>Importaciones_semanales_carne_bovina_toneladas</t>
   </si>
   <si>
@@ -873,21 +699,9 @@
     <t>17.5</t>
   </si>
   <si>
-    <t>Importaciones_carne_acumuladas_en_toneladas</t>
-  </si>
-  <si>
-    <t>Importaciones de carne aculumado en toneladas</t>
-  </si>
-  <si>
     <t>17.6</t>
   </si>
   <si>
-    <t>Exportaciones_carne_acumulado_enero_en_tonaledas</t>
-  </si>
-  <si>
-    <t>Exportaciones de carne aculumado en toneladas</t>
-  </si>
-  <si>
     <t>17.7</t>
   </si>
   <si>
@@ -898,12 +712,6 @@
   </si>
   <si>
     <t>17.8</t>
-  </si>
-  <si>
-    <t>Faena_bovinos_matadero_cantidad_animales_por_año</t>
-  </si>
-  <si>
-    <t>Faena de Bovino en mataderos, numero de cabezas anual</t>
   </si>
   <si>
     <t>17.9</t>
@@ -1891,6 +1699,15 @@
     <t>Desembarque total  año 2019 de pesca y acuicultura por puerto y especie</t>
   </si>
   <si>
+    <t>19.5</t>
+  </si>
+  <si>
+    <t>COSECHA_CHILE_DE_CENTROS_ACUICULTURA_2019_TONELADAS</t>
+  </si>
+  <si>
+    <t>Cosecha de especies en centros de acuicultura por especie y region año 2019</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
@@ -1916,6 +1733,66 @@
   </si>
   <si>
     <t>17.26</t>
+  </si>
+  <si>
+    <t>Exportaciones de carne bovino por principales productos, subproductos y destinos miles usd fob  año 2020</t>
+  </si>
+  <si>
+    <t>Exportaciones_productos_subproductos_destinos_miles_usd_fob_2020</t>
+  </si>
+  <si>
+    <t>Importaciones de carne de bovino por productos, subproductos y origen en toneladas año 2020</t>
+  </si>
+  <si>
+    <t>Importaciones_carne_bovino_productos_subproducto_origen_toneladas_2020</t>
+  </si>
+  <si>
+    <t>Importaciones de carne de bovino por productos, subproductos y origen en miles de USD CIF año 2020</t>
+  </si>
+  <si>
+    <t>Importaciones_carne_bovino_productos_subproductos_origen_miles_usd_CIF_2020</t>
+  </si>
+  <si>
+    <t>Exportaciones de carne bovino por principales productos, subproductos y destinos tonelada  año 2020</t>
+  </si>
+  <si>
+    <t>Exportaciones_carne_productos_subproductos_destinos_tonelada_2020</t>
+  </si>
+  <si>
+    <t>Número de cabezas de ganado bovino para carne o lechería por categoría, según región y provincia (2019).</t>
+  </si>
+  <si>
+    <t>Cabezas_bovino_carne_leche</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/s93vy4gbld4weaf/17.1.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/io77pa73umenn8g/17.5.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/epa5tgys0eu6vk2/17.6.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/g354sf991u3e4oz/17.8.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/lec3jip5frkhk62/17.10.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/k0tdg52qy2nlbkd/17.19.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/voil5dbe0we0uuh/17.21.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/rjbcsnfhbwgq5cp/17.22.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/7mqvw2urbmmnwmn/17.23.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/1jga25l3osqf8an/17.26.xlsx?dl=0</t>
   </si>
 </sst>
 </file>
@@ -2589,10 +2466,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A11:L145" totalsRowShown="0">
-  <autoFilter ref="A11:L145" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:J135">
-    <sortCondition ref="A11:A135"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A11:L130" totalsRowShown="0">
+  <autoFilter ref="A11:L130" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:J119">
+    <sortCondition ref="A11:A119"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{7C5348D6-A85E-4EC9-97BD-67166306597F}" name="Código Tabla" dataDxfId="0"/>
@@ -2909,11 +2786,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD49B1B1-33D3-49D9-BF85-AA2E2407F985}">
-  <dimension ref="A11:L145"/>
+  <dimension ref="A11:L130"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B151" sqref="B151"/>
+      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3686,31 +3563,31 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B32" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" t="s">
         <v>147</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E32" t="s">
         <v>148</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" t="s">
         <v>149</v>
       </c>
-      <c r="E32" t="s">
+      <c r="H32" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" t="s">
-        <v>151</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="I32" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="J32" t="s">
         <v>19</v>
@@ -3719,97 +3596,97 @@
         <v>64</v>
       </c>
       <c r="L32" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s">
+        <v>149</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J33" t="s">
         <v>154</v>
-      </c>
-      <c r="B33" t="s">
-        <v>155</v>
-      </c>
-      <c r="C33" t="s">
-        <v>156</v>
-      </c>
-      <c r="D33" t="s">
-        <v>115</v>
-      </c>
-      <c r="E33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" t="s">
-        <v>151</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J33" t="s">
-        <v>159</v>
       </c>
       <c r="K33" t="s">
         <v>64</v>
       </c>
       <c r="L33" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B34" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C34" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D34" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="E34" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="F34" t="s">
         <v>15</v>
       </c>
       <c r="G34" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="J34" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="K34" t="s">
         <v>64</v>
       </c>
       <c r="L34" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B35" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C35" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D35" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E35" t="s">
         <v>14</v>
@@ -3818,36 +3695,36 @@
         <v>15</v>
       </c>
       <c r="G35" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="J35" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K35" t="s">
         <v>64</v>
       </c>
       <c r="L35" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B36" t="s">
-        <v>170</v>
+        <v>566</v>
       </c>
       <c r="C36" t="s">
-        <v>171</v>
+        <v>565</v>
       </c>
       <c r="D36" t="s">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="E36" t="s">
         <v>14</v>
@@ -3856,74 +3733,74 @@
         <v>15</v>
       </c>
       <c r="G36" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="J36" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K36" t="s">
         <v>64</v>
       </c>
       <c r="L36" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B37" t="s">
-        <v>173</v>
+        <v>560</v>
       </c>
       <c r="C37" t="s">
-        <v>174</v>
+        <v>559</v>
       </c>
       <c r="D37" t="s">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="E37" t="s">
-        <v>175</v>
+        <v>14</v>
       </c>
       <c r="F37" t="s">
         <v>15</v>
       </c>
       <c r="G37" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="J37" t="s">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c r="K37" t="s">
         <v>64</v>
       </c>
       <c r="L37" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B38" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C38" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D38" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="E38" t="s">
         <v>14</v>
@@ -3932,37 +3809,37 @@
         <v>15</v>
       </c>
       <c r="G38" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="J38" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="K38" t="s">
         <v>64</v>
       </c>
       <c r="L38" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B39" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C39" t="s">
+        <v>188</v>
+      </c>
+      <c r="D39" t="s">
         <v>185</v>
       </c>
-      <c r="D39" t="s">
-        <v>168</v>
-      </c>
       <c r="E39" t="s">
         <v>14</v>
       </c>
@@ -3970,74 +3847,74 @@
         <v>15</v>
       </c>
       <c r="G39" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="J39" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="K39" t="s">
         <v>64</v>
       </c>
       <c r="L39" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B40" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C40" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D40" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="F40" t="s">
         <v>15</v>
       </c>
       <c r="G40" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="J40" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="K40" t="s">
         <v>64</v>
       </c>
       <c r="L40" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>189</v>
+        <v>558</v>
       </c>
       <c r="B41" t="s">
-        <v>190</v>
+        <v>568</v>
       </c>
       <c r="C41" t="s">
-        <v>191</v>
+        <v>567</v>
       </c>
       <c r="D41" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E41" t="s">
         <v>14</v>
@@ -4046,27 +3923,27 @@
         <v>15</v>
       </c>
       <c r="G41" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>158</v>
+        <v>578</v>
       </c>
       <c r="J41" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="K41" t="s">
         <v>64</v>
       </c>
       <c r="L41" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B42" t="s">
         <v>194</v>
@@ -4075,7 +3952,7 @@
         <v>195</v>
       </c>
       <c r="D42" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="E42" t="s">
         <v>14</v>
@@ -4084,36 +3961,36 @@
         <v>15</v>
       </c>
       <c r="G42" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>158</v>
+        <v>577</v>
       </c>
       <c r="J42" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="K42" t="s">
         <v>64</v>
       </c>
       <c r="L42" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B43" t="s">
         <v>196</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>197</v>
       </c>
-      <c r="C43" t="s">
-        <v>198</v>
-      </c>
       <c r="D43" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E43" t="s">
         <v>14</v>
@@ -4122,36 +3999,36 @@
         <v>15</v>
       </c>
       <c r="G43" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>158</v>
+        <v>576</v>
       </c>
       <c r="J43" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="K43" t="s">
         <v>64</v>
       </c>
       <c r="L43" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B44" t="s">
+        <v>198</v>
+      </c>
+      <c r="C44" t="s">
         <v>199</v>
       </c>
-      <c r="B44" t="s">
-        <v>200</v>
-      </c>
-      <c r="C44" t="s">
-        <v>201</v>
-      </c>
       <c r="D44" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="E44" t="s">
         <v>14</v>
@@ -4160,13 +4037,13 @@
         <v>15</v>
       </c>
       <c r="G44" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>157</v>
+        <v>575</v>
       </c>
       <c r="J44" t="s">
         <v>137</v>
@@ -4175,21 +4052,21 @@
         <v>64</v>
       </c>
       <c r="L44" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="B45" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C45" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D45" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="E45" t="s">
         <v>14</v>
@@ -4198,13 +4075,13 @@
         <v>15</v>
       </c>
       <c r="G45" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>206</v>
+        <v>574</v>
       </c>
       <c r="J45" t="s">
         <v>137</v>
@@ -4213,21 +4090,21 @@
         <v>64</v>
       </c>
       <c r="L45" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="B46" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C46" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D46" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="E46" t="s">
         <v>14</v>
@@ -4236,13 +4113,13 @@
         <v>15</v>
       </c>
       <c r="G46" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>210</v>
+        <v>573</v>
       </c>
       <c r="J46" t="s">
         <v>137</v>
@@ -4251,59 +4128,59 @@
         <v>64</v>
       </c>
       <c r="L46" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B47" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C47" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D47" t="s">
+        <v>206</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" t="s">
         <v>149</v>
-      </c>
-      <c r="E47" t="s">
-        <v>150</v>
-      </c>
-      <c r="F47" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" t="s">
-        <v>151</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>152</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>214</v>
+        <v>572</v>
       </c>
       <c r="J47" t="s">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="K47" t="s">
         <v>64</v>
       </c>
       <c r="L47" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B48" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C48" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D48" t="s">
-        <v>202</v>
+        <v>115</v>
       </c>
       <c r="E48" t="s">
         <v>14</v>
@@ -4312,36 +4189,36 @@
         <v>15</v>
       </c>
       <c r="G48" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>218</v>
+        <v>153</v>
       </c>
       <c r="J48" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="K48" t="s">
         <v>64</v>
       </c>
       <c r="L48" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B49" t="s">
-        <v>220</v>
+        <v>562</v>
       </c>
       <c r="C49" t="s">
-        <v>221</v>
+        <v>561</v>
       </c>
       <c r="D49" t="s">
-        <v>202</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
         <v>14</v>
@@ -4350,36 +4227,36 @@
         <v>15</v>
       </c>
       <c r="G49" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>222</v>
+        <v>571</v>
       </c>
       <c r="J49" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="K49" t="s">
         <v>64</v>
       </c>
       <c r="L49" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B50" t="s">
-        <v>224</v>
+        <v>564</v>
       </c>
       <c r="C50" t="s">
-        <v>225</v>
+        <v>563</v>
       </c>
       <c r="D50" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E50" t="s">
         <v>14</v>
@@ -4388,150 +4265,150 @@
         <v>15</v>
       </c>
       <c r="G50" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>226</v>
+        <v>570</v>
       </c>
       <c r="J50" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="K50" t="s">
         <v>64</v>
       </c>
       <c r="L50" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>227</v>
+        <v>146</v>
       </c>
       <c r="B51" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="C51" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="D51" t="s">
+        <v>115</v>
+      </c>
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" t="s">
         <v>149</v>
       </c>
-      <c r="E51" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" t="s">
-        <v>151</v>
-      </c>
       <c r="H51" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>230</v>
+        <v>569</v>
       </c>
       <c r="J51" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="K51" t="s">
         <v>64</v>
       </c>
       <c r="L51" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="B52" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="C52" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="D52" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" t="s">
         <v>149</v>
       </c>
-      <c r="E52" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" t="s">
-        <v>151</v>
-      </c>
       <c r="H52" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>234</v>
+        <v>153</v>
       </c>
       <c r="J52" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="K52" t="s">
         <v>64</v>
       </c>
       <c r="L52" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="B53" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="C53" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="D53" t="s">
+        <v>115</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" t="s">
         <v>149</v>
       </c>
-      <c r="E53" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" t="s">
-        <v>151</v>
-      </c>
       <c r="H53" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>238</v>
+        <v>153</v>
       </c>
       <c r="J53" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="K53" t="s">
         <v>64</v>
       </c>
       <c r="L53" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>622</v>
+        <v>222</v>
       </c>
       <c r="B54" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="C54" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="D54" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="E54" t="s">
         <v>14</v>
@@ -4540,36 +4417,36 @@
         <v>15</v>
       </c>
       <c r="G54" t="s">
-        <v>151</v>
+        <v>225</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>157</v>
+        <v>226</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>158</v>
+        <v>227</v>
       </c>
       <c r="J54" t="s">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="K54" t="s">
         <v>64</v>
       </c>
       <c r="L54" t="s">
-        <v>160</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B55" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C55" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D55" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="E55" t="s">
         <v>14</v>
@@ -4578,36 +4455,36 @@
         <v>15</v>
       </c>
       <c r="G55" t="s">
-        <v>151</v>
+        <v>225</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>157</v>
+        <v>226</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="J55" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="K55" t="s">
         <v>64</v>
       </c>
       <c r="L55" t="s">
-        <v>160</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="B56" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C56" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="D56" t="s">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="E56" t="s">
         <v>14</v>
@@ -4616,36 +4493,36 @@
         <v>15</v>
       </c>
       <c r="G56" t="s">
-        <v>151</v>
+        <v>225</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>157</v>
+        <v>226</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>158</v>
+        <v>236</v>
       </c>
       <c r="J56" t="s">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="K56" t="s">
         <v>64</v>
       </c>
       <c r="L56" t="s">
-        <v>160</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B57" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C57" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D57" t="s">
-        <v>115</v>
+        <v>240</v>
       </c>
       <c r="E57" t="s">
         <v>14</v>
@@ -4654,36 +4531,36 @@
         <v>15</v>
       </c>
       <c r="G57" t="s">
-        <v>151</v>
+        <v>225</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>157</v>
+        <v>241</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>158</v>
+        <v>242</v>
       </c>
       <c r="J57" t="s">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="K57" t="s">
         <v>64</v>
       </c>
       <c r="L57" t="s">
-        <v>160</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B58" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C58" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D58" t="s">
-        <v>255</v>
+        <v>115</v>
       </c>
       <c r="E58" t="s">
         <v>14</v>
@@ -4692,60 +4569,58 @@
         <v>15</v>
       </c>
       <c r="G58" t="s">
-        <v>151</v>
+        <v>246</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>158</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="I58" s="1"/>
       <c r="J58" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K58" t="s">
         <v>64</v>
       </c>
       <c r="L58" t="s">
-        <v>160</v>
+        <v>248</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="B59" t="s">
+        <v>251</v>
+      </c>
+      <c r="C59" t="s">
+        <v>252</v>
+      </c>
+      <c r="D59" t="s">
+        <v>76</v>
+      </c>
+      <c r="E59" t="s">
+        <v>253</v>
+      </c>
+      <c r="F59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" t="s">
+        <v>254</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I59" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B59" t="s">
+      <c r="J59" t="s">
+        <v>96</v>
+      </c>
+      <c r="K59" t="s">
         <v>257</v>
       </c>
-      <c r="C59" t="s">
+      <c r="L59" t="s">
         <v>258</v>
-      </c>
-      <c r="D59" t="s">
-        <v>115</v>
-      </c>
-      <c r="E59" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" t="s">
-        <v>15</v>
-      </c>
-      <c r="G59" t="s">
-        <v>151</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J59" t="s">
-        <v>159</v>
-      </c>
-      <c r="K59" t="s">
-        <v>64</v>
-      </c>
-      <c r="L59" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -4759,7 +4634,7 @@
         <v>261</v>
       </c>
       <c r="D60" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="E60" t="s">
         <v>14</v>
@@ -4768,74 +4643,74 @@
         <v>15</v>
       </c>
       <c r="G60" t="s">
-        <v>151</v>
+        <v>254</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>157</v>
+        <v>262</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>158</v>
+        <v>263</v>
       </c>
       <c r="J60" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="K60" t="s">
-        <v>64</v>
+        <v>257</v>
       </c>
       <c r="L60" t="s">
-        <v>160</v>
+        <v>264</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="B61" t="s">
+        <v>266</v>
+      </c>
+      <c r="C61" t="s">
+        <v>267</v>
+      </c>
+      <c r="D61" t="s">
+        <v>76</v>
+      </c>
+      <c r="E61" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" t="s">
+        <v>254</v>
+      </c>
+      <c r="H61" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B61" t="s">
-        <v>263</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="I61" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J61" t="s">
+        <v>96</v>
+      </c>
+      <c r="K61" t="s">
+        <v>257</v>
+      </c>
+      <c r="L61" t="s">
         <v>264</v>
-      </c>
-      <c r="D61" t="s">
-        <v>255</v>
-      </c>
-      <c r="E61" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" t="s">
-        <v>15</v>
-      </c>
-      <c r="G61" t="s">
-        <v>151</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J61" t="s">
-        <v>159</v>
-      </c>
-      <c r="K61" t="s">
-        <v>64</v>
-      </c>
-      <c r="L61" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B62" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C62" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D62" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="E62" t="s">
         <v>14</v>
@@ -4844,112 +4719,112 @@
         <v>15</v>
       </c>
       <c r="G62" t="s">
-        <v>151</v>
+        <v>254</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>157</v>
+        <v>262</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>158</v>
+        <v>272</v>
       </c>
       <c r="J62" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="K62" t="s">
-        <v>64</v>
+        <v>257</v>
       </c>
       <c r="L62" t="s">
-        <v>160</v>
+        <v>264</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B63" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C63" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D63" t="s">
-        <v>255</v>
-      </c>
-      <c r="E63" t="s">
-        <v>14</v>
+        <v>76</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>276</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
       </c>
-      <c r="G63" t="s">
-        <v>151</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>157</v>
+      <c r="G63" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>278</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>158</v>
+        <v>279</v>
       </c>
       <c r="J63" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="K63" t="s">
-        <v>64</v>
+        <v>257</v>
       </c>
       <c r="L63" t="s">
-        <v>160</v>
+        <v>258</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B64" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="C64" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="D64" t="s">
-        <v>115</v>
-      </c>
-      <c r="E64" t="s">
-        <v>14</v>
+        <v>76</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>276</v>
       </c>
       <c r="F64" t="s">
         <v>15</v>
       </c>
       <c r="G64" t="s">
-        <v>151</v>
+        <v>277</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>157</v>
+        <v>278</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>158</v>
+        <v>283</v>
       </c>
       <c r="J64" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="K64" t="s">
-        <v>64</v>
+        <v>257</v>
       </c>
       <c r="L64" t="s">
-        <v>160</v>
+        <v>258</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="B65" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="C65" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="D65" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="E65" t="s">
         <v>14</v>
@@ -4958,71 +4833,71 @@
         <v>15</v>
       </c>
       <c r="G65" t="s">
-        <v>151</v>
+        <v>254</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>157</v>
+        <v>262</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>158</v>
+        <v>287</v>
       </c>
       <c r="J65" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="K65" t="s">
-        <v>64</v>
+        <v>257</v>
       </c>
       <c r="L65" t="s">
-        <v>160</v>
+        <v>288</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="B66" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="C66" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="D66" t="s">
-        <v>115</v>
-      </c>
-      <c r="E66" t="s">
+        <v>76</v>
+      </c>
+      <c r="E66" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F66" t="s">
         <v>15</v>
       </c>
       <c r="G66" t="s">
-        <v>151</v>
+        <v>254</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>157</v>
+        <v>262</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>158</v>
+        <v>292</v>
       </c>
       <c r="J66" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="K66" t="s">
-        <v>64</v>
+        <v>257</v>
       </c>
       <c r="L66" t="s">
-        <v>160</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="B67" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="C67" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="D67" t="s">
         <v>76</v>
@@ -5034,33 +4909,33 @@
         <v>15</v>
       </c>
       <c r="G67" t="s">
-        <v>151</v>
+        <v>254</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>157</v>
+        <v>262</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>158</v>
+        <v>296</v>
       </c>
       <c r="J67" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="K67" t="s">
-        <v>64</v>
+        <v>257</v>
       </c>
       <c r="L67" t="s">
-        <v>160</v>
+        <v>288</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="B68" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="C68" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="D68" t="s">
         <v>76</v>
@@ -5072,74 +4947,74 @@
         <v>15</v>
       </c>
       <c r="G68" t="s">
-        <v>151</v>
+        <v>254</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>157</v>
+        <v>262</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>158</v>
+        <v>300</v>
       </c>
       <c r="J68" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="K68" t="s">
-        <v>64</v>
+        <v>257</v>
       </c>
       <c r="L68" t="s">
-        <v>160</v>
+        <v>288</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="B69" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="C69" t="s">
+        <v>303</v>
+      </c>
+      <c r="D69" t="s">
+        <v>76</v>
+      </c>
+      <c r="E69" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" t="s">
+        <v>254</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="J69" t="s">
+        <v>96</v>
+      </c>
+      <c r="K69" t="s">
+        <v>257</v>
+      </c>
+      <c r="L69" t="s">
         <v>288</v>
-      </c>
-      <c r="D69" t="s">
-        <v>115</v>
-      </c>
-      <c r="E69" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" t="s">
-        <v>151</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J69" t="s">
-        <v>159</v>
-      </c>
-      <c r="K69" t="s">
-        <v>64</v>
-      </c>
-      <c r="L69" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="B70" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="C70" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="D70" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E70" t="s">
         <v>14</v>
@@ -5148,147 +5023,147 @@
         <v>15</v>
       </c>
       <c r="G70" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="J70" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="K70" t="s">
-        <v>64</v>
+        <v>257</v>
       </c>
       <c r="L70" t="s">
-        <v>65</v>
+        <v>288</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="B71" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="C71" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="D71" t="s">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="E71" t="s">
-        <v>14</v>
+        <v>312</v>
       </c>
       <c r="F71" t="s">
         <v>15</v>
       </c>
       <c r="G71" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="J71" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="K71" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="L71" t="s">
-        <v>65</v>
+        <v>316</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="B72" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="C72" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="D72" t="s">
         <v>76</v>
       </c>
       <c r="E72" t="s">
-        <v>14</v>
+        <v>312</v>
       </c>
       <c r="F72" t="s">
         <v>15</v>
       </c>
       <c r="G72" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="J72" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="K72" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="L72" t="s">
-        <v>65</v>
+        <v>316</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="B73" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="C73" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D73" t="s">
-        <v>307</v>
+        <v>76</v>
       </c>
       <c r="E73" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F73" t="s">
         <v>15</v>
       </c>
       <c r="G73" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="J73" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="K73" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="L73" t="s">
-        <v>65</v>
+        <v>316</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="B74" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="C74" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="D74" t="s">
         <v>115</v>
@@ -5299,73 +5174,71 @@
       <c r="F74" t="s">
         <v>15</v>
       </c>
-      <c r="G74" t="s">
-        <v>313</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="I74" s="1"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="1" t="s">
+        <v>329</v>
+      </c>
       <c r="J74" t="s">
-        <v>159</v>
+        <v>63</v>
       </c>
       <c r="K74" t="s">
         <v>64</v>
       </c>
       <c r="L74" t="s">
-        <v>315</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="B75" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="C75" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="D75" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="E75" t="s">
-        <v>320</v>
+        <v>14</v>
       </c>
       <c r="F75" t="s">
         <v>15</v>
       </c>
       <c r="G75" t="s">
-        <v>321</v>
+        <v>149</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="J75" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="K75" t="s">
-        <v>324</v>
+        <v>64</v>
       </c>
       <c r="L75" t="s">
-        <v>325</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="B76" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="C76" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="D76" t="s">
-        <v>76</v>
+        <v>338</v>
       </c>
       <c r="E76" t="s">
         <v>14</v>
@@ -5374,188 +5247,180 @@
         <v>15</v>
       </c>
       <c r="G76" t="s">
-        <v>321</v>
+        <v>149</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="J76" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="K76" t="s">
-        <v>324</v>
+        <v>64</v>
       </c>
       <c r="L76" t="s">
-        <v>331</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B77" t="s">
-        <v>333</v>
-      </c>
-      <c r="C77" t="s">
-        <v>334</v>
-      </c>
-      <c r="D77" t="s">
-        <v>76</v>
-      </c>
-      <c r="E77" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" t="s">
-        <v>15</v>
-      </c>
-      <c r="G77" t="s">
-        <v>321</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="J77" t="s">
-        <v>96</v>
+      <c r="A77" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="K77" t="s">
-        <v>324</v>
+        <v>64</v>
       </c>
       <c r="L77" t="s">
-        <v>331</v>
+        <v>172</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="B78" t="s">
-        <v>337</v>
-      </c>
-      <c r="C78" t="s">
-        <v>338</v>
+        <v>346</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>347</v>
       </c>
       <c r="D78" t="s">
-        <v>76</v>
-      </c>
-      <c r="E78" t="s">
-        <v>14</v>
+        <v>26</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="F78" t="s">
         <v>15</v>
       </c>
-      <c r="G78" t="s">
-        <v>321</v>
+      <c r="G78" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="J78" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="K78" t="s">
-        <v>324</v>
+        <v>64</v>
       </c>
       <c r="L78" t="s">
-        <v>331</v>
+        <v>172</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="B79" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C79" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D79" t="s">
-        <v>76</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>343</v>
+        <v>179</v>
+      </c>
+      <c r="E79" t="s">
+        <v>14</v>
       </c>
       <c r="F79" t="s">
         <v>15</v>
       </c>
-      <c r="G79" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="H79" s="5" t="s">
-        <v>345</v>
-      </c>
+      <c r="G79" s="2"/>
+      <c r="H79" s="3"/>
       <c r="I79" s="1" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="J79" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="K79" t="s">
-        <v>324</v>
+        <v>64</v>
       </c>
       <c r="L79" t="s">
-        <v>325</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="B80" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="C80" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="D80" t="s">
-        <v>76</v>
-      </c>
-      <c r="E80" s="12" t="s">
-        <v>343</v>
+        <v>115</v>
+      </c>
+      <c r="E80" t="s">
+        <v>14</v>
       </c>
       <c r="F80" t="s">
         <v>15</v>
       </c>
-      <c r="G80" t="s">
-        <v>344</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>345</v>
-      </c>
+      <c r="G80" s="2"/>
+      <c r="H80" s="3"/>
       <c r="I80" s="1" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="J80" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="K80" t="s">
-        <v>324</v>
+        <v>64</v>
       </c>
       <c r="L80" t="s">
-        <v>325</v>
+        <v>172</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B81" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C81" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="D81" t="s">
-        <v>76</v>
+        <v>207</v>
       </c>
       <c r="E81" t="s">
         <v>14</v>
@@ -5563,75 +5428,67 @@
       <c r="F81" t="s">
         <v>15</v>
       </c>
-      <c r="G81" t="s">
-        <v>321</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>329</v>
-      </c>
+      <c r="G81" s="2"/>
+      <c r="H81" s="3"/>
       <c r="I81" s="1" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="J81" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="K81" t="s">
-        <v>324</v>
+        <v>64</v>
       </c>
       <c r="L81" t="s">
-        <v>355</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B82" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C82" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D82" t="s">
-        <v>76</v>
-      </c>
-      <c r="E82" s="12" t="s">
-        <v>14</v>
+        <v>45</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F82" t="s">
         <v>15</v>
       </c>
-      <c r="G82" t="s">
-        <v>321</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>329</v>
-      </c>
+      <c r="G82" s="2"/>
+      <c r="H82" s="3"/>
       <c r="I82" s="1" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="J82" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="K82" t="s">
-        <v>324</v>
+        <v>64</v>
       </c>
       <c r="L82" t="s">
-        <v>355</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B83" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C83" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="D83" t="s">
-        <v>76</v>
+        <v>369</v>
       </c>
       <c r="E83" t="s">
         <v>14</v>
@@ -5639,37 +5496,33 @@
       <c r="F83" t="s">
         <v>15</v>
       </c>
-      <c r="G83" t="s">
-        <v>321</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>329</v>
-      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="3"/>
       <c r="I83" s="1" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="J83" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="K83" t="s">
-        <v>324</v>
+        <v>64</v>
       </c>
       <c r="L83" t="s">
-        <v>355</v>
+        <v>172</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="B84" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C84" t="s">
-        <v>366</v>
-      </c>
-      <c r="D84" t="s">
-        <v>76</v>
+        <v>373</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="E84" t="s">
         <v>14</v>
@@ -5677,34 +5530,34 @@
       <c r="F84" t="s">
         <v>15</v>
       </c>
-      <c r="G84" t="s">
-        <v>321</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>329</v>
+      <c r="G84" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>333</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="J84" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="K84" t="s">
-        <v>324</v>
+        <v>64</v>
       </c>
       <c r="L84" t="s">
-        <v>355</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="B85" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C85" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="D85" t="s">
         <v>76</v>
@@ -5715,37 +5568,37 @@
       <c r="F85" t="s">
         <v>15</v>
       </c>
-      <c r="G85" t="s">
-        <v>321</v>
+      <c r="G85" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>329</v>
+        <v>378</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="J85" t="s">
         <v>96</v>
       </c>
       <c r="K85" t="s">
-        <v>324</v>
+        <v>64</v>
       </c>
       <c r="L85" t="s">
-        <v>355</v>
+        <v>172</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="B86" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C86" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="D86" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E86" t="s">
         <v>14</v>
@@ -5754,185 +5607,155 @@
         <v>15</v>
       </c>
       <c r="G86" t="s">
-        <v>321</v>
+        <v>383</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>329</v>
+        <v>384</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="J86" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="K86" t="s">
-        <v>324</v>
+        <v>64</v>
       </c>
       <c r="L86" t="s">
-        <v>355</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B87" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="C87" t="s">
-        <v>378</v>
-      </c>
-      <c r="D87" t="s">
-        <v>76</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="D87" s="2"/>
       <c r="E87" t="s">
-        <v>379</v>
+        <v>14</v>
       </c>
       <c r="F87" t="s">
         <v>15</v>
       </c>
       <c r="G87" t="s">
-        <v>380</v>
+        <v>16</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>381</v>
+        <v>22</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="J87" t="s">
-        <v>137</v>
-      </c>
-      <c r="K87" t="s">
-        <v>30</v>
-      </c>
-      <c r="L87" t="s">
-        <v>383</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B88" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="C88" t="s">
-        <v>386</v>
-      </c>
-      <c r="D88" t="s">
-        <v>76</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="D88" s="2"/>
       <c r="E88" t="s">
-        <v>379</v>
+        <v>14</v>
       </c>
       <c r="F88" t="s">
         <v>15</v>
       </c>
       <c r="G88" t="s">
-        <v>380</v>
+        <v>16</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>381</v>
+        <v>22</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="J88" t="s">
-        <v>137</v>
-      </c>
-      <c r="K88" t="s">
-        <v>30</v>
-      </c>
-      <c r="L88" t="s">
-        <v>383</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B89" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C89" t="s">
-        <v>389</v>
-      </c>
-      <c r="D89" t="s">
-        <v>76</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="D89" s="2"/>
       <c r="E89" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F89" t="s">
         <v>15</v>
       </c>
       <c r="G89" t="s">
-        <v>390</v>
+        <v>16</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>391</v>
+        <v>22</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="J89" t="s">
-        <v>137</v>
-      </c>
-      <c r="K89" t="s">
-        <v>30</v>
-      </c>
-      <c r="L89" t="s">
-        <v>383</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B90" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C90" t="s">
-        <v>395</v>
-      </c>
-      <c r="D90" t="s">
-        <v>115</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="D90" s="2"/>
       <c r="E90" t="s">
         <v>14</v>
       </c>
       <c r="F90" t="s">
         <v>15</v>
       </c>
-      <c r="G90" s="2"/>
-      <c r="H90" s="3"/>
+      <c r="G90" t="s">
+        <v>16</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I90" s="1" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="J90" t="s">
-        <v>63</v>
-      </c>
-      <c r="K90" t="s">
-        <v>64</v>
-      </c>
-      <c r="L90" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B91" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C91" t="s">
-        <v>399</v>
-      </c>
-      <c r="D91" t="s">
-        <v>115</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="D91" s="2"/>
       <c r="E91" t="s">
         <v>14</v>
       </c>
@@ -5940,37 +5763,29 @@
         <v>15</v>
       </c>
       <c r="G91" t="s">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>400</v>
+        <v>22</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="J91" t="s">
-        <v>137</v>
-      </c>
-      <c r="K91" t="s">
-        <v>64</v>
-      </c>
-      <c r="L91" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B92" t="s">
+        <v>406</v>
+      </c>
+      <c r="C92" t="s">
         <v>403</v>
       </c>
-      <c r="C92" t="s">
-        <v>404</v>
-      </c>
-      <c r="D92" t="s">
-        <v>405</v>
-      </c>
+      <c r="D92" s="2"/>
       <c r="E92" t="s">
         <v>14</v>
       </c>
@@ -5978,359 +5793,305 @@
         <v>15</v>
       </c>
       <c r="G92" t="s">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>400</v>
+        <v>22</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J92" t="s">
-        <v>137</v>
-      </c>
-      <c r="K92" t="s">
-        <v>64</v>
-      </c>
-      <c r="L92" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="14" t="s">
+      <c r="A93" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="B93" t="s">
+        <v>409</v>
+      </c>
+      <c r="C93" t="s">
+        <v>410</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93" t="s">
+        <v>16</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I93" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B93" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E93" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H93" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="I93" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="J93" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K93" t="s">
-        <v>64</v>
-      </c>
-      <c r="L93" t="s">
-        <v>179</v>
+      <c r="J93" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="B94" t="s">
         <v>412</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>413</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="D94" s="2"/>
+      <c r="E94" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" t="s">
+        <v>15</v>
+      </c>
+      <c r="G94" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I94" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="D94" t="s">
-        <v>26</v>
-      </c>
-      <c r="E94" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F94" t="s">
-        <v>15</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>416</v>
-      </c>
       <c r="J94" t="s">
-        <v>63</v>
-      </c>
-      <c r="K94" t="s">
-        <v>64</v>
-      </c>
-      <c r="L94" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B95" t="s">
+        <v>416</v>
+      </c>
+      <c r="C95" t="s">
         <v>417</v>
       </c>
-      <c r="B95" t="s">
+      <c r="D95" s="2"/>
+      <c r="E95" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" t="s">
+        <v>15</v>
+      </c>
+      <c r="G95" t="s">
+        <v>16</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I95" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C95" t="s">
-        <v>419</v>
-      </c>
-      <c r="D95" t="s">
-        <v>192</v>
-      </c>
-      <c r="E95" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" t="s">
-        <v>15</v>
-      </c>
-      <c r="G95" s="2"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="1" t="s">
-        <v>420</v>
-      </c>
       <c r="J95" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="K95" t="s">
         <v>64</v>
       </c>
       <c r="L95" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="B96" t="s">
+        <v>420</v>
+      </c>
+      <c r="C96" t="s">
         <v>421</v>
       </c>
-      <c r="B96" t="s">
+      <c r="D96" s="2"/>
+      <c r="E96" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96" t="s">
+        <v>16</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I96" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C96" t="s">
-        <v>423</v>
-      </c>
-      <c r="D96" t="s">
-        <v>115</v>
-      </c>
-      <c r="E96" t="s">
-        <v>14</v>
-      </c>
-      <c r="F96" t="s">
-        <v>15</v>
-      </c>
-      <c r="G96" s="2"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="1" t="s">
-        <v>424</v>
-      </c>
       <c r="J96" t="s">
-        <v>63</v>
-      </c>
-      <c r="K96" t="s">
-        <v>64</v>
-      </c>
-      <c r="L96" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="B97" t="s">
+        <v>424</v>
+      </c>
+      <c r="C97" t="s">
         <v>425</v>
       </c>
-      <c r="B97" t="s">
+      <c r="D97" s="2"/>
+      <c r="E97" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" t="s">
+        <v>15</v>
+      </c>
+      <c r="G97" t="s">
+        <v>16</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I97" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C97" t="s">
-        <v>427</v>
-      </c>
-      <c r="D97" t="s">
-        <v>255</v>
-      </c>
-      <c r="E97" t="s">
-        <v>14</v>
-      </c>
-      <c r="F97" t="s">
-        <v>15</v>
-      </c>
-      <c r="G97" s="2"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="1" t="s">
-        <v>428</v>
-      </c>
       <c r="J97" t="s">
-        <v>63</v>
-      </c>
-      <c r="K97" t="s">
-        <v>64</v>
-      </c>
-      <c r="L97" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="B98" t="s">
+        <v>428</v>
+      </c>
+      <c r="C98" t="s">
         <v>429</v>
       </c>
-      <c r="B98" t="s">
+      <c r="D98" s="2"/>
+      <c r="E98" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" t="s">
+        <v>15</v>
+      </c>
+      <c r="G98" t="s">
+        <v>16</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I98" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C98" t="s">
-        <v>431</v>
-      </c>
-      <c r="D98" t="s">
-        <v>45</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F98" t="s">
-        <v>15</v>
-      </c>
-      <c r="G98" s="2"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="1" t="s">
-        <v>432</v>
-      </c>
       <c r="J98" t="s">
-        <v>63</v>
-      </c>
-      <c r="K98" t="s">
-        <v>64</v>
-      </c>
-      <c r="L98" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="B99" t="s">
+        <v>431</v>
+      </c>
+      <c r="C99" t="s">
+        <v>432</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99" t="s">
+        <v>16</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I99" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B99" t="s">
-        <v>434</v>
-      </c>
-      <c r="C99" t="s">
-        <v>435</v>
-      </c>
-      <c r="D99" t="s">
-        <v>436</v>
-      </c>
-      <c r="E99" t="s">
-        <v>14</v>
-      </c>
-      <c r="F99" t="s">
-        <v>15</v>
-      </c>
-      <c r="G99" s="2"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="1" t="s">
-        <v>437</v>
-      </c>
       <c r="J99" t="s">
-        <v>63</v>
-      </c>
-      <c r="K99" t="s">
-        <v>64</v>
-      </c>
-      <c r="L99" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B100" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C100" t="s">
-        <v>440</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>69</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="D100" s="2"/>
       <c r="E100" t="s">
         <v>14</v>
       </c>
       <c r="F100" t="s">
         <v>15</v>
       </c>
-      <c r="G100" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H100" s="5" t="s">
-        <v>400</v>
+      <c r="G100" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="J100" t="s">
-        <v>63</v>
-      </c>
-      <c r="K100" t="s">
-        <v>64</v>
-      </c>
-      <c r="L100" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B101" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C101" t="s">
-        <v>444</v>
-      </c>
-      <c r="D101" t="s">
-        <v>76</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="D101" s="2"/>
       <c r="E101" t="s">
         <v>14</v>
       </c>
       <c r="F101" t="s">
         <v>15</v>
       </c>
-      <c r="G101" s="7" t="s">
-        <v>151</v>
+      <c r="G101" t="s">
+        <v>16</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>445</v>
+        <v>22</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="J101" t="s">
-        <v>96</v>
-      </c>
-      <c r="K101" t="s">
-        <v>64</v>
-      </c>
-      <c r="L101" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B102" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C102" t="s">
-        <v>449</v>
-      </c>
-      <c r="D102" t="s">
-        <v>69</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="D102" s="2"/>
       <c r="E102" t="s">
         <v>14</v>
       </c>
@@ -6338,33 +6099,27 @@
         <v>15</v>
       </c>
       <c r="G102" t="s">
-        <v>450</v>
+        <v>16</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>451</v>
+        <v>22</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="J102" t="s">
-        <v>137</v>
-      </c>
-      <c r="K102" t="s">
-        <v>64</v>
-      </c>
-      <c r="L102" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B103" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C103" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s">
@@ -6380,7 +6135,7 @@
         <v>22</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="J103" t="s">
         <v>19</v>
@@ -6388,13 +6143,13 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B104" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C104" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s">
@@ -6410,7 +6165,7 @@
         <v>22</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="J104" t="s">
         <v>19</v>
@@ -6418,13 +6173,13 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B105" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C105" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s">
@@ -6440,7 +6195,7 @@
         <v>22</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="J105" t="s">
         <v>19</v>
@@ -6448,13 +6203,13 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B106" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C106" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s">
@@ -6470,7 +6225,7 @@
         <v>22</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="J106" t="s">
         <v>19</v>
@@ -6478,13 +6233,13 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B107" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C107" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s">
@@ -6496,25 +6251,23 @@
       <c r="G107" t="s">
         <v>16</v>
       </c>
-      <c r="H107" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>471</v>
-      </c>
+      <c r="H107" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="I107" s="1"/>
       <c r="J107" t="s">
-        <v>19</v>
+        <v>466</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B108" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C108" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s">
@@ -6526,25 +6279,23 @@
       <c r="G108" t="s">
         <v>16</v>
       </c>
-      <c r="H108" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>474</v>
-      </c>
+      <c r="H108" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="I108" s="1"/>
       <c r="J108" t="s">
-        <v>19</v>
+        <v>466</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B109" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C109" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s">
@@ -6556,25 +6307,23 @@
       <c r="G109" t="s">
         <v>16</v>
       </c>
-      <c r="H109" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>474</v>
-      </c>
+      <c r="H109" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="I109" s="1"/>
       <c r="J109" t="s">
-        <v>19</v>
+        <v>466</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B110" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C110" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s">
@@ -6590,7 +6339,7 @@
         <v>22</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>481</v>
+        <v>392</v>
       </c>
       <c r="J110" t="s">
         <v>19</v>
@@ -6598,15 +6347,17 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="B111" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="C111" t="s">
-        <v>484</v>
-      </c>
-      <c r="D111" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="D111" t="s">
+        <v>26</v>
+      </c>
       <c r="E111" t="s">
         <v>14</v>
       </c>
@@ -6614,117 +6365,141 @@
         <v>15</v>
       </c>
       <c r="G111" t="s">
-        <v>16</v>
+        <v>477</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>22</v>
+        <v>478</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="J111" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="K111" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="L111" t="s">
-        <v>160</v>
+        <v>480</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="B112" t="s">
+        <v>482</v>
+      </c>
+      <c r="C112" t="s">
+        <v>483</v>
+      </c>
+      <c r="D112" t="s">
+        <v>76</v>
+      </c>
+      <c r="E112" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112" t="s">
+        <v>15</v>
+      </c>
+      <c r="G112" t="s">
+        <v>484</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="I112" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B112" t="s">
-        <v>487</v>
-      </c>
-      <c r="C112" t="s">
-        <v>488</v>
-      </c>
-      <c r="D112" s="2"/>
-      <c r="E112" t="s">
-        <v>14</v>
-      </c>
-      <c r="F112" t="s">
-        <v>15</v>
-      </c>
-      <c r="G112" t="s">
-        <v>16</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>489</v>
-      </c>
       <c r="J112" t="s">
-        <v>19</v>
+        <v>154</v>
+      </c>
+      <c r="K112" t="s">
+        <v>30</v>
+      </c>
+      <c r="L112" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="B113" t="s">
+        <v>488</v>
+      </c>
+      <c r="C113" t="s">
+        <v>489</v>
+      </c>
+      <c r="D113" t="s">
+        <v>26</v>
+      </c>
+      <c r="E113" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113" t="s">
+        <v>15</v>
+      </c>
+      <c r="G113" t="s">
         <v>490</v>
       </c>
-      <c r="B113" t="s">
+      <c r="H113" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C113" t="s">
+      <c r="I113" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="D113" s="2"/>
-      <c r="E113" t="s">
-        <v>14</v>
-      </c>
-      <c r="F113" t="s">
-        <v>15</v>
-      </c>
-      <c r="G113" t="s">
-        <v>16</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>493</v>
-      </c>
       <c r="J113" t="s">
-        <v>19</v>
+        <v>154</v>
+      </c>
+      <c r="K113" t="s">
+        <v>30</v>
+      </c>
+      <c r="L113" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="B114" t="s">
         <v>494</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>495</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
+        <v>76</v>
+      </c>
+      <c r="E114" t="s">
+        <v>14</v>
+      </c>
+      <c r="F114" t="s">
+        <v>15</v>
+      </c>
+      <c r="G114" t="s">
+        <v>490</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="I114" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="D114" s="2"/>
-      <c r="E114" t="s">
-        <v>14</v>
-      </c>
-      <c r="F114" t="s">
-        <v>15</v>
-      </c>
-      <c r="G114" t="s">
-        <v>16</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>497</v>
-      </c>
       <c r="J114" t="s">
-        <v>19</v>
+        <v>154</v>
+      </c>
+      <c r="K114" t="s">
+        <v>30</v>
+      </c>
+      <c r="L114" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B115" t="s">
         <v>498</v>
@@ -6732,7 +6507,9 @@
       <c r="C115" t="s">
         <v>499</v>
       </c>
-      <c r="D115" s="2"/>
+      <c r="D115" t="s">
+        <v>76</v>
+      </c>
       <c r="E115" t="s">
         <v>14</v>
       </c>
@@ -6740,29 +6517,37 @@
         <v>15</v>
       </c>
       <c r="G115" t="s">
-        <v>16</v>
+        <v>490</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>22</v>
+        <v>491</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="J115" t="s">
-        <v>19</v>
+        <v>154</v>
+      </c>
+      <c r="K115" t="s">
+        <v>30</v>
+      </c>
+      <c r="L115" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="B116" t="s">
         <v>501</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
         <v>502</v>
       </c>
-      <c r="C116" t="s">
-        <v>503</v>
-      </c>
-      <c r="D116" s="2"/>
+      <c r="D116" t="s">
+        <v>76</v>
+      </c>
       <c r="E116" t="s">
         <v>14</v>
       </c>
@@ -6770,29 +6555,37 @@
         <v>15</v>
       </c>
       <c r="G116" t="s">
-        <v>16</v>
+        <v>490</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>22</v>
+        <v>491</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="J116" t="s">
-        <v>19</v>
+        <v>154</v>
+      </c>
+      <c r="K116" t="s">
+        <v>30</v>
+      </c>
+      <c r="L116" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="B117" t="s">
+        <v>504</v>
+      </c>
+      <c r="C117" t="s">
         <v>505</v>
       </c>
-      <c r="B117" t="s">
-        <v>506</v>
-      </c>
-      <c r="C117" t="s">
-        <v>507</v>
-      </c>
-      <c r="D117" s="2"/>
+      <c r="D117" t="s">
+        <v>76</v>
+      </c>
       <c r="E117" t="s">
         <v>14</v>
       </c>
@@ -6800,76 +6593,92 @@
         <v>15</v>
       </c>
       <c r="G117" t="s">
-        <v>16</v>
+        <v>490</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>22</v>
+        <v>491</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="J117" t="s">
-        <v>19</v>
+        <v>154</v>
+      </c>
+      <c r="K117" t="s">
+        <v>30</v>
+      </c>
+      <c r="L117" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="B118" t="s">
+        <v>507</v>
+      </c>
+      <c r="C118" t="s">
+        <v>508</v>
+      </c>
+      <c r="D118" t="s">
+        <v>76</v>
+      </c>
+      <c r="E118" t="s">
+        <v>14</v>
+      </c>
+      <c r="F118" t="s">
+        <v>15</v>
+      </c>
+      <c r="G118" t="s">
+        <v>490</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="I118" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="B118" t="s">
-        <v>510</v>
-      </c>
-      <c r="C118" t="s">
-        <v>511</v>
-      </c>
-      <c r="D118" s="2"/>
-      <c r="E118" t="s">
-        <v>14</v>
-      </c>
-      <c r="F118" t="s">
-        <v>15</v>
-      </c>
-      <c r="G118" t="s">
-        <v>16</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I118" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="J118" t="s">
-        <v>19</v>
+      <c r="J118" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K118" t="s">
+        <v>30</v>
+      </c>
+      <c r="L118" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="B119" t="s">
+        <v>511</v>
+      </c>
+      <c r="C119" t="s">
+        <v>512</v>
+      </c>
+      <c r="D119" t="s">
+        <v>76</v>
+      </c>
+      <c r="E119" t="s">
+        <v>14</v>
+      </c>
+      <c r="F119" t="s">
+        <v>15</v>
+      </c>
+      <c r="G119" t="s">
         <v>513</v>
       </c>
-      <c r="B119" t="s">
+      <c r="H119" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="C119" t="s">
+      <c r="I119" s="10" t="s">
         <v>515</v>
       </c>
-      <c r="D119" s="2"/>
-      <c r="E119" t="s">
-        <v>14</v>
-      </c>
-      <c r="F119" t="s">
-        <v>15</v>
-      </c>
-      <c r="G119" t="s">
-        <v>16</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I119" s="1" t="s">
+      <c r="J119" t="s">
         <v>516</v>
-      </c>
-      <c r="J119" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
@@ -6882,24 +6691,32 @@
       <c r="C120" t="s">
         <v>519</v>
       </c>
-      <c r="D120" s="2"/>
+      <c r="D120" t="s">
+        <v>147</v>
+      </c>
       <c r="E120" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="F120" t="s">
         <v>15</v>
       </c>
       <c r="G120" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="I120" s="1" t="s">
         <v>520</v>
       </c>
       <c r="J120" t="s">
         <v>19</v>
+      </c>
+      <c r="K120" t="s">
+        <v>64</v>
+      </c>
+      <c r="L120" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
@@ -6912,24 +6729,32 @@
       <c r="C121" t="s">
         <v>523</v>
       </c>
-      <c r="D121" s="2"/>
+      <c r="D121" t="s">
+        <v>147</v>
+      </c>
       <c r="E121" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="F121" t="s">
         <v>15</v>
       </c>
       <c r="G121" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="I121" s="1" t="s">
         <v>524</v>
       </c>
       <c r="J121" t="s">
         <v>19</v>
+      </c>
+      <c r="K121" t="s">
+        <v>64</v>
+      </c>
+      <c r="L121" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
@@ -6942,24 +6767,32 @@
       <c r="C122" t="s">
         <v>527</v>
       </c>
-      <c r="D122" s="2"/>
+      <c r="D122" t="s">
+        <v>147</v>
+      </c>
       <c r="E122" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="F122" t="s">
         <v>15</v>
       </c>
       <c r="G122" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="I122" s="1" t="s">
         <v>528</v>
       </c>
       <c r="J122" t="s">
         <v>19</v>
+      </c>
+      <c r="K122" t="s">
+        <v>64</v>
+      </c>
+      <c r="L122" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
@@ -6972,91 +6805,123 @@
       <c r="C123" t="s">
         <v>531</v>
       </c>
-      <c r="D123" s="2"/>
+      <c r="D123" t="s">
+        <v>147</v>
+      </c>
       <c r="E123" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="F123" t="s">
         <v>15</v>
       </c>
       <c r="G123" t="s">
-        <v>16</v>
-      </c>
-      <c r="H123" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I123" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="I123" s="1"/>
       <c r="J123" t="s">
-        <v>533</v>
+        <v>19</v>
+      </c>
+      <c r="K123" t="s">
+        <v>64</v>
+      </c>
+      <c r="L123" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="B124" t="s">
         <v>534</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>535</v>
       </c>
-      <c r="C124" t="s">
-        <v>531</v>
-      </c>
-      <c r="D124" s="2"/>
+      <c r="D124" t="s">
+        <v>147</v>
+      </c>
       <c r="E124" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="F124" t="s">
         <v>15</v>
       </c>
       <c r="G124" t="s">
-        <v>16</v>
-      </c>
-      <c r="H124" s="10" t="s">
-        <v>532</v>
-      </c>
-      <c r="I124" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>536</v>
+      </c>
       <c r="J124" t="s">
-        <v>533</v>
+        <v>19</v>
+      </c>
+      <c r="K124" t="s">
+        <v>64</v>
+      </c>
+      <c r="L124" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B125" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C125" t="s">
-        <v>531</v>
-      </c>
-      <c r="D125" s="2"/>
+        <v>539</v>
+      </c>
+      <c r="D125" t="s">
+        <v>147</v>
+      </c>
       <c r="E125" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="F125" t="s">
         <v>15</v>
       </c>
       <c r="G125" t="s">
-        <v>16</v>
-      </c>
-      <c r="H125" s="10" t="s">
-        <v>532</v>
-      </c>
-      <c r="I125" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>540</v>
+      </c>
       <c r="J125" t="s">
-        <v>533</v>
+        <v>19</v>
+      </c>
+      <c r="K125" t="s">
+        <v>64</v>
+      </c>
+      <c r="L125" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B126" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C126" t="s">
-        <v>540</v>
-      </c>
-      <c r="D126" s="2"/>
+        <v>543</v>
+      </c>
+      <c r="D126" t="s">
+        <v>115</v>
+      </c>
       <c r="E126" t="s">
         <v>14</v>
       </c>
@@ -7064,30 +6929,34 @@
         <v>15</v>
       </c>
       <c r="G126" t="s">
-        <v>16</v>
+        <v>246</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>459</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="I126" s="1"/>
       <c r="J126" t="s">
-        <v>19</v>
+        <v>154</v>
+      </c>
+      <c r="K126" t="s">
+        <v>64</v>
+      </c>
+      <c r="L126" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="B127" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C127" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="D127" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="E127" t="s">
         <v>14</v>
@@ -7096,36 +6965,34 @@
         <v>15</v>
       </c>
       <c r="G127" t="s">
-        <v>544</v>
+        <v>246</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>546</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="I127" s="1"/>
       <c r="J127" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K127" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="L127" t="s">
-        <v>547</v>
+        <v>248</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="B128" t="s">
         <v>548</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>549</v>
       </c>
-      <c r="C128" t="s">
-        <v>550</v>
-      </c>
       <c r="D128" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="E128" t="s">
         <v>14</v>
@@ -7134,658 +7001,96 @@
         <v>15</v>
       </c>
       <c r="G128" t="s">
-        <v>551</v>
+        <v>246</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>553</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="I128" s="1"/>
       <c r="J128" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K128" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="L128" t="s">
-        <v>547</v>
+        <v>248</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="B129" t="s">
+        <v>551</v>
+      </c>
+      <c r="D129" t="s">
+        <v>552</v>
+      </c>
+      <c r="E129" t="s">
+        <v>553</v>
+      </c>
+      <c r="F129" t="s">
+        <v>15</v>
+      </c>
+      <c r="G129" t="s">
         <v>554</v>
       </c>
-      <c r="B129" t="s">
-        <v>555</v>
-      </c>
-      <c r="C129" t="s">
-        <v>556</v>
-      </c>
-      <c r="D129" t="s">
-        <v>26</v>
-      </c>
-      <c r="E129" t="s">
-        <v>14</v>
-      </c>
-      <c r="F129" t="s">
-        <v>15</v>
-      </c>
-      <c r="G129" t="s">
-        <v>557</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>559</v>
-      </c>
+      <c r="H129" s="10"/>
+      <c r="I129" s="1"/>
       <c r="J129" t="s">
-        <v>159</v>
+        <v>466</v>
       </c>
       <c r="K129" t="s">
         <v>30</v>
       </c>
       <c r="L129" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B130" t="s">
-        <v>561</v>
-      </c>
-      <c r="C130" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="D130" t="s">
-        <v>76</v>
+        <v>552</v>
       </c>
       <c r="E130" t="s">
-        <v>14</v>
+        <v>553</v>
       </c>
       <c r="F130" t="s">
         <v>15</v>
       </c>
       <c r="G130" t="s">
-        <v>557</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="I130" s="1" t="s">
-        <v>563</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
       <c r="J130" t="s">
-        <v>159</v>
+        <v>466</v>
       </c>
       <c r="K130" t="s">
         <v>30</v>
       </c>
       <c r="L130" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="13" t="s">
-        <v>564</v>
-      </c>
-      <c r="B131" t="s">
-        <v>565</v>
-      </c>
-      <c r="C131" t="s">
-        <v>566</v>
-      </c>
-      <c r="D131" t="s">
-        <v>76</v>
-      </c>
-      <c r="E131" t="s">
-        <v>14</v>
-      </c>
-      <c r="F131" t="s">
-        <v>15</v>
-      </c>
-      <c r="G131" t="s">
-        <v>557</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="J131" t="s">
-        <v>159</v>
-      </c>
-      <c r="K131" t="s">
-        <v>30</v>
-      </c>
-      <c r="L131" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="13" t="s">
-        <v>567</v>
-      </c>
-      <c r="B132" t="s">
-        <v>568</v>
-      </c>
-      <c r="C132" t="s">
-        <v>569</v>
-      </c>
-      <c r="D132" t="s">
-        <v>76</v>
-      </c>
-      <c r="E132" t="s">
-        <v>14</v>
-      </c>
-      <c r="F132" t="s">
-        <v>15</v>
-      </c>
-      <c r="G132" t="s">
-        <v>557</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="J132" t="s">
-        <v>159</v>
-      </c>
-      <c r="K132" t="s">
-        <v>30</v>
-      </c>
-      <c r="L132" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="13" t="s">
-        <v>570</v>
-      </c>
-      <c r="B133" t="s">
-        <v>571</v>
-      </c>
-      <c r="C133" t="s">
-        <v>572</v>
-      </c>
-      <c r="D133" t="s">
-        <v>76</v>
-      </c>
-      <c r="E133" t="s">
-        <v>14</v>
-      </c>
-      <c r="F133" t="s">
-        <v>15</v>
-      </c>
-      <c r="G133" t="s">
-        <v>557</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="J133" t="s">
-        <v>159</v>
-      </c>
-      <c r="K133" t="s">
-        <v>30</v>
-      </c>
-      <c r="L133" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="13" t="s">
-        <v>573</v>
-      </c>
-      <c r="B134" t="s">
-        <v>574</v>
-      </c>
-      <c r="C134" t="s">
-        <v>575</v>
-      </c>
-      <c r="D134" t="s">
-        <v>76</v>
-      </c>
-      <c r="E134" t="s">
-        <v>14</v>
-      </c>
-      <c r="F134" t="s">
-        <v>15</v>
-      </c>
-      <c r="G134" t="s">
-        <v>557</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="J134" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="K134" t="s">
-        <v>30</v>
-      </c>
-      <c r="L134" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="13" t="s">
-        <v>577</v>
-      </c>
-      <c r="B135" t="s">
-        <v>578</v>
-      </c>
-      <c r="C135" t="s">
-        <v>579</v>
-      </c>
-      <c r="D135" t="s">
-        <v>76</v>
-      </c>
-      <c r="E135" t="s">
-        <v>14</v>
-      </c>
-      <c r="F135" t="s">
-        <v>15</v>
-      </c>
-      <c r="G135" t="s">
-        <v>580</v>
-      </c>
-      <c r="H135" s="10" t="s">
-        <v>581</v>
-      </c>
-      <c r="I135" s="10" t="s">
-        <v>582</v>
-      </c>
-      <c r="J135" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="13" t="s">
-        <v>584</v>
-      </c>
-      <c r="B136" t="s">
-        <v>585</v>
-      </c>
-      <c r="C136" t="s">
-        <v>586</v>
-      </c>
-      <c r="D136" t="s">
-        <v>149</v>
-      </c>
-      <c r="E136" t="s">
-        <v>150</v>
-      </c>
-      <c r="F136" t="s">
-        <v>15</v>
-      </c>
-      <c r="G136" t="s">
-        <v>151</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I136" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="J136" t="s">
-        <v>19</v>
-      </c>
-      <c r="K136" t="s">
-        <v>64</v>
-      </c>
-      <c r="L136" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="13" t="s">
-        <v>588</v>
-      </c>
-      <c r="B137" t="s">
-        <v>589</v>
-      </c>
-      <c r="C137" t="s">
-        <v>590</v>
-      </c>
-      <c r="D137" t="s">
-        <v>149</v>
-      </c>
-      <c r="E137" t="s">
-        <v>150</v>
-      </c>
-      <c r="F137" t="s">
-        <v>15</v>
-      </c>
-      <c r="G137" t="s">
-        <v>151</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I137" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="J137" t="s">
-        <v>19</v>
-      </c>
-      <c r="K137" t="s">
-        <v>64</v>
-      </c>
-      <c r="L137" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="13" t="s">
-        <v>592</v>
-      </c>
-      <c r="B138" t="s">
-        <v>593</v>
-      </c>
-      <c r="C138" t="s">
-        <v>594</v>
-      </c>
-      <c r="D138" t="s">
-        <v>149</v>
-      </c>
-      <c r="E138" t="s">
-        <v>150</v>
-      </c>
-      <c r="F138" t="s">
-        <v>15</v>
-      </c>
-      <c r="G138" t="s">
-        <v>151</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I138" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="J138" t="s">
-        <v>19</v>
-      </c>
-      <c r="K138" t="s">
-        <v>64</v>
-      </c>
-      <c r="L138" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="13" t="s">
-        <v>596</v>
-      </c>
-      <c r="B139" t="s">
-        <v>597</v>
-      </c>
-      <c r="C139" t="s">
-        <v>598</v>
-      </c>
-      <c r="D139" t="s">
-        <v>149</v>
-      </c>
-      <c r="E139" t="s">
-        <v>150</v>
-      </c>
-      <c r="F139" t="s">
-        <v>15</v>
-      </c>
-      <c r="G139" t="s">
-        <v>151</v>
-      </c>
-      <c r="H139" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I139" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="J139" t="s">
-        <v>19</v>
-      </c>
-      <c r="K139" t="s">
-        <v>64</v>
-      </c>
-      <c r="L139" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="13" t="s">
-        <v>600</v>
-      </c>
-      <c r="B140" t="s">
-        <v>601</v>
-      </c>
-      <c r="C140" t="s">
-        <v>602</v>
-      </c>
-      <c r="D140" t="s">
-        <v>149</v>
-      </c>
-      <c r="E140" t="s">
-        <v>150</v>
-      </c>
-      <c r="F140" t="s">
-        <v>15</v>
-      </c>
-      <c r="G140" t="s">
-        <v>151</v>
-      </c>
-      <c r="H140" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I140" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="J140" t="s">
-        <v>19</v>
-      </c>
-      <c r="K140" t="s">
-        <v>64</v>
-      </c>
-      <c r="L140" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="13" t="s">
-        <v>604</v>
-      </c>
-      <c r="B141" t="s">
-        <v>605</v>
-      </c>
-      <c r="C141" t="s">
-        <v>606</v>
-      </c>
-      <c r="D141" t="s">
-        <v>149</v>
-      </c>
-      <c r="E141" t="s">
-        <v>150</v>
-      </c>
-      <c r="F141" t="s">
-        <v>15</v>
-      </c>
-      <c r="G141" t="s">
-        <v>151</v>
-      </c>
-      <c r="H141" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I141" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="J141" t="s">
-        <v>19</v>
-      </c>
-      <c r="K141" t="s">
-        <v>64</v>
-      </c>
-      <c r="L141" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="13" t="s">
-        <v>608</v>
-      </c>
-      <c r="B142" t="s">
-        <v>609</v>
-      </c>
-      <c r="C142" t="s">
-        <v>610</v>
-      </c>
-      <c r="D142" t="s">
-        <v>115</v>
-      </c>
-      <c r="E142" t="s">
-        <v>14</v>
-      </c>
-      <c r="F142" t="s">
-        <v>15</v>
-      </c>
-      <c r="G142" t="s">
-        <v>313</v>
-      </c>
-      <c r="H142" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="I142" s="1"/>
-      <c r="J142" t="s">
-        <v>159</v>
-      </c>
-      <c r="K142" t="s">
-        <v>64</v>
-      </c>
-      <c r="L142" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="13" t="s">
-        <v>611</v>
-      </c>
-      <c r="B143" t="s">
-        <v>612</v>
-      </c>
-      <c r="C143" t="s">
-        <v>613</v>
-      </c>
-      <c r="D143" t="s">
-        <v>115</v>
-      </c>
-      <c r="E143" t="s">
-        <v>14</v>
-      </c>
-      <c r="F143" t="s">
-        <v>15</v>
-      </c>
-      <c r="G143" t="s">
-        <v>313</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="I143" s="1"/>
-      <c r="J143" t="s">
-        <v>159</v>
-      </c>
-      <c r="K143" t="s">
-        <v>64</v>
-      </c>
-      <c r="L143" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="13" t="s">
-        <v>614</v>
-      </c>
-      <c r="B144" t="s">
-        <v>615</v>
-      </c>
-      <c r="D144" t="s">
-        <v>616</v>
-      </c>
-      <c r="E144" t="s">
-        <v>617</v>
-      </c>
-      <c r="F144" t="s">
-        <v>15</v>
-      </c>
-      <c r="G144" t="s">
-        <v>618</v>
-      </c>
-      <c r="H144" s="10"/>
-      <c r="I144" s="1"/>
-      <c r="J144" t="s">
-        <v>533</v>
-      </c>
-      <c r="K144" t="s">
-        <v>30</v>
-      </c>
-      <c r="L144" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="13" t="s">
-        <v>620</v>
-      </c>
-      <c r="B145" t="s">
-        <v>621</v>
-      </c>
-      <c r="D145" t="s">
-        <v>616</v>
-      </c>
-      <c r="E145" t="s">
-        <v>617</v>
-      </c>
-      <c r="F145" t="s">
-        <v>15</v>
-      </c>
-      <c r="G145" t="s">
-        <v>618</v>
-      </c>
-      <c r="H145" s="1"/>
-      <c r="I145" s="1"/>
-      <c r="J145" t="s">
-        <v>533</v>
-      </c>
-      <c r="K145" t="s">
-        <v>30</v>
-      </c>
-      <c r="L145" t="s">
-        <v>619</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H75" r:id="rId1" location="datosabiertos " xr:uid="{5911B0A5-0C21-4814-BAF8-15335BA8C082}"/>
-    <hyperlink ref="I75" r:id="rId2" xr:uid="{C9E6B6EE-6E87-4957-B349-88CD50EABA12}"/>
-    <hyperlink ref="I90" r:id="rId3" xr:uid="{C94E5315-A85E-4A74-877B-9DEC863F6E66}"/>
-    <hyperlink ref="I95" r:id="rId4" xr:uid="{328450BD-3888-4523-BEEB-2C37E16B29C2}"/>
+    <hyperlink ref="H59" r:id="rId1" location="datosabiertos " xr:uid="{5911B0A5-0C21-4814-BAF8-15335BA8C082}"/>
+    <hyperlink ref="I59" r:id="rId2" xr:uid="{C9E6B6EE-6E87-4957-B349-88CD50EABA12}"/>
+    <hyperlink ref="I74" r:id="rId3" xr:uid="{C94E5315-A85E-4A74-877B-9DEC863F6E66}"/>
+    <hyperlink ref="I79" r:id="rId4" xr:uid="{328450BD-3888-4523-BEEB-2C37E16B29C2}"/>
     <hyperlink ref="I18" r:id="rId5" xr:uid="{4479E641-936D-4E07-AD89-A70226BE6C64}"/>
-    <hyperlink ref="I96" r:id="rId6" xr:uid="{9453A25A-ED22-47AD-9DA7-1EEEE458E0A6}"/>
-    <hyperlink ref="I97" r:id="rId7" xr:uid="{AC4861FE-44F3-453C-B9FB-C3BAE0D83FD7}"/>
-    <hyperlink ref="I98" r:id="rId8" xr:uid="{DB598F35-4F10-44FA-845E-BC09D5BBB9A0}"/>
-    <hyperlink ref="I99" r:id="rId9" xr:uid="{FE516EE0-ED5B-488C-9714-20321DE0A1F9}"/>
+    <hyperlink ref="I80" r:id="rId6" xr:uid="{9453A25A-ED22-47AD-9DA7-1EEEE458E0A6}"/>
+    <hyperlink ref="I81" r:id="rId7" xr:uid="{AC4861FE-44F3-453C-B9FB-C3BAE0D83FD7}"/>
+    <hyperlink ref="I82" r:id="rId8" xr:uid="{DB598F35-4F10-44FA-845E-BC09D5BBB9A0}"/>
+    <hyperlink ref="I83" r:id="rId9" xr:uid="{FE516EE0-ED5B-488C-9714-20321DE0A1F9}"/>
     <hyperlink ref="I21" r:id="rId10" xr:uid="{2941D0D9-FD68-49BD-BE97-E5CEF91C19F1}"/>
     <hyperlink ref="I22" r:id="rId11" xr:uid="{8C6D62BB-5F77-4E43-A2C0-4B9C82D8B833}"/>
     <hyperlink ref="I27" r:id="rId12" xr:uid="{044C2CB3-B42D-4008-AB57-7D2A34CC4E84}"/>
@@ -7793,29 +7098,29 @@
     <hyperlink ref="I29" r:id="rId14" xr:uid="{4A6C8201-1574-4551-9A9C-F243CDFC088B}"/>
     <hyperlink ref="H16" r:id="rId15" xr:uid="{2A01B5CB-6E13-4421-AF4E-2DEF27E17522}"/>
     <hyperlink ref="I16" r:id="rId16" xr:uid="{94228EAD-A640-40EC-9EBB-226D4CB50133}"/>
-    <hyperlink ref="H93" r:id="rId17" xr:uid="{43B8B26A-48BD-40F3-94AA-B4FE7AFC090B}"/>
-    <hyperlink ref="I93" r:id="rId18" xr:uid="{0E77E100-B94E-4689-9861-3926BDD5F1C2}"/>
-    <hyperlink ref="H94" r:id="rId19" xr:uid="{303E2F96-9C17-4AC1-9979-3D5DFF967B79}"/>
-    <hyperlink ref="I94" r:id="rId20" xr:uid="{20D5A78D-E1DE-4773-9544-4D2C520F2903}"/>
-    <hyperlink ref="I100" r:id="rId21" xr:uid="{675F0F9F-48B7-44BE-8415-0DFC7DCDA382}"/>
+    <hyperlink ref="H77" r:id="rId17" xr:uid="{43B8B26A-48BD-40F3-94AA-B4FE7AFC090B}"/>
+    <hyperlink ref="I77" r:id="rId18" xr:uid="{0E77E100-B94E-4689-9861-3926BDD5F1C2}"/>
+    <hyperlink ref="H78" r:id="rId19" xr:uid="{303E2F96-9C17-4AC1-9979-3D5DFF967B79}"/>
+    <hyperlink ref="I78" r:id="rId20" xr:uid="{20D5A78D-E1DE-4773-9544-4D2C520F2903}"/>
+    <hyperlink ref="I84" r:id="rId21" xr:uid="{675F0F9F-48B7-44BE-8415-0DFC7DCDA382}"/>
     <hyperlink ref="I31" r:id="rId22" xr:uid="{914239B8-66A3-4B5A-BFDA-A0DD4CC21F97}"/>
     <hyperlink ref="H31" r:id="rId23" xr:uid="{146728A6-A4D8-4655-9AC6-E4AFC9487D85}"/>
-    <hyperlink ref="H100" r:id="rId24" xr:uid="{77E6D235-047D-4604-9151-F6D390761670}"/>
-    <hyperlink ref="H101" r:id="rId25" xr:uid="{CBE902CB-B0AB-48A1-AEB4-B161B4B9805A}"/>
-    <hyperlink ref="H70" r:id="rId26" xr:uid="{5B6DFFFC-2AC1-489A-A901-760C70C922B3}"/>
-    <hyperlink ref="H71" r:id="rId27" xr:uid="{BD5652B3-697C-4C44-953D-CAB46A31F9B0}"/>
-    <hyperlink ref="H72" r:id="rId28" xr:uid="{28092483-2915-418B-A2AF-12AB85843ECE}"/>
-    <hyperlink ref="I70" r:id="rId29" xr:uid="{2F9FC809-7044-49F3-AD2A-337755DC1F7E}"/>
-    <hyperlink ref="I71" r:id="rId30" xr:uid="{48DE6A5E-29CD-479E-A57E-6C321D874174}"/>
-    <hyperlink ref="I72" r:id="rId31" xr:uid="{75950DFD-39AB-4949-8A68-8C6D8137D57C}"/>
-    <hyperlink ref="H135" r:id="rId32" xr:uid="{1CEE2C1C-5CAA-4221-9E9E-023216550247}"/>
-    <hyperlink ref="I135" r:id="rId33" display="https://www.dropbox.com/scl/fi/7m1z10fp5kfeodsxiwgyi/8.1.xlsx?cloud_editor=excel&amp;dl=0&amp;rlkey=zjmyfc1pkvo57zz610q9in13r" xr:uid="{A8BDBCBD-3D45-433E-945C-C50EF42330AA}"/>
-    <hyperlink ref="H73" r:id="rId34" xr:uid="{2D514D50-5C2E-4495-96EE-18447C70E010}"/>
-    <hyperlink ref="I73" r:id="rId35" xr:uid="{71AA66DE-A95F-45E5-A807-39BAEBABCD4A}"/>
-    <hyperlink ref="H37" r:id="rId36" xr:uid="{6C5E3E67-C5AC-47FF-8E1F-0B6D283FBB47}"/>
-    <hyperlink ref="H123" r:id="rId37" xr:uid="{05278A2C-EF32-4288-AC79-E2F3C414DCB0}"/>
-    <hyperlink ref="H125" r:id="rId38" xr:uid="{465BC4F3-228B-4122-9B29-D51AB49EBEC3}"/>
-    <hyperlink ref="H124" r:id="rId39" xr:uid="{CF7976C9-7F90-4DC9-A637-E9D9624A45D4}"/>
+    <hyperlink ref="H84" r:id="rId24" xr:uid="{77E6D235-047D-4604-9151-F6D390761670}"/>
+    <hyperlink ref="H85" r:id="rId25" xr:uid="{CBE902CB-B0AB-48A1-AEB4-B161B4B9805A}"/>
+    <hyperlink ref="H54" r:id="rId26" xr:uid="{5B6DFFFC-2AC1-489A-A901-760C70C922B3}"/>
+    <hyperlink ref="H55" r:id="rId27" xr:uid="{BD5652B3-697C-4C44-953D-CAB46A31F9B0}"/>
+    <hyperlink ref="H56" r:id="rId28" xr:uid="{28092483-2915-418B-A2AF-12AB85843ECE}"/>
+    <hyperlink ref="I54" r:id="rId29" xr:uid="{2F9FC809-7044-49F3-AD2A-337755DC1F7E}"/>
+    <hyperlink ref="I55" r:id="rId30" xr:uid="{48DE6A5E-29CD-479E-A57E-6C321D874174}"/>
+    <hyperlink ref="I56" r:id="rId31" xr:uid="{75950DFD-39AB-4949-8A68-8C6D8137D57C}"/>
+    <hyperlink ref="H119" r:id="rId32" xr:uid="{1CEE2C1C-5CAA-4221-9E9E-023216550247}"/>
+    <hyperlink ref="I119" r:id="rId33" display="https://www.dropbox.com/scl/fi/7m1z10fp5kfeodsxiwgyi/8.1.xlsx?cloud_editor=excel&amp;dl=0&amp;rlkey=zjmyfc1pkvo57zz610q9in13r" xr:uid="{A8BDBCBD-3D45-433E-945C-C50EF42330AA}"/>
+    <hyperlink ref="H57" r:id="rId34" xr:uid="{2D514D50-5C2E-4495-96EE-18447C70E010}"/>
+    <hyperlink ref="I57" r:id="rId35" xr:uid="{71AA66DE-A95F-45E5-A807-39BAEBABCD4A}"/>
+    <hyperlink ref="H34" r:id="rId36" xr:uid="{6C5E3E67-C5AC-47FF-8E1F-0B6D283FBB47}"/>
+    <hyperlink ref="H107" r:id="rId37" xr:uid="{05278A2C-EF32-4288-AC79-E2F3C414DCB0}"/>
+    <hyperlink ref="H109" r:id="rId38" xr:uid="{465BC4F3-228B-4122-9B29-D51AB49EBEC3}"/>
+    <hyperlink ref="H108" r:id="rId39" xr:uid="{CF7976C9-7F90-4DC9-A637-E9D9624A45D4}"/>
     <hyperlink ref="I17" r:id="rId40" xr:uid="{53595853-D5EB-4109-8B5D-34F99DF8A989}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00Consolidado Tablas Madre.xlsx
+++ b/00Consolidado Tablas Madre.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCN\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8DC3A4-4E6B-40F7-8E5A-3FA21AF588C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB23E54D-0BCC-444B-81A7-AEAABB3926D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidado" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="SegmentaciónDeDatos_Sector">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_Unidad_de_Medida">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -41,21 +41,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="590">
   <si>
     <t>Código Tabla</t>
   </si>
@@ -1699,100 +1690,133 @@
     <t>Desembarque total  año 2019 de pesca y acuicultura por puerto y especie</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Pueblos_Comuna_Edad</t>
+  </si>
+  <si>
+    <t>Persona</t>
+  </si>
+  <si>
+    <t>Indefinido (Decenio)</t>
+  </si>
+  <si>
+    <t>Instituto Nacional de Estadísticas</t>
+  </si>
+  <si>
+    <t>Demografía</t>
+  </si>
+  <si>
+    <t>20.01</t>
+  </si>
+  <si>
+    <t>Pueblos_Comuna_Genero</t>
+  </si>
+  <si>
+    <t>17.26</t>
+  </si>
+  <si>
+    <t>Exportaciones de carne bovino por principales productos, subproductos y destinos miles usd fob  año 2020</t>
+  </si>
+  <si>
+    <t>Exportaciones_productos_subproductos_destinos_miles_usd_fob_2020</t>
+  </si>
+  <si>
+    <t>Importaciones de carne de bovino por productos, subproductos y origen en toneladas año 2020</t>
+  </si>
+  <si>
+    <t>Importaciones_carne_bovino_productos_subproducto_origen_toneladas_2020</t>
+  </si>
+  <si>
+    <t>Importaciones de carne de bovino por productos, subproductos y origen en miles de USD CIF año 2020</t>
+  </si>
+  <si>
+    <t>Importaciones_carne_bovino_productos_subproductos_origen_miles_usd_CIF_2020</t>
+  </si>
+  <si>
+    <t>Exportaciones de carne bovino por principales productos, subproductos y destinos tonelada  año 2020</t>
+  </si>
+  <si>
+    <t>Exportaciones_carne_productos_subproductos_destinos_tonelada_2020</t>
+  </si>
+  <si>
+    <t>Número de cabezas de ganado bovino para carne o lechería por categoría, según región y provincia (2019).</t>
+  </si>
+  <si>
+    <t>Cabezas_bovino_carne_leche</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/s93vy4gbld4weaf/17.1.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/io77pa73umenn8g/17.5.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/epa5tgys0eu6vk2/17.6.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/g354sf991u3e4oz/17.8.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/lec3jip5frkhk62/17.10.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/k0tdg52qy2nlbkd/17.19.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/voil5dbe0we0uuh/17.21.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/rjbcsnfhbwgq5cp/17.22.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/7mqvw2urbmmnwmn/17.23.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/1jga25l3osqf8an/17.26.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>19.2</t>
+  </si>
+  <si>
+    <t>materia_prima_y_produccion_x_especie_x_linea_elaboracion_2019</t>
+  </si>
+  <si>
+    <t>Informacion de materia prima y produccion x especie y por linea de elaboracion año 2019 en toneladas</t>
+  </si>
+  <si>
     <t>19.5</t>
   </si>
   <si>
-    <t>COSECHA_CHILE_DE_CENTROS_ACUICULTURA_2019_TONELADAS</t>
-  </si>
-  <si>
-    <t>Cosecha de especies en centros de acuicultura por especie y region año 2019</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Pueblos_Comuna_Edad</t>
-  </si>
-  <si>
-    <t>Persona</t>
-  </si>
-  <si>
-    <t>Indefinido (Decenio)</t>
-  </si>
-  <si>
-    <t>Instituto Nacional de Estadísticas</t>
-  </si>
-  <si>
-    <t>Demografía</t>
-  </si>
-  <si>
-    <t>20.01</t>
-  </si>
-  <si>
-    <t>Pueblos_Comuna_Genero</t>
-  </si>
-  <si>
-    <t>17.26</t>
-  </si>
-  <si>
-    <t>Exportaciones de carne bovino por principales productos, subproductos y destinos miles usd fob  año 2020</t>
-  </si>
-  <si>
-    <t>Exportaciones_productos_subproductos_destinos_miles_usd_fob_2020</t>
-  </si>
-  <si>
-    <t>Importaciones de carne de bovino por productos, subproductos y origen en toneladas año 2020</t>
-  </si>
-  <si>
-    <t>Importaciones_carne_bovino_productos_subproducto_origen_toneladas_2020</t>
-  </si>
-  <si>
-    <t>Importaciones de carne de bovino por productos, subproductos y origen en miles de USD CIF año 2020</t>
-  </si>
-  <si>
-    <t>Importaciones_carne_bovino_productos_subproductos_origen_miles_usd_CIF_2020</t>
-  </si>
-  <si>
-    <t>Exportaciones de carne bovino por principales productos, subproductos y destinos tonelada  año 2020</t>
-  </si>
-  <si>
-    <t>Exportaciones_carne_productos_subproductos_destinos_tonelada_2020</t>
-  </si>
-  <si>
-    <t>Número de cabezas de ganado bovino para carne o lechería por categoría, según región y provincia (2019).</t>
-  </si>
-  <si>
-    <t>Cabezas_bovino_carne_leche</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/s93vy4gbld4weaf/17.1.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/io77pa73umenn8g/17.5.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/epa5tgys0eu6vk2/17.6.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/g354sf991u3e4oz/17.8.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/lec3jip5frkhk62/17.10.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/k0tdg52qy2nlbkd/17.19.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/voil5dbe0we0uuh/17.21.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/rjbcsnfhbwgq5cp/17.22.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/7mqvw2urbmmnwmn/17.23.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/1jga25l3osqf8an/17.26.xlsx?dl=0</t>
+    <t>Desembarque_por_tipo_a_diciembre_de_cada_año</t>
+  </si>
+  <si>
+    <t>Desembarque por tipo a diciembre de cada año en tonelada</t>
+  </si>
+  <si>
+    <t>Subsecretaria Pesca</t>
+  </si>
+  <si>
+    <t>https://www.subpesca.cl/portal/618/articles-110839_documento.pdf</t>
+  </si>
+  <si>
+    <t>19.6</t>
+  </si>
+  <si>
+    <t>Exportaciones_sector_extractivo_y_acuícola_xtipo_diciembre_2019_2020_usd</t>
+  </si>
+  <si>
+    <t>Exportaciones sector extractivo y sector acuícola por tipo de recurso a diciembre 2019-2020 en US$</t>
+  </si>
+  <si>
+    <t>19.7</t>
+  </si>
+  <si>
+    <t>Exportaciones_sector_extractivo_y_acuícola_xtipo_diciembre_2019_2020_toneladas</t>
+  </si>
+  <si>
+    <t>Exportaciones sector extractivo y sector acuícola por tipo de recurso a diciembre 2019-2020 en toneladas</t>
   </si>
 </sst>
 </file>
@@ -2466,8 +2490,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A11:L130" totalsRowShown="0">
-  <autoFilter ref="A11:L130" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A11:L133" totalsRowShown="0">
+  <autoFilter ref="A11:L133" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:J119">
     <sortCondition ref="A11:A119"/>
   </sortState>
@@ -2786,11 +2810,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD49B1B1-33D3-49D9-BF85-AA2E2407F985}">
-  <dimension ref="A11:L130"/>
+  <dimension ref="A11:L133"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+      <pane ySplit="11" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3718,10 +3742,10 @@
         <v>180</v>
       </c>
       <c r="B36" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C36" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D36" t="s">
         <v>115</v>
@@ -3756,10 +3780,10 @@
         <v>181</v>
       </c>
       <c r="B37" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C37" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D37" t="s">
         <v>179</v>
@@ -3905,13 +3929,13 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B41" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C41" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D41" t="s">
         <v>185</v>
@@ -3929,7 +3953,7 @@
         <v>152</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="J41" t="s">
         <v>137</v>
@@ -3967,7 +3991,7 @@
         <v>152</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="J42" t="s">
         <v>137</v>
@@ -4005,7 +4029,7 @@
         <v>152</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="J43" t="s">
         <v>137</v>
@@ -4043,7 +4067,7 @@
         <v>152</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="J44" t="s">
         <v>137</v>
@@ -4081,7 +4105,7 @@
         <v>152</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="J45" t="s">
         <v>137</v>
@@ -4119,7 +4143,7 @@
         <v>152</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="J46" t="s">
         <v>137</v>
@@ -4157,7 +4181,7 @@
         <v>152</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="J47" t="s">
         <v>137</v>
@@ -4212,10 +4236,10 @@
         <v>214</v>
       </c>
       <c r="B49" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C49" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D49" t="s">
         <v>115</v>
@@ -4233,7 +4257,7 @@
         <v>152</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="J49" t="s">
         <v>154</v>
@@ -4250,10 +4274,10 @@
         <v>213</v>
       </c>
       <c r="B50" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C50" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D50" t="s">
         <v>207</v>
@@ -4271,7 +4295,7 @@
         <v>152</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="J50" t="s">
         <v>154</v>
@@ -4309,7 +4333,7 @@
         <v>152</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="J51" t="s">
         <v>154</v>
@@ -6988,55 +7012,50 @@
       <c r="B128" t="s">
         <v>548</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>549</v>
       </c>
-      <c r="D128" t="s">
-        <v>115</v>
-      </c>
       <c r="E128" t="s">
-        <v>14</v>
+        <v>550</v>
       </c>
       <c r="F128" t="s">
         <v>15</v>
       </c>
       <c r="G128" t="s">
-        <v>246</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>249</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="H128" s="10"/>
       <c r="I128" s="1"/>
       <c r="J128" t="s">
-        <v>154</v>
+        <v>466</v>
       </c>
       <c r="K128" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="L128" t="s">
-        <v>248</v>
+        <v>552</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="B129" t="s">
+        <v>554</v>
+      </c>
+      <c r="D129" t="s">
+        <v>549</v>
+      </c>
+      <c r="E129" t="s">
         <v>550</v>
       </c>
-      <c r="B129" t="s">
+      <c r="F129" t="s">
+        <v>15</v>
+      </c>
+      <c r="G129" t="s">
         <v>551</v>
       </c>
-      <c r="D129" t="s">
-        <v>552</v>
-      </c>
-      <c r="E129" t="s">
-        <v>553</v>
-      </c>
-      <c r="F129" t="s">
-        <v>15</v>
-      </c>
-      <c r="G129" t="s">
-        <v>554</v>
-      </c>
-      <c r="H129" s="10"/>
+      <c r="H129" s="1"/>
       <c r="I129" s="1"/>
       <c r="J129" t="s">
         <v>466</v>
@@ -7045,38 +7064,151 @@
         <v>30</v>
       </c>
       <c r="L129" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
-        <v>556</v>
+        <v>576</v>
       </c>
       <c r="B130" t="s">
-        <v>557</v>
+        <v>577</v>
+      </c>
+      <c r="C130" t="s">
+        <v>578</v>
       </c>
       <c r="D130" t="s">
-        <v>552</v>
+        <v>115</v>
       </c>
       <c r="E130" t="s">
-        <v>553</v>
+        <v>14</v>
       </c>
       <c r="F130" t="s">
         <v>15</v>
       </c>
       <c r="G130" t="s">
-        <v>554</v>
-      </c>
-      <c r="H130" s="1"/>
+        <v>246</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="I130" s="1"/>
       <c r="J130" t="s">
-        <v>466</v>
+        <v>154</v>
       </c>
       <c r="K130" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="L130" t="s">
-        <v>555</v>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="B131" t="s">
+        <v>580</v>
+      </c>
+      <c r="C131" t="s">
+        <v>581</v>
+      </c>
+      <c r="D131" t="s">
+        <v>115</v>
+      </c>
+      <c r="E131" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" t="s">
+        <v>15</v>
+      </c>
+      <c r="G131" t="s">
+        <v>582</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="I131" s="1"/>
+      <c r="J131" t="s">
+        <v>154</v>
+      </c>
+      <c r="K131" t="s">
+        <v>64</v>
+      </c>
+      <c r="L131" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="13" t="s">
+        <v>584</v>
+      </c>
+      <c r="B132" t="s">
+        <v>585</v>
+      </c>
+      <c r="C132" t="s">
+        <v>586</v>
+      </c>
+      <c r="D132" t="s">
+        <v>45</v>
+      </c>
+      <c r="E132" t="s">
+        <v>14</v>
+      </c>
+      <c r="F132" t="s">
+        <v>15</v>
+      </c>
+      <c r="G132" t="s">
+        <v>582</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="I132" s="1"/>
+      <c r="J132" t="s">
+        <v>154</v>
+      </c>
+      <c r="K132" t="s">
+        <v>64</v>
+      </c>
+      <c r="L132" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="13" t="s">
+        <v>587</v>
+      </c>
+      <c r="B133" t="s">
+        <v>588</v>
+      </c>
+      <c r="C133" t="s">
+        <v>589</v>
+      </c>
+      <c r="D133" t="s">
+        <v>115</v>
+      </c>
+      <c r="E133" t="s">
+        <v>14</v>
+      </c>
+      <c r="F133" t="s">
+        <v>15</v>
+      </c>
+      <c r="G133" t="s">
+        <v>582</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="I133" s="1"/>
+      <c r="J133" t="s">
+        <v>154</v>
+      </c>
+      <c r="K133" t="s">
+        <v>64</v>
+      </c>
+      <c r="L133" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/00Consolidado Tablas Madre.xlsx
+++ b/00Consolidado Tablas Madre.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCN\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB23E54D-0BCC-444B-81A7-AEAABB3926D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7B73CF-EC8B-4C2C-898D-CB61560996A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="616">
   <si>
     <t>Código Tabla</t>
   </si>
@@ -535,9 +535,6 @@
   </si>
   <si>
     <t>Faena de vacas del total de Faena de Bovinos, numero de cabezas mensual</t>
-  </si>
-  <si>
-    <t>Numero</t>
   </si>
   <si>
     <t>17.19</t>
@@ -1817,6 +1814,87 @@
   </si>
   <si>
     <t>Exportaciones sector extractivo y sector acuícola por tipo de recurso a diciembre 2019-2020 en toneladas</t>
+  </si>
+  <si>
+    <t>7.9</t>
+  </si>
+  <si>
+    <t>Cant_Rinden_Simce_Matematica</t>
+  </si>
+  <si>
+    <t>Cantidad de alumnos que rinden simce matematica por establecimiento</t>
+  </si>
+  <si>
+    <t>7.10</t>
+  </si>
+  <si>
+    <t>Puntaje_Simce_lectura_establecimiento</t>
+  </si>
+  <si>
+    <t>Puntaje promedio cada establecimiento Since Lectura</t>
+  </si>
+  <si>
+    <t>7.11</t>
+  </si>
+  <si>
+    <t>Puntaje_Simce_Matematica_establecimiento</t>
+  </si>
+  <si>
+    <t>Puntaje promedio cada establecimiento Since Matematica</t>
+  </si>
+  <si>
+    <t>7.12</t>
+  </si>
+  <si>
+    <t>Alumnos_estandar_insuficiente_simce_lectura</t>
+  </si>
+  <si>
+    <t>Porcentaje de estudiantes con estándar insuficiente en Simce Lectura por establecimiento</t>
+  </si>
+  <si>
+    <t>7.13</t>
+  </si>
+  <si>
+    <t>Porcentaje de estudiantes con estándar elemental en Simce Lectura por establecimiento</t>
+  </si>
+  <si>
+    <t>Alumnos_estandar_elemental_simce_lectura</t>
+  </si>
+  <si>
+    <t>7.14</t>
+  </si>
+  <si>
+    <t>Alumnos_estandar_adecuado_simce_lectura</t>
+  </si>
+  <si>
+    <t>Porcentaje de estudiantes con estándar adecuado en Simce Lectura por establecimiento</t>
+  </si>
+  <si>
+    <t>Alumnos_estandar_insuficiente_simce_matematica</t>
+  </si>
+  <si>
+    <t>Porcentaje de estudiantes con estándar insuficiente en Simce matematica por establecimiento</t>
+  </si>
+  <si>
+    <t>7.15</t>
+  </si>
+  <si>
+    <t>7.16</t>
+  </si>
+  <si>
+    <t>Alumnos_estandar_elemental_simce_matematica</t>
+  </si>
+  <si>
+    <t>Porcentaje de estudiantes con estándar elemental en Simce matematica por establecimiento</t>
+  </si>
+  <si>
+    <t>Alumnos_estandar_adecuado_simce_matematica</t>
+  </si>
+  <si>
+    <t>7.17</t>
+  </si>
+  <si>
+    <t>Porcentaje de estudiantes con estándar adecuado en Simce matematica por establecimiento</t>
   </si>
 </sst>
 </file>
@@ -2480,8 +2558,8 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Código Tabla" xr10:uid="{ACADD536-4F26-4F32-AA2C-B6B02C14A824}" cache="SegmentaciónDeDatos_Código_Tabla" caption="Código Tabla" startItem="35" columnCount="5" style="SlicerStyleDark1" rowHeight="234950"/>
-  <slicer name="Unidad de Medida" xr10:uid="{6574F389-29CB-47FF-B34C-0B381A5AA264}" cache="SegmentaciónDeDatos_Unidad_de_Medida" caption="Unidad de Medida" columnCount="2" style="SlicerStyleDark1" rowHeight="234950"/>
+  <slicer name="Código Tabla" xr10:uid="{ACADD536-4F26-4F32-AA2C-B6B02C14A824}" cache="SegmentaciónDeDatos_Código_Tabla" caption="Código Tabla" columnCount="5" style="SlicerStyleDark1" rowHeight="234950"/>
+  <slicer name="Unidad de Medida" xr10:uid="{6574F389-29CB-47FF-B34C-0B381A5AA264}" cache="SegmentaciónDeDatos_Unidad_de_Medida" caption="Unidad de Medida" startItem="10" columnCount="2" style="SlicerStyleDark1" rowHeight="234950"/>
   <slicer name="Nombre Fuente" xr10:uid="{FCDE2E95-E63C-47A4-8F50-C4F8F5EADAEA}" cache="SegmentaciónDeDatos_Nombre_Fuente" caption="Nombre Fuente" columnCount="2" style="SlicerStyleDark1" rowHeight="234950"/>
   <slicer name="Encargado" xr10:uid="{4B8EAA2A-5539-4124-8E5D-AA4E68FD63C8}" cache="SegmentaciónDeDatos_Encargado" caption="Encargado" columnCount="2" style="SlicerStyleDark1" rowHeight="234950"/>
   <slicer name="Industria" xr10:uid="{5E69910F-72C0-4CCC-9A40-0C33D8089AF2}" cache="SegmentaciónDeDatos_Industria" caption="Industria" style="SlicerStyleDark1" rowHeight="234950"/>
@@ -2490,8 +2568,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A11:L133" totalsRowShown="0">
-  <autoFilter ref="A11:L133" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A11:L142" totalsRowShown="0">
+  <autoFilter ref="A11:L142" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:J119">
     <sortCondition ref="A11:A119"/>
   </sortState>
@@ -2810,11 +2888,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD49B1B1-33D3-49D9-BF85-AA2E2407F985}">
-  <dimension ref="A11:L133"/>
+  <dimension ref="A11:L142"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A133" sqref="A133"/>
+      <pane ySplit="11" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3634,7 +3712,7 @@
         <v>162</v>
       </c>
       <c r="D33" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -3663,31 +3741,31 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B34" t="s">
         <v>165</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>166</v>
-      </c>
-      <c r="C34" t="s">
-        <v>167</v>
       </c>
       <c r="D34" t="s">
         <v>26</v>
       </c>
       <c r="E34" t="s">
+        <v>167</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s">
         <v>168</v>
       </c>
-      <c r="F34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="H34" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="J34" t="s">
         <v>96</v>
@@ -3696,21 +3774,21 @@
         <v>64</v>
       </c>
       <c r="L34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B35" t="s">
         <v>173</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>174</v>
       </c>
-      <c r="C35" t="s">
-        <v>175</v>
-      </c>
       <c r="D35" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="E35" t="s">
         <v>14</v>
@@ -3739,13 +3817,13 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B36" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C36" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D36" t="s">
         <v>115</v>
@@ -3777,16 +3855,16 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B37" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C37" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E37" t="s">
         <v>14</v>
@@ -3815,16 +3893,16 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B38" t="s">
         <v>182</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>183</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>184</v>
-      </c>
-      <c r="D38" t="s">
-        <v>185</v>
       </c>
       <c r="E38" t="s">
         <v>14</v>
@@ -3853,16 +3931,16 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B39" t="s">
         <v>186</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>187</v>
       </c>
-      <c r="C39" t="s">
-        <v>188</v>
-      </c>
       <c r="D39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E39" t="s">
         <v>14</v>
@@ -3877,7 +3955,7 @@
         <v>152</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J39" t="s">
         <v>137</v>
@@ -3891,13 +3969,13 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B40" t="s">
         <v>190</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>191</v>
-      </c>
-      <c r="C40" t="s">
-        <v>192</v>
       </c>
       <c r="D40" t="s">
         <v>147</v>
@@ -3915,7 +3993,7 @@
         <v>150</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J40" t="s">
         <v>19</v>
@@ -3929,16 +4007,16 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B41" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C41" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E41" t="s">
         <v>14</v>
@@ -3953,7 +4031,7 @@
         <v>152</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="J41" t="s">
         <v>137</v>
@@ -3967,16 +4045,16 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B42" t="s">
+        <v>193</v>
+      </c>
+      <c r="C42" t="s">
         <v>194</v>
       </c>
-      <c r="C42" t="s">
-        <v>195</v>
-      </c>
       <c r="D42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E42" t="s">
         <v>14</v>
@@ -3991,7 +4069,7 @@
         <v>152</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J42" t="s">
         <v>137</v>
@@ -4005,16 +4083,16 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B43" t="s">
+        <v>195</v>
+      </c>
+      <c r="C43" t="s">
         <v>196</v>
       </c>
-      <c r="C43" t="s">
-        <v>197</v>
-      </c>
       <c r="D43" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E43" t="s">
         <v>14</v>
@@ -4029,7 +4107,7 @@
         <v>152</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J43" t="s">
         <v>137</v>
@@ -4043,13 +4121,13 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B44" t="s">
+        <v>197</v>
+      </c>
+      <c r="C44" t="s">
         <v>198</v>
-      </c>
-      <c r="C44" t="s">
-        <v>199</v>
       </c>
       <c r="D44" t="s">
         <v>147</v>
@@ -4067,7 +4145,7 @@
         <v>152</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J44" t="s">
         <v>137</v>
@@ -4081,13 +4159,13 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B45" t="s">
+        <v>199</v>
+      </c>
+      <c r="C45" t="s">
         <v>200</v>
-      </c>
-      <c r="C45" t="s">
-        <v>201</v>
       </c>
       <c r="D45" t="s">
         <v>147</v>
@@ -4105,7 +4183,7 @@
         <v>152</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J45" t="s">
         <v>137</v>
@@ -4122,10 +4200,10 @@
         <v>151</v>
       </c>
       <c r="B46" t="s">
+        <v>201</v>
+      </c>
+      <c r="C46" t="s">
         <v>202</v>
-      </c>
-      <c r="C46" t="s">
-        <v>203</v>
       </c>
       <c r="D46" t="s">
         <v>147</v>
@@ -4143,7 +4221,7 @@
         <v>152</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J46" t="s">
         <v>137</v>
@@ -4157,16 +4235,16 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B47" t="s">
+        <v>203</v>
+      </c>
+      <c r="C47" t="s">
         <v>204</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>205</v>
-      </c>
-      <c r="D47" t="s">
-        <v>206</v>
       </c>
       <c r="E47" t="s">
         <v>14</v>
@@ -4181,7 +4259,7 @@
         <v>152</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J47" t="s">
         <v>137</v>
@@ -4195,13 +4273,13 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B48" t="s">
         <v>208</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>209</v>
-      </c>
-      <c r="C48" t="s">
-        <v>210</v>
       </c>
       <c r="D48" t="s">
         <v>115</v>
@@ -4233,13 +4311,13 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B49" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C49" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D49" t="s">
         <v>115</v>
@@ -4257,7 +4335,7 @@
         <v>152</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J49" t="s">
         <v>154</v>
@@ -4271,16 +4349,16 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B50" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C50" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E50" t="s">
         <v>14</v>
@@ -4295,7 +4373,7 @@
         <v>152</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="J50" t="s">
         <v>154</v>
@@ -4312,10 +4390,10 @@
         <v>146</v>
       </c>
       <c r="B51" t="s">
+        <v>210</v>
+      </c>
+      <c r="C51" t="s">
         <v>211</v>
-      </c>
-      <c r="C51" t="s">
-        <v>212</v>
       </c>
       <c r="D51" t="s">
         <v>115</v>
@@ -4333,7 +4411,7 @@
         <v>152</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J51" t="s">
         <v>154</v>
@@ -4347,13 +4425,13 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B52" t="s">
         <v>215</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>216</v>
-      </c>
-      <c r="C52" t="s">
-        <v>217</v>
       </c>
       <c r="D52" t="s">
         <v>76</v>
@@ -4385,13 +4463,13 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B53" t="s">
         <v>219</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>220</v>
-      </c>
-      <c r="C53" t="s">
-        <v>221</v>
       </c>
       <c r="D53" t="s">
         <v>115</v>
@@ -4423,13 +4501,13 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B54" t="s">
         <v>222</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>223</v>
-      </c>
-      <c r="C54" t="s">
-        <v>224</v>
       </c>
       <c r="D54" t="s">
         <v>69</v>
@@ -4441,13 +4519,13 @@
         <v>15</v>
       </c>
       <c r="G54" t="s">
+        <v>224</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="I54" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="J54" t="s">
         <v>81</v>
@@ -4461,31 +4539,31 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B55" t="s">
         <v>228</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>229</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>230</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" t="s">
+        <v>224</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="E55" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" t="s">
-        <v>225</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="J55" t="s">
         <v>81</v>
@@ -4499,13 +4577,13 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B56" t="s">
         <v>233</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>234</v>
-      </c>
-      <c r="C56" t="s">
-        <v>235</v>
       </c>
       <c r="D56" t="s">
         <v>76</v>
@@ -4517,13 +4595,13 @@
         <v>15</v>
       </c>
       <c r="G56" t="s">
+        <v>224</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="I56" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J56" t="s">
         <v>81</v>
@@ -4537,31 +4615,31 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B57" t="s">
         <v>237</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>238</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>239</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" t="s">
+        <v>224</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E57" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" t="s">
-        <v>225</v>
-      </c>
-      <c r="H57" s="1" t="s">
+      <c r="I57" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="J57" t="s">
         <v>81</v>
@@ -4575,13 +4653,13 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B58" t="s">
         <v>243</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>244</v>
-      </c>
-      <c r="C58" t="s">
-        <v>245</v>
       </c>
       <c r="D58" t="s">
         <v>115</v>
@@ -4593,10 +4671,10 @@
         <v>15</v>
       </c>
       <c r="G58" t="s">
+        <v>245</v>
+      </c>
+      <c r="H58" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" t="s">
@@ -4606,56 +4684,56 @@
         <v>64</v>
       </c>
       <c r="L58" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="B59" t="s">
         <v>250</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>251</v>
-      </c>
-      <c r="C59" t="s">
-        <v>252</v>
       </c>
       <c r="D59" t="s">
         <v>76</v>
       </c>
       <c r="E59" t="s">
+        <v>252</v>
+      </c>
+      <c r="F59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" t="s">
         <v>253</v>
       </c>
-      <c r="F59" t="s">
-        <v>15</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="H59" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="I59" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="J59" t="s">
         <v>96</v>
       </c>
       <c r="K59" t="s">
+        <v>256</v>
+      </c>
+      <c r="L59" t="s">
         <v>257</v>
-      </c>
-      <c r="L59" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="B60" t="s">
         <v>259</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>260</v>
-      </c>
-      <c r="C60" t="s">
-        <v>261</v>
       </c>
       <c r="D60" t="s">
         <v>76</v>
@@ -4667,33 +4745,33 @@
         <v>15</v>
       </c>
       <c r="G60" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H60" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="J60" t="s">
         <v>96</v>
       </c>
       <c r="K60" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L60" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="B61" t="s">
         <v>265</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>266</v>
-      </c>
-      <c r="C61" t="s">
-        <v>267</v>
       </c>
       <c r="D61" t="s">
         <v>76</v>
@@ -4705,33 +4783,33 @@
         <v>15</v>
       </c>
       <c r="G61" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J61" t="s">
         <v>96</v>
       </c>
       <c r="K61" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L61" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="B62" t="s">
         <v>269</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>270</v>
-      </c>
-      <c r="C62" t="s">
-        <v>271</v>
       </c>
       <c r="D62" t="s">
         <v>76</v>
@@ -4743,109 +4821,109 @@
         <v>15</v>
       </c>
       <c r="G62" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J62" t="s">
         <v>96</v>
       </c>
       <c r="K62" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L62" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="B63" t="s">
         <v>273</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>274</v>
-      </c>
-      <c r="C63" t="s">
-        <v>275</v>
       </c>
       <c r="D63" t="s">
         <v>76</v>
       </c>
       <c r="E63" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F63" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="F63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" s="4" t="s">
+      <c r="H63" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H63" s="5" t="s">
+      <c r="I63" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="J63" t="s">
         <v>96</v>
       </c>
       <c r="K63" t="s">
+        <v>256</v>
+      </c>
+      <c r="L63" t="s">
         <v>257</v>
-      </c>
-      <c r="L63" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="B64" t="s">
         <v>280</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>281</v>
-      </c>
-      <c r="C64" t="s">
-        <v>282</v>
       </c>
       <c r="D64" t="s">
         <v>76</v>
       </c>
       <c r="E64" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="F64" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" t="s">
         <v>276</v>
       </c>
-      <c r="F64" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="H64" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="H64" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="I64" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J64" t="s">
         <v>96</v>
       </c>
       <c r="K64" t="s">
+        <v>256</v>
+      </c>
+      <c r="L64" t="s">
         <v>257</v>
-      </c>
-      <c r="L64" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="B65" t="s">
         <v>284</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>285</v>
-      </c>
-      <c r="C65" t="s">
-        <v>286</v>
       </c>
       <c r="D65" t="s">
         <v>76</v>
@@ -4857,33 +4935,33 @@
         <v>15</v>
       </c>
       <c r="G65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J65" t="s">
         <v>96</v>
       </c>
       <c r="K65" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L65" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="B66" t="s">
         <v>289</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>290</v>
-      </c>
-      <c r="C66" t="s">
-        <v>291</v>
       </c>
       <c r="D66" t="s">
         <v>76</v>
@@ -4895,33 +4973,33 @@
         <v>15</v>
       </c>
       <c r="G66" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J66" t="s">
         <v>96</v>
       </c>
       <c r="K66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L66" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="B67" t="s">
         <v>293</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>294</v>
-      </c>
-      <c r="C67" t="s">
-        <v>295</v>
       </c>
       <c r="D67" t="s">
         <v>76</v>
@@ -4933,33 +5011,33 @@
         <v>15</v>
       </c>
       <c r="G67" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J67" t="s">
         <v>96</v>
       </c>
       <c r="K67" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L67" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="B68" t="s">
         <v>297</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>298</v>
-      </c>
-      <c r="C68" t="s">
-        <v>299</v>
       </c>
       <c r="D68" t="s">
         <v>76</v>
@@ -4971,33 +5049,33 @@
         <v>15</v>
       </c>
       <c r="G68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J68" t="s">
         <v>96</v>
       </c>
       <c r="K68" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L68" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="B69" t="s">
         <v>301</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>302</v>
-      </c>
-      <c r="C69" t="s">
-        <v>303</v>
       </c>
       <c r="D69" t="s">
         <v>76</v>
@@ -5009,33 +5087,33 @@
         <v>15</v>
       </c>
       <c r="G69" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J69" t="s">
         <v>96</v>
       </c>
       <c r="K69" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L69" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="B70" t="s">
         <v>305</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>306</v>
-      </c>
-      <c r="C70" t="s">
-        <v>307</v>
       </c>
       <c r="D70" t="s">
         <v>76</v>
@@ -5047,51 +5125,51 @@
         <v>15</v>
       </c>
       <c r="G70" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J70" t="s">
         <v>96</v>
       </c>
       <c r="K70" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L70" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="B71" t="s">
         <v>309</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>310</v>
-      </c>
-      <c r="C71" t="s">
-        <v>311</v>
       </c>
       <c r="D71" t="s">
         <v>76</v>
       </c>
       <c r="E71" t="s">
+        <v>311</v>
+      </c>
+      <c r="F71" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" t="s">
         <v>312</v>
       </c>
-      <c r="F71" t="s">
-        <v>15</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="H71" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="I71" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="J71" t="s">
         <v>137</v>
@@ -5100,36 +5178,36 @@
         <v>30</v>
       </c>
       <c r="L71" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="B72" t="s">
         <v>317</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>318</v>
-      </c>
-      <c r="C72" t="s">
-        <v>319</v>
       </c>
       <c r="D72" t="s">
         <v>76</v>
       </c>
       <c r="E72" t="s">
+        <v>311</v>
+      </c>
+      <c r="F72" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" t="s">
         <v>312</v>
       </c>
-      <c r="F72" t="s">
-        <v>15</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="H72" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="I72" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="J72" t="s">
         <v>137</v>
@@ -5138,18 +5216,18 @@
         <v>30</v>
       </c>
       <c r="L72" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="B73" t="s">
         <v>320</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>321</v>
-      </c>
-      <c r="C73" t="s">
-        <v>322</v>
       </c>
       <c r="D73" t="s">
         <v>76</v>
@@ -5161,13 +5239,13 @@
         <v>15</v>
       </c>
       <c r="G73" t="s">
+        <v>322</v>
+      </c>
+      <c r="H73" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="I73" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="J73" t="s">
         <v>137</v>
@@ -5176,18 +5254,18 @@
         <v>30</v>
       </c>
       <c r="L73" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="B74" t="s">
         <v>326</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>327</v>
-      </c>
-      <c r="C74" t="s">
-        <v>328</v>
       </c>
       <c r="D74" t="s">
         <v>115</v>
@@ -5201,7 +5279,7 @@
       <c r="G74" s="2"/>
       <c r="H74" s="3"/>
       <c r="I74" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J74" t="s">
         <v>63</v>
@@ -5210,18 +5288,18 @@
         <v>64</v>
       </c>
       <c r="L74" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="B75" t="s">
         <v>330</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>331</v>
-      </c>
-      <c r="C75" t="s">
-        <v>332</v>
       </c>
       <c r="D75" t="s">
         <v>115</v>
@@ -5236,10 +5314,10 @@
         <v>149</v>
       </c>
       <c r="H75" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I75" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="J75" t="s">
         <v>137</v>
@@ -5248,21 +5326,21 @@
         <v>64</v>
       </c>
       <c r="L75" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="B76" t="s">
         <v>335</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>336</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>337</v>
-      </c>
-      <c r="D76" t="s">
-        <v>338</v>
       </c>
       <c r="E76" t="s">
         <v>14</v>
@@ -5274,10 +5352,10 @@
         <v>149</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J76" t="s">
         <v>137</v>
@@ -5286,18 +5364,18 @@
         <v>64</v>
       </c>
       <c r="L76" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="C77" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>69</v>
@@ -5312,10 +5390,10 @@
         <v>149</v>
       </c>
       <c r="H77" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="I77" s="8" t="s">
         <v>343</v>
-      </c>
-      <c r="I77" s="8" t="s">
-        <v>344</v>
       </c>
       <c r="J77" s="7" t="s">
         <v>63</v>
@@ -5324,18 +5402,18 @@
         <v>64</v>
       </c>
       <c r="L77" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="B78" t="s">
         <v>345</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" s="9" t="s">
         <v>346</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>347</v>
       </c>
       <c r="D78" t="s">
         <v>26</v>
@@ -5350,10 +5428,10 @@
         <v>149</v>
       </c>
       <c r="H78" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="I78" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="J78" t="s">
         <v>63</v>
@@ -5362,21 +5440,21 @@
         <v>64</v>
       </c>
       <c r="L78" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="B79" t="s">
         <v>350</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>351</v>
       </c>
-      <c r="C79" t="s">
-        <v>352</v>
-      </c>
       <c r="D79" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E79" t="s">
         <v>14</v>
@@ -5387,7 +5465,7 @@
       <c r="G79" s="2"/>
       <c r="H79" s="3"/>
       <c r="I79" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J79" t="s">
         <v>63</v>
@@ -5396,18 +5474,18 @@
         <v>64</v>
       </c>
       <c r="L79" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="B80" t="s">
         <v>354</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>355</v>
-      </c>
-      <c r="C80" t="s">
-        <v>356</v>
       </c>
       <c r="D80" t="s">
         <v>115</v>
@@ -5421,7 +5499,7 @@
       <c r="G80" s="2"/>
       <c r="H80" s="3"/>
       <c r="I80" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J80" t="s">
         <v>63</v>
@@ -5430,21 +5508,21 @@
         <v>64</v>
       </c>
       <c r="L80" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="B81" t="s">
         <v>358</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>359</v>
       </c>
-      <c r="C81" t="s">
-        <v>360</v>
-      </c>
       <c r="D81" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E81" t="s">
         <v>14</v>
@@ -5455,7 +5533,7 @@
       <c r="G81" s="2"/>
       <c r="H81" s="3"/>
       <c r="I81" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J81" t="s">
         <v>63</v>
@@ -5464,18 +5542,18 @@
         <v>64</v>
       </c>
       <c r="L81" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="B82" t="s">
         <v>362</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>363</v>
-      </c>
-      <c r="C82" t="s">
-        <v>364</v>
       </c>
       <c r="D82" t="s">
         <v>45</v>
@@ -5489,7 +5567,7 @@
       <c r="G82" s="2"/>
       <c r="H82" s="3"/>
       <c r="I82" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J82" t="s">
         <v>63</v>
@@ -5498,21 +5576,21 @@
         <v>64</v>
       </c>
       <c r="L82" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="B83" t="s">
         <v>366</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>367</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>368</v>
-      </c>
-      <c r="D83" t="s">
-        <v>369</v>
       </c>
       <c r="E83" t="s">
         <v>14</v>
@@ -5523,7 +5601,7 @@
       <c r="G83" s="2"/>
       <c r="H83" s="3"/>
       <c r="I83" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J83" t="s">
         <v>63</v>
@@ -5532,18 +5610,18 @@
         <v>64</v>
       </c>
       <c r="L83" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="B84" t="s">
         <v>371</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>372</v>
-      </c>
-      <c r="C84" t="s">
-        <v>373</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>69</v>
@@ -5558,10 +5636,10 @@
         <v>149</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J84" t="s">
         <v>63</v>
@@ -5570,18 +5648,18 @@
         <v>64</v>
       </c>
       <c r="L84" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="B85" t="s">
         <v>375</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>376</v>
-      </c>
-      <c r="C85" t="s">
-        <v>377</v>
       </c>
       <c r="D85" t="s">
         <v>76</v>
@@ -5596,10 +5674,10 @@
         <v>149</v>
       </c>
       <c r="H85" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="I85" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="J85" t="s">
         <v>96</v>
@@ -5608,18 +5686,18 @@
         <v>64</v>
       </c>
       <c r="L85" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="B86" t="s">
         <v>380</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>381</v>
-      </c>
-      <c r="C86" t="s">
-        <v>382</v>
       </c>
       <c r="D86" t="s">
         <v>69</v>
@@ -5631,13 +5709,13 @@
         <v>15</v>
       </c>
       <c r="G86" t="s">
+        <v>382</v>
+      </c>
+      <c r="H86" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H86" s="1" t="s">
+      <c r="I86" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="J86" t="s">
         <v>137</v>
@@ -5646,18 +5724,18 @@
         <v>64</v>
       </c>
       <c r="L86" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="B87" t="s">
         <v>386</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>387</v>
-      </c>
-      <c r="C87" t="s">
-        <v>388</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s">
@@ -5673,7 +5751,7 @@
         <v>22</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J87" t="s">
         <v>19</v>
@@ -5681,13 +5759,13 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B88" t="s">
+        <v>389</v>
+      </c>
+      <c r="C88" t="s">
         <v>390</v>
-      </c>
-      <c r="C88" t="s">
-        <v>391</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s">
@@ -5703,7 +5781,7 @@
         <v>22</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J88" t="s">
         <v>19</v>
@@ -5711,13 +5789,13 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="B89" t="s">
         <v>393</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>394</v>
-      </c>
-      <c r="C89" t="s">
-        <v>395</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s">
@@ -5733,7 +5811,7 @@
         <v>22</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J89" t="s">
         <v>19</v>
@@ -5741,13 +5819,13 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="B90" t="s">
         <v>397</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>398</v>
-      </c>
-      <c r="C90" t="s">
-        <v>399</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s">
@@ -5763,7 +5841,7 @@
         <v>22</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J90" t="s">
         <v>19</v>
@@ -5771,13 +5849,13 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="B91" t="s">
         <v>401</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>402</v>
-      </c>
-      <c r="C91" t="s">
-        <v>403</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s">
@@ -5793,7 +5871,7 @@
         <v>22</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J91" t="s">
         <v>19</v>
@@ -5801,13 +5879,13 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="B92" t="s">
         <v>405</v>
       </c>
-      <c r="B92" t="s">
-        <v>406</v>
-      </c>
       <c r="C92" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s">
@@ -5823,7 +5901,7 @@
         <v>22</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J92" t="s">
         <v>19</v>
@@ -5831,13 +5909,13 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="B93" t="s">
         <v>408</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>409</v>
-      </c>
-      <c r="C93" t="s">
-        <v>410</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s">
@@ -5853,7 +5931,7 @@
         <v>22</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J93" t="s">
         <v>19</v>
@@ -5861,13 +5939,13 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="B94" t="s">
         <v>411</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>412</v>
-      </c>
-      <c r="C94" t="s">
-        <v>413</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s">
@@ -5883,7 +5961,7 @@
         <v>22</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J94" t="s">
         <v>19</v>
@@ -5891,13 +5969,13 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="B95" t="s">
         <v>415</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>416</v>
-      </c>
-      <c r="C95" t="s">
-        <v>417</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s">
@@ -5913,7 +5991,7 @@
         <v>22</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J95" t="s">
         <v>19</v>
@@ -5927,13 +6005,13 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="B96" t="s">
         <v>419</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>420</v>
-      </c>
-      <c r="C96" t="s">
-        <v>421</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s">
@@ -5949,7 +6027,7 @@
         <v>22</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J96" t="s">
         <v>19</v>
@@ -5957,13 +6035,13 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="B97" t="s">
         <v>423</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>424</v>
-      </c>
-      <c r="C97" t="s">
-        <v>425</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s">
@@ -5979,7 +6057,7 @@
         <v>22</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J97" t="s">
         <v>19</v>
@@ -5987,13 +6065,13 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="B98" t="s">
         <v>427</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>428</v>
-      </c>
-      <c r="C98" t="s">
-        <v>429</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s">
@@ -6009,7 +6087,7 @@
         <v>22</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J98" t="s">
         <v>19</v>
@@ -6017,13 +6095,13 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B99" t="s">
+        <v>430</v>
+      </c>
+      <c r="C99" t="s">
         <v>431</v>
-      </c>
-      <c r="C99" t="s">
-        <v>432</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s">
@@ -6039,7 +6117,7 @@
         <v>22</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J99" t="s">
         <v>19</v>
@@ -6047,13 +6125,13 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="B100" t="s">
         <v>434</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>435</v>
-      </c>
-      <c r="C100" t="s">
-        <v>436</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s">
@@ -6069,7 +6147,7 @@
         <v>22</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J100" t="s">
         <v>19</v>
@@ -6077,13 +6155,13 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="B101" t="s">
         <v>438</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>439</v>
-      </c>
-      <c r="C101" t="s">
-        <v>440</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s">
@@ -6099,7 +6177,7 @@
         <v>22</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J101" t="s">
         <v>19</v>
@@ -6107,13 +6185,13 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="B102" t="s">
         <v>442</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>443</v>
-      </c>
-      <c r="C102" t="s">
-        <v>444</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s">
@@ -6129,7 +6207,7 @@
         <v>22</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J102" t="s">
         <v>19</v>
@@ -6137,13 +6215,13 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="B103" t="s">
         <v>446</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>447</v>
-      </c>
-      <c r="C103" t="s">
-        <v>448</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s">
@@ -6159,7 +6237,7 @@
         <v>22</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J103" t="s">
         <v>19</v>
@@ -6167,13 +6245,13 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B104" t="s">
         <v>450</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>451</v>
-      </c>
-      <c r="C104" t="s">
-        <v>452</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s">
@@ -6189,7 +6267,7 @@
         <v>22</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J104" t="s">
         <v>19</v>
@@ -6197,13 +6275,13 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="B105" t="s">
         <v>454</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>455</v>
-      </c>
-      <c r="C105" t="s">
-        <v>456</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s">
@@ -6219,7 +6297,7 @@
         <v>22</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J105" t="s">
         <v>19</v>
@@ -6227,13 +6305,13 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="B106" t="s">
         <v>458</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>459</v>
-      </c>
-      <c r="C106" t="s">
-        <v>460</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s">
@@ -6249,7 +6327,7 @@
         <v>22</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J106" t="s">
         <v>19</v>
@@ -6257,13 +6335,13 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="B107" t="s">
         <v>462</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>463</v>
-      </c>
-      <c r="C107" t="s">
-        <v>464</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s">
@@ -6276,22 +6354,22 @@
         <v>16</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I107" s="1"/>
       <c r="J107" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="B108" t="s">
         <v>467</v>
       </c>
-      <c r="B108" t="s">
-        <v>468</v>
-      </c>
       <c r="C108" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s">
@@ -6304,22 +6382,22 @@
         <v>16</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I108" s="1"/>
       <c r="J108" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="B109" t="s">
         <v>469</v>
       </c>
-      <c r="B109" t="s">
-        <v>470</v>
-      </c>
       <c r="C109" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s">
@@ -6332,22 +6410,22 @@
         <v>16</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I109" s="1"/>
       <c r="J109" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="B110" t="s">
         <v>471</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>472</v>
-      </c>
-      <c r="C110" t="s">
-        <v>473</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s">
@@ -6363,7 +6441,7 @@
         <v>22</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J110" t="s">
         <v>19</v>
@@ -6371,13 +6449,13 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="B111" t="s">
         <v>474</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>475</v>
-      </c>
-      <c r="C111" t="s">
-        <v>476</v>
       </c>
       <c r="D111" t="s">
         <v>26</v>
@@ -6389,13 +6467,13 @@
         <v>15</v>
       </c>
       <c r="G111" t="s">
+        <v>476</v>
+      </c>
+      <c r="H111" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="H111" s="1" t="s">
+      <c r="I111" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>479</v>
       </c>
       <c r="J111" t="s">
         <v>154</v>
@@ -6404,18 +6482,18 @@
         <v>30</v>
       </c>
       <c r="L111" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="B112" t="s">
         <v>481</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>482</v>
-      </c>
-      <c r="C112" t="s">
-        <v>483</v>
       </c>
       <c r="D112" t="s">
         <v>76</v>
@@ -6427,13 +6505,13 @@
         <v>15</v>
       </c>
       <c r="G112" t="s">
+        <v>483</v>
+      </c>
+      <c r="H112" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="H112" s="1" t="s">
+      <c r="I112" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>486</v>
       </c>
       <c r="J112" t="s">
         <v>154</v>
@@ -6442,18 +6520,18 @@
         <v>30</v>
       </c>
       <c r="L112" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="B113" t="s">
         <v>487</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
         <v>488</v>
-      </c>
-      <c r="C113" t="s">
-        <v>489</v>
       </c>
       <c r="D113" t="s">
         <v>26</v>
@@ -6465,13 +6543,13 @@
         <v>15</v>
       </c>
       <c r="G113" t="s">
+        <v>489</v>
+      </c>
+      <c r="H113" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="H113" s="1" t="s">
+      <c r="I113" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>492</v>
       </c>
       <c r="J113" t="s">
         <v>154</v>
@@ -6480,18 +6558,18 @@
         <v>30</v>
       </c>
       <c r="L113" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="B114" t="s">
         <v>493</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>494</v>
-      </c>
-      <c r="C114" t="s">
-        <v>495</v>
       </c>
       <c r="D114" t="s">
         <v>76</v>
@@ -6503,13 +6581,13 @@
         <v>15</v>
       </c>
       <c r="G114" t="s">
+        <v>489</v>
+      </c>
+      <c r="H114" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="H114" s="1" t="s">
-        <v>491</v>
-      </c>
       <c r="I114" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J114" t="s">
         <v>154</v>
@@ -6518,18 +6596,18 @@
         <v>30</v>
       </c>
       <c r="L114" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="B115" t="s">
         <v>497</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
         <v>498</v>
-      </c>
-      <c r="C115" t="s">
-        <v>499</v>
       </c>
       <c r="D115" t="s">
         <v>76</v>
@@ -6541,13 +6619,13 @@
         <v>15</v>
       </c>
       <c r="G115" t="s">
+        <v>489</v>
+      </c>
+      <c r="H115" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="H115" s="1" t="s">
-        <v>491</v>
-      </c>
       <c r="I115" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J115" t="s">
         <v>154</v>
@@ -6556,18 +6634,18 @@
         <v>30</v>
       </c>
       <c r="L115" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="B116" t="s">
         <v>500</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
         <v>501</v>
-      </c>
-      <c r="C116" t="s">
-        <v>502</v>
       </c>
       <c r="D116" t="s">
         <v>76</v>
@@ -6579,13 +6657,13 @@
         <v>15</v>
       </c>
       <c r="G116" t="s">
+        <v>489</v>
+      </c>
+      <c r="H116" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="H116" s="1" t="s">
-        <v>491</v>
-      </c>
       <c r="I116" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J116" t="s">
         <v>154</v>
@@ -6594,18 +6672,18 @@
         <v>30</v>
       </c>
       <c r="L116" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="B117" t="s">
         <v>503</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>504</v>
-      </c>
-      <c r="C117" t="s">
-        <v>505</v>
       </c>
       <c r="D117" t="s">
         <v>76</v>
@@ -6617,13 +6695,13 @@
         <v>15</v>
       </c>
       <c r="G117" t="s">
+        <v>489</v>
+      </c>
+      <c r="H117" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="H117" s="1" t="s">
-        <v>491</v>
-      </c>
       <c r="I117" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J117" t="s">
         <v>154</v>
@@ -6632,18 +6710,18 @@
         <v>30</v>
       </c>
       <c r="L117" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="B118" t="s">
         <v>506</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>507</v>
-      </c>
-      <c r="C118" t="s">
-        <v>508</v>
       </c>
       <c r="D118" t="s">
         <v>76</v>
@@ -6655,13 +6733,13 @@
         <v>15</v>
       </c>
       <c r="G118" t="s">
+        <v>489</v>
+      </c>
+      <c r="H118" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="H118" s="1" t="s">
-        <v>491</v>
-      </c>
       <c r="I118" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J118" s="6" t="s">
         <v>154</v>
@@ -6670,18 +6748,18 @@
         <v>30</v>
       </c>
       <c r="L118" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="B119" t="s">
         <v>510</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>511</v>
-      </c>
-      <c r="C119" t="s">
-        <v>512</v>
       </c>
       <c r="D119" t="s">
         <v>76</v>
@@ -6693,27 +6771,27 @@
         <v>15</v>
       </c>
       <c r="G119" t="s">
+        <v>512</v>
+      </c>
+      <c r="H119" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="H119" s="10" t="s">
+      <c r="I119" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="I119" s="10" t="s">
+      <c r="J119" t="s">
         <v>515</v>
-      </c>
-      <c r="J119" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="B120" t="s">
         <v>517</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>518</v>
-      </c>
-      <c r="C120" t="s">
-        <v>519</v>
       </c>
       <c r="D120" t="s">
         <v>147</v>
@@ -6731,7 +6809,7 @@
         <v>150</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J120" t="s">
         <v>19</v>
@@ -6745,13 +6823,13 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="B121" t="s">
         <v>521</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>522</v>
-      </c>
-      <c r="C121" t="s">
-        <v>523</v>
       </c>
       <c r="D121" t="s">
         <v>147</v>
@@ -6769,7 +6847,7 @@
         <v>150</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="J121" t="s">
         <v>19</v>
@@ -6783,13 +6861,13 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="B122" t="s">
         <v>525</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>526</v>
-      </c>
-      <c r="C122" t="s">
-        <v>527</v>
       </c>
       <c r="D122" t="s">
         <v>147</v>
@@ -6807,7 +6885,7 @@
         <v>150</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J122" t="s">
         <v>19</v>
@@ -6821,13 +6899,13 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="B123" t="s">
         <v>529</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
         <v>530</v>
-      </c>
-      <c r="C123" t="s">
-        <v>531</v>
       </c>
       <c r="D123" t="s">
         <v>147</v>
@@ -6845,7 +6923,7 @@
         <v>150</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J123" t="s">
         <v>19</v>
@@ -6859,13 +6937,13 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="B124" t="s">
         <v>533</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>534</v>
-      </c>
-      <c r="C124" t="s">
-        <v>535</v>
       </c>
       <c r="D124" t="s">
         <v>147</v>
@@ -6883,7 +6961,7 @@
         <v>150</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="J124" t="s">
         <v>19</v>
@@ -6897,13 +6975,13 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="B125" t="s">
         <v>537</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>538</v>
-      </c>
-      <c r="C125" t="s">
-        <v>539</v>
       </c>
       <c r="D125" t="s">
         <v>147</v>
@@ -6921,7 +6999,7 @@
         <v>150</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J125" t="s">
         <v>19</v>
@@ -6935,13 +7013,13 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="B126" t="s">
         <v>541</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>542</v>
-      </c>
-      <c r="C126" t="s">
-        <v>543</v>
       </c>
       <c r="D126" t="s">
         <v>115</v>
@@ -6953,10 +7031,10 @@
         <v>15</v>
       </c>
       <c r="G126" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I126" s="1"/>
       <c r="J126" t="s">
@@ -6966,18 +7044,18 @@
         <v>64</v>
       </c>
       <c r="L126" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
+        <v>543</v>
+      </c>
+      <c r="B127" t="s">
         <v>544</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
         <v>545</v>
-      </c>
-      <c r="C127" t="s">
-        <v>546</v>
       </c>
       <c r="D127" t="s">
         <v>115</v>
@@ -6989,10 +7067,10 @@
         <v>15</v>
       </c>
       <c r="G127" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I127" s="1"/>
       <c r="J127" t="s">
@@ -7002,80 +7080,80 @@
         <v>64</v>
       </c>
       <c r="L127" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="B128" t="s">
         <v>547</v>
       </c>
-      <c r="B128" t="s">
+      <c r="D128" t="s">
         <v>548</v>
       </c>
-      <c r="D128" t="s">
+      <c r="E128" t="s">
         <v>549</v>
       </c>
-      <c r="E128" t="s">
+      <c r="F128" t="s">
+        <v>15</v>
+      </c>
+      <c r="G128" t="s">
         <v>550</v>
-      </c>
-      <c r="F128" t="s">
-        <v>15</v>
-      </c>
-      <c r="G128" t="s">
-        <v>551</v>
       </c>
       <c r="H128" s="10"/>
       <c r="I128" s="1"/>
       <c r="J128" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K128" t="s">
         <v>30</v>
       </c>
       <c r="L128" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="B129" t="s">
         <v>553</v>
       </c>
-      <c r="B129" t="s">
-        <v>554</v>
-      </c>
       <c r="D129" t="s">
+        <v>548</v>
+      </c>
+      <c r="E129" t="s">
         <v>549</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F129" t="s">
+        <v>15</v>
+      </c>
+      <c r="G129" t="s">
         <v>550</v>
-      </c>
-      <c r="F129" t="s">
-        <v>15</v>
-      </c>
-      <c r="G129" t="s">
-        <v>551</v>
       </c>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
       <c r="J129" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K129" t="s">
         <v>30</v>
       </c>
       <c r="L129" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="B130" t="s">
         <v>576</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
         <v>577</v>
-      </c>
-      <c r="C130" t="s">
-        <v>578</v>
       </c>
       <c r="D130" t="s">
         <v>115</v>
@@ -7087,10 +7165,10 @@
         <v>15</v>
       </c>
       <c r="G130" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I130" s="1"/>
       <c r="J130" t="s">
@@ -7100,18 +7178,18 @@
         <v>64</v>
       </c>
       <c r="L130" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="B131" t="s">
         <v>579</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>580</v>
-      </c>
-      <c r="C131" t="s">
-        <v>581</v>
       </c>
       <c r="D131" t="s">
         <v>115</v>
@@ -7123,10 +7201,10 @@
         <v>15</v>
       </c>
       <c r="G131" t="s">
+        <v>581</v>
+      </c>
+      <c r="H131" s="1" t="s">
         <v>582</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>583</v>
       </c>
       <c r="I131" s="1"/>
       <c r="J131" t="s">
@@ -7136,18 +7214,18 @@
         <v>64</v>
       </c>
       <c r="L131" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="B132" t="s">
         <v>584</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>585</v>
-      </c>
-      <c r="C132" t="s">
-        <v>586</v>
       </c>
       <c r="D132" t="s">
         <v>45</v>
@@ -7159,10 +7237,10 @@
         <v>15</v>
       </c>
       <c r="G132" t="s">
+        <v>581</v>
+      </c>
+      <c r="H132" s="1" t="s">
         <v>582</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>583</v>
       </c>
       <c r="I132" s="1"/>
       <c r="J132" t="s">
@@ -7172,18 +7250,18 @@
         <v>64</v>
       </c>
       <c r="L132" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
+        <v>586</v>
+      </c>
+      <c r="B133" t="s">
         <v>587</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
         <v>588</v>
-      </c>
-      <c r="C133" t="s">
-        <v>589</v>
       </c>
       <c r="D133" t="s">
         <v>115</v>
@@ -7195,10 +7273,10 @@
         <v>15</v>
       </c>
       <c r="G133" t="s">
+        <v>581</v>
+      </c>
+      <c r="H133" s="1" t="s">
         <v>582</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>583</v>
       </c>
       <c r="I133" s="1"/>
       <c r="J133" t="s">
@@ -7208,7 +7286,349 @@
         <v>64</v>
       </c>
       <c r="L133" t="s">
-        <v>248</v>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="13" t="s">
+        <v>589</v>
+      </c>
+      <c r="B134" t="s">
+        <v>590</v>
+      </c>
+      <c r="C134" t="s">
+        <v>591</v>
+      </c>
+      <c r="D134" t="s">
+        <v>184</v>
+      </c>
+      <c r="E134" t="s">
+        <v>14</v>
+      </c>
+      <c r="F134" t="s">
+        <v>15</v>
+      </c>
+      <c r="G134" t="s">
+        <v>489</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="J134" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K134" t="s">
+        <v>30</v>
+      </c>
+      <c r="L134" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B135" t="s">
+        <v>593</v>
+      </c>
+      <c r="C135" t="s">
+        <v>594</v>
+      </c>
+      <c r="D135" t="s">
+        <v>76</v>
+      </c>
+      <c r="E135" t="s">
+        <v>14</v>
+      </c>
+      <c r="F135" t="s">
+        <v>15</v>
+      </c>
+      <c r="G135" t="s">
+        <v>489</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="J135" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K135" t="s">
+        <v>30</v>
+      </c>
+      <c r="L135" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="B136" t="s">
+        <v>596</v>
+      </c>
+      <c r="C136" t="s">
+        <v>597</v>
+      </c>
+      <c r="D136" t="s">
+        <v>76</v>
+      </c>
+      <c r="E136" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136" t="s">
+        <v>15</v>
+      </c>
+      <c r="G136" t="s">
+        <v>489</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="J136" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K136" t="s">
+        <v>30</v>
+      </c>
+      <c r="L136" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="B137" t="s">
+        <v>599</v>
+      </c>
+      <c r="C137" t="s">
+        <v>600</v>
+      </c>
+      <c r="D137" t="s">
+        <v>147</v>
+      </c>
+      <c r="E137" t="s">
+        <v>14</v>
+      </c>
+      <c r="F137" t="s">
+        <v>15</v>
+      </c>
+      <c r="G137" t="s">
+        <v>489</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="J137" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K137" t="s">
+        <v>30</v>
+      </c>
+      <c r="L137" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="B138" t="s">
+        <v>603</v>
+      </c>
+      <c r="C138" t="s">
+        <v>602</v>
+      </c>
+      <c r="D138" t="s">
+        <v>147</v>
+      </c>
+      <c r="E138" t="s">
+        <v>14</v>
+      </c>
+      <c r="F138" t="s">
+        <v>15</v>
+      </c>
+      <c r="G138" t="s">
+        <v>489</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="J138" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K138" t="s">
+        <v>30</v>
+      </c>
+      <c r="L138" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="B139" t="s">
+        <v>605</v>
+      </c>
+      <c r="C139" t="s">
+        <v>606</v>
+      </c>
+      <c r="D139" t="s">
+        <v>147</v>
+      </c>
+      <c r="E139" t="s">
+        <v>14</v>
+      </c>
+      <c r="F139" t="s">
+        <v>15</v>
+      </c>
+      <c r="G139" t="s">
+        <v>489</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="J139" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K139" t="s">
+        <v>30</v>
+      </c>
+      <c r="L139" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="B140" t="s">
+        <v>607</v>
+      </c>
+      <c r="C140" t="s">
+        <v>608</v>
+      </c>
+      <c r="D140" t="s">
+        <v>147</v>
+      </c>
+      <c r="E140" t="s">
+        <v>14</v>
+      </c>
+      <c r="F140" t="s">
+        <v>15</v>
+      </c>
+      <c r="G140" t="s">
+        <v>489</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="J140" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K140" t="s">
+        <v>30</v>
+      </c>
+      <c r="L140" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" s="13" t="s">
+        <v>610</v>
+      </c>
+      <c r="B141" t="s">
+        <v>611</v>
+      </c>
+      <c r="C141" t="s">
+        <v>612</v>
+      </c>
+      <c r="D141" t="s">
+        <v>147</v>
+      </c>
+      <c r="E141" t="s">
+        <v>14</v>
+      </c>
+      <c r="F141" t="s">
+        <v>15</v>
+      </c>
+      <c r="G141" t="s">
+        <v>489</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="J141" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K141" t="s">
+        <v>30</v>
+      </c>
+      <c r="L141" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="13" t="s">
+        <v>614</v>
+      </c>
+      <c r="B142" t="s">
+        <v>613</v>
+      </c>
+      <c r="C142" t="s">
+        <v>615</v>
+      </c>
+      <c r="D142" t="s">
+        <v>147</v>
+      </c>
+      <c r="E142" t="s">
+        <v>14</v>
+      </c>
+      <c r="F142" t="s">
+        <v>15</v>
+      </c>
+      <c r="G142" t="s">
+        <v>489</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="J142" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K142" t="s">
+        <v>30</v>
+      </c>
+      <c r="L142" t="s">
+        <v>479</v>
       </c>
     </row>
   </sheetData>

--- a/00Consolidado Tablas Madre.xlsx
+++ b/00Consolidado Tablas Madre.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCN\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7B73CF-EC8B-4C2C-898D-CB61560996A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE66FD1-8C26-4F66-BB20-C810A43CEB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidado" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="617">
   <si>
     <t>Código Tabla</t>
   </si>
@@ -1141,9 +1141,6 @@
     <t>Ventas Estimadas de empresas del rubro de la agricultura, por subrubro económico, actividad económica (especie plantada/cultivada), tamaño de empresa, razón social, RUT.</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/s/t40e6ylpsnhew6q/4.5.xlsx?dl=0</t>
-  </si>
-  <si>
     <t>4.6</t>
   </si>
   <si>
@@ -1895,6 +1892,12 @@
   </si>
   <si>
     <t>Porcentaje de estudiantes con estándar adecuado en Simce matematica por establecimiento</t>
+  </si>
+  <si>
+    <t>https://www.sii.cl/sobre_el_sii/nominapersonasjuridicas.html</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/pp4kb4l3u28pjal/nueva%204.5.xlsx?dl=0</t>
   </si>
 </sst>
 </file>
@@ -2559,7 +2562,7 @@
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Código Tabla" xr10:uid="{ACADD536-4F26-4F32-AA2C-B6B02C14A824}" cache="SegmentaciónDeDatos_Código_Tabla" caption="Código Tabla" columnCount="5" style="SlicerStyleDark1" rowHeight="234950"/>
-  <slicer name="Unidad de Medida" xr10:uid="{6574F389-29CB-47FF-B34C-0B381A5AA264}" cache="SegmentaciónDeDatos_Unidad_de_Medida" caption="Unidad de Medida" startItem="10" columnCount="2" style="SlicerStyleDark1" rowHeight="234950"/>
+  <slicer name="Unidad de Medida" xr10:uid="{6574F389-29CB-47FF-B34C-0B381A5AA264}" cache="SegmentaciónDeDatos_Unidad_de_Medida" caption="Unidad de Medida" columnCount="2" style="SlicerStyleDark1" rowHeight="234950"/>
   <slicer name="Nombre Fuente" xr10:uid="{FCDE2E95-E63C-47A4-8F50-C4F8F5EADAEA}" cache="SegmentaciónDeDatos_Nombre_Fuente" caption="Nombre Fuente" columnCount="2" style="SlicerStyleDark1" rowHeight="234950"/>
   <slicer name="Encargado" xr10:uid="{4B8EAA2A-5539-4124-8E5D-AA4E68FD63C8}" cache="SegmentaciónDeDatos_Encargado" caption="Encargado" columnCount="2" style="SlicerStyleDark1" rowHeight="234950"/>
   <slicer name="Industria" xr10:uid="{5E69910F-72C0-4CCC-9A40-0C33D8089AF2}" cache="SegmentaciónDeDatos_Industria" caption="Industria" style="SlicerStyleDark1" rowHeight="234950"/>
@@ -2891,8 +2894,8 @@
   <dimension ref="A11:L142"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A142" sqref="A142"/>
+      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3820,10 +3823,10 @@
         <v>179</v>
       </c>
       <c r="B36" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C36" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D36" t="s">
         <v>115</v>
@@ -3858,10 +3861,10 @@
         <v>180</v>
       </c>
       <c r="B37" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C37" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D37" t="s">
         <v>178</v>
@@ -4007,13 +4010,13 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B41" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C41" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D41" t="s">
         <v>184</v>
@@ -4031,7 +4034,7 @@
         <v>152</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J41" t="s">
         <v>137</v>
@@ -4069,7 +4072,7 @@
         <v>152</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J42" t="s">
         <v>137</v>
@@ -4107,7 +4110,7 @@
         <v>152</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J43" t="s">
         <v>137</v>
@@ -4145,7 +4148,7 @@
         <v>152</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J44" t="s">
         <v>137</v>
@@ -4183,7 +4186,7 @@
         <v>152</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J45" t="s">
         <v>137</v>
@@ -4221,7 +4224,7 @@
         <v>152</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J46" t="s">
         <v>137</v>
@@ -4259,7 +4262,7 @@
         <v>152</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J47" t="s">
         <v>137</v>
@@ -4314,10 +4317,10 @@
         <v>213</v>
       </c>
       <c r="B49" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C49" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D49" t="s">
         <v>115</v>
@@ -4335,7 +4338,7 @@
         <v>152</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="J49" t="s">
         <v>154</v>
@@ -4352,10 +4355,10 @@
         <v>212</v>
       </c>
       <c r="B50" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C50" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D50" t="s">
         <v>206</v>
@@ -4373,7 +4376,7 @@
         <v>152</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J50" t="s">
         <v>154</v>
@@ -4411,7 +4414,7 @@
         <v>152</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="J51" t="s">
         <v>154</v>
@@ -5558,19 +5561,23 @@
       <c r="D82" t="s">
         <v>45</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>77</v>
+      <c r="E82" t="s">
+        <v>14</v>
       </c>
       <c r="F82" t="s">
         <v>15</v>
       </c>
-      <c r="G82" s="2"/>
-      <c r="H82" s="3"/>
+      <c r="G82" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>615</v>
+      </c>
       <c r="I82" s="1" t="s">
-        <v>364</v>
+        <v>616</v>
       </c>
       <c r="J82" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="K82" t="s">
         <v>64</v>
@@ -5581,16 +5588,16 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="B83" t="s">
         <v>365</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>366</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>367</v>
-      </c>
-      <c r="D83" t="s">
-        <v>368</v>
       </c>
       <c r="E83" t="s">
         <v>14</v>
@@ -5601,7 +5608,7 @@
       <c r="G83" s="2"/>
       <c r="H83" s="3"/>
       <c r="I83" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J83" t="s">
         <v>63</v>
@@ -5615,13 +5622,13 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="B84" t="s">
         <v>370</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>371</v>
-      </c>
-      <c r="C84" t="s">
-        <v>372</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>69</v>
@@ -5639,7 +5646,7 @@
         <v>332</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J84" t="s">
         <v>63</v>
@@ -5653,13 +5660,13 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="B85" t="s">
         <v>374</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>375</v>
-      </c>
-      <c r="C85" t="s">
-        <v>376</v>
       </c>
       <c r="D85" t="s">
         <v>76</v>
@@ -5674,10 +5681,10 @@
         <v>149</v>
       </c>
       <c r="H85" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="I85" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="J85" t="s">
         <v>96</v>
@@ -5691,13 +5698,13 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="B86" t="s">
         <v>379</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>380</v>
-      </c>
-      <c r="C86" t="s">
-        <v>381</v>
       </c>
       <c r="D86" t="s">
         <v>69</v>
@@ -5709,13 +5716,13 @@
         <v>15</v>
       </c>
       <c r="G86" t="s">
+        <v>381</v>
+      </c>
+      <c r="H86" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="H86" s="1" t="s">
+      <c r="I86" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="J86" t="s">
         <v>137</v>
@@ -5729,13 +5736,13 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="B87" t="s">
         <v>385</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>386</v>
-      </c>
-      <c r="C87" t="s">
-        <v>387</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s">
@@ -5751,7 +5758,7 @@
         <v>22</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J87" t="s">
         <v>19</v>
@@ -5759,13 +5766,13 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B88" t="s">
+        <v>388</v>
+      </c>
+      <c r="C88" t="s">
         <v>389</v>
-      </c>
-      <c r="C88" t="s">
-        <v>390</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s">
@@ -5781,7 +5788,7 @@
         <v>22</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J88" t="s">
         <v>19</v>
@@ -5789,13 +5796,13 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="B89" t="s">
         <v>392</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>393</v>
-      </c>
-      <c r="C89" t="s">
-        <v>394</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s">
@@ -5811,7 +5818,7 @@
         <v>22</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J89" t="s">
         <v>19</v>
@@ -5819,13 +5826,13 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="B90" t="s">
         <v>396</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>397</v>
-      </c>
-      <c r="C90" t="s">
-        <v>398</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s">
@@ -5841,7 +5848,7 @@
         <v>22</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J90" t="s">
         <v>19</v>
@@ -5849,13 +5856,13 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="B91" t="s">
         <v>400</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>401</v>
-      </c>
-      <c r="C91" t="s">
-        <v>402</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s">
@@ -5871,7 +5878,7 @@
         <v>22</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J91" t="s">
         <v>19</v>
@@ -5879,13 +5886,13 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="B92" t="s">
         <v>404</v>
       </c>
-      <c r="B92" t="s">
-        <v>405</v>
-      </c>
       <c r="C92" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s">
@@ -5901,7 +5908,7 @@
         <v>22</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J92" t="s">
         <v>19</v>
@@ -5909,13 +5916,13 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="B93" t="s">
         <v>407</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>408</v>
-      </c>
-      <c r="C93" t="s">
-        <v>409</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s">
@@ -5931,7 +5938,7 @@
         <v>22</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J93" t="s">
         <v>19</v>
@@ -5939,13 +5946,13 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="B94" t="s">
         <v>410</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>411</v>
-      </c>
-      <c r="C94" t="s">
-        <v>412</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s">
@@ -5961,7 +5968,7 @@
         <v>22</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J94" t="s">
         <v>19</v>
@@ -5969,13 +5976,13 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="B95" t="s">
         <v>414</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>415</v>
-      </c>
-      <c r="C95" t="s">
-        <v>416</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s">
@@ -5991,7 +5998,7 @@
         <v>22</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J95" t="s">
         <v>19</v>
@@ -6005,13 +6012,13 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="B96" t="s">
         <v>418</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>419</v>
-      </c>
-      <c r="C96" t="s">
-        <v>420</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s">
@@ -6027,7 +6034,7 @@
         <v>22</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J96" t="s">
         <v>19</v>
@@ -6035,13 +6042,13 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="B97" t="s">
         <v>422</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>423</v>
-      </c>
-      <c r="C97" t="s">
-        <v>424</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s">
@@ -6057,7 +6064,7 @@
         <v>22</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J97" t="s">
         <v>19</v>
@@ -6065,13 +6072,13 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="B98" t="s">
         <v>426</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>427</v>
-      </c>
-      <c r="C98" t="s">
-        <v>428</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s">
@@ -6087,7 +6094,7 @@
         <v>22</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J98" t="s">
         <v>19</v>
@@ -6095,13 +6102,13 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B99" t="s">
+        <v>429</v>
+      </c>
+      <c r="C99" t="s">
         <v>430</v>
-      </c>
-      <c r="C99" t="s">
-        <v>431</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s">
@@ -6117,7 +6124,7 @@
         <v>22</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J99" t="s">
         <v>19</v>
@@ -6125,13 +6132,13 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="B100" t="s">
         <v>433</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>434</v>
-      </c>
-      <c r="C100" t="s">
-        <v>435</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s">
@@ -6147,7 +6154,7 @@
         <v>22</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J100" t="s">
         <v>19</v>
@@ -6155,13 +6162,13 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="B101" t="s">
         <v>437</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>438</v>
-      </c>
-      <c r="C101" t="s">
-        <v>439</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s">
@@ -6177,7 +6184,7 @@
         <v>22</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J101" t="s">
         <v>19</v>
@@ -6185,13 +6192,13 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="B102" t="s">
         <v>441</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>442</v>
-      </c>
-      <c r="C102" t="s">
-        <v>443</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s">
@@ -6207,7 +6214,7 @@
         <v>22</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J102" t="s">
         <v>19</v>
@@ -6215,13 +6222,13 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="B103" t="s">
         <v>445</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>446</v>
-      </c>
-      <c r="C103" t="s">
-        <v>447</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s">
@@ -6237,7 +6244,7 @@
         <v>22</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J103" t="s">
         <v>19</v>
@@ -6245,13 +6252,13 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="B104" t="s">
         <v>449</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>450</v>
-      </c>
-      <c r="C104" t="s">
-        <v>451</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s">
@@ -6267,7 +6274,7 @@
         <v>22</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J104" t="s">
         <v>19</v>
@@ -6275,13 +6282,13 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="B105" t="s">
         <v>453</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>454</v>
-      </c>
-      <c r="C105" t="s">
-        <v>455</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s">
@@ -6297,7 +6304,7 @@
         <v>22</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J105" t="s">
         <v>19</v>
@@ -6305,13 +6312,13 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="B106" t="s">
         <v>457</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>458</v>
-      </c>
-      <c r="C106" t="s">
-        <v>459</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s">
@@ -6327,7 +6334,7 @@
         <v>22</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J106" t="s">
         <v>19</v>
@@ -6335,13 +6342,13 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="B107" t="s">
         <v>461</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>462</v>
-      </c>
-      <c r="C107" t="s">
-        <v>463</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s">
@@ -6354,22 +6361,22 @@
         <v>16</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I107" s="1"/>
       <c r="J107" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="B108" t="s">
         <v>466</v>
       </c>
-      <c r="B108" t="s">
-        <v>467</v>
-      </c>
       <c r="C108" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s">
@@ -6382,22 +6389,22 @@
         <v>16</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I108" s="1"/>
       <c r="J108" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="B109" t="s">
         <v>468</v>
       </c>
-      <c r="B109" t="s">
-        <v>469</v>
-      </c>
       <c r="C109" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s">
@@ -6410,22 +6417,22 @@
         <v>16</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I109" s="1"/>
       <c r="J109" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="B110" t="s">
         <v>470</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>471</v>
-      </c>
-      <c r="C110" t="s">
-        <v>472</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s">
@@ -6441,7 +6448,7 @@
         <v>22</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J110" t="s">
         <v>19</v>
@@ -6449,13 +6456,13 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="B111" t="s">
         <v>473</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>474</v>
-      </c>
-      <c r="C111" t="s">
-        <v>475</v>
       </c>
       <c r="D111" t="s">
         <v>26</v>
@@ -6467,13 +6474,13 @@
         <v>15</v>
       </c>
       <c r="G111" t="s">
+        <v>475</v>
+      </c>
+      <c r="H111" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="H111" s="1" t="s">
+      <c r="I111" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>478</v>
       </c>
       <c r="J111" t="s">
         <v>154</v>
@@ -6482,18 +6489,18 @@
         <v>30</v>
       </c>
       <c r="L111" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="B112" t="s">
         <v>480</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>481</v>
-      </c>
-      <c r="C112" t="s">
-        <v>482</v>
       </c>
       <c r="D112" t="s">
         <v>76</v>
@@ -6505,13 +6512,13 @@
         <v>15</v>
       </c>
       <c r="G112" t="s">
+        <v>482</v>
+      </c>
+      <c r="H112" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="H112" s="1" t="s">
+      <c r="I112" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>485</v>
       </c>
       <c r="J112" t="s">
         <v>154</v>
@@ -6520,18 +6527,18 @@
         <v>30</v>
       </c>
       <c r="L112" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="B113" t="s">
         <v>486</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
         <v>487</v>
-      </c>
-      <c r="C113" t="s">
-        <v>488</v>
       </c>
       <c r="D113" t="s">
         <v>26</v>
@@ -6543,13 +6550,13 @@
         <v>15</v>
       </c>
       <c r="G113" t="s">
+        <v>488</v>
+      </c>
+      <c r="H113" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="H113" s="1" t="s">
+      <c r="I113" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="J113" t="s">
         <v>154</v>
@@ -6558,18 +6565,18 @@
         <v>30</v>
       </c>
       <c r="L113" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="B114" t="s">
         <v>492</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>493</v>
-      </c>
-      <c r="C114" t="s">
-        <v>494</v>
       </c>
       <c r="D114" t="s">
         <v>76</v>
@@ -6581,13 +6588,13 @@
         <v>15</v>
       </c>
       <c r="G114" t="s">
+        <v>488</v>
+      </c>
+      <c r="H114" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="H114" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="I114" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J114" t="s">
         <v>154</v>
@@ -6596,18 +6603,18 @@
         <v>30</v>
       </c>
       <c r="L114" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="B115" t="s">
         <v>496</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
         <v>497</v>
-      </c>
-      <c r="C115" t="s">
-        <v>498</v>
       </c>
       <c r="D115" t="s">
         <v>76</v>
@@ -6619,13 +6626,13 @@
         <v>15</v>
       </c>
       <c r="G115" t="s">
+        <v>488</v>
+      </c>
+      <c r="H115" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="H115" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="I115" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J115" t="s">
         <v>154</v>
@@ -6634,18 +6641,18 @@
         <v>30</v>
       </c>
       <c r="L115" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="B116" t="s">
         <v>499</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
         <v>500</v>
-      </c>
-      <c r="C116" t="s">
-        <v>501</v>
       </c>
       <c r="D116" t="s">
         <v>76</v>
@@ -6657,13 +6664,13 @@
         <v>15</v>
       </c>
       <c r="G116" t="s">
+        <v>488</v>
+      </c>
+      <c r="H116" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="H116" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="I116" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J116" t="s">
         <v>154</v>
@@ -6672,18 +6679,18 @@
         <v>30</v>
       </c>
       <c r="L116" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="B117" t="s">
         <v>502</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>503</v>
-      </c>
-      <c r="C117" t="s">
-        <v>504</v>
       </c>
       <c r="D117" t="s">
         <v>76</v>
@@ -6695,13 +6702,13 @@
         <v>15</v>
       </c>
       <c r="G117" t="s">
+        <v>488</v>
+      </c>
+      <c r="H117" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="H117" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="I117" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J117" t="s">
         <v>154</v>
@@ -6710,18 +6717,18 @@
         <v>30</v>
       </c>
       <c r="L117" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="B118" t="s">
         <v>505</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>506</v>
-      </c>
-      <c r="C118" t="s">
-        <v>507</v>
       </c>
       <c r="D118" t="s">
         <v>76</v>
@@ -6733,13 +6740,13 @@
         <v>15</v>
       </c>
       <c r="G118" t="s">
+        <v>488</v>
+      </c>
+      <c r="H118" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="H118" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="I118" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J118" s="6" t="s">
         <v>154</v>
@@ -6748,18 +6755,18 @@
         <v>30</v>
       </c>
       <c r="L118" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="B119" t="s">
         <v>509</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>510</v>
-      </c>
-      <c r="C119" t="s">
-        <v>511</v>
       </c>
       <c r="D119" t="s">
         <v>76</v>
@@ -6771,27 +6778,27 @@
         <v>15</v>
       </c>
       <c r="G119" t="s">
+        <v>511</v>
+      </c>
+      <c r="H119" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="H119" s="10" t="s">
+      <c r="I119" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="I119" s="10" t="s">
+      <c r="J119" t="s">
         <v>514</v>
-      </c>
-      <c r="J119" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="B120" t="s">
         <v>516</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>517</v>
-      </c>
-      <c r="C120" t="s">
-        <v>518</v>
       </c>
       <c r="D120" t="s">
         <v>147</v>
@@ -6809,7 +6816,7 @@
         <v>150</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J120" t="s">
         <v>19</v>
@@ -6823,13 +6830,13 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="B121" t="s">
         <v>520</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>521</v>
-      </c>
-      <c r="C121" t="s">
-        <v>522</v>
       </c>
       <c r="D121" t="s">
         <v>147</v>
@@ -6847,7 +6854,7 @@
         <v>150</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J121" t="s">
         <v>19</v>
@@ -6861,13 +6868,13 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="B122" t="s">
         <v>524</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>525</v>
-      </c>
-      <c r="C122" t="s">
-        <v>526</v>
       </c>
       <c r="D122" t="s">
         <v>147</v>
@@ -6885,7 +6892,7 @@
         <v>150</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J122" t="s">
         <v>19</v>
@@ -6899,13 +6906,13 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="B123" t="s">
         <v>528</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
         <v>529</v>
-      </c>
-      <c r="C123" t="s">
-        <v>530</v>
       </c>
       <c r="D123" t="s">
         <v>147</v>
@@ -6923,7 +6930,7 @@
         <v>150</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="J123" t="s">
         <v>19</v>
@@ -6937,13 +6944,13 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="B124" t="s">
         <v>532</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>533</v>
-      </c>
-      <c r="C124" t="s">
-        <v>534</v>
       </c>
       <c r="D124" t="s">
         <v>147</v>
@@ -6961,7 +6968,7 @@
         <v>150</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="J124" t="s">
         <v>19</v>
@@ -6975,13 +6982,13 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="B125" t="s">
         <v>536</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>537</v>
-      </c>
-      <c r="C125" t="s">
-        <v>538</v>
       </c>
       <c r="D125" t="s">
         <v>147</v>
@@ -6999,7 +7006,7 @@
         <v>150</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="J125" t="s">
         <v>19</v>
@@ -7013,13 +7020,13 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="B126" t="s">
         <v>540</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>541</v>
-      </c>
-      <c r="C126" t="s">
-        <v>542</v>
       </c>
       <c r="D126" t="s">
         <v>115</v>
@@ -7049,13 +7056,13 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="B127" t="s">
         <v>543</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
         <v>544</v>
-      </c>
-      <c r="C127" t="s">
-        <v>545</v>
       </c>
       <c r="D127" t="s">
         <v>115</v>
@@ -7085,75 +7092,75 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="B128" t="s">
         <v>546</v>
       </c>
-      <c r="B128" t="s">
+      <c r="D128" t="s">
         <v>547</v>
       </c>
-      <c r="D128" t="s">
+      <c r="E128" t="s">
         <v>548</v>
       </c>
-      <c r="E128" t="s">
+      <c r="F128" t="s">
+        <v>15</v>
+      </c>
+      <c r="G128" t="s">
         <v>549</v>
-      </c>
-      <c r="F128" t="s">
-        <v>15</v>
-      </c>
-      <c r="G128" t="s">
-        <v>550</v>
       </c>
       <c r="H128" s="10"/>
       <c r="I128" s="1"/>
       <c r="J128" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K128" t="s">
         <v>30</v>
       </c>
       <c r="L128" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="B129" t="s">
         <v>552</v>
       </c>
-      <c r="B129" t="s">
-        <v>553</v>
-      </c>
       <c r="D129" t="s">
+        <v>547</v>
+      </c>
+      <c r="E129" t="s">
         <v>548</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F129" t="s">
+        <v>15</v>
+      </c>
+      <c r="G129" t="s">
         <v>549</v>
-      </c>
-      <c r="F129" t="s">
-        <v>15</v>
-      </c>
-      <c r="G129" t="s">
-        <v>550</v>
       </c>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
       <c r="J129" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K129" t="s">
         <v>30</v>
       </c>
       <c r="L129" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="B130" t="s">
         <v>575</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
         <v>576</v>
-      </c>
-      <c r="C130" t="s">
-        <v>577</v>
       </c>
       <c r="D130" t="s">
         <v>115</v>
@@ -7183,13 +7190,13 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="B131" t="s">
         <v>578</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>579</v>
-      </c>
-      <c r="C131" t="s">
-        <v>580</v>
       </c>
       <c r="D131" t="s">
         <v>115</v>
@@ -7201,10 +7208,10 @@
         <v>15</v>
       </c>
       <c r="G131" t="s">
+        <v>580</v>
+      </c>
+      <c r="H131" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>582</v>
       </c>
       <c r="I131" s="1"/>
       <c r="J131" t="s">
@@ -7219,13 +7226,13 @@
     </row>
     <row r="132" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="B132" t="s">
         <v>583</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>584</v>
-      </c>
-      <c r="C132" t="s">
-        <v>585</v>
       </c>
       <c r="D132" t="s">
         <v>45</v>
@@ -7237,10 +7244,10 @@
         <v>15</v>
       </c>
       <c r="G132" t="s">
+        <v>580</v>
+      </c>
+      <c r="H132" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>582</v>
       </c>
       <c r="I132" s="1"/>
       <c r="J132" t="s">
@@ -7255,13 +7262,13 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
+        <v>585</v>
+      </c>
+      <c r="B133" t="s">
         <v>586</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
         <v>587</v>
-      </c>
-      <c r="C133" t="s">
-        <v>588</v>
       </c>
       <c r="D133" t="s">
         <v>115</v>
@@ -7273,10 +7280,10 @@
         <v>15</v>
       </c>
       <c r="G133" t="s">
+        <v>580</v>
+      </c>
+      <c r="H133" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>582</v>
       </c>
       <c r="I133" s="1"/>
       <c r="J133" t="s">
@@ -7291,13 +7298,13 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
+        <v>588</v>
+      </c>
+      <c r="B134" t="s">
         <v>589</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
         <v>590</v>
-      </c>
-      <c r="C134" t="s">
-        <v>591</v>
       </c>
       <c r="D134" t="s">
         <v>184</v>
@@ -7309,13 +7316,13 @@
         <v>15</v>
       </c>
       <c r="G134" t="s">
+        <v>488</v>
+      </c>
+      <c r="H134" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="H134" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="I134" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J134" s="6" t="s">
         <v>154</v>
@@ -7324,18 +7331,18 @@
         <v>30</v>
       </c>
       <c r="L134" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
+        <v>591</v>
+      </c>
+      <c r="B135" t="s">
         <v>592</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
         <v>593</v>
-      </c>
-      <c r="C135" t="s">
-        <v>594</v>
       </c>
       <c r="D135" t="s">
         <v>76</v>
@@ -7347,13 +7354,13 @@
         <v>15</v>
       </c>
       <c r="G135" t="s">
+        <v>488</v>
+      </c>
+      <c r="H135" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="H135" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="I135" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J135" s="6" t="s">
         <v>154</v>
@@ -7362,18 +7369,18 @@
         <v>30</v>
       </c>
       <c r="L135" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
+        <v>594</v>
+      </c>
+      <c r="B136" t="s">
         <v>595</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
         <v>596</v>
-      </c>
-      <c r="C136" t="s">
-        <v>597</v>
       </c>
       <c r="D136" t="s">
         <v>76</v>
@@ -7385,13 +7392,13 @@
         <v>15</v>
       </c>
       <c r="G136" t="s">
+        <v>488</v>
+      </c>
+      <c r="H136" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="H136" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="I136" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J136" s="6" t="s">
         <v>154</v>
@@ -7400,18 +7407,18 @@
         <v>30</v>
       </c>
       <c r="L136" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
+        <v>597</v>
+      </c>
+      <c r="B137" t="s">
         <v>598</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
         <v>599</v>
-      </c>
-      <c r="C137" t="s">
-        <v>600</v>
       </c>
       <c r="D137" t="s">
         <v>147</v>
@@ -7423,13 +7430,13 @@
         <v>15</v>
       </c>
       <c r="G137" t="s">
+        <v>488</v>
+      </c>
+      <c r="H137" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="H137" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="I137" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J137" s="6" t="s">
         <v>154</v>
@@ -7438,18 +7445,18 @@
         <v>30</v>
       </c>
       <c r="L137" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="B138" t="s">
+        <v>602</v>
+      </c>
+      <c r="C138" t="s">
         <v>601</v>
-      </c>
-      <c r="B138" t="s">
-        <v>603</v>
-      </c>
-      <c r="C138" t="s">
-        <v>602</v>
       </c>
       <c r="D138" t="s">
         <v>147</v>
@@ -7461,13 +7468,13 @@
         <v>15</v>
       </c>
       <c r="G138" t="s">
+        <v>488</v>
+      </c>
+      <c r="H138" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="H138" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="I138" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J138" s="6" t="s">
         <v>154</v>
@@ -7476,18 +7483,18 @@
         <v>30</v>
       </c>
       <c r="L138" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
+        <v>603</v>
+      </c>
+      <c r="B139" t="s">
         <v>604</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
         <v>605</v>
-      </c>
-      <c r="C139" t="s">
-        <v>606</v>
       </c>
       <c r="D139" t="s">
         <v>147</v>
@@ -7499,13 +7506,13 @@
         <v>15</v>
       </c>
       <c r="G139" t="s">
+        <v>488</v>
+      </c>
+      <c r="H139" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="H139" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="I139" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J139" s="6" t="s">
         <v>154</v>
@@ -7514,18 +7521,18 @@
         <v>30</v>
       </c>
       <c r="L139" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B140" t="s">
+        <v>606</v>
+      </c>
+      <c r="C140" t="s">
         <v>607</v>
-      </c>
-      <c r="C140" t="s">
-        <v>608</v>
       </c>
       <c r="D140" t="s">
         <v>147</v>
@@ -7537,13 +7544,13 @@
         <v>15</v>
       </c>
       <c r="G140" t="s">
+        <v>488</v>
+      </c>
+      <c r="H140" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="H140" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="I140" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J140" s="6" t="s">
         <v>154</v>
@@ -7552,18 +7559,18 @@
         <v>30</v>
       </c>
       <c r="L140" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="B141" t="s">
         <v>610</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
         <v>611</v>
-      </c>
-      <c r="C141" t="s">
-        <v>612</v>
       </c>
       <c r="D141" t="s">
         <v>147</v>
@@ -7575,13 +7582,13 @@
         <v>15</v>
       </c>
       <c r="G141" t="s">
+        <v>488</v>
+      </c>
+      <c r="H141" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="H141" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="I141" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J141" s="6" t="s">
         <v>154</v>
@@ -7590,18 +7597,18 @@
         <v>30</v>
       </c>
       <c r="L141" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="B142" t="s">
+        <v>612</v>
+      </c>
+      <c r="C142" t="s">
         <v>614</v>
-      </c>
-      <c r="B142" t="s">
-        <v>613</v>
-      </c>
-      <c r="C142" t="s">
-        <v>615</v>
       </c>
       <c r="D142" t="s">
         <v>147</v>
@@ -7613,13 +7620,13 @@
         <v>15</v>
       </c>
       <c r="G142" t="s">
+        <v>488</v>
+      </c>
+      <c r="H142" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="H142" s="1" t="s">
-        <v>490</v>
-      </c>
       <c r="I142" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J142" s="6" t="s">
         <v>154</v>
@@ -7628,7 +7635,7 @@
         <v>30</v>
       </c>
       <c r="L142" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -7641,50 +7648,49 @@
     <hyperlink ref="I18" r:id="rId5" xr:uid="{4479E641-936D-4E07-AD89-A70226BE6C64}"/>
     <hyperlink ref="I80" r:id="rId6" xr:uid="{9453A25A-ED22-47AD-9DA7-1EEEE458E0A6}"/>
     <hyperlink ref="I81" r:id="rId7" xr:uid="{AC4861FE-44F3-453C-B9FB-C3BAE0D83FD7}"/>
-    <hyperlink ref="I82" r:id="rId8" xr:uid="{DB598F35-4F10-44FA-845E-BC09D5BBB9A0}"/>
-    <hyperlink ref="I83" r:id="rId9" xr:uid="{FE516EE0-ED5B-488C-9714-20321DE0A1F9}"/>
-    <hyperlink ref="I21" r:id="rId10" xr:uid="{2941D0D9-FD68-49BD-BE97-E5CEF91C19F1}"/>
-    <hyperlink ref="I22" r:id="rId11" xr:uid="{8C6D62BB-5F77-4E43-A2C0-4B9C82D8B833}"/>
-    <hyperlink ref="I27" r:id="rId12" xr:uid="{044C2CB3-B42D-4008-AB57-7D2A34CC4E84}"/>
-    <hyperlink ref="I28" r:id="rId13" xr:uid="{BB9B3C57-946D-4735-8CCB-E360255B90A6}"/>
-    <hyperlink ref="I29" r:id="rId14" xr:uid="{4A6C8201-1574-4551-9A9C-F243CDFC088B}"/>
-    <hyperlink ref="H16" r:id="rId15" xr:uid="{2A01B5CB-6E13-4421-AF4E-2DEF27E17522}"/>
-    <hyperlink ref="I16" r:id="rId16" xr:uid="{94228EAD-A640-40EC-9EBB-226D4CB50133}"/>
-    <hyperlink ref="H77" r:id="rId17" xr:uid="{43B8B26A-48BD-40F3-94AA-B4FE7AFC090B}"/>
-    <hyperlink ref="I77" r:id="rId18" xr:uid="{0E77E100-B94E-4689-9861-3926BDD5F1C2}"/>
-    <hyperlink ref="H78" r:id="rId19" xr:uid="{303E2F96-9C17-4AC1-9979-3D5DFF967B79}"/>
-    <hyperlink ref="I78" r:id="rId20" xr:uid="{20D5A78D-E1DE-4773-9544-4D2C520F2903}"/>
-    <hyperlink ref="I84" r:id="rId21" xr:uid="{675F0F9F-48B7-44BE-8415-0DFC7DCDA382}"/>
-    <hyperlink ref="I31" r:id="rId22" xr:uid="{914239B8-66A3-4B5A-BFDA-A0DD4CC21F97}"/>
-    <hyperlink ref="H31" r:id="rId23" xr:uid="{146728A6-A4D8-4655-9AC6-E4AFC9487D85}"/>
-    <hyperlink ref="H84" r:id="rId24" xr:uid="{77E6D235-047D-4604-9151-F6D390761670}"/>
-    <hyperlink ref="H85" r:id="rId25" xr:uid="{CBE902CB-B0AB-48A1-AEB4-B161B4B9805A}"/>
-    <hyperlink ref="H54" r:id="rId26" xr:uid="{5B6DFFFC-2AC1-489A-A901-760C70C922B3}"/>
-    <hyperlink ref="H55" r:id="rId27" xr:uid="{BD5652B3-697C-4C44-953D-CAB46A31F9B0}"/>
-    <hyperlink ref="H56" r:id="rId28" xr:uid="{28092483-2915-418B-A2AF-12AB85843ECE}"/>
-    <hyperlink ref="I54" r:id="rId29" xr:uid="{2F9FC809-7044-49F3-AD2A-337755DC1F7E}"/>
-    <hyperlink ref="I55" r:id="rId30" xr:uid="{48DE6A5E-29CD-479E-A57E-6C321D874174}"/>
-    <hyperlink ref="I56" r:id="rId31" xr:uid="{75950DFD-39AB-4949-8A68-8C6D8137D57C}"/>
-    <hyperlink ref="H119" r:id="rId32" xr:uid="{1CEE2C1C-5CAA-4221-9E9E-023216550247}"/>
-    <hyperlink ref="I119" r:id="rId33" display="https://www.dropbox.com/scl/fi/7m1z10fp5kfeodsxiwgyi/8.1.xlsx?cloud_editor=excel&amp;dl=0&amp;rlkey=zjmyfc1pkvo57zz610q9in13r" xr:uid="{A8BDBCBD-3D45-433E-945C-C50EF42330AA}"/>
-    <hyperlink ref="H57" r:id="rId34" xr:uid="{2D514D50-5C2E-4495-96EE-18447C70E010}"/>
-    <hyperlink ref="I57" r:id="rId35" xr:uid="{71AA66DE-A95F-45E5-A807-39BAEBABCD4A}"/>
-    <hyperlink ref="H34" r:id="rId36" xr:uid="{6C5E3E67-C5AC-47FF-8E1F-0B6D283FBB47}"/>
-    <hyperlink ref="H107" r:id="rId37" xr:uid="{05278A2C-EF32-4288-AC79-E2F3C414DCB0}"/>
-    <hyperlink ref="H109" r:id="rId38" xr:uid="{465BC4F3-228B-4122-9B29-D51AB49EBEC3}"/>
-    <hyperlink ref="H108" r:id="rId39" xr:uid="{CF7976C9-7F90-4DC9-A637-E9D9624A45D4}"/>
-    <hyperlink ref="I17" r:id="rId40" xr:uid="{53595853-D5EB-4109-8B5D-34F99DF8A989}"/>
+    <hyperlink ref="I83" r:id="rId8" xr:uid="{FE516EE0-ED5B-488C-9714-20321DE0A1F9}"/>
+    <hyperlink ref="I21" r:id="rId9" xr:uid="{2941D0D9-FD68-49BD-BE97-E5CEF91C19F1}"/>
+    <hyperlink ref="I22" r:id="rId10" xr:uid="{8C6D62BB-5F77-4E43-A2C0-4B9C82D8B833}"/>
+    <hyperlink ref="I27" r:id="rId11" xr:uid="{044C2CB3-B42D-4008-AB57-7D2A34CC4E84}"/>
+    <hyperlink ref="I28" r:id="rId12" xr:uid="{BB9B3C57-946D-4735-8CCB-E360255B90A6}"/>
+    <hyperlink ref="I29" r:id="rId13" xr:uid="{4A6C8201-1574-4551-9A9C-F243CDFC088B}"/>
+    <hyperlink ref="H16" r:id="rId14" xr:uid="{2A01B5CB-6E13-4421-AF4E-2DEF27E17522}"/>
+    <hyperlink ref="I16" r:id="rId15" xr:uid="{94228EAD-A640-40EC-9EBB-226D4CB50133}"/>
+    <hyperlink ref="H77" r:id="rId16" xr:uid="{43B8B26A-48BD-40F3-94AA-B4FE7AFC090B}"/>
+    <hyperlink ref="I77" r:id="rId17" xr:uid="{0E77E100-B94E-4689-9861-3926BDD5F1C2}"/>
+    <hyperlink ref="H78" r:id="rId18" xr:uid="{303E2F96-9C17-4AC1-9979-3D5DFF967B79}"/>
+    <hyperlink ref="I78" r:id="rId19" xr:uid="{20D5A78D-E1DE-4773-9544-4D2C520F2903}"/>
+    <hyperlink ref="I84" r:id="rId20" xr:uid="{675F0F9F-48B7-44BE-8415-0DFC7DCDA382}"/>
+    <hyperlink ref="I31" r:id="rId21" xr:uid="{914239B8-66A3-4B5A-BFDA-A0DD4CC21F97}"/>
+    <hyperlink ref="H31" r:id="rId22" xr:uid="{146728A6-A4D8-4655-9AC6-E4AFC9487D85}"/>
+    <hyperlink ref="H84" r:id="rId23" xr:uid="{77E6D235-047D-4604-9151-F6D390761670}"/>
+    <hyperlink ref="H85" r:id="rId24" xr:uid="{CBE902CB-B0AB-48A1-AEB4-B161B4B9805A}"/>
+    <hyperlink ref="H54" r:id="rId25" xr:uid="{5B6DFFFC-2AC1-489A-A901-760C70C922B3}"/>
+    <hyperlink ref="H55" r:id="rId26" xr:uid="{BD5652B3-697C-4C44-953D-CAB46A31F9B0}"/>
+    <hyperlink ref="H56" r:id="rId27" xr:uid="{28092483-2915-418B-A2AF-12AB85843ECE}"/>
+    <hyperlink ref="I54" r:id="rId28" xr:uid="{2F9FC809-7044-49F3-AD2A-337755DC1F7E}"/>
+    <hyperlink ref="I55" r:id="rId29" xr:uid="{48DE6A5E-29CD-479E-A57E-6C321D874174}"/>
+    <hyperlink ref="I56" r:id="rId30" xr:uid="{75950DFD-39AB-4949-8A68-8C6D8137D57C}"/>
+    <hyperlink ref="H119" r:id="rId31" xr:uid="{1CEE2C1C-5CAA-4221-9E9E-023216550247}"/>
+    <hyperlink ref="I119" r:id="rId32" display="https://www.dropbox.com/scl/fi/7m1z10fp5kfeodsxiwgyi/8.1.xlsx?cloud_editor=excel&amp;dl=0&amp;rlkey=zjmyfc1pkvo57zz610q9in13r" xr:uid="{A8BDBCBD-3D45-433E-945C-C50EF42330AA}"/>
+    <hyperlink ref="H57" r:id="rId33" xr:uid="{2D514D50-5C2E-4495-96EE-18447C70E010}"/>
+    <hyperlink ref="I57" r:id="rId34" xr:uid="{71AA66DE-A95F-45E5-A807-39BAEBABCD4A}"/>
+    <hyperlink ref="H34" r:id="rId35" xr:uid="{6C5E3E67-C5AC-47FF-8E1F-0B6D283FBB47}"/>
+    <hyperlink ref="H107" r:id="rId36" xr:uid="{05278A2C-EF32-4288-AC79-E2F3C414DCB0}"/>
+    <hyperlink ref="H109" r:id="rId37" xr:uid="{465BC4F3-228B-4122-9B29-D51AB49EBEC3}"/>
+    <hyperlink ref="H108" r:id="rId38" xr:uid="{CF7976C9-7F90-4DC9-A637-E9D9624A45D4}"/>
+    <hyperlink ref="I17" r:id="rId39" xr:uid="{53595853-D5EB-4109-8B5D-34F99DF8A989}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId41"/>
-  <drawing r:id="rId42"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId40"/>
+  <drawing r:id="rId41"/>
   <tableParts count="1">
-    <tablePart r:id="rId43"/>
+    <tablePart r:id="rId42"/>
   </tableParts>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
       <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId44"/>
+        <x14:slicer r:id="rId43"/>
       </x14:slicerList>
     </ext>
   </extLst>

--- a/00Consolidado Tablas Madre.xlsx
+++ b/00Consolidado Tablas Madre.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE66FD1-8C26-4F66-BB20-C810A43CEB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663AF285-687A-465C-81CF-AC0FFCDDF1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="646">
   <si>
     <t>Código Tabla</t>
   </si>
@@ -1898,6 +1898,93 @@
   </si>
   <si>
     <t>https://www.dropbox.com/s/pp4kb4l3u28pjal/nueva%204.5.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Acoso_Sexual_Laboral_Denuncias_DT</t>
+  </si>
+  <si>
+    <t>Denuncias de acoso sexual en el ámbito laboral a la dirección del trabajo en el primer semestre del 2019</t>
+  </si>
+  <si>
+    <t>Dirección del Trabajo</t>
+  </si>
+  <si>
+    <t>https://www.dt.gob.cl/portal/1629/w3-article-116793.html</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/fk7g69r24y30sas/27.1.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Mujeres</t>
+  </si>
+  <si>
+    <t>Violencia</t>
+  </si>
+  <si>
+    <t>27.1</t>
+  </si>
+  <si>
+    <t>27.2</t>
+  </si>
+  <si>
+    <t>Frecuencia_encuesta_ENCLA</t>
+  </si>
+  <si>
+    <t>Encuesta ENCLA 2019 (preguntas sobre acoso sexul y laboral, hostigamiento, discriminación por sexo y equidad de género)</t>
+  </si>
+  <si>
+    <t>https://www.dt.gob.cl/portal/1629/w3-article-119820.html</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/djlpgsuiysbmtgx/27.2.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Prevalencia_VIF_año_vida</t>
+  </si>
+  <si>
+    <t>27.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevalencia de la Violencia Inatrafamiliar según encuesta </t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/fkzviz1dhgq2n1j/27.3.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>27.4</t>
+  </si>
+  <si>
+    <t>VIF_trimestre</t>
+  </si>
+  <si>
+    <t>http://www.fiscaliadechile.cl/Fiscalia/estadisticas/index.do</t>
+  </si>
+  <si>
+    <t>Cantidad de personas que sufren violencia intrafamilair por región y por semestre entre el 2019 y 2021 (según datos de la fiscalia nacional)</t>
+  </si>
+  <si>
+    <t>Fiscalia de Chile</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/4xne1y1ymk2wmao/27.4.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>VIF_Comuna_mensual</t>
+  </si>
+  <si>
+    <t>27.5</t>
+  </si>
+  <si>
+    <t>Cantidad de mujeres que sufren maltrato intrafamiliar (maltrato intrafamiliar a la mujer) por mes desde y comuna desde el año 2005 al 2021</t>
+  </si>
+  <si>
+    <t>http://cead.spd.gov.cl/estadisticas-delictuales/</t>
+  </si>
+  <si>
+    <t>Centro de Estúdios y Análisis del Delito</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/tthqxf0y1m1u5uf/27.5.xlsx?dl=0</t>
   </si>
 </sst>
 </file>
@@ -2571,8 +2658,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A11:L142" totalsRowShown="0">
-  <autoFilter ref="A11:L142" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A11:L147" totalsRowShown="0">
+  <autoFilter ref="A11:L147" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:J119">
     <sortCondition ref="A11:A119"/>
   </sortState>
@@ -2891,11 +2978,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD49B1B1-33D3-49D9-BF85-AA2E2407F985}">
-  <dimension ref="A11:L142"/>
+  <dimension ref="A11:L147"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
+      <pane ySplit="11" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J148" sqref="J148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7636,6 +7723,182 @@
       </c>
       <c r="L142" t="s">
         <v>478</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" s="13" t="s">
+        <v>624</v>
+      </c>
+      <c r="B143" t="s">
+        <v>617</v>
+      </c>
+      <c r="C143" t="s">
+        <v>618</v>
+      </c>
+      <c r="D143" t="s">
+        <v>184</v>
+      </c>
+      <c r="E143" t="s">
+        <v>77</v>
+      </c>
+      <c r="F143" t="s">
+        <v>15</v>
+      </c>
+      <c r="G143" t="s">
+        <v>619</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="J143" t="s">
+        <v>19</v>
+      </c>
+      <c r="K143" t="s">
+        <v>622</v>
+      </c>
+      <c r="L143" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" s="13" t="s">
+        <v>625</v>
+      </c>
+      <c r="B144" t="s">
+        <v>626</v>
+      </c>
+      <c r="C144" t="s">
+        <v>627</v>
+      </c>
+      <c r="D144" t="s">
+        <v>547</v>
+      </c>
+      <c r="E144" t="s">
+        <v>77</v>
+      </c>
+      <c r="F144" t="s">
+        <v>15</v>
+      </c>
+      <c r="G144" t="s">
+        <v>619</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="J144" t="s">
+        <v>19</v>
+      </c>
+      <c r="K144" t="s">
+        <v>622</v>
+      </c>
+      <c r="L144" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" s="13" t="s">
+        <v>631</v>
+      </c>
+      <c r="B145" t="s">
+        <v>630</v>
+      </c>
+      <c r="C145" t="s">
+        <v>632</v>
+      </c>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="J145" t="s">
+        <v>81</v>
+      </c>
+      <c r="K145" t="s">
+        <v>622</v>
+      </c>
+      <c r="L145" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" s="13" t="s">
+        <v>634</v>
+      </c>
+      <c r="B146" t="s">
+        <v>635</v>
+      </c>
+      <c r="C146" t="s">
+        <v>637</v>
+      </c>
+      <c r="D146" t="s">
+        <v>547</v>
+      </c>
+      <c r="E146" t="s">
+        <v>311</v>
+      </c>
+      <c r="F146" t="s">
+        <v>15</v>
+      </c>
+      <c r="G146" t="s">
+        <v>638</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="J146" t="s">
+        <v>19</v>
+      </c>
+      <c r="K146" t="s">
+        <v>622</v>
+      </c>
+      <c r="L146" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="13" t="s">
+        <v>641</v>
+      </c>
+      <c r="B147" t="s">
+        <v>640</v>
+      </c>
+      <c r="C147" t="s">
+        <v>642</v>
+      </c>
+      <c r="D147" t="s">
+        <v>547</v>
+      </c>
+      <c r="E147" t="s">
+        <v>46</v>
+      </c>
+      <c r="F147" t="s">
+        <v>15</v>
+      </c>
+      <c r="G147" t="s">
+        <v>644</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="J147" t="s">
+        <v>19</v>
+      </c>
+      <c r="K147" t="s">
+        <v>622</v>
+      </c>
+      <c r="L147" t="s">
+        <v>623</v>
       </c>
     </row>
   </sheetData>

--- a/00Consolidado Tablas Madre.xlsx
+++ b/00Consolidado Tablas Madre.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\Diseño DATA's (1)\Tablas Madre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663AF285-687A-465C-81CF-AC0FFCDDF1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7D348D-B7DD-46BB-8ACD-2CC0EB970233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidado" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="SegmentaciónDeDatos_Sector">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_Unidad_de_Medida">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -41,12 +41,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="705">
   <si>
     <t>Código Tabla</t>
   </si>
@@ -1945,9 +1954,6 @@
     <t>27.3</t>
   </si>
   <si>
-    <t xml:space="preserve">Prevalencia de la Violencia Inatrafamiliar según encuesta </t>
-  </si>
-  <si>
     <t>https://www.dropbox.com/s/fkzviz1dhgq2n1j/27.3.xlsx?dl=0</t>
   </si>
   <si>
@@ -1985,6 +1991,186 @@
   </si>
   <si>
     <t>https://www.dropbox.com/s/tthqxf0y1m1u5uf/27.5.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>27.8</t>
+  </si>
+  <si>
+    <t>Sentencias_Violacion</t>
+  </si>
+  <si>
+    <t>Sentencias de violación entre el año 2013 y 2019</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/j5z8llznjtvizbc/27.8.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/dyo6olk1lssagn6/27.9.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Prevalencia_Violecia_económica</t>
+  </si>
+  <si>
+    <t>27.9</t>
+  </si>
+  <si>
+    <t>27.6</t>
+  </si>
+  <si>
+    <t>Frecuencia_violacion</t>
+  </si>
+  <si>
+    <t>Tasa_violacion</t>
+  </si>
+  <si>
+    <t>Frecuencia de violaciones según Delitos de Mayor Connotación Social por comuna y trimestre entre el 2008 y 2020</t>
+  </si>
+  <si>
+    <t>Tasa de violaciones según Delitos de Mayor Connotación Social por comuna y trimestre entre el 2008 y 2020</t>
+  </si>
+  <si>
+    <t>Tasa</t>
+  </si>
+  <si>
+    <t>Prevalencia</t>
+  </si>
+  <si>
+    <t>http://cead.spd.gov.cl/estudios-y-encuestas/</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/l4a855u975mll4g/27.6.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/sfaj9wl4j7s1sat/27.7.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.10 </t>
+  </si>
+  <si>
+    <t>Atenciones_ViolenciaGénero</t>
+  </si>
+  <si>
+    <t>Cantidad de Atenciones debido a Violencia de Género</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/t4offmwbdkuqek2/27.10.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Centros_Mujer_Comunas</t>
+  </si>
+  <si>
+    <t>Ubicación de los Centros de la Mujer en el país</t>
+  </si>
+  <si>
+    <t>Centros</t>
+  </si>
+  <si>
+    <t>Servicio Nacional de la Mujer (SERNAMEG)</t>
+  </si>
+  <si>
+    <t>https://www.sernameg.gob.cl/?page_id=30017</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/5llf2pxoz16ayg7/27.11.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Prevalencia de la Violencia Intrafamiliar según encuesta ENVIF</t>
+  </si>
+  <si>
+    <t>https://www.ine.cl/estadisticas/sociales/genero/indicadores-subcomision-de-estadisticas-de-genero</t>
+  </si>
+  <si>
+    <t>CVS_Mujeres</t>
+  </si>
+  <si>
+    <t>Centro_Reeducación_Hombres</t>
+  </si>
+  <si>
+    <t>Centros_Mujer_Casas_Acogida</t>
+  </si>
+  <si>
+    <t>Cantidad de atenciones en los Centros de Atención y Reparación para Mujeres Víctimas/Sobrevivientes de Violencia Sexual según tipo de atención</t>
+  </si>
+  <si>
+    <t>Prevalencia de la Violencia económica según encuesta ENVIF</t>
+  </si>
+  <si>
+    <t>https://www.sernameg.gob.cl/wp-content/uploads/2019/07/BGI-2019-SernamEG.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/5idwc8m128i13fb/27.12.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/d7thzrgshioe59d/27.13.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/w5or6dthwfpi3zr/27.14.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Cantidad de ingresos y egresos desde los Centros de Reeducación de Hombres</t>
+  </si>
+  <si>
+    <t>Cantidad de ingresos, atenciones y salidas en los Centros de la Mujer y las Casas de Acogida</t>
+  </si>
+  <si>
+    <t>Sentencias de abuso sexual entre el año 2013 y 2019</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/9aub2h803lmwtya/27.15.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Sentencias_Abuso_Sexual</t>
+  </si>
+  <si>
+    <t>27.7</t>
+  </si>
+  <si>
+    <t>Sentencias de delitos relacionados con la violencia hacia la mujer entre el año 2013 y 2019</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/ktk0lv48otnx2ga/27.16.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Sentencias_Delitos_Violencia_Genero</t>
+  </si>
+  <si>
+    <t>27.17</t>
+  </si>
+  <si>
+    <t>27.18</t>
+  </si>
+  <si>
+    <t>27.19</t>
+  </si>
+  <si>
+    <t>Frecuencia_respuestas_ENVIF</t>
+  </si>
+  <si>
+    <t>Tasa100mil_ENVIF</t>
+  </si>
+  <si>
+    <t>Tasa100mil_mujeres_ENVIF</t>
+  </si>
+  <si>
+    <t>Cantidad de personas que responden la encuesta ENVIF por región y comuna</t>
+  </si>
+  <si>
+    <t>Tasa por cada 100 mil habitantes que responden la encuesta ENVIF por región y comuna</t>
+  </si>
+  <si>
+    <t>Tasa por cada 100 mil mujeres que responden la encuesta ENFIF por región y comuna</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/bpjhwph3yg9e4uh/27.17.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/2e807bt2ll42naj/27.18.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/7hsc18bln9v82au/27.19.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Servicio Nacional de Aduanas</t>
   </si>
 </sst>
 </file>
@@ -2051,7 +2237,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2071,6 +2257,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2184,7 +2371,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>807720</xdr:colOff>
+      <xdr:colOff>502920</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>137161</xdr:rowOff>
     </xdr:to>
@@ -2334,13 +2521,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1485900</xdr:colOff>
+      <xdr:colOff>1181100</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
@@ -2658,8 +2845,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A11:L147" totalsRowShown="0">
-  <autoFilter ref="A11:L147" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A11:L161" totalsRowShown="0">
+  <autoFilter ref="A11:L161" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="Agricultura y Ganadería"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="11">
+      <filters>
+        <filter val="Agricultura"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:J119">
     <sortCondition ref="A11:A119"/>
   </sortState>
@@ -2978,30 +3176,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD49B1B1-33D3-49D9-BF85-AA2E2407F985}">
-  <dimension ref="A11:L147"/>
+  <dimension ref="A11:L161"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J148" sqref="J148"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="11" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" customWidth="1"/>
+    <col min="7" max="7" width="32.81640625" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" customWidth="1"/>
+    <col min="10" max="10" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3039,7 +3237,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13">
         <v>5</v>
       </c>
@@ -3069,7 +3267,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
         <v>6</v>
       </c>
@@ -3099,7 +3297,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
         <v>9</v>
       </c>
@@ -3137,7 +3335,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13">
         <v>9</v>
       </c>
@@ -3175,7 +3373,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
         <v>16</v>
       </c>
@@ -3213,7 +3411,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>42</v>
       </c>
@@ -3251,7 +3449,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>52</v>
       </c>
@@ -3289,7 +3487,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
         <v>56</v>
       </c>
@@ -3327,7 +3525,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13" t="s">
         <v>66</v>
       </c>
@@ -3365,7 +3563,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
         <v>73</v>
       </c>
@@ -3403,7 +3601,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
         <v>83</v>
       </c>
@@ -3441,7 +3639,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
         <v>89</v>
       </c>
@@ -3473,7 +3671,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
         <v>97</v>
       </c>
@@ -3505,7 +3703,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="13" t="s">
         <v>102</v>
       </c>
@@ -3537,7 +3735,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
         <v>107</v>
       </c>
@@ -3569,7 +3767,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="13" t="s">
         <v>112</v>
       </c>
@@ -3607,7 +3805,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
         <v>120</v>
       </c>
@@ -3645,7 +3843,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
         <v>126</v>
       </c>
@@ -3683,7 +3881,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="13" t="s">
         <v>130</v>
       </c>
@@ -3715,7 +3913,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
         <v>138</v>
       </c>
@@ -3753,7 +3951,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="13" t="s">
         <v>156</v>
       </c>
@@ -3791,7 +3989,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
         <v>160</v>
       </c>
@@ -3829,7 +4027,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="13" t="s">
         <v>164</v>
       </c>
@@ -3848,7 +4046,7 @@
       <c r="F34" t="s">
         <v>15</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="4" t="s">
         <v>168</v>
       </c>
       <c r="H34" s="1" t="s">
@@ -3867,7 +4065,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="13" t="s">
         <v>172</v>
       </c>
@@ -3905,7 +4103,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="13" t="s">
         <v>179</v>
       </c>
@@ -3943,7 +4141,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="13" t="s">
         <v>180</v>
       </c>
@@ -3981,7 +4179,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="13" t="s">
         <v>181</v>
       </c>
@@ -4019,7 +4217,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="13" t="s">
         <v>185</v>
       </c>
@@ -4057,7 +4255,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
         <v>189</v>
       </c>
@@ -4095,7 +4293,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="13" t="s">
         <v>553</v>
       </c>
@@ -4133,7 +4331,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="13" t="s">
         <v>177</v>
       </c>
@@ -4171,7 +4369,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="13" t="s">
         <v>176</v>
       </c>
@@ -4209,7 +4407,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="13" t="s">
         <v>175</v>
       </c>
@@ -4247,7 +4445,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
         <v>163</v>
       </c>
@@ -4285,7 +4483,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="13" t="s">
         <v>151</v>
       </c>
@@ -4323,7 +4521,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="13" t="s">
         <v>217</v>
       </c>
@@ -4361,7 +4559,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="13" t="s">
         <v>207</v>
       </c>
@@ -4399,7 +4597,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="13" t="s">
         <v>213</v>
       </c>
@@ -4437,7 +4635,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="13" t="s">
         <v>212</v>
       </c>
@@ -4475,7 +4673,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="13" t="s">
         <v>146</v>
       </c>
@@ -4513,7 +4711,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="13" t="s">
         <v>214</v>
       </c>
@@ -4551,7 +4749,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="13" t="s">
         <v>218</v>
       </c>
@@ -4589,7 +4787,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="s">
         <v>221</v>
       </c>
@@ -4627,7 +4825,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="13" t="s">
         <v>227</v>
       </c>
@@ -4665,7 +4863,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="13" t="s">
         <v>232</v>
       </c>
@@ -4703,7 +4901,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="13" t="s">
         <v>236</v>
       </c>
@@ -4741,7 +4939,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="13" t="s">
         <v>242</v>
       </c>
@@ -4777,7 +4975,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="13" t="s">
         <v>249</v>
       </c>
@@ -4815,7 +5013,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="13" t="s">
         <v>258</v>
       </c>
@@ -4853,7 +5051,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="13" t="s">
         <v>264</v>
       </c>
@@ -4891,7 +5089,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="13" t="s">
         <v>268</v>
       </c>
@@ -4929,7 +5127,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="13" t="s">
         <v>272</v>
       </c>
@@ -4967,7 +5165,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="13" t="s">
         <v>279</v>
       </c>
@@ -5005,7 +5203,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="13" t="s">
         <v>283</v>
       </c>
@@ -5043,7 +5241,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="13" t="s">
         <v>288</v>
       </c>
@@ -5081,7 +5279,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="13" t="s">
         <v>292</v>
       </c>
@@ -5119,7 +5317,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="13" t="s">
         <v>296</v>
       </c>
@@ -5157,7 +5355,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="13" t="s">
         <v>300</v>
       </c>
@@ -5195,7 +5393,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="13" t="s">
         <v>304</v>
       </c>
@@ -5233,7 +5431,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="13" t="s">
         <v>308</v>
       </c>
@@ -5271,7 +5469,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="13" t="s">
         <v>316</v>
       </c>
@@ -5309,7 +5507,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="13" t="s">
         <v>319</v>
       </c>
@@ -5347,7 +5545,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="13" t="s">
         <v>325</v>
       </c>
@@ -5366,7 +5564,9 @@
       <c r="F74" t="s">
         <v>15</v>
       </c>
-      <c r="G74" s="2"/>
+      <c r="G74" s="4" t="s">
+        <v>704</v>
+      </c>
       <c r="H74" s="3"/>
       <c r="I74" s="1" t="s">
         <v>328</v>
@@ -5381,7 +5581,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="13" t="s">
         <v>329</v>
       </c>
@@ -5400,7 +5600,7 @@
       <c r="F75" t="s">
         <v>15</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="4" t="s">
         <v>149</v>
       </c>
       <c r="H75" s="1" t="s">
@@ -5419,7 +5619,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="13" t="s">
         <v>334</v>
       </c>
@@ -5438,7 +5638,7 @@
       <c r="F76" t="s">
         <v>15</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="4" t="s">
         <v>149</v>
       </c>
       <c r="H76" s="1" t="s">
@@ -5457,7 +5657,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="14" t="s">
         <v>339</v>
       </c>
@@ -5476,7 +5676,7 @@
       <c r="F77" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G77" s="7" t="s">
+      <c r="G77" s="15" t="s">
         <v>149</v>
       </c>
       <c r="H77" s="8" t="s">
@@ -5495,7 +5695,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="13" t="s">
         <v>344</v>
       </c>
@@ -5514,7 +5714,7 @@
       <c r="F78" t="s">
         <v>15</v>
       </c>
-      <c r="G78" s="7" t="s">
+      <c r="G78" s="15" t="s">
         <v>149</v>
       </c>
       <c r="H78" s="1" t="s">
@@ -5533,7 +5733,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="13" t="s">
         <v>349</v>
       </c>
@@ -5552,7 +5752,9 @@
       <c r="F79" t="s">
         <v>15</v>
       </c>
-      <c r="G79" s="2"/>
+      <c r="G79" s="4" t="s">
+        <v>704</v>
+      </c>
       <c r="H79" s="3"/>
       <c r="I79" s="1" t="s">
         <v>352</v>
@@ -5567,7 +5769,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="13" t="s">
         <v>353</v>
       </c>
@@ -5586,7 +5788,9 @@
       <c r="F80" t="s">
         <v>15</v>
       </c>
-      <c r="G80" s="2"/>
+      <c r="G80" s="4" t="s">
+        <v>704</v>
+      </c>
       <c r="H80" s="3"/>
       <c r="I80" s="1" t="s">
         <v>356</v>
@@ -5601,7 +5805,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="13" t="s">
         <v>357</v>
       </c>
@@ -5620,7 +5824,9 @@
       <c r="F81" t="s">
         <v>15</v>
       </c>
-      <c r="G81" s="2"/>
+      <c r="G81" s="4" t="s">
+        <v>704</v>
+      </c>
       <c r="H81" s="3"/>
       <c r="I81" s="1" t="s">
         <v>360</v>
@@ -5635,7 +5841,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="13" t="s">
         <v>361</v>
       </c>
@@ -5673,7 +5879,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="13" t="s">
         <v>364</v>
       </c>
@@ -5692,7 +5898,9 @@
       <c r="F83" t="s">
         <v>15</v>
       </c>
-      <c r="G83" s="2"/>
+      <c r="G83" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="H83" s="3"/>
       <c r="I83" s="1" t="s">
         <v>368</v>
@@ -5707,7 +5915,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="13" t="s">
         <v>369</v>
       </c>
@@ -5745,7 +5953,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="13" t="s">
         <v>373</v>
       </c>
@@ -5783,7 +5991,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="13" t="s">
         <v>378</v>
       </c>
@@ -5821,7 +6029,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="13" t="s">
         <v>384</v>
       </c>
@@ -5851,7 +6059,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="13" t="s">
         <v>384</v>
       </c>
@@ -5881,7 +6089,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="13" t="s">
         <v>391</v>
       </c>
@@ -5911,7 +6119,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="13" t="s">
         <v>395</v>
       </c>
@@ -5941,7 +6149,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="13" t="s">
         <v>399</v>
       </c>
@@ -5971,7 +6179,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="13" t="s">
         <v>403</v>
       </c>
@@ -6001,7 +6209,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="13" t="s">
         <v>406</v>
       </c>
@@ -6031,7 +6239,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="13" t="s">
         <v>409</v>
       </c>
@@ -6061,7 +6269,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="13" t="s">
         <v>413</v>
       </c>
@@ -6097,7 +6305,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="13" t="s">
         <v>417</v>
       </c>
@@ -6127,7 +6335,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="13" t="s">
         <v>421</v>
       </c>
@@ -6157,7 +6365,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="13" t="s">
         <v>425</v>
       </c>
@@ -6187,7 +6395,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="13" t="s">
         <v>425</v>
       </c>
@@ -6217,7 +6425,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="13" t="s">
         <v>432</v>
       </c>
@@ -6247,7 +6455,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="13" t="s">
         <v>436</v>
       </c>
@@ -6277,7 +6485,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="13" t="s">
         <v>440</v>
       </c>
@@ -6307,7 +6515,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="13" t="s">
         <v>444</v>
       </c>
@@ -6337,7 +6545,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="13" t="s">
         <v>448</v>
       </c>
@@ -6367,7 +6575,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="13" t="s">
         <v>452</v>
       </c>
@@ -6397,7 +6605,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="13" t="s">
         <v>456</v>
       </c>
@@ -6427,7 +6635,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="13" t="s">
         <v>460</v>
       </c>
@@ -6455,7 +6663,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="13" t="s">
         <v>465</v>
       </c>
@@ -6483,7 +6691,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="13" t="s">
         <v>467</v>
       </c>
@@ -6511,7 +6719,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="13" t="s">
         <v>469</v>
       </c>
@@ -6541,7 +6749,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="13" t="s">
         <v>472</v>
       </c>
@@ -6579,7 +6787,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="13" t="s">
         <v>479</v>
       </c>
@@ -6617,7 +6825,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="13" t="s">
         <v>485</v>
       </c>
@@ -6655,7 +6863,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="13" t="s">
         <v>491</v>
       </c>
@@ -6693,7 +6901,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="13" t="s">
         <v>495</v>
       </c>
@@ -6731,7 +6939,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="13" t="s">
         <v>498</v>
       </c>
@@ -6769,7 +6977,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="13" t="s">
         <v>501</v>
       </c>
@@ -6807,7 +7015,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="13" t="s">
         <v>504</v>
       </c>
@@ -6845,7 +7053,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="13" t="s">
         <v>508</v>
       </c>
@@ -6877,7 +7085,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="13" t="s">
         <v>515</v>
       </c>
@@ -6915,7 +7123,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="13" t="s">
         <v>519</v>
       </c>
@@ -6953,7 +7161,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="13" t="s">
         <v>523</v>
       </c>
@@ -6991,7 +7199,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="13" t="s">
         <v>527</v>
       </c>
@@ -7029,7 +7237,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="13" t="s">
         <v>531</v>
       </c>
@@ -7067,7 +7275,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="13" t="s">
         <v>535</v>
       </c>
@@ -7105,7 +7313,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="13" t="s">
         <v>539</v>
       </c>
@@ -7141,7 +7349,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="13" t="s">
         <v>542</v>
       </c>
@@ -7177,7 +7385,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="13" t="s">
         <v>545</v>
       </c>
@@ -7208,7 +7416,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="13" t="s">
         <v>551</v>
       </c>
@@ -7239,7 +7447,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="13" t="s">
         <v>574</v>
       </c>
@@ -7275,7 +7483,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="13" t="s">
         <v>577</v>
       </c>
@@ -7311,7 +7519,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="13" t="s">
         <v>582</v>
       </c>
@@ -7347,7 +7555,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="13" t="s">
         <v>585</v>
       </c>
@@ -7383,7 +7591,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="13" t="s">
         <v>588</v>
       </c>
@@ -7421,7 +7629,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="13" t="s">
         <v>591</v>
       </c>
@@ -7459,7 +7667,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="13" t="s">
         <v>594</v>
       </c>
@@ -7497,7 +7705,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="13" t="s">
         <v>597</v>
       </c>
@@ -7535,7 +7743,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="13" t="s">
         <v>600</v>
       </c>
@@ -7573,7 +7781,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="13" t="s">
         <v>603</v>
       </c>
@@ -7611,7 +7819,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="13" t="s">
         <v>608</v>
       </c>
@@ -7649,7 +7857,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="13" t="s">
         <v>609</v>
       </c>
@@ -7687,7 +7895,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="13" t="s">
         <v>613</v>
       </c>
@@ -7725,7 +7933,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="13" t="s">
         <v>624</v>
       </c>
@@ -7763,7 +7971,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="13" t="s">
         <v>625</v>
       </c>
@@ -7801,7 +8009,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="13" t="s">
         <v>631</v>
       </c>
@@ -7809,11 +8017,25 @@
         <v>630</v>
       </c>
       <c r="C145" t="s">
+        <v>672</v>
+      </c>
+      <c r="D145" t="s">
+        <v>658</v>
+      </c>
+      <c r="E145" t="s">
+        <v>77</v>
+      </c>
+      <c r="F145" t="s">
+        <v>15</v>
+      </c>
+      <c r="G145" t="s">
+        <v>549</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="I145" s="1" t="s">
         <v>632</v>
-      </c>
-      <c r="H145" s="1"/>
-      <c r="I145" s="1" t="s">
-        <v>633</v>
       </c>
       <c r="J145" t="s">
         <v>81</v>
@@ -7825,15 +8047,15 @@
         <v>623</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="B146" t="s">
         <v>634</v>
       </c>
-      <c r="B146" t="s">
-        <v>635</v>
-      </c>
       <c r="C146" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D146" t="s">
         <v>547</v>
@@ -7845,13 +8067,13 @@
         <v>15</v>
       </c>
       <c r="G146" t="s">
+        <v>637</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="I146" s="1" t="s">
         <v>638</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="I146" s="1" t="s">
-        <v>639</v>
       </c>
       <c r="J146" t="s">
         <v>19</v>
@@ -7863,18 +8085,18 @@
         <v>623</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="13" t="s">
+        <v>640</v>
+      </c>
+      <c r="B147" t="s">
+        <v>639</v>
+      </c>
+      <c r="C147" t="s">
         <v>641</v>
       </c>
-      <c r="B147" t="s">
-        <v>640</v>
-      </c>
-      <c r="C147" t="s">
-        <v>642</v>
-      </c>
       <c r="D147" t="s">
-        <v>547</v>
+        <v>184</v>
       </c>
       <c r="E147" t="s">
         <v>46</v>
@@ -7883,13 +8105,13 @@
         <v>15</v>
       </c>
       <c r="G147" t="s">
+        <v>643</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="I147" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="I147" s="1" t="s">
-        <v>645</v>
       </c>
       <c r="J147" t="s">
         <v>19</v>
@@ -7898,6 +8120,538 @@
         <v>622</v>
       </c>
       <c r="L147" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="13" t="s">
+        <v>652</v>
+      </c>
+      <c r="B148" t="s">
+        <v>653</v>
+      </c>
+      <c r="C148" t="s">
+        <v>655</v>
+      </c>
+      <c r="D148" t="s">
+        <v>184</v>
+      </c>
+      <c r="E148" t="s">
+        <v>311</v>
+      </c>
+      <c r="F148" t="s">
+        <v>15</v>
+      </c>
+      <c r="G148" t="s">
+        <v>312</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="J148" t="s">
+        <v>137</v>
+      </c>
+      <c r="K148" t="s">
+        <v>622</v>
+      </c>
+      <c r="L148" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="13" t="s">
+        <v>688</v>
+      </c>
+      <c r="B149" t="s">
+        <v>654</v>
+      </c>
+      <c r="C149" t="s">
+        <v>656</v>
+      </c>
+      <c r="D149" t="s">
+        <v>657</v>
+      </c>
+      <c r="E149" t="s">
+        <v>311</v>
+      </c>
+      <c r="F149" t="s">
+        <v>15</v>
+      </c>
+      <c r="G149" t="s">
+        <v>312</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="J149" t="s">
+        <v>137</v>
+      </c>
+      <c r="K149" t="s">
+        <v>622</v>
+      </c>
+      <c r="L149" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="B150" t="s">
+        <v>646</v>
+      </c>
+      <c r="C150" t="s">
+        <v>647</v>
+      </c>
+      <c r="D150" t="s">
+        <v>547</v>
+      </c>
+      <c r="E150" t="s">
+        <v>46</v>
+      </c>
+      <c r="F150" t="s">
+        <v>15</v>
+      </c>
+      <c r="G150" t="s">
+        <v>322</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="J150" t="s">
+        <v>137</v>
+      </c>
+      <c r="K150" t="s">
+        <v>622</v>
+      </c>
+      <c r="L150" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="13" t="s">
+        <v>651</v>
+      </c>
+      <c r="B151" t="s">
+        <v>650</v>
+      </c>
+      <c r="C151" t="s">
+        <v>678</v>
+      </c>
+      <c r="D151" t="s">
+        <v>658</v>
+      </c>
+      <c r="E151" t="s">
+        <v>77</v>
+      </c>
+      <c r="F151" t="s">
+        <v>15</v>
+      </c>
+      <c r="G151" t="s">
+        <v>643</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="J151" t="s">
+        <v>137</v>
+      </c>
+      <c r="K151" t="s">
+        <v>622</v>
+      </c>
+      <c r="L151" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="13" t="s">
+        <v>662</v>
+      </c>
+      <c r="B152" t="s">
+        <v>663</v>
+      </c>
+      <c r="C152" t="s">
+        <v>664</v>
+      </c>
+      <c r="D152" t="s">
+        <v>184</v>
+      </c>
+      <c r="E152" t="s">
+        <v>14</v>
+      </c>
+      <c r="F152" t="s">
+        <v>15</v>
+      </c>
+      <c r="G152" t="s">
+        <v>253</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="J152" t="s">
+        <v>96</v>
+      </c>
+      <c r="K152" t="s">
+        <v>622</v>
+      </c>
+      <c r="L152" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="13">
+        <v>27.11</v>
+      </c>
+      <c r="B153" t="s">
+        <v>666</v>
+      </c>
+      <c r="C153" t="s">
+        <v>667</v>
+      </c>
+      <c r="D153" t="s">
+        <v>668</v>
+      </c>
+      <c r="E153" t="s">
+        <v>77</v>
+      </c>
+      <c r="F153" t="s">
+        <v>15</v>
+      </c>
+      <c r="G153" t="s">
+        <v>669</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="J153" t="s">
+        <v>81</v>
+      </c>
+      <c r="K153" t="s">
+        <v>622</v>
+      </c>
+      <c r="L153" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="13">
+        <v>27.12</v>
+      </c>
+      <c r="B154" t="s">
+        <v>674</v>
+      </c>
+      <c r="C154" t="s">
+        <v>677</v>
+      </c>
+      <c r="D154" t="s">
+        <v>184</v>
+      </c>
+      <c r="E154" t="s">
+        <v>14</v>
+      </c>
+      <c r="F154" t="s">
+        <v>15</v>
+      </c>
+      <c r="G154" t="s">
+        <v>669</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="J154" t="s">
+        <v>81</v>
+      </c>
+      <c r="K154" t="s">
+        <v>622</v>
+      </c>
+      <c r="L154" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="13">
+        <v>27.13</v>
+      </c>
+      <c r="B155" t="s">
+        <v>675</v>
+      </c>
+      <c r="C155" t="s">
+        <v>683</v>
+      </c>
+      <c r="D155" t="s">
+        <v>184</v>
+      </c>
+      <c r="E155" t="s">
+        <v>14</v>
+      </c>
+      <c r="F155" t="s">
+        <v>15</v>
+      </c>
+      <c r="G155" t="s">
+        <v>669</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="J155" t="s">
+        <v>81</v>
+      </c>
+      <c r="K155" t="s">
+        <v>622</v>
+      </c>
+      <c r="L155" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="13">
+        <v>27.14</v>
+      </c>
+      <c r="B156" t="s">
+        <v>676</v>
+      </c>
+      <c r="C156" t="s">
+        <v>684</v>
+      </c>
+      <c r="D156" t="s">
+        <v>184</v>
+      </c>
+      <c r="E156" t="s">
+        <v>14</v>
+      </c>
+      <c r="F156" t="s">
+        <v>15</v>
+      </c>
+      <c r="G156" t="s">
+        <v>669</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="J156" t="s">
+        <v>81</v>
+      </c>
+      <c r="K156" t="s">
+        <v>622</v>
+      </c>
+      <c r="L156" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="13">
+        <v>27.15</v>
+      </c>
+      <c r="B157" t="s">
+        <v>687</v>
+      </c>
+      <c r="C157" t="s">
+        <v>685</v>
+      </c>
+      <c r="D157" t="s">
+        <v>547</v>
+      </c>
+      <c r="E157" t="s">
+        <v>46</v>
+      </c>
+      <c r="F157" t="s">
+        <v>15</v>
+      </c>
+      <c r="G157" t="s">
+        <v>322</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="J157" t="s">
+        <v>137</v>
+      </c>
+      <c r="K157" t="s">
+        <v>622</v>
+      </c>
+      <c r="L157" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="13">
+        <v>27.16</v>
+      </c>
+      <c r="B158" t="s">
+        <v>691</v>
+      </c>
+      <c r="C158" t="s">
+        <v>689</v>
+      </c>
+      <c r="D158" t="s">
+        <v>547</v>
+      </c>
+      <c r="E158" t="s">
+        <v>46</v>
+      </c>
+      <c r="F158" t="s">
+        <v>15</v>
+      </c>
+      <c r="G158" t="s">
+        <v>322</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="J158" t="s">
+        <v>137</v>
+      </c>
+      <c r="K158" t="s">
+        <v>622</v>
+      </c>
+      <c r="L158" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="B159" t="s">
+        <v>695</v>
+      </c>
+      <c r="C159" t="s">
+        <v>698</v>
+      </c>
+      <c r="D159" t="s">
+        <v>184</v>
+      </c>
+      <c r="E159" t="s">
+        <v>77</v>
+      </c>
+      <c r="F159" t="s">
+        <v>15</v>
+      </c>
+      <c r="G159" t="s">
+        <v>643</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="J159" t="s">
+        <v>137</v>
+      </c>
+      <c r="K159" t="s">
+        <v>622</v>
+      </c>
+      <c r="L159" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="B160" t="s">
+        <v>696</v>
+      </c>
+      <c r="C160" t="s">
+        <v>699</v>
+      </c>
+      <c r="D160" t="s">
+        <v>657</v>
+      </c>
+      <c r="E160" t="s">
+        <v>77</v>
+      </c>
+      <c r="F160" t="s">
+        <v>15</v>
+      </c>
+      <c r="G160" t="s">
+        <v>643</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="J160" t="s">
+        <v>137</v>
+      </c>
+      <c r="K160" t="s">
+        <v>622</v>
+      </c>
+      <c r="L160" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="B161" t="s">
+        <v>697</v>
+      </c>
+      <c r="C161" t="s">
+        <v>700</v>
+      </c>
+      <c r="D161" t="s">
+        <v>657</v>
+      </c>
+      <c r="E161" t="s">
+        <v>77</v>
+      </c>
+      <c r="F161" t="s">
+        <v>15</v>
+      </c>
+      <c r="G161" t="s">
+        <v>643</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="J161" t="s">
+        <v>137</v>
+      </c>
+      <c r="K161" t="s">
+        <v>622</v>
+      </c>
+      <c r="L161" t="s">
         <v>623</v>
       </c>
     </row>
@@ -7943,17 +8697,30 @@
     <hyperlink ref="H109" r:id="rId37" xr:uid="{465BC4F3-228B-4122-9B29-D51AB49EBEC3}"/>
     <hyperlink ref="H108" r:id="rId38" xr:uid="{CF7976C9-7F90-4DC9-A637-E9D9624A45D4}"/>
     <hyperlink ref="I17" r:id="rId39" xr:uid="{53595853-D5EB-4109-8B5D-34F99DF8A989}"/>
+    <hyperlink ref="H153" r:id="rId40" xr:uid="{D605C3F4-CA75-4A92-8FAC-7663FF937ADB}"/>
+    <hyperlink ref="I153" r:id="rId41" xr:uid="{D75E9950-B86E-4EE4-88EC-7F1FC744F30F}"/>
+    <hyperlink ref="H145" r:id="rId42" xr:uid="{4706D371-E07C-4C04-A689-902932F1127C}"/>
+    <hyperlink ref="H154" r:id="rId43" xr:uid="{42FF5DB6-B43E-44F6-B0FD-79B63D583BA9}"/>
+    <hyperlink ref="H155" r:id="rId44" xr:uid="{928B861A-24EB-4B43-A4BD-B5CD7EC9E504}"/>
+    <hyperlink ref="H156" r:id="rId45" xr:uid="{31D1AFC3-8CD6-4147-AC59-F7D4371D37F3}"/>
+    <hyperlink ref="I154" r:id="rId46" xr:uid="{ADBDA8CA-EE0F-479D-8E0D-F85931007E1F}"/>
+    <hyperlink ref="I155" r:id="rId47" xr:uid="{F8E098FA-A07D-4252-9EF8-60AC987F4DF6}"/>
+    <hyperlink ref="I156" r:id="rId48" xr:uid="{764DC1A5-8D8B-4FA9-8106-7A5BA2558E2A}"/>
+    <hyperlink ref="I157" r:id="rId49" xr:uid="{0BB47F72-B40A-431E-82A6-577036E933F6}"/>
+    <hyperlink ref="H157" r:id="rId50" xr:uid="{63B8F4BD-8E85-42D5-96D2-FCDF2DE8EEB1}"/>
+    <hyperlink ref="H158" r:id="rId51" xr:uid="{02A6923A-10D1-4A94-AE82-47AA67FB78B7}"/>
+    <hyperlink ref="I158" r:id="rId52" xr:uid="{EE17308B-DE39-4800-BF04-987B80EE4380}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId40"/>
-  <drawing r:id="rId41"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId53"/>
+  <drawing r:id="rId54"/>
   <tableParts count="1">
-    <tablePart r:id="rId42"/>
+    <tablePart r:id="rId55"/>
   </tableParts>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
       <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId43"/>
+        <x14:slicer r:id="rId56"/>
       </x14:slicerList>
     </ext>
   </extLst>

--- a/00Consolidado Tablas Madre.xlsx
+++ b/00Consolidado Tablas Madre.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\Diseño DATA's (1)\Tablas Madre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojas.DESKTOP-91OCPB2\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7D348D-B7DD-46BB-8ACD-2CC0EB970233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBE2ED6-DE70-4CB8-AA8B-EF0F5606AA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
+    <workbookView xWindow="3195" yWindow="3030" windowWidth="9855" windowHeight="7890" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidado" sheetId="1" r:id="rId1"/>
@@ -41,21 +41,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="725">
   <si>
     <t>Código Tabla</t>
   </si>
@@ -2008,9 +1999,6 @@
     <t>https://www.dropbox.com/s/dyo6olk1lssagn6/27.9.xlsx?dl=0</t>
   </si>
   <si>
-    <t>Prevalencia_Violecia_económica</t>
-  </si>
-  <si>
     <t>27.9</t>
   </si>
   <si>
@@ -2092,9 +2080,6 @@
     <t>Cantidad de atenciones en los Centros de Atención y Reparación para Mujeres Víctimas/Sobrevivientes de Violencia Sexual según tipo de atención</t>
   </si>
   <si>
-    <t>Prevalencia de la Violencia económica según encuesta ENVIF</t>
-  </si>
-  <si>
     <t>https://www.sernameg.gob.cl/wp-content/uploads/2019/07/BGI-2019-SernamEG.pdf</t>
   </si>
   <si>
@@ -2143,24 +2128,6 @@
     <t>27.19</t>
   </si>
   <si>
-    <t>Frecuencia_respuestas_ENVIF</t>
-  </si>
-  <si>
-    <t>Tasa100mil_ENVIF</t>
-  </si>
-  <si>
-    <t>Tasa100mil_mujeres_ENVIF</t>
-  </si>
-  <si>
-    <t>Cantidad de personas que responden la encuesta ENVIF por región y comuna</t>
-  </si>
-  <si>
-    <t>Tasa por cada 100 mil habitantes que responden la encuesta ENVIF por región y comuna</t>
-  </si>
-  <si>
-    <t>Tasa por cada 100 mil mujeres que responden la encuesta ENFIF por región y comuna</t>
-  </si>
-  <si>
     <t>https://www.dropbox.com/s/bpjhwph3yg9e4uh/27.17.xlsx?dl=0</t>
   </si>
   <si>
@@ -2171,6 +2138,90 @@
   </si>
   <si>
     <t>Servicio Nacional de Aduanas</t>
+  </si>
+  <si>
+    <t>Frecuencia_violencia_económica</t>
+  </si>
+  <si>
+    <t>27.20</t>
+  </si>
+  <si>
+    <t>27.21</t>
+  </si>
+  <si>
+    <t>27.22</t>
+  </si>
+  <si>
+    <t>27.23</t>
+  </si>
+  <si>
+    <t>27.24</t>
+  </si>
+  <si>
+    <t>Freq_violencia_psicologica_ENVIF</t>
+  </si>
+  <si>
+    <t>Cantidad de personas por violencia psicológica según encuesta ENVIF</t>
+  </si>
+  <si>
+    <t>Cantidad de personas por violencia económica según encuesta ENVIF</t>
+  </si>
+  <si>
+    <t>Tasa por cada 100 mil habitantes por violencia psicológica según encuesta ENVIF</t>
+  </si>
+  <si>
+    <t>Tasa por cada 100 mil mujeres por violencia psicológica según encuesta ENVIF</t>
+  </si>
+  <si>
+    <t>Cantidad de personas por violencia general según encuesta ENVIF</t>
+  </si>
+  <si>
+    <t>Tasa por cada 100 mil habitantes por violencia general según encuesta ENVIF</t>
+  </si>
+  <si>
+    <t>Tasa por cada 100 mil mujeres por violencia general según encuesta ENVIF</t>
+  </si>
+  <si>
+    <t>Tasa por cada 100 mil habitantes por violencia económica según encuesta ENVIF</t>
+  </si>
+  <si>
+    <t>Tasa por cada 100 mil mujeres por violencia económica según encuesta ENVIF</t>
+  </si>
+  <si>
+    <t>Tasa100mil_violencia_psicologica_ENVIF</t>
+  </si>
+  <si>
+    <t>Tasa100mil_mujer_violencia_psic_ENVIF</t>
+  </si>
+  <si>
+    <t>Freq_violencia_gral_ENVIF</t>
+  </si>
+  <si>
+    <t>Tasa_100mil_violencia_gral_ENVIF</t>
+  </si>
+  <si>
+    <t>Tasa100mil_mujer_violencia_gral_ENVIF</t>
+  </si>
+  <si>
+    <t>Tasa100mil_violencia_económica</t>
+  </si>
+  <si>
+    <t>Tasa100mil_mujer_violencia_economica</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/7kaieclc3iiyi84/27.20.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/6ih2o954jv64zbx/27.21.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/ak6yfsewreo04cl/27.22.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/ftytf01wr0clhf3/27.23.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/k3ih67bwfvo7vek/27.24.xlsx?dl=0</t>
   </si>
 </sst>
 </file>
@@ -2845,19 +2896,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A11:L161" totalsRowShown="0">
-  <autoFilter ref="A11:L161" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}">
-    <filterColumn colId="10">
-      <filters>
-        <filter val="Agricultura y Ganadería"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="11">
-      <filters>
-        <filter val="Agricultura"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A11:L166" totalsRowShown="0">
+  <autoFilter ref="A11:L166" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:J119">
     <sortCondition ref="A11:A119"/>
   </sortState>
@@ -3176,30 +3216,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD49B1B1-33D3-49D9-BF85-AA2E2407F985}">
-  <dimension ref="A11:L161"/>
+  <dimension ref="A11:L166"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G85" sqref="G85"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="11" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I168" sqref="I168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" customWidth="1"/>
-    <col min="7" max="7" width="32.81640625" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" customWidth="1"/>
-    <col min="10" max="10" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3237,7 +3277,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>5</v>
       </c>
@@ -3267,7 +3307,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>6</v>
       </c>
@@ -3297,7 +3337,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>9</v>
       </c>
@@ -3335,7 +3375,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>9</v>
       </c>
@@ -3373,7 +3413,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>16</v>
       </c>
@@ -3411,7 +3451,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>42</v>
       </c>
@@ -3449,7 +3489,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>52</v>
       </c>
@@ -3487,7 +3527,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>56</v>
       </c>
@@ -3525,7 +3565,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>66</v>
       </c>
@@ -3563,7 +3603,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>73</v>
       </c>
@@ -3601,7 +3641,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>83</v>
       </c>
@@ -3639,7 +3679,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>89</v>
       </c>
@@ -3671,7 +3711,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>97</v>
       </c>
@@ -3703,7 +3743,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>102</v>
       </c>
@@ -3735,7 +3775,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>107</v>
       </c>
@@ -3767,7 +3807,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>112</v>
       </c>
@@ -3805,7 +3845,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>120</v>
       </c>
@@ -3843,7 +3883,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>126</v>
       </c>
@@ -3881,7 +3921,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>130</v>
       </c>
@@ -3913,7 +3953,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>138</v>
       </c>
@@ -3951,7 +3991,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>156</v>
       </c>
@@ -3989,7 +4029,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>160</v>
       </c>
@@ -4027,7 +4067,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>164</v>
       </c>
@@ -4065,7 +4105,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>172</v>
       </c>
@@ -4103,7 +4143,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>179</v>
       </c>
@@ -4141,7 +4181,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>180</v>
       </c>
@@ -4179,7 +4219,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>181</v>
       </c>
@@ -4217,7 +4257,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>185</v>
       </c>
@@ -4255,7 +4295,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>189</v>
       </c>
@@ -4293,7 +4333,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>553</v>
       </c>
@@ -4331,7 +4371,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>177</v>
       </c>
@@ -4369,7 +4409,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>176</v>
       </c>
@@ -4407,7 +4447,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>175</v>
       </c>
@@ -4445,7 +4485,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>163</v>
       </c>
@@ -4483,7 +4523,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>151</v>
       </c>
@@ -4521,7 +4561,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>217</v>
       </c>
@@ -4559,7 +4599,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>207</v>
       </c>
@@ -4597,7 +4637,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>213</v>
       </c>
@@ -4635,7 +4675,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>212</v>
       </c>
@@ -4673,7 +4713,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>146</v>
       </c>
@@ -4711,7 +4751,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>214</v>
       </c>
@@ -4749,7 +4789,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>218</v>
       </c>
@@ -4787,7 +4827,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>221</v>
       </c>
@@ -4825,7 +4865,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>227</v>
       </c>
@@ -4863,7 +4903,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>232</v>
       </c>
@@ -4901,7 +4941,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>236</v>
       </c>
@@ -4939,7 +4979,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>242</v>
       </c>
@@ -4975,7 +5015,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>249</v>
       </c>
@@ -5013,7 +5053,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>258</v>
       </c>
@@ -5051,7 +5091,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>264</v>
       </c>
@@ -5089,7 +5129,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>268</v>
       </c>
@@ -5127,7 +5167,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>272</v>
       </c>
@@ -5165,7 +5205,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>279</v>
       </c>
@@ -5203,7 +5243,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>283</v>
       </c>
@@ -5241,7 +5281,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>288</v>
       </c>
@@ -5279,7 +5319,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>292</v>
       </c>
@@ -5317,7 +5357,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>296</v>
       </c>
@@ -5355,7 +5395,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>300</v>
       </c>
@@ -5393,7 +5433,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>304</v>
       </c>
@@ -5431,7 +5471,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>308</v>
       </c>
@@ -5469,7 +5509,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>316</v>
       </c>
@@ -5507,7 +5547,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>319</v>
       </c>
@@ -5545,7 +5585,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>325</v>
       </c>
@@ -5565,7 +5605,7 @@
         <v>15</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="H74" s="3"/>
       <c r="I74" s="1" t="s">
@@ -5581,7 +5621,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>329</v>
       </c>
@@ -5619,7 +5659,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>334</v>
       </c>
@@ -5657,7 +5697,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
         <v>339</v>
       </c>
@@ -5695,7 +5735,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>344</v>
       </c>
@@ -5733,7 +5773,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>349</v>
       </c>
@@ -5753,7 +5793,7 @@
         <v>15</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="H79" s="3"/>
       <c r="I79" s="1" t="s">
@@ -5769,7 +5809,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>353</v>
       </c>
@@ -5789,7 +5829,7 @@
         <v>15</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="H80" s="3"/>
       <c r="I80" s="1" t="s">
@@ -5805,7 +5845,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>357</v>
       </c>
@@ -5825,7 +5865,7 @@
         <v>15</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="H81" s="3"/>
       <c r="I81" s="1" t="s">
@@ -5841,7 +5881,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>361</v>
       </c>
@@ -5879,7 +5919,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>364</v>
       </c>
@@ -5915,7 +5955,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>369</v>
       </c>
@@ -5953,7 +5993,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>373</v>
       </c>
@@ -5991,7 +6031,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>378</v>
       </c>
@@ -6029,7 +6069,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
         <v>384</v>
       </c>
@@ -6059,7 +6099,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>384</v>
       </c>
@@ -6089,7 +6129,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
         <v>391</v>
       </c>
@@ -6119,7 +6159,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
         <v>395</v>
       </c>
@@ -6149,7 +6189,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
         <v>399</v>
       </c>
@@ -6179,7 +6219,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>403</v>
       </c>
@@ -6209,7 +6249,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
         <v>406</v>
       </c>
@@ -6239,7 +6279,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
         <v>409</v>
       </c>
@@ -6269,7 +6309,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>413</v>
       </c>
@@ -6305,7 +6345,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
         <v>417</v>
       </c>
@@ -6335,7 +6375,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
         <v>421</v>
       </c>
@@ -6365,7 +6405,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
         <v>425</v>
       </c>
@@ -6395,7 +6435,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
         <v>425</v>
       </c>
@@ -6425,7 +6465,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
         <v>432</v>
       </c>
@@ -6455,7 +6495,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
         <v>436</v>
       </c>
@@ -6485,7 +6525,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
         <v>440</v>
       </c>
@@ -6515,7 +6555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>444</v>
       </c>
@@ -6545,7 +6585,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>448</v>
       </c>
@@ -6575,7 +6615,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>452</v>
       </c>
@@ -6605,7 +6645,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>456</v>
       </c>
@@ -6635,7 +6675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>460</v>
       </c>
@@ -6663,7 +6703,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>465</v>
       </c>
@@ -6691,7 +6731,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>467</v>
       </c>
@@ -6719,7 +6759,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>469</v>
       </c>
@@ -6749,7 +6789,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>472</v>
       </c>
@@ -6787,7 +6827,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>479</v>
       </c>
@@ -6825,7 +6865,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>485</v>
       </c>
@@ -6863,7 +6903,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>491</v>
       </c>
@@ -6901,7 +6941,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>495</v>
       </c>
@@ -6939,7 +6979,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
         <v>498</v>
       </c>
@@ -6977,7 +7017,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>501</v>
       </c>
@@ -7015,7 +7055,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>504</v>
       </c>
@@ -7053,7 +7093,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
         <v>508</v>
       </c>
@@ -7085,7 +7125,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>515</v>
       </c>
@@ -7123,7 +7163,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>519</v>
       </c>
@@ -7161,7 +7201,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>523</v>
       </c>
@@ -7199,7 +7239,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>527</v>
       </c>
@@ -7237,7 +7277,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
         <v>531</v>
       </c>
@@ -7275,7 +7315,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
         <v>535</v>
       </c>
@@ -7313,7 +7353,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
         <v>539</v>
       </c>
@@ -7349,7 +7389,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
         <v>542</v>
       </c>
@@ -7385,7 +7425,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
         <v>545</v>
       </c>
@@ -7416,7 +7456,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
         <v>551</v>
       </c>
@@ -7447,7 +7487,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
         <v>574</v>
       </c>
@@ -7483,7 +7523,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
         <v>577</v>
       </c>
@@ -7519,7 +7559,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
         <v>582</v>
       </c>
@@ -7555,7 +7595,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
         <v>585</v>
       </c>
@@ -7591,7 +7631,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
         <v>588</v>
       </c>
@@ -7629,7 +7669,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
         <v>591</v>
       </c>
@@ -7667,7 +7707,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
         <v>594</v>
       </c>
@@ -7705,7 +7745,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
         <v>597</v>
       </c>
@@ -7743,7 +7783,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
         <v>600</v>
       </c>
@@ -7781,7 +7821,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
         <v>603</v>
       </c>
@@ -7819,7 +7859,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
         <v>608</v>
       </c>
@@ -7857,7 +7897,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
         <v>609</v>
       </c>
@@ -7895,7 +7935,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
         <v>613</v>
       </c>
@@ -7933,7 +7973,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
         <v>624</v>
       </c>
@@ -7971,7 +8011,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
         <v>625</v>
       </c>
@@ -8009,7 +8049,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
         <v>631</v>
       </c>
@@ -8017,10 +8057,10 @@
         <v>630</v>
       </c>
       <c r="C145" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D145" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E145" t="s">
         <v>77</v>
@@ -8032,7 +8072,7 @@
         <v>549</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I145" s="1" t="s">
         <v>632</v>
@@ -8047,7 +8087,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
         <v>633</v>
       </c>
@@ -8085,7 +8125,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
         <v>640</v>
       </c>
@@ -8123,15 +8163,15 @@
         <v>623</v>
       </c>
     </row>
-    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
+        <v>651</v>
+      </c>
+      <c r="B148" t="s">
         <v>652</v>
       </c>
-      <c r="B148" t="s">
-        <v>653</v>
-      </c>
       <c r="C148" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D148" t="s">
         <v>184</v>
@@ -8149,7 +8189,7 @@
         <v>313</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J148" t="s">
         <v>137</v>
@@ -8161,18 +8201,18 @@
         <v>623</v>
       </c>
     </row>
-    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B149" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C149" t="s">
+        <v>655</v>
+      </c>
+      <c r="D149" t="s">
         <v>656</v>
-      </c>
-      <c r="D149" t="s">
-        <v>657</v>
       </c>
       <c r="E149" t="s">
         <v>311</v>
@@ -8187,7 +8227,7 @@
         <v>313</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J149" t="s">
         <v>137</v>
@@ -8199,7 +8239,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="13" t="s">
         <v>645</v>
       </c>
@@ -8237,18 +8277,18 @@
         <v>623</v>
       </c>
     </row>
-    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B151" t="s">
-        <v>650</v>
+        <v>697</v>
       </c>
       <c r="C151" t="s">
-        <v>678</v>
+        <v>705</v>
       </c>
       <c r="D151" t="s">
-        <v>658</v>
+        <v>184</v>
       </c>
       <c r="E151" t="s">
         <v>77</v>
@@ -8260,7 +8300,7 @@
         <v>643</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I151" s="1" t="s">
         <v>649</v>
@@ -8275,15 +8315,15 @@
         <v>623</v>
       </c>
     </row>
-    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
+        <v>661</v>
+      </c>
+      <c r="B152" t="s">
         <v>662</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" t="s">
         <v>663</v>
-      </c>
-      <c r="C152" t="s">
-        <v>664</v>
       </c>
       <c r="D152" t="s">
         <v>184</v>
@@ -8301,7 +8341,7 @@
         <v>261</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J152" t="s">
         <v>96</v>
@@ -8313,18 +8353,18 @@
         <v>623</v>
       </c>
     </row>
-    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="13">
         <v>27.11</v>
       </c>
       <c r="B153" t="s">
+        <v>665</v>
+      </c>
+      <c r="C153" t="s">
         <v>666</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>667</v>
-      </c>
-      <c r="D153" t="s">
-        <v>668</v>
       </c>
       <c r="E153" t="s">
         <v>77</v>
@@ -8333,13 +8373,13 @@
         <v>15</v>
       </c>
       <c r="G153" t="s">
+        <v>668</v>
+      </c>
+      <c r="H153" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="H153" s="1" t="s">
+      <c r="I153" s="1" t="s">
         <v>670</v>
-      </c>
-      <c r="I153" s="1" t="s">
-        <v>671</v>
       </c>
       <c r="J153" t="s">
         <v>81</v>
@@ -8351,15 +8391,15 @@
         <v>623</v>
       </c>
     </row>
-    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="13">
         <v>27.12</v>
       </c>
       <c r="B154" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C154" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D154" t="s">
         <v>184</v>
@@ -8371,13 +8411,13 @@
         <v>15</v>
       </c>
       <c r="G154" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J154" t="s">
         <v>81</v>
@@ -8389,15 +8429,15 @@
         <v>623</v>
       </c>
     </row>
-    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="13">
         <v>27.13</v>
       </c>
       <c r="B155" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C155" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D155" t="s">
         <v>184</v>
@@ -8409,13 +8449,13 @@
         <v>15</v>
       </c>
       <c r="G155" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H155" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="I155" s="1" t="s">
         <v>679</v>
-      </c>
-      <c r="I155" s="1" t="s">
-        <v>681</v>
       </c>
       <c r="J155" t="s">
         <v>81</v>
@@ -8427,15 +8467,15 @@
         <v>623</v>
       </c>
     </row>
-    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="13">
         <v>27.14</v>
       </c>
       <c r="B156" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C156" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D156" t="s">
         <v>184</v>
@@ -8447,13 +8487,13 @@
         <v>15</v>
       </c>
       <c r="G156" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="J156" t="s">
         <v>81</v>
@@ -8465,15 +8505,15 @@
         <v>623</v>
       </c>
     </row>
-    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="13">
         <v>27.15</v>
       </c>
       <c r="B157" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C157" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D157" t="s">
         <v>547</v>
@@ -8491,7 +8531,7 @@
         <v>323</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="J157" t="s">
         <v>137</v>
@@ -8503,15 +8543,15 @@
         <v>623</v>
       </c>
     </row>
-    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="13">
         <v>27.16</v>
       </c>
       <c r="B158" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C158" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D158" t="s">
         <v>547</v>
@@ -8529,7 +8569,7 @@
         <v>323</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J158" t="s">
         <v>137</v>
@@ -8541,15 +8581,15 @@
         <v>623</v>
       </c>
     </row>
-    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B159" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="C159" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="D159" t="s">
         <v>184</v>
@@ -8564,10 +8604,10 @@
         <v>643</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="J159" t="s">
         <v>137</v>
@@ -8579,18 +8619,18 @@
         <v>623</v>
       </c>
     </row>
-    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B160" t="s">
-        <v>696</v>
+        <v>713</v>
       </c>
       <c r="C160" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="D160" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E160" t="s">
         <v>77</v>
@@ -8602,10 +8642,10 @@
         <v>643</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="J160" t="s">
         <v>137</v>
@@ -8617,18 +8657,18 @@
         <v>623</v>
       </c>
     </row>
-    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B161" t="s">
-        <v>697</v>
+        <v>714</v>
       </c>
       <c r="C161" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="D161" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E161" t="s">
         <v>77</v>
@@ -8640,10 +8680,10 @@
         <v>643</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="J161" t="s">
         <v>137</v>
@@ -8652,6 +8692,196 @@
         <v>622</v>
       </c>
       <c r="L161" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" s="13" t="s">
+        <v>698</v>
+      </c>
+      <c r="B162" t="s">
+        <v>715</v>
+      </c>
+      <c r="C162" t="s">
+        <v>708</v>
+      </c>
+      <c r="D162" t="s">
+        <v>184</v>
+      </c>
+      <c r="E162" t="s">
+        <v>77</v>
+      </c>
+      <c r="F162" t="s">
+        <v>15</v>
+      </c>
+      <c r="G162" t="s">
+        <v>643</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="J162" t="s">
+        <v>137</v>
+      </c>
+      <c r="K162" t="s">
+        <v>622</v>
+      </c>
+      <c r="L162" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" s="13" t="s">
+        <v>699</v>
+      </c>
+      <c r="B163" t="s">
+        <v>716</v>
+      </c>
+      <c r="C163" t="s">
+        <v>709</v>
+      </c>
+      <c r="D163" t="s">
+        <v>656</v>
+      </c>
+      <c r="E163" t="s">
+        <v>77</v>
+      </c>
+      <c r="F163" t="s">
+        <v>15</v>
+      </c>
+      <c r="G163" t="s">
+        <v>643</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="J163" t="s">
+        <v>137</v>
+      </c>
+      <c r="K163" t="s">
+        <v>622</v>
+      </c>
+      <c r="L163" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="B164" t="s">
+        <v>717</v>
+      </c>
+      <c r="C164" t="s">
+        <v>710</v>
+      </c>
+      <c r="D164" t="s">
+        <v>656</v>
+      </c>
+      <c r="E164" t="s">
+        <v>77</v>
+      </c>
+      <c r="F164" t="s">
+        <v>15</v>
+      </c>
+      <c r="G164" t="s">
+        <v>643</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="J164" t="s">
+        <v>137</v>
+      </c>
+      <c r="K164" t="s">
+        <v>622</v>
+      </c>
+      <c r="L164" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" s="13" t="s">
+        <v>701</v>
+      </c>
+      <c r="B165" t="s">
+        <v>718</v>
+      </c>
+      <c r="C165" t="s">
+        <v>711</v>
+      </c>
+      <c r="D165" t="s">
+        <v>656</v>
+      </c>
+      <c r="E165" t="s">
+        <v>77</v>
+      </c>
+      <c r="F165" t="s">
+        <v>15</v>
+      </c>
+      <c r="G165" t="s">
+        <v>643</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="J165" t="s">
+        <v>137</v>
+      </c>
+      <c r="K165" t="s">
+        <v>622</v>
+      </c>
+      <c r="L165" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="B166" t="s">
+        <v>719</v>
+      </c>
+      <c r="C166" t="s">
+        <v>712</v>
+      </c>
+      <c r="D166" t="s">
+        <v>656</v>
+      </c>
+      <c r="E166" t="s">
+        <v>77</v>
+      </c>
+      <c r="F166" t="s">
+        <v>15</v>
+      </c>
+      <c r="G166" t="s">
+        <v>643</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="J166" t="s">
+        <v>137</v>
+      </c>
+      <c r="K166" t="s">
+        <v>622</v>
+      </c>
+      <c r="L166" t="s">
         <v>623</v>
       </c>
     </row>

--- a/00Consolidado Tablas Madre.xlsx
+++ b/00Consolidado Tablas Madre.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojas.DESKTOP-91OCPB2\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\Tablas Madre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBE2ED6-DE70-4CB8-AA8B-EF0F5606AA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F20AF80-96A2-440E-A733-0FBE71F7E1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="3030" windowWidth="9855" windowHeight="7890" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidado" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="SegmentaciónDeDatos_Sector">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_Unidad_de_Medida">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="731">
   <si>
     <t>Código Tabla</t>
   </si>
@@ -2222,6 +2222,24 @@
   </si>
   <si>
     <t>https://www.dropbox.com/s/k3ih67bwfvo7vek/27.24.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>27.25</t>
+  </si>
+  <si>
+    <t>Sondeo de preguntas relacionadas al acoso sexual callejero, con respuestas en tipo "de acuerdo" o en "desacuerdo", para los años 2015 y 2016.</t>
+  </si>
+  <si>
+    <t>Instituto Nacional de la Juventud</t>
+  </si>
+  <si>
+    <t>https://www.injuv.gob.cl/sondeos</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/9k56eawohlr9dl7/27.25.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Acoso_Sexual_Callejero</t>
   </si>
 </sst>
 </file>
@@ -2896,8 +2914,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A11:L166" totalsRowShown="0">
-  <autoFilter ref="A11:L166" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A11:L167" totalsRowShown="0">
+  <autoFilter ref="A11:L167" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:J119">
     <sortCondition ref="A11:A119"/>
   </sortState>
@@ -3216,11 +3234,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD49B1B1-33D3-49D9-BF85-AA2E2407F985}">
-  <dimension ref="A11:L166"/>
+  <dimension ref="A11:L167"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I168" sqref="I168"/>
+      <pane ySplit="11" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8882,6 +8900,44 @@
         <v>622</v>
       </c>
       <c r="L166" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" s="13" t="s">
+        <v>725</v>
+      </c>
+      <c r="B167" t="s">
+        <v>730</v>
+      </c>
+      <c r="C167" t="s">
+        <v>726</v>
+      </c>
+      <c r="D167" t="s">
+        <v>147</v>
+      </c>
+      <c r="E167" t="s">
+        <v>77</v>
+      </c>
+      <c r="F167" t="s">
+        <v>15</v>
+      </c>
+      <c r="G167" t="s">
+        <v>727</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="J167" t="s">
+        <v>81</v>
+      </c>
+      <c r="K167" t="s">
+        <v>622</v>
+      </c>
+      <c r="L167" t="s">
         <v>623</v>
       </c>
     </row>
@@ -8940,17 +8996,19 @@
     <hyperlink ref="H157" r:id="rId50" xr:uid="{63B8F4BD-8E85-42D5-96D2-FCDF2DE8EEB1}"/>
     <hyperlink ref="H158" r:id="rId51" xr:uid="{02A6923A-10D1-4A94-AE82-47AA67FB78B7}"/>
     <hyperlink ref="I158" r:id="rId52" xr:uid="{EE17308B-DE39-4800-BF04-987B80EE4380}"/>
+    <hyperlink ref="H167" r:id="rId53" xr:uid="{3A60F7E3-10DC-40FF-B2A1-76744BD0743C}"/>
+    <hyperlink ref="I167" r:id="rId54" xr:uid="{974F1FBE-0AE3-4549-9CAC-27CE4ED54261}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId53"/>
-  <drawing r:id="rId54"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId55"/>
+  <drawing r:id="rId56"/>
   <tableParts count="1">
-    <tablePart r:id="rId55"/>
+    <tablePart r:id="rId57"/>
   </tableParts>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
       <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId56"/>
+        <x14:slicer r:id="rId58"/>
       </x14:slicerList>
     </ext>
   </extLst>

--- a/00Consolidado Tablas Madre.xlsx
+++ b/00Consolidado Tablas Madre.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\Tablas Madre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCN\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F20AF80-96A2-440E-A733-0FBE71F7E1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3AB9A8-9B88-4A37-AF41-126C986B3B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <definedName name="SegmentaciónDeDatos_Sector">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_Unidad_de_Medida">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="758">
   <si>
     <t>Código Tabla</t>
   </si>
@@ -240,7 +240,7 @@
     <t>Claudia Garrido</t>
   </si>
   <si>
-    <t>Agricultura y Ganadería</t>
+    <t>Agropecuario y Forestal</t>
   </si>
   <si>
     <t>Silvicultura</t>
@@ -486,208 +486,274 @@
     <t>Política y Gobierno</t>
   </si>
   <si>
+    <t>17.11</t>
+  </si>
+  <si>
+    <t>Distribucion_por_tipo_pastoreo</t>
+  </si>
+  <si>
+    <t>Distribución (%) de explotación por tipo pastoreo utilizado con el ganado y por provincia. BOVINO</t>
+  </si>
+  <si>
+    <t>Porcentaje</t>
+  </si>
+  <si>
+    <t>Indefinido (cada 2 años al parecer)</t>
+  </si>
+  <si>
+    <t>Oficina de Estudios y Políticas Agrarias</t>
+  </si>
+  <si>
+    <t>https://www.odepa.gob.cl/wp-content/uploads/2020/06/Bovinos-2019-Tabulados_B2019.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/beboi9ailf1emsj/17.11.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Ganadería</t>
+  </si>
+  <si>
+    <t>17.18</t>
+  </si>
+  <si>
+    <t>Faena_vacas_segun_total_faena_bovinos_matadero_cantidad_cabezas</t>
+  </si>
+  <si>
+    <t>Faena de vacas del total de Faena de Bovinos, numero de cabezas mensual</t>
+  </si>
+  <si>
+    <t>https://bibliotecadigital.odepa.gob.cl/bitstream/handle/20.500.12650/70669/Boletin_carne_bov-feb21.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/ki2g5omncme6hcq/Boletin_carne_bov-feb21%20%281%29.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Silvia Valdes</t>
+  </si>
+  <si>
+    <t>17.2</t>
+  </si>
+  <si>
+    <t>Directorio_Apicultura_Chile</t>
+  </si>
+  <si>
+    <t>Directorio de Recintos dedicados a la apicultura, categorizados de acuerdo al tipo de recinto, producto, comuna, nombre de la empresa/dueño</t>
+  </si>
+  <si>
+    <t>Temporada</t>
+  </si>
+  <si>
+    <t>Servicio Agrícola Ganadero</t>
+  </si>
+  <si>
+    <t>https://www.sag.gob.cl/ambitos-de-accion/establecimientos-productores-procesadores-y-elaboradores/1702/registros</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/x1l4teoxkno71kp/17.2.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Agricultura</t>
+  </si>
+  <si>
+    <t>17.20</t>
+  </si>
+  <si>
+    <t>Faena_vaquilla_segun_total_faena_bovinos_matadero_cantidad_cabezas</t>
+  </si>
+  <si>
+    <t>Faena de vaquilla del total de Faena de Bovinos, numero de cabezas mensual</t>
+  </si>
+  <si>
+    <t>17.24</t>
+  </si>
+  <si>
+    <t>Exportaciones_carne_productos_subproductos_destinos_tonelada_2020</t>
+  </si>
+  <si>
+    <t>Exportaciones de carne bovino por principales productos, subproductos y destinos tonelada  año 2020</t>
+  </si>
+  <si>
+    <t>17.25</t>
+  </si>
+  <si>
+    <t>Exportaciones_productos_subproductos_destinos_miles_usd_fob_2020</t>
+  </si>
+  <si>
+    <t>Exportaciones de carne bovino por principales productos, subproductos y destinos miles usd fob  año 2020</t>
+  </si>
+  <si>
+    <t>US$ FOB</t>
+  </si>
+  <si>
+    <t>17.27</t>
+  </si>
+  <si>
+    <t>Cabezas_bovino_ganado_2019</t>
+  </si>
+  <si>
+    <t>Número de cabezas de ganado bovino por categoría, según región y provincia (2019).</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>17.28</t>
+  </si>
+  <si>
+    <t>Cabezas_ganado_raza</t>
+  </si>
+  <si>
+    <t>Número de cabezas de ganado bovino por razas, según región y provincia (2019).</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/x5eheg6xji61wrw/17.28.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>17.3</t>
+  </si>
+  <si>
+    <t>Distribución_por_tipo_explotacion</t>
+  </si>
+  <si>
+    <t>Distribución (%) de explotación por tipo de actividad pecuaria y por provincia. BOVINO</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/e7c1bu1gajhmlxk/17.3.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>17.26</t>
+  </si>
+  <si>
+    <t>Cabezas_bovino_carne_leche</t>
+  </si>
+  <si>
+    <t>Número de cabezas de ganado bovino para carne o lechería por categoría, según región y provincia (2019).</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/1jga25l3osqf8an/17.26.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>17.23</t>
+  </si>
+  <si>
+    <t>Cabezas_bovino_2007_2019</t>
+  </si>
+  <si>
+    <t>Número de cabezas de ganado bovino en 2007, 2015, 2017 y 2019, según región y provincia.</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/7mqvw2urbmmnwmn/17.23.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>17.22</t>
+  </si>
+  <si>
+    <t>Cabezas_vacas_vaquillas_2007_2019</t>
+  </si>
+  <si>
+    <t>Número de cabezas de vacas y vaquillas en 2007, 2015, 2017 y 2019, según región y provincia.</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/rjbcsnfhbwgq5cp/17.22.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>17.21</t>
+  </si>
+  <si>
+    <t>Distribución_explotación_lechería</t>
+  </si>
+  <si>
+    <t>Distribución del número de explotaciones por tipo de lechería, según región y provincia (2019).</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/voil5dbe0we0uuh/17.21.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>17.19</t>
+  </si>
+  <si>
+    <t>Distribución_explotación_comercialización</t>
+  </si>
+  <si>
+    <t>Distribución del número de explotaciones por principal canal de comercialización en los últimos 12 meses, según región y provincia (2019).</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/k0tdg52qy2nlbkd/17.19.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>17.10</t>
+  </si>
+  <si>
+    <t>Distribución_origen_animales_engorda</t>
+  </si>
+  <si>
+    <t>Distribución del número de explotaciones por origen de los animales para engorda en explotaciones productoras de carne, según región y provincia (2019).</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/lec3jip5frkhk62/17.10.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>17.8</t>
+  </si>
+  <si>
+    <t>Costo_producción_leche</t>
+  </si>
+  <si>
+    <t>Costos de producción por litro de leche promedio, según región y provincia (2019).</t>
+  </si>
+  <si>
+    <t>$/Litro</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/g354sf991u3e4oz/17.8.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>17.4</t>
+  </si>
+  <si>
+    <t>produccion_tonelada_acumulado</t>
+  </si>
+  <si>
+    <t>Produccion de carne aculumado en toneladas</t>
+  </si>
+  <si>
+    <t>17.6</t>
+  </si>
+  <si>
+    <t>Importaciones_carne_bovino_productos_subproducto_origen_toneladas_2020</t>
+  </si>
+  <si>
+    <t>Importaciones de carne de bovino por productos, subproductos y origen en toneladas año 2020</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/epa5tgys0eu6vk2/17.6.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>17.5</t>
+  </si>
+  <si>
+    <t>Importaciones_carne_bovino_productos_subproductos_origen_miles_usd_CIF_2020</t>
+  </si>
+  <si>
+    <t>Importaciones de carne de bovino por productos, subproductos y origen en miles de USD CIF año 2020</t>
+  </si>
+  <si>
+    <t>US$ CIF</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/io77pa73umenn8g/17.5.xlsx?dl=0</t>
+  </si>
+  <si>
     <t>17.1</t>
   </si>
   <si>
-    <t>Porcentaje</t>
-  </si>
-  <si>
-    <t>Indefinido (cada 2 años al parecer)</t>
-  </si>
-  <si>
-    <t>Oficina de Estudios y Políticas Agrarias</t>
-  </si>
-  <si>
-    <t>https://www.odepa.gob.cl/wp-content/uploads/2020/06/Bovinos-2019-Tabulados_B2019.xlsx</t>
-  </si>
-  <si>
-    <t>17.10</t>
-  </si>
-  <si>
-    <t>https://bibliotecadigital.odepa.gob.cl/bitstream/handle/20.500.12650/70669/Boletin_carne_bov-feb21.xlsx</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/ki2g5omncme6hcq/Boletin_carne_bov-feb21%20%281%29.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>Silvia Valdes</t>
-  </si>
-  <si>
-    <t>Ganadería</t>
-  </si>
-  <si>
-    <t>17.11</t>
-  </si>
-  <si>
-    <t>Distribucion_por_tipo_pastoreo</t>
-  </si>
-  <si>
-    <t>Distribución (%) de explotación por tipo pastoreo utilizado con el ganado y por provincia. BOVINO</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/beboi9ailf1emsj/17.11.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>17.18</t>
-  </si>
-  <si>
-    <t>Faena_vacas_segun_total_faena_bovinos_matadero_cantidad_cabezas</t>
-  </si>
-  <si>
-    <t>Faena de vacas del total de Faena de Bovinos, numero de cabezas mensual</t>
-  </si>
-  <si>
-    <t>17.19</t>
-  </si>
-  <si>
-    <t>17.2</t>
-  </si>
-  <si>
-    <t>Directorio_Apicultura_Chile</t>
-  </si>
-  <si>
-    <t>Directorio de Recintos dedicados a la apicultura, categorizados de acuerdo al tipo de recinto, producto, comuna, nombre de la empresa/dueño</t>
-  </si>
-  <si>
-    <t>Temporada</t>
-  </si>
-  <si>
-    <t>Servicio Agrícola Ganadero</t>
-  </si>
-  <si>
-    <t>https://www.sag.gob.cl/ambitos-de-accion/establecimientos-productores-procesadores-y-elaboradores/1702/registros</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/x1l4teoxkno71kp/17.2.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>Agricultura</t>
-  </si>
-  <si>
-    <t>17.20</t>
-  </si>
-  <si>
-    <t>Faena_vaquilla_segun_total_faena_bovinos_matadero_cantidad_cabezas</t>
-  </si>
-  <si>
-    <t>Faena de vaquilla del total de Faena de Bovinos, numero de cabezas mensual</t>
-  </si>
-  <si>
-    <t>17.21</t>
-  </si>
-  <si>
-    <t>17.22</t>
-  </si>
-  <si>
-    <t>17.23</t>
-  </si>
-  <si>
-    <t>US$ FOB</t>
-  </si>
-  <si>
-    <t>17.24</t>
-  </si>
-  <si>
-    <t>17.25</t>
-  </si>
-  <si>
-    <t>17.27</t>
-  </si>
-  <si>
-    <t>Cabezas_bovino_ganado_2019</t>
-  </si>
-  <si>
-    <t>Número de cabezas de ganado bovino por categoría, según región y provincia (2019).</t>
-  </si>
-  <si>
-    <t>Cantidad</t>
-  </si>
-  <si>
-    <t>17.28</t>
-  </si>
-  <si>
-    <t>Cabezas_ganado_raza</t>
-  </si>
-  <si>
-    <t>Número de cabezas de ganado bovino por razas, según región y provincia (2019).</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/x5eheg6xji61wrw/17.28.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>17.3</t>
-  </si>
-  <si>
-    <t>Distribución_por_tipo_explotacion</t>
-  </si>
-  <si>
-    <t>Distribución (%) de explotación por tipo de actividad pecuaria y por provincia. BOVINO</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/e7c1bu1gajhmlxk/17.3.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>Cabezas_bovino_2007_2019</t>
-  </si>
-  <si>
-    <t>Número de cabezas de ganado bovino en 2007, 2015, 2017 y 2019, según región y provincia.</t>
-  </si>
-  <si>
-    <t>Cabezas_vacas_vaquillas_2007_2019</t>
-  </si>
-  <si>
-    <t>Número de cabezas de vacas y vaquillas en 2007, 2015, 2017 y 2019, según región y provincia.</t>
-  </si>
-  <si>
-    <t>Distribución_explotación_lechería</t>
-  </si>
-  <si>
-    <t>Distribución del número de explotaciones por tipo de lechería, según región y provincia (2019).</t>
-  </si>
-  <si>
-    <t>Distribución_explotación_comercialización</t>
-  </si>
-  <si>
-    <t>Distribución del número de explotaciones por principal canal de comercialización en los últimos 12 meses, según región y provincia (2019).</t>
-  </si>
-  <si>
-    <t>Distribución_origen_animales_engorda</t>
-  </si>
-  <si>
-    <t>Distribución del número de explotaciones por origen de los animales para engorda en explotaciones productoras de carne, según región y provincia (2019).</t>
-  </si>
-  <si>
-    <t>Costo_producción_leche</t>
-  </si>
-  <si>
-    <t>Costos de producción por litro de leche promedio, según región y provincia (2019).</t>
-  </si>
-  <si>
-    <t>$/Litro</t>
-  </si>
-  <si>
-    <t>US$ CIF</t>
-  </si>
-  <si>
-    <t>17.4</t>
-  </si>
-  <si>
-    <t>produccion_tonelada_acumulado</t>
-  </si>
-  <si>
-    <t>Produccion de carne aculumado en toneladas</t>
-  </si>
-  <si>
     <t>Importaciones_semanales_carne_bovina_toneladas</t>
   </si>
   <si>
     <t>Importaciones semanales de carne bovina (toneladas)</t>
   </si>
   <si>
-    <t>17.5</t>
-  </si>
-  <si>
-    <t>17.6</t>
+    <t>https://www.dropbox.com/s/s93vy4gbld4weaf/17.1.xlsx?dl=0</t>
   </si>
   <si>
     <t>17.7</t>
@@ -699,9 +765,6 @@
     <t>Faena de Bovino en mataderos, numero de cabezas mensual</t>
   </si>
   <si>
-    <t>17.8</t>
-  </si>
-  <si>
     <t>17.9</t>
   </si>
   <si>
@@ -792,9 +855,6 @@
     <t>Pesca y acuicultura</t>
   </si>
   <si>
-    <t>http://www.sernapesca.cl/sites/default/files/2019_0303_desembarque_total_por_mes.xlsx</t>
-  </si>
-  <si>
     <t>2.1</t>
   </si>
   <si>
@@ -1030,6 +1090,9 @@
   </si>
   <si>
     <t>Exportaciones en toneladas de especies de frutas desde Chile hacia otros países</t>
+  </si>
+  <si>
+    <t>Servicio Nacional de Aduanas</t>
   </si>
   <si>
     <t>https://www.dropbox.com/s/ze54zqkt5cmpwew/4.1.xlsx?dl=0</t>
@@ -1141,6 +1204,12 @@
     <t>Ventas Estimadas de empresas del rubro de la agricultura, por subrubro económico, actividad económica (especie plantada/cultivada), tamaño de empresa, razón social, RUT.</t>
   </si>
   <si>
+    <t>https://www.sii.cl/sobre_el_sii/nominapersonasjuridicas.html</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/pp4kb4l3u28pjal/nueva%204.5.xlsx?dl=0</t>
+  </si>
+  <si>
     <t>4.6</t>
   </si>
   <si>
@@ -1675,6 +1744,9 @@
     <t>Desembarque total  año 2019 de pesca y acuicultura por especie y region</t>
   </si>
   <si>
+    <t>http://www.sernapesca.cl/sites/default/files/2019_0303_desembarque_total_por_mes.xlsx</t>
+  </si>
+  <si>
     <t>19.4</t>
   </si>
   <si>
@@ -1708,69 +1780,6 @@
     <t>Pueblos_Comuna_Genero</t>
   </si>
   <si>
-    <t>17.26</t>
-  </si>
-  <si>
-    <t>Exportaciones de carne bovino por principales productos, subproductos y destinos miles usd fob  año 2020</t>
-  </si>
-  <si>
-    <t>Exportaciones_productos_subproductos_destinos_miles_usd_fob_2020</t>
-  </si>
-  <si>
-    <t>Importaciones de carne de bovino por productos, subproductos y origen en toneladas año 2020</t>
-  </si>
-  <si>
-    <t>Importaciones_carne_bovino_productos_subproducto_origen_toneladas_2020</t>
-  </si>
-  <si>
-    <t>Importaciones de carne de bovino por productos, subproductos y origen en miles de USD CIF año 2020</t>
-  </si>
-  <si>
-    <t>Importaciones_carne_bovino_productos_subproductos_origen_miles_usd_CIF_2020</t>
-  </si>
-  <si>
-    <t>Exportaciones de carne bovino por principales productos, subproductos y destinos tonelada  año 2020</t>
-  </si>
-  <si>
-    <t>Exportaciones_carne_productos_subproductos_destinos_tonelada_2020</t>
-  </si>
-  <si>
-    <t>Número de cabezas de ganado bovino para carne o lechería por categoría, según región y provincia (2019).</t>
-  </si>
-  <si>
-    <t>Cabezas_bovino_carne_leche</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/s93vy4gbld4weaf/17.1.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/io77pa73umenn8g/17.5.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/epa5tgys0eu6vk2/17.6.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/g354sf991u3e4oz/17.8.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/lec3jip5frkhk62/17.10.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/k0tdg52qy2nlbkd/17.19.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/voil5dbe0we0uuh/17.21.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/rjbcsnfhbwgq5cp/17.22.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/7mqvw2urbmmnwmn/17.23.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/1jga25l3osqf8an/17.26.xlsx?dl=0</t>
-  </si>
-  <si>
     <t>19.2</t>
   </si>
   <si>
@@ -1852,12 +1861,12 @@
     <t>7.13</t>
   </si>
   <si>
+    <t>Alumnos_estandar_elemental_simce_lectura</t>
+  </si>
+  <si>
     <t>Porcentaje de estudiantes con estándar elemental en Simce Lectura por establecimiento</t>
   </si>
   <si>
-    <t>Alumnos_estandar_elemental_simce_lectura</t>
-  </si>
-  <si>
     <t>7.14</t>
   </si>
   <si>
@@ -1867,15 +1876,15 @@
     <t>Porcentaje de estudiantes con estándar adecuado en Simce Lectura por establecimiento</t>
   </si>
   <si>
+    <t>7.15</t>
+  </si>
+  <si>
     <t>Alumnos_estandar_insuficiente_simce_matematica</t>
   </si>
   <si>
     <t>Porcentaje de estudiantes con estándar insuficiente en Simce matematica por establecimiento</t>
   </si>
   <si>
-    <t>7.15</t>
-  </si>
-  <si>
     <t>7.16</t>
   </si>
   <si>
@@ -1885,19 +1894,16 @@
     <t>Porcentaje de estudiantes con estándar elemental en Simce matematica por establecimiento</t>
   </si>
   <si>
+    <t>7.17</t>
+  </si>
+  <si>
     <t>Alumnos_estandar_adecuado_simce_matematica</t>
   </si>
   <si>
-    <t>7.17</t>
-  </si>
-  <si>
     <t>Porcentaje de estudiantes con estándar adecuado en Simce matematica por establecimiento</t>
   </si>
   <si>
-    <t>https://www.sii.cl/sobre_el_sii/nominapersonasjuridicas.html</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/pp4kb4l3u28pjal/nueva%204.5.xlsx?dl=0</t>
+    <t>27.1</t>
   </si>
   <si>
     <t>Acoso_Sexual_Laboral_Denuncias_DT</t>
@@ -1921,9 +1927,6 @@
     <t>Violencia</t>
   </si>
   <si>
-    <t>27.1</t>
-  </si>
-  <si>
     <t>27.2</t>
   </si>
   <si>
@@ -1939,10 +1942,19 @@
     <t>https://www.dropbox.com/s/djlpgsuiysbmtgx/27.2.xlsx?dl=0</t>
   </si>
   <si>
+    <t>27.3</t>
+  </si>
+  <si>
     <t>Prevalencia_VIF_año_vida</t>
   </si>
   <si>
-    <t>27.3</t>
+    <t>Prevalencia de la Violencia Intrafamiliar según encuesta ENVIF</t>
+  </si>
+  <si>
+    <t>Prevalencia</t>
+  </si>
+  <si>
+    <t>https://www.ine.cl/estadisticas/sociales/genero/indicadores-subcomision-de-estadisticas-de-genero</t>
   </si>
   <si>
     <t>https://www.dropbox.com/s/fkzviz1dhgq2n1j/27.3.xlsx?dl=0</t>
@@ -1954,36 +1966,63 @@
     <t>VIF_trimestre</t>
   </si>
   <si>
+    <t>Cantidad de personas que sufren violencia intrafamilair por región y por semestre entre el 2019 y 2021 (según datos de la fiscalia nacional)</t>
+  </si>
+  <si>
+    <t>Fiscalia de Chile</t>
+  </si>
+  <si>
     <t>http://www.fiscaliadechile.cl/Fiscalia/estadisticas/index.do</t>
   </si>
   <si>
-    <t>Cantidad de personas que sufren violencia intrafamilair por región y por semestre entre el 2019 y 2021 (según datos de la fiscalia nacional)</t>
-  </si>
-  <si>
-    <t>Fiscalia de Chile</t>
-  </si>
-  <si>
     <t>https://www.dropbox.com/s/4xne1y1ymk2wmao/27.4.xlsx?dl=0</t>
   </si>
   <si>
+    <t>27.5</t>
+  </si>
+  <si>
     <t>VIF_Comuna_mensual</t>
   </si>
   <si>
-    <t>27.5</t>
-  </si>
-  <si>
     <t>Cantidad de mujeres que sufren maltrato intrafamiliar (maltrato intrafamiliar a la mujer) por mes desde y comuna desde el año 2005 al 2021</t>
   </si>
   <si>
+    <t>Centro de Estúdios y Análisis del Delito</t>
+  </si>
+  <si>
     <t>http://cead.spd.gov.cl/estadisticas-delictuales/</t>
   </si>
   <si>
-    <t>Centro de Estúdios y Análisis del Delito</t>
-  </si>
-  <si>
     <t>https://www.dropbox.com/s/tthqxf0y1m1u5uf/27.5.xlsx?dl=0</t>
   </si>
   <si>
+    <t>27.6</t>
+  </si>
+  <si>
+    <t>Frecuencia_violacion</t>
+  </si>
+  <si>
+    <t>Frecuencia de violaciones según Delitos de Mayor Connotación Social por comuna y trimestre entre el 2008 y 2020</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/l4a855u975mll4g/27.6.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>27.7</t>
+  </si>
+  <si>
+    <t>Tasa_violacion</t>
+  </si>
+  <si>
+    <t>Tasa de violaciones según Delitos de Mayor Connotación Social por comuna y trimestre entre el 2008 y 2020</t>
+  </si>
+  <si>
+    <t>Tasa</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/sfaj9wl4j7s1sat/27.7.xlsx?dl=0</t>
+  </si>
+  <si>
     <t>27.8</t>
   </si>
   <si>
@@ -1996,42 +2035,21 @@
     <t>https://www.dropbox.com/s/j5z8llznjtvizbc/27.8.xlsx?dl=0</t>
   </si>
   <si>
+    <t>27.9</t>
+  </si>
+  <si>
+    <t>Frecuencia_violencia_económica</t>
+  </si>
+  <si>
+    <t>Cantidad de personas por violencia económica según encuesta ENVIF</t>
+  </si>
+  <si>
+    <t>http://cead.spd.gov.cl/estudios-y-encuestas/</t>
+  </si>
+  <si>
     <t>https://www.dropbox.com/s/dyo6olk1lssagn6/27.9.xlsx?dl=0</t>
   </si>
   <si>
-    <t>27.9</t>
-  </si>
-  <si>
-    <t>27.6</t>
-  </si>
-  <si>
-    <t>Frecuencia_violacion</t>
-  </si>
-  <si>
-    <t>Tasa_violacion</t>
-  </si>
-  <si>
-    <t>Frecuencia de violaciones según Delitos de Mayor Connotación Social por comuna y trimestre entre el 2008 y 2020</t>
-  </si>
-  <si>
-    <t>Tasa de violaciones según Delitos de Mayor Connotación Social por comuna y trimestre entre el 2008 y 2020</t>
-  </si>
-  <si>
-    <t>Tasa</t>
-  </si>
-  <si>
-    <t>Prevalencia</t>
-  </si>
-  <si>
-    <t>http://cead.spd.gov.cl/estudios-y-encuestas/</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/l4a855u975mll4g/27.6.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/sfaj9wl4j7s1sat/27.7.xlsx?dl=0</t>
-  </si>
-  <si>
     <t xml:space="preserve">27.10 </t>
   </si>
   <si>
@@ -2062,40 +2080,37 @@
     <t>https://www.dropbox.com/s/5llf2pxoz16ayg7/27.11.xlsx?dl=0</t>
   </si>
   <si>
-    <t>Prevalencia de la Violencia Intrafamiliar según encuesta ENVIF</t>
-  </si>
-  <si>
-    <t>https://www.ine.cl/estadisticas/sociales/genero/indicadores-subcomision-de-estadisticas-de-genero</t>
-  </si>
-  <si>
     <t>CVS_Mujeres</t>
   </si>
   <si>
+    <t>Cantidad de atenciones en los Centros de Atención y Reparación para Mujeres Víctimas/Sobrevivientes de Violencia Sexual según tipo de atención</t>
+  </si>
+  <si>
+    <t>https://www.sernameg.gob.cl/wp-content/uploads/2019/07/BGI-2019-SernamEG.pdf</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/5idwc8m128i13fb/27.12.xlsx?dl=0</t>
+  </si>
+  <si>
     <t>Centro_Reeducación_Hombres</t>
   </si>
   <si>
+    <t>Cantidad de ingresos y egresos desde los Centros de Reeducación de Hombres</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/d7thzrgshioe59d/27.13.xlsx?dl=0</t>
+  </si>
+  <si>
     <t>Centros_Mujer_Casas_Acogida</t>
   </si>
   <si>
-    <t>Cantidad de atenciones en los Centros de Atención y Reparación para Mujeres Víctimas/Sobrevivientes de Violencia Sexual según tipo de atención</t>
-  </si>
-  <si>
-    <t>https://www.sernameg.gob.cl/wp-content/uploads/2019/07/BGI-2019-SernamEG.pdf</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/5idwc8m128i13fb/27.12.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/d7thzrgshioe59d/27.13.xlsx?dl=0</t>
+    <t>Cantidad de ingresos, atenciones y salidas en los Centros de la Mujer y las Casas de Acogida</t>
   </si>
   <si>
     <t>https://www.dropbox.com/s/w5or6dthwfpi3zr/27.14.xlsx?dl=0</t>
   </si>
   <si>
-    <t>Cantidad de ingresos y egresos desde los Centros de Reeducación de Hombres</t>
-  </si>
-  <si>
-    <t>Cantidad de ingresos, atenciones y salidas en los Centros de la Mujer y las Casas de Acogida</t>
+    <t>Sentencias_Abuso_Sexual</t>
   </si>
   <si>
     <t>Sentencias de abuso sexual entre el año 2013 y 2019</t>
@@ -2104,10 +2119,7 @@
     <t>https://www.dropbox.com/s/9aub2h803lmwtya/27.15.xlsx?dl=0</t>
   </si>
   <si>
-    <t>Sentencias_Abuso_Sexual</t>
-  </si>
-  <si>
-    <t>27.7</t>
+    <t>Sentencias_Delitos_Violencia_Genero</t>
   </si>
   <si>
     <t>Sentencias de delitos relacionados con la violencia hacia la mujer entre el año 2013 y 2019</t>
@@ -2116,117 +2128,108 @@
     <t>https://www.dropbox.com/s/ktk0lv48otnx2ga/27.16.xlsx?dl=0</t>
   </si>
   <si>
-    <t>Sentencias_Delitos_Violencia_Genero</t>
-  </si>
-  <si>
     <t>27.17</t>
   </si>
   <si>
+    <t>Freq_violencia_psicologica_ENVIF</t>
+  </si>
+  <si>
+    <t>Cantidad de personas por violencia psicológica según encuesta ENVIF</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/bpjhwph3yg9e4uh/27.17.xlsx?dl=0</t>
+  </si>
+  <si>
     <t>27.18</t>
   </si>
   <si>
+    <t>Tasa100mil_violencia_psicologica_ENVIF</t>
+  </si>
+  <si>
+    <t>Tasa por cada 100 mil habitantes por violencia psicológica según encuesta ENVIF</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/2e807bt2ll42naj/27.18.xlsx?dl=0</t>
+  </si>
+  <si>
     <t>27.19</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/s/bpjhwph3yg9e4uh/27.17.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/2e807bt2ll42naj/27.18.xlsx?dl=0</t>
+    <t>Tasa100mil_mujer_violencia_psic_ENVIF</t>
+  </si>
+  <si>
+    <t>Tasa por cada 100 mil mujeres por violencia psicológica según encuesta ENVIF</t>
   </si>
   <si>
     <t>https://www.dropbox.com/s/7hsc18bln9v82au/27.19.xlsx?dl=0</t>
   </si>
   <si>
-    <t>Servicio Nacional de Aduanas</t>
-  </si>
-  <si>
-    <t>Frecuencia_violencia_económica</t>
-  </si>
-  <si>
     <t>27.20</t>
   </si>
   <si>
+    <t>Freq_violencia_gral_ENVIF</t>
+  </si>
+  <si>
+    <t>Cantidad de personas por violencia general según encuesta ENVIF</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/7kaieclc3iiyi84/27.20.xlsx?dl=0</t>
+  </si>
+  <si>
     <t>27.21</t>
   </si>
   <si>
+    <t>Tasa_100mil_violencia_gral_ENVIF</t>
+  </si>
+  <si>
+    <t>Tasa por cada 100 mil habitantes por violencia general según encuesta ENVIF</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/6ih2o954jv64zbx/27.21.xlsx?dl=0</t>
+  </si>
+  <si>
     <t>27.22</t>
   </si>
   <si>
+    <t>Tasa100mil_mujer_violencia_gral_ENVIF</t>
+  </si>
+  <si>
+    <t>Tasa por cada 100 mil mujeres por violencia general según encuesta ENVIF</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/ak6yfsewreo04cl/27.22.xlsx?dl=0</t>
+  </si>
+  <si>
     <t>27.23</t>
   </si>
   <si>
+    <t>Tasa100mil_violencia_económica</t>
+  </si>
+  <si>
+    <t>Tasa por cada 100 mil habitantes por violencia económica según encuesta ENVIF</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/ftytf01wr0clhf3/27.23.xlsx?dl=0</t>
+  </si>
+  <si>
     <t>27.24</t>
   </si>
   <si>
-    <t>Freq_violencia_psicologica_ENVIF</t>
-  </si>
-  <si>
-    <t>Cantidad de personas por violencia psicológica según encuesta ENVIF</t>
-  </si>
-  <si>
-    <t>Cantidad de personas por violencia económica según encuesta ENVIF</t>
-  </si>
-  <si>
-    <t>Tasa por cada 100 mil habitantes por violencia psicológica según encuesta ENVIF</t>
-  </si>
-  <si>
-    <t>Tasa por cada 100 mil mujeres por violencia psicológica según encuesta ENVIF</t>
-  </si>
-  <si>
-    <t>Cantidad de personas por violencia general según encuesta ENVIF</t>
-  </si>
-  <si>
-    <t>Tasa por cada 100 mil habitantes por violencia general según encuesta ENVIF</t>
-  </si>
-  <si>
-    <t>Tasa por cada 100 mil mujeres por violencia general según encuesta ENVIF</t>
-  </si>
-  <si>
-    <t>Tasa por cada 100 mil habitantes por violencia económica según encuesta ENVIF</t>
+    <t>Tasa100mil_mujer_violencia_economica</t>
   </si>
   <si>
     <t>Tasa por cada 100 mil mujeres por violencia económica según encuesta ENVIF</t>
   </si>
   <si>
-    <t>Tasa100mil_violencia_psicologica_ENVIF</t>
-  </si>
-  <si>
-    <t>Tasa100mil_mujer_violencia_psic_ENVIF</t>
-  </si>
-  <si>
-    <t>Freq_violencia_gral_ENVIF</t>
-  </si>
-  <si>
-    <t>Tasa_100mil_violencia_gral_ENVIF</t>
-  </si>
-  <si>
-    <t>Tasa100mil_mujer_violencia_gral_ENVIF</t>
-  </si>
-  <si>
-    <t>Tasa100mil_violencia_económica</t>
-  </si>
-  <si>
-    <t>Tasa100mil_mujer_violencia_economica</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/7kaieclc3iiyi84/27.20.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/6ih2o954jv64zbx/27.21.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/ak6yfsewreo04cl/27.22.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/ftytf01wr0clhf3/27.23.xlsx?dl=0</t>
-  </si>
-  <si>
     <t>https://www.dropbox.com/s/k3ih67bwfvo7vek/27.24.xlsx?dl=0</t>
   </si>
   <si>
     <t>27.25</t>
   </si>
   <si>
+    <t>Acoso_Sexual_Callejero</t>
+  </si>
+  <si>
     <t>Sondeo de preguntas relacionadas al acoso sexual callejero, con respuestas en tipo "de acuerdo" o en "desacuerdo", para los años 2015 y 2016.</t>
   </si>
   <si>
@@ -2239,14 +2242,92 @@
     <t>https://www.dropbox.com/s/9k56eawohlr9dl7/27.25.xlsx?dl=0</t>
   </si>
   <si>
-    <t>Acoso_Sexual_Callejero</t>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>Suscripcion_television_pago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cantidad de suscriptores de televisión de pago, Diciembre de cada año </t>
+  </si>
+  <si>
+    <t>Biblioteca Congreso Nacional</t>
+  </si>
+  <si>
+    <t>https://www.bcn.cl/siit/estadisticasterritoriales/tema?id=144</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/home/Dise%C3%B1o%20DATA's/MTransporte_Telecomunicaciones?preview=Cantidad+de+suscriptores+de+televisi%C3%B3n+de+pago%2C+Diciembre+de+cada+a%C3%B1o.xls</t>
+  </si>
+  <si>
+    <t>Monserat Garrido</t>
+  </si>
+  <si>
+    <t>Transporte y telecomunicaciones</t>
+  </si>
+  <si>
+    <t>Conectividad</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
+    <t>Licencias_conducir</t>
+  </si>
+  <si>
+    <t>Cantidad de licencias de conducir expendidas</t>
+  </si>
+  <si>
+    <t>https://www.ine.cl/estadisticas/economia/transporte-y-comunicaciones/licencias-de-conducir</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/home/Dise%C3%B1o%20DATA's/MTransporte_Telecomunicaciones?preview=licencias+de+conducir.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transporte </t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suscripcion_internet </t>
+  </si>
+  <si>
+    <t>Cantidad de Conexiones de internet fijas, Diciembre de cada año</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/home/Dise%C3%B1o%20DATA's/MTransporte_Telecomunicaciones?preview=Cantidad+de+Conexiones+de+internet+fijas%2C+Diciembre+de+cada+a%C3%B1o.xlsx</t>
+  </si>
+  <si>
+    <t>7.18</t>
+  </si>
+  <si>
+    <t>7.19</t>
+  </si>
+  <si>
+    <t>matricula_por_rbd_basica</t>
+  </si>
+  <si>
+    <t>http://datos.mineduc.cl/dashboards/20022/descarga-bases-de-datos-de-resumen-matricula-por-establecimiento/</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/uf08o4umni4pkxd/Resumen%20matricula%20por%20establecimiento.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Matricula_segun_sexo_por_establecimiento</t>
+  </si>
+  <si>
+    <t>Matricula por rbd según sexo niños y adultos 2004-2020</t>
+  </si>
+  <si>
+    <t>Matricula por rbd en educacion basica niños y adultos según sexo 2004-2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2268,8 +2349,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Roboto Condensed"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2279,6 +2367,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2306,7 +2400,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2327,6 +2421,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2356,13 +2453,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
+      <xdr:colOff>86995</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:colOff>26035</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
@@ -2434,15 +2531,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
+      <xdr:colOff>506095</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
+      <xdr:rowOff>10796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
+      <xdr:colOff>506095</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>137161</xdr:rowOff>
+      <xdr:rowOff>140336</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -2512,15 +2609,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:colOff>10795</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2320290</xdr:colOff>
+      <xdr:colOff>2317115</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>144781</xdr:rowOff>
+      <xdr:rowOff>141606</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -2670,13 +2767,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>22861</xdr:rowOff>
+      <xdr:rowOff>26036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>106681</xdr:rowOff>
+      <xdr:rowOff>103506</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -2746,15 +2843,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2179320</xdr:colOff>
+      <xdr:colOff>2182495</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>22861</xdr:rowOff>
+      <xdr:rowOff>26036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4008120</xdr:colOff>
+      <xdr:colOff>4011295</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>144781</xdr:rowOff>
+      <xdr:rowOff>141606</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -2909,13 +3006,24 @@
   <slicer name="Nombre Fuente" xr10:uid="{FCDE2E95-E63C-47A4-8F50-C4F8F5EADAEA}" cache="SegmentaciónDeDatos_Nombre_Fuente" caption="Nombre Fuente" columnCount="2" style="SlicerStyleDark1" rowHeight="234950"/>
   <slicer name="Encargado" xr10:uid="{4B8EAA2A-5539-4124-8E5D-AA4E68FD63C8}" cache="SegmentaciónDeDatos_Encargado" caption="Encargado" columnCount="2" style="SlicerStyleDark1" rowHeight="234950"/>
   <slicer name="Industria" xr10:uid="{5E69910F-72C0-4CCC-9A40-0C33D8089AF2}" cache="SegmentaciónDeDatos_Industria" caption="Industria" style="SlicerStyleDark1" rowHeight="234950"/>
-  <slicer name="Sector" xr10:uid="{FFD6B83F-B469-4B90-8DC1-E5E803E2AA9A}" cache="SegmentaciónDeDatos_Sector" caption="Sector" style="SlicerStyleDark1" rowHeight="234950"/>
+  <slicer name="Sector" xr10:uid="{FFD6B83F-B469-4B90-8DC1-E5E803E2AA9A}" cache="SegmentaciónDeDatos_Sector" caption="Sector" startItem="2" style="SlicerStyleDark1" rowHeight="234950"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A11:L167" totalsRowShown="0">
-  <autoFilter ref="A11:L167" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A11:L173" totalsRowShown="0">
+  <autoFilter ref="A11:L173" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="Sociedad"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="11">
+      <filters>
+        <filter val="Educación y ciencia"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:J119">
     <sortCondition ref="A11:A119"/>
   </sortState>
@@ -3234,11 +3342,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD49B1B1-33D3-49D9-BF85-AA2E2407F985}">
-  <dimension ref="A11:L167"/>
+  <dimension ref="A11:L173"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B167" sqref="B167"/>
+      <pane ySplit="11" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A172" sqref="A172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3295,7 +3403,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>5</v>
       </c>
@@ -3325,7 +3433,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>6</v>
       </c>
@@ -3355,7 +3463,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>9</v>
       </c>
@@ -3393,7 +3501,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>9</v>
       </c>
@@ -3431,7 +3539,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>16</v>
       </c>
@@ -3469,7 +3577,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>42</v>
       </c>
@@ -3507,7 +3615,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>52</v>
       </c>
@@ -3545,7 +3653,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>56</v>
       </c>
@@ -3583,7 +3691,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>66</v>
       </c>
@@ -3621,7 +3729,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>73</v>
       </c>
@@ -3659,7 +3767,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>83</v>
       </c>
@@ -3697,7 +3805,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>89</v>
       </c>
@@ -3729,7 +3837,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>97</v>
       </c>
@@ -3761,7 +3869,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>102</v>
       </c>
@@ -3793,7 +3901,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>107</v>
       </c>
@@ -3825,7 +3933,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>112</v>
       </c>
@@ -3863,7 +3971,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>120</v>
       </c>
@@ -3901,7 +4009,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>126</v>
       </c>
@@ -3939,7 +4047,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>130</v>
       </c>
@@ -3971,7 +4079,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>138</v>
       </c>
@@ -4009,33 +4117,33 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B32" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C32" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D32" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E32" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F32" t="s">
         <v>15</v>
       </c>
       <c r="G32" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="J32" t="s">
         <v>19</v>
@@ -4044,18 +4152,18 @@
         <v>64</v>
       </c>
       <c r="L32" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>160</v>
-      </c>
       <c r="B33" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C33" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D33" t="s">
         <v>76</v>
@@ -4067,51 +4175,51 @@
         <v>15</v>
       </c>
       <c r="G33" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="J33" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K33" t="s">
         <v>64</v>
       </c>
       <c r="L33" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B34" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C34" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D34" t="s">
         <v>26</v>
       </c>
       <c r="E34" t="s">
+        <v>164</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="F34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="J34" t="s">
         <v>96</v>
@@ -4120,18 +4228,18 @@
         <v>64</v>
       </c>
       <c r="L34" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B35" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="B35" t="s">
-        <v>173</v>
-      </c>
-      <c r="C35" t="s">
-        <v>174</v>
       </c>
       <c r="D35" t="s">
         <v>76</v>
@@ -4143,33 +4251,33 @@
         <v>15</v>
       </c>
       <c r="G35" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="J35" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K35" t="s">
         <v>64</v>
       </c>
       <c r="L35" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B36" t="s">
-        <v>561</v>
+        <v>173</v>
       </c>
       <c r="C36" t="s">
-        <v>560</v>
+        <v>174</v>
       </c>
       <c r="D36" t="s">
         <v>115</v>
@@ -4181,33 +4289,33 @@
         <v>15</v>
       </c>
       <c r="G36" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="J36" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K36" t="s">
         <v>64</v>
       </c>
       <c r="L36" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B37" t="s">
-        <v>555</v>
+        <v>176</v>
       </c>
       <c r="C37" t="s">
-        <v>554</v>
+        <v>177</v>
       </c>
       <c r="D37" t="s">
         <v>178</v>
@@ -4219,37 +4327,37 @@
         <v>15</v>
       </c>
       <c r="G37" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="J37" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K37" t="s">
         <v>64</v>
       </c>
       <c r="L37" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B38" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38" t="s">
         <v>181</v>
       </c>
-      <c r="B38" t="s">
+      <c r="D38" t="s">
         <v>182</v>
       </c>
-      <c r="C38" t="s">
-        <v>183</v>
-      </c>
-      <c r="D38" t="s">
-        <v>184</v>
-      </c>
       <c r="E38" t="s">
         <v>14</v>
       </c>
@@ -4257,13 +4365,13 @@
         <v>15</v>
       </c>
       <c r="G38" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="J38" t="s">
         <v>137</v>
@@ -4272,36 +4380,36 @@
         <v>64</v>
       </c>
       <c r="L38" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B39" t="s">
+        <v>184</v>
+      </c>
+      <c r="C39" t="s">
         <v>185</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
+        <v>182</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" t="s">
+        <v>151</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="C39" t="s">
-        <v>187</v>
-      </c>
-      <c r="D39" t="s">
-        <v>184</v>
-      </c>
-      <c r="E39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" t="s">
-        <v>149</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="J39" t="s">
         <v>137</v>
@@ -4310,36 +4418,36 @@
         <v>64</v>
       </c>
       <c r="L39" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B40" t="s">
+        <v>188</v>
+      </c>
+      <c r="C40" t="s">
         <v>189</v>
       </c>
-      <c r="B40" t="s">
+      <c r="D40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E40" t="s">
+        <v>150</v>
+      </c>
+      <c r="F40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" t="s">
+        <v>151</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="C40" t="s">
-        <v>191</v>
-      </c>
-      <c r="D40" t="s">
-        <v>147</v>
-      </c>
-      <c r="E40" t="s">
-        <v>148</v>
-      </c>
-      <c r="F40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" t="s">
-        <v>149</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="J40" t="s">
         <v>19</v>
@@ -4348,21 +4456,21 @@
         <v>64</v>
       </c>
       <c r="L40" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>553</v>
+        <v>191</v>
       </c>
       <c r="B41" t="s">
-        <v>563</v>
+        <v>192</v>
       </c>
       <c r="C41" t="s">
-        <v>562</v>
+        <v>193</v>
       </c>
       <c r="D41" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E41" t="s">
         <v>14</v>
@@ -4371,13 +4479,13 @@
         <v>15</v>
       </c>
       <c r="G41" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>573</v>
+        <v>194</v>
       </c>
       <c r="J41" t="s">
         <v>137</v>
@@ -4386,21 +4494,21 @@
         <v>64</v>
       </c>
       <c r="L41" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="B42" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C42" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D42" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E42" t="s">
         <v>14</v>
@@ -4409,13 +4517,13 @@
         <v>15</v>
       </c>
       <c r="G42" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>572</v>
+        <v>198</v>
       </c>
       <c r="J42" t="s">
         <v>137</v>
@@ -4424,21 +4532,21 @@
         <v>64</v>
       </c>
       <c r="L42" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="B43" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C43" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D43" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E43" t="s">
         <v>14</v>
@@ -4447,13 +4555,13 @@
         <v>15</v>
       </c>
       <c r="G43" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>571</v>
+        <v>202</v>
       </c>
       <c r="J43" t="s">
         <v>137</v>
@@ -4462,21 +4570,21 @@
         <v>64</v>
       </c>
       <c r="L43" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="B44" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C44" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D44" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E44" t="s">
         <v>14</v>
@@ -4485,13 +4593,13 @@
         <v>15</v>
       </c>
       <c r="G44" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>570</v>
+        <v>206</v>
       </c>
       <c r="J44" t="s">
         <v>137</v>
@@ -4500,21 +4608,21 @@
         <v>64</v>
       </c>
       <c r="L44" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="B45" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C45" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D45" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E45" t="s">
         <v>14</v>
@@ -4523,13 +4631,13 @@
         <v>15</v>
       </c>
       <c r="G45" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>569</v>
+        <v>210</v>
       </c>
       <c r="J45" t="s">
         <v>137</v>
@@ -4538,36 +4646,36 @@
         <v>64</v>
       </c>
       <c r="L45" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B46" t="s">
+        <v>212</v>
+      </c>
+      <c r="C46" t="s">
+        <v>213</v>
+      </c>
+      <c r="D46" t="s">
+        <v>149</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" t="s">
         <v>151</v>
       </c>
-      <c r="B46" t="s">
-        <v>201</v>
-      </c>
-      <c r="C46" t="s">
-        <v>202</v>
-      </c>
-      <c r="D46" t="s">
-        <v>147</v>
-      </c>
-      <c r="E46" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" t="s">
-        <v>149</v>
-      </c>
       <c r="H46" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>568</v>
+        <v>214</v>
       </c>
       <c r="J46" t="s">
         <v>137</v>
@@ -4576,21 +4684,21 @@
         <v>64</v>
       </c>
       <c r="L46" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B47" t="s">
+        <v>216</v>
+      </c>
+      <c r="C47" t="s">
         <v>217</v>
       </c>
-      <c r="B47" t="s">
-        <v>203</v>
-      </c>
-      <c r="C47" t="s">
-        <v>204</v>
-      </c>
       <c r="D47" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E47" t="s">
         <v>14</v>
@@ -4599,13 +4707,13 @@
         <v>15</v>
       </c>
       <c r="G47" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>567</v>
+        <v>219</v>
       </c>
       <c r="J47" t="s">
         <v>137</v>
@@ -4614,18 +4722,18 @@
         <v>64</v>
       </c>
       <c r="L47" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="B48" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="C48" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="D48" t="s">
         <v>115</v>
@@ -4637,33 +4745,33 @@
         <v>15</v>
       </c>
       <c r="G48" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="J48" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K48" t="s">
         <v>64</v>
       </c>
       <c r="L48" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="B49" t="s">
-        <v>557</v>
+        <v>224</v>
       </c>
       <c r="C49" t="s">
-        <v>556</v>
+        <v>225</v>
       </c>
       <c r="D49" t="s">
         <v>115</v>
@@ -4675,36 +4783,36 @@
         <v>15</v>
       </c>
       <c r="G49" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>566</v>
+        <v>226</v>
       </c>
       <c r="J49" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K49" t="s">
         <v>64</v>
       </c>
       <c r="L49" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="B50" t="s">
-        <v>559</v>
+        <v>228</v>
       </c>
       <c r="C50" t="s">
-        <v>558</v>
+        <v>229</v>
       </c>
       <c r="D50" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="E50" t="s">
         <v>14</v>
@@ -4713,33 +4821,33 @@
         <v>15</v>
       </c>
       <c r="G50" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>565</v>
+        <v>231</v>
       </c>
       <c r="J50" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K50" t="s">
         <v>64</v>
       </c>
       <c r="L50" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>146</v>
+        <v>232</v>
       </c>
       <c r="B51" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="C51" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="D51" t="s">
         <v>115</v>
@@ -4751,33 +4859,33 @@
         <v>15</v>
       </c>
       <c r="G51" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>564</v>
+        <v>235</v>
       </c>
       <c r="J51" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K51" t="s">
         <v>64</v>
       </c>
       <c r="L51" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="B52" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="C52" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="D52" t="s">
         <v>76</v>
@@ -4789,33 +4897,33 @@
         <v>15</v>
       </c>
       <c r="G52" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="J52" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K52" t="s">
         <v>64</v>
       </c>
       <c r="L52" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="B53" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="C53" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="D53" t="s">
         <v>115</v>
@@ -4827,33 +4935,33 @@
         <v>15</v>
       </c>
       <c r="G53" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="J53" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K53" t="s">
         <v>64</v>
       </c>
       <c r="L53" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="B54" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="C54" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="D54" t="s">
         <v>69</v>
@@ -4865,13 +4973,13 @@
         <v>15</v>
       </c>
       <c r="G54" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="J54" t="s">
         <v>81</v>
@@ -4883,18 +4991,18 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="B55" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="C55" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="D55" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="E55" t="s">
         <v>14</v>
@@ -4903,13 +5011,13 @@
         <v>15</v>
       </c>
       <c r="G55" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="J55" t="s">
         <v>81</v>
@@ -4921,15 +5029,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="B56" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="C56" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="D56" t="s">
         <v>76</v>
@@ -4941,13 +5049,13 @@
         <v>15</v>
       </c>
       <c r="G56" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="J56" t="s">
         <v>81</v>
@@ -4959,18 +5067,18 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="B57" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="C57" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="D57" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="E57" t="s">
         <v>14</v>
@@ -4979,13 +5087,13 @@
         <v>15</v>
       </c>
       <c r="G57" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="J57" t="s">
         <v>81</v>
@@ -4997,15 +5105,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="B58" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="C58" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="D58" t="s">
         <v>115</v>
@@ -5017,69 +5125,69 @@
         <v>15</v>
       </c>
       <c r="G58" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K58" t="s">
         <v>64</v>
       </c>
       <c r="L58" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="B59" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="C59" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="D59" t="s">
         <v>76</v>
       </c>
       <c r="E59" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="F59" t="s">
         <v>15</v>
       </c>
       <c r="G59" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="J59" t="s">
         <v>96</v>
       </c>
       <c r="K59" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="L59" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="B60" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="C60" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="D60" t="s">
         <v>76</v>
@@ -5091,33 +5199,33 @@
         <v>15</v>
       </c>
       <c r="G60" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="J60" t="s">
         <v>96</v>
       </c>
       <c r="K60" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="L60" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="B61" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="C61" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="D61" t="s">
         <v>76</v>
@@ -5129,33 +5237,33 @@
         <v>15</v>
       </c>
       <c r="G61" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="J61" t="s">
         <v>96</v>
       </c>
       <c r="K61" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="L61" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="B62" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="C62" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="D62" t="s">
         <v>76</v>
@@ -5167,109 +5275,109 @@
         <v>15</v>
       </c>
       <c r="G62" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="J62" t="s">
         <v>96</v>
       </c>
       <c r="K62" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="L62" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="B63" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="C63" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="D63" t="s">
         <v>76</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="J63" t="s">
         <v>96</v>
       </c>
       <c r="K63" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="L63" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="B64" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="C64" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="D64" t="s">
         <v>76</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="F64" t="s">
         <v>15</v>
       </c>
       <c r="G64" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="J64" t="s">
         <v>96</v>
       </c>
       <c r="K64" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="L64" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="B65" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="C65" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="D65" t="s">
         <v>76</v>
@@ -5281,33 +5389,33 @@
         <v>15</v>
       </c>
       <c r="G65" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="J65" t="s">
         <v>96</v>
       </c>
       <c r="K65" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="L65" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="B66" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="C66" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="D66" t="s">
         <v>76</v>
@@ -5319,33 +5427,33 @@
         <v>15</v>
       </c>
       <c r="G66" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="J66" t="s">
         <v>96</v>
       </c>
       <c r="K66" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="L66" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="B67" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="C67" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="D67" t="s">
         <v>76</v>
@@ -5357,33 +5465,33 @@
         <v>15</v>
       </c>
       <c r="G67" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="J67" t="s">
         <v>96</v>
       </c>
       <c r="K67" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="L67" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="B68" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="C68" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="D68" t="s">
         <v>76</v>
@@ -5395,33 +5503,33 @@
         <v>15</v>
       </c>
       <c r="G68" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="J68" t="s">
         <v>96</v>
       </c>
       <c r="K68" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="L68" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="B69" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="C69" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="D69" t="s">
         <v>76</v>
@@ -5433,33 +5541,33 @@
         <v>15</v>
       </c>
       <c r="G69" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="J69" t="s">
         <v>96</v>
       </c>
       <c r="K69" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="L69" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="B70" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="C70" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="D70" t="s">
         <v>76</v>
@@ -5471,51 +5579,51 @@
         <v>15</v>
       </c>
       <c r="G70" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="J70" t="s">
         <v>96</v>
       </c>
       <c r="K70" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="L70" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="B71" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="C71" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="D71" t="s">
         <v>76</v>
       </c>
       <c r="E71" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="F71" t="s">
         <v>15</v>
       </c>
       <c r="G71" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="J71" t="s">
         <v>137</v>
@@ -5524,36 +5632,36 @@
         <v>30</v>
       </c>
       <c r="L71" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="B72" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="C72" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="D72" t="s">
         <v>76</v>
       </c>
       <c r="E72" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="F72" t="s">
         <v>15</v>
       </c>
       <c r="G72" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="J72" t="s">
         <v>137</v>
@@ -5562,18 +5670,18 @@
         <v>30</v>
       </c>
       <c r="L72" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="B73" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="C73" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="D73" t="s">
         <v>76</v>
@@ -5585,13 +5693,13 @@
         <v>15</v>
       </c>
       <c r="G73" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="J73" t="s">
         <v>137</v>
@@ -5600,18 +5708,18 @@
         <v>30</v>
       </c>
       <c r="L73" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="B74" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="C74" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="D74" t="s">
         <v>115</v>
@@ -5623,11 +5731,11 @@
         <v>15</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>696</v>
+        <v>348</v>
       </c>
       <c r="H74" s="3"/>
       <c r="I74" s="1" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="J74" t="s">
         <v>63</v>
@@ -5636,18 +5744,18 @@
         <v>64</v>
       </c>
       <c r="L74" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="B75" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="C75" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="D75" t="s">
         <v>115</v>
@@ -5659,13 +5767,13 @@
         <v>15</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="J75" t="s">
         <v>137</v>
@@ -5674,21 +5782,21 @@
         <v>64</v>
       </c>
       <c r="L75" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="B76" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="C76" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="D76" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="E76" t="s">
         <v>14</v>
@@ -5697,13 +5805,13 @@
         <v>15</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="J76" t="s">
         <v>137</v>
@@ -5712,18 +5820,18 @@
         <v>64</v>
       </c>
       <c r="L76" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>69</v>
@@ -5735,13 +5843,13 @@
         <v>15</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="J77" s="7" t="s">
         <v>63</v>
@@ -5750,18 +5858,18 @@
         <v>64</v>
       </c>
       <c r="L77" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="B78" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="D78" t="s">
         <v>26</v>
@@ -5773,13 +5881,13 @@
         <v>15</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="J78" t="s">
         <v>63</v>
@@ -5788,18 +5896,18 @@
         <v>64</v>
       </c>
       <c r="L78" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="B79" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="C79" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="D79" t="s">
         <v>178</v>
@@ -5811,11 +5919,11 @@
         <v>15</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>696</v>
+        <v>348</v>
       </c>
       <c r="H79" s="3"/>
       <c r="I79" s="1" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="J79" t="s">
         <v>63</v>
@@ -5824,18 +5932,18 @@
         <v>64</v>
       </c>
       <c r="L79" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="B80" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="C80" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="D80" t="s">
         <v>115</v>
@@ -5847,11 +5955,11 @@
         <v>15</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>696</v>
+        <v>348</v>
       </c>
       <c r="H80" s="3"/>
       <c r="I80" s="1" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="J80" t="s">
         <v>63</v>
@@ -5860,21 +5968,21 @@
         <v>64</v>
       </c>
       <c r="L80" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="B81" t="s">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="C81" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="D81" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="E81" t="s">
         <v>14</v>
@@ -5883,11 +5991,11 @@
         <v>15</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>696</v>
+        <v>348</v>
       </c>
       <c r="H81" s="3"/>
       <c r="I81" s="1" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="J81" t="s">
         <v>63</v>
@@ -5896,18 +6004,18 @@
         <v>64</v>
       </c>
       <c r="L81" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="B82" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="C82" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="D82" t="s">
         <v>45</v>
@@ -5922,10 +6030,10 @@
         <v>142</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>615</v>
+        <v>385</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>616</v>
+        <v>386</v>
       </c>
       <c r="J82" t="s">
         <v>96</v>
@@ -5934,21 +6042,21 @@
         <v>64</v>
       </c>
       <c r="L82" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="B83" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="C83" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="D83" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="E83" t="s">
         <v>14</v>
@@ -5957,11 +6065,11 @@
         <v>15</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H83" s="3"/>
       <c r="I83" s="1" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="J83" t="s">
         <v>63</v>
@@ -5970,18 +6078,18 @@
         <v>64</v>
       </c>
       <c r="L83" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="B84" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="C84" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>69</v>
@@ -5993,13 +6101,13 @@
         <v>15</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="J84" t="s">
         <v>63</v>
@@ -6008,18 +6116,18 @@
         <v>64</v>
       </c>
       <c r="L84" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="B85" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="C85" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="D85" t="s">
         <v>76</v>
@@ -6031,13 +6139,13 @@
         <v>15</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="J85" t="s">
         <v>96</v>
@@ -6046,18 +6154,18 @@
         <v>64</v>
       </c>
       <c r="L85" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="B86" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="C86" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="D86" t="s">
         <v>69</v>
@@ -6069,13 +6177,13 @@
         <v>15</v>
       </c>
       <c r="G86" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="J86" t="s">
         <v>137</v>
@@ -6084,18 +6192,18 @@
         <v>64</v>
       </c>
       <c r="L86" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="B87" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="C87" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s">
@@ -6111,21 +6219,21 @@
         <v>22</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="J87" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="B88" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
       <c r="C88" t="s">
-        <v>389</v>
+        <v>412</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s">
@@ -6141,21 +6249,21 @@
         <v>22</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
       <c r="J88" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="B89" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="C89" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s">
@@ -6171,21 +6279,21 @@
         <v>22</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="J89" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="B90" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
       <c r="C90" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s">
@@ -6201,21 +6309,21 @@
         <v>22</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="J90" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="B91" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="C91" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s">
@@ -6231,21 +6339,21 @@
         <v>22</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>402</v>
+        <v>425</v>
       </c>
       <c r="J91" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="B92" t="s">
-        <v>404</v>
+        <v>427</v>
       </c>
       <c r="C92" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s">
@@ -6261,21 +6369,21 @@
         <v>22</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="J92" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
-        <v>406</v>
+        <v>429</v>
       </c>
       <c r="B93" t="s">
-        <v>407</v>
+        <v>430</v>
       </c>
       <c r="C93" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s">
@@ -6291,21 +6399,21 @@
         <v>22</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="J93" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
-        <v>409</v>
+        <v>432</v>
       </c>
       <c r="B94" t="s">
-        <v>410</v>
+        <v>433</v>
       </c>
       <c r="C94" t="s">
-        <v>411</v>
+        <v>434</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s">
@@ -6321,21 +6429,21 @@
         <v>22</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="J94" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="B95" t="s">
-        <v>414</v>
+        <v>437</v>
       </c>
       <c r="C95" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s">
@@ -6344,14 +6452,14 @@
       <c r="F95" t="s">
         <v>15</v>
       </c>
-      <c r="G95" t="s">
-        <v>16</v>
+      <c r="G95" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>416</v>
+        <v>439</v>
       </c>
       <c r="J95" t="s">
         <v>19</v>
@@ -6360,18 +6468,18 @@
         <v>64</v>
       </c>
       <c r="L95" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="B96" t="s">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="C96" t="s">
-        <v>419</v>
+        <v>442</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s">
@@ -6387,21 +6495,21 @@
         <v>22</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="J96" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="B97" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="C97" t="s">
-        <v>423</v>
+        <v>446</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s">
@@ -6417,21 +6525,21 @@
         <v>22</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>424</v>
+        <v>447</v>
       </c>
       <c r="J97" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="B98" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="C98" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s">
@@ -6447,21 +6555,21 @@
         <v>22</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="J98" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="B99" t="s">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="C99" t="s">
-        <v>430</v>
+        <v>453</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s">
@@ -6477,21 +6585,21 @@
         <v>22</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="J99" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
       <c r="B100" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
       <c r="C100" t="s">
-        <v>434</v>
+        <v>457</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s">
@@ -6507,21 +6615,21 @@
         <v>22</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>435</v>
+        <v>458</v>
       </c>
       <c r="J100" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
       <c r="B101" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="C101" t="s">
-        <v>438</v>
+        <v>461</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s">
@@ -6537,21 +6645,21 @@
         <v>22</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>439</v>
+        <v>462</v>
       </c>
       <c r="J101" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="B102" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="C102" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s">
@@ -6567,21 +6675,21 @@
         <v>22</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
       <c r="J102" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="B103" t="s">
-        <v>445</v>
+        <v>468</v>
       </c>
       <c r="C103" t="s">
-        <v>446</v>
+        <v>469</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s">
@@ -6597,21 +6705,21 @@
         <v>22</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="J103" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="B104" t="s">
-        <v>449</v>
+        <v>472</v>
       </c>
       <c r="C104" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s">
@@ -6627,21 +6735,21 @@
         <v>22</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>451</v>
+        <v>474</v>
       </c>
       <c r="J104" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
       <c r="B105" t="s">
-        <v>453</v>
+        <v>476</v>
       </c>
       <c r="C105" t="s">
-        <v>454</v>
+        <v>477</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s">
@@ -6657,21 +6765,21 @@
         <v>22</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>455</v>
+        <v>478</v>
       </c>
       <c r="J105" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
-        <v>456</v>
+        <v>479</v>
       </c>
       <c r="B106" t="s">
-        <v>457</v>
+        <v>480</v>
       </c>
       <c r="C106" t="s">
-        <v>458</v>
+        <v>481</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s">
@@ -6687,21 +6795,21 @@
         <v>22</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="J106" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="B107" t="s">
-        <v>461</v>
+        <v>484</v>
       </c>
       <c r="C107" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s">
@@ -6714,22 +6822,22 @@
         <v>16</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="I107" s="1"/>
       <c r="J107" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
-        <v>465</v>
+        <v>488</v>
       </c>
       <c r="B108" t="s">
-        <v>466</v>
+        <v>489</v>
       </c>
       <c r="C108" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s">
@@ -6742,22 +6850,22 @@
         <v>16</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="I108" s="1"/>
       <c r="J108" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
-        <v>467</v>
+        <v>490</v>
       </c>
       <c r="B109" t="s">
-        <v>468</v>
+        <v>491</v>
       </c>
       <c r="C109" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s">
@@ -6770,22 +6878,22 @@
         <v>16</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="I109" s="1"/>
       <c r="J109" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="B110" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
       <c r="C110" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s">
@@ -6801,7 +6909,7 @@
         <v>22</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
       <c r="J110" t="s">
         <v>19</v>
@@ -6809,13 +6917,13 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
-        <v>472</v>
+        <v>495</v>
       </c>
       <c r="B111" t="s">
-        <v>473</v>
+        <v>496</v>
       </c>
       <c r="C111" t="s">
-        <v>474</v>
+        <v>497</v>
       </c>
       <c r="D111" t="s">
         <v>26</v>
@@ -6827,33 +6935,33 @@
         <v>15</v>
       </c>
       <c r="G111" t="s">
-        <v>475</v>
+        <v>498</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>476</v>
+        <v>499</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>477</v>
+        <v>500</v>
       </c>
       <c r="J111" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K111" t="s">
         <v>30</v>
       </c>
       <c r="L111" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
-        <v>479</v>
+        <v>502</v>
       </c>
       <c r="B112" t="s">
-        <v>480</v>
+        <v>503</v>
       </c>
       <c r="C112" t="s">
-        <v>481</v>
+        <v>504</v>
       </c>
       <c r="D112" t="s">
         <v>76</v>
@@ -6865,33 +6973,33 @@
         <v>15</v>
       </c>
       <c r="G112" t="s">
-        <v>482</v>
+        <v>505</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="J112" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K112" t="s">
         <v>30</v>
       </c>
       <c r="L112" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="B113" t="s">
-        <v>486</v>
+        <v>509</v>
       </c>
       <c r="C113" t="s">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="D113" t="s">
         <v>26</v>
@@ -6903,33 +7011,33 @@
         <v>15</v>
       </c>
       <c r="G113" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>490</v>
+        <v>513</v>
       </c>
       <c r="J113" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K113" t="s">
         <v>30</v>
       </c>
       <c r="L113" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
-        <v>491</v>
+        <v>514</v>
       </c>
       <c r="B114" t="s">
-        <v>492</v>
+        <v>515</v>
       </c>
       <c r="C114" t="s">
-        <v>493</v>
+        <v>516</v>
       </c>
       <c r="D114" t="s">
         <v>76</v>
@@ -6941,33 +7049,33 @@
         <v>15</v>
       </c>
       <c r="G114" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>494</v>
+        <v>517</v>
       </c>
       <c r="J114" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K114" t="s">
         <v>30</v>
       </c>
       <c r="L114" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
-        <v>495</v>
+        <v>518</v>
       </c>
       <c r="B115" t="s">
-        <v>496</v>
+        <v>519</v>
       </c>
       <c r="C115" t="s">
-        <v>497</v>
+        <v>520</v>
       </c>
       <c r="D115" t="s">
         <v>76</v>
@@ -6979,33 +7087,33 @@
         <v>15</v>
       </c>
       <c r="G115" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>494</v>
+        <v>517</v>
       </c>
       <c r="J115" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K115" t="s">
         <v>30</v>
       </c>
       <c r="L115" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
-        <v>498</v>
+        <v>521</v>
       </c>
       <c r="B116" t="s">
-        <v>499</v>
+        <v>522</v>
       </c>
       <c r="C116" t="s">
-        <v>500</v>
+        <v>523</v>
       </c>
       <c r="D116" t="s">
         <v>76</v>
@@ -7017,33 +7125,33 @@
         <v>15</v>
       </c>
       <c r="G116" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>494</v>
+        <v>517</v>
       </c>
       <c r="J116" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K116" t="s">
         <v>30</v>
       </c>
       <c r="L116" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
-        <v>501</v>
+        <v>524</v>
       </c>
       <c r="B117" t="s">
-        <v>502</v>
+        <v>525</v>
       </c>
       <c r="C117" t="s">
-        <v>503</v>
+        <v>526</v>
       </c>
       <c r="D117" t="s">
         <v>76</v>
@@ -7055,33 +7163,33 @@
         <v>15</v>
       </c>
       <c r="G117" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>494</v>
+        <v>517</v>
       </c>
       <c r="J117" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K117" t="s">
         <v>30</v>
       </c>
       <c r="L117" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
       <c r="B118" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
       <c r="C118" t="s">
-        <v>506</v>
+        <v>529</v>
       </c>
       <c r="D118" t="s">
         <v>76</v>
@@ -7093,33 +7201,33 @@
         <v>15</v>
       </c>
       <c r="G118" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K118" t="s">
         <v>30</v>
       </c>
       <c r="L118" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
       <c r="B119" t="s">
-        <v>509</v>
+        <v>532</v>
       </c>
       <c r="C119" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
       <c r="D119" t="s">
         <v>76</v>
@@ -7131,45 +7239,45 @@
         <v>15</v>
       </c>
       <c r="G119" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="H119" s="10" t="s">
-        <v>512</v>
+        <v>535</v>
       </c>
       <c r="I119" s="10" t="s">
-        <v>513</v>
+        <v>536</v>
       </c>
       <c r="J119" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
-        <v>515</v>
+        <v>538</v>
       </c>
       <c r="B120" t="s">
-        <v>516</v>
+        <v>539</v>
       </c>
       <c r="C120" t="s">
-        <v>517</v>
+        <v>540</v>
       </c>
       <c r="D120" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E120" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F120" t="s">
         <v>15</v>
       </c>
       <c r="G120" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>518</v>
+        <v>541</v>
       </c>
       <c r="J120" t="s">
         <v>19</v>
@@ -7178,36 +7286,36 @@
         <v>64</v>
       </c>
       <c r="L120" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="B121" t="s">
-        <v>520</v>
+        <v>543</v>
       </c>
       <c r="C121" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
       <c r="D121" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E121" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F121" t="s">
         <v>15</v>
       </c>
       <c r="G121" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>522</v>
+        <v>545</v>
       </c>
       <c r="J121" t="s">
         <v>19</v>
@@ -7216,36 +7324,36 @@
         <v>64</v>
       </c>
       <c r="L121" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
-        <v>523</v>
+        <v>546</v>
       </c>
       <c r="B122" t="s">
-        <v>524</v>
+        <v>547</v>
       </c>
       <c r="C122" t="s">
-        <v>525</v>
+        <v>548</v>
       </c>
       <c r="D122" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E122" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F122" t="s">
         <v>15</v>
       </c>
       <c r="G122" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="J122" t="s">
         <v>19</v>
@@ -7254,36 +7362,36 @@
         <v>64</v>
       </c>
       <c r="L122" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
-        <v>527</v>
+        <v>550</v>
       </c>
       <c r="B123" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
       <c r="C123" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
       <c r="D123" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E123" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F123" t="s">
         <v>15</v>
       </c>
       <c r="G123" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>530</v>
+        <v>553</v>
       </c>
       <c r="J123" t="s">
         <v>19</v>
@@ -7292,36 +7400,36 @@
         <v>64</v>
       </c>
       <c r="L123" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
-        <v>531</v>
+        <v>554</v>
       </c>
       <c r="B124" t="s">
-        <v>532</v>
+        <v>555</v>
       </c>
       <c r="C124" t="s">
-        <v>533</v>
+        <v>556</v>
       </c>
       <c r="D124" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E124" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F124" t="s">
         <v>15</v>
       </c>
       <c r="G124" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>534</v>
+        <v>557</v>
       </c>
       <c r="J124" t="s">
         <v>19</v>
@@ -7330,36 +7438,36 @@
         <v>64</v>
       </c>
       <c r="L124" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
-        <v>535</v>
+        <v>558</v>
       </c>
       <c r="B125" t="s">
-        <v>536</v>
+        <v>559</v>
       </c>
       <c r="C125" t="s">
-        <v>537</v>
+        <v>560</v>
       </c>
       <c r="D125" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E125" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F125" t="s">
         <v>15</v>
       </c>
       <c r="G125" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>538</v>
+        <v>561</v>
       </c>
       <c r="J125" t="s">
         <v>19</v>
@@ -7368,18 +7476,18 @@
         <v>64</v>
       </c>
       <c r="L125" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
-        <v>539</v>
+        <v>562</v>
       </c>
       <c r="B126" t="s">
-        <v>540</v>
+        <v>563</v>
       </c>
       <c r="C126" t="s">
-        <v>541</v>
+        <v>564</v>
       </c>
       <c r="D126" t="s">
         <v>115</v>
@@ -7391,31 +7499,31 @@
         <v>15</v>
       </c>
       <c r="G126" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>248</v>
+        <v>565</v>
       </c>
       <c r="I126" s="1"/>
       <c r="J126" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K126" t="s">
         <v>64</v>
       </c>
       <c r="L126" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="B127" t="s">
-        <v>543</v>
+        <v>567</v>
       </c>
       <c r="C127" t="s">
-        <v>544</v>
+        <v>568</v>
       </c>
       <c r="D127" t="s">
         <v>115</v>
@@ -7427,93 +7535,93 @@
         <v>15</v>
       </c>
       <c r="G127" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>248</v>
+        <v>565</v>
       </c>
       <c r="I127" s="1"/>
       <c r="J127" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K127" t="s">
         <v>64</v>
       </c>
       <c r="L127" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
-        <v>545</v>
+        <v>569</v>
       </c>
       <c r="B128" t="s">
-        <v>546</v>
+        <v>570</v>
       </c>
       <c r="D128" t="s">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="E128" t="s">
-        <v>548</v>
+        <v>572</v>
       </c>
       <c r="F128" t="s">
         <v>15</v>
       </c>
       <c r="G128" t="s">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="H128" s="10"/>
       <c r="I128" s="1"/>
       <c r="J128" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="K128" t="s">
         <v>30</v>
       </c>
       <c r="L128" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
-        <v>551</v>
+        <v>575</v>
       </c>
       <c r="B129" t="s">
-        <v>552</v>
+        <v>576</v>
       </c>
       <c r="D129" t="s">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="E129" t="s">
-        <v>548</v>
+        <v>572</v>
       </c>
       <c r="F129" t="s">
         <v>15</v>
       </c>
       <c r="G129" t="s">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
       <c r="J129" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="K129" t="s">
         <v>30</v>
       </c>
       <c r="L129" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="B130" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C130" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="D130" t="s">
         <v>115</v>
@@ -7525,31 +7633,31 @@
         <v>15</v>
       </c>
       <c r="G130" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>248</v>
+        <v>565</v>
       </c>
       <c r="I130" s="1"/>
       <c r="J130" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K130" t="s">
         <v>64</v>
       </c>
       <c r="L130" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B131" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C131" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="D131" t="s">
         <v>115</v>
@@ -7561,31 +7669,31 @@
         <v>15</v>
       </c>
       <c r="G131" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="I131" s="1"/>
       <c r="J131" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K131" t="s">
         <v>64</v>
       </c>
       <c r="L131" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B132" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="C132" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="D132" t="s">
         <v>45</v>
@@ -7597,31 +7705,31 @@
         <v>15</v>
       </c>
       <c r="G132" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="I132" s="1"/>
       <c r="J132" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K132" t="s">
         <v>64</v>
       </c>
       <c r="L132" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B133" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C133" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="D133" t="s">
         <v>115</v>
@@ -7633,34 +7741,34 @@
         <v>15</v>
       </c>
       <c r="G133" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="I133" s="1"/>
       <c r="J133" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K133" t="s">
         <v>64</v>
       </c>
       <c r="L133" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B134" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="C134" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="D134" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E134" t="s">
         <v>14</v>
@@ -7669,33 +7777,33 @@
         <v>15</v>
       </c>
       <c r="G134" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="J134" s="6" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K134" t="s">
         <v>30</v>
       </c>
       <c r="L134" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B135" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C135" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="D135" t="s">
         <v>76</v>
@@ -7707,33 +7815,33 @@
         <v>15</v>
       </c>
       <c r="G135" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K135" t="s">
         <v>30</v>
       </c>
       <c r="L135" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B136" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="C136" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="D136" t="s">
         <v>76</v>
@@ -7745,36 +7853,36 @@
         <v>15</v>
       </c>
       <c r="G136" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="J136" s="6" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K136" t="s">
         <v>30</v>
       </c>
       <c r="L136" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="B137" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="C137" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="D137" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E137" t="s">
         <v>14</v>
@@ -7783,36 +7891,36 @@
         <v>15</v>
       </c>
       <c r="G137" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="J137" s="6" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K137" t="s">
         <v>30</v>
       </c>
       <c r="L137" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="B138" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C138" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="D138" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E138" t="s">
         <v>14</v>
@@ -7821,36 +7929,36 @@
         <v>15</v>
       </c>
       <c r="G138" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K138" t="s">
         <v>30</v>
       </c>
       <c r="L138" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B139" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="C139" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="D139" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E139" t="s">
         <v>14</v>
@@ -7859,36 +7967,36 @@
         <v>15</v>
       </c>
       <c r="G139" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="J139" s="6" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K139" t="s">
         <v>30</v>
       </c>
       <c r="L139" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B140" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="C140" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="D140" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E140" t="s">
         <v>14</v>
@@ -7897,36 +8005,36 @@
         <v>15</v>
       </c>
       <c r="G140" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="J140" s="6" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K140" t="s">
         <v>30</v>
       </c>
       <c r="L140" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B141" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="C141" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="D141" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E141" t="s">
         <v>14</v>
@@ -7935,36 +8043,36 @@
         <v>15</v>
       </c>
       <c r="G141" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="J141" s="6" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K141" t="s">
         <v>30</v>
       </c>
       <c r="L141" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B142" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="C142" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="D142" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E142" t="s">
         <v>14</v>
@@ -7973,36 +8081,36 @@
         <v>15</v>
       </c>
       <c r="G142" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="J142" s="6" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K142" t="s">
         <v>30</v>
       </c>
       <c r="L142" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="B143" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C143" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D143" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E143" t="s">
         <v>77</v>
@@ -8011,36 +8119,36 @@
         <v>15</v>
       </c>
       <c r="G143" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="J143" t="s">
         <v>19</v>
       </c>
       <c r="K143" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="L143" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B144" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C144" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D144" t="s">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="E144" t="s">
         <v>77</v>
@@ -8049,36 +8157,36 @@
         <v>15</v>
       </c>
       <c r="G144" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="J144" t="s">
         <v>19</v>
       </c>
       <c r="K144" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="L144" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
         <v>631</v>
       </c>
       <c r="B145" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C145" t="s">
-        <v>671</v>
+        <v>633</v>
       </c>
       <c r="D145" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="E145" t="s">
         <v>77</v>
@@ -8087,74 +8195,74 @@
         <v>15</v>
       </c>
       <c r="G145" t="s">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>672</v>
+        <v>635</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="J145" t="s">
         <v>81</v>
       </c>
       <c r="K145" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="L145" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="B146" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C146" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="D146" t="s">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="E146" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="F146" t="s">
         <v>15</v>
       </c>
       <c r="G146" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="J146" t="s">
         <v>19</v>
       </c>
       <c r="K146" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="L146" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B147" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="C147" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="D147" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E147" t="s">
         <v>46</v>
@@ -8163,68 +8271,68 @@
         <v>15</v>
       </c>
       <c r="G147" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="J147" t="s">
         <v>19</v>
       </c>
       <c r="K147" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="L147" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
+        <v>649</v>
+      </c>
+      <c r="B148" t="s">
+        <v>650</v>
+      </c>
+      <c r="C148" t="s">
         <v>651</v>
       </c>
-      <c r="B148" t="s">
+      <c r="D148" t="s">
+        <v>182</v>
+      </c>
+      <c r="E148" t="s">
+        <v>331</v>
+      </c>
+      <c r="F148" t="s">
+        <v>15</v>
+      </c>
+      <c r="G148" t="s">
+        <v>332</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I148" s="1" t="s">
         <v>652</v>
-      </c>
-      <c r="C148" t="s">
-        <v>654</v>
-      </c>
-      <c r="D148" t="s">
-        <v>184</v>
-      </c>
-      <c r="E148" t="s">
-        <v>311</v>
-      </c>
-      <c r="F148" t="s">
-        <v>15</v>
-      </c>
-      <c r="G148" t="s">
-        <v>312</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="I148" s="1" t="s">
-        <v>659</v>
       </c>
       <c r="J148" t="s">
         <v>137</v>
       </c>
       <c r="K148" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="L148" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
-        <v>686</v>
+        <v>653</v>
       </c>
       <c r="B149" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C149" t="s">
         <v>655</v>
@@ -8233,42 +8341,42 @@
         <v>656</v>
       </c>
       <c r="E149" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="F149" t="s">
         <v>15</v>
       </c>
       <c r="G149" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="J149" t="s">
         <v>137</v>
       </c>
       <c r="K149" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="L149" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="13" t="s">
-        <v>645</v>
+        <v>658</v>
       </c>
       <c r="B150" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="C150" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
       <c r="D150" t="s">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="E150" t="s">
         <v>46</v>
@@ -8277,36 +8385,36 @@
         <v>15</v>
       </c>
       <c r="G150" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
       <c r="J150" t="s">
         <v>137</v>
       </c>
       <c r="K150" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="L150" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="B151" t="s">
-        <v>697</v>
+        <v>663</v>
       </c>
       <c r="C151" t="s">
-        <v>705</v>
+        <v>664</v>
       </c>
       <c r="D151" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E151" t="s">
         <v>77</v>
@@ -8315,36 +8423,36 @@
         <v>15</v>
       </c>
       <c r="G151" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>649</v>
+        <v>666</v>
       </c>
       <c r="J151" t="s">
         <v>137</v>
       </c>
       <c r="K151" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="L151" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="B152" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="C152" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="D152" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E152" t="s">
         <v>14</v>
@@ -8353,36 +8461,36 @@
         <v>15</v>
       </c>
       <c r="G152" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="J152" t="s">
         <v>96</v>
       </c>
       <c r="K152" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="L152" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="13">
         <v>27.11</v>
       </c>
       <c r="B153" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="C153" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="D153" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="E153" t="s">
         <v>77</v>
@@ -8391,36 +8499,36 @@
         <v>15</v>
       </c>
       <c r="G153" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="J153" t="s">
         <v>81</v>
       </c>
       <c r="K153" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="L153" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="13">
         <v>27.12</v>
       </c>
       <c r="B154" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="C154" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D154" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E154" t="s">
         <v>14</v>
@@ -8429,74 +8537,74 @@
         <v>15</v>
       </c>
       <c r="G154" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="J154" t="s">
         <v>81</v>
       </c>
       <c r="K154" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="L154" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="13">
         <v>27.13</v>
       </c>
       <c r="B155" t="s">
+        <v>681</v>
+      </c>
+      <c r="C155" t="s">
+        <v>682</v>
+      </c>
+      <c r="D155" t="s">
+        <v>182</v>
+      </c>
+      <c r="E155" t="s">
+        <v>14</v>
+      </c>
+      <c r="F155" t="s">
+        <v>15</v>
+      </c>
+      <c r="G155" t="s">
         <v>674</v>
       </c>
-      <c r="C155" t="s">
-        <v>681</v>
-      </c>
-      <c r="D155" t="s">
-        <v>184</v>
-      </c>
-      <c r="E155" t="s">
-        <v>14</v>
-      </c>
-      <c r="F155" t="s">
-        <v>15</v>
-      </c>
-      <c r="G155" t="s">
-        <v>668</v>
-      </c>
       <c r="H155" s="1" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="J155" t="s">
         <v>81</v>
       </c>
       <c r="K155" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="L155" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="13">
         <v>27.14</v>
       </c>
       <c r="B156" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="C156" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="D156" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E156" t="s">
         <v>14</v>
@@ -8505,36 +8613,36 @@
         <v>15</v>
       </c>
       <c r="G156" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="J156" t="s">
         <v>81</v>
       </c>
       <c r="K156" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="L156" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="13">
         <v>27.15</v>
       </c>
       <c r="B157" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C157" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="D157" t="s">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="E157" t="s">
         <v>46</v>
@@ -8543,36 +8651,36 @@
         <v>15</v>
       </c>
       <c r="G157" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="J157" t="s">
         <v>137</v>
       </c>
       <c r="K157" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="L157" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="13">
         <v>27.16</v>
       </c>
       <c r="B158" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C158" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="D158" t="s">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="E158" t="s">
         <v>46</v>
@@ -8581,36 +8689,36 @@
         <v>15</v>
       </c>
       <c r="G158" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="J158" t="s">
         <v>137</v>
       </c>
       <c r="K158" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="L158" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="B159" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="C159" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="D159" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E159" t="s">
         <v>77</v>
@@ -8619,33 +8727,33 @@
         <v>15</v>
       </c>
       <c r="G159" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="J159" t="s">
         <v>137</v>
       </c>
       <c r="K159" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="L159" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="B160" t="s">
-        <v>713</v>
+        <v>698</v>
       </c>
       <c r="C160" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="D160" t="s">
         <v>656</v>
@@ -8657,33 +8765,33 @@
         <v>15</v>
       </c>
       <c r="G160" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="J160" t="s">
         <v>137</v>
       </c>
       <c r="K160" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="L160" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="B161" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="C161" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="D161" t="s">
         <v>656</v>
@@ -8695,36 +8803,36 @@
         <v>15</v>
       </c>
       <c r="G161" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="J161" t="s">
         <v>137</v>
       </c>
       <c r="K161" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="L161" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="13" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="B162" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="C162" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D162" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E162" t="s">
         <v>77</v>
@@ -8733,33 +8841,33 @@
         <v>15</v>
       </c>
       <c r="G162" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="J162" t="s">
         <v>137</v>
       </c>
       <c r="K162" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="L162" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="13" t="s">
-        <v>699</v>
+        <v>709</v>
       </c>
       <c r="B163" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="C163" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="D163" t="s">
         <v>656</v>
@@ -8771,33 +8879,33 @@
         <v>15</v>
       </c>
       <c r="G163" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="J163" t="s">
         <v>137</v>
       </c>
       <c r="K163" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="L163" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="13" t="s">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="B164" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C164" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="D164" t="s">
         <v>656</v>
@@ -8809,33 +8917,33 @@
         <v>15</v>
       </c>
       <c r="G164" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="J164" t="s">
         <v>137</v>
       </c>
       <c r="K164" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="L164" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="13" t="s">
-        <v>701</v>
+        <v>717</v>
       </c>
       <c r="B165" t="s">
         <v>718</v>
       </c>
       <c r="C165" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="D165" t="s">
         <v>656</v>
@@ -8847,33 +8955,33 @@
         <v>15</v>
       </c>
       <c r="G165" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="J165" t="s">
         <v>137</v>
       </c>
       <c r="K165" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="L165" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="13" t="s">
-        <v>702</v>
+        <v>721</v>
       </c>
       <c r="B166" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="C166" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="D166" t="s">
         <v>656</v>
@@ -8885,10 +8993,10 @@
         <v>15</v>
       </c>
       <c r="G166" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="I166" s="1" t="s">
         <v>724</v>
@@ -8897,24 +9005,24 @@
         <v>137</v>
       </c>
       <c r="K166" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="L166" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="13" t="s">
         <v>725</v>
       </c>
       <c r="B167" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C167" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D167" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E167" t="s">
         <v>77</v>
@@ -8923,22 +9031,217 @@
         <v>15</v>
       </c>
       <c r="G167" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="J167" t="s">
         <v>81</v>
       </c>
       <c r="K167" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="L167" t="s">
-        <v>623</v>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="13" t="s">
+        <v>731</v>
+      </c>
+      <c r="B168" t="s">
+        <v>732</v>
+      </c>
+      <c r="C168" t="s">
+        <v>733</v>
+      </c>
+      <c r="D168" t="s">
+        <v>76</v>
+      </c>
+      <c r="E168" t="s">
+        <v>14</v>
+      </c>
+      <c r="F168" t="s">
+        <v>15</v>
+      </c>
+      <c r="G168" t="s">
+        <v>734</v>
+      </c>
+      <c r="H168" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="I168" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="J168" t="s">
+        <v>737</v>
+      </c>
+      <c r="K168" t="s">
+        <v>738</v>
+      </c>
+      <c r="L168" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="13" t="s">
+        <v>740</v>
+      </c>
+      <c r="B169" t="s">
+        <v>741</v>
+      </c>
+      <c r="C169" t="s">
+        <v>742</v>
+      </c>
+      <c r="D169" t="s">
+        <v>76</v>
+      </c>
+      <c r="E169" t="s">
+        <v>14</v>
+      </c>
+      <c r="F169" t="s">
+        <v>15</v>
+      </c>
+      <c r="G169" t="s">
+        <v>404</v>
+      </c>
+      <c r="H169" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="I169" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="J169" t="s">
+        <v>737</v>
+      </c>
+      <c r="K169" t="s">
+        <v>738</v>
+      </c>
+      <c r="L169" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="13" t="s">
+        <v>746</v>
+      </c>
+      <c r="B170" t="s">
+        <v>747</v>
+      </c>
+      <c r="C170" s="16" t="s">
+        <v>748</v>
+      </c>
+      <c r="D170" t="s">
+        <v>76</v>
+      </c>
+      <c r="E170" t="s">
+        <v>14</v>
+      </c>
+      <c r="F170" t="s">
+        <v>15</v>
+      </c>
+      <c r="G170" t="s">
+        <v>734</v>
+      </c>
+      <c r="H170" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="I170" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="J170" t="s">
+        <v>737</v>
+      </c>
+      <c r="K170" t="s">
+        <v>738</v>
+      </c>
+      <c r="L170" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="13"/>
+      <c r="H171" s="1"/>
+      <c r="I171" s="1"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" s="13" t="s">
+        <v>750</v>
+      </c>
+      <c r="B172" t="s">
+        <v>755</v>
+      </c>
+      <c r="C172" t="s">
+        <v>756</v>
+      </c>
+      <c r="D172" t="s">
+        <v>76</v>
+      </c>
+      <c r="E172" t="s">
+        <v>14</v>
+      </c>
+      <c r="F172" t="s">
+        <v>15</v>
+      </c>
+      <c r="G172" t="s">
+        <v>511</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="J172" t="s">
+        <v>160</v>
+      </c>
+      <c r="K172" t="s">
+        <v>30</v>
+      </c>
+      <c r="L172" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" s="13" t="s">
+        <v>751</v>
+      </c>
+      <c r="B173" t="s">
+        <v>752</v>
+      </c>
+      <c r="C173" t="s">
+        <v>757</v>
+      </c>
+      <c r="D173" t="s">
+        <v>76</v>
+      </c>
+      <c r="E173" t="s">
+        <v>14</v>
+      </c>
+      <c r="F173" t="s">
+        <v>15</v>
+      </c>
+      <c r="G173" t="s">
+        <v>511</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="J173" t="s">
+        <v>160</v>
+      </c>
+      <c r="K173" t="s">
+        <v>30</v>
+      </c>
+      <c r="L173" t="s">
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -8998,17 +9301,23 @@
     <hyperlink ref="I158" r:id="rId52" xr:uid="{EE17308B-DE39-4800-BF04-987B80EE4380}"/>
     <hyperlink ref="H167" r:id="rId53" xr:uid="{3A60F7E3-10DC-40FF-B2A1-76744BD0743C}"/>
     <hyperlink ref="I167" r:id="rId54" xr:uid="{974F1FBE-0AE3-4549-9CAC-27CE4ED54261}"/>
+    <hyperlink ref="H168" r:id="rId55" xr:uid="{85C7E490-79B1-4D6A-B7D4-0AE930D0D60C}"/>
+    <hyperlink ref="I168" r:id="rId56" xr:uid="{8E8E2AC3-EB6E-4CAB-8A6C-C6C30C3FC4D6}"/>
+    <hyperlink ref="H169" r:id="rId57" xr:uid="{273525F0-5A5C-4F61-B974-5404167E98FA}"/>
+    <hyperlink ref="I169" r:id="rId58" xr:uid="{BF1CB5E0-182B-4274-8469-4D0BA8FD763F}"/>
+    <hyperlink ref="H170" r:id="rId59" xr:uid="{C6F1B54D-A729-4FA4-AC0C-9A760D9DEC21}"/>
+    <hyperlink ref="I170" r:id="rId60" xr:uid="{0A736AD4-BADF-4DEF-9AC6-BA21F7271D1A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId55"/>
-  <drawing r:id="rId56"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId61"/>
+  <drawing r:id="rId62"/>
   <tableParts count="1">
-    <tablePart r:id="rId57"/>
+    <tablePart r:id="rId63"/>
   </tableParts>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
       <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId58"/>
+        <x14:slicer r:id="rId64"/>
       </x14:slicerList>
     </ext>
   </extLst>

--- a/00Consolidado Tablas Madre.xlsx
+++ b/00Consolidado Tablas Madre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCN\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3AB9A8-9B88-4A37-AF41-126C986B3B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CB4203-4EA6-46E4-A394-48B9DE4DA6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
   </bookViews>
@@ -2305,22 +2305,22 @@
     <t>7.19</t>
   </si>
   <si>
-    <t>matricula_por_rbd_basica</t>
-  </si>
-  <si>
     <t>http://datos.mineduc.cl/dashboards/20022/descarga-bases-de-datos-de-resumen-matricula-por-establecimiento/</t>
   </si>
   <si>
     <t>https://www.dropbox.com/s/uf08o4umni4pkxd/Resumen%20matricula%20por%20establecimiento.xlsx?dl=0</t>
   </si>
   <si>
-    <t>Matricula_segun_sexo_por_establecimiento</t>
-  </si>
-  <si>
     <t>Matricula por rbd según sexo niños y adultos 2004-2020</t>
   </si>
   <si>
-    <t>Matricula por rbd en educacion basica niños y adultos según sexo 2004-2020</t>
+    <t>matricula_por_rbd_nivel_sexo</t>
+  </si>
+  <si>
+    <t>matricula_rbd_genero</t>
+  </si>
+  <si>
+    <t>Matricula por rbd en por nivel y  según sexo, niños y adultos 2004-2020</t>
   </si>
 </sst>
 </file>
@@ -3346,7 +3346,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A172" sqref="A172"/>
+      <selection pane="bottomLeft" activeCell="D173" sqref="D173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9173,10 +9173,10 @@
         <v>750</v>
       </c>
       <c r="B172" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C172" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D172" t="s">
         <v>76</v>
@@ -9191,10 +9191,10 @@
         <v>511</v>
       </c>
       <c r="H172" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="I172" s="1" t="s">
         <v>753</v>
-      </c>
-      <c r="I172" s="1" t="s">
-        <v>754</v>
       </c>
       <c r="J172" t="s">
         <v>160</v>
@@ -9211,7 +9211,7 @@
         <v>751</v>
       </c>
       <c r="B173" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C173" t="s">
         <v>757</v>
@@ -9229,10 +9229,10 @@
         <v>511</v>
       </c>
       <c r="H173" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="I173" s="1" t="s">
         <v>753</v>
-      </c>
-      <c r="I173" s="1" t="s">
-        <v>754</v>
       </c>
       <c r="J173" t="s">
         <v>160</v>

--- a/00Consolidado Tablas Madre.xlsx
+++ b/00Consolidado Tablas Madre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCN\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CB4203-4EA6-46E4-A394-48B9DE4DA6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23B435D-6C66-48C4-A4F6-175BD37666C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="761">
   <si>
     <t>Código Tabla</t>
   </si>
@@ -2321,6 +2321,15 @@
   </si>
   <si>
     <t>Matricula por rbd en por nivel y  según sexo, niños y adultos 2004-2020</t>
+  </si>
+  <si>
+    <t>7.20</t>
+  </si>
+  <si>
+    <t>matricula_parvulo_nivel_y_genero_2011_2020</t>
+  </si>
+  <si>
+    <t>Matricula Parvulo por establecimiento por nivel y genero serie 2011-2020</t>
   </si>
 </sst>
 </file>
@@ -3011,8 +3020,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A11:L173" totalsRowShown="0">
-  <autoFilter ref="A11:L173" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A11:L174" totalsRowShown="0">
+  <autoFilter ref="A11:L174" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}">
     <filterColumn colId="10">
       <filters>
         <filter val="Sociedad"/>
@@ -3342,11 +3351,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD49B1B1-33D3-49D9-BF85-AA2E2407F985}">
-  <dimension ref="A11:L173"/>
+  <dimension ref="A11:L174"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D173" sqref="D173"/>
+      <selection pane="bottomLeft" activeCell="A174" sqref="A174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9241,6 +9250,44 @@
         <v>30</v>
       </c>
       <c r="L173" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174" s="13" t="s">
+        <v>758</v>
+      </c>
+      <c r="B174" t="s">
+        <v>759</v>
+      </c>
+      <c r="C174" t="s">
+        <v>760</v>
+      </c>
+      <c r="D174" t="s">
+        <v>76</v>
+      </c>
+      <c r="E174" t="s">
+        <v>14</v>
+      </c>
+      <c r="F174" t="s">
+        <v>15</v>
+      </c>
+      <c r="G174" t="s">
+        <v>511</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="J174" t="s">
+        <v>160</v>
+      </c>
+      <c r="K174" t="s">
+        <v>30</v>
+      </c>
+      <c r="L174" t="s">
         <v>501</v>
       </c>
     </row>

--- a/00Consolidado Tablas Madre.xlsx
+++ b/00Consolidado Tablas Madre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCN\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23B435D-6C66-48C4-A4F6-175BD37666C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516FFD37-5710-4879-A4EA-937B3F8DC2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="765">
   <si>
     <t>Código Tabla</t>
   </si>
@@ -2305,9 +2305,6 @@
     <t>7.19</t>
   </si>
   <si>
-    <t>http://datos.mineduc.cl/dashboards/20022/descarga-bases-de-datos-de-resumen-matricula-por-establecimiento/</t>
-  </si>
-  <si>
     <t>https://www.dropbox.com/s/uf08o4umni4pkxd/Resumen%20matricula%20por%20establecimiento.xlsx?dl=0</t>
   </si>
   <si>
@@ -2330,6 +2327,21 @@
   </si>
   <si>
     <t>Matricula Parvulo por establecimiento por nivel y genero serie 2011-2020</t>
+  </si>
+  <si>
+    <t>7.21</t>
+  </si>
+  <si>
+    <t>tipo_educacion_por_establecimiento</t>
+  </si>
+  <si>
+    <t>Tipo de educacion que entrega cada establecimiento</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/whghys68r0s4nam/00%20Tipo%20Eduaci%C3%B3n%20Consolida.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/05ytxsqxwthbn1y/Resumen%20matricula%20parvularia%20por%20establecimiento.xlsx?dl=0</t>
   </si>
 </sst>
 </file>
@@ -3020,8 +3032,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A11:L174" totalsRowShown="0">
-  <autoFilter ref="A11:L174" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A11:L175" totalsRowShown="0">
+  <autoFilter ref="A11:L175" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}">
     <filterColumn colId="10">
       <filters>
         <filter val="Sociedad"/>
@@ -3351,11 +3363,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD49B1B1-33D3-49D9-BF85-AA2E2407F985}">
-  <dimension ref="A11:L174"/>
+  <dimension ref="A11:L175"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A174" sqref="A174"/>
+      <pane ySplit="11" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9182,10 +9194,10 @@
         <v>750</v>
       </c>
       <c r="B172" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C172" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D172" t="s">
         <v>76</v>
@@ -9197,13 +9209,13 @@
         <v>15</v>
       </c>
       <c r="G172" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="H172" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="I172" s="1" t="s">
         <v>752</v>
-      </c>
-      <c r="I172" s="1" t="s">
-        <v>753</v>
       </c>
       <c r="J172" t="s">
         <v>160</v>
@@ -9220,10 +9232,10 @@
         <v>751</v>
       </c>
       <c r="B173" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C173" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D173" t="s">
         <v>76</v>
@@ -9235,13 +9247,13 @@
         <v>15</v>
       </c>
       <c r="G173" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="H173" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="I173" s="1" t="s">
         <v>752</v>
-      </c>
-      <c r="I173" s="1" t="s">
-        <v>753</v>
       </c>
       <c r="J173" t="s">
         <v>160</v>
@@ -9255,13 +9267,13 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="13" t="s">
+        <v>757</v>
+      </c>
+      <c r="B174" t="s">
         <v>758</v>
       </c>
-      <c r="B174" t="s">
+      <c r="C174" t="s">
         <v>759</v>
-      </c>
-      <c r="C174" t="s">
-        <v>760</v>
       </c>
       <c r="D174" t="s">
         <v>76</v>
@@ -9273,13 +9285,13 @@
         <v>15</v>
       </c>
       <c r="G174" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>752</v>
+        <v>499</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>753</v>
+        <v>764</v>
       </c>
       <c r="J174" t="s">
         <v>160</v>
@@ -9288,6 +9300,44 @@
         <v>30</v>
       </c>
       <c r="L174" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="B175" t="s">
+        <v>761</v>
+      </c>
+      <c r="C175" t="s">
+        <v>762</v>
+      </c>
+      <c r="D175" t="s">
+        <v>26</v>
+      </c>
+      <c r="E175" t="s">
+        <v>14</v>
+      </c>
+      <c r="F175" t="s">
+        <v>15</v>
+      </c>
+      <c r="G175" t="s">
+        <v>498</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="J175" t="s">
+        <v>160</v>
+      </c>
+      <c r="K175" t="s">
+        <v>30</v>
+      </c>
+      <c r="L175" t="s">
         <v>501</v>
       </c>
     </row>

--- a/00Consolidado Tablas Madre.xlsx
+++ b/00Consolidado Tablas Madre.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCN\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516FFD37-5710-4879-A4EA-937B3F8DC2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EE13F3-20E3-4C36-B223-390719A59D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidado" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="SegmentaciónDeDatos_Sector">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_Unidad_de_Medida">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="775">
   <si>
     <t>Código Tabla</t>
   </si>
@@ -2342,6 +2342,36 @@
   </si>
   <si>
     <t>https://www.dropbox.com/s/05ytxsqxwthbn1y/Resumen%20matricula%20parvularia%20por%20establecimiento.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>Empresas_RUT</t>
+  </si>
+  <si>
+    <t>https://www.sii.cl//estadisticas/nominas/PUB_Empresas_2019_102020.xlsb</t>
+  </si>
+  <si>
+    <t>Empresas</t>
+  </si>
+  <si>
+    <t>5.21</t>
+  </si>
+  <si>
+    <t>5.22</t>
+  </si>
+  <si>
+    <t>PARTE 1 || Lista de empresas (por rut) con su tramo de ventas, rubro, actividad económica, N° de empleados, comuna y fecha de inicio y término de actividades</t>
+  </si>
+  <si>
+    <t>PARTE 2 || Lista de empresas (por rut) con su tramo de ventas, rubro, actividad económica, N° de empleados, comuna y fecha de inicio y término de actividades</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/i2v3dj0kahixwkl/5.21.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/3x41ypv00558esq/5.22.xlsx?dl=0</t>
   </si>
 </sst>
 </file>
@@ -3032,19 +3062,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A11:L175" totalsRowShown="0">
-  <autoFilter ref="A11:L175" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}">
-    <filterColumn colId="10">
-      <filters>
-        <filter val="Sociedad"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="11">
-      <filters>
-        <filter val="Educación y ciencia"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A11:L177" totalsRowShown="0">
+  <autoFilter ref="A11:L177" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:J119">
     <sortCondition ref="A11:A119"/>
   </sortState>
@@ -3363,11 +3382,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD49B1B1-33D3-49D9-BF85-AA2E2407F985}">
-  <dimension ref="A11:L175"/>
+  <dimension ref="A11:L177"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B173" sqref="B173"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="11" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I177" sqref="I177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3424,9 +3443,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>5</v>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>765</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -3453,8 +3472,14 @@
       <c r="J12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>6</v>
       </c>
@@ -3484,7 +3509,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>9</v>
       </c>
@@ -3522,7 +3547,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>9</v>
       </c>
@@ -3560,7 +3585,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>16</v>
       </c>
@@ -3598,7 +3623,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>42</v>
       </c>
@@ -3636,7 +3661,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>52</v>
       </c>
@@ -3674,7 +3699,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>56</v>
       </c>
@@ -3712,7 +3737,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>66</v>
       </c>
@@ -3750,7 +3775,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>73</v>
       </c>
@@ -3788,7 +3813,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>83</v>
       </c>
@@ -3826,7 +3851,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>89</v>
       </c>
@@ -3858,7 +3883,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>97</v>
       </c>
@@ -3890,7 +3915,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>102</v>
       </c>
@@ -3922,7 +3947,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>107</v>
       </c>
@@ -3954,7 +3979,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>112</v>
       </c>
@@ -3992,7 +4017,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>120</v>
       </c>
@@ -4030,7 +4055,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>126</v>
       </c>
@@ -4068,7 +4093,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>130</v>
       </c>
@@ -4100,7 +4125,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>138</v>
       </c>
@@ -4138,7 +4163,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>146</v>
       </c>
@@ -4176,7 +4201,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>155</v>
       </c>
@@ -4214,7 +4239,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>161</v>
       </c>
@@ -4252,7 +4277,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>169</v>
       </c>
@@ -4290,7 +4315,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>172</v>
       </c>
@@ -4328,7 +4353,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>175</v>
       </c>
@@ -4366,7 +4391,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>179</v>
       </c>
@@ -4404,7 +4429,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>183</v>
       </c>
@@ -4442,7 +4467,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>187</v>
       </c>
@@ -4480,7 +4505,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>191</v>
       </c>
@@ -4518,7 +4543,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>195</v>
       </c>
@@ -4556,7 +4581,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>199</v>
       </c>
@@ -4594,7 +4619,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>203</v>
       </c>
@@ -4632,7 +4657,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>207</v>
       </c>
@@ -4670,7 +4695,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>211</v>
       </c>
@@ -4708,7 +4733,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>215</v>
       </c>
@@ -4746,7 +4771,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>220</v>
       </c>
@@ -4784,7 +4809,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>223</v>
       </c>
@@ -4822,7 +4847,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>227</v>
       </c>
@@ -4860,7 +4885,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>232</v>
       </c>
@@ -4898,7 +4923,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>236</v>
       </c>
@@ -4936,7 +4961,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>239</v>
       </c>
@@ -4974,7 +4999,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>242</v>
       </c>
@@ -5012,7 +5037,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>248</v>
       </c>
@@ -5050,7 +5075,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>253</v>
       </c>
@@ -5088,7 +5113,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>257</v>
       </c>
@@ -5126,7 +5151,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>263</v>
       </c>
@@ -5162,7 +5187,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>269</v>
       </c>
@@ -5200,7 +5225,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>278</v>
       </c>
@@ -5238,7 +5263,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>284</v>
       </c>
@@ -5276,7 +5301,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>288</v>
       </c>
@@ -5314,7 +5339,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>292</v>
       </c>
@@ -5352,7 +5377,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>299</v>
       </c>
@@ -5390,7 +5415,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>303</v>
       </c>
@@ -5428,7 +5453,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>308</v>
       </c>
@@ -5466,7 +5491,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>312</v>
       </c>
@@ -5504,7 +5529,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>316</v>
       </c>
@@ -5542,7 +5567,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>320</v>
       </c>
@@ -5580,7 +5605,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>324</v>
       </c>
@@ -5618,7 +5643,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>328</v>
       </c>
@@ -5656,7 +5681,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>336</v>
       </c>
@@ -5694,7 +5719,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>339</v>
       </c>
@@ -5732,7 +5757,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>345</v>
       </c>
@@ -5768,7 +5793,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>350</v>
       </c>
@@ -5806,7 +5831,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>355</v>
       </c>
@@ -5844,7 +5869,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
         <v>360</v>
       </c>
@@ -5882,7 +5907,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>365</v>
       </c>
@@ -5920,7 +5945,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>370</v>
       </c>
@@ -5956,7 +5981,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>374</v>
       </c>
@@ -5992,7 +6017,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>378</v>
       </c>
@@ -6028,7 +6053,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>382</v>
       </c>
@@ -6066,7 +6091,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>387</v>
       </c>
@@ -6102,7 +6127,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>392</v>
       </c>
@@ -6140,7 +6165,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>396</v>
       </c>
@@ -6178,7 +6203,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>401</v>
       </c>
@@ -6216,7 +6241,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
         <v>407</v>
       </c>
@@ -6246,7 +6271,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>407</v>
       </c>
@@ -6276,7 +6301,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
         <v>414</v>
       </c>
@@ -6306,7 +6331,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
         <v>418</v>
       </c>
@@ -6336,7 +6361,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
         <v>422</v>
       </c>
@@ -6366,7 +6391,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>426</v>
       </c>
@@ -6396,7 +6421,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
         <v>429</v>
       </c>
@@ -6426,7 +6451,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
         <v>432</v>
       </c>
@@ -6456,7 +6481,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>436</v>
       </c>
@@ -6492,7 +6517,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
         <v>440</v>
       </c>
@@ -6522,7 +6547,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
         <v>444</v>
       </c>
@@ -6552,7 +6577,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
         <v>448</v>
       </c>
@@ -6582,7 +6607,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
         <v>448</v>
       </c>
@@ -6612,7 +6637,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
         <v>455</v>
       </c>
@@ -6642,7 +6667,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
         <v>459</v>
       </c>
@@ -6672,7 +6697,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
         <v>463</v>
       </c>
@@ -6702,7 +6727,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>467</v>
       </c>
@@ -6732,7 +6757,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>471</v>
       </c>
@@ -6762,7 +6787,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>475</v>
       </c>
@@ -6792,7 +6817,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>479</v>
       </c>
@@ -6822,7 +6847,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>483</v>
       </c>
@@ -6850,7 +6875,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>488</v>
       </c>
@@ -6878,7 +6903,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>490</v>
       </c>
@@ -6906,7 +6931,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>492</v>
       </c>
@@ -7240,7 +7265,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
         <v>531</v>
       </c>
@@ -7272,7 +7297,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>538</v>
       </c>
@@ -7310,7 +7335,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>542</v>
       </c>
@@ -7348,7 +7373,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>546</v>
       </c>
@@ -7386,7 +7411,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>550</v>
       </c>
@@ -7424,7 +7449,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
         <v>554</v>
       </c>
@@ -7462,7 +7487,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
         <v>558</v>
       </c>
@@ -7500,7 +7525,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
         <v>562</v>
       </c>
@@ -7536,7 +7561,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
         <v>566</v>
       </c>
@@ -7572,7 +7597,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
         <v>569</v>
       </c>
@@ -7603,7 +7628,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
         <v>575</v>
       </c>
@@ -7634,7 +7659,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
         <v>577</v>
       </c>
@@ -7670,7 +7695,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
         <v>580</v>
       </c>
@@ -7706,7 +7731,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
         <v>585</v>
       </c>
@@ -7742,7 +7767,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
         <v>588</v>
       </c>
@@ -8120,7 +8145,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
         <v>618</v>
       </c>
@@ -8158,7 +8183,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
         <v>626</v>
       </c>
@@ -8196,7 +8221,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
         <v>631</v>
       </c>
@@ -8234,7 +8259,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
         <v>637</v>
       </c>
@@ -8272,7 +8297,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
         <v>643</v>
       </c>
@@ -8310,7 +8335,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
         <v>649</v>
       </c>
@@ -8348,7 +8373,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
         <v>653</v>
       </c>
@@ -8386,7 +8411,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="13" t="s">
         <v>658</v>
       </c>
@@ -8424,7 +8449,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="s">
         <v>662</v>
       </c>
@@ -8462,7 +8487,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="s">
         <v>667</v>
       </c>
@@ -8500,7 +8525,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="13">
         <v>27.11</v>
       </c>
@@ -8538,7 +8563,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="13">
         <v>27.12</v>
       </c>
@@ -8576,7 +8601,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="13">
         <v>27.13</v>
       </c>
@@ -8614,7 +8639,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="13">
         <v>27.14</v>
       </c>
@@ -8652,7 +8677,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="13">
         <v>27.15</v>
       </c>
@@ -8690,7 +8715,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="13">
         <v>27.16</v>
       </c>
@@ -8728,7 +8753,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="s">
         <v>693</v>
       </c>
@@ -8766,7 +8791,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="s">
         <v>697</v>
       </c>
@@ -8804,7 +8829,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
         <v>701</v>
       </c>
@@ -8842,7 +8867,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="13" t="s">
         <v>705</v>
       </c>
@@ -8880,7 +8905,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="13" t="s">
         <v>709</v>
       </c>
@@ -8918,7 +8943,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="13" t="s">
         <v>713</v>
       </c>
@@ -8956,7 +8981,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="13" t="s">
         <v>717</v>
       </c>
@@ -8994,7 +9019,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="13" t="s">
         <v>721</v>
       </c>
@@ -9032,7 +9057,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="13" t="s">
         <v>725</v>
       </c>
@@ -9070,7 +9095,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="13" t="s">
         <v>731</v>
       </c>
@@ -9108,7 +9133,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="13" t="s">
         <v>740</v>
       </c>
@@ -9146,7 +9171,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="13" t="s">
         <v>746</v>
       </c>
@@ -9184,7 +9209,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="13"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
@@ -9339,6 +9364,82 @@
       </c>
       <c r="L175" t="s">
         <v>501</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176" s="13" t="s">
+        <v>769</v>
+      </c>
+      <c r="B176" t="s">
+        <v>766</v>
+      </c>
+      <c r="C176" t="s">
+        <v>771</v>
+      </c>
+      <c r="D176" t="s">
+        <v>571</v>
+      </c>
+      <c r="E176" t="s">
+        <v>14</v>
+      </c>
+      <c r="F176" t="s">
+        <v>15</v>
+      </c>
+      <c r="G176" t="s">
+        <v>16</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="J176" t="s">
+        <v>19</v>
+      </c>
+      <c r="K176" t="s">
+        <v>30</v>
+      </c>
+      <c r="L176" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177" s="13" t="s">
+        <v>770</v>
+      </c>
+      <c r="B177" t="s">
+        <v>766</v>
+      </c>
+      <c r="C177" t="s">
+        <v>772</v>
+      </c>
+      <c r="D177" t="s">
+        <v>571</v>
+      </c>
+      <c r="E177" t="s">
+        <v>14</v>
+      </c>
+      <c r="F177" t="s">
+        <v>15</v>
+      </c>
+      <c r="G177" t="s">
+        <v>16</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="J177" t="s">
+        <v>19</v>
+      </c>
+      <c r="K177" t="s">
+        <v>30</v>
+      </c>
+      <c r="L177" t="s">
+        <v>768</v>
       </c>
     </row>
   </sheetData>

--- a/00Consolidado Tablas Madre.xlsx
+++ b/00Consolidado Tablas Madre.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EE13F3-20E3-4C36-B223-390719A59D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4EFA6D-62E6-418C-A52B-368DB4FB5CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="777">
   <si>
     <t>Código Tabla</t>
   </si>
@@ -2372,6 +2372,12 @@
   </si>
   <si>
     <t>https://www.dropbox.com/s/3x41ypv00558esq/5.22.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>6.10</t>
+  </si>
+  <si>
+    <t>6.20</t>
   </si>
 </sst>
 </file>
@@ -3057,15 +3063,15 @@
   <slicer name="Nombre Fuente" xr10:uid="{FCDE2E95-E63C-47A4-8F50-C4F8F5EADAEA}" cache="SegmentaciónDeDatos_Nombre_Fuente" caption="Nombre Fuente" columnCount="2" style="SlicerStyleDark1" rowHeight="234950"/>
   <slicer name="Encargado" xr10:uid="{4B8EAA2A-5539-4124-8E5D-AA4E68FD63C8}" cache="SegmentaciónDeDatos_Encargado" caption="Encargado" columnCount="2" style="SlicerStyleDark1" rowHeight="234950"/>
   <slicer name="Industria" xr10:uid="{5E69910F-72C0-4CCC-9A40-0C33D8089AF2}" cache="SegmentaciónDeDatos_Industria" caption="Industria" style="SlicerStyleDark1" rowHeight="234950"/>
-  <slicer name="Sector" xr10:uid="{FFD6B83F-B469-4B90-8DC1-E5E803E2AA9A}" cache="SegmentaciónDeDatos_Sector" caption="Sector" startItem="2" style="SlicerStyleDark1" rowHeight="234950"/>
+  <slicer name="Sector" xr10:uid="{FFD6B83F-B469-4B90-8DC1-E5E803E2AA9A}" cache="SegmentaciónDeDatos_Sector" caption="Sector" style="SlicerStyleDark1" rowHeight="234950"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A11:L177" totalsRowShown="0">
   <autoFilter ref="A11:L177" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:J119">
-    <sortCondition ref="A11:A119"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A87:L110">
+    <sortCondition ref="B11:B177"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{7C5348D6-A85E-4EC9-97BD-67166306597F}" name="Código Tabla" dataDxfId="0"/>
@@ -3384,9 +3390,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD49B1B1-33D3-49D9-BF85-AA2E2407F985}">
   <dimension ref="A11:L177"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I177" sqref="I177"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6243,13 +6249,13 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
-        <v>407</v>
+        <v>488</v>
       </c>
       <c r="B87" t="s">
-        <v>408</v>
+        <v>489</v>
       </c>
       <c r="C87" t="s">
-        <v>409</v>
+        <v>485</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s">
@@ -6261,25 +6267,23 @@
       <c r="G87" t="s">
         <v>16</v>
       </c>
-      <c r="H87" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>410</v>
-      </c>
+      <c r="H87" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="I87" s="1"/>
       <c r="J87" t="s">
-        <v>19</v>
+        <v>487</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>407</v>
+        <v>483</v>
       </c>
       <c r="B88" t="s">
-        <v>411</v>
+        <v>484</v>
       </c>
       <c r="C88" t="s">
-        <v>412</v>
+        <v>485</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s">
@@ -6291,25 +6295,23 @@
       <c r="G88" t="s">
         <v>16</v>
       </c>
-      <c r="H88" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>413</v>
-      </c>
+      <c r="H88" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="I88" s="1"/>
       <c r="J88" t="s">
-        <v>19</v>
+        <v>487</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
-        <v>414</v>
+        <v>490</v>
       </c>
       <c r="B89" t="s">
-        <v>415</v>
+        <v>491</v>
       </c>
       <c r="C89" t="s">
-        <v>416</v>
+        <v>485</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s">
@@ -6321,25 +6323,23 @@
       <c r="G89" t="s">
         <v>16</v>
       </c>
-      <c r="H89" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>417</v>
-      </c>
+      <c r="H89" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="I89" s="1"/>
       <c r="J89" t="s">
-        <v>19</v>
+        <v>487</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="B90" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="C90" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s">
@@ -6355,7 +6355,7 @@
         <v>22</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="J90" t="s">
         <v>19</v>
@@ -6363,13 +6363,13 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="B91" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="C91" t="s">
-        <v>424</v>
+        <v>450</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s">
@@ -6385,7 +6385,7 @@
         <v>22</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="J91" t="s">
         <v>19</v>
@@ -6393,13 +6393,13 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
-        <v>426</v>
+        <v>459</v>
       </c>
       <c r="B92" t="s">
-        <v>427</v>
+        <v>460</v>
       </c>
       <c r="C92" t="s">
-        <v>424</v>
+        <v>461</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s">
@@ -6415,7 +6415,7 @@
         <v>22</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>428</v>
+        <v>462</v>
       </c>
       <c r="J92" t="s">
         <v>19</v>
@@ -6423,13 +6423,13 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
-        <v>429</v>
+        <v>463</v>
       </c>
       <c r="B93" t="s">
-        <v>430</v>
+        <v>464</v>
       </c>
       <c r="C93" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s">
@@ -6445,7 +6445,7 @@
         <v>22</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>428</v>
+        <v>466</v>
       </c>
       <c r="J93" t="s">
         <v>19</v>
@@ -6453,13 +6453,13 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
-        <v>432</v>
+        <v>467</v>
       </c>
       <c r="B94" t="s">
-        <v>433</v>
+        <v>468</v>
       </c>
       <c r="C94" t="s">
-        <v>434</v>
+        <v>469</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s">
@@ -6475,7 +6475,7 @@
         <v>22</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>435</v>
+        <v>470</v>
       </c>
       <c r="J94" t="s">
         <v>19</v>
@@ -6483,13 +6483,13 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
-        <v>436</v>
+        <v>471</v>
       </c>
       <c r="B95" t="s">
-        <v>437</v>
+        <v>472</v>
       </c>
       <c r="C95" t="s">
-        <v>438</v>
+        <v>473</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s">
@@ -6498,34 +6498,28 @@
       <c r="F95" t="s">
         <v>15</v>
       </c>
-      <c r="G95" s="4" t="s">
-        <v>142</v>
+      <c r="G95" t="s">
+        <v>16</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>439</v>
+        <v>474</v>
       </c>
       <c r="J95" t="s">
         <v>19</v>
       </c>
-      <c r="K95" t="s">
-        <v>64</v>
-      </c>
-      <c r="L95" t="s">
-        <v>154</v>
-      </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
-        <v>440</v>
+        <v>475</v>
       </c>
       <c r="B96" t="s">
-        <v>441</v>
+        <v>476</v>
       </c>
       <c r="C96" t="s">
-        <v>442</v>
+        <v>477</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s">
@@ -6541,7 +6535,7 @@
         <v>22</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>443</v>
+        <v>478</v>
       </c>
       <c r="J96" t="s">
         <v>19</v>
@@ -6549,13 +6543,13 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
-        <v>444</v>
+        <v>479</v>
       </c>
       <c r="B97" t="s">
-        <v>445</v>
+        <v>480</v>
       </c>
       <c r="C97" t="s">
-        <v>446</v>
+        <v>481</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s">
@@ -6571,7 +6565,7 @@
         <v>22</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>447</v>
+        <v>482</v>
       </c>
       <c r="J97" t="s">
         <v>19</v>
@@ -6579,13 +6573,13 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
-        <v>448</v>
+        <v>492</v>
       </c>
       <c r="B98" t="s">
-        <v>449</v>
+        <v>493</v>
       </c>
       <c r="C98" t="s">
-        <v>450</v>
+        <v>494</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s">
@@ -6601,7 +6595,7 @@
         <v>22</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>451</v>
+        <v>413</v>
       </c>
       <c r="J98" t="s">
         <v>19</v>
@@ -6609,13 +6603,13 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
-        <v>448</v>
+        <v>775</v>
       </c>
       <c r="B99" t="s">
-        <v>452</v>
+        <v>411</v>
       </c>
       <c r="C99" t="s">
-        <v>453</v>
+        <v>412</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s">
@@ -6631,7 +6625,7 @@
         <v>22</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>454</v>
+        <v>413</v>
       </c>
       <c r="J99" t="s">
         <v>19</v>
@@ -6639,13 +6633,13 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
-        <v>455</v>
+        <v>414</v>
       </c>
       <c r="B100" t="s">
-        <v>456</v>
+        <v>415</v>
       </c>
       <c r="C100" t="s">
-        <v>457</v>
+        <v>416</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s">
@@ -6661,7 +6655,7 @@
         <v>22</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>458</v>
+        <v>417</v>
       </c>
       <c r="J100" t="s">
         <v>19</v>
@@ -6669,13 +6663,13 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
-        <v>459</v>
+        <v>418</v>
       </c>
       <c r="B101" t="s">
-        <v>460</v>
+        <v>419</v>
       </c>
       <c r="C101" t="s">
-        <v>461</v>
+        <v>420</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s">
@@ -6691,7 +6685,7 @@
         <v>22</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>462</v>
+        <v>421</v>
       </c>
       <c r="J101" t="s">
         <v>19</v>
@@ -6699,13 +6693,13 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
-        <v>463</v>
+        <v>422</v>
       </c>
       <c r="B102" t="s">
-        <v>464</v>
+        <v>423</v>
       </c>
       <c r="C102" t="s">
-        <v>465</v>
+        <v>424</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s">
@@ -6721,7 +6715,7 @@
         <v>22</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>466</v>
+        <v>425</v>
       </c>
       <c r="J102" t="s">
         <v>19</v>
@@ -6729,13 +6723,13 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
-        <v>467</v>
+        <v>426</v>
       </c>
       <c r="B103" t="s">
-        <v>468</v>
+        <v>427</v>
       </c>
       <c r="C103" t="s">
-        <v>469</v>
+        <v>424</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s">
@@ -6751,7 +6745,7 @@
         <v>22</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>470</v>
+        <v>428</v>
       </c>
       <c r="J103" t="s">
         <v>19</v>
@@ -6759,13 +6753,13 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
-        <v>471</v>
+        <v>429</v>
       </c>
       <c r="B104" t="s">
-        <v>472</v>
+        <v>430</v>
       </c>
       <c r="C104" t="s">
-        <v>473</v>
+        <v>431</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s">
@@ -6781,7 +6775,7 @@
         <v>22</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>474</v>
+        <v>428</v>
       </c>
       <c r="J104" t="s">
         <v>19</v>
@@ -6789,13 +6783,13 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
-        <v>475</v>
+        <v>432</v>
       </c>
       <c r="B105" t="s">
-        <v>476</v>
+        <v>433</v>
       </c>
       <c r="C105" t="s">
-        <v>477</v>
+        <v>434</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s">
@@ -6811,7 +6805,7 @@
         <v>22</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>478</v>
+        <v>435</v>
       </c>
       <c r="J105" t="s">
         <v>19</v>
@@ -6819,13 +6813,13 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
-        <v>479</v>
+        <v>436</v>
       </c>
       <c r="B106" t="s">
-        <v>480</v>
+        <v>437</v>
       </c>
       <c r="C106" t="s">
-        <v>481</v>
+        <v>438</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s">
@@ -6834,28 +6828,34 @@
       <c r="F106" t="s">
         <v>15</v>
       </c>
-      <c r="G106" t="s">
-        <v>16</v>
+      <c r="G106" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>482</v>
+        <v>439</v>
       </c>
       <c r="J106" t="s">
         <v>19</v>
       </c>
+      <c r="K106" t="s">
+        <v>64</v>
+      </c>
+      <c r="L106" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
-        <v>483</v>
+        <v>440</v>
       </c>
       <c r="B107" t="s">
-        <v>484</v>
+        <v>441</v>
       </c>
       <c r="C107" t="s">
-        <v>485</v>
+        <v>442</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s">
@@ -6867,23 +6867,25 @@
       <c r="G107" t="s">
         <v>16</v>
       </c>
-      <c r="H107" s="10" t="s">
-        <v>486</v>
-      </c>
-      <c r="I107" s="1"/>
+      <c r="H107" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>443</v>
+      </c>
       <c r="J107" t="s">
-        <v>487</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
-        <v>488</v>
+        <v>444</v>
       </c>
       <c r="B108" t="s">
-        <v>489</v>
+        <v>445</v>
       </c>
       <c r="C108" t="s">
-        <v>485</v>
+        <v>446</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s">
@@ -6895,23 +6897,25 @@
       <c r="G108" t="s">
         <v>16</v>
       </c>
-      <c r="H108" s="10" t="s">
-        <v>486</v>
-      </c>
-      <c r="I108" s="1"/>
+      <c r="H108" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>447</v>
+      </c>
       <c r="J108" t="s">
-        <v>487</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
-        <v>490</v>
+        <v>776</v>
       </c>
       <c r="B109" t="s">
-        <v>491</v>
+        <v>452</v>
       </c>
       <c r="C109" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s">
@@ -6923,23 +6927,25 @@
       <c r="G109" t="s">
         <v>16</v>
       </c>
-      <c r="H109" s="10" t="s">
-        <v>486</v>
-      </c>
-      <c r="I109" s="1"/>
+      <c r="H109" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="J109" t="s">
-        <v>487</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
-        <v>492</v>
+        <v>455</v>
       </c>
       <c r="B110" t="s">
-        <v>493</v>
+        <v>456</v>
       </c>
       <c r="C110" t="s">
-        <v>494</v>
+        <v>457</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s">
@@ -6955,7 +6961,7 @@
         <v>22</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="J110" t="s">
         <v>19</v>
@@ -9480,9 +9486,9 @@
     <hyperlink ref="H57" r:id="rId33" xr:uid="{2D514D50-5C2E-4495-96EE-18447C70E010}"/>
     <hyperlink ref="I57" r:id="rId34" xr:uid="{71AA66DE-A95F-45E5-A807-39BAEBABCD4A}"/>
     <hyperlink ref="H34" r:id="rId35" xr:uid="{6C5E3E67-C5AC-47FF-8E1F-0B6D283FBB47}"/>
-    <hyperlink ref="H107" r:id="rId36" xr:uid="{05278A2C-EF32-4288-AC79-E2F3C414DCB0}"/>
-    <hyperlink ref="H109" r:id="rId37" xr:uid="{465BC4F3-228B-4122-9B29-D51AB49EBEC3}"/>
-    <hyperlink ref="H108" r:id="rId38" xr:uid="{CF7976C9-7F90-4DC9-A637-E9D9624A45D4}"/>
+    <hyperlink ref="H88" r:id="rId36" xr:uid="{05278A2C-EF32-4288-AC79-E2F3C414DCB0}"/>
+    <hyperlink ref="H89" r:id="rId37" xr:uid="{465BC4F3-228B-4122-9B29-D51AB49EBEC3}"/>
+    <hyperlink ref="H87" r:id="rId38" xr:uid="{CF7976C9-7F90-4DC9-A637-E9D9624A45D4}"/>
     <hyperlink ref="I17" r:id="rId39" xr:uid="{53595853-D5EB-4109-8B5D-34F99DF8A989}"/>
     <hyperlink ref="H153" r:id="rId40" xr:uid="{D605C3F4-CA75-4A92-8FAC-7663FF937ADB}"/>
     <hyperlink ref="I153" r:id="rId41" xr:uid="{D75E9950-B86E-4EE4-88EC-7F1FC744F30F}"/>

--- a/00Consolidado Tablas Madre.xlsx
+++ b/00Consolidado Tablas Madre.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\Tablas Madre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4EFA6D-62E6-418C-A52B-368DB4FB5CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF42FA9-0E9E-421D-AB11-5940815E259F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidado" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="773">
   <si>
     <t>Código Tabla</t>
   </si>
@@ -390,9 +390,6 @@
     <t>Emisiones_CO2_Combustible</t>
   </si>
   <si>
-    <t>Emisiones en toneladas de CO2 por quema de combustible, proceso de producción de cemento y flaring, desde 1990 a 2016.</t>
-  </si>
-  <si>
     <t>Tonelada</t>
   </si>
   <si>
@@ -411,31 +408,7 @@
     <t>13.2</t>
   </si>
   <si>
-    <t>Emisiones_Tipo_Gas</t>
-  </si>
-  <si>
-    <t>Emisiones en toneladas de CO2 equivalente por tipo de gas (CO2, CH4, N2O, HFC y SF6), desde 1990 a 2016.</t>
-  </si>
-  <si>
     <t>Sistema Nacional de Inventarios de Gases de Efecto Invernadero</t>
-  </si>
-  <si>
-    <t>https://snichile.mma.gob.cl/consulta/</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/p24p4pjjnnp484y/13.2.xlsx?dl=0</t>
-  </si>
-  <si>
-    <t>13.3</t>
-  </si>
-  <si>
-    <t>Emisiones_Tipo_Gas_Sector</t>
-  </si>
-  <si>
-    <t>Emisiones en toneladas de CO2 equivalente por tipo de gas (CO2, CH4, N2O, HFC y SF6), sector y subsector (Agricultura, Energía, Procesos Industriales, Residuos y UCTUS, junto a sus subsectores), desde 1990 a 2016.</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/s/0eukbcpwgpg7xd9/13.3.xlsx?dl=0</t>
   </si>
   <si>
     <t>14.1</t>
@@ -2378,6 +2351,21 @@
   </si>
   <si>
     <t>6.20</t>
+  </si>
+  <si>
+    <t>Emisiones en toneladas de CO2 por quema de combustible, proceso de producción de cemento y flaring, desde 1990 a 2019.</t>
+  </si>
+  <si>
+    <t>Emisiones_Regionales_Chile_1990_2018</t>
+  </si>
+  <si>
+    <t>Emisiones en toneladas del gas de CO2, CH4, N2O, HFC y SF6, y CO2 equivalente total, desde 1990 a 2018, por región.</t>
+  </si>
+  <si>
+    <t>https://snichile.mma.gob.cl/documentos/</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/kpn7orewv5987t7/13.2.xlsx?dl=0</t>
   </si>
 </sst>
 </file>
@@ -3068,10 +3056,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A11:L177" totalsRowShown="0">
-  <autoFilter ref="A11:L177" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A87:L110">
-    <sortCondition ref="B11:B177"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A11:L176" totalsRowShown="0">
+  <autoFilter ref="A11:L176" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A86:L109">
+    <sortCondition ref="B11:B176"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{7C5348D6-A85E-4EC9-97BD-67166306597F}" name="Código Tabla" dataDxfId="0"/>
@@ -3388,11 +3376,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD49B1B1-33D3-49D9-BF85-AA2E2407F985}">
-  <dimension ref="A11:L177"/>
+  <dimension ref="A11:L176"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A110" sqref="A110"/>
+      <pane ySplit="11" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3451,7 +3439,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -3482,7 +3470,7 @@
         <v>30</v>
       </c>
       <c r="L12" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -3993,25 +3981,25 @@
         <v>113</v>
       </c>
       <c r="C27" t="s">
+        <v>768</v>
+      </c>
+      <c r="D27" t="s">
         <v>114</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s">
         <v>115</v>
       </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="H27" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="J27" t="s">
         <v>81</v>
@@ -4020,36 +4008,36 @@
         <v>40</v>
       </c>
       <c r="L27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" t="s">
+        <v>769</v>
+      </c>
+      <c r="C28" t="s">
+        <v>770</v>
+      </c>
+      <c r="D28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
         <v>120</v>
       </c>
-      <c r="B28" t="s">
-        <v>121</v>
-      </c>
-      <c r="C28" t="s">
-        <v>122</v>
-      </c>
-      <c r="D28" t="s">
-        <v>115</v>
-      </c>
-      <c r="E28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s">
-        <v>123</v>
-      </c>
       <c r="H28" s="1" t="s">
-        <v>124</v>
+        <v>771</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>125</v>
+        <v>772</v>
       </c>
       <c r="J28" t="s">
         <v>81</v>
@@ -4058,94 +4046,94 @@
         <v>40</v>
       </c>
       <c r="L28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
+        <v>125</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B29" t="s">
+      <c r="I29" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C29" t="s">
+      <c r="J29" t="s">
         <v>128</v>
-      </c>
-      <c r="D29" t="s">
-        <v>115</v>
-      </c>
-      <c r="E29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" t="s">
-        <v>123</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="J29" t="s">
-        <v>81</v>
-      </c>
-      <c r="K29" t="s">
-        <v>40</v>
-      </c>
-      <c r="L29" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" t="s">
         <v>130</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>131</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>132</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s">
         <v>133</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="H30" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="J30" t="s">
+        <v>81</v>
+      </c>
+      <c r="K30" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" t="s">
         <v>136</v>
-      </c>
-      <c r="J30" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" t="s">
         <v>138</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>139</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>140</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>141</v>
-      </c>
-      <c r="E31" t="s">
-        <v>14</v>
       </c>
       <c r="F31" t="s">
         <v>15</v>
@@ -4160,10 +4148,10 @@
         <v>144</v>
       </c>
       <c r="J31" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="K31" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="L31" t="s">
         <v>145</v>
@@ -4180,121 +4168,121 @@
         <v>148</v>
       </c>
       <c r="D32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" t="s">
+        <v>142</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E32" t="s">
+      <c r="I32" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="J32" t="s">
         <v>151</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J32" t="s">
-        <v>19</v>
       </c>
       <c r="K32" t="s">
         <v>64</v>
       </c>
       <c r="L32" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" t="s">
         <v>155</v>
       </c>
-      <c r="B33" t="s">
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C33" t="s">
+      <c r="H33" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D33" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" t="s">
-        <v>151</v>
-      </c>
-      <c r="H33" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="J33" t="s">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="K33" t="s">
         <v>64</v>
       </c>
       <c r="L33" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" t="s">
         <v>161</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>162</v>
       </c>
-      <c r="C34" t="s">
-        <v>163</v>
-      </c>
       <c r="D34" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="E34" t="s">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="F34" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>165</v>
+      <c r="G34" t="s">
+        <v>142</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="J34" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="K34" t="s">
         <v>64</v>
       </c>
       <c r="L34" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B35" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C35" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D35" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="E35" t="s">
         <v>14</v>
@@ -4303,36 +4291,36 @@
         <v>15</v>
       </c>
       <c r="G35" t="s">
+        <v>142</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J35" t="s">
         <v>151</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J35" t="s">
-        <v>160</v>
       </c>
       <c r="K35" t="s">
         <v>64</v>
       </c>
       <c r="L35" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B36" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C36" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="E36" t="s">
         <v>14</v>
@@ -4341,36 +4329,36 @@
         <v>15</v>
       </c>
       <c r="G36" t="s">
+        <v>142</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J36" t="s">
         <v>151</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J36" t="s">
-        <v>160</v>
       </c>
       <c r="K36" t="s">
         <v>64</v>
       </c>
       <c r="L36" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B37" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C37" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D37" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E37" t="s">
         <v>14</v>
@@ -4379,36 +4367,36 @@
         <v>15</v>
       </c>
       <c r="G37" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="J37" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="K37" t="s">
         <v>64</v>
       </c>
       <c r="L37" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B38" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C38" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D38" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E38" t="s">
         <v>14</v>
@@ -4417,112 +4405,112 @@
         <v>15</v>
       </c>
       <c r="G38" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="J38" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K38" t="s">
         <v>64</v>
       </c>
       <c r="L38" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B39" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C39" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D39" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
       <c r="E39" t="s">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="F39" t="s">
         <v>15</v>
       </c>
       <c r="G39" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="J39" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="K39" t="s">
         <v>64</v>
       </c>
       <c r="L39" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B40" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C40" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D40" t="s">
+        <v>173</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" t="s">
+        <v>142</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E40" t="s">
-        <v>150</v>
-      </c>
-      <c r="F40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" t="s">
-        <v>151</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="I40" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="J40" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="K40" t="s">
         <v>64</v>
       </c>
       <c r="L40" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B41" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C41" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D41" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E41" t="s">
         <v>14</v>
@@ -4531,36 +4519,36 @@
         <v>15</v>
       </c>
       <c r="G41" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J41" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K41" t="s">
         <v>64</v>
       </c>
       <c r="L41" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B42" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C42" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D42" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E42" t="s">
         <v>14</v>
@@ -4569,36 +4557,36 @@
         <v>15</v>
       </c>
       <c r="G42" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="J42" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K42" t="s">
         <v>64</v>
       </c>
       <c r="L42" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B43" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C43" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D43" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
       <c r="E43" t="s">
         <v>14</v>
@@ -4607,150 +4595,150 @@
         <v>15</v>
       </c>
       <c r="G43" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="J43" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K43" t="s">
         <v>64</v>
       </c>
       <c r="L43" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B44" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C44" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D44" t="s">
+        <v>140</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" t="s">
+        <v>142</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E44" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" t="s">
-        <v>151</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="I44" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="J44" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K44" t="s">
         <v>64</v>
       </c>
       <c r="L44" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B45" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C45" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D45" t="s">
+        <v>140</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" t="s">
+        <v>142</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E45" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" t="s">
-        <v>151</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="I45" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="J45" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K45" t="s">
         <v>64</v>
       </c>
       <c r="L45" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C46" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D46" t="s">
+        <v>209</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" t="s">
+        <v>142</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E46" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" t="s">
-        <v>151</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="I46" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="J46" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K46" t="s">
         <v>64</v>
       </c>
       <c r="L46" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B47" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C47" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D47" t="s">
-        <v>218</v>
+        <v>114</v>
       </c>
       <c r="E47" t="s">
         <v>14</v>
@@ -4759,36 +4747,36 @@
         <v>15</v>
       </c>
       <c r="G47" t="s">
+        <v>142</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J47" t="s">
         <v>151</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="J47" t="s">
-        <v>137</v>
       </c>
       <c r="K47" t="s">
         <v>64</v>
       </c>
       <c r="L47" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B48" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C48" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E48" t="s">
         <v>14</v>
@@ -4797,36 +4785,36 @@
         <v>15</v>
       </c>
       <c r="G48" t="s">
+        <v>142</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J48" t="s">
         <v>151</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J48" t="s">
-        <v>160</v>
       </c>
       <c r="K48" t="s">
         <v>64</v>
       </c>
       <c r="L48" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B49" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C49" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>221</v>
       </c>
       <c r="E49" t="s">
         <v>14</v>
@@ -4835,36 +4823,36 @@
         <v>15</v>
       </c>
       <c r="G49" t="s">
+        <v>142</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J49" t="s">
         <v>151</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="J49" t="s">
-        <v>160</v>
       </c>
       <c r="K49" t="s">
         <v>64</v>
       </c>
       <c r="L49" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B50" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C50" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D50" t="s">
-        <v>230</v>
+        <v>114</v>
       </c>
       <c r="E50" t="s">
         <v>14</v>
@@ -4873,36 +4861,36 @@
         <v>15</v>
       </c>
       <c r="G50" t="s">
+        <v>142</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J50" t="s">
         <v>151</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="J50" t="s">
-        <v>160</v>
       </c>
       <c r="K50" t="s">
         <v>64</v>
       </c>
       <c r="L50" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B51" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C51" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D51" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="E51" t="s">
         <v>14</v>
@@ -4911,36 +4899,36 @@
         <v>15</v>
       </c>
       <c r="G51" t="s">
+        <v>142</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J51" t="s">
         <v>151</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="J51" t="s">
-        <v>160</v>
       </c>
       <c r="K51" t="s">
         <v>64</v>
       </c>
       <c r="L51" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B52" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C52" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D52" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="E52" t="s">
         <v>14</v>
@@ -4949,36 +4937,36 @@
         <v>15</v>
       </c>
       <c r="G52" t="s">
+        <v>142</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J52" t="s">
         <v>151</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J52" t="s">
-        <v>160</v>
       </c>
       <c r="K52" t="s">
         <v>64</v>
       </c>
       <c r="L52" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B53" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C53" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D53" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="E53" t="s">
         <v>14</v>
@@ -4987,51 +4975,51 @@
         <v>15</v>
       </c>
       <c r="G53" t="s">
-        <v>151</v>
+        <v>236</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>158</v>
+        <v>237</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>159</v>
+        <v>238</v>
       </c>
       <c r="J53" t="s">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="K53" t="s">
         <v>64</v>
       </c>
       <c r="L53" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="B54" t="s">
+        <v>240</v>
+      </c>
+      <c r="C54" t="s">
+        <v>241</v>
+      </c>
+      <c r="D54" t="s">
         <v>242</v>
       </c>
-      <c r="B54" t="s">
+      <c r="E54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" t="s">
+        <v>236</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="C54" t="s">
-        <v>244</v>
-      </c>
-      <c r="D54" t="s">
-        <v>69</v>
-      </c>
-      <c r="E54" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" t="s">
-        <v>245</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="J54" t="s">
         <v>81</v>
@@ -5045,16 +5033,16 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B55" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C55" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D55" t="s">
-        <v>251</v>
+        <v>76</v>
       </c>
       <c r="E55" t="s">
         <v>14</v>
@@ -5063,13 +5051,13 @@
         <v>15</v>
       </c>
       <c r="G55" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="J55" t="s">
         <v>81</v>
@@ -5083,31 +5071,31 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="B56" t="s">
+        <v>249</v>
+      </c>
+      <c r="C56" t="s">
+        <v>250</v>
+      </c>
+      <c r="D56" t="s">
+        <v>251</v>
+      </c>
+      <c r="E56" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" t="s">
+        <v>236</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I56" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="B56" t="s">
-        <v>254</v>
-      </c>
-      <c r="C56" t="s">
-        <v>255</v>
-      </c>
-      <c r="D56" t="s">
-        <v>76</v>
-      </c>
-      <c r="E56" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" t="s">
-        <v>245</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="J56" t="s">
         <v>81</v>
@@ -5121,73 +5109,73 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="B57" t="s">
+        <v>255</v>
+      </c>
+      <c r="C57" t="s">
+        <v>256</v>
+      </c>
+      <c r="D57" t="s">
+        <v>114</v>
+      </c>
+      <c r="E57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" t="s">
         <v>257</v>
       </c>
-      <c r="B57" t="s">
+      <c r="H57" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C57" t="s">
-        <v>259</v>
-      </c>
-      <c r="D57" t="s">
-        <v>260</v>
-      </c>
-      <c r="E57" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" t="s">
-        <v>245</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>262</v>
-      </c>
+      <c r="I57" s="1"/>
       <c r="J57" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="K57" t="s">
         <v>64</v>
       </c>
       <c r="L57" t="s">
-        <v>65</v>
+        <v>259</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="B58" t="s">
+        <v>261</v>
+      </c>
+      <c r="C58" t="s">
+        <v>262</v>
+      </c>
+      <c r="D58" t="s">
+        <v>76</v>
+      </c>
+      <c r="E58" t="s">
         <v>263</v>
       </c>
-      <c r="B58" t="s">
+      <c r="F58" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" t="s">
         <v>264</v>
       </c>
-      <c r="C58" t="s">
+      <c r="H58" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D58" t="s">
-        <v>115</v>
-      </c>
-      <c r="E58" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="I58" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="J58" t="s">
+        <v>96</v>
+      </c>
+      <c r="K58" t="s">
         <v>267</v>
-      </c>
-      <c r="I58" s="1"/>
-      <c r="J58" t="s">
-        <v>160</v>
-      </c>
-      <c r="K58" t="s">
-        <v>64</v>
       </c>
       <c r="L58" t="s">
         <v>268</v>
@@ -5207,39 +5195,39 @@
         <v>76</v>
       </c>
       <c r="E59" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" t="s">
+        <v>264</v>
+      </c>
+      <c r="H59" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="F59" t="s">
-        <v>15</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="I59" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="J59" t="s">
         <v>96</v>
       </c>
       <c r="K59" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="L59" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B60" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C60" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D60" t="s">
         <v>76</v>
@@ -5251,33 +5239,33 @@
         <v>15</v>
       </c>
       <c r="G60" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="J60" t="s">
         <v>96</v>
       </c>
       <c r="K60" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="L60" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B61" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C61" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D61" t="s">
         <v>76</v>
@@ -5289,223 +5277,223 @@
         <v>15</v>
       </c>
       <c r="G61" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="J61" t="s">
         <v>96</v>
       </c>
       <c r="K61" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="L61" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B62" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C62" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D62" t="s">
         <v>76</v>
       </c>
-      <c r="E62" t="s">
-        <v>14</v>
+      <c r="E62" s="4" t="s">
+        <v>286</v>
       </c>
       <c r="F62" t="s">
         <v>15</v>
       </c>
-      <c r="G62" t="s">
-        <v>273</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>281</v>
+      <c r="G62" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>288</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J62" t="s">
         <v>96</v>
       </c>
       <c r="K62" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="L62" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="B63" t="s">
+        <v>291</v>
+      </c>
+      <c r="C63" t="s">
         <v>292</v>
-      </c>
-      <c r="B63" t="s">
-        <v>293</v>
-      </c>
-      <c r="C63" t="s">
-        <v>294</v>
       </c>
       <c r="D63" t="s">
         <v>76</v>
       </c>
-      <c r="E63" s="4" t="s">
-        <v>295</v>
+      <c r="E63" s="12" t="s">
+        <v>286</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
       </c>
-      <c r="G63" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>297</v>
+      <c r="G63" t="s">
+        <v>287</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="J63" t="s">
         <v>96</v>
       </c>
       <c r="K63" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="L63" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B64" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C64" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D64" t="s">
         <v>76</v>
       </c>
-      <c r="E64" s="12" t="s">
-        <v>295</v>
+      <c r="E64" t="s">
+        <v>14</v>
       </c>
       <c r="F64" t="s">
         <v>15</v>
       </c>
       <c r="G64" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="H64" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I64" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="J64" t="s">
         <v>96</v>
       </c>
       <c r="K64" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="L64" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B65" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C65" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D65" t="s">
         <v>76</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F65" t="s">
         <v>15</v>
       </c>
       <c r="G65" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="J65" t="s">
         <v>96</v>
       </c>
       <c r="K65" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="L65" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B66" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C66" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D66" t="s">
         <v>76</v>
       </c>
-      <c r="E66" s="12" t="s">
+      <c r="E66" t="s">
         <v>14</v>
       </c>
       <c r="F66" t="s">
         <v>15</v>
       </c>
       <c r="G66" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="J66" t="s">
         <v>96</v>
       </c>
       <c r="K66" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="L66" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B67" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C67" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D67" t="s">
         <v>76</v>
@@ -5517,33 +5505,33 @@
         <v>15</v>
       </c>
       <c r="G67" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="J67" t="s">
         <v>96</v>
       </c>
       <c r="K67" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="L67" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B68" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C68" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D68" t="s">
         <v>76</v>
@@ -5555,33 +5543,33 @@
         <v>15</v>
       </c>
       <c r="G68" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="J68" t="s">
         <v>96</v>
       </c>
       <c r="K68" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="L68" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B69" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C69" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D69" t="s">
         <v>76</v>
@@ -5593,353 +5581,351 @@
         <v>15</v>
       </c>
       <c r="G69" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="J69" t="s">
         <v>96</v>
       </c>
       <c r="K69" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="L69" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B70" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C70" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D70" t="s">
         <v>76</v>
       </c>
       <c r="E70" t="s">
-        <v>14</v>
+        <v>322</v>
       </c>
       <c r="F70" t="s">
         <v>15</v>
       </c>
       <c r="G70" t="s">
-        <v>273</v>
+        <v>323</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>281</v>
+        <v>324</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J70" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="K70" t="s">
-        <v>276</v>
+        <v>30</v>
       </c>
       <c r="L70" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="B71" t="s">
         <v>328</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>329</v>
-      </c>
-      <c r="C71" t="s">
-        <v>330</v>
       </c>
       <c r="D71" t="s">
         <v>76</v>
       </c>
       <c r="E71" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F71" t="s">
         <v>15</v>
       </c>
       <c r="G71" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="J71" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K71" t="s">
         <v>30</v>
       </c>
       <c r="L71" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B72" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C72" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D72" t="s">
         <v>76</v>
       </c>
       <c r="E72" t="s">
-        <v>331</v>
+        <v>46</v>
       </c>
       <c r="F72" t="s">
         <v>15</v>
       </c>
       <c r="G72" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J72" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K72" t="s">
         <v>30</v>
       </c>
       <c r="L72" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="B73" t="s">
+        <v>337</v>
+      </c>
+      <c r="C73" t="s">
+        <v>338</v>
+      </c>
+      <c r="D73" t="s">
+        <v>114</v>
+      </c>
+      <c r="E73" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="B73" t="s">
+      <c r="H73" s="3"/>
+      <c r="I73" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C73" t="s">
-        <v>341</v>
-      </c>
-      <c r="D73" t="s">
-        <v>76</v>
-      </c>
-      <c r="E73" t="s">
-        <v>46</v>
-      </c>
-      <c r="F73" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" t="s">
-        <v>342</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="J73" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="K73" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="L73" t="s">
-        <v>335</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="B74" t="s">
+        <v>342</v>
+      </c>
+      <c r="C74" t="s">
+        <v>343</v>
+      </c>
+      <c r="D74" t="s">
+        <v>114</v>
+      </c>
+      <c r="E74" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="I74" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B74" t="s">
-        <v>346</v>
-      </c>
-      <c r="C74" t="s">
-        <v>347</v>
-      </c>
-      <c r="D74" t="s">
-        <v>115</v>
-      </c>
-      <c r="E74" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="H74" s="3"/>
-      <c r="I74" s="1" t="s">
-        <v>349</v>
-      </c>
       <c r="J74" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="K74" t="s">
         <v>64</v>
       </c>
       <c r="L74" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="B75" t="s">
+        <v>347</v>
+      </c>
+      <c r="C75" t="s">
+        <v>348</v>
+      </c>
+      <c r="D75" t="s">
+        <v>349</v>
+      </c>
+      <c r="E75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="I75" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B75" t="s">
-        <v>351</v>
-      </c>
-      <c r="C75" t="s">
-        <v>352</v>
-      </c>
-      <c r="D75" t="s">
-        <v>115</v>
-      </c>
-      <c r="E75" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>354</v>
-      </c>
       <c r="J75" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K75" t="s">
         <v>64</v>
       </c>
       <c r="L75" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="I76" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="B76" t="s">
-        <v>356</v>
-      </c>
-      <c r="C76" t="s">
-        <v>357</v>
-      </c>
-      <c r="D76" t="s">
-        <v>358</v>
-      </c>
-      <c r="E76" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" t="s">
-        <v>15</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="J76" t="s">
-        <v>137</v>
+      <c r="J76" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="K76" t="s">
         <v>64</v>
       </c>
       <c r="L76" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>69</v>
+      <c r="A77" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="B77" t="s">
+        <v>357</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="D77" t="s">
+        <v>26</v>
       </c>
       <c r="E77" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="F77" t="s">
         <v>15</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="H77" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="I77" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="J77" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="J77" t="s">
         <v>63</v>
       </c>
       <c r="K77" t="s">
         <v>64</v>
       </c>
       <c r="L77" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B78" t="s">
-        <v>366</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>367</v>
+        <v>362</v>
+      </c>
+      <c r="C78" t="s">
+        <v>363</v>
       </c>
       <c r="D78" t="s">
-        <v>26</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>77</v>
+        <v>169</v>
+      </c>
+      <c r="E78" t="s">
+        <v>14</v>
       </c>
       <c r="F78" t="s">
         <v>15</v>
       </c>
-      <c r="G78" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>368</v>
-      </c>
+      <c r="G78" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H78" s="3"/>
       <c r="I78" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="J78" t="s">
         <v>63</v>
@@ -5948,21 +5934,21 @@
         <v>64</v>
       </c>
       <c r="L78" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B79" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C79" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D79" t="s">
-        <v>178</v>
+        <v>114</v>
       </c>
       <c r="E79" t="s">
         <v>14</v>
@@ -5971,11 +5957,11 @@
         <v>15</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="H79" s="3"/>
       <c r="I79" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="J79" t="s">
         <v>63</v>
@@ -5984,21 +5970,21 @@
         <v>64</v>
       </c>
       <c r="L79" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B80" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C80" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D80" t="s">
-        <v>115</v>
+        <v>221</v>
       </c>
       <c r="E80" t="s">
         <v>14</v>
@@ -6007,11 +5993,11 @@
         <v>15</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="H80" s="3"/>
       <c r="I80" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="J80" t="s">
         <v>63</v>
@@ -6020,21 +6006,21 @@
         <v>64</v>
       </c>
       <c r="L80" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B81" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C81" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D81" t="s">
-        <v>230</v>
+        <v>45</v>
       </c>
       <c r="E81" t="s">
         <v>14</v>
@@ -6043,34 +6029,36 @@
         <v>15</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="H81" s="3"/>
+        <v>133</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>376</v>
+      </c>
       <c r="I81" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="J81" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="K81" t="s">
         <v>64</v>
       </c>
       <c r="L81" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B82" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C82" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D82" t="s">
-        <v>45</v>
+        <v>381</v>
       </c>
       <c r="E82" t="s">
         <v>14</v>
@@ -6081,34 +6069,32 @@
       <c r="G82" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="H82" s="3" t="s">
-        <v>385</v>
-      </c>
+      <c r="H82" s="3"/>
       <c r="I82" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="J82" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="K82" t="s">
         <v>64</v>
       </c>
       <c r="L82" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B83" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C83" t="s">
-        <v>389</v>
-      </c>
-      <c r="D83" t="s">
-        <v>390</v>
+        <v>385</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="E83" t="s">
         <v>14</v>
@@ -6116,12 +6102,14 @@
       <c r="F83" t="s">
         <v>15</v>
       </c>
-      <c r="G83" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H83" s="3"/>
+      <c r="G83" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>344</v>
+      </c>
       <c r="I83" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="J83" t="s">
         <v>63</v>
@@ -6130,21 +6118,21 @@
         <v>64</v>
       </c>
       <c r="L83" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B84" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C84" t="s">
-        <v>394</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>69</v>
+        <v>389</v>
+      </c>
+      <c r="D84" t="s">
+        <v>76</v>
       </c>
       <c r="E84" t="s">
         <v>14</v>
@@ -6153,75 +6141,73 @@
         <v>15</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H84" s="5" t="s">
-        <v>353</v>
+        <v>142</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>390</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="J84" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="K84" t="s">
         <v>64</v>
       </c>
       <c r="L84" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="B85" t="s">
+        <v>393</v>
+      </c>
+      <c r="C85" t="s">
+        <v>394</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85" t="s">
+        <v>395</v>
+      </c>
+      <c r="H85" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B85" t="s">
+      <c r="I85" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C85" t="s">
-        <v>398</v>
-      </c>
-      <c r="D85" t="s">
-        <v>76</v>
-      </c>
-      <c r="E85" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" t="s">
-        <v>15</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>400</v>
-      </c>
       <c r="J85" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="K85" t="s">
         <v>64</v>
       </c>
       <c r="L85" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>401</v>
+        <v>479</v>
       </c>
       <c r="B86" t="s">
-        <v>402</v>
+        <v>480</v>
       </c>
       <c r="C86" t="s">
-        <v>403</v>
-      </c>
-      <c r="D86" t="s">
-        <v>69</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="D86" s="2"/>
       <c r="E86" t="s">
         <v>14</v>
       </c>
@@ -6229,33 +6215,25 @@
         <v>15</v>
       </c>
       <c r="G86" t="s">
-        <v>404</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>406</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H86" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="I86" s="1"/>
       <c r="J86" t="s">
-        <v>137</v>
-      </c>
-      <c r="K86" t="s">
-        <v>64</v>
-      </c>
-      <c r="L86" t="s">
-        <v>168</v>
+        <v>478</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="B87" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="C87" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s">
@@ -6268,22 +6246,22 @@
         <v>16</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="I87" s="1"/>
       <c r="J87" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B88" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C88" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s">
@@ -6296,22 +6274,22 @@
         <v>16</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="I88" s="1"/>
       <c r="J88" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
-        <v>490</v>
+        <v>398</v>
       </c>
       <c r="B89" t="s">
-        <v>491</v>
+        <v>399</v>
       </c>
       <c r="C89" t="s">
-        <v>485</v>
+        <v>400</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s">
@@ -6323,23 +6301,25 @@
       <c r="G89" t="s">
         <v>16</v>
       </c>
-      <c r="H89" s="10" t="s">
-        <v>486</v>
-      </c>
-      <c r="I89" s="1"/>
+      <c r="H89" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>401</v>
+      </c>
       <c r="J89" t="s">
-        <v>487</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
-        <v>407</v>
+        <v>439</v>
       </c>
       <c r="B90" t="s">
-        <v>408</v>
+        <v>440</v>
       </c>
       <c r="C90" t="s">
-        <v>409</v>
+        <v>441</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s">
@@ -6355,7 +6335,7 @@
         <v>22</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>410</v>
+        <v>442</v>
       </c>
       <c r="J90" t="s">
         <v>19</v>
@@ -6363,13 +6343,13 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B91" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C91" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s">
@@ -6385,7 +6365,7 @@
         <v>22</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="J91" t="s">
         <v>19</v>
@@ -6393,13 +6373,13 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B92" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C92" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s">
@@ -6415,7 +6395,7 @@
         <v>22</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="J92" t="s">
         <v>19</v>
@@ -6423,13 +6403,13 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B93" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C93" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s">
@@ -6445,7 +6425,7 @@
         <v>22</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="J93" t="s">
         <v>19</v>
@@ -6453,13 +6433,13 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B94" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C94" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s">
@@ -6475,7 +6455,7 @@
         <v>22</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="J94" t="s">
         <v>19</v>
@@ -6483,13 +6463,13 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B95" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C95" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s">
@@ -6505,7 +6485,7 @@
         <v>22</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="J95" t="s">
         <v>19</v>
@@ -6513,13 +6493,13 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B96" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C96" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s">
@@ -6535,7 +6515,7 @@
         <v>22</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="J96" t="s">
         <v>19</v>
@@ -6543,13 +6523,13 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B97" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C97" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s">
@@ -6565,7 +6545,7 @@
         <v>22</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>482</v>
+        <v>404</v>
       </c>
       <c r="J97" t="s">
         <v>19</v>
@@ -6573,13 +6553,13 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
-        <v>492</v>
+        <v>766</v>
       </c>
       <c r="B98" t="s">
-        <v>493</v>
+        <v>402</v>
       </c>
       <c r="C98" t="s">
-        <v>494</v>
+        <v>403</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s">
@@ -6595,7 +6575,7 @@
         <v>22</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="J98" t="s">
         <v>19</v>
@@ -6603,13 +6583,13 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
-        <v>775</v>
+        <v>405</v>
       </c>
       <c r="B99" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C99" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s">
@@ -6625,7 +6605,7 @@
         <v>22</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="J99" t="s">
         <v>19</v>
@@ -6633,13 +6613,13 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B100" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C100" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s">
@@ -6655,7 +6635,7 @@
         <v>22</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="J100" t="s">
         <v>19</v>
@@ -6663,13 +6643,13 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B101" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C101" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s">
@@ -6685,7 +6665,7 @@
         <v>22</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="J101" t="s">
         <v>19</v>
@@ -6693,13 +6673,13 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B102" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C102" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s">
@@ -6715,7 +6695,7 @@
         <v>22</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="J102" t="s">
         <v>19</v>
@@ -6723,13 +6703,13 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B103" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C103" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s">
@@ -6745,7 +6725,7 @@
         <v>22</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="J103" t="s">
         <v>19</v>
@@ -6753,13 +6733,13 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B104" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C104" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s">
@@ -6775,7 +6755,7 @@
         <v>22</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="J104" t="s">
         <v>19</v>
@@ -6783,13 +6763,13 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B105" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C105" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s">
@@ -6798,28 +6778,34 @@
       <c r="F105" t="s">
         <v>15</v>
       </c>
-      <c r="G105" t="s">
-        <v>16</v>
+      <c r="G105" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="J105" t="s">
         <v>19</v>
       </c>
+      <c r="K105" t="s">
+        <v>64</v>
+      </c>
+      <c r="L105" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B106" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C106" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s">
@@ -6828,34 +6814,28 @@
       <c r="F106" t="s">
         <v>15</v>
       </c>
-      <c r="G106" s="4" t="s">
-        <v>142</v>
+      <c r="G106" t="s">
+        <v>16</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="J106" t="s">
         <v>19</v>
       </c>
-      <c r="K106" t="s">
-        <v>64</v>
-      </c>
-      <c r="L106" t="s">
-        <v>154</v>
-      </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B107" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C107" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s">
@@ -6871,7 +6851,7 @@
         <v>22</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="J107" t="s">
         <v>19</v>
@@ -6879,13 +6859,13 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
+        <v>767</v>
+      </c>
+      <c r="B108" t="s">
+        <v>443</v>
+      </c>
+      <c r="C108" t="s">
         <v>444</v>
-      </c>
-      <c r="B108" t="s">
-        <v>445</v>
-      </c>
-      <c r="C108" t="s">
-        <v>446</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s">
@@ -6901,7 +6881,7 @@
         <v>22</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J108" t="s">
         <v>19</v>
@@ -6909,13 +6889,13 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
-        <v>776</v>
+        <v>446</v>
       </c>
       <c r="B109" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C109" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s">
@@ -6931,7 +6911,7 @@
         <v>22</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="J109" t="s">
         <v>19</v>
@@ -6939,15 +6919,17 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
       <c r="B110" t="s">
-        <v>456</v>
+        <v>487</v>
       </c>
       <c r="C110" t="s">
-        <v>457</v>
-      </c>
-      <c r="D110" s="2"/>
+        <v>488</v>
+      </c>
+      <c r="D110" t="s">
+        <v>26</v>
+      </c>
       <c r="E110" t="s">
         <v>14</v>
       </c>
@@ -6955,141 +6937,147 @@
         <v>15</v>
       </c>
       <c r="G110" t="s">
-        <v>16</v>
+        <v>489</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>22</v>
+        <v>490</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>458</v>
+        <v>491</v>
       </c>
       <c r="J110" t="s">
-        <v>19</v>
+        <v>151</v>
+      </c>
+      <c r="K110" t="s">
+        <v>30</v>
+      </c>
+      <c r="L110" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="B111" t="s">
+        <v>494</v>
+      </c>
+      <c r="C111" t="s">
         <v>495</v>
       </c>
-      <c r="B111" t="s">
+      <c r="D111" t="s">
+        <v>76</v>
+      </c>
+      <c r="E111" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111" t="s">
+        <v>15</v>
+      </c>
+      <c r="G111" t="s">
         <v>496</v>
       </c>
-      <c r="C111" t="s">
+      <c r="H111" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="D111" t="s">
-        <v>26</v>
-      </c>
-      <c r="E111" t="s">
-        <v>14</v>
-      </c>
-      <c r="F111" t="s">
-        <v>15</v>
-      </c>
-      <c r="G111" t="s">
+      <c r="I111" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="H111" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>500</v>
-      </c>
       <c r="J111" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="K111" t="s">
         <v>30</v>
       </c>
       <c r="L111" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="B112" t="s">
+        <v>500</v>
+      </c>
+      <c r="C112" t="s">
+        <v>501</v>
+      </c>
+      <c r="D112" t="s">
+        <v>26</v>
+      </c>
+      <c r="E112" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112" t="s">
+        <v>15</v>
+      </c>
+      <c r="G112" t="s">
         <v>502</v>
       </c>
-      <c r="B112" t="s">
+      <c r="H112" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C112" t="s">
+      <c r="I112" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="D112" t="s">
-        <v>76</v>
-      </c>
-      <c r="E112" t="s">
-        <v>14</v>
-      </c>
-      <c r="F112" t="s">
-        <v>15</v>
-      </c>
-      <c r="G112" t="s">
-        <v>505</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>507</v>
-      </c>
       <c r="J112" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="K112" t="s">
         <v>30</v>
       </c>
       <c r="L112" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="B113" t="s">
+        <v>506</v>
+      </c>
+      <c r="C113" t="s">
+        <v>507</v>
+      </c>
+      <c r="D113" t="s">
+        <v>76</v>
+      </c>
+      <c r="E113" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113" t="s">
+        <v>15</v>
+      </c>
+      <c r="G113" t="s">
+        <v>502</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="I113" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="B113" t="s">
-        <v>509</v>
-      </c>
-      <c r="C113" t="s">
-        <v>510</v>
-      </c>
-      <c r="D113" t="s">
-        <v>26</v>
-      </c>
-      <c r="E113" t="s">
-        <v>14</v>
-      </c>
-      <c r="F113" t="s">
-        <v>15</v>
-      </c>
-      <c r="G113" t="s">
-        <v>511</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>513</v>
-      </c>
       <c r="J113" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="K113" t="s">
         <v>30</v>
       </c>
       <c r="L113" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B114" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C114" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="D114" t="s">
         <v>76</v>
@@ -7101,33 +7089,33 @@
         <v>15</v>
       </c>
       <c r="G114" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="J114" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="K114" t="s">
         <v>30</v>
       </c>
       <c r="L114" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B115" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="C115" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="D115" t="s">
         <v>76</v>
@@ -7139,33 +7127,33 @@
         <v>15</v>
       </c>
       <c r="G115" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="J115" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="K115" t="s">
         <v>30</v>
       </c>
       <c r="L115" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B116" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C116" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="D116" t="s">
         <v>76</v>
@@ -7177,33 +7165,33 @@
         <v>15</v>
       </c>
       <c r="G116" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="J116" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="K116" t="s">
         <v>30</v>
       </c>
       <c r="L116" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B117" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C117" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D117" t="s">
         <v>76</v>
@@ -7215,33 +7203,33 @@
         <v>15</v>
       </c>
       <c r="G117" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="J117" t="s">
-        <v>160</v>
+        <v>521</v>
+      </c>
+      <c r="J117" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="K117" t="s">
         <v>30</v>
       </c>
       <c r="L117" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B118" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C118" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D118" t="s">
         <v>76</v>
@@ -7253,83 +7241,83 @@
         <v>15</v>
       </c>
       <c r="G118" t="s">
-        <v>511</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="I118" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="J118" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="K118" t="s">
-        <v>30</v>
-      </c>
-      <c r="L118" t="s">
-        <v>501</v>
+        <v>525</v>
+      </c>
+      <c r="H118" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="I118" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="J118" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="B119" t="s">
+        <v>530</v>
+      </c>
+      <c r="C119" t="s">
         <v>531</v>
       </c>
-      <c r="B119" t="s">
+      <c r="D119" t="s">
+        <v>140</v>
+      </c>
+      <c r="E119" t="s">
+        <v>141</v>
+      </c>
+      <c r="F119" t="s">
+        <v>15</v>
+      </c>
+      <c r="G119" t="s">
+        <v>142</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I119" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="C119" t="s">
-        <v>533</v>
-      </c>
-      <c r="D119" t="s">
-        <v>76</v>
-      </c>
-      <c r="E119" t="s">
-        <v>14</v>
-      </c>
-      <c r="F119" t="s">
-        <v>15</v>
-      </c>
-      <c r="G119" t="s">
-        <v>534</v>
-      </c>
-      <c r="H119" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="I119" s="10" t="s">
-        <v>536</v>
-      </c>
       <c r="J119" t="s">
-        <v>537</v>
+        <v>19</v>
+      </c>
+      <c r="K119" t="s">
+        <v>64</v>
+      </c>
+      <c r="L119" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B120" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C120" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D120" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E120" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F120" t="s">
         <v>15</v>
       </c>
       <c r="G120" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="J120" t="s">
         <v>19</v>
@@ -7338,36 +7326,36 @@
         <v>64</v>
       </c>
       <c r="L120" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B121" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C121" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D121" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E121" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F121" t="s">
         <v>15</v>
       </c>
       <c r="G121" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="J121" t="s">
         <v>19</v>
@@ -7376,36 +7364,36 @@
         <v>64</v>
       </c>
       <c r="L121" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B122" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C122" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D122" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E122" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F122" t="s">
         <v>15</v>
       </c>
       <c r="G122" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="J122" t="s">
         <v>19</v>
@@ -7414,36 +7402,36 @@
         <v>64</v>
       </c>
       <c r="L122" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B123" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C123" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D123" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E123" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F123" t="s">
         <v>15</v>
       </c>
       <c r="G123" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="J123" t="s">
         <v>19</v>
@@ -7452,36 +7440,36 @@
         <v>64</v>
       </c>
       <c r="L123" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B124" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C124" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D124" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E124" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F124" t="s">
         <v>15</v>
       </c>
       <c r="G124" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="J124" t="s">
         <v>19</v>
@@ -7490,59 +7478,57 @@
         <v>64</v>
       </c>
       <c r="L124" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B125" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C125" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="D125" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="E125" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="F125" t="s">
         <v>15</v>
       </c>
       <c r="G125" t="s">
+        <v>257</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="I125" s="1"/>
+      <c r="J125" t="s">
         <v>151</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="J125" t="s">
-        <v>19</v>
       </c>
       <c r="K125" t="s">
         <v>64</v>
       </c>
       <c r="L125" t="s">
-        <v>154</v>
+        <v>259</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B126" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C126" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D126" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E126" t="s">
         <v>14</v>
@@ -7551,132 +7537,132 @@
         <v>15</v>
       </c>
       <c r="G126" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="I126" s="1"/>
       <c r="J126" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="K126" t="s">
         <v>64</v>
       </c>
       <c r="L126" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="B127" t="s">
-        <v>567</v>
-      </c>
-      <c r="C127" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="D127" t="s">
-        <v>115</v>
+        <v>562</v>
       </c>
       <c r="E127" t="s">
-        <v>14</v>
+        <v>563</v>
       </c>
       <c r="F127" t="s">
         <v>15</v>
       </c>
       <c r="G127" t="s">
-        <v>266</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>565</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="H127" s="10"/>
       <c r="I127" s="1"/>
       <c r="J127" t="s">
-        <v>160</v>
+        <v>478</v>
       </c>
       <c r="K127" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="L127" t="s">
-        <v>268</v>
+        <v>565</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B128" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D128" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="E128" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="F128" t="s">
         <v>15</v>
       </c>
       <c r="G128" t="s">
-        <v>573</v>
-      </c>
-      <c r="H128" s="10"/>
+        <v>564</v>
+      </c>
+      <c r="H128" s="1"/>
       <c r="I128" s="1"/>
       <c r="J128" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="K128" t="s">
         <v>30</v>
       </c>
       <c r="L128" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="B129" t="s">
-        <v>576</v>
+        <v>569</v>
+      </c>
+      <c r="C129" t="s">
+        <v>570</v>
       </c>
       <c r="D129" t="s">
-        <v>571</v>
+        <v>114</v>
       </c>
       <c r="E129" t="s">
-        <v>572</v>
+        <v>14</v>
       </c>
       <c r="F129" t="s">
         <v>15</v>
       </c>
       <c r="G129" t="s">
-        <v>573</v>
-      </c>
-      <c r="H129" s="1"/>
+        <v>257</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>556</v>
+      </c>
       <c r="I129" s="1"/>
       <c r="J129" t="s">
-        <v>487</v>
+        <v>151</v>
       </c>
       <c r="K129" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="L129" t="s">
-        <v>574</v>
+        <v>259</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="B130" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="C130" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="D130" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E130" t="s">
         <v>14</v>
@@ -7685,34 +7671,34 @@
         <v>15</v>
       </c>
       <c r="G130" t="s">
-        <v>266</v>
+        <v>574</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="I130" s="1"/>
       <c r="J130" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="K130" t="s">
         <v>64</v>
       </c>
       <c r="L130" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B131" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C131" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D131" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="E131" t="s">
         <v>14</v>
@@ -7721,34 +7707,34 @@
         <v>15</v>
       </c>
       <c r="G131" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="I131" s="1"/>
       <c r="J131" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="K131" t="s">
         <v>64</v>
       </c>
       <c r="L131" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="B132" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C132" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="D132" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="E132" t="s">
         <v>14</v>
@@ -7757,34 +7743,34 @@
         <v>15</v>
       </c>
       <c r="G132" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="I132" s="1"/>
       <c r="J132" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="K132" t="s">
         <v>64</v>
       </c>
       <c r="L132" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B133" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C133" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D133" t="s">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="E133" t="s">
         <v>14</v>
@@ -7793,34 +7779,36 @@
         <v>15</v>
       </c>
       <c r="G133" t="s">
-        <v>583</v>
+        <v>502</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="I133" s="1"/>
-      <c r="J133" t="s">
-        <v>160</v>
+        <v>503</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="J133" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="K133" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="L133" t="s">
-        <v>268</v>
+        <v>492</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="B134" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C134" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="D134" t="s">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="E134" t="s">
         <v>14</v>
@@ -7829,33 +7817,33 @@
         <v>15</v>
       </c>
       <c r="G134" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="J134" s="6" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="K134" t="s">
         <v>30</v>
       </c>
       <c r="L134" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="B135" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="C135" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="D135" t="s">
         <v>76</v>
@@ -7867,36 +7855,36 @@
         <v>15</v>
       </c>
       <c r="G135" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="K135" t="s">
         <v>30</v>
       </c>
       <c r="L135" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="B136" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C136" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="D136" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="E136" t="s">
         <v>14</v>
@@ -7905,36 +7893,36 @@
         <v>15</v>
       </c>
       <c r="G136" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="J136" s="6" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="K136" t="s">
         <v>30</v>
       </c>
       <c r="L136" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="B137" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="C137" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="D137" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E137" t="s">
         <v>14</v>
@@ -7943,36 +7931,36 @@
         <v>15</v>
       </c>
       <c r="G137" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="J137" s="6" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="K137" t="s">
         <v>30</v>
       </c>
       <c r="L137" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="B138" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="C138" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="D138" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E138" t="s">
         <v>14</v>
@@ -7981,36 +7969,36 @@
         <v>15</v>
       </c>
       <c r="G138" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="K138" t="s">
         <v>30</v>
       </c>
       <c r="L138" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="B139" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="C139" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="D139" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E139" t="s">
         <v>14</v>
@@ -8019,36 +8007,36 @@
         <v>15</v>
       </c>
       <c r="G139" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="J139" s="6" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="K139" t="s">
         <v>30</v>
       </c>
       <c r="L139" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="B140" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="C140" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="D140" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E140" t="s">
         <v>14</v>
@@ -8057,36 +8045,36 @@
         <v>15</v>
       </c>
       <c r="G140" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="J140" s="6" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="K140" t="s">
         <v>30</v>
       </c>
       <c r="L140" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B141" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="C141" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="D141" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E141" t="s">
         <v>14</v>
@@ -8095,74 +8083,74 @@
         <v>15</v>
       </c>
       <c r="G141" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="J141" s="6" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="K141" t="s">
         <v>30</v>
       </c>
       <c r="L141" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="B142" t="s">
+        <v>610</v>
+      </c>
+      <c r="C142" t="s">
+        <v>611</v>
+      </c>
+      <c r="D142" t="s">
+        <v>173</v>
+      </c>
+      <c r="E142" t="s">
+        <v>77</v>
+      </c>
+      <c r="F142" t="s">
+        <v>15</v>
+      </c>
+      <c r="G142" t="s">
+        <v>612</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="J142" t="s">
+        <v>19</v>
+      </c>
+      <c r="K142" t="s">
         <v>615</v>
       </c>
-      <c r="B142" t="s">
+      <c r="L142" t="s">
         <v>616</v>
-      </c>
-      <c r="C142" t="s">
-        <v>617</v>
-      </c>
-      <c r="D142" t="s">
-        <v>149</v>
-      </c>
-      <c r="E142" t="s">
-        <v>14</v>
-      </c>
-      <c r="F142" t="s">
-        <v>15</v>
-      </c>
-      <c r="G142" t="s">
-        <v>511</v>
-      </c>
-      <c r="H142" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="I142" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="J142" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="K142" t="s">
-        <v>30</v>
-      </c>
-      <c r="L142" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="B143" t="s">
         <v>618</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
         <v>619</v>
       </c>
-      <c r="C143" t="s">
-        <v>620</v>
-      </c>
       <c r="D143" t="s">
-        <v>182</v>
+        <v>562</v>
       </c>
       <c r="E143" t="s">
         <v>77</v>
@@ -8171,36 +8159,36 @@
         <v>15</v>
       </c>
       <c r="G143" t="s">
+        <v>612</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="I143" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="I143" s="1" t="s">
-        <v>623</v>
       </c>
       <c r="J143" t="s">
         <v>19</v>
       </c>
       <c r="K143" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="L143" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B144" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C144" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D144" t="s">
-        <v>571</v>
+        <v>625</v>
       </c>
       <c r="E144" t="s">
         <v>77</v>
@@ -8209,378 +8197,378 @@
         <v>15</v>
       </c>
       <c r="G144" t="s">
-        <v>621</v>
+        <v>564</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="J144" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="K144" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="L144" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
+        <v>628</v>
+      </c>
+      <c r="B145" t="s">
+        <v>629</v>
+      </c>
+      <c r="C145" t="s">
+        <v>630</v>
+      </c>
+      <c r="D145" t="s">
+        <v>562</v>
+      </c>
+      <c r="E145" t="s">
+        <v>322</v>
+      </c>
+      <c r="F145" t="s">
+        <v>15</v>
+      </c>
+      <c r="G145" t="s">
         <v>631</v>
       </c>
-      <c r="B145" t="s">
+      <c r="H145" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="C145" t="s">
+      <c r="I145" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="D145" t="s">
-        <v>634</v>
-      </c>
-      <c r="E145" t="s">
-        <v>77</v>
-      </c>
-      <c r="F145" t="s">
-        <v>15</v>
-      </c>
-      <c r="G145" t="s">
-        <v>573</v>
-      </c>
-      <c r="H145" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="I145" s="1" t="s">
-        <v>636</v>
-      </c>
       <c r="J145" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="K145" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="L145" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
+        <v>634</v>
+      </c>
+      <c r="B146" t="s">
+        <v>635</v>
+      </c>
+      <c r="C146" t="s">
+        <v>636</v>
+      </c>
+      <c r="D146" t="s">
+        <v>173</v>
+      </c>
+      <c r="E146" t="s">
+        <v>46</v>
+      </c>
+      <c r="F146" t="s">
+        <v>15</v>
+      </c>
+      <c r="G146" t="s">
         <v>637</v>
       </c>
-      <c r="B146" t="s">
+      <c r="H146" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="C146" t="s">
+      <c r="I146" s="1" t="s">
         <v>639</v>
-      </c>
-      <c r="D146" t="s">
-        <v>571</v>
-      </c>
-      <c r="E146" t="s">
-        <v>331</v>
-      </c>
-      <c r="F146" t="s">
-        <v>15</v>
-      </c>
-      <c r="G146" t="s">
-        <v>640</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="I146" s="1" t="s">
-        <v>642</v>
       </c>
       <c r="J146" t="s">
         <v>19</v>
       </c>
       <c r="K146" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="L146" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
+        <v>640</v>
+      </c>
+      <c r="B147" t="s">
+        <v>641</v>
+      </c>
+      <c r="C147" t="s">
+        <v>642</v>
+      </c>
+      <c r="D147" t="s">
+        <v>173</v>
+      </c>
+      <c r="E147" t="s">
+        <v>322</v>
+      </c>
+      <c r="F147" t="s">
+        <v>15</v>
+      </c>
+      <c r="G147" t="s">
+        <v>323</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="I147" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="B147" t="s">
-        <v>644</v>
-      </c>
-      <c r="C147" t="s">
-        <v>645</v>
-      </c>
-      <c r="D147" t="s">
-        <v>182</v>
-      </c>
-      <c r="E147" t="s">
-        <v>46</v>
-      </c>
-      <c r="F147" t="s">
-        <v>15</v>
-      </c>
-      <c r="G147" t="s">
-        <v>646</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="I147" s="1" t="s">
-        <v>648</v>
-      </c>
       <c r="J147" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="K147" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="L147" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="B148" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="C148" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="D148" t="s">
-        <v>182</v>
+        <v>647</v>
       </c>
       <c r="E148" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F148" t="s">
         <v>15</v>
       </c>
       <c r="G148" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="J148" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K148" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="L148" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B149" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C149" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="D149" t="s">
-        <v>656</v>
+        <v>562</v>
       </c>
       <c r="E149" t="s">
-        <v>331</v>
+        <v>46</v>
       </c>
       <c r="F149" t="s">
         <v>15</v>
       </c>
       <c r="G149" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="J149" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K149" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="L149" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="13" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="B150" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="C150" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D150" t="s">
-        <v>571</v>
+        <v>173</v>
       </c>
       <c r="E150" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F150" t="s">
         <v>15</v>
       </c>
       <c r="G150" t="s">
-        <v>342</v>
+        <v>637</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>343</v>
+        <v>656</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="J150" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K150" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="L150" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="B151" t="s">
+        <v>659</v>
+      </c>
+      <c r="C151" t="s">
+        <v>660</v>
+      </c>
+      <c r="D151" t="s">
+        <v>173</v>
+      </c>
+      <c r="E151" t="s">
+        <v>14</v>
+      </c>
+      <c r="F151" t="s">
+        <v>15</v>
+      </c>
+      <c r="G151" t="s">
+        <v>264</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="J151" t="s">
+        <v>96</v>
+      </c>
+      <c r="K151" t="s">
+        <v>615</v>
+      </c>
+      <c r="L151" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" s="13">
+        <v>27.11</v>
+      </c>
+      <c r="B152" t="s">
         <v>662</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C152" t="s">
         <v>663</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D152" t="s">
         <v>664</v>
       </c>
-      <c r="D151" t="s">
-        <v>182</v>
-      </c>
-      <c r="E151" t="s">
+      <c r="E152" t="s">
         <v>77</v>
       </c>
-      <c r="F151" t="s">
-        <v>15</v>
-      </c>
-      <c r="G151" t="s">
-        <v>646</v>
-      </c>
-      <c r="H151" s="1" t="s">
+      <c r="F152" t="s">
+        <v>15</v>
+      </c>
+      <c r="G152" t="s">
         <v>665</v>
       </c>
-      <c r="I151" s="1" t="s">
+      <c r="H152" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="J151" t="s">
-        <v>137</v>
-      </c>
-      <c r="K151" t="s">
-        <v>624</v>
-      </c>
-      <c r="L151" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="13" t="s">
+      <c r="I152" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="B152" t="s">
-        <v>668</v>
-      </c>
-      <c r="C152" t="s">
-        <v>669</v>
-      </c>
-      <c r="D152" t="s">
-        <v>182</v>
-      </c>
-      <c r="E152" t="s">
-        <v>14</v>
-      </c>
-      <c r="F152" t="s">
-        <v>15</v>
-      </c>
-      <c r="G152" t="s">
-        <v>273</v>
-      </c>
-      <c r="H152" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="I152" s="1" t="s">
-        <v>670</v>
-      </c>
       <c r="J152" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="K152" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="L152" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="13">
-        <v>27.11</v>
+        <v>27.12</v>
       </c>
       <c r="B153" t="s">
+        <v>668</v>
+      </c>
+      <c r="C153" t="s">
+        <v>669</v>
+      </c>
+      <c r="D153" t="s">
+        <v>173</v>
+      </c>
+      <c r="E153" t="s">
+        <v>14</v>
+      </c>
+      <c r="F153" t="s">
+        <v>15</v>
+      </c>
+      <c r="G153" t="s">
+        <v>665</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="I153" s="1" t="s">
         <v>671</v>
-      </c>
-      <c r="C153" t="s">
-        <v>672</v>
-      </c>
-      <c r="D153" t="s">
-        <v>673</v>
-      </c>
-      <c r="E153" t="s">
-        <v>77</v>
-      </c>
-      <c r="F153" t="s">
-        <v>15</v>
-      </c>
-      <c r="G153" t="s">
-        <v>674</v>
-      </c>
-      <c r="H153" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="I153" s="1" t="s">
-        <v>676</v>
       </c>
       <c r="J153" t="s">
         <v>81</v>
       </c>
       <c r="K153" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="L153" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="13">
-        <v>27.12</v>
+        <v>27.13</v>
       </c>
       <c r="B154" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="C154" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="D154" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E154" t="s">
         <v>14</v>
@@ -8589,36 +8577,36 @@
         <v>15</v>
       </c>
       <c r="G154" t="s">
+        <v>665</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="I154" s="1" t="s">
         <v>674</v>
-      </c>
-      <c r="H154" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="I154" s="1" t="s">
-        <v>680</v>
       </c>
       <c r="J154" t="s">
         <v>81</v>
       </c>
       <c r="K154" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="L154" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="13">
-        <v>27.13</v>
+        <v>27.14</v>
       </c>
       <c r="B155" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="C155" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="D155" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E155" t="s">
         <v>14</v>
@@ -8627,74 +8615,74 @@
         <v>15</v>
       </c>
       <c r="G155" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="J155" t="s">
         <v>81</v>
       </c>
       <c r="K155" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="L155" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="13">
-        <v>27.14</v>
+        <v>27.15</v>
       </c>
       <c r="B156" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="C156" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="D156" t="s">
-        <v>182</v>
+        <v>562</v>
       </c>
       <c r="E156" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F156" t="s">
         <v>15</v>
       </c>
       <c r="G156" t="s">
-        <v>674</v>
+        <v>333</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>679</v>
+        <v>334</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="J156" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="K156" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="L156" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="13">
-        <v>27.15</v>
+        <v>27.16</v>
       </c>
       <c r="B157" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="C157" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="D157" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="E157" t="s">
         <v>46</v>
@@ -8703,74 +8691,74 @@
         <v>15</v>
       </c>
       <c r="G157" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="J157" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K157" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="L157" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A158" s="13">
-        <v>27.16</v>
+      <c r="A158" s="13" t="s">
+        <v>684</v>
       </c>
       <c r="B158" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="C158" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="D158" t="s">
-        <v>571</v>
+        <v>173</v>
       </c>
       <c r="E158" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="F158" t="s">
         <v>15</v>
       </c>
       <c r="G158" t="s">
-        <v>342</v>
+        <v>637</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>343</v>
+        <v>656</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="J158" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K158" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="L158" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="B159" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="C159" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="D159" t="s">
-        <v>182</v>
+        <v>647</v>
       </c>
       <c r="E159" t="s">
         <v>77</v>
@@ -8779,36 +8767,36 @@
         <v>15</v>
       </c>
       <c r="G159" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="J159" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K159" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="L159" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="B160" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="C160" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="D160" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="E160" t="s">
         <v>77</v>
@@ -8817,36 +8805,36 @@
         <v>15</v>
       </c>
       <c r="G160" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="J160" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K160" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="L160" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="B161" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="C161" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="D161" t="s">
-        <v>656</v>
+        <v>173</v>
       </c>
       <c r="E161" t="s">
         <v>77</v>
@@ -8855,36 +8843,36 @@
         <v>15</v>
       </c>
       <c r="G161" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="J161" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K161" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="L161" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="13" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="B162" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="C162" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="D162" t="s">
-        <v>182</v>
+        <v>647</v>
       </c>
       <c r="E162" t="s">
         <v>77</v>
@@ -8893,36 +8881,36 @@
         <v>15</v>
       </c>
       <c r="G162" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="J162" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K162" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="L162" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="13" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B163" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="C163" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="D163" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="E163" t="s">
         <v>77</v>
@@ -8931,36 +8919,36 @@
         <v>15</v>
       </c>
       <c r="G163" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="J163" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K163" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="L163" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="13" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="B164" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="C164" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="D164" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="E164" t="s">
         <v>77</v>
@@ -8969,36 +8957,36 @@
         <v>15</v>
       </c>
       <c r="G164" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="J164" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K164" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="L164" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="13" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="B165" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="C165" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="D165" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="E165" t="s">
         <v>77</v>
@@ -9007,36 +8995,36 @@
         <v>15</v>
       </c>
       <c r="G165" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="J165" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K165" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="L165" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="13" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B166" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="C166" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="D166" t="s">
-        <v>656</v>
+        <v>140</v>
       </c>
       <c r="E166" t="s">
         <v>77</v>
@@ -9045,60 +9033,60 @@
         <v>15</v>
       </c>
       <c r="G166" t="s">
-        <v>646</v>
+        <v>719</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>665</v>
+        <v>720</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="J166" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="K166" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="L166" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="13" t="s">
+        <v>722</v>
+      </c>
+      <c r="B167" t="s">
+        <v>723</v>
+      </c>
+      <c r="C167" t="s">
+        <v>724</v>
+      </c>
+      <c r="D167" t="s">
+        <v>76</v>
+      </c>
+      <c r="E167" t="s">
+        <v>14</v>
+      </c>
+      <c r="F167" t="s">
+        <v>15</v>
+      </c>
+      <c r="G167" t="s">
         <v>725</v>
       </c>
-      <c r="B167" t="s">
+      <c r="H167" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="C167" t="s">
+      <c r="I167" s="10" t="s">
         <v>727</v>
       </c>
-      <c r="D167" t="s">
-        <v>149</v>
-      </c>
-      <c r="E167" t="s">
-        <v>77</v>
-      </c>
-      <c r="F167" t="s">
-        <v>15</v>
-      </c>
-      <c r="G167" t="s">
+      <c r="J167" t="s">
         <v>728</v>
       </c>
-      <c r="H167" s="1" t="s">
+      <c r="K167" t="s">
         <v>729</v>
       </c>
-      <c r="I167" s="1" t="s">
+      <c r="L167" t="s">
         <v>730</v>
-      </c>
-      <c r="J167" t="s">
-        <v>81</v>
-      </c>
-      <c r="K167" t="s">
-        <v>624</v>
-      </c>
-      <c r="L167" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
@@ -9121,33 +9109,33 @@
         <v>15</v>
       </c>
       <c r="G168" t="s">
+        <v>395</v>
+      </c>
+      <c r="H168" s="10" t="s">
         <v>734</v>
       </c>
-      <c r="H168" s="10" t="s">
+      <c r="I168" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="I168" s="10" t="s">
+      <c r="J168" t="s">
+        <v>728</v>
+      </c>
+      <c r="K168" t="s">
+        <v>729</v>
+      </c>
+      <c r="L168" t="s">
         <v>736</v>
-      </c>
-      <c r="J168" t="s">
-        <v>737</v>
-      </c>
-      <c r="K168" t="s">
-        <v>738</v>
-      </c>
-      <c r="L168" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="13" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B169" t="s">
-        <v>741</v>
-      </c>
-      <c r="C169" t="s">
-        <v>742</v>
+        <v>738</v>
+      </c>
+      <c r="C169" s="16" t="s">
+        <v>739</v>
       </c>
       <c r="D169" t="s">
         <v>76</v>
@@ -9159,76 +9147,76 @@
         <v>15</v>
       </c>
       <c r="G169" t="s">
-        <v>404</v>
+        <v>725</v>
       </c>
       <c r="H169" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="I169" s="10" t="s">
+        <v>740</v>
+      </c>
+      <c r="J169" t="s">
+        <v>728</v>
+      </c>
+      <c r="K169" t="s">
+        <v>729</v>
+      </c>
+      <c r="L169" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" s="13"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" s="13" t="s">
+        <v>741</v>
+      </c>
+      <c r="B171" t="s">
+        <v>746</v>
+      </c>
+      <c r="C171" t="s">
+        <v>744</v>
+      </c>
+      <c r="D171" t="s">
+        <v>76</v>
+      </c>
+      <c r="E171" t="s">
+        <v>14</v>
+      </c>
+      <c r="F171" t="s">
+        <v>15</v>
+      </c>
+      <c r="G171" t="s">
+        <v>489</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I171" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="I169" s="10" t="s">
-        <v>744</v>
-      </c>
-      <c r="J169" t="s">
-        <v>737</v>
-      </c>
-      <c r="K169" t="s">
-        <v>738</v>
-      </c>
-      <c r="L169" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A170" s="13" t="s">
-        <v>746</v>
-      </c>
-      <c r="B170" t="s">
-        <v>747</v>
-      </c>
-      <c r="C170" s="16" t="s">
-        <v>748</v>
-      </c>
-      <c r="D170" t="s">
-        <v>76</v>
-      </c>
-      <c r="E170" t="s">
-        <v>14</v>
-      </c>
-      <c r="F170" t="s">
-        <v>15</v>
-      </c>
-      <c r="G170" t="s">
-        <v>734</v>
-      </c>
-      <c r="H170" s="10" t="s">
-        <v>735</v>
-      </c>
-      <c r="I170" s="10" t="s">
-        <v>749</v>
-      </c>
-      <c r="J170" t="s">
-        <v>737</v>
-      </c>
-      <c r="K170" t="s">
-        <v>738</v>
-      </c>
-      <c r="L170" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A171" s="13"/>
-      <c r="H171" s="1"/>
-      <c r="I171" s="1"/>
+      <c r="J171" t="s">
+        <v>151</v>
+      </c>
+      <c r="K171" t="s">
+        <v>30</v>
+      </c>
+      <c r="L171" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="13" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="B172" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="C172" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D172" t="s">
         <v>76</v>
@@ -9240,33 +9228,33 @@
         <v>15</v>
       </c>
       <c r="G172" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="J172" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="K172" t="s">
         <v>30</v>
       </c>
       <c r="L172" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="13" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B173" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="C173" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="D173" t="s">
         <v>76</v>
@@ -9278,36 +9266,36 @@
         <v>15</v>
       </c>
       <c r="G173" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="J173" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="K173" t="s">
         <v>30</v>
       </c>
       <c r="L173" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="13" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="B174" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="C174" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="D174" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="E174" t="s">
         <v>14</v>
@@ -9316,22 +9304,22 @@
         <v>15</v>
       </c>
       <c r="G174" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="J174" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="K174" t="s">
         <v>30</v>
       </c>
       <c r="L174" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
@@ -9339,13 +9327,13 @@
         <v>760</v>
       </c>
       <c r="B175" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="C175" t="s">
         <v>762</v>
       </c>
       <c r="D175" t="s">
-        <v>26</v>
+        <v>562</v>
       </c>
       <c r="E175" t="s">
         <v>14</v>
@@ -9354,36 +9342,36 @@
         <v>15</v>
       </c>
       <c r="G175" t="s">
-        <v>498</v>
+        <v>16</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>499</v>
+        <v>758</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="J175" t="s">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="K175" t="s">
         <v>30</v>
       </c>
       <c r="L175" t="s">
-        <v>501</v>
+        <v>759</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="13" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="B176" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="C176" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="D176" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="E176" t="s">
         <v>14</v>
@@ -9395,10 +9383,10 @@
         <v>16</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="J176" t="s">
         <v>19</v>
@@ -9407,110 +9395,72 @@
         <v>30</v>
       </c>
       <c r="L176" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A177" s="13" t="s">
-        <v>770</v>
-      </c>
-      <c r="B177" t="s">
-        <v>766</v>
-      </c>
-      <c r="C177" t="s">
-        <v>772</v>
-      </c>
-      <c r="D177" t="s">
-        <v>571</v>
-      </c>
-      <c r="E177" t="s">
-        <v>14</v>
-      </c>
-      <c r="F177" t="s">
-        <v>15</v>
-      </c>
-      <c r="G177" t="s">
-        <v>16</v>
-      </c>
-      <c r="H177" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="I177" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="J177" t="s">
-        <v>19</v>
-      </c>
-      <c r="K177" t="s">
-        <v>30</v>
-      </c>
-      <c r="L177" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H59" r:id="rId1" location="datosabiertos " xr:uid="{5911B0A5-0C21-4814-BAF8-15335BA8C082}"/>
-    <hyperlink ref="I59" r:id="rId2" xr:uid="{C9E6B6EE-6E87-4957-B349-88CD50EABA12}"/>
-    <hyperlink ref="I74" r:id="rId3" xr:uid="{C94E5315-A85E-4A74-877B-9DEC863F6E66}"/>
-    <hyperlink ref="I79" r:id="rId4" xr:uid="{328450BD-3888-4523-BEEB-2C37E16B29C2}"/>
+    <hyperlink ref="H58" r:id="rId1" location="datosabiertos " xr:uid="{5911B0A5-0C21-4814-BAF8-15335BA8C082}"/>
+    <hyperlink ref="I58" r:id="rId2" xr:uid="{C9E6B6EE-6E87-4957-B349-88CD50EABA12}"/>
+    <hyperlink ref="I73" r:id="rId3" xr:uid="{C94E5315-A85E-4A74-877B-9DEC863F6E66}"/>
+    <hyperlink ref="I78" r:id="rId4" xr:uid="{328450BD-3888-4523-BEEB-2C37E16B29C2}"/>
     <hyperlink ref="I18" r:id="rId5" xr:uid="{4479E641-936D-4E07-AD89-A70226BE6C64}"/>
-    <hyperlink ref="I80" r:id="rId6" xr:uid="{9453A25A-ED22-47AD-9DA7-1EEEE458E0A6}"/>
-    <hyperlink ref="I81" r:id="rId7" xr:uid="{AC4861FE-44F3-453C-B9FB-C3BAE0D83FD7}"/>
-    <hyperlink ref="I83" r:id="rId8" xr:uid="{FE516EE0-ED5B-488C-9714-20321DE0A1F9}"/>
+    <hyperlink ref="I79" r:id="rId6" xr:uid="{9453A25A-ED22-47AD-9DA7-1EEEE458E0A6}"/>
+    <hyperlink ref="I80" r:id="rId7" xr:uid="{AC4861FE-44F3-453C-B9FB-C3BAE0D83FD7}"/>
+    <hyperlink ref="I82" r:id="rId8" xr:uid="{FE516EE0-ED5B-488C-9714-20321DE0A1F9}"/>
     <hyperlink ref="I21" r:id="rId9" xr:uid="{2941D0D9-FD68-49BD-BE97-E5CEF91C19F1}"/>
     <hyperlink ref="I22" r:id="rId10" xr:uid="{8C6D62BB-5F77-4E43-A2C0-4B9C82D8B833}"/>
     <hyperlink ref="I27" r:id="rId11" xr:uid="{044C2CB3-B42D-4008-AB57-7D2A34CC4E84}"/>
-    <hyperlink ref="I28" r:id="rId12" xr:uid="{BB9B3C57-946D-4735-8CCB-E360255B90A6}"/>
-    <hyperlink ref="I29" r:id="rId13" xr:uid="{4A6C8201-1574-4551-9A9C-F243CDFC088B}"/>
-    <hyperlink ref="H16" r:id="rId14" xr:uid="{2A01B5CB-6E13-4421-AF4E-2DEF27E17522}"/>
-    <hyperlink ref="I16" r:id="rId15" xr:uid="{94228EAD-A640-40EC-9EBB-226D4CB50133}"/>
-    <hyperlink ref="H77" r:id="rId16" xr:uid="{43B8B26A-48BD-40F3-94AA-B4FE7AFC090B}"/>
-    <hyperlink ref="I77" r:id="rId17" xr:uid="{0E77E100-B94E-4689-9861-3926BDD5F1C2}"/>
-    <hyperlink ref="H78" r:id="rId18" xr:uid="{303E2F96-9C17-4AC1-9979-3D5DFF967B79}"/>
-    <hyperlink ref="I78" r:id="rId19" xr:uid="{20D5A78D-E1DE-4773-9544-4D2C520F2903}"/>
-    <hyperlink ref="I84" r:id="rId20" xr:uid="{675F0F9F-48B7-44BE-8415-0DFC7DCDA382}"/>
-    <hyperlink ref="I31" r:id="rId21" xr:uid="{914239B8-66A3-4B5A-BFDA-A0DD4CC21F97}"/>
-    <hyperlink ref="H31" r:id="rId22" xr:uid="{146728A6-A4D8-4655-9AC6-E4AFC9487D85}"/>
-    <hyperlink ref="H84" r:id="rId23" xr:uid="{77E6D235-047D-4604-9151-F6D390761670}"/>
-    <hyperlink ref="H85" r:id="rId24" xr:uid="{CBE902CB-B0AB-48A1-AEB4-B161B4B9805A}"/>
-    <hyperlink ref="H54" r:id="rId25" xr:uid="{5B6DFFFC-2AC1-489A-A901-760C70C922B3}"/>
-    <hyperlink ref="H55" r:id="rId26" xr:uid="{BD5652B3-697C-4C44-953D-CAB46A31F9B0}"/>
-    <hyperlink ref="H56" r:id="rId27" xr:uid="{28092483-2915-418B-A2AF-12AB85843ECE}"/>
-    <hyperlink ref="I54" r:id="rId28" xr:uid="{2F9FC809-7044-49F3-AD2A-337755DC1F7E}"/>
-    <hyperlink ref="I55" r:id="rId29" xr:uid="{48DE6A5E-29CD-479E-A57E-6C321D874174}"/>
-    <hyperlink ref="I56" r:id="rId30" xr:uid="{75950DFD-39AB-4949-8A68-8C6D8137D57C}"/>
-    <hyperlink ref="H119" r:id="rId31" xr:uid="{1CEE2C1C-5CAA-4221-9E9E-023216550247}"/>
-    <hyperlink ref="I119" r:id="rId32" display="https://www.dropbox.com/scl/fi/7m1z10fp5kfeodsxiwgyi/8.1.xlsx?cloud_editor=excel&amp;dl=0&amp;rlkey=zjmyfc1pkvo57zz610q9in13r" xr:uid="{A8BDBCBD-3D45-433E-945C-C50EF42330AA}"/>
-    <hyperlink ref="H57" r:id="rId33" xr:uid="{2D514D50-5C2E-4495-96EE-18447C70E010}"/>
-    <hyperlink ref="I57" r:id="rId34" xr:uid="{71AA66DE-A95F-45E5-A807-39BAEBABCD4A}"/>
-    <hyperlink ref="H34" r:id="rId35" xr:uid="{6C5E3E67-C5AC-47FF-8E1F-0B6D283FBB47}"/>
-    <hyperlink ref="H88" r:id="rId36" xr:uid="{05278A2C-EF32-4288-AC79-E2F3C414DCB0}"/>
-    <hyperlink ref="H89" r:id="rId37" xr:uid="{465BC4F3-228B-4122-9B29-D51AB49EBEC3}"/>
-    <hyperlink ref="H87" r:id="rId38" xr:uid="{CF7976C9-7F90-4DC9-A637-E9D9624A45D4}"/>
-    <hyperlink ref="I17" r:id="rId39" xr:uid="{53595853-D5EB-4109-8B5D-34F99DF8A989}"/>
-    <hyperlink ref="H153" r:id="rId40" xr:uid="{D605C3F4-CA75-4A92-8FAC-7663FF937ADB}"/>
-    <hyperlink ref="I153" r:id="rId41" xr:uid="{D75E9950-B86E-4EE4-88EC-7F1FC744F30F}"/>
-    <hyperlink ref="H145" r:id="rId42" xr:uid="{4706D371-E07C-4C04-A689-902932F1127C}"/>
-    <hyperlink ref="H154" r:id="rId43" xr:uid="{42FF5DB6-B43E-44F6-B0FD-79B63D583BA9}"/>
-    <hyperlink ref="H155" r:id="rId44" xr:uid="{928B861A-24EB-4B43-A4BD-B5CD7EC9E504}"/>
-    <hyperlink ref="H156" r:id="rId45" xr:uid="{31D1AFC3-8CD6-4147-AC59-F7D4371D37F3}"/>
-    <hyperlink ref="I154" r:id="rId46" xr:uid="{ADBDA8CA-EE0F-479D-8E0D-F85931007E1F}"/>
-    <hyperlink ref="I155" r:id="rId47" xr:uid="{F8E098FA-A07D-4252-9EF8-60AC987F4DF6}"/>
-    <hyperlink ref="I156" r:id="rId48" xr:uid="{764DC1A5-8D8B-4FA9-8106-7A5BA2558E2A}"/>
-    <hyperlink ref="I157" r:id="rId49" xr:uid="{0BB47F72-B40A-431E-82A6-577036E933F6}"/>
-    <hyperlink ref="H157" r:id="rId50" xr:uid="{63B8F4BD-8E85-42D5-96D2-FCDF2DE8EEB1}"/>
-    <hyperlink ref="H158" r:id="rId51" xr:uid="{02A6923A-10D1-4A94-AE82-47AA67FB78B7}"/>
-    <hyperlink ref="I158" r:id="rId52" xr:uid="{EE17308B-DE39-4800-BF04-987B80EE4380}"/>
-    <hyperlink ref="H167" r:id="rId53" xr:uid="{3A60F7E3-10DC-40FF-B2A1-76744BD0743C}"/>
-    <hyperlink ref="I167" r:id="rId54" xr:uid="{974F1FBE-0AE3-4549-9CAC-27CE4ED54261}"/>
-    <hyperlink ref="H168" r:id="rId55" xr:uid="{85C7E490-79B1-4D6A-B7D4-0AE930D0D60C}"/>
-    <hyperlink ref="I168" r:id="rId56" xr:uid="{8E8E2AC3-EB6E-4CAB-8A6C-C6C30C3FC4D6}"/>
-    <hyperlink ref="H169" r:id="rId57" xr:uid="{273525F0-5A5C-4F61-B974-5404167E98FA}"/>
-    <hyperlink ref="I169" r:id="rId58" xr:uid="{BF1CB5E0-182B-4274-8469-4D0BA8FD763F}"/>
-    <hyperlink ref="H170" r:id="rId59" xr:uid="{C6F1B54D-A729-4FA4-AC0C-9A760D9DEC21}"/>
-    <hyperlink ref="I170" r:id="rId60" xr:uid="{0A736AD4-BADF-4DEF-9AC6-BA21F7271D1A}"/>
+    <hyperlink ref="H16" r:id="rId12" xr:uid="{2A01B5CB-6E13-4421-AF4E-2DEF27E17522}"/>
+    <hyperlink ref="I16" r:id="rId13" xr:uid="{94228EAD-A640-40EC-9EBB-226D4CB50133}"/>
+    <hyperlink ref="H76" r:id="rId14" xr:uid="{43B8B26A-48BD-40F3-94AA-B4FE7AFC090B}"/>
+    <hyperlink ref="I76" r:id="rId15" xr:uid="{0E77E100-B94E-4689-9861-3926BDD5F1C2}"/>
+    <hyperlink ref="H77" r:id="rId16" xr:uid="{303E2F96-9C17-4AC1-9979-3D5DFF967B79}"/>
+    <hyperlink ref="I77" r:id="rId17" xr:uid="{20D5A78D-E1DE-4773-9544-4D2C520F2903}"/>
+    <hyperlink ref="I83" r:id="rId18" xr:uid="{675F0F9F-48B7-44BE-8415-0DFC7DCDA382}"/>
+    <hyperlink ref="I30" r:id="rId19" xr:uid="{914239B8-66A3-4B5A-BFDA-A0DD4CC21F97}"/>
+    <hyperlink ref="H30" r:id="rId20" xr:uid="{146728A6-A4D8-4655-9AC6-E4AFC9487D85}"/>
+    <hyperlink ref="H83" r:id="rId21" xr:uid="{77E6D235-047D-4604-9151-F6D390761670}"/>
+    <hyperlink ref="H84" r:id="rId22" xr:uid="{CBE902CB-B0AB-48A1-AEB4-B161B4B9805A}"/>
+    <hyperlink ref="H53" r:id="rId23" xr:uid="{5B6DFFFC-2AC1-489A-A901-760C70C922B3}"/>
+    <hyperlink ref="H54" r:id="rId24" xr:uid="{BD5652B3-697C-4C44-953D-CAB46A31F9B0}"/>
+    <hyperlink ref="H55" r:id="rId25" xr:uid="{28092483-2915-418B-A2AF-12AB85843ECE}"/>
+    <hyperlink ref="I53" r:id="rId26" xr:uid="{2F9FC809-7044-49F3-AD2A-337755DC1F7E}"/>
+    <hyperlink ref="I54" r:id="rId27" xr:uid="{48DE6A5E-29CD-479E-A57E-6C321D874174}"/>
+    <hyperlink ref="I55" r:id="rId28" xr:uid="{75950DFD-39AB-4949-8A68-8C6D8137D57C}"/>
+    <hyperlink ref="H118" r:id="rId29" xr:uid="{1CEE2C1C-5CAA-4221-9E9E-023216550247}"/>
+    <hyperlink ref="I118" r:id="rId30" display="https://www.dropbox.com/scl/fi/7m1z10fp5kfeodsxiwgyi/8.1.xlsx?cloud_editor=excel&amp;dl=0&amp;rlkey=zjmyfc1pkvo57zz610q9in13r" xr:uid="{A8BDBCBD-3D45-433E-945C-C50EF42330AA}"/>
+    <hyperlink ref="H56" r:id="rId31" xr:uid="{2D514D50-5C2E-4495-96EE-18447C70E010}"/>
+    <hyperlink ref="I56" r:id="rId32" xr:uid="{71AA66DE-A95F-45E5-A807-39BAEBABCD4A}"/>
+    <hyperlink ref="H33" r:id="rId33" xr:uid="{6C5E3E67-C5AC-47FF-8E1F-0B6D283FBB47}"/>
+    <hyperlink ref="H87" r:id="rId34" xr:uid="{05278A2C-EF32-4288-AC79-E2F3C414DCB0}"/>
+    <hyperlink ref="H88" r:id="rId35" xr:uid="{465BC4F3-228B-4122-9B29-D51AB49EBEC3}"/>
+    <hyperlink ref="H86" r:id="rId36" xr:uid="{CF7976C9-7F90-4DC9-A637-E9D9624A45D4}"/>
+    <hyperlink ref="I17" r:id="rId37" xr:uid="{53595853-D5EB-4109-8B5D-34F99DF8A989}"/>
+    <hyperlink ref="H152" r:id="rId38" xr:uid="{D605C3F4-CA75-4A92-8FAC-7663FF937ADB}"/>
+    <hyperlink ref="I152" r:id="rId39" xr:uid="{D75E9950-B86E-4EE4-88EC-7F1FC744F30F}"/>
+    <hyperlink ref="H144" r:id="rId40" xr:uid="{4706D371-E07C-4C04-A689-902932F1127C}"/>
+    <hyperlink ref="H153" r:id="rId41" xr:uid="{42FF5DB6-B43E-44F6-B0FD-79B63D583BA9}"/>
+    <hyperlink ref="H154" r:id="rId42" xr:uid="{928B861A-24EB-4B43-A4BD-B5CD7EC9E504}"/>
+    <hyperlink ref="H155" r:id="rId43" xr:uid="{31D1AFC3-8CD6-4147-AC59-F7D4371D37F3}"/>
+    <hyperlink ref="I153" r:id="rId44" xr:uid="{ADBDA8CA-EE0F-479D-8E0D-F85931007E1F}"/>
+    <hyperlink ref="I154" r:id="rId45" xr:uid="{F8E098FA-A07D-4252-9EF8-60AC987F4DF6}"/>
+    <hyperlink ref="I155" r:id="rId46" xr:uid="{764DC1A5-8D8B-4FA9-8106-7A5BA2558E2A}"/>
+    <hyperlink ref="I156" r:id="rId47" xr:uid="{0BB47F72-B40A-431E-82A6-577036E933F6}"/>
+    <hyperlink ref="H156" r:id="rId48" xr:uid="{63B8F4BD-8E85-42D5-96D2-FCDF2DE8EEB1}"/>
+    <hyperlink ref="H157" r:id="rId49" xr:uid="{02A6923A-10D1-4A94-AE82-47AA67FB78B7}"/>
+    <hyperlink ref="I157" r:id="rId50" xr:uid="{EE17308B-DE39-4800-BF04-987B80EE4380}"/>
+    <hyperlink ref="H166" r:id="rId51" xr:uid="{3A60F7E3-10DC-40FF-B2A1-76744BD0743C}"/>
+    <hyperlink ref="I166" r:id="rId52" xr:uid="{974F1FBE-0AE3-4549-9CAC-27CE4ED54261}"/>
+    <hyperlink ref="H167" r:id="rId53" xr:uid="{85C7E490-79B1-4D6A-B7D4-0AE930D0D60C}"/>
+    <hyperlink ref="I167" r:id="rId54" xr:uid="{8E8E2AC3-EB6E-4CAB-8A6C-C6C30C3FC4D6}"/>
+    <hyperlink ref="H168" r:id="rId55" xr:uid="{273525F0-5A5C-4F61-B974-5404167E98FA}"/>
+    <hyperlink ref="I168" r:id="rId56" xr:uid="{BF1CB5E0-182B-4274-8469-4D0BA8FD763F}"/>
+    <hyperlink ref="H169" r:id="rId57" xr:uid="{C6F1B54D-A729-4FA4-AC0C-9A760D9DEC21}"/>
+    <hyperlink ref="I169" r:id="rId58" xr:uid="{0A736AD4-BADF-4DEF-9AC6-BA21F7271D1A}"/>
+    <hyperlink ref="H28" r:id="rId59" xr:uid="{88000BDE-EDDC-4472-A72D-7B88599DF791}"/>
+    <hyperlink ref="I28" r:id="rId60" xr:uid="{65CBC242-95F4-4361-83FE-04603ADA9606}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId61"/>

--- a/00Consolidado Tablas Madre.xlsx
+++ b/00Consolidado Tablas Madre.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\Tablas Madre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCN\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF42FA9-0E9E-421D-AB11-5940815E259F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CCEEF2-75FB-4C04-B900-63E5FD25D5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="779">
   <si>
     <t>Código Tabla</t>
   </si>
@@ -2366,6 +2366,24 @@
   </si>
   <si>
     <t>https://www.dropbox.com/s/kpn7orewv5987t7/13.2.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>7.22</t>
+  </si>
+  <si>
+    <t>cantidad_matriculados_por_genero_carrera</t>
+  </si>
+  <si>
+    <t>Cantidad de matriculados en educacion superior por carrera y genero 2007-2021</t>
+  </si>
+  <si>
+    <t>SIES servicio de información de educacion superior</t>
+  </si>
+  <si>
+    <t>https://www.mifuturo.cl/wp-content/uploads/2021/07/OFICIAL_WEB_PROCESO_MAT_2007_al_2021_29_06_2021.zip</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/s/kd5wqn035t4w89f/Matriculados%20en%20Educaci%C3%B3n%20Superior%202007%20al%202021.xlsx?dl=0</t>
   </si>
 </sst>
 </file>
@@ -3056,8 +3074,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A11:L176" totalsRowShown="0">
-  <autoFilter ref="A11:L176" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A11:L177" totalsRowShown="0">
+  <autoFilter ref="A11:L177" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A86:L109">
     <sortCondition ref="B11:B176"/>
   </sortState>
@@ -3376,11 +3394,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD49B1B1-33D3-49D9-BF85-AA2E2407F985}">
-  <dimension ref="A11:L176"/>
+  <dimension ref="A11:L177"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="11" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L177" sqref="L177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9396,6 +9414,44 @@
       </c>
       <c r="L176" t="s">
         <v>759</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177" s="13" t="s">
+        <v>773</v>
+      </c>
+      <c r="B177" t="s">
+        <v>774</v>
+      </c>
+      <c r="C177" t="s">
+        <v>775</v>
+      </c>
+      <c r="D177" t="s">
+        <v>76</v>
+      </c>
+      <c r="E177" t="s">
+        <v>14</v>
+      </c>
+      <c r="F177" t="s">
+        <v>15</v>
+      </c>
+      <c r="G177" t="s">
+        <v>776</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="J177" t="s">
+        <v>151</v>
+      </c>
+      <c r="K177" t="s">
+        <v>30</v>
+      </c>
+      <c r="L177" t="s">
+        <v>492</v>
       </c>
     </row>
   </sheetData>

--- a/00Consolidado Tablas Madre.xlsx
+++ b/00Consolidado Tablas Madre.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCN\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\Diseño DATA's (1)\Tablas Madre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CCEEF2-75FB-4C04-B900-63E5FD25D5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7F724D-EAE2-47CD-870D-680A7C67C372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{9203D862-8E54-45D7-9D06-43A9F49206D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidado" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="SegmentaciónDeDatos_Sector">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_Unidad_de_Medida">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -41,12 +41,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="782">
   <si>
     <t>Código Tabla</t>
   </si>
@@ -141,9 +150,6 @@
     <t>Sociedad</t>
   </si>
   <si>
-    <t>Desarrollo Rural/Urbano</t>
-  </si>
-  <si>
     <t>Vigentes_IPT</t>
   </si>
   <si>
@@ -199,9 +205,6 @@
   </si>
   <si>
     <t xml:space="preserve">Andrés Sebastian </t>
-  </si>
-  <si>
-    <t>Economía</t>
   </si>
   <si>
     <t>1.3</t>
@@ -2236,12 +2239,6 @@
     <t>Monserat Garrido</t>
   </si>
   <si>
-    <t>Transporte y telecomunicaciones</t>
-  </si>
-  <si>
-    <t>Conectividad</t>
-  </si>
-  <si>
     <t>8.3</t>
   </si>
   <si>
@@ -2257,9 +2254,6 @@
     <t>https://www.dropbox.com/home/Dise%C3%B1o%20DATA's/MTransporte_Telecomunicaciones?preview=licencias+de+conducir.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve">Transporte </t>
-  </si>
-  <si>
     <t>8.4</t>
   </si>
   <si>
@@ -2384,6 +2378,30 @@
   </si>
   <si>
     <t>https://www.dropbox.com/s/kd5wqn035t4w89f/Matriculados%20en%20Educaci%C3%B3n%20Superior%202007%20al%202021.xlsx?dl=0</t>
+  </si>
+  <si>
+    <t>Territorio</t>
+  </si>
+  <si>
+    <t>Vivienda y Construcción</t>
+  </si>
+  <si>
+    <t>Comercio</t>
+  </si>
+  <si>
+    <t>Economía, comercio y empresas</t>
+  </si>
+  <si>
+    <t>Telecomunicaciones</t>
+  </si>
+  <si>
+    <t>Tecnología, internet y telecomunicaciones</t>
+  </si>
+  <si>
+    <t>Transporte y tránsito</t>
+  </si>
+  <si>
+    <t>Tránsito</t>
   </si>
 </sst>
 </file>
@@ -3068,14 +3086,20 @@
   <slicer name="Unidad de Medida" xr10:uid="{6574F389-29CB-47FF-B34C-0B381A5AA264}" cache="SegmentaciónDeDatos_Unidad_de_Medida" caption="Unidad de Medida" columnCount="2" style="SlicerStyleDark1" rowHeight="234950"/>
   <slicer name="Nombre Fuente" xr10:uid="{FCDE2E95-E63C-47A4-8F50-C4F8F5EADAEA}" cache="SegmentaciónDeDatos_Nombre_Fuente" caption="Nombre Fuente" columnCount="2" style="SlicerStyleDark1" rowHeight="234950"/>
   <slicer name="Encargado" xr10:uid="{4B8EAA2A-5539-4124-8E5D-AA4E68FD63C8}" cache="SegmentaciónDeDatos_Encargado" caption="Encargado" columnCount="2" style="SlicerStyleDark1" rowHeight="234950"/>
-  <slicer name="Industria" xr10:uid="{5E69910F-72C0-4CCC-9A40-0C33D8089AF2}" cache="SegmentaciónDeDatos_Industria" caption="Industria" style="SlicerStyleDark1" rowHeight="234950"/>
+  <slicer name="Industria" xr10:uid="{5E69910F-72C0-4CCC-9A40-0C33D8089AF2}" cache="SegmentaciónDeDatos_Industria" caption="Industria" startItem="4" style="SlicerStyleDark1" rowHeight="234950"/>
   <slicer name="Sector" xr10:uid="{FFD6B83F-B469-4B90-8DC1-E5E803E2AA9A}" cache="SegmentaciónDeDatos_Sector" caption="Sector" style="SlicerStyleDark1" rowHeight="234950"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D17D0E71-BA07-4DA2-B765-A4376FC7396F}" name="Consolidado_Tablas_Madre" displayName="Consolidado_Tablas_Madre" ref="A11:L177" totalsRowShown="0">
-  <autoFilter ref="A11:L177" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}"/>
+  <autoFilter ref="A11:L177" xr:uid="{333475B6-F6EF-45EB-8173-D80D5B2B00C0}">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="Transporte y telecomunicaciones"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A86:L109">
     <sortCondition ref="B11:B176"/>
   </sortState>
@@ -3396,28 +3420,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD49B1B1-33D3-49D9-BF85-AA2E2407F985}">
   <dimension ref="A11:L177"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L177" sqref="L177"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="11" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L178" sqref="L178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="32.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" customWidth="1"/>
+    <col min="7" max="7" width="32.81640625" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" customWidth="1"/>
+    <col min="10" max="10" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3455,9 +3479,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -3488,10 +3512,10 @@
         <v>30</v>
       </c>
       <c r="L12" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
         <v>6</v>
       </c>
@@ -3521,7 +3545,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
         <v>9</v>
       </c>
@@ -3553,21 +3577,21 @@
         <v>19</v>
       </c>
       <c r="K14" t="s">
-        <v>30</v>
+        <v>775</v>
       </c>
       <c r="L14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13">
         <v>9</v>
       </c>
       <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
         <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -3591,2346 +3615,2346 @@
         <v>19</v>
       </c>
       <c r="K15" t="s">
-        <v>30</v>
+        <v>775</v>
       </c>
       <c r="L15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
         <v>16</v>
       </c>
       <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
         <v>34</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>35</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
         <v>36</v>
       </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
       </c>
       <c r="K16" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" t="s">
         <v>40</v>
       </c>
-      <c r="L16" t="s">
+    </row>
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="B17" t="s">
         <v>42</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>43</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>44</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>45</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
         <v>46</v>
       </c>
-      <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="H17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" t="s">
         <v>49</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
+        <v>777</v>
+      </c>
+      <c r="L17" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K17" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" t="s">
+      <c r="B18" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C18" t="s">
+      <c r="J18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" t="s">
+        <v>777</v>
+      </c>
+      <c r="L18" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I18" s="1" t="s">
+      <c r="B19" t="s">
         <v>55</v>
       </c>
-      <c r="J18" t="s">
-        <v>50</v>
-      </c>
-      <c r="K18" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="C19" t="s">
         <v>56</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>57</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
         <v>58</v>
       </c>
-      <c r="D19" t="s">
+      <c r="H19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="I19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="J19" t="s">
         <v>61</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="K19" t="s">
         <v>62</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>63</v>
       </c>
-      <c r="K19" t="s">
+    </row>
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="L19" t="s">
+      <c r="B20" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="C20" t="s">
         <v>66</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>67</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
         <v>68</v>
       </c>
-      <c r="D20" t="s">
+      <c r="H20" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="I20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="J20" t="s">
+        <v>61</v>
+      </c>
+      <c r="K20" t="s">
+        <v>62</v>
+      </c>
+      <c r="L20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="B21" t="s">
         <v>72</v>
       </c>
-      <c r="J20" t="s">
-        <v>63</v>
-      </c>
-      <c r="K20" t="s">
-        <v>64</v>
-      </c>
-      <c r="L20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="C21" t="s">
         <v>73</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="H21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="I21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="J21" t="s">
         <v>79</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J21" t="s">
-        <v>81</v>
       </c>
       <c r="K21" t="s">
         <v>30</v>
       </c>
       <c r="L21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="C22" t="s">
         <v>83</v>
-      </c>
-      <c r="B22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" t="s">
-        <v>85</v>
       </c>
       <c r="D22" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s">
         <v>15</v>
       </c>
       <c r="G22" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="J22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K22" t="s">
         <v>30</v>
       </c>
       <c r="L22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="D23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C23" t="s">
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s">
         <v>91</v>
       </c>
-      <c r="D23" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="4" t="s">
+      <c r="H23" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="I23" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="J23" t="s">
         <v>94</v>
       </c>
-      <c r="I23" s="1" t="s">
+    </row>
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="J23" t="s">
+      <c r="B24" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="C24" t="s">
         <v>97</v>
       </c>
-      <c r="B24" t="s">
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C24" t="s">
+      <c r="I24" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" t="s">
-        <v>93</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="J24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="B25" t="s">
         <v>101</v>
       </c>
-      <c r="J24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="C25" t="s">
         <v>102</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C25" t="s">
+      <c r="I25" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D25" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" t="s">
-        <v>93</v>
-      </c>
-      <c r="H25" s="1" t="s">
+      <c r="J25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="B26" t="s">
         <v>106</v>
       </c>
-      <c r="J25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="C26" t="s">
         <v>107</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C26" t="s">
+      <c r="I26" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D26" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" t="s">
-        <v>93</v>
-      </c>
-      <c r="H26" s="1" t="s">
+      <c r="J26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="B27" t="s">
         <v>111</v>
       </c>
-      <c r="J26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="C27" t="s">
+        <v>763</v>
+      </c>
+      <c r="D27" t="s">
         <v>112</v>
       </c>
-      <c r="B27" t="s">
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s">
         <v>113</v>
       </c>
-      <c r="C27" t="s">
-        <v>768</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="H27" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="I27" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="J27" t="s">
+        <v>79</v>
+      </c>
+      <c r="K27" t="s">
+        <v>39</v>
+      </c>
+      <c r="L27" t="s">
         <v>116</v>
       </c>
-      <c r="I27" s="1" t="s">
+    </row>
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="J27" t="s">
-        <v>81</v>
-      </c>
-      <c r="K27" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" t="s">
+      <c r="B28" t="s">
+        <v>764</v>
+      </c>
+      <c r="C28" t="s">
+        <v>765</v>
+      </c>
+      <c r="D28" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="H28" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="J28" t="s">
+        <v>79</v>
+      </c>
+      <c r="K28" t="s">
+        <v>39</v>
+      </c>
+      <c r="L28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B28" t="s">
-        <v>769</v>
-      </c>
-      <c r="C28" t="s">
-        <v>770</v>
-      </c>
-      <c r="D28" t="s">
-        <v>114</v>
-      </c>
-      <c r="E28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="B29" t="s">
         <v>120</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="J28" t="s">
-        <v>81</v>
-      </c>
-      <c r="K28" t="s">
-        <v>40</v>
-      </c>
-      <c r="L28" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="C29" t="s">
         <v>121</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D29" t="s">
         <v>122</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
         <v>123</v>
       </c>
-      <c r="D29" t="s">
+      <c r="H29" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="I29" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="J29" t="s">
         <v>126</v>
       </c>
-      <c r="I29" s="1" t="s">
+    </row>
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="J29" t="s">
+      <c r="B30" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="C30" t="s">
         <v>129</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D30" t="s">
         <v>130</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s">
         <v>131</v>
       </c>
-      <c r="D30" t="s">
+      <c r="H30" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="I30" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="J30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K30" t="s">
         <v>30</v>
       </c>
       <c r="L30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="C31" t="s">
         <v>137</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D31" t="s">
         <v>138</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>139</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s">
         <v>140</v>
       </c>
-      <c r="E31" t="s">
+      <c r="H31" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="I31" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="J31" t="s">
         <v>19</v>
       </c>
       <c r="K31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+      <c r="C32" t="s">
         <v>146</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" t="s">
+        <v>140</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C32" t="s">
+      <c r="I32" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D32" t="s">
-        <v>76</v>
-      </c>
-      <c r="E32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" t="s">
-        <v>142</v>
-      </c>
-      <c r="H32" s="1" t="s">
+      <c r="J32" t="s">
         <v>149</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="K32" t="s">
+        <v>62</v>
+      </c>
+      <c r="L32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="J32" t="s">
+      <c r="B33" t="s">
         <v>151</v>
       </c>
-      <c r="K32" t="s">
-        <v>64</v>
-      </c>
-      <c r="L32" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="C33" t="s">
         <v>152</v>
-      </c>
-      <c r="B33" t="s">
-        <v>153</v>
-      </c>
-      <c r="C33" t="s">
-        <v>154</v>
       </c>
       <c r="D33" t="s">
         <v>26</v>
       </c>
       <c r="E33" t="s">
+        <v>153</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="4" t="s">
+      <c r="I33" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="J33" t="s">
+        <v>94</v>
+      </c>
+      <c r="K33" t="s">
+        <v>62</v>
+      </c>
+      <c r="L33" t="s">
         <v>157</v>
       </c>
-      <c r="I33" s="1" t="s">
+    </row>
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="J33" t="s">
-        <v>96</v>
-      </c>
-      <c r="K33" t="s">
-        <v>64</v>
-      </c>
-      <c r="L33" t="s">
+      <c r="B34" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="C34" t="s">
         <v>160</v>
       </c>
-      <c r="B34" t="s">
+      <c r="D34" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s">
+        <v>140</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J34" t="s">
+        <v>149</v>
+      </c>
+      <c r="K34" t="s">
+        <v>62</v>
+      </c>
+      <c r="L34" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C34" t="s">
+      <c r="B35" t="s">
         <v>162</v>
       </c>
-      <c r="D34" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" t="s">
-        <v>142</v>
-      </c>
-      <c r="H34" s="1" t="s">
+      <c r="C35" t="s">
+        <v>163</v>
+      </c>
+      <c r="D35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s">
+        <v>140</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J35" t="s">
         <v>149</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="J34" t="s">
-        <v>151</v>
-      </c>
-      <c r="K34" t="s">
-        <v>64</v>
-      </c>
-      <c r="L34" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="K35" t="s">
+        <v>62</v>
+      </c>
+      <c r="L35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C35" t="s">
+      <c r="B36" t="s">
         <v>165</v>
       </c>
-      <c r="D35" t="s">
-        <v>114</v>
-      </c>
-      <c r="E35" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" t="s">
-        <v>142</v>
-      </c>
-      <c r="H35" s="1" t="s">
+      <c r="C36" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" t="s">
+        <v>167</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" t="s">
+        <v>140</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J36" t="s">
         <v>149</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="J35" t="s">
-        <v>151</v>
-      </c>
-      <c r="K35" t="s">
-        <v>64</v>
-      </c>
-      <c r="L35" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B36" t="s">
-        <v>167</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="K36" t="s">
+        <v>62</v>
+      </c>
+      <c r="L36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="D36" t="s">
+      <c r="B37" t="s">
         <v>169</v>
       </c>
-      <c r="E36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" t="s">
-        <v>142</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="J36" t="s">
-        <v>151</v>
-      </c>
-      <c r="K36" t="s">
-        <v>64</v>
-      </c>
-      <c r="L36" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="C37" t="s">
         <v>170</v>
       </c>
-      <c r="B37" t="s">
+      <c r="D37" t="s">
         <v>171</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" t="s">
+        <v>140</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J37" t="s">
+        <v>126</v>
+      </c>
+      <c r="K37" t="s">
+        <v>62</v>
+      </c>
+      <c r="L37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="D37" t="s">
+      <c r="B38" t="s">
         <v>173</v>
       </c>
-      <c r="E37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" t="s">
-        <v>142</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J37" t="s">
-        <v>128</v>
-      </c>
-      <c r="K37" t="s">
-        <v>64</v>
-      </c>
-      <c r="L37" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="C38" t="s">
         <v>174</v>
       </c>
-      <c r="B38" t="s">
+      <c r="D38" t="s">
+        <v>171</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" t="s">
+        <v>140</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C38" t="s">
+      <c r="J38" t="s">
+        <v>126</v>
+      </c>
+      <c r="K38" t="s">
+        <v>62</v>
+      </c>
+      <c r="L38" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D38" t="s">
-        <v>173</v>
-      </c>
-      <c r="E38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" t="s">
-        <v>142</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I38" s="1" t="s">
+      <c r="B39" t="s">
         <v>177</v>
       </c>
-      <c r="J38" t="s">
-        <v>128</v>
-      </c>
-      <c r="K38" t="s">
-        <v>64</v>
-      </c>
-      <c r="L38" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+      <c r="C39" t="s">
         <v>178</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" t="s">
+        <v>140</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C39" t="s">
-        <v>180</v>
-      </c>
-      <c r="D39" t="s">
-        <v>140</v>
-      </c>
-      <c r="E39" t="s">
-        <v>141</v>
-      </c>
-      <c r="F39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" t="s">
-        <v>142</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="J39" t="s">
         <v>19</v>
       </c>
       <c r="K39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L39" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B40" t="s">
+        <v>181</v>
+      </c>
+      <c r="C40" t="s">
         <v>182</v>
       </c>
-      <c r="B40" t="s">
+      <c r="D40" t="s">
+        <v>171</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" t="s">
+        <v>140</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C40" t="s">
+      <c r="J40" t="s">
+        <v>126</v>
+      </c>
+      <c r="K40" t="s">
+        <v>62</v>
+      </c>
+      <c r="L40" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="D40" t="s">
-        <v>173</v>
-      </c>
-      <c r="E40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" t="s">
-        <v>142</v>
-      </c>
-      <c r="H40" s="1" t="s">
+      <c r="B41" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" t="s">
+        <v>171</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" t="s">
+        <v>140</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J41" t="s">
+        <v>126</v>
+      </c>
+      <c r="K41" t="s">
+        <v>62</v>
+      </c>
+      <c r="L41" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B42" t="s">
+        <v>189</v>
+      </c>
+      <c r="C42" t="s">
+        <v>190</v>
+      </c>
+      <c r="D42" t="s">
+        <v>171</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" t="s">
+        <v>140</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J42" t="s">
+        <v>126</v>
+      </c>
+      <c r="K42" t="s">
+        <v>62</v>
+      </c>
+      <c r="L42" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B43" t="s">
+        <v>193</v>
+      </c>
+      <c r="C43" t="s">
+        <v>194</v>
+      </c>
+      <c r="D43" t="s">
+        <v>138</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" t="s">
+        <v>140</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J43" t="s">
+        <v>126</v>
+      </c>
+      <c r="K43" t="s">
+        <v>62</v>
+      </c>
+      <c r="L43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B44" t="s">
+        <v>197</v>
+      </c>
+      <c r="C44" t="s">
+        <v>198</v>
+      </c>
+      <c r="D44" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" t="s">
+        <v>140</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="J44" t="s">
+        <v>126</v>
+      </c>
+      <c r="K44" t="s">
+        <v>62</v>
+      </c>
+      <c r="L44" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B45" t="s">
+        <v>201</v>
+      </c>
+      <c r="C45" t="s">
+        <v>202</v>
+      </c>
+      <c r="D45" t="s">
+        <v>138</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" t="s">
+        <v>140</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J45" t="s">
+        <v>126</v>
+      </c>
+      <c r="K45" t="s">
+        <v>62</v>
+      </c>
+      <c r="L45" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B46" t="s">
+        <v>205</v>
+      </c>
+      <c r="C46" t="s">
+        <v>206</v>
+      </c>
+      <c r="D46" t="s">
+        <v>207</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" t="s">
+        <v>140</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J46" t="s">
+        <v>126</v>
+      </c>
+      <c r="K46" t="s">
+        <v>62</v>
+      </c>
+      <c r="L46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B47" t="s">
+        <v>210</v>
+      </c>
+      <c r="C47" t="s">
+        <v>211</v>
+      </c>
+      <c r="D47" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" t="s">
+        <v>140</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J47" t="s">
         <v>149</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="J40" t="s">
-        <v>128</v>
-      </c>
-      <c r="K40" t="s">
-        <v>64</v>
-      </c>
-      <c r="L40" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="B41" t="s">
-        <v>187</v>
-      </c>
-      <c r="C41" t="s">
-        <v>188</v>
-      </c>
-      <c r="D41" t="s">
-        <v>173</v>
-      </c>
-      <c r="E41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" t="s">
-        <v>142</v>
-      </c>
-      <c r="H41" s="1" t="s">
+      <c r="K47" t="s">
+        <v>62</v>
+      </c>
+      <c r="L47" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B48" t="s">
+        <v>213</v>
+      </c>
+      <c r="C48" t="s">
+        <v>214</v>
+      </c>
+      <c r="D48" t="s">
+        <v>112</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" t="s">
+        <v>140</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J48" t="s">
         <v>149</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J41" t="s">
-        <v>128</v>
-      </c>
-      <c r="K41" t="s">
-        <v>64</v>
-      </c>
-      <c r="L41" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="B42" t="s">
-        <v>191</v>
-      </c>
-      <c r="C42" t="s">
-        <v>192</v>
-      </c>
-      <c r="D42" t="s">
-        <v>173</v>
-      </c>
-      <c r="E42" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" t="s">
-        <v>142</v>
-      </c>
-      <c r="H42" s="1" t="s">
+      <c r="K48" t="s">
+        <v>62</v>
+      </c>
+      <c r="L48" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B49" t="s">
+        <v>217</v>
+      </c>
+      <c r="C49" t="s">
+        <v>218</v>
+      </c>
+      <c r="D49" t="s">
+        <v>219</v>
+      </c>
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" t="s">
+        <v>140</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J49" t="s">
         <v>149</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J42" t="s">
-        <v>128</v>
-      </c>
-      <c r="K42" t="s">
-        <v>64</v>
-      </c>
-      <c r="L42" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="B43" t="s">
-        <v>195</v>
-      </c>
-      <c r="C43" t="s">
-        <v>196</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="K49" t="s">
+        <v>62</v>
+      </c>
+      <c r="L49" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B50" t="s">
+        <v>222</v>
+      </c>
+      <c r="C50" t="s">
+        <v>223</v>
+      </c>
+      <c r="D50" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" t="s">
         <v>140</v>
       </c>
-      <c r="E43" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" t="s">
-        <v>142</v>
-      </c>
-      <c r="H43" s="1" t="s">
+      <c r="H50" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J50" t="s">
         <v>149</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="J43" t="s">
-        <v>128</v>
-      </c>
-      <c r="K43" t="s">
-        <v>64</v>
-      </c>
-      <c r="L43" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="B44" t="s">
-        <v>199</v>
-      </c>
-      <c r="C44" t="s">
-        <v>200</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="K50" t="s">
+        <v>62</v>
+      </c>
+      <c r="L50" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B51" t="s">
+        <v>226</v>
+      </c>
+      <c r="C51" t="s">
+        <v>227</v>
+      </c>
+      <c r="D51" t="s">
+        <v>74</v>
+      </c>
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" t="s">
         <v>140</v>
       </c>
-      <c r="E44" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" t="s">
-        <v>142</v>
-      </c>
-      <c r="H44" s="1" t="s">
+      <c r="H51" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J51" t="s">
         <v>149</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="J44" t="s">
-        <v>128</v>
-      </c>
-      <c r="K44" t="s">
-        <v>64</v>
-      </c>
-      <c r="L44" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="B45" t="s">
-        <v>203</v>
-      </c>
-      <c r="C45" t="s">
-        <v>204</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="K51" t="s">
+        <v>62</v>
+      </c>
+      <c r="L51" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B52" t="s">
+        <v>229</v>
+      </c>
+      <c r="C52" t="s">
+        <v>230</v>
+      </c>
+      <c r="D52" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" t="s">
         <v>140</v>
       </c>
-      <c r="E45" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" t="s">
-        <v>142</v>
-      </c>
-      <c r="H45" s="1" t="s">
+      <c r="H52" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J52" t="s">
         <v>149</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J45" t="s">
-        <v>128</v>
-      </c>
-      <c r="K45" t="s">
-        <v>64</v>
-      </c>
-      <c r="L45" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="B46" t="s">
-        <v>207</v>
-      </c>
-      <c r="C46" t="s">
-        <v>208</v>
-      </c>
-      <c r="D46" t="s">
-        <v>209</v>
-      </c>
-      <c r="E46" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" t="s">
-        <v>142</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="J46" t="s">
-        <v>128</v>
-      </c>
-      <c r="K46" t="s">
-        <v>64</v>
-      </c>
-      <c r="L46" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="B47" t="s">
-        <v>212</v>
-      </c>
-      <c r="C47" t="s">
-        <v>213</v>
-      </c>
-      <c r="D47" t="s">
-        <v>114</v>
-      </c>
-      <c r="E47" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" t="s">
-        <v>142</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="J47" t="s">
-        <v>151</v>
-      </c>
-      <c r="K47" t="s">
-        <v>64</v>
-      </c>
-      <c r="L47" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="B48" t="s">
-        <v>215</v>
-      </c>
-      <c r="C48" t="s">
-        <v>216</v>
-      </c>
-      <c r="D48" t="s">
-        <v>114</v>
-      </c>
-      <c r="E48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" t="s">
-        <v>142</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J48" t="s">
-        <v>151</v>
-      </c>
-      <c r="K48" t="s">
-        <v>64</v>
-      </c>
-      <c r="L48" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="B49" t="s">
-        <v>219</v>
-      </c>
-      <c r="C49" t="s">
-        <v>220</v>
-      </c>
-      <c r="D49" t="s">
-        <v>221</v>
-      </c>
-      <c r="E49" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" t="s">
-        <v>142</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J49" t="s">
-        <v>151</v>
-      </c>
-      <c r="K49" t="s">
-        <v>64</v>
-      </c>
-      <c r="L49" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="B50" t="s">
-        <v>224</v>
-      </c>
-      <c r="C50" t="s">
-        <v>225</v>
-      </c>
-      <c r="D50" t="s">
-        <v>114</v>
-      </c>
-      <c r="E50" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" t="s">
-        <v>142</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="J50" t="s">
-        <v>151</v>
-      </c>
-      <c r="K50" t="s">
-        <v>64</v>
-      </c>
-      <c r="L50" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="B51" t="s">
-        <v>228</v>
-      </c>
-      <c r="C51" t="s">
-        <v>229</v>
-      </c>
-      <c r="D51" t="s">
-        <v>76</v>
-      </c>
-      <c r="E51" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" t="s">
-        <v>142</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="J51" t="s">
-        <v>151</v>
-      </c>
-      <c r="K51" t="s">
-        <v>64</v>
-      </c>
-      <c r="L51" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="K52" t="s">
+        <v>62</v>
+      </c>
+      <c r="L52" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="C52" t="s">
+      <c r="B53" t="s">
         <v>232</v>
       </c>
-      <c r="D52" t="s">
-        <v>114</v>
-      </c>
-      <c r="E52" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" t="s">
-        <v>142</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="J52" t="s">
-        <v>151</v>
-      </c>
-      <c r="K52" t="s">
-        <v>64</v>
-      </c>
-      <c r="L52" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
+      <c r="C53" t="s">
         <v>233</v>
       </c>
-      <c r="B53" t="s">
+      <c r="D53" t="s">
+        <v>67</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" t="s">
         <v>234</v>
       </c>
-      <c r="C53" t="s">
+      <c r="H53" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D53" t="s">
-        <v>69</v>
-      </c>
-      <c r="E53" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="I53" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="J53" t="s">
+        <v>79</v>
+      </c>
+      <c r="K53" t="s">
+        <v>62</v>
+      </c>
+      <c r="L53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="B54" t="s">
         <v>238</v>
       </c>
-      <c r="J53" t="s">
-        <v>81</v>
-      </c>
-      <c r="K53" t="s">
-        <v>64</v>
-      </c>
-      <c r="L53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
+      <c r="C54" t="s">
         <v>239</v>
       </c>
-      <c r="B54" t="s">
+      <c r="D54" t="s">
         <v>240</v>
       </c>
-      <c r="C54" t="s">
+      <c r="E54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" t="s">
+        <v>234</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D54" t="s">
+      <c r="J54" t="s">
+        <v>79</v>
+      </c>
+      <c r="K54" t="s">
+        <v>62</v>
+      </c>
+      <c r="L54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="E54" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" t="s">
-        <v>236</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="I54" s="1" t="s">
+      <c r="B55" t="s">
         <v>243</v>
       </c>
-      <c r="J54" t="s">
-        <v>81</v>
-      </c>
-      <c r="K54" t="s">
-        <v>64</v>
-      </c>
-      <c r="L54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
+      <c r="C55" t="s">
         <v>244</v>
       </c>
-      <c r="B55" t="s">
+      <c r="D55" t="s">
+        <v>74</v>
+      </c>
+      <c r="E55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" t="s">
+        <v>234</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I55" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C55" t="s">
+      <c r="J55" t="s">
+        <v>79</v>
+      </c>
+      <c r="K55" t="s">
+        <v>62</v>
+      </c>
+      <c r="L55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="D55" t="s">
-        <v>76</v>
-      </c>
-      <c r="E55" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" t="s">
-        <v>236</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="I55" s="1" t="s">
+      <c r="B56" t="s">
         <v>247</v>
       </c>
-      <c r="J55" t="s">
-        <v>81</v>
-      </c>
-      <c r="K55" t="s">
-        <v>64</v>
-      </c>
-      <c r="L55" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
+      <c r="C56" t="s">
         <v>248</v>
       </c>
-      <c r="B56" t="s">
+      <c r="D56" t="s">
         <v>249</v>
       </c>
-      <c r="C56" t="s">
+      <c r="E56" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" t="s">
+        <v>234</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D56" t="s">
+      <c r="I56" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E56" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" t="s">
-        <v>236</v>
-      </c>
-      <c r="H56" s="1" t="s">
+      <c r="J56" t="s">
+        <v>79</v>
+      </c>
+      <c r="K56" t="s">
+        <v>62</v>
+      </c>
+      <c r="L56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="B57" t="s">
         <v>253</v>
       </c>
-      <c r="J56" t="s">
-        <v>81</v>
-      </c>
-      <c r="K56" t="s">
-        <v>64</v>
-      </c>
-      <c r="L56" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
+      <c r="C57" t="s">
         <v>254</v>
       </c>
-      <c r="B57" t="s">
+      <c r="D57" t="s">
+        <v>112</v>
+      </c>
+      <c r="E57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" t="s">
         <v>255</v>
       </c>
-      <c r="C57" t="s">
+      <c r="H57" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="D57" t="s">
-        <v>114</v>
-      </c>
-      <c r="E57" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" t="s">
-        <v>257</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K57" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L57" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="B58" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
+      <c r="C58" t="s">
         <v>260</v>
       </c>
-      <c r="B58" t="s">
+      <c r="D58" t="s">
+        <v>74</v>
+      </c>
+      <c r="E58" t="s">
         <v>261</v>
       </c>
-      <c r="C58" t="s">
+      <c r="F58" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" t="s">
         <v>262</v>
       </c>
-      <c r="D58" t="s">
-        <v>76</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="H58" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F58" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="I58" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="J58" t="s">
+        <v>94</v>
+      </c>
+      <c r="K58" t="s">
         <v>265</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="L58" t="s">
         <v>266</v>
       </c>
-      <c r="J58" t="s">
-        <v>96</v>
-      </c>
-      <c r="K58" t="s">
+    </row>
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="L58" t="s">
+      <c r="B59" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
+      <c r="C59" t="s">
         <v>269</v>
       </c>
-      <c r="B59" t="s">
+      <c r="D59" t="s">
+        <v>74</v>
+      </c>
+      <c r="E59" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" t="s">
+        <v>262</v>
+      </c>
+      <c r="H59" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C59" t="s">
+      <c r="I59" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D59" t="s">
-        <v>76</v>
-      </c>
-      <c r="E59" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" t="s">
-        <v>15</v>
-      </c>
-      <c r="G59" t="s">
-        <v>264</v>
-      </c>
-      <c r="H59" s="1" t="s">
+      <c r="J59" t="s">
+        <v>94</v>
+      </c>
+      <c r="K59" t="s">
+        <v>265</v>
+      </c>
+      <c r="L59" t="s">
         <v>272</v>
       </c>
-      <c r="I59" s="1" t="s">
+    </row>
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="J59" t="s">
-        <v>96</v>
-      </c>
-      <c r="K59" t="s">
-        <v>267</v>
-      </c>
-      <c r="L59" t="s">
+      <c r="B60" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="13" t="s">
+      <c r="C60" t="s">
         <v>275</v>
       </c>
-      <c r="B60" t="s">
+      <c r="D60" t="s">
+        <v>74</v>
+      </c>
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" t="s">
+        <v>262</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C60" t="s">
+      <c r="J60" t="s">
+        <v>94</v>
+      </c>
+      <c r="K60" t="s">
+        <v>265</v>
+      </c>
+      <c r="L60" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="D60" t="s">
-        <v>76</v>
-      </c>
-      <c r="E60" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" t="s">
-        <v>264</v>
-      </c>
-      <c r="H60" s="1" t="s">
+      <c r="B61" t="s">
+        <v>278</v>
+      </c>
+      <c r="C61" t="s">
+        <v>279</v>
+      </c>
+      <c r="D61" t="s">
+        <v>74</v>
+      </c>
+      <c r="E61" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" t="s">
+        <v>262</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="J61" t="s">
+        <v>94</v>
+      </c>
+      <c r="K61" t="s">
+        <v>265</v>
+      </c>
+      <c r="L61" t="s">
         <v>272</v>
       </c>
-      <c r="I60" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="J60" t="s">
-        <v>96</v>
-      </c>
-      <c r="K60" t="s">
-        <v>267</v>
-      </c>
-      <c r="L60" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="B61" t="s">
-        <v>280</v>
-      </c>
-      <c r="C61" t="s">
+    </row>
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="D61" t="s">
-        <v>76</v>
-      </c>
-      <c r="E61" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" t="s">
-        <v>15</v>
-      </c>
-      <c r="G61" t="s">
-        <v>264</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="I61" s="1" t="s">
+      <c r="B62" t="s">
         <v>282</v>
       </c>
-      <c r="J61" t="s">
-        <v>96</v>
-      </c>
-      <c r="K61" t="s">
-        <v>267</v>
-      </c>
-      <c r="L61" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="13" t="s">
+      <c r="C62" t="s">
         <v>283</v>
       </c>
-      <c r="B62" t="s">
+      <c r="D62" t="s">
+        <v>74</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C62" t="s">
+      <c r="F62" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="D62" t="s">
-        <v>76</v>
-      </c>
-      <c r="E62" s="4" t="s">
+      <c r="H62" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="F62" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" s="4" t="s">
+      <c r="I62" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="H62" s="5" t="s">
+      <c r="J62" t="s">
+        <v>94</v>
+      </c>
+      <c r="K62" t="s">
+        <v>265</v>
+      </c>
+      <c r="L62" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="B63" t="s">
         <v>289</v>
       </c>
-      <c r="J62" t="s">
-        <v>96</v>
-      </c>
-      <c r="K62" t="s">
-        <v>267</v>
-      </c>
-      <c r="L62" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="13" t="s">
+      <c r="C63" t="s">
         <v>290</v>
       </c>
-      <c r="B63" t="s">
+      <c r="D63" t="s">
+        <v>74</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="F63" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" t="s">
+        <v>285</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I63" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C63" t="s">
+      <c r="J63" t="s">
+        <v>94</v>
+      </c>
+      <c r="K63" t="s">
+        <v>265</v>
+      </c>
+      <c r="L63" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="D63" t="s">
-        <v>76</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="F63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" t="s">
-        <v>287</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="I63" s="1" t="s">
+      <c r="B64" t="s">
         <v>293</v>
       </c>
-      <c r="J63" t="s">
-        <v>96</v>
-      </c>
-      <c r="K63" t="s">
-        <v>267</v>
-      </c>
-      <c r="L63" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="13" t="s">
+      <c r="C64" t="s">
         <v>294</v>
       </c>
-      <c r="B64" t="s">
+      <c r="D64" t="s">
+        <v>74</v>
+      </c>
+      <c r="E64" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" t="s">
+        <v>262</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I64" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C64" t="s">
+      <c r="J64" t="s">
+        <v>94</v>
+      </c>
+      <c r="K64" t="s">
+        <v>265</v>
+      </c>
+      <c r="L64" t="s">
         <v>296</v>
       </c>
-      <c r="D64" t="s">
-        <v>76</v>
-      </c>
-      <c r="E64" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" t="s">
-        <v>264</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="I64" s="1" t="s">
+    </row>
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="J64" t="s">
-        <v>96</v>
-      </c>
-      <c r="K64" t="s">
-        <v>267</v>
-      </c>
-      <c r="L64" t="s">
+      <c r="B65" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="13" t="s">
+      <c r="C65" t="s">
         <v>299</v>
       </c>
-      <c r="B65" t="s">
+      <c r="D65" t="s">
+        <v>74</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" t="s">
+        <v>262</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I65" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C65" t="s">
+      <c r="J65" t="s">
+        <v>94</v>
+      </c>
+      <c r="K65" t="s">
+        <v>265</v>
+      </c>
+      <c r="L65" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="D65" t="s">
-        <v>76</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" t="s">
-        <v>15</v>
-      </c>
-      <c r="G65" t="s">
-        <v>264</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="I65" s="1" t="s">
+      <c r="B66" t="s">
         <v>302</v>
       </c>
-      <c r="J65" t="s">
-        <v>96</v>
-      </c>
-      <c r="K65" t="s">
-        <v>267</v>
-      </c>
-      <c r="L65" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="s">
+      <c r="C66" t="s">
         <v>303</v>
       </c>
-      <c r="B66" t="s">
+      <c r="D66" t="s">
+        <v>74</v>
+      </c>
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" t="s">
+        <v>262</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I66" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C66" t="s">
+      <c r="J66" t="s">
+        <v>94</v>
+      </c>
+      <c r="K66" t="s">
+        <v>265</v>
+      </c>
+      <c r="L66" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="D66" t="s">
-        <v>76</v>
-      </c>
-      <c r="E66" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" t="s">
-        <v>15</v>
-      </c>
-      <c r="G66" t="s">
-        <v>264</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="I66" s="1" t="s">
+      <c r="B67" t="s">
         <v>306</v>
       </c>
-      <c r="J66" t="s">
-        <v>96</v>
-      </c>
-      <c r="K66" t="s">
-        <v>267</v>
-      </c>
-      <c r="L66" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
+      <c r="C67" t="s">
         <v>307</v>
       </c>
-      <c r="B67" t="s">
+      <c r="D67" t="s">
+        <v>74</v>
+      </c>
+      <c r="E67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" t="s">
+        <v>262</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I67" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C67" t="s">
+      <c r="J67" t="s">
+        <v>94</v>
+      </c>
+      <c r="K67" t="s">
+        <v>265</v>
+      </c>
+      <c r="L67" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="D67" t="s">
-        <v>76</v>
-      </c>
-      <c r="E67" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" t="s">
-        <v>264</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="I67" s="1" t="s">
+      <c r="B68" t="s">
         <v>310</v>
       </c>
-      <c r="J67" t="s">
-        <v>96</v>
-      </c>
-      <c r="K67" t="s">
-        <v>267</v>
-      </c>
-      <c r="L67" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="s">
+      <c r="C68" t="s">
         <v>311</v>
       </c>
-      <c r="B68" t="s">
+      <c r="D68" t="s">
+        <v>74</v>
+      </c>
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" t="s">
+        <v>15</v>
+      </c>
+      <c r="G68" t="s">
+        <v>262</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I68" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C68" t="s">
+      <c r="J68" t="s">
+        <v>94</v>
+      </c>
+      <c r="K68" t="s">
+        <v>265</v>
+      </c>
+      <c r="L68" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="D68" t="s">
-        <v>76</v>
-      </c>
-      <c r="E68" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" t="s">
-        <v>15</v>
-      </c>
-      <c r="G68" t="s">
-        <v>264</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="I68" s="1" t="s">
+      <c r="B69" t="s">
         <v>314</v>
       </c>
-      <c r="J68" t="s">
-        <v>96</v>
-      </c>
-      <c r="K68" t="s">
-        <v>267</v>
-      </c>
-      <c r="L68" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="13" t="s">
+      <c r="C69" t="s">
         <v>315</v>
       </c>
-      <c r="B69" t="s">
+      <c r="D69" t="s">
+        <v>74</v>
+      </c>
+      <c r="E69" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" t="s">
+        <v>262</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I69" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C69" t="s">
+      <c r="J69" t="s">
+        <v>94</v>
+      </c>
+      <c r="K69" t="s">
+        <v>265</v>
+      </c>
+      <c r="L69" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="D69" t="s">
-        <v>76</v>
-      </c>
-      <c r="E69" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" t="s">
-        <v>264</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="I69" s="1" t="s">
+      <c r="B70" t="s">
         <v>318</v>
       </c>
-      <c r="J69" t="s">
-        <v>96</v>
-      </c>
-      <c r="K69" t="s">
-        <v>267</v>
-      </c>
-      <c r="L69" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="13" t="s">
+      <c r="C70" t="s">
         <v>319</v>
       </c>
-      <c r="B70" t="s">
+      <c r="D70" t="s">
+        <v>74</v>
+      </c>
+      <c r="E70" t="s">
         <v>320</v>
       </c>
-      <c r="C70" t="s">
+      <c r="F70" t="s">
+        <v>15</v>
+      </c>
+      <c r="G70" t="s">
         <v>321</v>
       </c>
-      <c r="D70" t="s">
-        <v>76</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="H70" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="F70" t="s">
-        <v>15</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="I70" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="H70" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="J70" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K70" t="s">
         <v>30</v>
       </c>
       <c r="L70" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="B71" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="13" t="s">
+      <c r="C71" t="s">
         <v>327</v>
       </c>
-      <c r="B71" t="s">
-        <v>328</v>
-      </c>
-      <c r="C71" t="s">
-        <v>329</v>
-      </c>
       <c r="D71" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E71" t="s">
+        <v>320</v>
+      </c>
+      <c r="F71" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" t="s">
+        <v>321</v>
+      </c>
+      <c r="H71" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="F71" t="s">
-        <v>15</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="I71" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="H71" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="J71" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K71" t="s">
         <v>30</v>
       </c>
       <c r="L71" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="B72" t="s">
+        <v>329</v>
+      </c>
+      <c r="C72" t="s">
         <v>330</v>
       </c>
-      <c r="B72" t="s">
+      <c r="D72" t="s">
+        <v>74</v>
+      </c>
+      <c r="E72" t="s">
+        <v>45</v>
+      </c>
+      <c r="F72" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" t="s">
         <v>331</v>
       </c>
-      <c r="C72" t="s">
+      <c r="H72" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D72" t="s">
-        <v>76</v>
-      </c>
-      <c r="E72" t="s">
-        <v>46</v>
-      </c>
-      <c r="F72" t="s">
-        <v>15</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="I72" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="H72" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="J72" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K72" t="s">
         <v>30</v>
       </c>
       <c r="L72" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="B73" t="s">
+        <v>335</v>
+      </c>
+      <c r="C73" t="s">
         <v>336</v>
       </c>
-      <c r="B73" t="s">
+      <c r="D73" t="s">
+        <v>112</v>
+      </c>
+      <c r="E73" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="4" t="s">
         <v>337</v>
-      </c>
-      <c r="C73" t="s">
-        <v>338</v>
-      </c>
-      <c r="D73" t="s">
-        <v>114</v>
-      </c>
-      <c r="E73" t="s">
-        <v>14</v>
-      </c>
-      <c r="F73" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>339</v>
       </c>
       <c r="H73" s="3"/>
       <c r="I73" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J73" t="s">
+        <v>61</v>
+      </c>
+      <c r="K73" t="s">
+        <v>62</v>
+      </c>
+      <c r="L73" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="B74" t="s">
         <v>340</v>
       </c>
-      <c r="J73" t="s">
-        <v>63</v>
-      </c>
-      <c r="K73" t="s">
-        <v>64</v>
-      </c>
-      <c r="L73" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="13" t="s">
+      <c r="C74" t="s">
         <v>341</v>
       </c>
-      <c r="B74" t="s">
+      <c r="D74" t="s">
+        <v>112</v>
+      </c>
+      <c r="E74" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H74" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C74" t="s">
+      <c r="I74" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D74" t="s">
-        <v>114</v>
-      </c>
-      <c r="E74" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H74" s="1" t="s">
+      <c r="J74" t="s">
+        <v>126</v>
+      </c>
+      <c r="K74" t="s">
+        <v>62</v>
+      </c>
+      <c r="L74" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="B75" t="s">
         <v>345</v>
       </c>
-      <c r="J74" t="s">
-        <v>128</v>
-      </c>
-      <c r="K74" t="s">
-        <v>64</v>
-      </c>
-      <c r="L74" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="s">
+      <c r="C75" t="s">
         <v>346</v>
       </c>
-      <c r="B75" t="s">
+      <c r="D75" t="s">
         <v>347</v>
       </c>
-      <c r="C75" t="s">
+      <c r="E75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="I75" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D75" t="s">
+      <c r="J75" t="s">
+        <v>126</v>
+      </c>
+      <c r="K75" t="s">
+        <v>62</v>
+      </c>
+      <c r="L75" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="E75" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="I75" s="1" t="s">
+      <c r="B76" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="J75" t="s">
-        <v>128</v>
-      </c>
-      <c r="K75" t="s">
-        <v>64</v>
-      </c>
-      <c r="L75" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
+      <c r="C76" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="D76" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H76" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="I76" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="D76" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G76" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="H76" s="8" t="s">
+      <c r="J76" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K76" t="s">
+        <v>62</v>
+      </c>
+      <c r="L76" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="I76" s="8" t="s">
+      <c r="B77" t="s">
         <v>355</v>
       </c>
-      <c r="J76" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K76" t="s">
-        <v>64</v>
-      </c>
-      <c r="L76" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="s">
+      <c r="C77" s="9" t="s">
         <v>356</v>
-      </c>
-      <c r="B77" t="s">
-        <v>357</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>358</v>
       </c>
       <c r="D77" t="s">
         <v>26</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F77" t="s">
         <v>15</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H77" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J77" t="s">
+        <v>61</v>
+      </c>
+      <c r="K77" t="s">
+        <v>62</v>
+      </c>
+      <c r="L77" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="I77" s="1" t="s">
+      <c r="B78" t="s">
         <v>360</v>
       </c>
-      <c r="J77" t="s">
-        <v>63</v>
-      </c>
-      <c r="K77" t="s">
-        <v>64</v>
-      </c>
-      <c r="L77" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="13" t="s">
+      <c r="C78" t="s">
         <v>361</v>
       </c>
-      <c r="B78" t="s">
-        <v>362</v>
-      </c>
-      <c r="C78" t="s">
-        <v>363</v>
-      </c>
       <c r="D78" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E78" t="s">
         <v>14</v>
@@ -5939,34 +5963,34 @@
         <v>15</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H78" s="3"/>
       <c r="I78" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="J78" t="s">
+        <v>61</v>
+      </c>
+      <c r="K78" t="s">
+        <v>62</v>
+      </c>
+      <c r="L78" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="B79" t="s">
         <v>364</v>
       </c>
-      <c r="J78" t="s">
-        <v>63</v>
-      </c>
-      <c r="K78" t="s">
-        <v>64</v>
-      </c>
-      <c r="L78" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
+      <c r="C79" t="s">
         <v>365</v>
       </c>
-      <c r="B79" t="s">
-        <v>366</v>
-      </c>
-      <c r="C79" t="s">
-        <v>367</v>
-      </c>
       <c r="D79" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E79" t="s">
         <v>14</v>
@@ -5975,34 +5999,34 @@
         <v>15</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H79" s="3"/>
       <c r="I79" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="J79" t="s">
+        <v>61</v>
+      </c>
+      <c r="K79" t="s">
+        <v>62</v>
+      </c>
+      <c r="L79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="B80" t="s">
         <v>368</v>
       </c>
-      <c r="J79" t="s">
-        <v>63</v>
-      </c>
-      <c r="K79" t="s">
-        <v>64</v>
-      </c>
-      <c r="L79" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="13" t="s">
+      <c r="C80" t="s">
         <v>369</v>
       </c>
-      <c r="B80" t="s">
-        <v>370</v>
-      </c>
-      <c r="C80" t="s">
-        <v>371</v>
-      </c>
       <c r="D80" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E80" t="s">
         <v>14</v>
@@ -6011,73 +6035,73 @@
         <v>15</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H80" s="3"/>
       <c r="I80" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J80" t="s">
+        <v>61</v>
+      </c>
+      <c r="K80" t="s">
+        <v>62</v>
+      </c>
+      <c r="L80" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="B81" t="s">
         <v>372</v>
       </c>
-      <c r="J80" t="s">
-        <v>63</v>
-      </c>
-      <c r="K80" t="s">
-        <v>64</v>
-      </c>
-      <c r="L80" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="13" t="s">
+      <c r="C81" t="s">
         <v>373</v>
       </c>
-      <c r="B81" t="s">
+      <c r="D81" t="s">
+        <v>44</v>
+      </c>
+      <c r="E81" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" t="s">
+        <v>15</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H81" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="C81" t="s">
+      <c r="I81" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="D81" t="s">
-        <v>45</v>
-      </c>
-      <c r="E81" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" t="s">
-        <v>15</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="H81" s="3" t="s">
+      <c r="J81" t="s">
+        <v>94</v>
+      </c>
+      <c r="K81" t="s">
+        <v>62</v>
+      </c>
+      <c r="L81" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="B82" t="s">
         <v>377</v>
       </c>
-      <c r="J81" t="s">
-        <v>96</v>
-      </c>
-      <c r="K81" t="s">
-        <v>64</v>
-      </c>
-      <c r="L81" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
+      <c r="C82" t="s">
         <v>378</v>
       </c>
-      <c r="B82" t="s">
+      <c r="D82" t="s">
         <v>379</v>
       </c>
-      <c r="C82" t="s">
-        <v>380</v>
-      </c>
-      <c r="D82" t="s">
-        <v>381</v>
-      </c>
       <c r="E82" t="s">
         <v>14</v>
       </c>
@@ -6085,145 +6109,145 @@
         <v>15</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H82" s="3"/>
       <c r="I82" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="J82" t="s">
+        <v>61</v>
+      </c>
+      <c r="K82" t="s">
+        <v>62</v>
+      </c>
+      <c r="L82" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="B83" t="s">
         <v>382</v>
       </c>
-      <c r="J82" t="s">
-        <v>63</v>
-      </c>
-      <c r="K82" t="s">
-        <v>64</v>
-      </c>
-      <c r="L82" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="13" t="s">
+      <c r="C83" t="s">
         <v>383</v>
       </c>
-      <c r="B83" t="s">
+      <c r="D83" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E83" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" t="s">
+        <v>15</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="I83" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C83" t="s">
+      <c r="J83" t="s">
+        <v>61</v>
+      </c>
+      <c r="K83" t="s">
+        <v>62</v>
+      </c>
+      <c r="L83" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="D83" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E83" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" t="s">
-        <v>15</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H83" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="I83" s="1" t="s">
+      <c r="B84" t="s">
         <v>386</v>
       </c>
-      <c r="J83" t="s">
-        <v>63</v>
-      </c>
-      <c r="K83" t="s">
-        <v>64</v>
-      </c>
-      <c r="L83" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
+      <c r="C84" t="s">
         <v>387</v>
       </c>
-      <c r="B84" t="s">
+      <c r="D84" t="s">
+        <v>74</v>
+      </c>
+      <c r="E84" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" t="s">
+        <v>15</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H84" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C84" t="s">
+      <c r="I84" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="D84" t="s">
-        <v>76</v>
-      </c>
-      <c r="E84" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" t="s">
-        <v>15</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H84" s="1" t="s">
+      <c r="J84" t="s">
+        <v>94</v>
+      </c>
+      <c r="K84" t="s">
+        <v>62</v>
+      </c>
+      <c r="L84" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="I84" s="1" t="s">
+      <c r="B85" t="s">
         <v>391</v>
       </c>
-      <c r="J84" t="s">
-        <v>96</v>
-      </c>
-      <c r="K84" t="s">
-        <v>64</v>
-      </c>
-      <c r="L84" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="13" t="s">
+      <c r="C85" t="s">
         <v>392</v>
       </c>
-      <c r="B85" t="s">
+      <c r="D85" t="s">
+        <v>67</v>
+      </c>
+      <c r="E85" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85" t="s">
         <v>393</v>
       </c>
-      <c r="C85" t="s">
+      <c r="H85" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="D85" t="s">
-        <v>69</v>
-      </c>
-      <c r="E85" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" t="s">
-        <v>15</v>
-      </c>
-      <c r="G85" t="s">
+      <c r="I85" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="H85" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>397</v>
-      </c>
       <c r="J85" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K85" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L85" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="13" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B86" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C86" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s">
@@ -6236,22 +6260,22 @@
         <v>16</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I86" s="1"/>
       <c r="J86" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="B87" t="s">
+        <v>473</v>
+      </c>
+      <c r="C87" t="s">
         <v>474</v>
-      </c>
-      <c r="B87" t="s">
-        <v>475</v>
-      </c>
-      <c r="C87" t="s">
-        <v>476</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s">
@@ -6264,22 +6288,22 @@
         <v>16</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I87" s="1"/>
       <c r="J87" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="13" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B88" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C88" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s">
@@ -6292,22 +6316,22 @@
         <v>16</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I88" s="1"/>
       <c r="J88" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="B89" t="s">
+        <v>397</v>
+      </c>
+      <c r="C89" t="s">
         <v>398</v>
-      </c>
-      <c r="B89" t="s">
-        <v>399</v>
-      </c>
-      <c r="C89" t="s">
-        <v>400</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s">
@@ -6323,21 +6347,21 @@
         <v>22</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J89" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="B90" t="s">
+        <v>438</v>
+      </c>
+      <c r="C90" t="s">
         <v>439</v>
-      </c>
-      <c r="B90" t="s">
-        <v>440</v>
-      </c>
-      <c r="C90" t="s">
-        <v>441</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s">
@@ -6353,21 +6377,21 @@
         <v>22</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J90" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="B91" t="s">
+        <v>449</v>
+      </c>
+      <c r="C91" t="s">
         <v>450</v>
-      </c>
-      <c r="B91" t="s">
-        <v>451</v>
-      </c>
-      <c r="C91" t="s">
-        <v>452</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s">
@@ -6383,21 +6407,21 @@
         <v>22</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="J91" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="B92" t="s">
+        <v>453</v>
+      </c>
+      <c r="C92" t="s">
         <v>454</v>
-      </c>
-      <c r="B92" t="s">
-        <v>455</v>
-      </c>
-      <c r="C92" t="s">
-        <v>456</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s">
@@ -6413,21 +6437,21 @@
         <v>22</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J92" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="B93" t="s">
+        <v>457</v>
+      </c>
+      <c r="C93" t="s">
         <v>458</v>
-      </c>
-      <c r="B93" t="s">
-        <v>459</v>
-      </c>
-      <c r="C93" t="s">
-        <v>460</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s">
@@ -6443,21 +6467,21 @@
         <v>22</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J93" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="B94" t="s">
+        <v>461</v>
+      </c>
+      <c r="C94" t="s">
         <v>462</v>
-      </c>
-      <c r="B94" t="s">
-        <v>463</v>
-      </c>
-      <c r="C94" t="s">
-        <v>464</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s">
@@ -6473,21 +6497,21 @@
         <v>22</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J94" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="B95" t="s">
+        <v>465</v>
+      </c>
+      <c r="C95" t="s">
         <v>466</v>
-      </c>
-      <c r="B95" t="s">
-        <v>467</v>
-      </c>
-      <c r="C95" t="s">
-        <v>468</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s">
@@ -6503,21 +6527,21 @@
         <v>22</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J95" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="B96" t="s">
+        <v>469</v>
+      </c>
+      <c r="C96" t="s">
         <v>470</v>
-      </c>
-      <c r="B96" t="s">
-        <v>471</v>
-      </c>
-      <c r="C96" t="s">
-        <v>472</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s">
@@ -6533,21 +6557,21 @@
         <v>22</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="J96" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="B97" t="s">
+        <v>482</v>
+      </c>
+      <c r="C97" t="s">
         <v>483</v>
-      </c>
-      <c r="B97" t="s">
-        <v>484</v>
-      </c>
-      <c r="C97" t="s">
-        <v>485</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s">
@@ -6563,21 +6587,21 @@
         <v>22</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J97" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="13" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="B98" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C98" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s">
@@ -6593,21 +6617,21 @@
         <v>22</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J98" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="B99" t="s">
+        <v>404</v>
+      </c>
+      <c r="C99" t="s">
         <v>405</v>
-      </c>
-      <c r="B99" t="s">
-        <v>406</v>
-      </c>
-      <c r="C99" t="s">
-        <v>407</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s">
@@ -6623,21 +6647,21 @@
         <v>22</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="J99" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="B100" t="s">
+        <v>408</v>
+      </c>
+      <c r="C100" t="s">
         <v>409</v>
-      </c>
-      <c r="B100" t="s">
-        <v>410</v>
-      </c>
-      <c r="C100" t="s">
-        <v>411</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s">
@@ -6653,21 +6677,21 @@
         <v>22</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="J100" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="B101" t="s">
+        <v>412</v>
+      </c>
+      <c r="C101" t="s">
         <v>413</v>
-      </c>
-      <c r="B101" t="s">
-        <v>414</v>
-      </c>
-      <c r="C101" t="s">
-        <v>415</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s">
@@ -6683,21 +6707,21 @@
         <v>22</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J101" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="13" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B102" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C102" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s">
@@ -6713,21 +6737,21 @@
         <v>22</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J102" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="B103" t="s">
+        <v>419</v>
+      </c>
+      <c r="C103" t="s">
         <v>420</v>
-      </c>
-      <c r="B103" t="s">
-        <v>421</v>
-      </c>
-      <c r="C103" t="s">
-        <v>422</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s">
@@ -6743,21 +6767,21 @@
         <v>22</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J103" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="B104" t="s">
+        <v>422</v>
+      </c>
+      <c r="C104" t="s">
         <v>423</v>
-      </c>
-      <c r="B104" t="s">
-        <v>424</v>
-      </c>
-      <c r="C104" t="s">
-        <v>425</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s">
@@ -6773,21 +6797,21 @@
         <v>22</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J104" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="B105" t="s">
+        <v>426</v>
+      </c>
+      <c r="C105" t="s">
         <v>427</v>
-      </c>
-      <c r="B105" t="s">
-        <v>428</v>
-      </c>
-      <c r="C105" t="s">
-        <v>429</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s">
@@ -6797,33 +6821,33 @@
         <v>15</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="J105" t="s">
         <v>19</v>
       </c>
       <c r="K105" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L105" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="B106" t="s">
+        <v>430</v>
+      </c>
+      <c r="C106" t="s">
         <v>431</v>
-      </c>
-      <c r="B106" t="s">
-        <v>432</v>
-      </c>
-      <c r="C106" t="s">
-        <v>433</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s">
@@ -6839,21 +6863,21 @@
         <v>22</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J106" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="B107" t="s">
+        <v>434</v>
+      </c>
+      <c r="C107" t="s">
         <v>435</v>
-      </c>
-      <c r="B107" t="s">
-        <v>436</v>
-      </c>
-      <c r="C107" t="s">
-        <v>437</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s">
@@ -6869,21 +6893,21 @@
         <v>22</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J107" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="13" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="B108" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C108" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s">
@@ -6899,21 +6923,21 @@
         <v>22</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="J108" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="B109" t="s">
+        <v>445</v>
+      </c>
+      <c r="C109" t="s">
         <v>446</v>
-      </c>
-      <c r="B109" t="s">
-        <v>447</v>
-      </c>
-      <c r="C109" t="s">
-        <v>448</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s">
@@ -6929,21 +6953,21 @@
         <v>22</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J109" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="B110" t="s">
+        <v>485</v>
+      </c>
+      <c r="C110" t="s">
         <v>486</v>
-      </c>
-      <c r="B110" t="s">
-        <v>487</v>
-      </c>
-      <c r="C110" t="s">
-        <v>488</v>
       </c>
       <c r="D110" t="s">
         <v>26</v>
@@ -6955,71 +6979,71 @@
         <v>15</v>
       </c>
       <c r="G110" t="s">
+        <v>487</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="I110" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="H110" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>491</v>
-      </c>
       <c r="J110" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K110" t="s">
         <v>30</v>
       </c>
       <c r="L110" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="B111" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="13" t="s">
+      <c r="C111" t="s">
         <v>493</v>
       </c>
-      <c r="B111" t="s">
+      <c r="D111" t="s">
+        <v>74</v>
+      </c>
+      <c r="E111" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111" t="s">
+        <v>15</v>
+      </c>
+      <c r="G111" t="s">
         <v>494</v>
       </c>
-      <c r="C111" t="s">
+      <c r="H111" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D111" t="s">
-        <v>76</v>
-      </c>
-      <c r="E111" t="s">
-        <v>14</v>
-      </c>
-      <c r="F111" t="s">
-        <v>15</v>
-      </c>
-      <c r="G111" t="s">
+      <c r="I111" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="H111" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>498</v>
-      </c>
       <c r="J111" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K111" t="s">
         <v>30</v>
       </c>
       <c r="L111" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="B112" t="s">
+        <v>498</v>
+      </c>
+      <c r="C112" t="s">
         <v>499</v>
-      </c>
-      <c r="B112" t="s">
-        <v>500</v>
-      </c>
-      <c r="C112" t="s">
-        <v>501</v>
       </c>
       <c r="D112" t="s">
         <v>26</v>
@@ -7031,74 +7055,74 @@
         <v>15</v>
       </c>
       <c r="G112" t="s">
+        <v>500</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="I112" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="H112" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>504</v>
-      </c>
       <c r="J112" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K112" t="s">
         <v>30</v>
       </c>
       <c r="L112" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="B113" t="s">
+        <v>504</v>
+      </c>
+      <c r="C113" t="s">
         <v>505</v>
       </c>
-      <c r="B113" t="s">
+      <c r="D113" t="s">
+        <v>74</v>
+      </c>
+      <c r="E113" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113" t="s">
+        <v>15</v>
+      </c>
+      <c r="G113" t="s">
+        <v>500</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="I113" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C113" t="s">
-        <v>507</v>
-      </c>
-      <c r="D113" t="s">
-        <v>76</v>
-      </c>
-      <c r="E113" t="s">
-        <v>14</v>
-      </c>
-      <c r="F113" t="s">
-        <v>15</v>
-      </c>
-      <c r="G113" t="s">
-        <v>502</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>508</v>
-      </c>
       <c r="J113" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K113" t="s">
         <v>30</v>
       </c>
       <c r="L113" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="B114" t="s">
+        <v>508</v>
+      </c>
+      <c r="C114" t="s">
         <v>509</v>
       </c>
-      <c r="B114" t="s">
-        <v>510</v>
-      </c>
-      <c r="C114" t="s">
-        <v>511</v>
-      </c>
       <c r="D114" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E114" t="s">
         <v>14</v>
@@ -7107,36 +7131,36 @@
         <v>15</v>
       </c>
       <c r="G114" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="J114" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K114" t="s">
         <v>30</v>
       </c>
       <c r="L114" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="B115" t="s">
+        <v>511</v>
+      </c>
+      <c r="C115" t="s">
         <v>512</v>
       </c>
-      <c r="B115" t="s">
-        <v>513</v>
-      </c>
-      <c r="C115" t="s">
-        <v>514</v>
-      </c>
       <c r="D115" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E115" t="s">
         <v>14</v>
@@ -7145,36 +7169,36 @@
         <v>15</v>
       </c>
       <c r="G115" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="J115" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K115" t="s">
         <v>30</v>
       </c>
       <c r="L115" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="B116" t="s">
+        <v>514</v>
+      </c>
+      <c r="C116" t="s">
         <v>515</v>
       </c>
-      <c r="B116" t="s">
-        <v>516</v>
-      </c>
-      <c r="C116" t="s">
-        <v>517</v>
-      </c>
       <c r="D116" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E116" t="s">
         <v>14</v>
@@ -7183,370 +7207,370 @@
         <v>15</v>
       </c>
       <c r="G116" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="J116" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K116" t="s">
         <v>30</v>
       </c>
       <c r="L116" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="B117" t="s">
+        <v>517</v>
+      </c>
+      <c r="C117" t="s">
         <v>518</v>
       </c>
-      <c r="B117" t="s">
+      <c r="D117" t="s">
+        <v>74</v>
+      </c>
+      <c r="E117" t="s">
+        <v>14</v>
+      </c>
+      <c r="F117" t="s">
+        <v>15</v>
+      </c>
+      <c r="G117" t="s">
+        <v>500</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="I117" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="C117" t="s">
-        <v>520</v>
-      </c>
-      <c r="D117" t="s">
-        <v>76</v>
-      </c>
-      <c r="E117" t="s">
-        <v>14</v>
-      </c>
-      <c r="F117" t="s">
-        <v>15</v>
-      </c>
-      <c r="G117" t="s">
-        <v>502</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>521</v>
-      </c>
       <c r="J117" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K117" t="s">
         <v>30</v>
       </c>
       <c r="L117" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="B118" t="s">
+        <v>521</v>
+      </c>
+      <c r="C118" t="s">
         <v>522</v>
       </c>
-      <c r="B118" t="s">
+      <c r="D118" t="s">
+        <v>74</v>
+      </c>
+      <c r="E118" t="s">
+        <v>14</v>
+      </c>
+      <c r="F118" t="s">
+        <v>15</v>
+      </c>
+      <c r="G118" t="s">
         <v>523</v>
       </c>
-      <c r="C118" t="s">
+      <c r="H118" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="D118" t="s">
-        <v>76</v>
-      </c>
-      <c r="E118" t="s">
-        <v>14</v>
-      </c>
-      <c r="F118" t="s">
-        <v>15</v>
-      </c>
-      <c r="G118" t="s">
+      <c r="I118" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="H118" s="10" t="s">
+      <c r="J118" t="s">
         <v>526</v>
       </c>
-      <c r="I118" s="10" t="s">
+    </row>
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="13" t="s">
         <v>527</v>
       </c>
-      <c r="J118" t="s">
+      <c r="B119" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="13" t="s">
+      <c r="C119" t="s">
         <v>529</v>
       </c>
-      <c r="B119" t="s">
+      <c r="D119" t="s">
+        <v>138</v>
+      </c>
+      <c r="E119" t="s">
+        <v>139</v>
+      </c>
+      <c r="F119" t="s">
+        <v>15</v>
+      </c>
+      <c r="G119" t="s">
+        <v>140</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I119" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="C119" t="s">
-        <v>531</v>
-      </c>
-      <c r="D119" t="s">
-        <v>140</v>
-      </c>
-      <c r="E119" t="s">
-        <v>141</v>
-      </c>
-      <c r="F119" t="s">
-        <v>15</v>
-      </c>
-      <c r="G119" t="s">
-        <v>142</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I119" s="1" t="s">
-        <v>532</v>
       </c>
       <c r="J119" t="s">
         <v>19</v>
       </c>
       <c r="K119" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L119" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="B120" t="s">
+        <v>532</v>
+      </c>
+      <c r="C120" t="s">
         <v>533</v>
       </c>
-      <c r="B120" t="s">
+      <c r="D120" t="s">
+        <v>138</v>
+      </c>
+      <c r="E120" t="s">
+        <v>139</v>
+      </c>
+      <c r="F120" t="s">
+        <v>15</v>
+      </c>
+      <c r="G120" t="s">
+        <v>140</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I120" s="1" t="s">
         <v>534</v>
-      </c>
-      <c r="C120" t="s">
-        <v>535</v>
-      </c>
-      <c r="D120" t="s">
-        <v>140</v>
-      </c>
-      <c r="E120" t="s">
-        <v>141</v>
-      </c>
-      <c r="F120" t="s">
-        <v>15</v>
-      </c>
-      <c r="G120" t="s">
-        <v>142</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I120" s="1" t="s">
-        <v>536</v>
       </c>
       <c r="J120" t="s">
         <v>19</v>
       </c>
       <c r="K120" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L120" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="B121" t="s">
+        <v>536</v>
+      </c>
+      <c r="C121" t="s">
         <v>537</v>
       </c>
-      <c r="B121" t="s">
+      <c r="D121" t="s">
+        <v>138</v>
+      </c>
+      <c r="E121" t="s">
+        <v>139</v>
+      </c>
+      <c r="F121" t="s">
+        <v>15</v>
+      </c>
+      <c r="G121" t="s">
+        <v>140</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I121" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="C121" t="s">
-        <v>539</v>
-      </c>
-      <c r="D121" t="s">
-        <v>140</v>
-      </c>
-      <c r="E121" t="s">
-        <v>141</v>
-      </c>
-      <c r="F121" t="s">
-        <v>15</v>
-      </c>
-      <c r="G121" t="s">
-        <v>142</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I121" s="1" t="s">
-        <v>540</v>
       </c>
       <c r="J121" t="s">
         <v>19</v>
       </c>
       <c r="K121" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L121" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="B122" t="s">
+        <v>540</v>
+      </c>
+      <c r="C122" t="s">
         <v>541</v>
       </c>
-      <c r="B122" t="s">
+      <c r="D122" t="s">
+        <v>138</v>
+      </c>
+      <c r="E122" t="s">
+        <v>139</v>
+      </c>
+      <c r="F122" t="s">
+        <v>15</v>
+      </c>
+      <c r="G122" t="s">
+        <v>140</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I122" s="1" t="s">
         <v>542</v>
-      </c>
-      <c r="C122" t="s">
-        <v>543</v>
-      </c>
-      <c r="D122" t="s">
-        <v>140</v>
-      </c>
-      <c r="E122" t="s">
-        <v>141</v>
-      </c>
-      <c r="F122" t="s">
-        <v>15</v>
-      </c>
-      <c r="G122" t="s">
-        <v>142</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>544</v>
       </c>
       <c r="J122" t="s">
         <v>19</v>
       </c>
       <c r="K122" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L122" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="13" t="s">
+        <v>543</v>
+      </c>
+      <c r="B123" t="s">
+        <v>544</v>
+      </c>
+      <c r="C123" t="s">
         <v>545</v>
       </c>
-      <c r="B123" t="s">
+      <c r="D123" t="s">
+        <v>138</v>
+      </c>
+      <c r="E123" t="s">
+        <v>139</v>
+      </c>
+      <c r="F123" t="s">
+        <v>15</v>
+      </c>
+      <c r="G123" t="s">
+        <v>140</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I123" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="C123" t="s">
-        <v>547</v>
-      </c>
-      <c r="D123" t="s">
-        <v>140</v>
-      </c>
-      <c r="E123" t="s">
-        <v>141</v>
-      </c>
-      <c r="F123" t="s">
-        <v>15</v>
-      </c>
-      <c r="G123" t="s">
-        <v>142</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>548</v>
       </c>
       <c r="J123" t="s">
         <v>19</v>
       </c>
       <c r="K123" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L123" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="B124" t="s">
+        <v>548</v>
+      </c>
+      <c r="C124" t="s">
         <v>549</v>
       </c>
-      <c r="B124" t="s">
+      <c r="D124" t="s">
+        <v>138</v>
+      </c>
+      <c r="E124" t="s">
+        <v>139</v>
+      </c>
+      <c r="F124" t="s">
+        <v>15</v>
+      </c>
+      <c r="G124" t="s">
+        <v>140</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I124" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="C124" t="s">
-        <v>551</v>
-      </c>
-      <c r="D124" t="s">
-        <v>140</v>
-      </c>
-      <c r="E124" t="s">
-        <v>141</v>
-      </c>
-      <c r="F124" t="s">
-        <v>15</v>
-      </c>
-      <c r="G124" t="s">
-        <v>142</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>552</v>
       </c>
       <c r="J124" t="s">
         <v>19</v>
       </c>
       <c r="K124" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L124" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="B125" t="s">
+        <v>552</v>
+      </c>
+      <c r="C125" t="s">
         <v>553</v>
       </c>
-      <c r="B125" t="s">
+      <c r="D125" t="s">
+        <v>112</v>
+      </c>
+      <c r="E125" t="s">
+        <v>14</v>
+      </c>
+      <c r="F125" t="s">
+        <v>15</v>
+      </c>
+      <c r="G125" t="s">
+        <v>255</v>
+      </c>
+      <c r="H125" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="C125" t="s">
-        <v>555</v>
-      </c>
-      <c r="D125" t="s">
-        <v>114</v>
-      </c>
-      <c r="E125" t="s">
-        <v>14</v>
-      </c>
-      <c r="F125" t="s">
-        <v>15</v>
-      </c>
-      <c r="G125" t="s">
-        <v>257</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>556</v>
       </c>
       <c r="I125" s="1"/>
       <c r="J125" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K125" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L125" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="B126" t="s">
+        <v>556</v>
+      </c>
+      <c r="C126" t="s">
         <v>557</v>
       </c>
-      <c r="B126" t="s">
-        <v>558</v>
-      </c>
-      <c r="C126" t="s">
-        <v>559</v>
-      </c>
       <c r="D126" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E126" t="s">
         <v>14</v>
@@ -7555,96 +7579,96 @@
         <v>15</v>
       </c>
       <c r="G126" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="I126" s="1"/>
       <c r="J126" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K126" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L126" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="B127" t="s">
+        <v>559</v>
+      </c>
+      <c r="D127" t="s">
         <v>560</v>
       </c>
-      <c r="B127" t="s">
+      <c r="E127" t="s">
         <v>561</v>
       </c>
-      <c r="D127" t="s">
+      <c r="F127" t="s">
+        <v>15</v>
+      </c>
+      <c r="G127" t="s">
         <v>562</v>
-      </c>
-      <c r="E127" t="s">
-        <v>563</v>
-      </c>
-      <c r="F127" t="s">
-        <v>15</v>
-      </c>
-      <c r="G127" t="s">
-        <v>564</v>
       </c>
       <c r="H127" s="10"/>
       <c r="I127" s="1"/>
       <c r="J127" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="K127" t="s">
         <v>30</v>
       </c>
       <c r="L127" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="13" t="s">
+        <v>564</v>
+      </c>
+      <c r="B128" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="13" t="s">
-        <v>566</v>
-      </c>
-      <c r="B128" t="s">
-        <v>567</v>
-      </c>
       <c r="D128" t="s">
+        <v>560</v>
+      </c>
+      <c r="E128" t="s">
+        <v>561</v>
+      </c>
+      <c r="F128" t="s">
+        <v>15</v>
+      </c>
+      <c r="G128" t="s">
         <v>562</v>
-      </c>
-      <c r="E128" t="s">
-        <v>563</v>
-      </c>
-      <c r="F128" t="s">
-        <v>15</v>
-      </c>
-      <c r="G128" t="s">
-        <v>564</v>
       </c>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
       <c r="J128" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="K128" t="s">
         <v>30</v>
       </c>
       <c r="L128" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="B129" t="s">
+        <v>567</v>
+      </c>
+      <c r="C129" t="s">
         <v>568</v>
       </c>
-      <c r="B129" t="s">
-        <v>569</v>
-      </c>
-      <c r="C129" t="s">
-        <v>570</v>
-      </c>
       <c r="D129" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E129" t="s">
         <v>14</v>
@@ -7653,70 +7677,70 @@
         <v>15</v>
       </c>
       <c r="G129" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="I129" s="1"/>
       <c r="J129" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K129" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L129" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="13" t="s">
+        <v>569</v>
+      </c>
+      <c r="B130" t="s">
+        <v>570</v>
+      </c>
+      <c r="C130" t="s">
         <v>571</v>
       </c>
-      <c r="B130" t="s">
+      <c r="D130" t="s">
+        <v>112</v>
+      </c>
+      <c r="E130" t="s">
+        <v>14</v>
+      </c>
+      <c r="F130" t="s">
+        <v>15</v>
+      </c>
+      <c r="G130" t="s">
         <v>572</v>
       </c>
-      <c r="C130" t="s">
+      <c r="H130" s="1" t="s">
         <v>573</v>
-      </c>
-      <c r="D130" t="s">
-        <v>114</v>
-      </c>
-      <c r="E130" t="s">
-        <v>14</v>
-      </c>
-      <c r="F130" t="s">
-        <v>15</v>
-      </c>
-      <c r="G130" t="s">
-        <v>574</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>575</v>
       </c>
       <c r="I130" s="1"/>
       <c r="J130" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K130" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L130" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="B131" t="s">
+        <v>575</v>
+      </c>
+      <c r="C131" t="s">
         <v>576</v>
       </c>
-      <c r="B131" t="s">
-        <v>577</v>
-      </c>
-      <c r="C131" t="s">
-        <v>578</v>
-      </c>
       <c r="D131" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E131" t="s">
         <v>14</v>
@@ -7725,34 +7749,34 @@
         <v>15</v>
       </c>
       <c r="G131" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="I131" s="1"/>
       <c r="J131" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K131" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L131" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="B132" t="s">
+        <v>578</v>
+      </c>
+      <c r="C132" t="s">
         <v>579</v>
       </c>
-      <c r="B132" t="s">
-        <v>580</v>
-      </c>
-      <c r="C132" t="s">
-        <v>581</v>
-      </c>
       <c r="D132" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E132" t="s">
         <v>14</v>
@@ -7761,34 +7785,34 @@
         <v>15</v>
       </c>
       <c r="G132" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="I132" s="1"/>
       <c r="J132" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K132" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L132" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="B133" t="s">
+        <v>581</v>
+      </c>
+      <c r="C133" t="s">
         <v>582</v>
       </c>
-      <c r="B133" t="s">
-        <v>583</v>
-      </c>
-      <c r="C133" t="s">
-        <v>584</v>
-      </c>
       <c r="D133" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E133" t="s">
         <v>14</v>
@@ -7797,36 +7821,36 @@
         <v>15</v>
       </c>
       <c r="G133" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J133" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K133" t="s">
         <v>30</v>
       </c>
       <c r="L133" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="B134" t="s">
+        <v>584</v>
+      </c>
+      <c r="C134" t="s">
         <v>585</v>
       </c>
-      <c r="B134" t="s">
-        <v>586</v>
-      </c>
-      <c r="C134" t="s">
-        <v>587</v>
-      </c>
       <c r="D134" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E134" t="s">
         <v>14</v>
@@ -7835,36 +7859,36 @@
         <v>15</v>
       </c>
       <c r="G134" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J134" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K134" t="s">
         <v>30</v>
       </c>
       <c r="L134" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="13" t="s">
+        <v>586</v>
+      </c>
+      <c r="B135" t="s">
+        <v>587</v>
+      </c>
+      <c r="C135" t="s">
         <v>588</v>
       </c>
-      <c r="B135" t="s">
-        <v>589</v>
-      </c>
-      <c r="C135" t="s">
-        <v>590</v>
-      </c>
       <c r="D135" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E135" t="s">
         <v>14</v>
@@ -7873,36 +7897,36 @@
         <v>15</v>
       </c>
       <c r="G135" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K135" t="s">
         <v>30</v>
       </c>
       <c r="L135" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="13" t="s">
+        <v>589</v>
+      </c>
+      <c r="B136" t="s">
+        <v>590</v>
+      </c>
+      <c r="C136" t="s">
         <v>591</v>
       </c>
-      <c r="B136" t="s">
-        <v>592</v>
-      </c>
-      <c r="C136" t="s">
-        <v>593</v>
-      </c>
       <c r="D136" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E136" t="s">
         <v>14</v>
@@ -7911,36 +7935,36 @@
         <v>15</v>
       </c>
       <c r="G136" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J136" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K136" t="s">
         <v>30</v>
       </c>
       <c r="L136" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="B137" t="s">
+        <v>593</v>
+      </c>
+      <c r="C137" t="s">
         <v>594</v>
       </c>
-      <c r="B137" t="s">
-        <v>595</v>
-      </c>
-      <c r="C137" t="s">
-        <v>596</v>
-      </c>
       <c r="D137" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E137" t="s">
         <v>14</v>
@@ -7949,36 +7973,36 @@
         <v>15</v>
       </c>
       <c r="G137" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J137" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K137" t="s">
         <v>30</v>
       </c>
       <c r="L137" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="B138" t="s">
+        <v>596</v>
+      </c>
+      <c r="C138" t="s">
         <v>597</v>
       </c>
-      <c r="B138" t="s">
-        <v>598</v>
-      </c>
-      <c r="C138" t="s">
-        <v>599</v>
-      </c>
       <c r="D138" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E138" t="s">
         <v>14</v>
@@ -7987,36 +8011,36 @@
         <v>15</v>
       </c>
       <c r="G138" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K138" t="s">
         <v>30</v>
       </c>
       <c r="L138" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="B139" t="s">
+        <v>599</v>
+      </c>
+      <c r="C139" t="s">
         <v>600</v>
       </c>
-      <c r="B139" t="s">
-        <v>601</v>
-      </c>
-      <c r="C139" t="s">
-        <v>602</v>
-      </c>
       <c r="D139" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E139" t="s">
         <v>14</v>
@@ -8025,36 +8049,36 @@
         <v>15</v>
       </c>
       <c r="G139" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J139" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K139" t="s">
         <v>30</v>
       </c>
       <c r="L139" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="B140" t="s">
+        <v>602</v>
+      </c>
+      <c r="C140" t="s">
         <v>603</v>
       </c>
-      <c r="B140" t="s">
-        <v>604</v>
-      </c>
-      <c r="C140" t="s">
-        <v>605</v>
-      </c>
       <c r="D140" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E140" t="s">
         <v>14</v>
@@ -8063,36 +8087,36 @@
         <v>15</v>
       </c>
       <c r="G140" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J140" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K140" t="s">
         <v>30</v>
       </c>
       <c r="L140" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="B141" t="s">
+        <v>605</v>
+      </c>
+      <c r="C141" t="s">
         <v>606</v>
       </c>
-      <c r="B141" t="s">
-        <v>607</v>
-      </c>
-      <c r="C141" t="s">
-        <v>608</v>
-      </c>
       <c r="D141" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E141" t="s">
         <v>14</v>
@@ -8101,1105 +8125,1105 @@
         <v>15</v>
       </c>
       <c r="G141" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J141" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K141" t="s">
         <v>30</v>
       </c>
       <c r="L141" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="B142" t="s">
+        <v>608</v>
+      </c>
+      <c r="C142" t="s">
         <v>609</v>
       </c>
-      <c r="B142" t="s">
+      <c r="D142" t="s">
+        <v>171</v>
+      </c>
+      <c r="E142" t="s">
+        <v>75</v>
+      </c>
+      <c r="F142" t="s">
+        <v>15</v>
+      </c>
+      <c r="G142" t="s">
         <v>610</v>
       </c>
-      <c r="C142" t="s">
+      <c r="H142" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="D142" t="s">
-        <v>173</v>
-      </c>
-      <c r="E142" t="s">
-        <v>77</v>
-      </c>
-      <c r="F142" t="s">
-        <v>15</v>
-      </c>
-      <c r="G142" t="s">
+      <c r="I142" s="1" t="s">
         <v>612</v>
-      </c>
-      <c r="H142" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="I142" s="1" t="s">
-        <v>614</v>
       </c>
       <c r="J142" t="s">
         <v>19</v>
       </c>
       <c r="K142" t="s">
+        <v>613</v>
+      </c>
+      <c r="L142" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="13" t="s">
         <v>615</v>
       </c>
-      <c r="L142" t="s">
+      <c r="B143" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="13" t="s">
+      <c r="C143" t="s">
         <v>617</v>
       </c>
-      <c r="B143" t="s">
+      <c r="D143" t="s">
+        <v>560</v>
+      </c>
+      <c r="E143" t="s">
+        <v>75</v>
+      </c>
+      <c r="F143" t="s">
+        <v>15</v>
+      </c>
+      <c r="G143" t="s">
+        <v>610</v>
+      </c>
+      <c r="H143" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="C143" t="s">
+      <c r="I143" s="1" t="s">
         <v>619</v>
-      </c>
-      <c r="D143" t="s">
-        <v>562</v>
-      </c>
-      <c r="E143" t="s">
-        <v>77</v>
-      </c>
-      <c r="F143" t="s">
-        <v>15</v>
-      </c>
-      <c r="G143" t="s">
-        <v>612</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="I143" s="1" t="s">
-        <v>621</v>
       </c>
       <c r="J143" t="s">
         <v>19</v>
       </c>
       <c r="K143" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="L143" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="13" t="s">
+        <v>620</v>
+      </c>
+      <c r="B144" t="s">
+        <v>621</v>
+      </c>
+      <c r="C144" t="s">
         <v>622</v>
       </c>
-      <c r="B144" t="s">
+      <c r="D144" t="s">
         <v>623</v>
       </c>
-      <c r="C144" t="s">
+      <c r="E144" t="s">
+        <v>75</v>
+      </c>
+      <c r="F144" t="s">
+        <v>15</v>
+      </c>
+      <c r="G144" t="s">
+        <v>562</v>
+      </c>
+      <c r="H144" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="D144" t="s">
+      <c r="I144" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="E144" t="s">
-        <v>77</v>
-      </c>
-      <c r="F144" t="s">
-        <v>15</v>
-      </c>
-      <c r="G144" t="s">
-        <v>564</v>
-      </c>
-      <c r="H144" s="1" t="s">
+      <c r="J144" t="s">
+        <v>79</v>
+      </c>
+      <c r="K144" t="s">
+        <v>613</v>
+      </c>
+      <c r="L144" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="13" t="s">
         <v>626</v>
       </c>
-      <c r="I144" s="1" t="s">
+      <c r="B145" t="s">
         <v>627</v>
       </c>
-      <c r="J144" t="s">
-        <v>81</v>
-      </c>
-      <c r="K144" t="s">
-        <v>615</v>
-      </c>
-      <c r="L144" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="13" t="s">
+      <c r="C145" t="s">
         <v>628</v>
       </c>
-      <c r="B145" t="s">
+      <c r="D145" t="s">
+        <v>560</v>
+      </c>
+      <c r="E145" t="s">
+        <v>320</v>
+      </c>
+      <c r="F145" t="s">
+        <v>15</v>
+      </c>
+      <c r="G145" t="s">
         <v>629</v>
       </c>
-      <c r="C145" t="s">
+      <c r="H145" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="D145" t="s">
-        <v>562</v>
-      </c>
-      <c r="E145" t="s">
-        <v>322</v>
-      </c>
-      <c r="F145" t="s">
-        <v>15</v>
-      </c>
-      <c r="G145" t="s">
+      <c r="I145" s="1" t="s">
         <v>631</v>
-      </c>
-      <c r="H145" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="I145" s="1" t="s">
-        <v>633</v>
       </c>
       <c r="J145" t="s">
         <v>19</v>
       </c>
       <c r="K145" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="L145" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="13" t="s">
+        <v>632</v>
+      </c>
+      <c r="B146" t="s">
+        <v>633</v>
+      </c>
+      <c r="C146" t="s">
         <v>634</v>
       </c>
-      <c r="B146" t="s">
+      <c r="D146" t="s">
+        <v>171</v>
+      </c>
+      <c r="E146" t="s">
+        <v>45</v>
+      </c>
+      <c r="F146" t="s">
+        <v>15</v>
+      </c>
+      <c r="G146" t="s">
         <v>635</v>
       </c>
-      <c r="C146" t="s">
+      <c r="H146" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="D146" t="s">
-        <v>173</v>
-      </c>
-      <c r="E146" t="s">
-        <v>46</v>
-      </c>
-      <c r="F146" t="s">
-        <v>15</v>
-      </c>
-      <c r="G146" t="s">
+      <c r="I146" s="1" t="s">
         <v>637</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="I146" s="1" t="s">
-        <v>639</v>
       </c>
       <c r="J146" t="s">
         <v>19</v>
       </c>
       <c r="K146" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="L146" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="B147" t="s">
+        <v>639</v>
+      </c>
+      <c r="C147" t="s">
         <v>640</v>
       </c>
-      <c r="B147" t="s">
+      <c r="D147" t="s">
+        <v>171</v>
+      </c>
+      <c r="E147" t="s">
+        <v>320</v>
+      </c>
+      <c r="F147" t="s">
+        <v>15</v>
+      </c>
+      <c r="G147" t="s">
+        <v>321</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="I147" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="C147" t="s">
+      <c r="J147" t="s">
+        <v>126</v>
+      </c>
+      <c r="K147" t="s">
+        <v>613</v>
+      </c>
+      <c r="L147" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="13" t="s">
         <v>642</v>
       </c>
-      <c r="D147" t="s">
-        <v>173</v>
-      </c>
-      <c r="E147" t="s">
+      <c r="B148" t="s">
+        <v>643</v>
+      </c>
+      <c r="C148" t="s">
+        <v>644</v>
+      </c>
+      <c r="D148" t="s">
+        <v>645</v>
+      </c>
+      <c r="E148" t="s">
+        <v>320</v>
+      </c>
+      <c r="F148" t="s">
+        <v>15</v>
+      </c>
+      <c r="G148" t="s